--- a/doc/alice/20180302后台财务更新.xlsx
+++ b/doc/alice/20180302后台财务更新.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28080" windowHeight="13200" firstSheet="5" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28080" windowHeight="13200" firstSheet="5" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet4" sheetId="4" state="hidden" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="290">
   <si>
     <t>收：</t>
   </si>
@@ -1150,6 +1150,14 @@
   </si>
   <si>
     <t>只能按每一次收支进行动态余额告知,按天无法统计,银行流水都做不到</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>上课总课次：888</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>课时实际收益：888</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
@@ -2374,6 +2382,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="20" fillId="6" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2383,32 +2412,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2419,15 +2439,78 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2437,76 +2520,97 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2536,122 +2640,26 @@
     <xf numFmtId="0" fontId="13" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="20" fillId="6" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" xfId="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2691,7 +2699,7 @@
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2744,7 +2752,7 @@
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2797,7 +2805,7 @@
         <xdr:cNvPr id="5" name="图片 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000005000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2845,7 +2853,7 @@
         <xdr:cNvPr id="6" name="图片 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000006000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3235,41 +3243,41 @@
       </c>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="126" t="s">
+      <c r="A10" s="134" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="126" t="s">
+      <c r="B10" s="134" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="130" t="s">
+      <c r="C10" s="136" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="131"/>
-      <c r="E10" s="132"/>
-      <c r="F10" s="130" t="s">
+      <c r="D10" s="127"/>
+      <c r="E10" s="128"/>
+      <c r="F10" s="136" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="131"/>
-      <c r="H10" s="132"/>
-      <c r="I10" s="130" t="s">
+      <c r="G10" s="127"/>
+      <c r="H10" s="128"/>
+      <c r="I10" s="136" t="s">
         <v>12</v>
       </c>
-      <c r="J10" s="131"/>
-      <c r="K10" s="132"/>
-      <c r="L10" s="131" t="s">
+      <c r="J10" s="127"/>
+      <c r="K10" s="128"/>
+      <c r="L10" s="127" t="s">
         <v>13</v>
       </c>
-      <c r="M10" s="131"/>
-      <c r="N10" s="132"/>
-      <c r="O10" s="128" t="s">
+      <c r="M10" s="127"/>
+      <c r="N10" s="128"/>
+      <c r="O10" s="129" t="s">
         <v>14</v>
       </c>
-      <c r="P10" s="128"/>
-      <c r="Q10" s="128"/>
+      <c r="P10" s="129"/>
+      <c r="Q10" s="129"/>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="127"/>
-      <c r="B11" s="127"/>
+      <c r="A11" s="135"/>
+      <c r="B11" s="135"/>
       <c r="C11" s="5" t="s">
         <v>15</v>
       </c>
@@ -3317,7 +3325,7 @@
       </c>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="128" t="s">
+      <c r="A12" s="129" t="s">
         <v>18</v>
       </c>
       <c r="B12" s="5">
@@ -3367,7 +3375,7 @@
       </c>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="128"/>
+      <c r="A13" s="129"/>
       <c r="B13" s="5">
         <v>88</v>
       </c>
@@ -3415,7 +3423,7 @@
       </c>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="128"/>
+      <c r="A14" s="129"/>
       <c r="B14" s="5">
         <v>100</v>
       </c>
@@ -3463,7 +3471,7 @@
       </c>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="128"/>
+      <c r="A15" s="129"/>
       <c r="B15" s="5" t="s">
         <v>19</v>
       </c>
@@ -3520,7 +3528,7 @@
       </c>
     </row>
     <row r="16" spans="1:17" hidden="1">
-      <c r="A16" s="126" t="s">
+      <c r="A16" s="134" t="s">
         <v>20</v>
       </c>
       <c r="B16" s="5">
@@ -3567,7 +3575,7 @@
       <c r="Q16" s="40"/>
     </row>
     <row r="17" spans="1:17" hidden="1">
-      <c r="A17" s="127"/>
+      <c r="A17" s="135"/>
       <c r="B17" s="5" t="s">
         <v>19</v>
       </c>
@@ -3621,7 +3629,7 @@
       <c r="Q17" s="40"/>
     </row>
     <row r="18" spans="1:17">
-      <c r="A18" s="128" t="s">
+      <c r="A18" s="129" t="s">
         <v>21</v>
       </c>
       <c r="B18" s="5">
@@ -3674,7 +3682,7 @@
       </c>
     </row>
     <row r="19" spans="1:17">
-      <c r="A19" s="128"/>
+      <c r="A19" s="129"/>
       <c r="B19" s="5">
         <v>180</v>
       </c>
@@ -3725,7 +3733,7 @@
       </c>
     </row>
     <row r="20" spans="1:17">
-      <c r="A20" s="128"/>
+      <c r="A20" s="129"/>
       <c r="B20" s="5">
         <v>240</v>
       </c>
@@ -3776,7 +3784,7 @@
       </c>
     </row>
     <row r="21" spans="1:17">
-      <c r="A21" s="128"/>
+      <c r="A21" s="129"/>
       <c r="B21" s="5" t="s">
         <v>19</v>
       </c>
@@ -3925,16 +3933,16 @@
       <c r="C46" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D46" s="129" t="s">
+      <c r="D46" s="133" t="s">
         <v>37</v>
       </c>
-      <c r="E46" s="129"/>
-      <c r="F46" s="129"/>
-      <c r="G46" s="129"/>
-      <c r="H46" s="129"/>
-      <c r="I46" s="129"/>
-      <c r="J46" s="129"/>
-      <c r="K46" s="129"/>
+      <c r="E46" s="133"/>
+      <c r="F46" s="133"/>
+      <c r="G46" s="133"/>
+      <c r="H46" s="133"/>
+      <c r="I46" s="133"/>
+      <c r="J46" s="133"/>
+      <c r="K46" s="133"/>
       <c r="L46" t="s">
         <v>38</v>
       </c>
@@ -3950,16 +3958,16 @@
       <c r="C47" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D47" s="123" t="s">
+      <c r="D47" s="130" t="s">
         <v>41</v>
       </c>
-      <c r="E47" s="124"/>
-      <c r="F47" s="124"/>
-      <c r="G47" s="124"/>
-      <c r="H47" s="124"/>
-      <c r="I47" s="124"/>
-      <c r="J47" s="124"/>
-      <c r="K47" s="125"/>
+      <c r="E47" s="131"/>
+      <c r="F47" s="131"/>
+      <c r="G47" s="131"/>
+      <c r="H47" s="131"/>
+      <c r="I47" s="131"/>
+      <c r="J47" s="131"/>
+      <c r="K47" s="132"/>
       <c r="L47" t="s">
         <v>42</v>
       </c>
@@ -3975,16 +3983,16 @@
       <c r="C48" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D48" s="123" t="s">
+      <c r="D48" s="130" t="s">
         <v>44</v>
       </c>
-      <c r="E48" s="124"/>
-      <c r="F48" s="124"/>
-      <c r="G48" s="124"/>
-      <c r="H48" s="124"/>
-      <c r="I48" s="124"/>
-      <c r="J48" s="124"/>
-      <c r="K48" s="125"/>
+      <c r="E48" s="131"/>
+      <c r="F48" s="131"/>
+      <c r="G48" s="131"/>
+      <c r="H48" s="131"/>
+      <c r="I48" s="131"/>
+      <c r="J48" s="131"/>
+      <c r="K48" s="132"/>
       <c r="L48" t="s">
         <v>45</v>
       </c>
@@ -4020,16 +4028,16 @@
       <c r="C51" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D51" s="129" t="s">
+      <c r="D51" s="133" t="s">
         <v>49</v>
       </c>
-      <c r="E51" s="129"/>
-      <c r="F51" s="129"/>
-      <c r="G51" s="129"/>
-      <c r="H51" s="129"/>
-      <c r="I51" s="129"/>
-      <c r="J51" s="129"/>
-      <c r="K51" s="129"/>
+      <c r="E51" s="133"/>
+      <c r="F51" s="133"/>
+      <c r="G51" s="133"/>
+      <c r="H51" s="133"/>
+      <c r="I51" s="133"/>
+      <c r="J51" s="133"/>
+      <c r="K51" s="133"/>
       <c r="L51" t="s">
         <v>50</v>
       </c>
@@ -4044,16 +4052,16 @@
       <c r="C52" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D52" s="123" t="s">
+      <c r="D52" s="130" t="s">
         <v>51</v>
       </c>
-      <c r="E52" s="124"/>
-      <c r="F52" s="124"/>
-      <c r="G52" s="124"/>
-      <c r="H52" s="124"/>
-      <c r="I52" s="124"/>
-      <c r="J52" s="124"/>
-      <c r="K52" s="125"/>
+      <c r="E52" s="131"/>
+      <c r="F52" s="131"/>
+      <c r="G52" s="131"/>
+      <c r="H52" s="131"/>
+      <c r="I52" s="131"/>
+      <c r="J52" s="131"/>
+      <c r="K52" s="132"/>
       <c r="L52" t="s">
         <v>52</v>
       </c>
@@ -4068,16 +4076,16 @@
       <c r="C53" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D53" s="123" t="s">
+      <c r="D53" s="130" t="s">
         <v>53</v>
       </c>
-      <c r="E53" s="124"/>
-      <c r="F53" s="124"/>
-      <c r="G53" s="124"/>
-      <c r="H53" s="124"/>
-      <c r="I53" s="124"/>
-      <c r="J53" s="124"/>
-      <c r="K53" s="125"/>
+      <c r="E53" s="131"/>
+      <c r="F53" s="131"/>
+      <c r="G53" s="131"/>
+      <c r="H53" s="131"/>
+      <c r="I53" s="131"/>
+      <c r="J53" s="131"/>
+      <c r="K53" s="132"/>
       <c r="L53" t="s">
         <v>54</v>
       </c>
@@ -4122,16 +4130,16 @@
       <c r="C56" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D56" s="129" t="s">
+      <c r="D56" s="133" t="s">
         <v>57</v>
       </c>
-      <c r="E56" s="129"/>
-      <c r="F56" s="129"/>
-      <c r="G56" s="129"/>
-      <c r="H56" s="129"/>
-      <c r="I56" s="129"/>
-      <c r="J56" s="129"/>
-      <c r="K56" s="129"/>
+      <c r="E56" s="133"/>
+      <c r="F56" s="133"/>
+      <c r="G56" s="133"/>
+      <c r="H56" s="133"/>
+      <c r="I56" s="133"/>
+      <c r="J56" s="133"/>
+      <c r="K56" s="133"/>
       <c r="L56" t="s">
         <v>58</v>
       </c>
@@ -4146,16 +4154,16 @@
       <c r="C57" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D57" s="123" t="s">
+      <c r="D57" s="130" t="s">
         <v>51</v>
       </c>
-      <c r="E57" s="124"/>
-      <c r="F57" s="124"/>
-      <c r="G57" s="124"/>
-      <c r="H57" s="124"/>
-      <c r="I57" s="124"/>
-      <c r="J57" s="124"/>
-      <c r="K57" s="125"/>
+      <c r="E57" s="131"/>
+      <c r="F57" s="131"/>
+      <c r="G57" s="131"/>
+      <c r="H57" s="131"/>
+      <c r="I57" s="131"/>
+      <c r="J57" s="131"/>
+      <c r="K57" s="132"/>
       <c r="L57" t="s">
         <v>52</v>
       </c>
@@ -4170,16 +4178,16 @@
       <c r="C58" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D58" s="123" t="s">
+      <c r="D58" s="130" t="s">
         <v>53</v>
       </c>
-      <c r="E58" s="124"/>
-      <c r="F58" s="124"/>
-      <c r="G58" s="124"/>
-      <c r="H58" s="124"/>
-      <c r="I58" s="124"/>
-      <c r="J58" s="124"/>
-      <c r="K58" s="125"/>
+      <c r="E58" s="131"/>
+      <c r="F58" s="131"/>
+      <c r="G58" s="131"/>
+      <c r="H58" s="131"/>
+      <c r="I58" s="131"/>
+      <c r="J58" s="131"/>
+      <c r="K58" s="132"/>
       <c r="L58" t="s">
         <v>54</v>
       </c>
@@ -4206,11 +4214,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="L10:N10"/>
-    <mergeCell ref="O10:Q10"/>
-    <mergeCell ref="D53:K53"/>
-    <mergeCell ref="D56:K56"/>
-    <mergeCell ref="D57:K57"/>
     <mergeCell ref="D58:K58"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A12:A15"/>
@@ -4225,6 +4228,11 @@
     <mergeCell ref="C10:E10"/>
     <mergeCell ref="F10:H10"/>
     <mergeCell ref="I10:K10"/>
+    <mergeCell ref="L10:N10"/>
+    <mergeCell ref="O10:Q10"/>
+    <mergeCell ref="D53:K53"/>
+    <mergeCell ref="D56:K56"/>
+    <mergeCell ref="D57:K57"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
@@ -4288,16 +4296,16 @@
       <c r="C20" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D20" s="129" t="s">
+      <c r="D20" s="133" t="s">
         <v>37</v>
       </c>
-      <c r="E20" s="129"/>
-      <c r="F20" s="129"/>
-      <c r="G20" s="129"/>
-      <c r="H20" s="129"/>
-      <c r="I20" s="129"/>
-      <c r="J20" s="129"/>
-      <c r="K20" s="129"/>
+      <c r="E20" s="133"/>
+      <c r="F20" s="133"/>
+      <c r="G20" s="133"/>
+      <c r="H20" s="133"/>
+      <c r="I20" s="133"/>
+      <c r="J20" s="133"/>
+      <c r="K20" s="133"/>
       <c r="T20" s="13"/>
     </row>
     <row r="21" spans="1:20">
@@ -4310,16 +4318,16 @@
       <c r="C21" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D21" s="123" t="s">
+      <c r="D21" s="130" t="s">
         <v>41</v>
       </c>
-      <c r="E21" s="124"/>
-      <c r="F21" s="124"/>
-      <c r="G21" s="124"/>
-      <c r="H21" s="124"/>
-      <c r="I21" s="124"/>
-      <c r="J21" s="124"/>
-      <c r="K21" s="125"/>
+      <c r="E21" s="131"/>
+      <c r="F21" s="131"/>
+      <c r="G21" s="131"/>
+      <c r="H21" s="131"/>
+      <c r="I21" s="131"/>
+      <c r="J21" s="131"/>
+      <c r="K21" s="132"/>
       <c r="T21" s="13"/>
     </row>
     <row r="22" spans="1:20">
@@ -4332,16 +4340,16 @@
       <c r="C22" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D22" s="123" t="s">
+      <c r="D22" s="130" t="s">
         <v>44</v>
       </c>
-      <c r="E22" s="124"/>
-      <c r="F22" s="124"/>
-      <c r="G22" s="124"/>
-      <c r="H22" s="124"/>
-      <c r="I22" s="124"/>
-      <c r="J22" s="124"/>
-      <c r="K22" s="125"/>
+      <c r="E22" s="131"/>
+      <c r="F22" s="131"/>
+      <c r="G22" s="131"/>
+      <c r="H22" s="131"/>
+      <c r="I22" s="131"/>
+      <c r="J22" s="131"/>
+      <c r="K22" s="132"/>
       <c r="T22" s="13"/>
     </row>
     <row r="24" spans="1:20">
@@ -4374,16 +4382,16 @@
       <c r="C25" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D25" s="129" t="s">
+      <c r="D25" s="133" t="s">
         <v>49</v>
       </c>
-      <c r="E25" s="129"/>
-      <c r="F25" s="129"/>
-      <c r="G25" s="129"/>
-      <c r="H25" s="129"/>
-      <c r="I25" s="129"/>
-      <c r="J25" s="129"/>
-      <c r="K25" s="129"/>
+      <c r="E25" s="133"/>
+      <c r="F25" s="133"/>
+      <c r="G25" s="133"/>
+      <c r="H25" s="133"/>
+      <c r="I25" s="133"/>
+      <c r="J25" s="133"/>
+      <c r="K25" s="133"/>
     </row>
     <row r="26" spans="1:20">
       <c r="A26" s="4" t="s">
@@ -4395,16 +4403,16 @@
       <c r="C26" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D26" s="123" t="s">
+      <c r="D26" s="130" t="s">
         <v>51</v>
       </c>
-      <c r="E26" s="124"/>
-      <c r="F26" s="124"/>
-      <c r="G26" s="124"/>
-      <c r="H26" s="124"/>
-      <c r="I26" s="124"/>
-      <c r="J26" s="124"/>
-      <c r="K26" s="125"/>
+      <c r="E26" s="131"/>
+      <c r="F26" s="131"/>
+      <c r="G26" s="131"/>
+      <c r="H26" s="131"/>
+      <c r="I26" s="131"/>
+      <c r="J26" s="131"/>
+      <c r="K26" s="132"/>
     </row>
     <row r="27" spans="1:20">
       <c r="A27" s="4" t="s">
@@ -4416,16 +4424,16 @@
       <c r="C27" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D27" s="123" t="s">
+      <c r="D27" s="130" t="s">
         <v>53</v>
       </c>
-      <c r="E27" s="124"/>
-      <c r="F27" s="124"/>
-      <c r="G27" s="124"/>
-      <c r="H27" s="124"/>
-      <c r="I27" s="124"/>
-      <c r="J27" s="124"/>
-      <c r="K27" s="125"/>
+      <c r="E27" s="131"/>
+      <c r="F27" s="131"/>
+      <c r="G27" s="131"/>
+      <c r="H27" s="131"/>
+      <c r="I27" s="131"/>
+      <c r="J27" s="131"/>
+      <c r="K27" s="132"/>
     </row>
     <row r="28" spans="1:20">
       <c r="C28" s="9"/>
@@ -4467,16 +4475,16 @@
       <c r="C30" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D30" s="129" t="s">
+      <c r="D30" s="133" t="s">
         <v>57</v>
       </c>
-      <c r="E30" s="129"/>
-      <c r="F30" s="129"/>
-      <c r="G30" s="129"/>
-      <c r="H30" s="129"/>
-      <c r="I30" s="129"/>
-      <c r="J30" s="129"/>
-      <c r="K30" s="129"/>
+      <c r="E30" s="133"/>
+      <c r="F30" s="133"/>
+      <c r="G30" s="133"/>
+      <c r="H30" s="133"/>
+      <c r="I30" s="133"/>
+      <c r="J30" s="133"/>
+      <c r="K30" s="133"/>
     </row>
     <row r="31" spans="1:20">
       <c r="A31" s="4" t="s">
@@ -4488,16 +4496,16 @@
       <c r="C31" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D31" s="123" t="s">
+      <c r="D31" s="130" t="s">
         <v>51</v>
       </c>
-      <c r="E31" s="124"/>
-      <c r="F31" s="124"/>
-      <c r="G31" s="124"/>
-      <c r="H31" s="124"/>
-      <c r="I31" s="124"/>
-      <c r="J31" s="124"/>
-      <c r="K31" s="125"/>
+      <c r="E31" s="131"/>
+      <c r="F31" s="131"/>
+      <c r="G31" s="131"/>
+      <c r="H31" s="131"/>
+      <c r="I31" s="131"/>
+      <c r="J31" s="131"/>
+      <c r="K31" s="132"/>
     </row>
     <row r="32" spans="1:20">
       <c r="A32" s="4" t="s">
@@ -4509,16 +4517,16 @@
       <c r="C32" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D32" s="123" t="s">
+      <c r="D32" s="130" t="s">
         <v>53</v>
       </c>
-      <c r="E32" s="124"/>
-      <c r="F32" s="124"/>
-      <c r="G32" s="124"/>
-      <c r="H32" s="124"/>
-      <c r="I32" s="124"/>
-      <c r="J32" s="124"/>
-      <c r="K32" s="125"/>
+      <c r="E32" s="131"/>
+      <c r="F32" s="131"/>
+      <c r="G32" s="131"/>
+      <c r="H32" s="131"/>
+      <c r="I32" s="131"/>
+      <c r="J32" s="131"/>
+      <c r="K32" s="132"/>
     </row>
     <row r="33" spans="1:20">
       <c r="A33" t="s">
@@ -4628,29 +4636,29 @@
       <c r="C49" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="D49" s="129" t="s">
+      <c r="D49" s="133" t="s">
         <v>79</v>
       </c>
-      <c r="E49" s="129"/>
-      <c r="F49" s="129"/>
-      <c r="G49" s="129"/>
-      <c r="H49" s="129"/>
-      <c r="I49" s="129"/>
-      <c r="J49" s="129"/>
-      <c r="K49" s="139"/>
+      <c r="E49" s="133"/>
+      <c r="F49" s="133"/>
+      <c r="G49" s="133"/>
+      <c r="H49" s="133"/>
+      <c r="I49" s="133"/>
+      <c r="J49" s="133"/>
+      <c r="K49" s="137"/>
       <c r="T49" s="13"/>
     </row>
     <row r="50" spans="1:20">
       <c r="A50" s="26"/>
       <c r="B50" s="4"/>
       <c r="C50" s="5"/>
-      <c r="D50" s="123"/>
-      <c r="E50" s="124"/>
-      <c r="F50" s="124"/>
-      <c r="G50" s="124"/>
-      <c r="H50" s="124"/>
-      <c r="I50" s="124"/>
-      <c r="J50" s="124"/>
+      <c r="D50" s="130"/>
+      <c r="E50" s="131"/>
+      <c r="F50" s="131"/>
+      <c r="G50" s="131"/>
+      <c r="H50" s="131"/>
+      <c r="I50" s="131"/>
+      <c r="J50" s="131"/>
       <c r="K50" s="138"/>
       <c r="L50" t="s">
         <v>80</v>
@@ -4661,13 +4669,13 @@
       <c r="A51" s="26"/>
       <c r="B51" s="4"/>
       <c r="C51" s="5"/>
-      <c r="D51" s="123"/>
-      <c r="E51" s="124"/>
-      <c r="F51" s="124"/>
-      <c r="G51" s="124"/>
-      <c r="H51" s="124"/>
-      <c r="I51" s="124"/>
-      <c r="J51" s="124"/>
+      <c r="D51" s="130"/>
+      <c r="E51" s="131"/>
+      <c r="F51" s="131"/>
+      <c r="G51" s="131"/>
+      <c r="H51" s="131"/>
+      <c r="I51" s="131"/>
+      <c r="J51" s="131"/>
       <c r="K51" s="138"/>
       <c r="T51" s="13"/>
     </row>
@@ -4713,31 +4721,31 @@
       <c r="B54" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C54" s="135" t="s">
+      <c r="C54" s="139" t="s">
         <v>82</v>
       </c>
-      <c r="D54" s="136"/>
-      <c r="E54" s="136"/>
-      <c r="F54" s="136"/>
-      <c r="G54" s="136"/>
-      <c r="H54" s="136"/>
-      <c r="I54" s="136"/>
-      <c r="J54" s="136"/>
-      <c r="K54" s="137"/>
+      <c r="D54" s="140"/>
+      <c r="E54" s="140"/>
+      <c r="F54" s="140"/>
+      <c r="G54" s="140"/>
+      <c r="H54" s="140"/>
+      <c r="I54" s="140"/>
+      <c r="J54" s="140"/>
+      <c r="K54" s="141"/>
       <c r="T54" s="37"/>
     </row>
     <row r="55" spans="1:20">
       <c r="A55" s="26"/>
       <c r="B55" s="4"/>
-      <c r="C55" s="135"/>
-      <c r="D55" s="136"/>
-      <c r="E55" s="136"/>
-      <c r="F55" s="136"/>
-      <c r="G55" s="136"/>
-      <c r="H55" s="136"/>
-      <c r="I55" s="136"/>
-      <c r="J55" s="136"/>
-      <c r="K55" s="137"/>
+      <c r="C55" s="139"/>
+      <c r="D55" s="140"/>
+      <c r="E55" s="140"/>
+      <c r="F55" s="140"/>
+      <c r="G55" s="140"/>
+      <c r="H55" s="140"/>
+      <c r="I55" s="140"/>
+      <c r="J55" s="140"/>
+      <c r="K55" s="141"/>
       <c r="L55" t="s">
         <v>83</v>
       </c>
@@ -4746,15 +4754,15 @@
     <row r="56" spans="1:20">
       <c r="A56" s="26"/>
       <c r="B56" s="4"/>
-      <c r="C56" s="135"/>
-      <c r="D56" s="136"/>
-      <c r="E56" s="136"/>
-      <c r="F56" s="136"/>
-      <c r="G56" s="136"/>
-      <c r="H56" s="136"/>
-      <c r="I56" s="136"/>
-      <c r="J56" s="136"/>
-      <c r="K56" s="137"/>
+      <c r="C56" s="139"/>
+      <c r="D56" s="140"/>
+      <c r="E56" s="140"/>
+      <c r="F56" s="140"/>
+      <c r="G56" s="140"/>
+      <c r="H56" s="140"/>
+      <c r="I56" s="140"/>
+      <c r="J56" s="140"/>
+      <c r="K56" s="141"/>
       <c r="T56" s="37"/>
     </row>
     <row r="57" spans="1:20">
@@ -4774,45 +4782,45 @@
       <c r="B59" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="C59" s="135" t="s">
+      <c r="C59" s="139" t="s">
         <v>82</v>
       </c>
-      <c r="D59" s="136"/>
-      <c r="E59" s="136"/>
-      <c r="F59" s="136"/>
-      <c r="G59" s="136"/>
-      <c r="H59" s="136"/>
-      <c r="I59" s="136"/>
-      <c r="J59" s="136"/>
-      <c r="K59" s="137"/>
+      <c r="D59" s="140"/>
+      <c r="E59" s="140"/>
+      <c r="F59" s="140"/>
+      <c r="G59" s="140"/>
+      <c r="H59" s="140"/>
+      <c r="I59" s="140"/>
+      <c r="J59" s="140"/>
+      <c r="K59" s="141"/>
       <c r="T59" s="13"/>
     </row>
     <row r="60" spans="1:20">
       <c r="A60" s="26"/>
       <c r="B60" s="4"/>
-      <c r="C60" s="135"/>
-      <c r="D60" s="136"/>
-      <c r="E60" s="136"/>
-      <c r="F60" s="136"/>
-      <c r="G60" s="136"/>
-      <c r="H60" s="136"/>
-      <c r="I60" s="136"/>
-      <c r="J60" s="136"/>
-      <c r="K60" s="137"/>
+      <c r="C60" s="139"/>
+      <c r="D60" s="140"/>
+      <c r="E60" s="140"/>
+      <c r="F60" s="140"/>
+      <c r="G60" s="140"/>
+      <c r="H60" s="140"/>
+      <c r="I60" s="140"/>
+      <c r="J60" s="140"/>
+      <c r="K60" s="141"/>
       <c r="T60" s="13"/>
     </row>
     <row r="61" spans="1:20">
       <c r="A61" s="26"/>
       <c r="B61" s="4"/>
-      <c r="C61" s="135"/>
-      <c r="D61" s="136"/>
-      <c r="E61" s="136"/>
-      <c r="F61" s="136"/>
-      <c r="G61" s="136"/>
-      <c r="H61" s="136"/>
-      <c r="I61" s="136"/>
-      <c r="J61" s="136"/>
-      <c r="K61" s="137"/>
+      <c r="C61" s="139"/>
+      <c r="D61" s="140"/>
+      <c r="E61" s="140"/>
+      <c r="F61" s="140"/>
+      <c r="G61" s="140"/>
+      <c r="H61" s="140"/>
+      <c r="I61" s="140"/>
+      <c r="J61" s="140"/>
+      <c r="K61" s="141"/>
       <c r="T61" s="13"/>
     </row>
     <row r="62" spans="1:20">
@@ -4832,49 +4840,49 @@
       <c r="B64" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C64" s="128" t="s">
+      <c r="C64" s="129" t="s">
         <v>90</v>
       </c>
-      <c r="D64" s="128"/>
-      <c r="E64" s="128" t="s">
+      <c r="D64" s="129"/>
+      <c r="E64" s="129" t="s">
         <v>91</v>
       </c>
-      <c r="F64" s="128"/>
-      <c r="G64" s="133" t="s">
+      <c r="F64" s="129"/>
+      <c r="G64" s="142" t="s">
         <v>92</v>
       </c>
-      <c r="H64" s="132"/>
-      <c r="I64" s="133" t="s">
+      <c r="H64" s="128"/>
+      <c r="I64" s="142" t="s">
         <v>93</v>
       </c>
-      <c r="J64" s="131"/>
-      <c r="K64" s="134"/>
+      <c r="J64" s="127"/>
+      <c r="K64" s="143"/>
     </row>
     <row r="65" spans="1:11">
       <c r="A65" s="26"/>
       <c r="B65" s="4"/>
-      <c r="C65" s="128"/>
-      <c r="D65" s="128"/>
-      <c r="E65" s="128"/>
-      <c r="F65" s="128"/>
-      <c r="G65" s="133"/>
-      <c r="H65" s="132"/>
-      <c r="I65" s="133"/>
-      <c r="J65" s="131"/>
-      <c r="K65" s="134"/>
+      <c r="C65" s="129"/>
+      <c r="D65" s="129"/>
+      <c r="E65" s="129"/>
+      <c r="F65" s="129"/>
+      <c r="G65" s="142"/>
+      <c r="H65" s="128"/>
+      <c r="I65" s="142"/>
+      <c r="J65" s="127"/>
+      <c r="K65" s="143"/>
     </row>
     <row r="66" spans="1:11">
       <c r="A66" s="26"/>
       <c r="B66" s="4"/>
-      <c r="C66" s="128"/>
-      <c r="D66" s="128"/>
-      <c r="E66" s="128"/>
-      <c r="F66" s="128"/>
-      <c r="G66" s="133"/>
-      <c r="H66" s="132"/>
-      <c r="I66" s="133"/>
-      <c r="J66" s="131"/>
-      <c r="K66" s="134"/>
+      <c r="C66" s="129"/>
+      <c r="D66" s="129"/>
+      <c r="E66" s="129"/>
+      <c r="F66" s="129"/>
+      <c r="G66" s="142"/>
+      <c r="H66" s="128"/>
+      <c r="I66" s="142"/>
+      <c r="J66" s="127"/>
+      <c r="K66" s="143"/>
     </row>
     <row r="67" spans="1:11">
       <c r="A67" s="22"/>
@@ -4895,28 +4903,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="D20:K20"/>
-    <mergeCell ref="D21:K21"/>
-    <mergeCell ref="D22:K22"/>
-    <mergeCell ref="D25:K25"/>
-    <mergeCell ref="D26:K26"/>
-    <mergeCell ref="D27:K27"/>
-    <mergeCell ref="D30:K30"/>
-    <mergeCell ref="D31:K31"/>
-    <mergeCell ref="D32:K32"/>
-    <mergeCell ref="D49:K49"/>
-    <mergeCell ref="D50:K50"/>
-    <mergeCell ref="D51:K51"/>
-    <mergeCell ref="C54:K54"/>
-    <mergeCell ref="C55:K55"/>
-    <mergeCell ref="C56:K56"/>
-    <mergeCell ref="C59:K59"/>
-    <mergeCell ref="C60:K60"/>
-    <mergeCell ref="C61:K61"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="E64:F64"/>
-    <mergeCell ref="G64:H64"/>
-    <mergeCell ref="I64:K64"/>
     <mergeCell ref="C65:D65"/>
     <mergeCell ref="E65:F65"/>
     <mergeCell ref="G65:H65"/>
@@ -4925,6 +4911,28 @@
     <mergeCell ref="E66:F66"/>
     <mergeCell ref="G66:H66"/>
     <mergeCell ref="I66:K66"/>
+    <mergeCell ref="C59:K59"/>
+    <mergeCell ref="C60:K60"/>
+    <mergeCell ref="C61:K61"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="G64:H64"/>
+    <mergeCell ref="I64:K64"/>
+    <mergeCell ref="D50:K50"/>
+    <mergeCell ref="D51:K51"/>
+    <mergeCell ref="C54:K54"/>
+    <mergeCell ref="C55:K55"/>
+    <mergeCell ref="C56:K56"/>
+    <mergeCell ref="D27:K27"/>
+    <mergeCell ref="D30:K30"/>
+    <mergeCell ref="D31:K31"/>
+    <mergeCell ref="D32:K32"/>
+    <mergeCell ref="D49:K49"/>
+    <mergeCell ref="D20:K20"/>
+    <mergeCell ref="D21:K21"/>
+    <mergeCell ref="D22:K22"/>
+    <mergeCell ref="D25:K25"/>
+    <mergeCell ref="D26:K26"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
@@ -4956,41 +4964,41 @@
       </c>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="126" t="s">
+      <c r="A3" s="134" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="126" t="s">
+      <c r="B3" s="134" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="130" t="s">
+      <c r="C3" s="136" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="131"/>
-      <c r="E3" s="132"/>
-      <c r="F3" s="130" t="s">
+      <c r="D3" s="127"/>
+      <c r="E3" s="128"/>
+      <c r="F3" s="136" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="131"/>
-      <c r="H3" s="132"/>
-      <c r="I3" s="130" t="s">
+      <c r="G3" s="127"/>
+      <c r="H3" s="128"/>
+      <c r="I3" s="136" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="131"/>
-      <c r="K3" s="132"/>
-      <c r="L3" s="131" t="s">
+      <c r="J3" s="127"/>
+      <c r="K3" s="128"/>
+      <c r="L3" s="127" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="131"/>
-      <c r="N3" s="132"/>
-      <c r="O3" s="128" t="s">
+      <c r="M3" s="127"/>
+      <c r="N3" s="128"/>
+      <c r="O3" s="129" t="s">
         <v>14</v>
       </c>
-      <c r="P3" s="128"/>
-      <c r="Q3" s="128"/>
+      <c r="P3" s="129"/>
+      <c r="Q3" s="129"/>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="127"/>
-      <c r="B4" s="127"/>
+      <c r="A4" s="135"/>
+      <c r="B4" s="135"/>
       <c r="C4" s="5" t="s">
         <v>15</v>
       </c>
@@ -5038,7 +5046,7 @@
       </c>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="128" t="s">
+      <c r="A5" s="129" t="s">
         <v>18</v>
       </c>
       <c r="B5" s="5">
@@ -5088,7 +5096,7 @@
       </c>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="128"/>
+      <c r="A6" s="129"/>
       <c r="B6" s="5">
         <v>88</v>
       </c>
@@ -5136,7 +5144,7 @@
       </c>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="128"/>
+      <c r="A7" s="129"/>
       <c r="B7" s="5">
         <v>100</v>
       </c>
@@ -5184,7 +5192,7 @@
       </c>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="128"/>
+      <c r="A8" s="129"/>
       <c r="B8" s="5" t="s">
         <v>19</v>
       </c>
@@ -5241,7 +5249,7 @@
       </c>
     </row>
     <row r="9" spans="1:17" hidden="1">
-      <c r="A9" s="126" t="s">
+      <c r="A9" s="134" t="s">
         <v>20</v>
       </c>
       <c r="B9" s="5">
@@ -5288,7 +5296,7 @@
       <c r="Q9" s="40"/>
     </row>
     <row r="10" spans="1:17" hidden="1">
-      <c r="A10" s="127"/>
+      <c r="A10" s="135"/>
       <c r="B10" s="5" t="s">
         <v>19</v>
       </c>
@@ -5342,7 +5350,7 @@
       <c r="Q10" s="40"/>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="128" t="s">
+      <c r="A11" s="129" t="s">
         <v>21</v>
       </c>
       <c r="B11" s="5">
@@ -5395,7 +5403,7 @@
       </c>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="128"/>
+      <c r="A12" s="129"/>
       <c r="B12" s="5">
         <v>180</v>
       </c>
@@ -5446,7 +5454,7 @@
       </c>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="128"/>
+      <c r="A13" s="129"/>
       <c r="B13" s="5">
         <v>240</v>
       </c>
@@ -5497,7 +5505,7 @@
       </c>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="128"/>
+      <c r="A14" s="129"/>
       <c r="B14" s="5" t="s">
         <v>19</v>
       </c>
@@ -5602,7 +5610,7 @@
       <c r="L20" s="39"/>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="128" t="s">
+      <c r="A21" s="129" t="s">
         <v>18</v>
       </c>
       <c r="B21" s="5">
@@ -5633,7 +5641,7 @@
       <c r="L21" s="34"/>
     </row>
     <row r="22" spans="1:12">
-      <c r="A22" s="128"/>
+      <c r="A22" s="129"/>
       <c r="B22" s="5">
         <v>88</v>
       </c>
@@ -5662,7 +5670,7 @@
       <c r="L22" s="34"/>
     </row>
     <row r="23" spans="1:12">
-      <c r="A23" s="128"/>
+      <c r="A23" s="129"/>
       <c r="B23" s="5">
         <v>100</v>
       </c>
@@ -5691,7 +5699,7 @@
       <c r="L23" s="34"/>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24" s="128"/>
+      <c r="A24" s="129"/>
       <c r="B24" s="5" t="s">
         <v>19</v>
       </c>
@@ -5913,29 +5921,29 @@
         <v>123</v>
       </c>
       <c r="O15" s="9"/>
-      <c r="P15" s="128" t="s">
+      <c r="P15" s="129" t="s">
         <v>107</v>
       </c>
-      <c r="Q15" s="128" t="s">
+      <c r="Q15" s="129" t="s">
         <v>109</v>
       </c>
-      <c r="R15" s="128" t="s">
+      <c r="R15" s="129" t="s">
         <v>124</v>
       </c>
-      <c r="S15" s="128"/>
-      <c r="T15" s="128" t="s">
+      <c r="S15" s="129"/>
+      <c r="T15" s="129" t="s">
         <v>125</v>
       </c>
-      <c r="U15" s="128"/>
-      <c r="V15" s="128"/>
+      <c r="U15" s="129"/>
+      <c r="V15" s="129"/>
     </row>
     <row r="16" spans="1:22">
       <c r="A16" t="s">
         <v>126</v>
       </c>
       <c r="O16" s="9"/>
-      <c r="P16" s="140"/>
-      <c r="Q16" s="140"/>
+      <c r="P16" s="144"/>
+      <c r="Q16" s="144"/>
       <c r="R16" s="5" t="s">
         <v>113</v>
       </c>
@@ -6046,17 +6054,17 @@
       <c r="Q21" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="R21" s="128">
+      <c r="R21" s="129">
         <f>SUM(R17:S18)</f>
         <v>1500</v>
       </c>
-      <c r="S21" s="128"/>
-      <c r="T21" s="133">
+      <c r="S21" s="129"/>
+      <c r="T21" s="142">
         <f>SUM(T17:V20)</f>
         <v>1500</v>
       </c>
-      <c r="U21" s="131"/>
-      <c r="V21" s="132"/>
+      <c r="U21" s="127"/>
+      <c r="V21" s="128"/>
     </row>
     <row r="22" spans="1:22">
       <c r="A22" t="s">
@@ -6325,8 +6333,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S30"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="S19" sqref="S19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6348,30 +6356,30 @@
       <c r="A3" s="3"/>
     </row>
     <row r="4" spans="1:10" ht="18.75" customHeight="1">
-      <c r="A4" s="141" t="s">
+      <c r="A4" s="166" t="s">
         <v>159</v>
       </c>
-      <c r="B4" s="141" t="s">
+      <c r="B4" s="166" t="s">
         <v>125</v>
       </c>
-      <c r="C4" s="147" t="s">
+      <c r="C4" s="170" t="s">
         <v>124</v>
       </c>
-      <c r="D4" s="148"/>
-      <c r="E4" s="141" t="s">
+      <c r="D4" s="171"/>
+      <c r="E4" s="166" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A5" s="142"/>
-      <c r="B5" s="142"/>
+      <c r="A5" s="167"/>
+      <c r="B5" s="167"/>
       <c r="C5" s="102" t="s">
         <v>202</v>
       </c>
       <c r="D5" s="103" t="s">
         <v>203</v>
       </c>
-      <c r="E5" s="142"/>
+      <c r="E5" s="167"/>
       <c r="J5" s="50" t="s">
         <v>210</v>
       </c>
@@ -6518,10 +6526,10 @@
       <c r="B14" s="88">
         <v>50</v>
       </c>
-      <c r="C14" s="143" t="s">
+      <c r="C14" s="168" t="s">
         <v>208</v>
       </c>
-      <c r="D14" s="144"/>
+      <c r="D14" s="152"/>
       <c r="E14" s="84">
         <v>90</v>
       </c>
@@ -6532,72 +6540,72 @@
       </c>
     </row>
     <row r="17" spans="1:19" ht="32.25" customHeight="1">
-      <c r="A17" s="145" t="s">
+      <c r="A17" s="169" t="s">
         <v>214</v>
       </c>
-      <c r="B17" s="146"/>
-      <c r="C17" s="146" t="s">
+      <c r="B17" s="165"/>
+      <c r="C17" s="165" t="s">
         <v>215</v>
       </c>
-      <c r="D17" s="146"/>
-      <c r="E17" s="146"/>
-      <c r="F17" s="146"/>
-      <c r="G17" s="146"/>
-      <c r="H17" s="149" t="s">
+      <c r="D17" s="165"/>
+      <c r="E17" s="165"/>
+      <c r="F17" s="165"/>
+      <c r="G17" s="165"/>
+      <c r="H17" s="160" t="s">
         <v>216</v>
       </c>
-      <c r="I17" s="149"/>
-      <c r="J17" s="150" t="s">
+      <c r="I17" s="160"/>
+      <c r="J17" s="163" t="s">
         <v>217</v>
       </c>
-      <c r="K17" s="151"/>
+      <c r="K17" s="164"/>
     </row>
     <row r="18" spans="1:19" ht="25.5" customHeight="1">
-      <c r="A18" s="153" t="s">
-        <v>223</v>
-      </c>
-      <c r="B18" s="154"/>
-      <c r="C18" s="152" t="s">
-        <v>221</v>
-      </c>
-      <c r="D18" s="153"/>
-      <c r="E18" s="153"/>
-      <c r="F18" s="154"/>
-      <c r="G18" s="152" t="s">
+      <c r="A18" s="147" t="s">
+        <v>289</v>
+      </c>
+      <c r="B18" s="145"/>
+      <c r="C18" s="146" t="s">
+        <v>288</v>
+      </c>
+      <c r="D18" s="147"/>
+      <c r="E18" s="147"/>
+      <c r="F18" s="145"/>
+      <c r="G18" s="146" t="s">
         <v>222</v>
       </c>
-      <c r="H18" s="153"/>
-      <c r="I18" s="153"/>
-      <c r="J18" s="153"/>
-      <c r="K18" s="153"/>
+      <c r="H18" s="147"/>
+      <c r="I18" s="147"/>
+      <c r="J18" s="147"/>
+      <c r="K18" s="147"/>
       <c r="N18" s="54" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="19" spans="1:19" ht="21" customHeight="1">
-      <c r="A19" s="133" t="s">
+      <c r="A19" s="142" t="s">
         <v>76</v>
       </c>
-      <c r="B19" s="132"/>
-      <c r="C19" s="154" t="s">
+      <c r="B19" s="128"/>
+      <c r="C19" s="145" t="s">
         <v>226</v>
       </c>
-      <c r="D19" s="152"/>
+      <c r="D19" s="146"/>
       <c r="E19" s="52" t="s">
         <v>219</v>
       </c>
-      <c r="F19" s="154" t="s">
+      <c r="F19" s="145" t="s">
         <v>218</v>
       </c>
-      <c r="G19" s="132"/>
-      <c r="H19" s="154" t="s">
+      <c r="G19" s="128"/>
+      <c r="H19" s="145" t="s">
         <v>220</v>
       </c>
-      <c r="I19" s="132"/>
-      <c r="J19" s="154" t="s">
+      <c r="I19" s="128"/>
+      <c r="J19" s="145" t="s">
         <v>224</v>
       </c>
-      <c r="K19" s="132"/>
+      <c r="K19" s="128"/>
       <c r="N19" s="49" t="s">
         <v>146</v>
       </c>
@@ -6618,23 +6626,23 @@
       </c>
     </row>
     <row r="20" spans="1:19" ht="21" customHeight="1">
-      <c r="A20" s="154" t="s">
+      <c r="A20" s="145" t="s">
         <v>227</v>
       </c>
-      <c r="B20" s="132"/>
-      <c r="C20" s="154" t="s">
+      <c r="B20" s="128"/>
+      <c r="C20" s="145" t="s">
         <v>229</v>
       </c>
-      <c r="D20" s="132"/>
+      <c r="D20" s="128"/>
       <c r="E20" s="45"/>
-      <c r="F20" s="133"/>
-      <c r="G20" s="132"/>
-      <c r="H20" s="133"/>
-      <c r="I20" s="132"/>
-      <c r="J20" s="154" t="s">
+      <c r="F20" s="142"/>
+      <c r="G20" s="128"/>
+      <c r="H20" s="142"/>
+      <c r="I20" s="128"/>
+      <c r="J20" s="145" t="s">
         <v>225</v>
       </c>
-      <c r="K20" s="132"/>
+      <c r="K20" s="128"/>
       <c r="N20" s="49"/>
       <c r="O20" s="49"/>
       <c r="P20" s="49"/>
@@ -6645,23 +6653,23 @@
       <c r="S20" s="49"/>
     </row>
     <row r="21" spans="1:19" ht="21" customHeight="1">
-      <c r="A21" s="154" t="s">
+      <c r="A21" s="145" t="s">
         <v>227</v>
       </c>
-      <c r="B21" s="132"/>
-      <c r="C21" s="154" t="s">
+      <c r="B21" s="128"/>
+      <c r="C21" s="145" t="s">
         <v>230</v>
       </c>
-      <c r="D21" s="132"/>
+      <c r="D21" s="128"/>
       <c r="E21" s="45"/>
-      <c r="F21" s="133"/>
-      <c r="G21" s="132"/>
-      <c r="H21" s="133"/>
-      <c r="I21" s="132"/>
-      <c r="J21" s="154" t="s">
+      <c r="F21" s="142"/>
+      <c r="G21" s="128"/>
+      <c r="H21" s="142"/>
+      <c r="I21" s="128"/>
+      <c r="J21" s="145" t="s">
         <v>225</v>
       </c>
-      <c r="K21" s="132"/>
+      <c r="K21" s="128"/>
       <c r="N21" s="49"/>
       <c r="O21" s="49"/>
       <c r="P21" s="49"/>
@@ -6670,69 +6678,69 @@
       <c r="S21" s="49"/>
     </row>
     <row r="22" spans="1:19" ht="21" customHeight="1">
-      <c r="A22" s="154" t="s">
+      <c r="A22" s="145" t="s">
         <v>228</v>
       </c>
-      <c r="B22" s="132"/>
-      <c r="C22" s="154" t="s">
+      <c r="B22" s="128"/>
+      <c r="C22" s="145" t="s">
         <v>231</v>
       </c>
-      <c r="D22" s="132"/>
+      <c r="D22" s="128"/>
       <c r="E22" s="49"/>
-      <c r="F22" s="133"/>
-      <c r="G22" s="132"/>
-      <c r="H22" s="133"/>
-      <c r="I22" s="132"/>
-      <c r="J22" s="154" t="s">
+      <c r="F22" s="142"/>
+      <c r="G22" s="128"/>
+      <c r="H22" s="142"/>
+      <c r="I22" s="128"/>
+      <c r="J22" s="145" t="s">
         <v>225</v>
       </c>
-      <c r="K22" s="132"/>
+      <c r="K22" s="128"/>
     </row>
     <row r="23" spans="1:19" ht="21" customHeight="1">
-      <c r="A23" s="154" t="s">
+      <c r="A23" s="145" t="s">
         <v>228</v>
       </c>
-      <c r="B23" s="132"/>
-      <c r="C23" s="154" t="s">
+      <c r="B23" s="128"/>
+      <c r="C23" s="145" t="s">
         <v>232</v>
       </c>
-      <c r="D23" s="132"/>
+      <c r="D23" s="128"/>
       <c r="E23" s="49"/>
-      <c r="F23" s="133"/>
-      <c r="G23" s="132"/>
-      <c r="H23" s="133"/>
-      <c r="I23" s="132"/>
-      <c r="J23" s="154" t="s">
+      <c r="F23" s="142"/>
+      <c r="G23" s="128"/>
+      <c r="H23" s="142"/>
+      <c r="I23" s="128"/>
+      <c r="J23" s="145" t="s">
         <v>225</v>
       </c>
-      <c r="K23" s="132"/>
+      <c r="K23" s="128"/>
     </row>
     <row r="26" spans="1:19" ht="32.25" customHeight="1" thickBot="1">
-      <c r="A26" s="159" t="s">
+      <c r="A26" s="157" t="s">
         <v>214</v>
       </c>
-      <c r="B26" s="160"/>
-      <c r="C26" s="160" t="s">
+      <c r="B26" s="158"/>
+      <c r="C26" s="158" t="s">
         <v>215</v>
       </c>
-      <c r="D26" s="160"/>
-      <c r="E26" s="160"/>
-      <c r="F26" s="160"/>
-      <c r="G26" s="160"/>
-      <c r="H26" s="161" t="s">
+      <c r="D26" s="158"/>
+      <c r="E26" s="158"/>
+      <c r="F26" s="158"/>
+      <c r="G26" s="158"/>
+      <c r="H26" s="159" t="s">
         <v>216</v>
       </c>
-      <c r="I26" s="161"/>
-      <c r="J26" s="149" t="s">
+      <c r="I26" s="159"/>
+      <c r="J26" s="160" t="s">
         <v>217</v>
       </c>
-      <c r="K26" s="149"/>
+      <c r="K26" s="160"/>
     </row>
     <row r="27" spans="1:19" ht="25.5" customHeight="1">
-      <c r="A27" s="166" t="s">
+      <c r="A27" s="161" t="s">
         <v>233</v>
       </c>
-      <c r="B27" s="167"/>
+      <c r="B27" s="162"/>
       <c r="C27" s="60"/>
       <c r="D27" s="61"/>
       <c r="E27" s="62"/>
@@ -6750,61 +6758,86 @@
       <c r="B28" s="59" t="s">
         <v>89</v>
       </c>
-      <c r="C28" s="127" t="s">
+      <c r="C28" s="135" t="s">
         <v>90</v>
       </c>
-      <c r="D28" s="127"/>
-      <c r="E28" s="127" t="s">
+      <c r="D28" s="135"/>
+      <c r="E28" s="135" t="s">
         <v>91</v>
       </c>
-      <c r="F28" s="127"/>
-      <c r="G28" s="155" t="s">
+      <c r="F28" s="135"/>
+      <c r="G28" s="153" t="s">
         <v>92</v>
       </c>
-      <c r="H28" s="156"/>
-      <c r="I28" s="155" t="s">
+      <c r="H28" s="154"/>
+      <c r="I28" s="153" t="s">
         <v>93</v>
       </c>
-      <c r="J28" s="157"/>
-      <c r="K28" s="158"/>
+      <c r="J28" s="155"/>
+      <c r="K28" s="156"/>
     </row>
     <row r="29" spans="1:19" ht="21.75" customHeight="1">
       <c r="A29" s="26"/>
       <c r="B29" s="49"/>
-      <c r="C29" s="128"/>
-      <c r="D29" s="128"/>
-      <c r="E29" s="128"/>
-      <c r="F29" s="128"/>
-      <c r="G29" s="133"/>
-      <c r="H29" s="132"/>
-      <c r="I29" s="133"/>
-      <c r="J29" s="131"/>
-      <c r="K29" s="134"/>
+      <c r="C29" s="129"/>
+      <c r="D29" s="129"/>
+      <c r="E29" s="129"/>
+      <c r="F29" s="129"/>
+      <c r="G29" s="142"/>
+      <c r="H29" s="128"/>
+      <c r="I29" s="142"/>
+      <c r="J29" s="127"/>
+      <c r="K29" s="143"/>
     </row>
     <row r="30" spans="1:19" ht="21.75" customHeight="1" thickBot="1">
       <c r="A30" s="58"/>
       <c r="B30" s="57"/>
-      <c r="C30" s="162"/>
-      <c r="D30" s="162"/>
-      <c r="E30" s="162"/>
-      <c r="F30" s="162"/>
-      <c r="G30" s="163"/>
-      <c r="H30" s="164"/>
-      <c r="I30" s="163"/>
-      <c r="J30" s="165"/>
-      <c r="K30" s="144"/>
+      <c r="C30" s="148"/>
+      <c r="D30" s="148"/>
+      <c r="E30" s="148"/>
+      <c r="F30" s="148"/>
+      <c r="G30" s="149"/>
+      <c r="H30" s="150"/>
+      <c r="I30" s="149"/>
+      <c r="J30" s="151"/>
+      <c r="K30" s="152"/>
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="G18:K18"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="H23:I23"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="J19:K19"/>
     <mergeCell ref="J20:K20"/>
@@ -6816,40 +6849,15 @@
     <mergeCell ref="F20:G20"/>
     <mergeCell ref="F22:G22"/>
     <mergeCell ref="F21:G21"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="I29:K29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="G18:K18"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6895,11 +6903,11 @@
       <c r="A5" s="45" t="s">
         <v>146</v>
       </c>
-      <c r="B5" s="133" t="s">
+      <c r="B5" s="142" t="s">
         <v>147</v>
       </c>
-      <c r="C5" s="131"/>
-      <c r="D5" s="132"/>
+      <c r="C5" s="127"/>
+      <c r="D5" s="128"/>
       <c r="E5" s="52" t="s">
         <v>243</v>
       </c>
@@ -6918,11 +6926,11 @@
       <c r="A6" s="66">
         <v>43136.354166666664</v>
       </c>
-      <c r="B6" s="171" t="s">
+      <c r="B6" s="203" t="s">
         <v>235</v>
       </c>
-      <c r="C6" s="172"/>
-      <c r="D6" s="173"/>
+      <c r="C6" s="204"/>
+      <c r="D6" s="205"/>
       <c r="E6" s="45">
         <v>400</v>
       </c>
@@ -6948,30 +6956,30 @@
       <c r="A10" s="3"/>
     </row>
     <row r="11" spans="1:9" ht="27.75" customHeight="1">
-      <c r="A11" s="168" t="s">
+      <c r="A11" s="200" t="s">
         <v>159</v>
       </c>
-      <c r="B11" s="174" t="s">
+      <c r="B11" s="206" t="s">
         <v>125</v>
       </c>
-      <c r="C11" s="176"/>
-      <c r="D11" s="175"/>
-      <c r="E11" s="174" t="s">
+      <c r="C11" s="208"/>
+      <c r="D11" s="207"/>
+      <c r="E11" s="206" t="s">
         <v>220</v>
       </c>
-      <c r="F11" s="175"/>
-      <c r="G11" s="168" t="s">
+      <c r="F11" s="207"/>
+      <c r="G11" s="200" t="s">
         <v>243</v>
       </c>
-      <c r="H11" s="168" t="s">
+      <c r="H11" s="200" t="s">
         <v>240</v>
       </c>
-      <c r="I11" s="148" t="s">
+      <c r="I11" s="171" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="27.75" customHeight="1">
-      <c r="A12" s="169"/>
+      <c r="A12" s="201"/>
       <c r="B12" s="79" t="s">
         <v>237</v>
       </c>
@@ -6987,9 +6995,9 @@
       <c r="F12" s="80" t="s">
         <v>236</v>
       </c>
-      <c r="G12" s="169"/>
-      <c r="H12" s="169"/>
-      <c r="I12" s="170"/>
+      <c r="G12" s="201"/>
+      <c r="H12" s="201"/>
+      <c r="I12" s="202"/>
     </row>
     <row r="13" spans="1:9" ht="27.75" customHeight="1">
       <c r="A13" s="75">
@@ -7198,15 +7206,15 @@
       <c r="A20" s="78" t="s">
         <v>132</v>
       </c>
-      <c r="B20" s="177" t="s">
+      <c r="B20" s="197" t="s">
         <v>242</v>
       </c>
-      <c r="C20" s="178"/>
-      <c r="D20" s="179"/>
-      <c r="E20" s="177" t="s">
+      <c r="C20" s="198"/>
+      <c r="D20" s="199"/>
+      <c r="E20" s="197" t="s">
         <v>241</v>
       </c>
-      <c r="F20" s="179"/>
+      <c r="F20" s="199"/>
       <c r="G20" s="88">
         <v>2888</v>
       </c>
@@ -7224,80 +7232,80 @@
       </c>
     </row>
     <row r="24" spans="1:20" ht="25.5" customHeight="1">
-      <c r="A24" s="145" t="s">
+      <c r="A24" s="169" t="s">
         <v>214</v>
       </c>
-      <c r="B24" s="146"/>
-      <c r="C24" s="146" t="s">
+      <c r="B24" s="165"/>
+      <c r="C24" s="165" t="s">
         <v>246</v>
       </c>
-      <c r="D24" s="146"/>
-      <c r="E24" s="146"/>
-      <c r="F24" s="146"/>
-      <c r="G24" s="146"/>
+      <c r="D24" s="165"/>
+      <c r="E24" s="165"/>
+      <c r="F24" s="165"/>
+      <c r="G24" s="165"/>
       <c r="H24" s="112"/>
-      <c r="I24" s="180" t="s">
+      <c r="I24" s="182" t="s">
         <v>216</v>
       </c>
-      <c r="J24" s="180"/>
-      <c r="K24" s="150" t="s">
+      <c r="J24" s="182"/>
+      <c r="K24" s="163" t="s">
         <v>245</v>
       </c>
-      <c r="L24" s="151"/>
+      <c r="L24" s="164"/>
     </row>
     <row r="25" spans="1:20" ht="29.25" customHeight="1">
-      <c r="A25" s="153" t="s">
+      <c r="A25" s="147" t="s">
         <v>223</v>
       </c>
-      <c r="B25" s="154"/>
-      <c r="C25" s="152" t="s">
+      <c r="B25" s="145"/>
+      <c r="C25" s="146" t="s">
         <v>221</v>
       </c>
-      <c r="D25" s="153"/>
-      <c r="E25" s="153"/>
-      <c r="F25" s="154"/>
-      <c r="G25" s="152" t="s">
+      <c r="D25" s="147"/>
+      <c r="E25" s="147"/>
+      <c r="F25" s="145"/>
+      <c r="G25" s="146" t="s">
         <v>222</v>
       </c>
-      <c r="H25" s="152"/>
-      <c r="I25" s="153"/>
-      <c r="J25" s="153"/>
-      <c r="K25" s="153"/>
-      <c r="L25" s="153"/>
-      <c r="O25" s="189" t="s">
+      <c r="H25" s="146"/>
+      <c r="I25" s="147"/>
+      <c r="J25" s="147"/>
+      <c r="K25" s="147"/>
+      <c r="L25" s="147"/>
+      <c r="O25" s="176" t="s">
         <v>204</v>
       </c>
-      <c r="P25" s="189"/>
-      <c r="Q25" s="189"/>
-      <c r="R25" s="189"/>
-      <c r="S25" s="189"/>
-      <c r="T25" s="189"/>
+      <c r="P25" s="176"/>
+      <c r="Q25" s="176"/>
+      <c r="R25" s="176"/>
+      <c r="S25" s="176"/>
+      <c r="T25" s="176"/>
     </row>
     <row r="26" spans="1:20" ht="29.25" customHeight="1">
-      <c r="A26" s="181" t="s">
+      <c r="A26" s="193" t="s">
         <v>76</v>
       </c>
-      <c r="B26" s="182"/>
-      <c r="C26" s="183" t="s">
+      <c r="B26" s="194"/>
+      <c r="C26" s="195" t="s">
         <v>226</v>
       </c>
-      <c r="D26" s="184"/>
-      <c r="E26" s="203" t="s">
+      <c r="D26" s="196"/>
+      <c r="E26" s="180" t="s">
         <v>219</v>
       </c>
-      <c r="F26" s="201"/>
-      <c r="G26" s="201" t="s">
+      <c r="F26" s="178"/>
+      <c r="G26" s="178" t="s">
         <v>218</v>
       </c>
-      <c r="H26" s="202"/>
-      <c r="I26" s="183" t="s">
+      <c r="H26" s="179"/>
+      <c r="I26" s="195" t="s">
         <v>220</v>
       </c>
-      <c r="J26" s="182"/>
-      <c r="K26" s="183" t="s">
+      <c r="J26" s="194"/>
+      <c r="K26" s="195" t="s">
         <v>224</v>
       </c>
-      <c r="L26" s="182"/>
+      <c r="L26" s="194"/>
       <c r="O26" s="59" t="s">
         <v>146</v>
       </c>
@@ -7318,26 +7326,26 @@
       </c>
     </row>
     <row r="27" spans="1:20" ht="29.25" customHeight="1">
-      <c r="A27" s="154" t="s">
+      <c r="A27" s="145" t="s">
         <v>227</v>
       </c>
-      <c r="B27" s="132"/>
-      <c r="C27" s="154" t="s">
+      <c r="B27" s="128"/>
+      <c r="C27" s="145" t="s">
         <v>229</v>
       </c>
-      <c r="D27" s="131"/>
-      <c r="E27" s="204"/>
-      <c r="F27" s="204"/>
-      <c r="G27" s="204"/>
-      <c r="H27" s="204"/>
-      <c r="I27" s="185" t="s">
+      <c r="D27" s="127"/>
+      <c r="E27" s="181"/>
+      <c r="F27" s="181"/>
+      <c r="G27" s="181"/>
+      <c r="H27" s="181"/>
+      <c r="I27" s="189" t="s">
         <v>244</v>
       </c>
-      <c r="J27" s="186"/>
-      <c r="K27" s="154" t="s">
+      <c r="J27" s="190"/>
+      <c r="K27" s="145" t="s">
         <v>225</v>
       </c>
-      <c r="L27" s="132"/>
+      <c r="L27" s="128"/>
       <c r="O27" s="49"/>
       <c r="P27" s="49"/>
       <c r="Q27" s="49"/>
@@ -7348,26 +7356,26 @@
       <c r="T27" s="49"/>
     </row>
     <row r="28" spans="1:20" ht="29.25" customHeight="1">
-      <c r="A28" s="154" t="s">
+      <c r="A28" s="145" t="s">
         <v>227</v>
       </c>
-      <c r="B28" s="132"/>
-      <c r="C28" s="154" t="s">
+      <c r="B28" s="128"/>
+      <c r="C28" s="145" t="s">
         <v>230</v>
       </c>
-      <c r="D28" s="131"/>
-      <c r="E28" s="204"/>
-      <c r="F28" s="204"/>
-      <c r="G28" s="204"/>
-      <c r="H28" s="204"/>
-      <c r="I28" s="187" t="s">
+      <c r="D28" s="127"/>
+      <c r="E28" s="181"/>
+      <c r="F28" s="181"/>
+      <c r="G28" s="181"/>
+      <c r="H28" s="181"/>
+      <c r="I28" s="191" t="s">
         <v>273</v>
       </c>
-      <c r="J28" s="188"/>
-      <c r="K28" s="154" t="s">
+      <c r="J28" s="192"/>
+      <c r="K28" s="145" t="s">
         <v>225</v>
       </c>
-      <c r="L28" s="132"/>
+      <c r="L28" s="128"/>
       <c r="O28" s="49"/>
       <c r="P28" s="49"/>
       <c r="Q28" s="49"/>
@@ -7376,87 +7384,87 @@
       <c r="T28" s="49"/>
     </row>
     <row r="29" spans="1:20" ht="29.25" customHeight="1">
-      <c r="A29" s="154" t="s">
+      <c r="A29" s="145" t="s">
         <v>228</v>
       </c>
-      <c r="B29" s="132"/>
-      <c r="C29" s="154" t="s">
+      <c r="B29" s="128"/>
+      <c r="C29" s="145" t="s">
         <v>231</v>
       </c>
-      <c r="D29" s="131"/>
-      <c r="E29" s="204"/>
-      <c r="F29" s="204"/>
-      <c r="G29" s="204"/>
-      <c r="H29" s="204"/>
-      <c r="I29" s="131"/>
-      <c r="J29" s="132"/>
-      <c r="K29" s="154" t="s">
+      <c r="D29" s="127"/>
+      <c r="E29" s="181"/>
+      <c r="F29" s="181"/>
+      <c r="G29" s="181"/>
+      <c r="H29" s="181"/>
+      <c r="I29" s="127"/>
+      <c r="J29" s="128"/>
+      <c r="K29" s="145" t="s">
         <v>225</v>
       </c>
-      <c r="L29" s="132"/>
+      <c r="L29" s="128"/>
     </row>
     <row r="30" spans="1:20" ht="29.25" customHeight="1">
-      <c r="A30" s="154" t="s">
+      <c r="A30" s="145" t="s">
         <v>228</v>
       </c>
-      <c r="B30" s="132"/>
-      <c r="C30" s="154" t="s">
+      <c r="B30" s="128"/>
+      <c r="C30" s="145" t="s">
         <v>232</v>
       </c>
-      <c r="D30" s="131"/>
-      <c r="E30" s="204"/>
-      <c r="F30" s="204"/>
-      <c r="G30" s="204"/>
-      <c r="H30" s="204"/>
-      <c r="I30" s="131"/>
-      <c r="J30" s="132"/>
-      <c r="K30" s="154" t="s">
+      <c r="D30" s="127"/>
+      <c r="E30" s="181"/>
+      <c r="F30" s="181"/>
+      <c r="G30" s="181"/>
+      <c r="H30" s="181"/>
+      <c r="I30" s="127"/>
+      <c r="J30" s="128"/>
+      <c r="K30" s="145" t="s">
         <v>225</v>
       </c>
-      <c r="L30" s="132"/>
+      <c r="L30" s="128"/>
     </row>
     <row r="31" spans="1:20" ht="29.25" customHeight="1"/>
     <row r="32" spans="1:20" ht="29.25" customHeight="1">
-      <c r="A32" s="145" t="s">
+      <c r="A32" s="169" t="s">
         <v>214</v>
       </c>
-      <c r="B32" s="146"/>
-      <c r="C32" s="146" t="s">
+      <c r="B32" s="165"/>
+      <c r="C32" s="165" t="s">
         <v>246</v>
       </c>
-      <c r="D32" s="146"/>
-      <c r="E32" s="146"/>
-      <c r="F32" s="146"/>
-      <c r="G32" s="146"/>
+      <c r="D32" s="165"/>
+      <c r="E32" s="165"/>
+      <c r="F32" s="165"/>
+      <c r="G32" s="165"/>
       <c r="H32" s="112"/>
-      <c r="I32" s="150" t="s">
+      <c r="I32" s="163" t="s">
         <v>216</v>
       </c>
-      <c r="J32" s="150"/>
-      <c r="K32" s="180" t="s">
+      <c r="J32" s="163"/>
+      <c r="K32" s="182" t="s">
         <v>245</v>
       </c>
-      <c r="L32" s="180"/>
+      <c r="L32" s="182"/>
     </row>
     <row r="33" spans="1:12" ht="29.25" customHeight="1">
-      <c r="A33" s="153" t="s">
+      <c r="A33" s="147" t="s">
         <v>247</v>
       </c>
-      <c r="B33" s="154"/>
-      <c r="C33" s="190"/>
-      <c r="D33" s="190"/>
-      <c r="E33" s="190" t="s">
+      <c r="B33" s="145"/>
+      <c r="C33" s="177"/>
+      <c r="D33" s="177"/>
+      <c r="E33" s="177" t="s">
         <v>271</v>
       </c>
-      <c r="F33" s="190"/>
-      <c r="G33" s="190"/>
+      <c r="F33" s="177"/>
+      <c r="G33" s="177"/>
       <c r="H33" s="67"/>
-      <c r="I33" s="190" t="s">
+      <c r="I33" s="177" t="s">
         <v>267</v>
       </c>
-      <c r="J33" s="190"/>
-      <c r="K33" s="190"/>
-      <c r="L33" s="152"/>
+      <c r="J33" s="177"/>
+      <c r="K33" s="177"/>
+      <c r="L33" s="146"/>
     </row>
     <row r="34" spans="1:12" ht="29.25" customHeight="1">
       <c r="A34" s="89" t="s">
@@ -7465,52 +7473,52 @@
       <c r="B34" s="91" t="s">
         <v>249</v>
       </c>
-      <c r="C34" s="191" t="s">
+      <c r="C34" s="183" t="s">
         <v>250</v>
       </c>
-      <c r="D34" s="192"/>
-      <c r="E34" s="191" t="s">
+      <c r="D34" s="184"/>
+      <c r="E34" s="183" t="s">
         <v>251</v>
       </c>
-      <c r="F34" s="192"/>
-      <c r="G34" s="193" t="s">
+      <c r="F34" s="184"/>
+      <c r="G34" s="185" t="s">
         <v>236</v>
       </c>
-      <c r="H34" s="194"/>
-      <c r="I34" s="195"/>
-      <c r="J34" s="193" t="s">
+      <c r="H34" s="186"/>
+      <c r="I34" s="187"/>
+      <c r="J34" s="185" t="s">
         <v>224</v>
       </c>
-      <c r="K34" s="196"/>
-      <c r="L34" s="195"/>
+      <c r="K34" s="188"/>
+      <c r="L34" s="187"/>
     </row>
     <row r="35" spans="1:12" ht="29.25" customHeight="1">
       <c r="A35" s="49"/>
       <c r="B35" s="49"/>
-      <c r="C35" s="128"/>
-      <c r="D35" s="128"/>
-      <c r="E35" s="128"/>
-      <c r="F35" s="128"/>
-      <c r="G35" s="133"/>
-      <c r="H35" s="131"/>
-      <c r="I35" s="132"/>
-      <c r="J35" s="133"/>
-      <c r="K35" s="131"/>
-      <c r="L35" s="132"/>
+      <c r="C35" s="129"/>
+      <c r="D35" s="129"/>
+      <c r="E35" s="129"/>
+      <c r="F35" s="129"/>
+      <c r="G35" s="142"/>
+      <c r="H35" s="127"/>
+      <c r="I35" s="128"/>
+      <c r="J35" s="142"/>
+      <c r="K35" s="127"/>
+      <c r="L35" s="128"/>
     </row>
     <row r="36" spans="1:12" ht="29.25" customHeight="1">
       <c r="A36" s="49"/>
       <c r="B36" s="49"/>
-      <c r="C36" s="128"/>
-      <c r="D36" s="128"/>
-      <c r="E36" s="128"/>
-      <c r="F36" s="128"/>
-      <c r="G36" s="133"/>
-      <c r="H36" s="131"/>
-      <c r="I36" s="132"/>
-      <c r="J36" s="133"/>
-      <c r="K36" s="131"/>
-      <c r="L36" s="132"/>
+      <c r="C36" s="129"/>
+      <c r="D36" s="129"/>
+      <c r="E36" s="129"/>
+      <c r="F36" s="129"/>
+      <c r="G36" s="142"/>
+      <c r="H36" s="127"/>
+      <c r="I36" s="128"/>
+      <c r="J36" s="142"/>
+      <c r="K36" s="127"/>
+      <c r="L36" s="128"/>
     </row>
     <row r="38" spans="1:12" ht="47.25" customHeight="1"/>
     <row r="39" spans="1:12" ht="45" customHeight="1">
@@ -7531,10 +7539,10 @@
       <c r="D40" s="118" t="s">
         <v>283</v>
       </c>
-      <c r="E40" s="199" t="s">
+      <c r="E40" s="174" t="s">
         <v>284</v>
       </c>
-      <c r="F40" s="200"/>
+      <c r="F40" s="175"/>
       <c r="G40" s="34"/>
       <c r="H40" s="34"/>
       <c r="I40" s="11"/>
@@ -7804,7 +7812,7 @@
       </c>
     </row>
     <row r="91" spans="1:8">
-      <c r="B91" s="128" t="s">
+      <c r="B91" s="129" t="s">
         <v>190</v>
       </c>
       <c r="C91" s="49" t="s">
@@ -7814,14 +7822,14 @@
       <c r="E91" s="106" t="s">
         <v>191</v>
       </c>
-      <c r="F91" s="197" t="s">
+      <c r="F91" s="172" t="s">
         <v>261</v>
       </c>
-      <c r="G91" s="198"/>
+      <c r="G91" s="173"/>
       <c r="H91" s="114"/>
     </row>
     <row r="92" spans="1:8">
-      <c r="B92" s="128"/>
+      <c r="B92" s="129"/>
       <c r="C92" s="49" t="s">
         <v>127</v>
       </c>
@@ -7829,12 +7837,12 @@
       <c r="E92" s="106" t="s">
         <v>191</v>
       </c>
-      <c r="F92" s="198"/>
-      <c r="G92" s="198"/>
+      <c r="F92" s="173"/>
+      <c r="G92" s="173"/>
       <c r="H92" s="114"/>
     </row>
     <row r="93" spans="1:8">
-      <c r="B93" s="128" t="s">
+      <c r="B93" s="129" t="s">
         <v>192</v>
       </c>
       <c r="C93" s="49" t="s">
@@ -7844,12 +7852,12 @@
       <c r="E93" s="106" t="s">
         <v>191</v>
       </c>
-      <c r="F93" s="198"/>
-      <c r="G93" s="198"/>
+      <c r="F93" s="173"/>
+      <c r="G93" s="173"/>
       <c r="H93" s="114"/>
     </row>
     <row r="94" spans="1:8">
-      <c r="B94" s="128"/>
+      <c r="B94" s="129"/>
       <c r="C94" s="49" t="s">
         <v>16</v>
       </c>
@@ -7857,12 +7865,12 @@
       <c r="E94" s="106" t="s">
         <v>191</v>
       </c>
-      <c r="F94" s="198"/>
-      <c r="G94" s="198"/>
+      <c r="F94" s="173"/>
+      <c r="G94" s="173"/>
       <c r="H94" s="114"/>
     </row>
     <row r="95" spans="1:8">
-      <c r="B95" s="128"/>
+      <c r="B95" s="129"/>
       <c r="C95" s="49" t="s">
         <v>115</v>
       </c>
@@ -7870,12 +7878,12 @@
       <c r="E95" s="106" t="s">
         <v>191</v>
       </c>
-      <c r="F95" s="198"/>
-      <c r="G95" s="198"/>
+      <c r="F95" s="173"/>
+      <c r="G95" s="173"/>
       <c r="H95" s="114"/>
     </row>
     <row r="96" spans="1:8">
-      <c r="B96" s="128"/>
+      <c r="B96" s="129"/>
       <c r="C96" s="51" t="s">
         <v>262</v>
       </c>
@@ -7961,13 +7969,55 @@
     </row>
   </sheetData>
   <mergeCells count="72">
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="F91:G95"/>
-    <mergeCell ref="B93:B96"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="G25:L25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="J36:L36"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="J34:L34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="J35:L35"/>
     <mergeCell ref="O25:T25"/>
     <mergeCell ref="A33:B33"/>
     <mergeCell ref="C33:D33"/>
@@ -7984,55 +8034,13 @@
     <mergeCell ref="G27:H27"/>
     <mergeCell ref="G28:H28"/>
     <mergeCell ref="G29:H29"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="J36:L36"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="J34:L34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="J35:L35"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="G25:L25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="F91:G95"/>
+    <mergeCell ref="B93:B96"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="E40:F40"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8043,7 +8051,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T109"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
@@ -8078,43 +8086,43 @@
       <c r="A5" s="45" t="s">
         <v>146</v>
       </c>
-      <c r="B5" s="133" t="s">
+      <c r="B5" s="142" t="s">
         <v>147</v>
       </c>
-      <c r="C5" s="131"/>
-      <c r="D5" s="132"/>
+      <c r="C5" s="127"/>
+      <c r="D5" s="128"/>
       <c r="E5" s="52" t="s">
         <v>243</v>
       </c>
       <c r="F5" s="45" t="s">
         <v>117</v>
       </c>
-      <c r="G5" s="154" t="s">
+      <c r="G5" s="145" t="s">
         <v>205</v>
       </c>
-      <c r="H5" s="190"/>
-      <c r="I5" s="152"/>
+      <c r="H5" s="177"/>
+      <c r="I5" s="146"/>
     </row>
     <row r="6" spans="1:16" ht="78.75" customHeight="1">
       <c r="A6" s="66">
         <v>43136.354166666664</v>
       </c>
-      <c r="B6" s="171" t="s">
+      <c r="B6" s="203" t="s">
         <v>235</v>
       </c>
-      <c r="C6" s="172"/>
-      <c r="D6" s="173"/>
+      <c r="C6" s="204"/>
+      <c r="D6" s="205"/>
       <c r="E6" s="45">
         <v>400</v>
       </c>
       <c r="F6" s="45">
         <v>200</v>
       </c>
-      <c r="G6" s="133">
+      <c r="G6" s="142">
         <v>200</v>
       </c>
-      <c r="H6" s="131"/>
-      <c r="I6" s="132"/>
+      <c r="H6" s="127"/>
+      <c r="I6" s="128"/>
     </row>
     <row r="8" spans="1:16" ht="30" customHeight="1"/>
     <row r="9" spans="1:16" ht="37.5" customHeight="1">
@@ -8126,22 +8134,22 @@
       <c r="A10" s="3"/>
     </row>
     <row r="11" spans="1:16" ht="27.75" customHeight="1">
-      <c r="A11" s="168" t="s">
+      <c r="A11" s="200" t="s">
         <v>159</v>
       </c>
-      <c r="B11" s="174" t="s">
+      <c r="B11" s="206" t="s">
         <v>125</v>
       </c>
-      <c r="C11" s="176"/>
-      <c r="D11" s="175"/>
-      <c r="E11" s="174" t="s">
+      <c r="C11" s="208"/>
+      <c r="D11" s="207"/>
+      <c r="E11" s="206" t="s">
         <v>220</v>
       </c>
-      <c r="F11" s="175"/>
-      <c r="G11" s="168" t="s">
+      <c r="F11" s="207"/>
+      <c r="G11" s="200" t="s">
         <v>243</v>
       </c>
-      <c r="H11" s="168" t="s">
+      <c r="H11" s="200" t="s">
         <v>240</v>
       </c>
       <c r="I11" s="210" t="s">
@@ -8149,7 +8157,7 @@
       </c>
     </row>
     <row r="12" spans="1:16" ht="27.75" customHeight="1">
-      <c r="A12" s="169"/>
+      <c r="A12" s="201"/>
       <c r="B12" s="79" t="s">
         <v>265</v>
       </c>
@@ -8165,18 +8173,18 @@
       <c r="F12" s="80" t="s">
         <v>236</v>
       </c>
-      <c r="G12" s="169"/>
-      <c r="H12" s="169"/>
+      <c r="G12" s="201"/>
+      <c r="H12" s="201"/>
       <c r="I12" s="211"/>
-      <c r="J12" s="215" t="s">
+      <c r="J12" s="126" t="s">
         <v>287</v>
       </c>
-      <c r="K12" s="215"/>
-      <c r="L12" s="215"/>
-      <c r="M12" s="215"/>
-      <c r="N12" s="215"/>
-      <c r="O12" s="215"/>
-      <c r="P12" s="215"/>
+      <c r="K12" s="126"/>
+      <c r="L12" s="126"/>
+      <c r="M12" s="126"/>
+      <c r="N12" s="126"/>
+      <c r="O12" s="126"/>
+      <c r="P12" s="126"/>
     </row>
     <row r="13" spans="1:16" ht="27.75" customHeight="1">
       <c r="A13" s="75">
@@ -8203,18 +8211,18 @@
       <c r="H13" s="85">
         <v>30</v>
       </c>
-      <c r="I13" s="212">
+      <c r="I13" s="123">
         <v>40</v>
       </c>
-      <c r="J13" s="215" t="s">
+      <c r="J13" s="126" t="s">
         <v>286</v>
       </c>
-      <c r="K13" s="215"/>
-      <c r="L13" s="215"/>
-      <c r="M13" s="215"/>
-      <c r="N13" s="215"/>
-      <c r="O13" s="215"/>
-      <c r="P13" s="215"/>
+      <c r="K13" s="126"/>
+      <c r="L13" s="126"/>
+      <c r="M13" s="126"/>
+      <c r="N13" s="126"/>
+      <c r="O13" s="126"/>
+      <c r="P13" s="126"/>
     </row>
     <row r="14" spans="1:16" ht="27.75" customHeight="1">
       <c r="A14" s="75">
@@ -8241,7 +8249,7 @@
       <c r="H14" s="86">
         <v>30</v>
       </c>
-      <c r="I14" s="212">
+      <c r="I14" s="123">
         <v>50</v>
       </c>
     </row>
@@ -8270,7 +8278,7 @@
       <c r="H15" s="85">
         <v>30</v>
       </c>
-      <c r="I15" s="212">
+      <c r="I15" s="123">
         <v>60</v>
       </c>
       <c r="L15" s="109" t="s">
@@ -8304,7 +8312,7 @@
       <c r="H16" s="85">
         <v>30</v>
       </c>
-      <c r="I16" s="212">
+      <c r="I16" s="123">
         <v>70</v>
       </c>
       <c r="K16" s="50"/>
@@ -8337,7 +8345,7 @@
       <c r="H17" s="76" t="s">
         <v>160</v>
       </c>
-      <c r="I17" s="213" t="s">
+      <c r="I17" s="124" t="s">
         <v>160</v>
       </c>
       <c r="L17" s="111" t="s">
@@ -8371,7 +8379,7 @@
       <c r="H18" s="85">
         <v>30</v>
       </c>
-      <c r="I18" s="212">
+      <c r="I18" s="123">
         <v>90</v>
       </c>
     </row>
@@ -8400,7 +8408,7 @@
       <c r="H19" s="87">
         <v>150</v>
       </c>
-      <c r="I19" s="212">
+      <c r="I19" s="123">
         <v>90</v>
       </c>
     </row>
@@ -8408,30 +8416,30 @@
       <c r="A20" s="78" t="s">
         <v>132</v>
       </c>
-      <c r="B20" s="177" t="s">
+      <c r="B20" s="197" t="s">
         <v>242</v>
       </c>
-      <c r="C20" s="178"/>
-      <c r="D20" s="179"/>
-      <c r="E20" s="177" t="s">
+      <c r="C20" s="198"/>
+      <c r="D20" s="199"/>
+      <c r="E20" s="197" t="s">
         <v>241</v>
       </c>
-      <c r="F20" s="179"/>
+      <c r="F20" s="199"/>
       <c r="G20" s="88">
         <v>2888</v>
       </c>
       <c r="H20" s="88">
         <v>2888</v>
       </c>
-      <c r="I20" s="214">
+      <c r="I20" s="125">
         <v>90</v>
       </c>
     </row>
     <row r="21" spans="1:20" ht="23.25" customHeight="1">
-      <c r="E21" s="206" t="s">
+      <c r="E21" s="213" t="s">
         <v>274</v>
       </c>
-      <c r="F21" s="206"/>
+      <c r="F21" s="213"/>
     </row>
     <row r="22" spans="1:20" ht="30" customHeight="1"/>
     <row r="23" spans="1:20" ht="44.25" customHeight="1">
@@ -8440,82 +8448,82 @@
       </c>
     </row>
     <row r="24" spans="1:20" ht="25.5" customHeight="1">
-      <c r="A24" s="145" t="s">
+      <c r="A24" s="169" t="s">
         <v>214</v>
       </c>
-      <c r="B24" s="146"/>
-      <c r="C24" s="146" t="s">
+      <c r="B24" s="165"/>
+      <c r="C24" s="165" t="s">
         <v>272</v>
       </c>
-      <c r="D24" s="146"/>
-      <c r="E24" s="146"/>
-      <c r="F24" s="146"/>
-      <c r="G24" s="146"/>
+      <c r="D24" s="165"/>
+      <c r="E24" s="165"/>
+      <c r="F24" s="165"/>
+      <c r="G24" s="165"/>
       <c r="H24" s="112"/>
-      <c r="I24" s="180" t="s">
+      <c r="I24" s="182" t="s">
         <v>268</v>
       </c>
-      <c r="J24" s="180"/>
-      <c r="K24" s="150" t="s">
+      <c r="J24" s="182"/>
+      <c r="K24" s="163" t="s">
         <v>245</v>
       </c>
-      <c r="L24" s="151"/>
+      <c r="L24" s="164"/>
     </row>
     <row r="25" spans="1:20" ht="29.25" customHeight="1">
-      <c r="A25" s="153" t="s">
+      <c r="A25" s="147" t="s">
         <v>269</v>
       </c>
-      <c r="B25" s="154"/>
-      <c r="C25" s="190" t="s">
+      <c r="B25" s="145"/>
+      <c r="C25" s="177" t="s">
         <v>271</v>
       </c>
-      <c r="D25" s="190"/>
-      <c r="E25" s="207" t="s">
+      <c r="D25" s="177"/>
+      <c r="E25" s="214" t="s">
         <v>270</v>
       </c>
-      <c r="F25" s="207"/>
-      <c r="G25" s="207"/>
+      <c r="F25" s="214"/>
+      <c r="G25" s="214"/>
       <c r="H25" s="116"/>
-      <c r="I25" s="190" t="s">
+      <c r="I25" s="177" t="s">
         <v>267</v>
       </c>
-      <c r="J25" s="190"/>
-      <c r="K25" s="190"/>
-      <c r="L25" s="152"/>
-      <c r="O25" s="189" t="s">
+      <c r="J25" s="177"/>
+      <c r="K25" s="177"/>
+      <c r="L25" s="146"/>
+      <c r="O25" s="176" t="s">
         <v>204</v>
       </c>
-      <c r="P25" s="189"/>
-      <c r="Q25" s="189"/>
-      <c r="R25" s="189"/>
-      <c r="S25" s="189"/>
-      <c r="T25" s="189"/>
+      <c r="P25" s="176"/>
+      <c r="Q25" s="176"/>
+      <c r="R25" s="176"/>
+      <c r="S25" s="176"/>
+      <c r="T25" s="176"/>
     </row>
     <row r="26" spans="1:20" ht="29.25" customHeight="1">
-      <c r="A26" s="181" t="s">
+      <c r="A26" s="193" t="s">
         <v>76</v>
       </c>
-      <c r="B26" s="182"/>
-      <c r="C26" s="183" t="s">
+      <c r="B26" s="194"/>
+      <c r="C26" s="195" t="s">
         <v>226</v>
       </c>
-      <c r="D26" s="205"/>
-      <c r="E26" s="208" t="s">
+      <c r="D26" s="215"/>
+      <c r="E26" s="212" t="s">
         <v>219</v>
       </c>
-      <c r="F26" s="208"/>
-      <c r="G26" s="208" t="s">
+      <c r="F26" s="212"/>
+      <c r="G26" s="212" t="s">
         <v>218</v>
       </c>
-      <c r="H26" s="208"/>
-      <c r="I26" s="205" t="s">
+      <c r="H26" s="212"/>
+      <c r="I26" s="215" t="s">
         <v>220</v>
       </c>
-      <c r="J26" s="182"/>
-      <c r="K26" s="183" t="s">
+      <c r="J26" s="194"/>
+      <c r="K26" s="195" t="s">
         <v>224</v>
       </c>
-      <c r="L26" s="182"/>
+      <c r="L26" s="194"/>
       <c r="O26" s="59" t="s">
         <v>146</v>
       </c>
@@ -8536,26 +8544,26 @@
       </c>
     </row>
     <row r="27" spans="1:20" ht="29.25" customHeight="1">
-      <c r="A27" s="154" t="s">
+      <c r="A27" s="145" t="s">
         <v>227</v>
       </c>
-      <c r="B27" s="132"/>
-      <c r="C27" s="154" t="s">
+      <c r="B27" s="128"/>
+      <c r="C27" s="145" t="s">
         <v>229</v>
       </c>
-      <c r="D27" s="131"/>
-      <c r="E27" s="204"/>
-      <c r="F27" s="204"/>
-      <c r="G27" s="204"/>
-      <c r="H27" s="204"/>
-      <c r="I27" s="185" t="s">
+      <c r="D27" s="127"/>
+      <c r="E27" s="181"/>
+      <c r="F27" s="181"/>
+      <c r="G27" s="181"/>
+      <c r="H27" s="181"/>
+      <c r="I27" s="189" t="s">
         <v>244</v>
       </c>
-      <c r="J27" s="186"/>
-      <c r="K27" s="154" t="s">
+      <c r="J27" s="190"/>
+      <c r="K27" s="145" t="s">
         <v>225</v>
       </c>
-      <c r="L27" s="132"/>
+      <c r="L27" s="128"/>
       <c r="O27" s="49"/>
       <c r="P27" s="49"/>
       <c r="Q27" s="49"/>
@@ -8566,26 +8574,26 @@
       <c r="T27" s="49"/>
     </row>
     <row r="28" spans="1:20" ht="29.25" customHeight="1">
-      <c r="A28" s="154" t="s">
+      <c r="A28" s="145" t="s">
         <v>227</v>
       </c>
-      <c r="B28" s="132"/>
-      <c r="C28" s="154" t="s">
+      <c r="B28" s="128"/>
+      <c r="C28" s="145" t="s">
         <v>230</v>
       </c>
-      <c r="D28" s="131"/>
-      <c r="E28" s="204"/>
-      <c r="F28" s="204"/>
-      <c r="G28" s="204"/>
-      <c r="H28" s="204"/>
-      <c r="I28" s="187" t="s">
+      <c r="D28" s="127"/>
+      <c r="E28" s="181"/>
+      <c r="F28" s="181"/>
+      <c r="G28" s="181"/>
+      <c r="H28" s="181"/>
+      <c r="I28" s="191" t="s">
         <v>274</v>
       </c>
-      <c r="J28" s="188"/>
-      <c r="K28" s="154" t="s">
+      <c r="J28" s="192"/>
+      <c r="K28" s="145" t="s">
         <v>225</v>
       </c>
-      <c r="L28" s="132"/>
+      <c r="L28" s="128"/>
       <c r="O28" s="49"/>
       <c r="P28" s="49"/>
       <c r="Q28" s="49"/>
@@ -8594,87 +8602,87 @@
       <c r="T28" s="49"/>
     </row>
     <row r="29" spans="1:20" ht="29.25" customHeight="1">
-      <c r="A29" s="154" t="s">
+      <c r="A29" s="145" t="s">
         <v>228</v>
       </c>
-      <c r="B29" s="132"/>
-      <c r="C29" s="154" t="s">
+      <c r="B29" s="128"/>
+      <c r="C29" s="145" t="s">
         <v>231</v>
       </c>
-      <c r="D29" s="131"/>
-      <c r="E29" s="204"/>
-      <c r="F29" s="204"/>
-      <c r="G29" s="204"/>
-      <c r="H29" s="204"/>
-      <c r="I29" s="131"/>
-      <c r="J29" s="132"/>
-      <c r="K29" s="154" t="s">
+      <c r="D29" s="127"/>
+      <c r="E29" s="181"/>
+      <c r="F29" s="181"/>
+      <c r="G29" s="181"/>
+      <c r="H29" s="181"/>
+      <c r="I29" s="127"/>
+      <c r="J29" s="128"/>
+      <c r="K29" s="145" t="s">
         <v>225</v>
       </c>
-      <c r="L29" s="132"/>
+      <c r="L29" s="128"/>
     </row>
     <row r="30" spans="1:20" ht="29.25" customHeight="1">
-      <c r="A30" s="154" t="s">
+      <c r="A30" s="145" t="s">
         <v>228</v>
       </c>
-      <c r="B30" s="132"/>
-      <c r="C30" s="154" t="s">
+      <c r="B30" s="128"/>
+      <c r="C30" s="145" t="s">
         <v>232</v>
       </c>
-      <c r="D30" s="131"/>
-      <c r="E30" s="204"/>
-      <c r="F30" s="204"/>
-      <c r="G30" s="204"/>
-      <c r="H30" s="204"/>
-      <c r="I30" s="131"/>
-      <c r="J30" s="132"/>
-      <c r="K30" s="154" t="s">
+      <c r="D30" s="127"/>
+      <c r="E30" s="181"/>
+      <c r="F30" s="181"/>
+      <c r="G30" s="181"/>
+      <c r="H30" s="181"/>
+      <c r="I30" s="127"/>
+      <c r="J30" s="128"/>
+      <c r="K30" s="145" t="s">
         <v>225</v>
       </c>
-      <c r="L30" s="132"/>
+      <c r="L30" s="128"/>
     </row>
     <row r="31" spans="1:20" ht="29.25" customHeight="1"/>
     <row r="32" spans="1:20" ht="29.25" customHeight="1">
-      <c r="A32" s="145" t="s">
+      <c r="A32" s="169" t="s">
         <v>214</v>
       </c>
-      <c r="B32" s="146"/>
-      <c r="C32" s="146" t="s">
+      <c r="B32" s="165"/>
+      <c r="C32" s="165" t="s">
         <v>272</v>
       </c>
-      <c r="D32" s="146"/>
-      <c r="E32" s="146"/>
-      <c r="F32" s="146"/>
-      <c r="G32" s="146"/>
+      <c r="D32" s="165"/>
+      <c r="E32" s="165"/>
+      <c r="F32" s="165"/>
+      <c r="G32" s="165"/>
       <c r="H32" s="112"/>
-      <c r="I32" s="150" t="s">
+      <c r="I32" s="163" t="s">
         <v>268</v>
       </c>
-      <c r="J32" s="150"/>
-      <c r="K32" s="180" t="s">
+      <c r="J32" s="163"/>
+      <c r="K32" s="182" t="s">
         <v>245</v>
       </c>
-      <c r="L32" s="180"/>
+      <c r="L32" s="182"/>
     </row>
     <row r="33" spans="1:12" ht="29.25" customHeight="1">
-      <c r="A33" s="153" t="s">
+      <c r="A33" s="147" t="s">
         <v>247</v>
       </c>
-      <c r="B33" s="154"/>
-      <c r="C33" s="190"/>
-      <c r="D33" s="190"/>
-      <c r="E33" s="190" t="s">
+      <c r="B33" s="145"/>
+      <c r="C33" s="177"/>
+      <c r="D33" s="177"/>
+      <c r="E33" s="177" t="s">
         <v>271</v>
       </c>
-      <c r="F33" s="190"/>
-      <c r="G33" s="190"/>
+      <c r="F33" s="177"/>
+      <c r="G33" s="177"/>
       <c r="H33" s="67"/>
-      <c r="I33" s="190" t="s">
+      <c r="I33" s="177" t="s">
         <v>267</v>
       </c>
-      <c r="J33" s="190"/>
-      <c r="K33" s="190"/>
-      <c r="L33" s="152"/>
+      <c r="J33" s="177"/>
+      <c r="K33" s="177"/>
+      <c r="L33" s="146"/>
     </row>
     <row r="34" spans="1:12" ht="29.25" customHeight="1">
       <c r="A34" s="89" t="s">
@@ -8683,52 +8691,52 @@
       <c r="B34" s="91" t="s">
         <v>249</v>
       </c>
-      <c r="C34" s="191" t="s">
+      <c r="C34" s="183" t="s">
         <v>250</v>
       </c>
-      <c r="D34" s="192"/>
-      <c r="E34" s="191" t="s">
+      <c r="D34" s="184"/>
+      <c r="E34" s="183" t="s">
         <v>251</v>
       </c>
-      <c r="F34" s="192"/>
-      <c r="G34" s="193" t="s">
+      <c r="F34" s="184"/>
+      <c r="G34" s="185" t="s">
         <v>236</v>
       </c>
-      <c r="H34" s="194"/>
-      <c r="I34" s="195"/>
-      <c r="J34" s="193" t="s">
+      <c r="H34" s="186"/>
+      <c r="I34" s="187"/>
+      <c r="J34" s="185" t="s">
         <v>224</v>
       </c>
-      <c r="K34" s="196"/>
-      <c r="L34" s="195"/>
+      <c r="K34" s="188"/>
+      <c r="L34" s="187"/>
     </row>
     <row r="35" spans="1:12" ht="29.25" customHeight="1">
       <c r="A35" s="49"/>
       <c r="B35" s="49"/>
-      <c r="C35" s="128"/>
-      <c r="D35" s="128"/>
-      <c r="E35" s="128"/>
-      <c r="F35" s="128"/>
-      <c r="G35" s="133"/>
-      <c r="H35" s="131"/>
-      <c r="I35" s="132"/>
-      <c r="J35" s="133"/>
-      <c r="K35" s="131"/>
-      <c r="L35" s="132"/>
+      <c r="C35" s="129"/>
+      <c r="D35" s="129"/>
+      <c r="E35" s="129"/>
+      <c r="F35" s="129"/>
+      <c r="G35" s="142"/>
+      <c r="H35" s="127"/>
+      <c r="I35" s="128"/>
+      <c r="J35" s="142"/>
+      <c r="K35" s="127"/>
+      <c r="L35" s="128"/>
     </row>
     <row r="36" spans="1:12" ht="29.25" customHeight="1">
       <c r="A36" s="49"/>
       <c r="B36" s="49"/>
-      <c r="C36" s="128"/>
-      <c r="D36" s="128"/>
-      <c r="E36" s="128"/>
-      <c r="F36" s="128"/>
-      <c r="G36" s="133"/>
-      <c r="H36" s="131"/>
-      <c r="I36" s="132"/>
-      <c r="J36" s="133"/>
-      <c r="K36" s="131"/>
-      <c r="L36" s="132"/>
+      <c r="C36" s="129"/>
+      <c r="D36" s="129"/>
+      <c r="E36" s="129"/>
+      <c r="F36" s="129"/>
+      <c r="G36" s="142"/>
+      <c r="H36" s="127"/>
+      <c r="I36" s="128"/>
+      <c r="J36" s="142"/>
+      <c r="K36" s="127"/>
+      <c r="L36" s="128"/>
     </row>
     <row r="38" spans="1:12" ht="28.5" customHeight="1"/>
     <row r="39" spans="1:12" ht="48" customHeight="1">
@@ -8749,10 +8757,10 @@
       <c r="D40" s="118" t="s">
         <v>283</v>
       </c>
-      <c r="E40" s="199" t="s">
+      <c r="E40" s="174" t="s">
         <v>284</v>
       </c>
-      <c r="F40" s="200"/>
+      <c r="F40" s="175"/>
     </row>
     <row r="41" spans="1:12" ht="45" customHeight="1">
       <c r="A41" s="209" t="s">
@@ -9004,7 +9012,7 @@
       </c>
     </row>
     <row r="90" spans="1:8">
-      <c r="B90" s="128" t="s">
+      <c r="B90" s="129" t="s">
         <v>190</v>
       </c>
       <c r="C90" s="49" t="s">
@@ -9014,14 +9022,14 @@
       <c r="E90" s="106" t="s">
         <v>191</v>
       </c>
-      <c r="F90" s="197" t="s">
+      <c r="F90" s="172" t="s">
         <v>261</v>
       </c>
-      <c r="G90" s="198"/>
+      <c r="G90" s="173"/>
       <c r="H90" s="114"/>
     </row>
     <row r="91" spans="1:8">
-      <c r="B91" s="128"/>
+      <c r="B91" s="129"/>
       <c r="C91" s="49" t="s">
         <v>127</v>
       </c>
@@ -9029,12 +9037,12 @@
       <c r="E91" s="106" t="s">
         <v>191</v>
       </c>
-      <c r="F91" s="198"/>
-      <c r="G91" s="198"/>
+      <c r="F91" s="173"/>
+      <c r="G91" s="173"/>
       <c r="H91" s="114"/>
     </row>
     <row r="92" spans="1:8">
-      <c r="B92" s="128" t="s">
+      <c r="B92" s="129" t="s">
         <v>192</v>
       </c>
       <c r="C92" s="49" t="s">
@@ -9044,12 +9052,12 @@
       <c r="E92" s="106" t="s">
         <v>191</v>
       </c>
-      <c r="F92" s="198"/>
-      <c r="G92" s="198"/>
+      <c r="F92" s="173"/>
+      <c r="G92" s="173"/>
       <c r="H92" s="114"/>
     </row>
     <row r="93" spans="1:8">
-      <c r="B93" s="128"/>
+      <c r="B93" s="129"/>
       <c r="C93" s="49" t="s">
         <v>16</v>
       </c>
@@ -9057,12 +9065,12 @@
       <c r="E93" s="106" t="s">
         <v>191</v>
       </c>
-      <c r="F93" s="198"/>
-      <c r="G93" s="198"/>
+      <c r="F93" s="173"/>
+      <c r="G93" s="173"/>
       <c r="H93" s="114"/>
     </row>
     <row r="94" spans="1:8">
-      <c r="B94" s="128"/>
+      <c r="B94" s="129"/>
       <c r="C94" s="49" t="s">
         <v>115</v>
       </c>
@@ -9070,12 +9078,12 @@
       <c r="E94" s="106" t="s">
         <v>191</v>
       </c>
-      <c r="F94" s="198"/>
-      <c r="G94" s="198"/>
+      <c r="F94" s="173"/>
+      <c r="G94" s="173"/>
       <c r="H94" s="114"/>
     </row>
     <row r="95" spans="1:8">
-      <c r="B95" s="128"/>
+      <c r="B95" s="129"/>
       <c r="C95" s="51" t="s">
         <v>262</v>
       </c>
@@ -9161,32 +9169,35 @@
     </row>
   </sheetData>
   <mergeCells count="77">
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="O25:T25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="J34:L34"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="I33:L33"/>
     <mergeCell ref="B90:B91"/>
     <mergeCell ref="F90:G94"/>
     <mergeCell ref="B92:B95"/>
@@ -9203,41 +9214,38 @@
     <mergeCell ref="J35:L35"/>
     <mergeCell ref="C36:D36"/>
     <mergeCell ref="E36:F36"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="I30:J30"/>
     <mergeCell ref="J36:L36"/>
     <mergeCell ref="A32:B32"/>
     <mergeCell ref="C32:G32"/>
     <mergeCell ref="I32:J32"/>
     <mergeCell ref="K32:L32"/>
     <mergeCell ref="C34:D34"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="J34:L34"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="I33:L33"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="O25:T25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:F11"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/alice/20180302后台财务更新.xlsx
+++ b/doc/alice/20180302后台财务更新.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="296">
   <si>
     <t>收：</t>
   </si>
@@ -1158,6 +1158,34 @@
   </si>
   <si>
     <t>课时实际收益：888</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程：大热常规班（单价：100）
+班级：丽山文体公园高年级班
+正式学员人数：5
+学员名单：周宇乐,余鲁文,林城佑,刘昊,教练：安凯翔</t>
+  </si>
+  <si>
+    <t>课程：大热常规班（单价：100）
+班级：丽山文体公园高年级班
+正式学员人数：6
+学员名单：周宇乐,余鲁文,林城佑,刘昊,教练：安凯翔</t>
+  </si>
+  <si>
+    <t>课时列表 admin/income/salaryList</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>资金账单admin/salaryin/salaryList</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>收益统计admin/salaryin/coachin</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>课时结算表admin/salaryin/scheduleInfo</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
@@ -2012,7 +2040,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="216">
+  <cellXfs count="217">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2394,12 +2422,6 @@
     <xf numFmtId="0" fontId="19" fillId="6" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2412,121 +2434,229 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2541,124 +2671,25 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2699,7 +2730,7 @@
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2752,7 +2783,7 @@
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2805,7 +2836,7 @@
         <xdr:cNvPr id="5" name="图片 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2853,7 +2884,7 @@
         <xdr:cNvPr id="6" name="图片 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3243,41 +3274,41 @@
       </c>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="134" t="s">
+      <c r="A10" s="131" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="134" t="s">
+      <c r="B10" s="131" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="136" t="s">
+      <c r="C10" s="135" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="127"/>
-      <c r="E10" s="128"/>
-      <c r="F10" s="136" t="s">
+      <c r="D10" s="136"/>
+      <c r="E10" s="137"/>
+      <c r="F10" s="135" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="127"/>
-      <c r="H10" s="128"/>
-      <c r="I10" s="136" t="s">
+      <c r="G10" s="136"/>
+      <c r="H10" s="137"/>
+      <c r="I10" s="135" t="s">
         <v>12</v>
       </c>
-      <c r="J10" s="127"/>
-      <c r="K10" s="128"/>
-      <c r="L10" s="127" t="s">
+      <c r="J10" s="136"/>
+      <c r="K10" s="137"/>
+      <c r="L10" s="136" t="s">
         <v>13</v>
       </c>
-      <c r="M10" s="127"/>
-      <c r="N10" s="128"/>
-      <c r="O10" s="129" t="s">
+      <c r="M10" s="136"/>
+      <c r="N10" s="137"/>
+      <c r="O10" s="133" t="s">
         <v>14</v>
       </c>
-      <c r="P10" s="129"/>
-      <c r="Q10" s="129"/>
+      <c r="P10" s="133"/>
+      <c r="Q10" s="133"/>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="135"/>
-      <c r="B11" s="135"/>
+      <c r="A11" s="132"/>
+      <c r="B11" s="132"/>
       <c r="C11" s="5" t="s">
         <v>15</v>
       </c>
@@ -3325,7 +3356,7 @@
       </c>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="129" t="s">
+      <c r="A12" s="133" t="s">
         <v>18</v>
       </c>
       <c r="B12" s="5">
@@ -3375,7 +3406,7 @@
       </c>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="129"/>
+      <c r="A13" s="133"/>
       <c r="B13" s="5">
         <v>88</v>
       </c>
@@ -3423,7 +3454,7 @@
       </c>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="129"/>
+      <c r="A14" s="133"/>
       <c r="B14" s="5">
         <v>100</v>
       </c>
@@ -3471,7 +3502,7 @@
       </c>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="129"/>
+      <c r="A15" s="133"/>
       <c r="B15" s="5" t="s">
         <v>19</v>
       </c>
@@ -3528,7 +3559,7 @@
       </c>
     </row>
     <row r="16" spans="1:17" hidden="1">
-      <c r="A16" s="134" t="s">
+      <c r="A16" s="131" t="s">
         <v>20</v>
       </c>
       <c r="B16" s="5">
@@ -3575,7 +3606,7 @@
       <c r="Q16" s="40"/>
     </row>
     <row r="17" spans="1:17" hidden="1">
-      <c r="A17" s="135"/>
+      <c r="A17" s="132"/>
       <c r="B17" s="5" t="s">
         <v>19</v>
       </c>
@@ -3629,7 +3660,7 @@
       <c r="Q17" s="40"/>
     </row>
     <row r="18" spans="1:17">
-      <c r="A18" s="129" t="s">
+      <c r="A18" s="133" t="s">
         <v>21</v>
       </c>
       <c r="B18" s="5">
@@ -3682,7 +3713,7 @@
       </c>
     </row>
     <row r="19" spans="1:17">
-      <c r="A19" s="129"/>
+      <c r="A19" s="133"/>
       <c r="B19" s="5">
         <v>180</v>
       </c>
@@ -3733,7 +3764,7 @@
       </c>
     </row>
     <row r="20" spans="1:17">
-      <c r="A20" s="129"/>
+      <c r="A20" s="133"/>
       <c r="B20" s="5">
         <v>240</v>
       </c>
@@ -3784,7 +3815,7 @@
       </c>
     </row>
     <row r="21" spans="1:17">
-      <c r="A21" s="129"/>
+      <c r="A21" s="133"/>
       <c r="B21" s="5" t="s">
         <v>19</v>
       </c>
@@ -3933,16 +3964,16 @@
       <c r="C46" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D46" s="133" t="s">
+      <c r="D46" s="134" t="s">
         <v>37</v>
       </c>
-      <c r="E46" s="133"/>
-      <c r="F46" s="133"/>
-      <c r="G46" s="133"/>
-      <c r="H46" s="133"/>
-      <c r="I46" s="133"/>
-      <c r="J46" s="133"/>
-      <c r="K46" s="133"/>
+      <c r="E46" s="134"/>
+      <c r="F46" s="134"/>
+      <c r="G46" s="134"/>
+      <c r="H46" s="134"/>
+      <c r="I46" s="134"/>
+      <c r="J46" s="134"/>
+      <c r="K46" s="134"/>
       <c r="L46" t="s">
         <v>38</v>
       </c>
@@ -3958,16 +3989,16 @@
       <c r="C47" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D47" s="130" t="s">
+      <c r="D47" s="128" t="s">
         <v>41</v>
       </c>
-      <c r="E47" s="131"/>
-      <c r="F47" s="131"/>
-      <c r="G47" s="131"/>
-      <c r="H47" s="131"/>
-      <c r="I47" s="131"/>
-      <c r="J47" s="131"/>
-      <c r="K47" s="132"/>
+      <c r="E47" s="129"/>
+      <c r="F47" s="129"/>
+      <c r="G47" s="129"/>
+      <c r="H47" s="129"/>
+      <c r="I47" s="129"/>
+      <c r="J47" s="129"/>
+      <c r="K47" s="130"/>
       <c r="L47" t="s">
         <v>42</v>
       </c>
@@ -3983,16 +4014,16 @@
       <c r="C48" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D48" s="130" t="s">
+      <c r="D48" s="128" t="s">
         <v>44</v>
       </c>
-      <c r="E48" s="131"/>
-      <c r="F48" s="131"/>
-      <c r="G48" s="131"/>
-      <c r="H48" s="131"/>
-      <c r="I48" s="131"/>
-      <c r="J48" s="131"/>
-      <c r="K48" s="132"/>
+      <c r="E48" s="129"/>
+      <c r="F48" s="129"/>
+      <c r="G48" s="129"/>
+      <c r="H48" s="129"/>
+      <c r="I48" s="129"/>
+      <c r="J48" s="129"/>
+      <c r="K48" s="130"/>
       <c r="L48" t="s">
         <v>45</v>
       </c>
@@ -4028,16 +4059,16 @@
       <c r="C51" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D51" s="133" t="s">
+      <c r="D51" s="134" t="s">
         <v>49</v>
       </c>
-      <c r="E51" s="133"/>
-      <c r="F51" s="133"/>
-      <c r="G51" s="133"/>
-      <c r="H51" s="133"/>
-      <c r="I51" s="133"/>
-      <c r="J51" s="133"/>
-      <c r="K51" s="133"/>
+      <c r="E51" s="134"/>
+      <c r="F51" s="134"/>
+      <c r="G51" s="134"/>
+      <c r="H51" s="134"/>
+      <c r="I51" s="134"/>
+      <c r="J51" s="134"/>
+      <c r="K51" s="134"/>
       <c r="L51" t="s">
         <v>50</v>
       </c>
@@ -4052,16 +4083,16 @@
       <c r="C52" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D52" s="130" t="s">
+      <c r="D52" s="128" t="s">
         <v>51</v>
       </c>
-      <c r="E52" s="131"/>
-      <c r="F52" s="131"/>
-      <c r="G52" s="131"/>
-      <c r="H52" s="131"/>
-      <c r="I52" s="131"/>
-      <c r="J52" s="131"/>
-      <c r="K52" s="132"/>
+      <c r="E52" s="129"/>
+      <c r="F52" s="129"/>
+      <c r="G52" s="129"/>
+      <c r="H52" s="129"/>
+      <c r="I52" s="129"/>
+      <c r="J52" s="129"/>
+      <c r="K52" s="130"/>
       <c r="L52" t="s">
         <v>52</v>
       </c>
@@ -4076,16 +4107,16 @@
       <c r="C53" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D53" s="130" t="s">
+      <c r="D53" s="128" t="s">
         <v>53</v>
       </c>
-      <c r="E53" s="131"/>
-      <c r="F53" s="131"/>
-      <c r="G53" s="131"/>
-      <c r="H53" s="131"/>
-      <c r="I53" s="131"/>
-      <c r="J53" s="131"/>
-      <c r="K53" s="132"/>
+      <c r="E53" s="129"/>
+      <c r="F53" s="129"/>
+      <c r="G53" s="129"/>
+      <c r="H53" s="129"/>
+      <c r="I53" s="129"/>
+      <c r="J53" s="129"/>
+      <c r="K53" s="130"/>
       <c r="L53" t="s">
         <v>54</v>
       </c>
@@ -4130,16 +4161,16 @@
       <c r="C56" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D56" s="133" t="s">
+      <c r="D56" s="134" t="s">
         <v>57</v>
       </c>
-      <c r="E56" s="133"/>
-      <c r="F56" s="133"/>
-      <c r="G56" s="133"/>
-      <c r="H56" s="133"/>
-      <c r="I56" s="133"/>
-      <c r="J56" s="133"/>
-      <c r="K56" s="133"/>
+      <c r="E56" s="134"/>
+      <c r="F56" s="134"/>
+      <c r="G56" s="134"/>
+      <c r="H56" s="134"/>
+      <c r="I56" s="134"/>
+      <c r="J56" s="134"/>
+      <c r="K56" s="134"/>
       <c r="L56" t="s">
         <v>58</v>
       </c>
@@ -4154,16 +4185,16 @@
       <c r="C57" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D57" s="130" t="s">
+      <c r="D57" s="128" t="s">
         <v>51</v>
       </c>
-      <c r="E57" s="131"/>
-      <c r="F57" s="131"/>
-      <c r="G57" s="131"/>
-      <c r="H57" s="131"/>
-      <c r="I57" s="131"/>
-      <c r="J57" s="131"/>
-      <c r="K57" s="132"/>
+      <c r="E57" s="129"/>
+      <c r="F57" s="129"/>
+      <c r="G57" s="129"/>
+      <c r="H57" s="129"/>
+      <c r="I57" s="129"/>
+      <c r="J57" s="129"/>
+      <c r="K57" s="130"/>
       <c r="L57" t="s">
         <v>52</v>
       </c>
@@ -4178,16 +4209,16 @@
       <c r="C58" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D58" s="130" t="s">
+      <c r="D58" s="128" t="s">
         <v>53</v>
       </c>
-      <c r="E58" s="131"/>
-      <c r="F58" s="131"/>
-      <c r="G58" s="131"/>
-      <c r="H58" s="131"/>
-      <c r="I58" s="131"/>
-      <c r="J58" s="131"/>
-      <c r="K58" s="132"/>
+      <c r="E58" s="129"/>
+      <c r="F58" s="129"/>
+      <c r="G58" s="129"/>
+      <c r="H58" s="129"/>
+      <c r="I58" s="129"/>
+      <c r="J58" s="129"/>
+      <c r="K58" s="130"/>
       <c r="L58" t="s">
         <v>54</v>
       </c>
@@ -4214,6 +4245,11 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="L10:N10"/>
+    <mergeCell ref="O10:Q10"/>
+    <mergeCell ref="D53:K53"/>
+    <mergeCell ref="D56:K56"/>
+    <mergeCell ref="D57:K57"/>
     <mergeCell ref="D58:K58"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A12:A15"/>
@@ -4228,11 +4264,6 @@
     <mergeCell ref="C10:E10"/>
     <mergeCell ref="F10:H10"/>
     <mergeCell ref="I10:K10"/>
-    <mergeCell ref="L10:N10"/>
-    <mergeCell ref="O10:Q10"/>
-    <mergeCell ref="D53:K53"/>
-    <mergeCell ref="D56:K56"/>
-    <mergeCell ref="D57:K57"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
@@ -4296,16 +4327,16 @@
       <c r="C20" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D20" s="133" t="s">
+      <c r="D20" s="134" t="s">
         <v>37</v>
       </c>
-      <c r="E20" s="133"/>
-      <c r="F20" s="133"/>
-      <c r="G20" s="133"/>
-      <c r="H20" s="133"/>
-      <c r="I20" s="133"/>
-      <c r="J20" s="133"/>
-      <c r="K20" s="133"/>
+      <c r="E20" s="134"/>
+      <c r="F20" s="134"/>
+      <c r="G20" s="134"/>
+      <c r="H20" s="134"/>
+      <c r="I20" s="134"/>
+      <c r="J20" s="134"/>
+      <c r="K20" s="134"/>
       <c r="T20" s="13"/>
     </row>
     <row r="21" spans="1:20">
@@ -4318,16 +4349,16 @@
       <c r="C21" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D21" s="130" t="s">
+      <c r="D21" s="128" t="s">
         <v>41</v>
       </c>
-      <c r="E21" s="131"/>
-      <c r="F21" s="131"/>
-      <c r="G21" s="131"/>
-      <c r="H21" s="131"/>
-      <c r="I21" s="131"/>
-      <c r="J21" s="131"/>
-      <c r="K21" s="132"/>
+      <c r="E21" s="129"/>
+      <c r="F21" s="129"/>
+      <c r="G21" s="129"/>
+      <c r="H21" s="129"/>
+      <c r="I21" s="129"/>
+      <c r="J21" s="129"/>
+      <c r="K21" s="130"/>
       <c r="T21" s="13"/>
     </row>
     <row r="22" spans="1:20">
@@ -4340,16 +4371,16 @@
       <c r="C22" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D22" s="130" t="s">
+      <c r="D22" s="128" t="s">
         <v>44</v>
       </c>
-      <c r="E22" s="131"/>
-      <c r="F22" s="131"/>
-      <c r="G22" s="131"/>
-      <c r="H22" s="131"/>
-      <c r="I22" s="131"/>
-      <c r="J22" s="131"/>
-      <c r="K22" s="132"/>
+      <c r="E22" s="129"/>
+      <c r="F22" s="129"/>
+      <c r="G22" s="129"/>
+      <c r="H22" s="129"/>
+      <c r="I22" s="129"/>
+      <c r="J22" s="129"/>
+      <c r="K22" s="130"/>
       <c r="T22" s="13"/>
     </row>
     <row r="24" spans="1:20">
@@ -4382,16 +4413,16 @@
       <c r="C25" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D25" s="133" t="s">
+      <c r="D25" s="134" t="s">
         <v>49</v>
       </c>
-      <c r="E25" s="133"/>
-      <c r="F25" s="133"/>
-      <c r="G25" s="133"/>
-      <c r="H25" s="133"/>
-      <c r="I25" s="133"/>
-      <c r="J25" s="133"/>
-      <c r="K25" s="133"/>
+      <c r="E25" s="134"/>
+      <c r="F25" s="134"/>
+      <c r="G25" s="134"/>
+      <c r="H25" s="134"/>
+      <c r="I25" s="134"/>
+      <c r="J25" s="134"/>
+      <c r="K25" s="134"/>
     </row>
     <row r="26" spans="1:20">
       <c r="A26" s="4" t="s">
@@ -4403,16 +4434,16 @@
       <c r="C26" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D26" s="130" t="s">
+      <c r="D26" s="128" t="s">
         <v>51</v>
       </c>
-      <c r="E26" s="131"/>
-      <c r="F26" s="131"/>
-      <c r="G26" s="131"/>
-      <c r="H26" s="131"/>
-      <c r="I26" s="131"/>
-      <c r="J26" s="131"/>
-      <c r="K26" s="132"/>
+      <c r="E26" s="129"/>
+      <c r="F26" s="129"/>
+      <c r="G26" s="129"/>
+      <c r="H26" s="129"/>
+      <c r="I26" s="129"/>
+      <c r="J26" s="129"/>
+      <c r="K26" s="130"/>
     </row>
     <row r="27" spans="1:20">
       <c r="A27" s="4" t="s">
@@ -4424,16 +4455,16 @@
       <c r="C27" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D27" s="130" t="s">
+      <c r="D27" s="128" t="s">
         <v>53</v>
       </c>
-      <c r="E27" s="131"/>
-      <c r="F27" s="131"/>
-      <c r="G27" s="131"/>
-      <c r="H27" s="131"/>
-      <c r="I27" s="131"/>
-      <c r="J27" s="131"/>
-      <c r="K27" s="132"/>
+      <c r="E27" s="129"/>
+      <c r="F27" s="129"/>
+      <c r="G27" s="129"/>
+      <c r="H27" s="129"/>
+      <c r="I27" s="129"/>
+      <c r="J27" s="129"/>
+      <c r="K27" s="130"/>
     </row>
     <row r="28" spans="1:20">
       <c r="C28" s="9"/>
@@ -4475,16 +4506,16 @@
       <c r="C30" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D30" s="133" t="s">
+      <c r="D30" s="134" t="s">
         <v>57</v>
       </c>
-      <c r="E30" s="133"/>
-      <c r="F30" s="133"/>
-      <c r="G30" s="133"/>
-      <c r="H30" s="133"/>
-      <c r="I30" s="133"/>
-      <c r="J30" s="133"/>
-      <c r="K30" s="133"/>
+      <c r="E30" s="134"/>
+      <c r="F30" s="134"/>
+      <c r="G30" s="134"/>
+      <c r="H30" s="134"/>
+      <c r="I30" s="134"/>
+      <c r="J30" s="134"/>
+      <c r="K30" s="134"/>
     </row>
     <row r="31" spans="1:20">
       <c r="A31" s="4" t="s">
@@ -4496,16 +4527,16 @@
       <c r="C31" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D31" s="130" t="s">
+      <c r="D31" s="128" t="s">
         <v>51</v>
       </c>
-      <c r="E31" s="131"/>
-      <c r="F31" s="131"/>
-      <c r="G31" s="131"/>
-      <c r="H31" s="131"/>
-      <c r="I31" s="131"/>
-      <c r="J31" s="131"/>
-      <c r="K31" s="132"/>
+      <c r="E31" s="129"/>
+      <c r="F31" s="129"/>
+      <c r="G31" s="129"/>
+      <c r="H31" s="129"/>
+      <c r="I31" s="129"/>
+      <c r="J31" s="129"/>
+      <c r="K31" s="130"/>
     </row>
     <row r="32" spans="1:20">
       <c r="A32" s="4" t="s">
@@ -4517,16 +4548,16 @@
       <c r="C32" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D32" s="130" t="s">
+      <c r="D32" s="128" t="s">
         <v>53</v>
       </c>
-      <c r="E32" s="131"/>
-      <c r="F32" s="131"/>
-      <c r="G32" s="131"/>
-      <c r="H32" s="131"/>
-      <c r="I32" s="131"/>
-      <c r="J32" s="131"/>
-      <c r="K32" s="132"/>
+      <c r="E32" s="129"/>
+      <c r="F32" s="129"/>
+      <c r="G32" s="129"/>
+      <c r="H32" s="129"/>
+      <c r="I32" s="129"/>
+      <c r="J32" s="129"/>
+      <c r="K32" s="130"/>
     </row>
     <row r="33" spans="1:20">
       <c r="A33" t="s">
@@ -4636,30 +4667,30 @@
       <c r="C49" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="D49" s="133" t="s">
+      <c r="D49" s="134" t="s">
         <v>79</v>
       </c>
-      <c r="E49" s="133"/>
-      <c r="F49" s="133"/>
-      <c r="G49" s="133"/>
-      <c r="H49" s="133"/>
-      <c r="I49" s="133"/>
-      <c r="J49" s="133"/>
-      <c r="K49" s="137"/>
+      <c r="E49" s="134"/>
+      <c r="F49" s="134"/>
+      <c r="G49" s="134"/>
+      <c r="H49" s="134"/>
+      <c r="I49" s="134"/>
+      <c r="J49" s="134"/>
+      <c r="K49" s="144"/>
       <c r="T49" s="13"/>
     </row>
     <row r="50" spans="1:20">
       <c r="A50" s="26"/>
       <c r="B50" s="4"/>
       <c r="C50" s="5"/>
-      <c r="D50" s="130"/>
-      <c r="E50" s="131"/>
-      <c r="F50" s="131"/>
-      <c r="G50" s="131"/>
-      <c r="H50" s="131"/>
-      <c r="I50" s="131"/>
-      <c r="J50" s="131"/>
-      <c r="K50" s="138"/>
+      <c r="D50" s="128"/>
+      <c r="E50" s="129"/>
+      <c r="F50" s="129"/>
+      <c r="G50" s="129"/>
+      <c r="H50" s="129"/>
+      <c r="I50" s="129"/>
+      <c r="J50" s="129"/>
+      <c r="K50" s="143"/>
       <c r="L50" t="s">
         <v>80</v>
       </c>
@@ -4669,14 +4700,14 @@
       <c r="A51" s="26"/>
       <c r="B51" s="4"/>
       <c r="C51" s="5"/>
-      <c r="D51" s="130"/>
-      <c r="E51" s="131"/>
-      <c r="F51" s="131"/>
-      <c r="G51" s="131"/>
-      <c r="H51" s="131"/>
-      <c r="I51" s="131"/>
-      <c r="J51" s="131"/>
-      <c r="K51" s="138"/>
+      <c r="D51" s="128"/>
+      <c r="E51" s="129"/>
+      <c r="F51" s="129"/>
+      <c r="G51" s="129"/>
+      <c r="H51" s="129"/>
+      <c r="I51" s="129"/>
+      <c r="J51" s="129"/>
+      <c r="K51" s="143"/>
       <c r="T51" s="13"/>
     </row>
     <row r="52" spans="1:20">
@@ -4721,31 +4752,31 @@
       <c r="B54" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C54" s="139" t="s">
+      <c r="C54" s="140" t="s">
         <v>82</v>
       </c>
-      <c r="D54" s="140"/>
-      <c r="E54" s="140"/>
-      <c r="F54" s="140"/>
-      <c r="G54" s="140"/>
-      <c r="H54" s="140"/>
-      <c r="I54" s="140"/>
-      <c r="J54" s="140"/>
-      <c r="K54" s="141"/>
+      <c r="D54" s="141"/>
+      <c r="E54" s="141"/>
+      <c r="F54" s="141"/>
+      <c r="G54" s="141"/>
+      <c r="H54" s="141"/>
+      <c r="I54" s="141"/>
+      <c r="J54" s="141"/>
+      <c r="K54" s="142"/>
       <c r="T54" s="37"/>
     </row>
     <row r="55" spans="1:20">
       <c r="A55" s="26"/>
       <c r="B55" s="4"/>
-      <c r="C55" s="139"/>
-      <c r="D55" s="140"/>
-      <c r="E55" s="140"/>
-      <c r="F55" s="140"/>
-      <c r="G55" s="140"/>
-      <c r="H55" s="140"/>
-      <c r="I55" s="140"/>
-      <c r="J55" s="140"/>
-      <c r="K55" s="141"/>
+      <c r="C55" s="140"/>
+      <c r="D55" s="141"/>
+      <c r="E55" s="141"/>
+      <c r="F55" s="141"/>
+      <c r="G55" s="141"/>
+      <c r="H55" s="141"/>
+      <c r="I55" s="141"/>
+      <c r="J55" s="141"/>
+      <c r="K55" s="142"/>
       <c r="L55" t="s">
         <v>83</v>
       </c>
@@ -4754,15 +4785,15 @@
     <row r="56" spans="1:20">
       <c r="A56" s="26"/>
       <c r="B56" s="4"/>
-      <c r="C56" s="139"/>
-      <c r="D56" s="140"/>
-      <c r="E56" s="140"/>
-      <c r="F56" s="140"/>
-      <c r="G56" s="140"/>
-      <c r="H56" s="140"/>
-      <c r="I56" s="140"/>
-      <c r="J56" s="140"/>
-      <c r="K56" s="141"/>
+      <c r="C56" s="140"/>
+      <c r="D56" s="141"/>
+      <c r="E56" s="141"/>
+      <c r="F56" s="141"/>
+      <c r="G56" s="141"/>
+      <c r="H56" s="141"/>
+      <c r="I56" s="141"/>
+      <c r="J56" s="141"/>
+      <c r="K56" s="142"/>
       <c r="T56" s="37"/>
     </row>
     <row r="57" spans="1:20">
@@ -4782,45 +4813,45 @@
       <c r="B59" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="C59" s="139" t="s">
+      <c r="C59" s="140" t="s">
         <v>82</v>
       </c>
-      <c r="D59" s="140"/>
-      <c r="E59" s="140"/>
-      <c r="F59" s="140"/>
-      <c r="G59" s="140"/>
-      <c r="H59" s="140"/>
-      <c r="I59" s="140"/>
-      <c r="J59" s="140"/>
-      <c r="K59" s="141"/>
+      <c r="D59" s="141"/>
+      <c r="E59" s="141"/>
+      <c r="F59" s="141"/>
+      <c r="G59" s="141"/>
+      <c r="H59" s="141"/>
+      <c r="I59" s="141"/>
+      <c r="J59" s="141"/>
+      <c r="K59" s="142"/>
       <c r="T59" s="13"/>
     </row>
     <row r="60" spans="1:20">
       <c r="A60" s="26"/>
       <c r="B60" s="4"/>
-      <c r="C60" s="139"/>
-      <c r="D60" s="140"/>
-      <c r="E60" s="140"/>
-      <c r="F60" s="140"/>
-      <c r="G60" s="140"/>
-      <c r="H60" s="140"/>
-      <c r="I60" s="140"/>
-      <c r="J60" s="140"/>
-      <c r="K60" s="141"/>
+      <c r="C60" s="140"/>
+      <c r="D60" s="141"/>
+      <c r="E60" s="141"/>
+      <c r="F60" s="141"/>
+      <c r="G60" s="141"/>
+      <c r="H60" s="141"/>
+      <c r="I60" s="141"/>
+      <c r="J60" s="141"/>
+      <c r="K60" s="142"/>
       <c r="T60" s="13"/>
     </row>
     <row r="61" spans="1:20">
       <c r="A61" s="26"/>
       <c r="B61" s="4"/>
-      <c r="C61" s="139"/>
-      <c r="D61" s="140"/>
-      <c r="E61" s="140"/>
-      <c r="F61" s="140"/>
-      <c r="G61" s="140"/>
-      <c r="H61" s="140"/>
-      <c r="I61" s="140"/>
-      <c r="J61" s="140"/>
-      <c r="K61" s="141"/>
+      <c r="C61" s="140"/>
+      <c r="D61" s="141"/>
+      <c r="E61" s="141"/>
+      <c r="F61" s="141"/>
+      <c r="G61" s="141"/>
+      <c r="H61" s="141"/>
+      <c r="I61" s="141"/>
+      <c r="J61" s="141"/>
+      <c r="K61" s="142"/>
       <c r="T61" s="13"/>
     </row>
     <row r="62" spans="1:20">
@@ -4840,49 +4871,49 @@
       <c r="B64" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C64" s="129" t="s">
+      <c r="C64" s="133" t="s">
         <v>90</v>
       </c>
-      <c r="D64" s="129"/>
-      <c r="E64" s="129" t="s">
+      <c r="D64" s="133"/>
+      <c r="E64" s="133" t="s">
         <v>91</v>
       </c>
-      <c r="F64" s="129"/>
-      <c r="G64" s="142" t="s">
+      <c r="F64" s="133"/>
+      <c r="G64" s="138" t="s">
         <v>92</v>
       </c>
-      <c r="H64" s="128"/>
-      <c r="I64" s="142" t="s">
+      <c r="H64" s="137"/>
+      <c r="I64" s="138" t="s">
         <v>93</v>
       </c>
-      <c r="J64" s="127"/>
-      <c r="K64" s="143"/>
+      <c r="J64" s="136"/>
+      <c r="K64" s="139"/>
     </row>
     <row r="65" spans="1:11">
       <c r="A65" s="26"/>
       <c r="B65" s="4"/>
-      <c r="C65" s="129"/>
-      <c r="D65" s="129"/>
-      <c r="E65" s="129"/>
-      <c r="F65" s="129"/>
-      <c r="G65" s="142"/>
-      <c r="H65" s="128"/>
-      <c r="I65" s="142"/>
-      <c r="J65" s="127"/>
-      <c r="K65" s="143"/>
+      <c r="C65" s="133"/>
+      <c r="D65" s="133"/>
+      <c r="E65" s="133"/>
+      <c r="F65" s="133"/>
+      <c r="G65" s="138"/>
+      <c r="H65" s="137"/>
+      <c r="I65" s="138"/>
+      <c r="J65" s="136"/>
+      <c r="K65" s="139"/>
     </row>
     <row r="66" spans="1:11">
       <c r="A66" s="26"/>
       <c r="B66" s="4"/>
-      <c r="C66" s="129"/>
-      <c r="D66" s="129"/>
-      <c r="E66" s="129"/>
-      <c r="F66" s="129"/>
-      <c r="G66" s="142"/>
-      <c r="H66" s="128"/>
-      <c r="I66" s="142"/>
-      <c r="J66" s="127"/>
-      <c r="K66" s="143"/>
+      <c r="C66" s="133"/>
+      <c r="D66" s="133"/>
+      <c r="E66" s="133"/>
+      <c r="F66" s="133"/>
+      <c r="G66" s="138"/>
+      <c r="H66" s="137"/>
+      <c r="I66" s="138"/>
+      <c r="J66" s="136"/>
+      <c r="K66" s="139"/>
     </row>
     <row r="67" spans="1:11">
       <c r="A67" s="22"/>
@@ -4903,6 +4934,28 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="D20:K20"/>
+    <mergeCell ref="D21:K21"/>
+    <mergeCell ref="D22:K22"/>
+    <mergeCell ref="D25:K25"/>
+    <mergeCell ref="D26:K26"/>
+    <mergeCell ref="D27:K27"/>
+    <mergeCell ref="D30:K30"/>
+    <mergeCell ref="D31:K31"/>
+    <mergeCell ref="D32:K32"/>
+    <mergeCell ref="D49:K49"/>
+    <mergeCell ref="D50:K50"/>
+    <mergeCell ref="D51:K51"/>
+    <mergeCell ref="C54:K54"/>
+    <mergeCell ref="C55:K55"/>
+    <mergeCell ref="C56:K56"/>
+    <mergeCell ref="C59:K59"/>
+    <mergeCell ref="C60:K60"/>
+    <mergeCell ref="C61:K61"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="G64:H64"/>
+    <mergeCell ref="I64:K64"/>
     <mergeCell ref="C65:D65"/>
     <mergeCell ref="E65:F65"/>
     <mergeCell ref="G65:H65"/>
@@ -4911,28 +4964,6 @@
     <mergeCell ref="E66:F66"/>
     <mergeCell ref="G66:H66"/>
     <mergeCell ref="I66:K66"/>
-    <mergeCell ref="C59:K59"/>
-    <mergeCell ref="C60:K60"/>
-    <mergeCell ref="C61:K61"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="E64:F64"/>
-    <mergeCell ref="G64:H64"/>
-    <mergeCell ref="I64:K64"/>
-    <mergeCell ref="D50:K50"/>
-    <mergeCell ref="D51:K51"/>
-    <mergeCell ref="C54:K54"/>
-    <mergeCell ref="C55:K55"/>
-    <mergeCell ref="C56:K56"/>
-    <mergeCell ref="D27:K27"/>
-    <mergeCell ref="D30:K30"/>
-    <mergeCell ref="D31:K31"/>
-    <mergeCell ref="D32:K32"/>
-    <mergeCell ref="D49:K49"/>
-    <mergeCell ref="D20:K20"/>
-    <mergeCell ref="D21:K21"/>
-    <mergeCell ref="D22:K22"/>
-    <mergeCell ref="D25:K25"/>
-    <mergeCell ref="D26:K26"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
@@ -4964,41 +4995,41 @@
       </c>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="134" t="s">
+      <c r="A3" s="131" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="134" t="s">
+      <c r="B3" s="131" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="136" t="s">
+      <c r="C3" s="135" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="127"/>
-      <c r="E3" s="128"/>
-      <c r="F3" s="136" t="s">
+      <c r="D3" s="136"/>
+      <c r="E3" s="137"/>
+      <c r="F3" s="135" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="127"/>
-      <c r="H3" s="128"/>
-      <c r="I3" s="136" t="s">
+      <c r="G3" s="136"/>
+      <c r="H3" s="137"/>
+      <c r="I3" s="135" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="127"/>
-      <c r="K3" s="128"/>
-      <c r="L3" s="127" t="s">
+      <c r="J3" s="136"/>
+      <c r="K3" s="137"/>
+      <c r="L3" s="136" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="127"/>
-      <c r="N3" s="128"/>
-      <c r="O3" s="129" t="s">
+      <c r="M3" s="136"/>
+      <c r="N3" s="137"/>
+      <c r="O3" s="133" t="s">
         <v>14</v>
       </c>
-      <c r="P3" s="129"/>
-      <c r="Q3" s="129"/>
+      <c r="P3" s="133"/>
+      <c r="Q3" s="133"/>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="135"/>
-      <c r="B4" s="135"/>
+      <c r="A4" s="132"/>
+      <c r="B4" s="132"/>
       <c r="C4" s="5" t="s">
         <v>15</v>
       </c>
@@ -5046,7 +5077,7 @@
       </c>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="129" t="s">
+      <c r="A5" s="133" t="s">
         <v>18</v>
       </c>
       <c r="B5" s="5">
@@ -5096,7 +5127,7 @@
       </c>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="129"/>
+      <c r="A6" s="133"/>
       <c r="B6" s="5">
         <v>88</v>
       </c>
@@ -5144,7 +5175,7 @@
       </c>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="129"/>
+      <c r="A7" s="133"/>
       <c r="B7" s="5">
         <v>100</v>
       </c>
@@ -5192,7 +5223,7 @@
       </c>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="129"/>
+      <c r="A8" s="133"/>
       <c r="B8" s="5" t="s">
         <v>19</v>
       </c>
@@ -5249,7 +5280,7 @@
       </c>
     </row>
     <row r="9" spans="1:17" hidden="1">
-      <c r="A9" s="134" t="s">
+      <c r="A9" s="131" t="s">
         <v>20</v>
       </c>
       <c r="B9" s="5">
@@ -5296,7 +5327,7 @@
       <c r="Q9" s="40"/>
     </row>
     <row r="10" spans="1:17" hidden="1">
-      <c r="A10" s="135"/>
+      <c r="A10" s="132"/>
       <c r="B10" s="5" t="s">
         <v>19</v>
       </c>
@@ -5350,7 +5381,7 @@
       <c r="Q10" s="40"/>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="129" t="s">
+      <c r="A11" s="133" t="s">
         <v>21</v>
       </c>
       <c r="B11" s="5">
@@ -5403,7 +5434,7 @@
       </c>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="129"/>
+      <c r="A12" s="133"/>
       <c r="B12" s="5">
         <v>180</v>
       </c>
@@ -5454,7 +5485,7 @@
       </c>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="129"/>
+      <c r="A13" s="133"/>
       <c r="B13" s="5">
         <v>240</v>
       </c>
@@ -5505,7 +5536,7 @@
       </c>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="129"/>
+      <c r="A14" s="133"/>
       <c r="B14" s="5" t="s">
         <v>19</v>
       </c>
@@ -5610,7 +5641,7 @@
       <c r="L20" s="39"/>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="129" t="s">
+      <c r="A21" s="133" t="s">
         <v>18</v>
       </c>
       <c r="B21" s="5">
@@ -5641,7 +5672,7 @@
       <c r="L21" s="34"/>
     </row>
     <row r="22" spans="1:12">
-      <c r="A22" s="129"/>
+      <c r="A22" s="133"/>
       <c r="B22" s="5">
         <v>88</v>
       </c>
@@ -5670,7 +5701,7 @@
       <c r="L22" s="34"/>
     </row>
     <row r="23" spans="1:12">
-      <c r="A23" s="129"/>
+      <c r="A23" s="133"/>
       <c r="B23" s="5">
         <v>100</v>
       </c>
@@ -5699,7 +5730,7 @@
       <c r="L23" s="34"/>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24" s="129"/>
+      <c r="A24" s="133"/>
       <c r="B24" s="5" t="s">
         <v>19</v>
       </c>
@@ -5921,29 +5952,29 @@
         <v>123</v>
       </c>
       <c r="O15" s="9"/>
-      <c r="P15" s="129" t="s">
+      <c r="P15" s="133" t="s">
         <v>107</v>
       </c>
-      <c r="Q15" s="129" t="s">
+      <c r="Q15" s="133" t="s">
         <v>109</v>
       </c>
-      <c r="R15" s="129" t="s">
+      <c r="R15" s="133" t="s">
         <v>124</v>
       </c>
-      <c r="S15" s="129"/>
-      <c r="T15" s="129" t="s">
+      <c r="S15" s="133"/>
+      <c r="T15" s="133" t="s">
         <v>125</v>
       </c>
-      <c r="U15" s="129"/>
-      <c r="V15" s="129"/>
+      <c r="U15" s="133"/>
+      <c r="V15" s="133"/>
     </row>
     <row r="16" spans="1:22">
       <c r="A16" t="s">
         <v>126</v>
       </c>
       <c r="O16" s="9"/>
-      <c r="P16" s="144"/>
-      <c r="Q16" s="144"/>
+      <c r="P16" s="145"/>
+      <c r="Q16" s="145"/>
       <c r="R16" s="5" t="s">
         <v>113</v>
       </c>
@@ -6054,17 +6085,17 @@
       <c r="Q21" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="R21" s="129">
+      <c r="R21" s="133">
         <f>SUM(R17:S18)</f>
         <v>1500</v>
       </c>
-      <c r="S21" s="129"/>
-      <c r="T21" s="142">
+      <c r="S21" s="133"/>
+      <c r="T21" s="138">
         <f>SUM(T17:V20)</f>
         <v>1500</v>
       </c>
-      <c r="U21" s="127"/>
-      <c r="V21" s="128"/>
+      <c r="U21" s="136"/>
+      <c r="V21" s="137"/>
     </row>
     <row r="22" spans="1:22">
       <c r="A22" t="s">
@@ -6333,8 +6364,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="S19" sqref="S19"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="O28" sqref="O28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6349,37 +6380,37 @@
     </row>
     <row r="2" spans="1:10" ht="20.25">
       <c r="A2" s="3" t="s">
-        <v>158</v>
+        <v>293</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="21" thickBot="1">
       <c r="A3" s="3"/>
     </row>
     <row r="4" spans="1:10" ht="18.75" customHeight="1">
-      <c r="A4" s="166" t="s">
+      <c r="A4" s="146" t="s">
         <v>159</v>
       </c>
-      <c r="B4" s="166" t="s">
+      <c r="B4" s="146" t="s">
         <v>125</v>
       </c>
-      <c r="C4" s="170" t="s">
+      <c r="C4" s="152" t="s">
         <v>124</v>
       </c>
-      <c r="D4" s="171"/>
-      <c r="E4" s="166" t="s">
+      <c r="D4" s="153"/>
+      <c r="E4" s="146" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A5" s="167"/>
-      <c r="B5" s="167"/>
+      <c r="A5" s="147"/>
+      <c r="B5" s="147"/>
       <c r="C5" s="102" t="s">
         <v>202</v>
       </c>
       <c r="D5" s="103" t="s">
         <v>203</v>
       </c>
-      <c r="E5" s="167"/>
+      <c r="E5" s="147"/>
       <c r="J5" s="50" t="s">
         <v>210</v>
       </c>
@@ -6526,86 +6557,86 @@
       <c r="B14" s="88">
         <v>50</v>
       </c>
-      <c r="C14" s="168" t="s">
+      <c r="C14" s="148" t="s">
         <v>208</v>
       </c>
-      <c r="D14" s="152"/>
+      <c r="D14" s="149"/>
       <c r="E14" s="84">
         <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="65.25" customHeight="1">
       <c r="A16" s="3" t="s">
-        <v>161</v>
+        <v>294</v>
       </c>
     </row>
     <row r="17" spans="1:19" ht="32.25" customHeight="1">
-      <c r="A17" s="169" t="s">
+      <c r="A17" s="150" t="s">
         <v>214</v>
       </c>
-      <c r="B17" s="165"/>
-      <c r="C17" s="165" t="s">
+      <c r="B17" s="151"/>
+      <c r="C17" s="151" t="s">
         <v>215</v>
       </c>
-      <c r="D17" s="165"/>
-      <c r="E17" s="165"/>
-      <c r="F17" s="165"/>
-      <c r="G17" s="165"/>
-      <c r="H17" s="160" t="s">
+      <c r="D17" s="151"/>
+      <c r="E17" s="151"/>
+      <c r="F17" s="151"/>
+      <c r="G17" s="151"/>
+      <c r="H17" s="154" t="s">
         <v>216</v>
       </c>
-      <c r="I17" s="160"/>
-      <c r="J17" s="163" t="s">
+      <c r="I17" s="154"/>
+      <c r="J17" s="155" t="s">
         <v>217</v>
       </c>
-      <c r="K17" s="164"/>
+      <c r="K17" s="156"/>
     </row>
     <row r="18" spans="1:19" ht="25.5" customHeight="1">
-      <c r="A18" s="147" t="s">
+      <c r="A18" s="158" t="s">
         <v>289</v>
       </c>
-      <c r="B18" s="145"/>
-      <c r="C18" s="146" t="s">
+      <c r="B18" s="159"/>
+      <c r="C18" s="157" t="s">
         <v>288</v>
       </c>
-      <c r="D18" s="147"/>
-      <c r="E18" s="147"/>
-      <c r="F18" s="145"/>
-      <c r="G18" s="146" t="s">
+      <c r="D18" s="158"/>
+      <c r="E18" s="158"/>
+      <c r="F18" s="159"/>
+      <c r="G18" s="157" t="s">
         <v>222</v>
       </c>
-      <c r="H18" s="147"/>
-      <c r="I18" s="147"/>
-      <c r="J18" s="147"/>
-      <c r="K18" s="147"/>
+      <c r="H18" s="158"/>
+      <c r="I18" s="158"/>
+      <c r="J18" s="158"/>
+      <c r="K18" s="158"/>
       <c r="N18" s="54" t="s">
-        <v>204</v>
+        <v>295</v>
       </c>
     </row>
     <row r="19" spans="1:19" ht="21" customHeight="1">
-      <c r="A19" s="142" t="s">
+      <c r="A19" s="138" t="s">
         <v>76</v>
       </c>
-      <c r="B19" s="128"/>
-      <c r="C19" s="145" t="s">
+      <c r="B19" s="137"/>
+      <c r="C19" s="159" t="s">
         <v>226</v>
       </c>
-      <c r="D19" s="146"/>
+      <c r="D19" s="157"/>
       <c r="E19" s="52" t="s">
         <v>219</v>
       </c>
-      <c r="F19" s="145" t="s">
+      <c r="F19" s="159" t="s">
         <v>218</v>
       </c>
-      <c r="G19" s="128"/>
-      <c r="H19" s="145" t="s">
+      <c r="G19" s="137"/>
+      <c r="H19" s="159" t="s">
         <v>220</v>
       </c>
-      <c r="I19" s="128"/>
-      <c r="J19" s="145" t="s">
+      <c r="I19" s="137"/>
+      <c r="J19" s="159" t="s">
         <v>224</v>
       </c>
-      <c r="K19" s="128"/>
+      <c r="K19" s="137"/>
       <c r="N19" s="49" t="s">
         <v>146</v>
       </c>
@@ -6626,23 +6657,23 @@
       </c>
     </row>
     <row r="20" spans="1:19" ht="21" customHeight="1">
-      <c r="A20" s="145" t="s">
+      <c r="A20" s="159" t="s">
         <v>227</v>
       </c>
-      <c r="B20" s="128"/>
-      <c r="C20" s="145" t="s">
+      <c r="B20" s="137"/>
+      <c r="C20" s="159" t="s">
         <v>229</v>
       </c>
-      <c r="D20" s="128"/>
+      <c r="D20" s="137"/>
       <c r="E20" s="45"/>
-      <c r="F20" s="142"/>
-      <c r="G20" s="128"/>
-      <c r="H20" s="142"/>
-      <c r="I20" s="128"/>
-      <c r="J20" s="145" t="s">
+      <c r="F20" s="138"/>
+      <c r="G20" s="137"/>
+      <c r="H20" s="138"/>
+      <c r="I20" s="137"/>
+      <c r="J20" s="159" t="s">
         <v>225</v>
       </c>
-      <c r="K20" s="128"/>
+      <c r="K20" s="137"/>
       <c r="N20" s="49"/>
       <c r="O20" s="49"/>
       <c r="P20" s="49"/>
@@ -6653,23 +6684,23 @@
       <c r="S20" s="49"/>
     </row>
     <row r="21" spans="1:19" ht="21" customHeight="1">
-      <c r="A21" s="145" t="s">
+      <c r="A21" s="159" t="s">
         <v>227</v>
       </c>
-      <c r="B21" s="128"/>
-      <c r="C21" s="145" t="s">
+      <c r="B21" s="137"/>
+      <c r="C21" s="159" t="s">
         <v>230</v>
       </c>
-      <c r="D21" s="128"/>
+      <c r="D21" s="137"/>
       <c r="E21" s="45"/>
-      <c r="F21" s="142"/>
-      <c r="G21" s="128"/>
-      <c r="H21" s="142"/>
-      <c r="I21" s="128"/>
-      <c r="J21" s="145" t="s">
+      <c r="F21" s="138"/>
+      <c r="G21" s="137"/>
+      <c r="H21" s="138"/>
+      <c r="I21" s="137"/>
+      <c r="J21" s="159" t="s">
         <v>225</v>
       </c>
-      <c r="K21" s="128"/>
+      <c r="K21" s="137"/>
       <c r="N21" s="49"/>
       <c r="O21" s="49"/>
       <c r="P21" s="49"/>
@@ -6678,69 +6709,69 @@
       <c r="S21" s="49"/>
     </row>
     <row r="22" spans="1:19" ht="21" customHeight="1">
-      <c r="A22" s="145" t="s">
+      <c r="A22" s="159" t="s">
         <v>228</v>
       </c>
-      <c r="B22" s="128"/>
-      <c r="C22" s="145" t="s">
+      <c r="B22" s="137"/>
+      <c r="C22" s="159" t="s">
         <v>231</v>
       </c>
-      <c r="D22" s="128"/>
+      <c r="D22" s="137"/>
       <c r="E22" s="49"/>
-      <c r="F22" s="142"/>
-      <c r="G22" s="128"/>
-      <c r="H22" s="142"/>
-      <c r="I22" s="128"/>
-      <c r="J22" s="145" t="s">
+      <c r="F22" s="138"/>
+      <c r="G22" s="137"/>
+      <c r="H22" s="138"/>
+      <c r="I22" s="137"/>
+      <c r="J22" s="159" t="s">
         <v>225</v>
       </c>
-      <c r="K22" s="128"/>
+      <c r="K22" s="137"/>
     </row>
     <row r="23" spans="1:19" ht="21" customHeight="1">
-      <c r="A23" s="145" t="s">
+      <c r="A23" s="159" t="s">
         <v>228</v>
       </c>
-      <c r="B23" s="128"/>
-      <c r="C23" s="145" t="s">
+      <c r="B23" s="137"/>
+      <c r="C23" s="159" t="s">
         <v>232</v>
       </c>
-      <c r="D23" s="128"/>
+      <c r="D23" s="137"/>
       <c r="E23" s="49"/>
-      <c r="F23" s="142"/>
-      <c r="G23" s="128"/>
-      <c r="H23" s="142"/>
-      <c r="I23" s="128"/>
-      <c r="J23" s="145" t="s">
+      <c r="F23" s="138"/>
+      <c r="G23" s="137"/>
+      <c r="H23" s="138"/>
+      <c r="I23" s="137"/>
+      <c r="J23" s="159" t="s">
         <v>225</v>
       </c>
-      <c r="K23" s="128"/>
+      <c r="K23" s="137"/>
     </row>
     <row r="26" spans="1:19" ht="32.25" customHeight="1" thickBot="1">
-      <c r="A26" s="157" t="s">
+      <c r="A26" s="164" t="s">
         <v>214</v>
       </c>
-      <c r="B26" s="158"/>
-      <c r="C26" s="158" t="s">
+      <c r="B26" s="165"/>
+      <c r="C26" s="165" t="s">
         <v>215</v>
       </c>
-      <c r="D26" s="158"/>
-      <c r="E26" s="158"/>
-      <c r="F26" s="158"/>
-      <c r="G26" s="158"/>
-      <c r="H26" s="159" t="s">
+      <c r="D26" s="165"/>
+      <c r="E26" s="165"/>
+      <c r="F26" s="165"/>
+      <c r="G26" s="165"/>
+      <c r="H26" s="166" t="s">
         <v>216</v>
       </c>
-      <c r="I26" s="159"/>
-      <c r="J26" s="160" t="s">
+      <c r="I26" s="166"/>
+      <c r="J26" s="154" t="s">
         <v>217</v>
       </c>
-      <c r="K26" s="160"/>
+      <c r="K26" s="154"/>
     </row>
     <row r="27" spans="1:19" ht="25.5" customHeight="1">
-      <c r="A27" s="161" t="s">
+      <c r="A27" s="167" t="s">
         <v>233</v>
       </c>
-      <c r="B27" s="162"/>
+      <c r="B27" s="168"/>
       <c r="C27" s="60"/>
       <c r="D27" s="61"/>
       <c r="E27" s="62"/>
@@ -6758,86 +6789,61 @@
       <c r="B28" s="59" t="s">
         <v>89</v>
       </c>
-      <c r="C28" s="135" t="s">
+      <c r="C28" s="132" t="s">
         <v>90</v>
       </c>
-      <c r="D28" s="135"/>
-      <c r="E28" s="135" t="s">
+      <c r="D28" s="132"/>
+      <c r="E28" s="132" t="s">
         <v>91</v>
       </c>
-      <c r="F28" s="135"/>
-      <c r="G28" s="153" t="s">
+      <c r="F28" s="132"/>
+      <c r="G28" s="160" t="s">
         <v>92</v>
       </c>
-      <c r="H28" s="154"/>
-      <c r="I28" s="153" t="s">
+      <c r="H28" s="161"/>
+      <c r="I28" s="160" t="s">
         <v>93</v>
       </c>
-      <c r="J28" s="155"/>
-      <c r="K28" s="156"/>
+      <c r="J28" s="162"/>
+      <c r="K28" s="163"/>
     </row>
     <row r="29" spans="1:19" ht="21.75" customHeight="1">
       <c r="A29" s="26"/>
       <c r="B29" s="49"/>
-      <c r="C29" s="129"/>
-      <c r="D29" s="129"/>
-      <c r="E29" s="129"/>
-      <c r="F29" s="129"/>
-      <c r="G29" s="142"/>
-      <c r="H29" s="128"/>
-      <c r="I29" s="142"/>
-      <c r="J29" s="127"/>
-      <c r="K29" s="143"/>
+      <c r="C29" s="133"/>
+      <c r="D29" s="133"/>
+      <c r="E29" s="133"/>
+      <c r="F29" s="133"/>
+      <c r="G29" s="138"/>
+      <c r="H29" s="137"/>
+      <c r="I29" s="138"/>
+      <c r="J29" s="136"/>
+      <c r="K29" s="139"/>
     </row>
     <row r="30" spans="1:19" ht="21.75" customHeight="1" thickBot="1">
       <c r="A30" s="58"/>
       <c r="B30" s="57"/>
-      <c r="C30" s="148"/>
-      <c r="D30" s="148"/>
-      <c r="E30" s="148"/>
-      <c r="F30" s="148"/>
-      <c r="G30" s="149"/>
-      <c r="H30" s="150"/>
-      <c r="I30" s="149"/>
-      <c r="J30" s="151"/>
-      <c r="K30" s="152"/>
+      <c r="C30" s="169"/>
+      <c r="D30" s="169"/>
+      <c r="E30" s="169"/>
+      <c r="F30" s="169"/>
+      <c r="G30" s="170"/>
+      <c r="H30" s="171"/>
+      <c r="I30" s="170"/>
+      <c r="J30" s="172"/>
+      <c r="K30" s="149"/>
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="G18:K18"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="I29:K29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="J19:K19"/>
     <mergeCell ref="J20:K20"/>
@@ -6849,15 +6855,40 @@
     <mergeCell ref="F20:G20"/>
     <mergeCell ref="F22:G22"/>
     <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="G18:K18"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B4:B5"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6868,13 +6899,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T110"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I13" sqref="B13:I13"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="9" width="13" customWidth="1"/>
+    <col min="1" max="1" width="18.5" customWidth="1"/>
+    <col min="2" max="9" width="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="31.5" customHeight="1">
@@ -6884,7 +6916,7 @@
     </row>
     <row r="3" spans="1:9" ht="29.25" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>168</v>
+        <v>292</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -6903,11 +6935,11 @@
       <c r="A5" s="45" t="s">
         <v>146</v>
       </c>
-      <c r="B5" s="142" t="s">
+      <c r="B5" s="138" t="s">
         <v>147</v>
       </c>
-      <c r="C5" s="127"/>
-      <c r="D5" s="128"/>
+      <c r="C5" s="136"/>
+      <c r="D5" s="137"/>
       <c r="E5" s="52" t="s">
         <v>243</v>
       </c>
@@ -6926,11 +6958,11 @@
       <c r="A6" s="66">
         <v>43136.354166666664</v>
       </c>
-      <c r="B6" s="203" t="s">
+      <c r="B6" s="176" t="s">
         <v>235</v>
       </c>
-      <c r="C6" s="204"/>
-      <c r="D6" s="205"/>
+      <c r="C6" s="177"/>
+      <c r="D6" s="178"/>
       <c r="E6" s="45">
         <v>400</v>
       </c>
@@ -6946,7 +6978,54 @@
         <v>160</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="30" customHeight="1"/>
+    <row r="7" spans="1:9">
+      <c r="A7" s="66">
+        <v>43137.354166608799</v>
+      </c>
+      <c r="B7" s="176" t="s">
+        <v>290</v>
+      </c>
+      <c r="C7" s="177"/>
+      <c r="D7" s="178"/>
+      <c r="E7" s="127">
+        <v>400</v>
+      </c>
+      <c r="F7" s="127">
+        <v>200</v>
+      </c>
+      <c r="G7" s="127">
+        <v>40</v>
+      </c>
+      <c r="H7" s="127"/>
+      <c r="I7" s="127">
+        <f t="shared" ref="I7:I8" si="0">E7-F7-G7</f>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="30" customHeight="1">
+      <c r="A8" s="66">
+        <v>43138.354166608799</v>
+      </c>
+      <c r="B8" s="176" t="s">
+        <v>291</v>
+      </c>
+      <c r="C8" s="177"/>
+      <c r="D8" s="178"/>
+      <c r="E8" s="127">
+        <v>400</v>
+      </c>
+      <c r="F8" s="127">
+        <v>200</v>
+      </c>
+      <c r="G8" s="127">
+        <v>40</v>
+      </c>
+      <c r="H8" s="127"/>
+      <c r="I8" s="127">
+        <f t="shared" si="0"/>
+        <v>160</v>
+      </c>
+    </row>
     <row r="9" spans="1:9" ht="37.5" customHeight="1">
       <c r="A9" s="3" t="s">
         <v>158</v>
@@ -6956,30 +7035,30 @@
       <c r="A10" s="3"/>
     </row>
     <row r="11" spans="1:9" ht="27.75" customHeight="1">
-      <c r="A11" s="200" t="s">
+      <c r="A11" s="173" t="s">
         <v>159</v>
       </c>
-      <c r="B11" s="206" t="s">
+      <c r="B11" s="179" t="s">
         <v>125</v>
       </c>
-      <c r="C11" s="208"/>
-      <c r="D11" s="207"/>
-      <c r="E11" s="206" t="s">
+      <c r="C11" s="181"/>
+      <c r="D11" s="180"/>
+      <c r="E11" s="179" t="s">
         <v>220</v>
       </c>
-      <c r="F11" s="207"/>
-      <c r="G11" s="200" t="s">
+      <c r="F11" s="180"/>
+      <c r="G11" s="173" t="s">
         <v>243</v>
       </c>
-      <c r="H11" s="200" t="s">
+      <c r="H11" s="173" t="s">
         <v>240</v>
       </c>
-      <c r="I11" s="171" t="s">
+      <c r="I11" s="153" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="27.75" customHeight="1">
-      <c r="A12" s="201"/>
+      <c r="A12" s="174"/>
       <c r="B12" s="79" t="s">
         <v>237</v>
       </c>
@@ -6995,9 +7074,9 @@
       <c r="F12" s="80" t="s">
         <v>236</v>
       </c>
-      <c r="G12" s="201"/>
-      <c r="H12" s="201"/>
-      <c r="I12" s="202"/>
+      <c r="G12" s="174"/>
+      <c r="H12" s="174"/>
+      <c r="I12" s="175"/>
     </row>
     <row r="13" spans="1:9" ht="27.75" customHeight="1">
       <c r="A13" s="75">
@@ -7206,15 +7285,15 @@
       <c r="A20" s="78" t="s">
         <v>132</v>
       </c>
-      <c r="B20" s="197" t="s">
+      <c r="B20" s="182" t="s">
         <v>242</v>
       </c>
-      <c r="C20" s="198"/>
-      <c r="D20" s="199"/>
-      <c r="E20" s="197" t="s">
+      <c r="C20" s="183"/>
+      <c r="D20" s="184"/>
+      <c r="E20" s="182" t="s">
         <v>241</v>
       </c>
-      <c r="F20" s="199"/>
+      <c r="F20" s="184"/>
       <c r="G20" s="88">
         <v>2888</v>
       </c>
@@ -7232,80 +7311,80 @@
       </c>
     </row>
     <row r="24" spans="1:20" ht="25.5" customHeight="1">
-      <c r="A24" s="169" t="s">
+      <c r="A24" s="150" t="s">
         <v>214</v>
       </c>
-      <c r="B24" s="165"/>
-      <c r="C24" s="165" t="s">
+      <c r="B24" s="151"/>
+      <c r="C24" s="151" t="s">
         <v>246</v>
       </c>
-      <c r="D24" s="165"/>
-      <c r="E24" s="165"/>
-      <c r="F24" s="165"/>
-      <c r="G24" s="165"/>
+      <c r="D24" s="151"/>
+      <c r="E24" s="151"/>
+      <c r="F24" s="151"/>
+      <c r="G24" s="151"/>
       <c r="H24" s="112"/>
-      <c r="I24" s="182" t="s">
+      <c r="I24" s="185" t="s">
         <v>216</v>
       </c>
-      <c r="J24" s="182"/>
-      <c r="K24" s="163" t="s">
+      <c r="J24" s="185"/>
+      <c r="K24" s="155" t="s">
         <v>245</v>
       </c>
-      <c r="L24" s="164"/>
+      <c r="L24" s="156"/>
     </row>
     <row r="25" spans="1:20" ht="29.25" customHeight="1">
-      <c r="A25" s="147" t="s">
+      <c r="A25" s="158" t="s">
         <v>223</v>
       </c>
-      <c r="B25" s="145"/>
-      <c r="C25" s="146" t="s">
+      <c r="B25" s="159"/>
+      <c r="C25" s="157" t="s">
         <v>221</v>
       </c>
-      <c r="D25" s="147"/>
-      <c r="E25" s="147"/>
-      <c r="F25" s="145"/>
-      <c r="G25" s="146" t="s">
+      <c r="D25" s="158"/>
+      <c r="E25" s="158"/>
+      <c r="F25" s="159"/>
+      <c r="G25" s="157" t="s">
         <v>222</v>
       </c>
-      <c r="H25" s="146"/>
-      <c r="I25" s="147"/>
-      <c r="J25" s="147"/>
-      <c r="K25" s="147"/>
-      <c r="L25" s="147"/>
-      <c r="O25" s="176" t="s">
+      <c r="H25" s="157"/>
+      <c r="I25" s="158"/>
+      <c r="J25" s="158"/>
+      <c r="K25" s="158"/>
+      <c r="L25" s="158"/>
+      <c r="O25" s="201" t="s">
         <v>204</v>
       </c>
-      <c r="P25" s="176"/>
-      <c r="Q25" s="176"/>
-      <c r="R25" s="176"/>
-      <c r="S25" s="176"/>
-      <c r="T25" s="176"/>
+      <c r="P25" s="201"/>
+      <c r="Q25" s="201"/>
+      <c r="R25" s="201"/>
+      <c r="S25" s="201"/>
+      <c r="T25" s="201"/>
     </row>
     <row r="26" spans="1:20" ht="29.25" customHeight="1">
-      <c r="A26" s="193" t="s">
+      <c r="A26" s="186" t="s">
         <v>76</v>
       </c>
-      <c r="B26" s="194"/>
-      <c r="C26" s="195" t="s">
+      <c r="B26" s="187"/>
+      <c r="C26" s="188" t="s">
         <v>226</v>
       </c>
-      <c r="D26" s="196"/>
-      <c r="E26" s="180" t="s">
+      <c r="D26" s="189"/>
+      <c r="E26" s="205" t="s">
         <v>219</v>
       </c>
-      <c r="F26" s="178"/>
-      <c r="G26" s="178" t="s">
+      <c r="F26" s="203"/>
+      <c r="G26" s="203" t="s">
         <v>218</v>
       </c>
-      <c r="H26" s="179"/>
-      <c r="I26" s="195" t="s">
+      <c r="H26" s="204"/>
+      <c r="I26" s="188" t="s">
         <v>220</v>
       </c>
-      <c r="J26" s="194"/>
-      <c r="K26" s="195" t="s">
+      <c r="J26" s="187"/>
+      <c r="K26" s="188" t="s">
         <v>224</v>
       </c>
-      <c r="L26" s="194"/>
+      <c r="L26" s="187"/>
       <c r="O26" s="59" t="s">
         <v>146</v>
       </c>
@@ -7326,26 +7405,26 @@
       </c>
     </row>
     <row r="27" spans="1:20" ht="29.25" customHeight="1">
-      <c r="A27" s="145" t="s">
+      <c r="A27" s="159" t="s">
         <v>227</v>
       </c>
-      <c r="B27" s="128"/>
-      <c r="C27" s="145" t="s">
+      <c r="B27" s="137"/>
+      <c r="C27" s="159" t="s">
         <v>229</v>
       </c>
-      <c r="D27" s="127"/>
-      <c r="E27" s="181"/>
-      <c r="F27" s="181"/>
-      <c r="G27" s="181"/>
-      <c r="H27" s="181"/>
-      <c r="I27" s="189" t="s">
+      <c r="D27" s="136"/>
+      <c r="E27" s="194"/>
+      <c r="F27" s="194"/>
+      <c r="G27" s="194"/>
+      <c r="H27" s="194"/>
+      <c r="I27" s="190" t="s">
         <v>244</v>
       </c>
-      <c r="J27" s="190"/>
-      <c r="K27" s="145" t="s">
+      <c r="J27" s="191"/>
+      <c r="K27" s="159" t="s">
         <v>225</v>
       </c>
-      <c r="L27" s="128"/>
+      <c r="L27" s="137"/>
       <c r="O27" s="49"/>
       <c r="P27" s="49"/>
       <c r="Q27" s="49"/>
@@ -7356,26 +7435,26 @@
       <c r="T27" s="49"/>
     </row>
     <row r="28" spans="1:20" ht="29.25" customHeight="1">
-      <c r="A28" s="145" t="s">
+      <c r="A28" s="159" t="s">
         <v>227</v>
       </c>
-      <c r="B28" s="128"/>
-      <c r="C28" s="145" t="s">
+      <c r="B28" s="137"/>
+      <c r="C28" s="159" t="s">
         <v>230</v>
       </c>
-      <c r="D28" s="127"/>
-      <c r="E28" s="181"/>
-      <c r="F28" s="181"/>
-      <c r="G28" s="181"/>
-      <c r="H28" s="181"/>
-      <c r="I28" s="191" t="s">
+      <c r="D28" s="136"/>
+      <c r="E28" s="194"/>
+      <c r="F28" s="194"/>
+      <c r="G28" s="194"/>
+      <c r="H28" s="194"/>
+      <c r="I28" s="192" t="s">
         <v>273</v>
       </c>
-      <c r="J28" s="192"/>
-      <c r="K28" s="145" t="s">
+      <c r="J28" s="193"/>
+      <c r="K28" s="159" t="s">
         <v>225</v>
       </c>
-      <c r="L28" s="128"/>
+      <c r="L28" s="137"/>
       <c r="O28" s="49"/>
       <c r="P28" s="49"/>
       <c r="Q28" s="49"/>
@@ -7384,87 +7463,87 @@
       <c r="T28" s="49"/>
     </row>
     <row r="29" spans="1:20" ht="29.25" customHeight="1">
-      <c r="A29" s="145" t="s">
+      <c r="A29" s="159" t="s">
         <v>228</v>
       </c>
-      <c r="B29" s="128"/>
-      <c r="C29" s="145" t="s">
+      <c r="B29" s="137"/>
+      <c r="C29" s="159" t="s">
         <v>231</v>
       </c>
-      <c r="D29" s="127"/>
-      <c r="E29" s="181"/>
-      <c r="F29" s="181"/>
-      <c r="G29" s="181"/>
-      <c r="H29" s="181"/>
-      <c r="I29" s="127"/>
-      <c r="J29" s="128"/>
-      <c r="K29" s="145" t="s">
+      <c r="D29" s="136"/>
+      <c r="E29" s="194"/>
+      <c r="F29" s="194"/>
+      <c r="G29" s="194"/>
+      <c r="H29" s="194"/>
+      <c r="I29" s="136"/>
+      <c r="J29" s="137"/>
+      <c r="K29" s="159" t="s">
         <v>225</v>
       </c>
-      <c r="L29" s="128"/>
+      <c r="L29" s="137"/>
     </row>
     <row r="30" spans="1:20" ht="29.25" customHeight="1">
-      <c r="A30" s="145" t="s">
+      <c r="A30" s="159" t="s">
         <v>228</v>
       </c>
-      <c r="B30" s="128"/>
-      <c r="C30" s="145" t="s">
+      <c r="B30" s="137"/>
+      <c r="C30" s="159" t="s">
         <v>232</v>
       </c>
-      <c r="D30" s="127"/>
-      <c r="E30" s="181"/>
-      <c r="F30" s="181"/>
-      <c r="G30" s="181"/>
-      <c r="H30" s="181"/>
-      <c r="I30" s="127"/>
-      <c r="J30" s="128"/>
-      <c r="K30" s="145" t="s">
+      <c r="D30" s="136"/>
+      <c r="E30" s="194"/>
+      <c r="F30" s="194"/>
+      <c r="G30" s="194"/>
+      <c r="H30" s="194"/>
+      <c r="I30" s="136"/>
+      <c r="J30" s="137"/>
+      <c r="K30" s="159" t="s">
         <v>225</v>
       </c>
-      <c r="L30" s="128"/>
+      <c r="L30" s="137"/>
     </row>
     <row r="31" spans="1:20" ht="29.25" customHeight="1"/>
     <row r="32" spans="1:20" ht="29.25" customHeight="1">
-      <c r="A32" s="169" t="s">
+      <c r="A32" s="150" t="s">
         <v>214</v>
       </c>
-      <c r="B32" s="165"/>
-      <c r="C32" s="165" t="s">
+      <c r="B32" s="151"/>
+      <c r="C32" s="151" t="s">
         <v>246</v>
       </c>
-      <c r="D32" s="165"/>
-      <c r="E32" s="165"/>
-      <c r="F32" s="165"/>
-      <c r="G32" s="165"/>
+      <c r="D32" s="151"/>
+      <c r="E32" s="151"/>
+      <c r="F32" s="151"/>
+      <c r="G32" s="151"/>
       <c r="H32" s="112"/>
-      <c r="I32" s="163" t="s">
+      <c r="I32" s="155" t="s">
         <v>216</v>
       </c>
-      <c r="J32" s="163"/>
-      <c r="K32" s="182" t="s">
+      <c r="J32" s="155"/>
+      <c r="K32" s="185" t="s">
         <v>245</v>
       </c>
-      <c r="L32" s="182"/>
+      <c r="L32" s="185"/>
     </row>
     <row r="33" spans="1:12" ht="29.25" customHeight="1">
-      <c r="A33" s="147" t="s">
+      <c r="A33" s="158" t="s">
         <v>247</v>
       </c>
-      <c r="B33" s="145"/>
-      <c r="C33" s="177"/>
-      <c r="D33" s="177"/>
-      <c r="E33" s="177" t="s">
+      <c r="B33" s="159"/>
+      <c r="C33" s="202"/>
+      <c r="D33" s="202"/>
+      <c r="E33" s="202" t="s">
         <v>271</v>
       </c>
-      <c r="F33" s="177"/>
-      <c r="G33" s="177"/>
+      <c r="F33" s="202"/>
+      <c r="G33" s="202"/>
       <c r="H33" s="67"/>
-      <c r="I33" s="177" t="s">
+      <c r="I33" s="202" t="s">
         <v>267</v>
       </c>
-      <c r="J33" s="177"/>
-      <c r="K33" s="177"/>
-      <c r="L33" s="146"/>
+      <c r="J33" s="202"/>
+      <c r="K33" s="202"/>
+      <c r="L33" s="157"/>
     </row>
     <row r="34" spans="1:12" ht="29.25" customHeight="1">
       <c r="A34" s="89" t="s">
@@ -7473,52 +7552,52 @@
       <c r="B34" s="91" t="s">
         <v>249</v>
       </c>
-      <c r="C34" s="183" t="s">
+      <c r="C34" s="195" t="s">
         <v>250</v>
       </c>
-      <c r="D34" s="184"/>
-      <c r="E34" s="183" t="s">
+      <c r="D34" s="196"/>
+      <c r="E34" s="195" t="s">
         <v>251</v>
       </c>
-      <c r="F34" s="184"/>
-      <c r="G34" s="185" t="s">
+      <c r="F34" s="196"/>
+      <c r="G34" s="197" t="s">
         <v>236</v>
       </c>
-      <c r="H34" s="186"/>
-      <c r="I34" s="187"/>
-      <c r="J34" s="185" t="s">
+      <c r="H34" s="198"/>
+      <c r="I34" s="199"/>
+      <c r="J34" s="197" t="s">
         <v>224</v>
       </c>
-      <c r="K34" s="188"/>
-      <c r="L34" s="187"/>
+      <c r="K34" s="200"/>
+      <c r="L34" s="199"/>
     </row>
     <row r="35" spans="1:12" ht="29.25" customHeight="1">
       <c r="A35" s="49"/>
       <c r="B35" s="49"/>
-      <c r="C35" s="129"/>
-      <c r="D35" s="129"/>
-      <c r="E35" s="129"/>
-      <c r="F35" s="129"/>
-      <c r="G35" s="142"/>
-      <c r="H35" s="127"/>
-      <c r="I35" s="128"/>
-      <c r="J35" s="142"/>
-      <c r="K35" s="127"/>
-      <c r="L35" s="128"/>
+      <c r="C35" s="133"/>
+      <c r="D35" s="133"/>
+      <c r="E35" s="133"/>
+      <c r="F35" s="133"/>
+      <c r="G35" s="138"/>
+      <c r="H35" s="136"/>
+      <c r="I35" s="137"/>
+      <c r="J35" s="138"/>
+      <c r="K35" s="136"/>
+      <c r="L35" s="137"/>
     </row>
     <row r="36" spans="1:12" ht="29.25" customHeight="1">
       <c r="A36" s="49"/>
       <c r="B36" s="49"/>
-      <c r="C36" s="129"/>
-      <c r="D36" s="129"/>
-      <c r="E36" s="129"/>
-      <c r="F36" s="129"/>
-      <c r="G36" s="142"/>
-      <c r="H36" s="127"/>
-      <c r="I36" s="128"/>
-      <c r="J36" s="142"/>
-      <c r="K36" s="127"/>
-      <c r="L36" s="128"/>
+      <c r="C36" s="133"/>
+      <c r="D36" s="133"/>
+      <c r="E36" s="133"/>
+      <c r="F36" s="133"/>
+      <c r="G36" s="138"/>
+      <c r="H36" s="136"/>
+      <c r="I36" s="137"/>
+      <c r="J36" s="138"/>
+      <c r="K36" s="136"/>
+      <c r="L36" s="137"/>
     </row>
     <row r="38" spans="1:12" ht="47.25" customHeight="1"/>
     <row r="39" spans="1:12" ht="45" customHeight="1">
@@ -7539,10 +7618,10 @@
       <c r="D40" s="118" t="s">
         <v>283</v>
       </c>
-      <c r="E40" s="174" t="s">
+      <c r="E40" s="208" t="s">
         <v>284</v>
       </c>
-      <c r="F40" s="175"/>
+      <c r="F40" s="209"/>
       <c r="G40" s="34"/>
       <c r="H40" s="34"/>
       <c r="I40" s="11"/>
@@ -7656,15 +7735,15 @@
         <v>252</v>
       </c>
       <c r="C46" s="45">
-        <f t="shared" ref="C46:E46" si="0">SUM(C43:C45)</f>
+        <f t="shared" ref="C46:E46" si="1">SUM(C43:C45)</f>
         <v>135</v>
       </c>
       <c r="D46" s="45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E46" s="47">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>97</v>
       </c>
       <c r="F46" s="122">
@@ -7812,7 +7891,7 @@
       </c>
     </row>
     <row r="91" spans="1:8">
-      <c r="B91" s="129" t="s">
+      <c r="B91" s="133" t="s">
         <v>190</v>
       </c>
       <c r="C91" s="49" t="s">
@@ -7822,14 +7901,14 @@
       <c r="E91" s="106" t="s">
         <v>191</v>
       </c>
-      <c r="F91" s="172" t="s">
+      <c r="F91" s="206" t="s">
         <v>261</v>
       </c>
-      <c r="G91" s="173"/>
+      <c r="G91" s="207"/>
       <c r="H91" s="114"/>
     </row>
     <row r="92" spans="1:8">
-      <c r="B92" s="129"/>
+      <c r="B92" s="133"/>
       <c r="C92" s="49" t="s">
         <v>127</v>
       </c>
@@ -7837,12 +7916,12 @@
       <c r="E92" s="106" t="s">
         <v>191</v>
       </c>
-      <c r="F92" s="173"/>
-      <c r="G92" s="173"/>
+      <c r="F92" s="207"/>
+      <c r="G92" s="207"/>
       <c r="H92" s="114"/>
     </row>
     <row r="93" spans="1:8">
-      <c r="B93" s="129" t="s">
+      <c r="B93" s="133" t="s">
         <v>192</v>
       </c>
       <c r="C93" s="49" t="s">
@@ -7852,12 +7931,12 @@
       <c r="E93" s="106" t="s">
         <v>191</v>
       </c>
-      <c r="F93" s="173"/>
-      <c r="G93" s="173"/>
+      <c r="F93" s="207"/>
+      <c r="G93" s="207"/>
       <c r="H93" s="114"/>
     </row>
     <row r="94" spans="1:8">
-      <c r="B94" s="129"/>
+      <c r="B94" s="133"/>
       <c r="C94" s="49" t="s">
         <v>16</v>
       </c>
@@ -7865,12 +7944,12 @@
       <c r="E94" s="106" t="s">
         <v>191</v>
       </c>
-      <c r="F94" s="173"/>
-      <c r="G94" s="173"/>
+      <c r="F94" s="207"/>
+      <c r="G94" s="207"/>
       <c r="H94" s="114"/>
     </row>
     <row r="95" spans="1:8">
-      <c r="B95" s="129"/>
+      <c r="B95" s="133"/>
       <c r="C95" s="49" t="s">
         <v>115</v>
       </c>
@@ -7878,12 +7957,12 @@
       <c r="E95" s="106" t="s">
         <v>191</v>
       </c>
-      <c r="F95" s="173"/>
-      <c r="G95" s="173"/>
+      <c r="F95" s="207"/>
+      <c r="G95" s="207"/>
       <c r="H95" s="114"/>
     </row>
     <row r="96" spans="1:8">
-      <c r="B96" s="129"/>
+      <c r="B96" s="133"/>
       <c r="C96" s="51" t="s">
         <v>262</v>
       </c>
@@ -7968,56 +8047,14 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="72">
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="G25:L25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="J36:L36"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="J34:L34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="J35:L35"/>
+  <mergeCells count="74">
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="F91:G95"/>
+    <mergeCell ref="B93:B96"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="E40:F40"/>
     <mergeCell ref="O25:T25"/>
     <mergeCell ref="A33:B33"/>
     <mergeCell ref="C33:D33"/>
@@ -8034,13 +8071,57 @@
     <mergeCell ref="G27:H27"/>
     <mergeCell ref="G28:H28"/>
     <mergeCell ref="G29:H29"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="F91:G95"/>
-    <mergeCell ref="B93:B96"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="J36:L36"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="J34:L34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="J35:L35"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="G25:L25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8086,43 +8167,43 @@
       <c r="A5" s="45" t="s">
         <v>146</v>
       </c>
-      <c r="B5" s="142" t="s">
+      <c r="B5" s="138" t="s">
         <v>147</v>
       </c>
-      <c r="C5" s="127"/>
-      <c r="D5" s="128"/>
+      <c r="C5" s="136"/>
+      <c r="D5" s="137"/>
       <c r="E5" s="52" t="s">
         <v>243</v>
       </c>
       <c r="F5" s="45" t="s">
         <v>117</v>
       </c>
-      <c r="G5" s="145" t="s">
+      <c r="G5" s="159" t="s">
         <v>205</v>
       </c>
-      <c r="H5" s="177"/>
-      <c r="I5" s="146"/>
+      <c r="H5" s="202"/>
+      <c r="I5" s="157"/>
     </row>
     <row r="6" spans="1:16" ht="78.75" customHeight="1">
       <c r="A6" s="66">
         <v>43136.354166666664</v>
       </c>
-      <c r="B6" s="203" t="s">
+      <c r="B6" s="176" t="s">
         <v>235</v>
       </c>
-      <c r="C6" s="204"/>
-      <c r="D6" s="205"/>
+      <c r="C6" s="177"/>
+      <c r="D6" s="178"/>
       <c r="E6" s="45">
         <v>400</v>
       </c>
       <c r="F6" s="45">
         <v>200</v>
       </c>
-      <c r="G6" s="142">
+      <c r="G6" s="138">
         <v>200</v>
       </c>
-      <c r="H6" s="127"/>
-      <c r="I6" s="128"/>
+      <c r="H6" s="136"/>
+      <c r="I6" s="137"/>
     </row>
     <row r="8" spans="1:16" ht="30" customHeight="1"/>
     <row r="9" spans="1:16" ht="37.5" customHeight="1">
@@ -8134,30 +8215,30 @@
       <c r="A10" s="3"/>
     </row>
     <row r="11" spans="1:16" ht="27.75" customHeight="1">
-      <c r="A11" s="200" t="s">
+      <c r="A11" s="173" t="s">
         <v>159</v>
       </c>
-      <c r="B11" s="206" t="s">
+      <c r="B11" s="179" t="s">
         <v>125</v>
       </c>
-      <c r="C11" s="208"/>
-      <c r="D11" s="207"/>
-      <c r="E11" s="206" t="s">
+      <c r="C11" s="181"/>
+      <c r="D11" s="180"/>
+      <c r="E11" s="179" t="s">
         <v>220</v>
       </c>
-      <c r="F11" s="207"/>
-      <c r="G11" s="200" t="s">
+      <c r="F11" s="180"/>
+      <c r="G11" s="173" t="s">
         <v>243</v>
       </c>
-      <c r="H11" s="200" t="s">
+      <c r="H11" s="173" t="s">
         <v>240</v>
       </c>
-      <c r="I11" s="210" t="s">
+      <c r="I11" s="214" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="27.75" customHeight="1">
-      <c r="A12" s="201"/>
+      <c r="A12" s="174"/>
       <c r="B12" s="79" t="s">
         <v>265</v>
       </c>
@@ -8173,9 +8254,9 @@
       <c r="F12" s="80" t="s">
         <v>236</v>
       </c>
-      <c r="G12" s="201"/>
-      <c r="H12" s="201"/>
-      <c r="I12" s="211"/>
+      <c r="G12" s="174"/>
+      <c r="H12" s="174"/>
+      <c r="I12" s="215"/>
       <c r="J12" s="126" t="s">
         <v>287</v>
       </c>
@@ -8416,15 +8497,15 @@
       <c r="A20" s="78" t="s">
         <v>132</v>
       </c>
-      <c r="B20" s="197" t="s">
+      <c r="B20" s="182" t="s">
         <v>242</v>
       </c>
-      <c r="C20" s="198"/>
-      <c r="D20" s="199"/>
-      <c r="E20" s="197" t="s">
+      <c r="C20" s="183"/>
+      <c r="D20" s="184"/>
+      <c r="E20" s="182" t="s">
         <v>241</v>
       </c>
-      <c r="F20" s="199"/>
+      <c r="F20" s="184"/>
       <c r="G20" s="88">
         <v>2888</v>
       </c>
@@ -8436,10 +8517,10 @@
       </c>
     </row>
     <row r="21" spans="1:20" ht="23.25" customHeight="1">
-      <c r="E21" s="213" t="s">
+      <c r="E21" s="211" t="s">
         <v>274</v>
       </c>
-      <c r="F21" s="213"/>
+      <c r="F21" s="211"/>
     </row>
     <row r="22" spans="1:20" ht="30" customHeight="1"/>
     <row r="23" spans="1:20" ht="44.25" customHeight="1">
@@ -8448,82 +8529,82 @@
       </c>
     </row>
     <row r="24" spans="1:20" ht="25.5" customHeight="1">
-      <c r="A24" s="169" t="s">
+      <c r="A24" s="150" t="s">
         <v>214</v>
       </c>
-      <c r="B24" s="165"/>
-      <c r="C24" s="165" t="s">
+      <c r="B24" s="151"/>
+      <c r="C24" s="151" t="s">
         <v>272</v>
       </c>
-      <c r="D24" s="165"/>
-      <c r="E24" s="165"/>
-      <c r="F24" s="165"/>
-      <c r="G24" s="165"/>
+      <c r="D24" s="151"/>
+      <c r="E24" s="151"/>
+      <c r="F24" s="151"/>
+      <c r="G24" s="151"/>
       <c r="H24" s="112"/>
-      <c r="I24" s="182" t="s">
+      <c r="I24" s="185" t="s">
         <v>268</v>
       </c>
-      <c r="J24" s="182"/>
-      <c r="K24" s="163" t="s">
+      <c r="J24" s="185"/>
+      <c r="K24" s="155" t="s">
         <v>245</v>
       </c>
-      <c r="L24" s="164"/>
+      <c r="L24" s="156"/>
     </row>
     <row r="25" spans="1:20" ht="29.25" customHeight="1">
-      <c r="A25" s="147" t="s">
+      <c r="A25" s="158" t="s">
         <v>269</v>
       </c>
-      <c r="B25" s="145"/>
-      <c r="C25" s="177" t="s">
+      <c r="B25" s="159"/>
+      <c r="C25" s="202" t="s">
         <v>271</v>
       </c>
-      <c r="D25" s="177"/>
-      <c r="E25" s="214" t="s">
+      <c r="D25" s="202"/>
+      <c r="E25" s="212" t="s">
         <v>270</v>
       </c>
-      <c r="F25" s="214"/>
-      <c r="G25" s="214"/>
+      <c r="F25" s="212"/>
+      <c r="G25" s="212"/>
       <c r="H25" s="116"/>
-      <c r="I25" s="177" t="s">
+      <c r="I25" s="202" t="s">
         <v>267</v>
       </c>
-      <c r="J25" s="177"/>
-      <c r="K25" s="177"/>
-      <c r="L25" s="146"/>
-      <c r="O25" s="176" t="s">
+      <c r="J25" s="202"/>
+      <c r="K25" s="202"/>
+      <c r="L25" s="157"/>
+      <c r="O25" s="201" t="s">
         <v>204</v>
       </c>
-      <c r="P25" s="176"/>
-      <c r="Q25" s="176"/>
-      <c r="R25" s="176"/>
-      <c r="S25" s="176"/>
-      <c r="T25" s="176"/>
+      <c r="P25" s="201"/>
+      <c r="Q25" s="201"/>
+      <c r="R25" s="201"/>
+      <c r="S25" s="201"/>
+      <c r="T25" s="201"/>
     </row>
     <row r="26" spans="1:20" ht="29.25" customHeight="1">
-      <c r="A26" s="193" t="s">
+      <c r="A26" s="186" t="s">
         <v>76</v>
       </c>
-      <c r="B26" s="194"/>
-      <c r="C26" s="195" t="s">
+      <c r="B26" s="187"/>
+      <c r="C26" s="188" t="s">
         <v>226</v>
       </c>
-      <c r="D26" s="215"/>
-      <c r="E26" s="212" t="s">
+      <c r="D26" s="210"/>
+      <c r="E26" s="213" t="s">
         <v>219</v>
       </c>
-      <c r="F26" s="212"/>
-      <c r="G26" s="212" t="s">
+      <c r="F26" s="213"/>
+      <c r="G26" s="213" t="s">
         <v>218</v>
       </c>
-      <c r="H26" s="212"/>
-      <c r="I26" s="215" t="s">
+      <c r="H26" s="213"/>
+      <c r="I26" s="210" t="s">
         <v>220</v>
       </c>
-      <c r="J26" s="194"/>
-      <c r="K26" s="195" t="s">
+      <c r="J26" s="187"/>
+      <c r="K26" s="188" t="s">
         <v>224</v>
       </c>
-      <c r="L26" s="194"/>
+      <c r="L26" s="187"/>
       <c r="O26" s="59" t="s">
         <v>146</v>
       </c>
@@ -8544,26 +8625,26 @@
       </c>
     </row>
     <row r="27" spans="1:20" ht="29.25" customHeight="1">
-      <c r="A27" s="145" t="s">
+      <c r="A27" s="159" t="s">
         <v>227</v>
       </c>
-      <c r="B27" s="128"/>
-      <c r="C27" s="145" t="s">
+      <c r="B27" s="137"/>
+      <c r="C27" s="159" t="s">
         <v>229</v>
       </c>
-      <c r="D27" s="127"/>
-      <c r="E27" s="181"/>
-      <c r="F27" s="181"/>
-      <c r="G27" s="181"/>
-      <c r="H27" s="181"/>
-      <c r="I27" s="189" t="s">
+      <c r="D27" s="136"/>
+      <c r="E27" s="194"/>
+      <c r="F27" s="194"/>
+      <c r="G27" s="194"/>
+      <c r="H27" s="194"/>
+      <c r="I27" s="190" t="s">
         <v>244</v>
       </c>
-      <c r="J27" s="190"/>
-      <c r="K27" s="145" t="s">
+      <c r="J27" s="191"/>
+      <c r="K27" s="159" t="s">
         <v>225</v>
       </c>
-      <c r="L27" s="128"/>
+      <c r="L27" s="137"/>
       <c r="O27" s="49"/>
       <c r="P27" s="49"/>
       <c r="Q27" s="49"/>
@@ -8574,26 +8655,26 @@
       <c r="T27" s="49"/>
     </row>
     <row r="28" spans="1:20" ht="29.25" customHeight="1">
-      <c r="A28" s="145" t="s">
+      <c r="A28" s="159" t="s">
         <v>227</v>
       </c>
-      <c r="B28" s="128"/>
-      <c r="C28" s="145" t="s">
+      <c r="B28" s="137"/>
+      <c r="C28" s="159" t="s">
         <v>230</v>
       </c>
-      <c r="D28" s="127"/>
-      <c r="E28" s="181"/>
-      <c r="F28" s="181"/>
-      <c r="G28" s="181"/>
-      <c r="H28" s="181"/>
-      <c r="I28" s="191" t="s">
+      <c r="D28" s="136"/>
+      <c r="E28" s="194"/>
+      <c r="F28" s="194"/>
+      <c r="G28" s="194"/>
+      <c r="H28" s="194"/>
+      <c r="I28" s="192" t="s">
         <v>274</v>
       </c>
-      <c r="J28" s="192"/>
-      <c r="K28" s="145" t="s">
+      <c r="J28" s="193"/>
+      <c r="K28" s="159" t="s">
         <v>225</v>
       </c>
-      <c r="L28" s="128"/>
+      <c r="L28" s="137"/>
       <c r="O28" s="49"/>
       <c r="P28" s="49"/>
       <c r="Q28" s="49"/>
@@ -8602,87 +8683,87 @@
       <c r="T28" s="49"/>
     </row>
     <row r="29" spans="1:20" ht="29.25" customHeight="1">
-      <c r="A29" s="145" t="s">
+      <c r="A29" s="159" t="s">
         <v>228</v>
       </c>
-      <c r="B29" s="128"/>
-      <c r="C29" s="145" t="s">
+      <c r="B29" s="137"/>
+      <c r="C29" s="159" t="s">
         <v>231</v>
       </c>
-      <c r="D29" s="127"/>
-      <c r="E29" s="181"/>
-      <c r="F29" s="181"/>
-      <c r="G29" s="181"/>
-      <c r="H29" s="181"/>
-      <c r="I29" s="127"/>
-      <c r="J29" s="128"/>
-      <c r="K29" s="145" t="s">
+      <c r="D29" s="136"/>
+      <c r="E29" s="194"/>
+      <c r="F29" s="194"/>
+      <c r="G29" s="194"/>
+      <c r="H29" s="194"/>
+      <c r="I29" s="136"/>
+      <c r="J29" s="137"/>
+      <c r="K29" s="159" t="s">
         <v>225</v>
       </c>
-      <c r="L29" s="128"/>
+      <c r="L29" s="137"/>
     </row>
     <row r="30" spans="1:20" ht="29.25" customHeight="1">
-      <c r="A30" s="145" t="s">
+      <c r="A30" s="159" t="s">
         <v>228</v>
       </c>
-      <c r="B30" s="128"/>
-      <c r="C30" s="145" t="s">
+      <c r="B30" s="137"/>
+      <c r="C30" s="159" t="s">
         <v>232</v>
       </c>
-      <c r="D30" s="127"/>
-      <c r="E30" s="181"/>
-      <c r="F30" s="181"/>
-      <c r="G30" s="181"/>
-      <c r="H30" s="181"/>
-      <c r="I30" s="127"/>
-      <c r="J30" s="128"/>
-      <c r="K30" s="145" t="s">
+      <c r="D30" s="136"/>
+      <c r="E30" s="194"/>
+      <c r="F30" s="194"/>
+      <c r="G30" s="194"/>
+      <c r="H30" s="194"/>
+      <c r="I30" s="136"/>
+      <c r="J30" s="137"/>
+      <c r="K30" s="159" t="s">
         <v>225</v>
       </c>
-      <c r="L30" s="128"/>
+      <c r="L30" s="137"/>
     </row>
     <row r="31" spans="1:20" ht="29.25" customHeight="1"/>
     <row r="32" spans="1:20" ht="29.25" customHeight="1">
-      <c r="A32" s="169" t="s">
+      <c r="A32" s="150" t="s">
         <v>214</v>
       </c>
-      <c r="B32" s="165"/>
-      <c r="C32" s="165" t="s">
+      <c r="B32" s="151"/>
+      <c r="C32" s="151" t="s">
         <v>272</v>
       </c>
-      <c r="D32" s="165"/>
-      <c r="E32" s="165"/>
-      <c r="F32" s="165"/>
-      <c r="G32" s="165"/>
+      <c r="D32" s="151"/>
+      <c r="E32" s="151"/>
+      <c r="F32" s="151"/>
+      <c r="G32" s="151"/>
       <c r="H32" s="112"/>
-      <c r="I32" s="163" t="s">
+      <c r="I32" s="155" t="s">
         <v>268</v>
       </c>
-      <c r="J32" s="163"/>
-      <c r="K32" s="182" t="s">
+      <c r="J32" s="155"/>
+      <c r="K32" s="185" t="s">
         <v>245</v>
       </c>
-      <c r="L32" s="182"/>
+      <c r="L32" s="185"/>
     </row>
     <row r="33" spans="1:12" ht="29.25" customHeight="1">
-      <c r="A33" s="147" t="s">
+      <c r="A33" s="158" t="s">
         <v>247</v>
       </c>
-      <c r="B33" s="145"/>
-      <c r="C33" s="177"/>
-      <c r="D33" s="177"/>
-      <c r="E33" s="177" t="s">
+      <c r="B33" s="159"/>
+      <c r="C33" s="202"/>
+      <c r="D33" s="202"/>
+      <c r="E33" s="202" t="s">
         <v>271</v>
       </c>
-      <c r="F33" s="177"/>
-      <c r="G33" s="177"/>
+      <c r="F33" s="202"/>
+      <c r="G33" s="202"/>
       <c r="H33" s="67"/>
-      <c r="I33" s="177" t="s">
+      <c r="I33" s="202" t="s">
         <v>267</v>
       </c>
-      <c r="J33" s="177"/>
-      <c r="K33" s="177"/>
-      <c r="L33" s="146"/>
+      <c r="J33" s="202"/>
+      <c r="K33" s="202"/>
+      <c r="L33" s="157"/>
     </row>
     <row r="34" spans="1:12" ht="29.25" customHeight="1">
       <c r="A34" s="89" t="s">
@@ -8691,52 +8772,52 @@
       <c r="B34" s="91" t="s">
         <v>249</v>
       </c>
-      <c r="C34" s="183" t="s">
+      <c r="C34" s="195" t="s">
         <v>250</v>
       </c>
-      <c r="D34" s="184"/>
-      <c r="E34" s="183" t="s">
+      <c r="D34" s="196"/>
+      <c r="E34" s="195" t="s">
         <v>251</v>
       </c>
-      <c r="F34" s="184"/>
-      <c r="G34" s="185" t="s">
+      <c r="F34" s="196"/>
+      <c r="G34" s="197" t="s">
         <v>236</v>
       </c>
-      <c r="H34" s="186"/>
-      <c r="I34" s="187"/>
-      <c r="J34" s="185" t="s">
+      <c r="H34" s="198"/>
+      <c r="I34" s="199"/>
+      <c r="J34" s="197" t="s">
         <v>224</v>
       </c>
-      <c r="K34" s="188"/>
-      <c r="L34" s="187"/>
+      <c r="K34" s="200"/>
+      <c r="L34" s="199"/>
     </row>
     <row r="35" spans="1:12" ht="29.25" customHeight="1">
       <c r="A35" s="49"/>
       <c r="B35" s="49"/>
-      <c r="C35" s="129"/>
-      <c r="D35" s="129"/>
-      <c r="E35" s="129"/>
-      <c r="F35" s="129"/>
-      <c r="G35" s="142"/>
-      <c r="H35" s="127"/>
-      <c r="I35" s="128"/>
-      <c r="J35" s="142"/>
-      <c r="K35" s="127"/>
-      <c r="L35" s="128"/>
+      <c r="C35" s="133"/>
+      <c r="D35" s="133"/>
+      <c r="E35" s="133"/>
+      <c r="F35" s="133"/>
+      <c r="G35" s="138"/>
+      <c r="H35" s="136"/>
+      <c r="I35" s="137"/>
+      <c r="J35" s="138"/>
+      <c r="K35" s="136"/>
+      <c r="L35" s="137"/>
     </row>
     <row r="36" spans="1:12" ht="29.25" customHeight="1">
       <c r="A36" s="49"/>
       <c r="B36" s="49"/>
-      <c r="C36" s="129"/>
-      <c r="D36" s="129"/>
-      <c r="E36" s="129"/>
-      <c r="F36" s="129"/>
-      <c r="G36" s="142"/>
-      <c r="H36" s="127"/>
-      <c r="I36" s="128"/>
-      <c r="J36" s="142"/>
-      <c r="K36" s="127"/>
-      <c r="L36" s="128"/>
+      <c r="C36" s="133"/>
+      <c r="D36" s="133"/>
+      <c r="E36" s="133"/>
+      <c r="F36" s="133"/>
+      <c r="G36" s="138"/>
+      <c r="H36" s="136"/>
+      <c r="I36" s="137"/>
+      <c r="J36" s="138"/>
+      <c r="K36" s="136"/>
+      <c r="L36" s="137"/>
     </row>
     <row r="38" spans="1:12" ht="28.5" customHeight="1"/>
     <row r="39" spans="1:12" ht="48" customHeight="1">
@@ -8757,16 +8838,16 @@
       <c r="D40" s="118" t="s">
         <v>283</v>
       </c>
-      <c r="E40" s="174" t="s">
+      <c r="E40" s="208" t="s">
         <v>284</v>
       </c>
-      <c r="F40" s="175"/>
+      <c r="F40" s="209"/>
     </row>
     <row r="41" spans="1:12" ht="45" customHeight="1">
-      <c r="A41" s="209" t="s">
+      <c r="A41" s="216" t="s">
         <v>278</v>
       </c>
-      <c r="B41" s="209"/>
+      <c r="B41" s="216"/>
       <c r="D41" s="50" t="s">
         <v>279</v>
       </c>
@@ -9012,7 +9093,7 @@
       </c>
     </row>
     <row r="90" spans="1:8">
-      <c r="B90" s="129" t="s">
+      <c r="B90" s="133" t="s">
         <v>190</v>
       </c>
       <c r="C90" s="49" t="s">
@@ -9022,14 +9103,14 @@
       <c r="E90" s="106" t="s">
         <v>191</v>
       </c>
-      <c r="F90" s="172" t="s">
+      <c r="F90" s="206" t="s">
         <v>261</v>
       </c>
-      <c r="G90" s="173"/>
+      <c r="G90" s="207"/>
       <c r="H90" s="114"/>
     </row>
     <row r="91" spans="1:8">
-      <c r="B91" s="129"/>
+      <c r="B91" s="133"/>
       <c r="C91" s="49" t="s">
         <v>127</v>
       </c>
@@ -9037,12 +9118,12 @@
       <c r="E91" s="106" t="s">
         <v>191</v>
       </c>
-      <c r="F91" s="173"/>
-      <c r="G91" s="173"/>
+      <c r="F91" s="207"/>
+      <c r="G91" s="207"/>
       <c r="H91" s="114"/>
     </row>
     <row r="92" spans="1:8">
-      <c r="B92" s="129" t="s">
+      <c r="B92" s="133" t="s">
         <v>192</v>
       </c>
       <c r="C92" s="49" t="s">
@@ -9052,12 +9133,12 @@
       <c r="E92" s="106" t="s">
         <v>191</v>
       </c>
-      <c r="F92" s="173"/>
-      <c r="G92" s="173"/>
+      <c r="F92" s="207"/>
+      <c r="G92" s="207"/>
       <c r="H92" s="114"/>
     </row>
     <row r="93" spans="1:8">
-      <c r="B93" s="129"/>
+      <c r="B93" s="133"/>
       <c r="C93" s="49" t="s">
         <v>16</v>
       </c>
@@ -9065,12 +9146,12 @@
       <c r="E93" s="106" t="s">
         <v>191</v>
       </c>
-      <c r="F93" s="173"/>
-      <c r="G93" s="173"/>
+      <c r="F93" s="207"/>
+      <c r="G93" s="207"/>
       <c r="H93" s="114"/>
     </row>
     <row r="94" spans="1:8">
-      <c r="B94" s="129"/>
+      <c r="B94" s="133"/>
       <c r="C94" s="49" t="s">
         <v>115</v>
       </c>
@@ -9078,12 +9159,12 @@
       <c r="E94" s="106" t="s">
         <v>191</v>
       </c>
-      <c r="F94" s="173"/>
-      <c r="G94" s="173"/>
+      <c r="F94" s="207"/>
+      <c r="G94" s="207"/>
       <c r="H94" s="114"/>
     </row>
     <row r="95" spans="1:8">
-      <c r="B95" s="129"/>
+      <c r="B95" s="133"/>
       <c r="C95" s="51" t="s">
         <v>262</v>
       </c>
@@ -9169,35 +9250,38 @@
     </row>
   </sheetData>
   <mergeCells count="77">
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="O25:T25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="J34:L34"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="I33:L33"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="J36:L36"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="K29:L29"/>
     <mergeCell ref="B90:B91"/>
     <mergeCell ref="F90:G94"/>
     <mergeCell ref="B92:B95"/>
@@ -9214,38 +9298,35 @@
     <mergeCell ref="J35:L35"/>
     <mergeCell ref="C36:D36"/>
     <mergeCell ref="E36:F36"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="J36:L36"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="J34:L34"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="I33:L33"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="O25:T25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:F11"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/alice/20180302后台财务更新.xlsx
+++ b/doc/alice/20180302后台财务更新.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19029"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Hot-Tech\git.hot-basketball.com\doc\alice\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28080" windowHeight="13200" firstSheet="5" activeTab="5"/>
   </bookViews>
@@ -12,17 +17,18 @@
     <sheet name="课时统计" sheetId="6" state="hidden" r:id="rId3"/>
     <sheet name="资金账单" sheetId="5" state="hidden" r:id="rId4"/>
     <sheet name="Sheet1" sheetId="8" state="hidden" r:id="rId5"/>
-    <sheet name="个人教练" sheetId="13" r:id="rId6"/>
-    <sheet name="训练营（按照课时费计算收入）" sheetId="14" r:id="rId7"/>
-    <sheet name="训练营（机构版，按照营业额计算收入）" sheetId="15" r:id="rId8"/>
-    <sheet name="平台" sheetId="12" r:id="rId9"/>
+    <sheet name="命名" sheetId="16" r:id="rId6"/>
+    <sheet name="个人教练" sheetId="13" r:id="rId7"/>
+    <sheet name="训练营（按照课时费计算收入）" sheetId="14" r:id="rId8"/>
+    <sheet name="训练营（机构版，按照营业额计算收入）" sheetId="15" r:id="rId9"/>
+    <sheet name="平台" sheetId="12" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="124519" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="329">
   <si>
     <t>收：</t>
   </si>
@@ -1188,12 +1194,144 @@
     <t>课时结算表admin/salaryin/scheduleInfo</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
+  <si>
+    <t>教练统计</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>statisticsCoach</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>资金账目</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>收益统计</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>课时统计</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>coachSchedule</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>coachBill</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>coachIncome</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>训练营统计</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>statisticsCamp</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>机构统计</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>campBill</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>campIncome</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>campSchedule</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>statisticsOrgz</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>orgzBill</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>orgzIncome</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>orgzSchedule</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>营业额统计</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>图表统计</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>campChart</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>orgzChart</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>每月报表</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>赠课统计</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>附加支出列表</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>campGift</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>campOutput</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>campStatistics</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>orgzStatistics</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>orgzOutput</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>orgzGift</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>campTurnover</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>orgzTurnover</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1360,8 +1498,24 @@
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="7">
@@ -2040,7 +2194,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="217">
+  <cellXfs count="219">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2425,6 +2579,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2434,32 +2597,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2470,15 +2624,78 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2488,76 +2705,97 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2587,110 +2825,32 @@
     <xf numFmtId="0" fontId="13" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2730,7 +2890,7 @@
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2783,7 +2943,7 @@
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2836,7 +2996,7 @@
         <xdr:cNvPr id="5" name="图片 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2884,7 +3044,7 @@
         <xdr:cNvPr id="6" name="图片 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3203,14 +3363,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T61"/>
   <sheetViews>
     <sheetView topLeftCell="A15" workbookViewId="0">
       <selection activeCell="A27" sqref="A27:XFD61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="14.25" customWidth="1"/>
     <col min="2" max="2" width="11.875" customWidth="1"/>
@@ -3231,84 +3391,84 @@
     <col min="18" max="18" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="41"/>
     </row>
-    <row r="2" spans="1:17" ht="15" customHeight="1">
+    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="42" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="42"/>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
-      <c r="A10" s="131" t="s">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A10" s="135" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="131" t="s">
+      <c r="B10" s="135" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="135" t="s">
+      <c r="C10" s="137" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="136"/>
-      <c r="E10" s="137"/>
-      <c r="F10" s="135" t="s">
+      <c r="D10" s="128"/>
+      <c r="E10" s="129"/>
+      <c r="F10" s="137" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="136"/>
-      <c r="H10" s="137"/>
-      <c r="I10" s="135" t="s">
+      <c r="G10" s="128"/>
+      <c r="H10" s="129"/>
+      <c r="I10" s="137" t="s">
         <v>12</v>
       </c>
-      <c r="J10" s="136"/>
-      <c r="K10" s="137"/>
-      <c r="L10" s="136" t="s">
+      <c r="J10" s="128"/>
+      <c r="K10" s="129"/>
+      <c r="L10" s="128" t="s">
         <v>13</v>
       </c>
-      <c r="M10" s="136"/>
-      <c r="N10" s="137"/>
-      <c r="O10" s="133" t="s">
+      <c r="M10" s="128"/>
+      <c r="N10" s="129"/>
+      <c r="O10" s="130" t="s">
         <v>14</v>
       </c>
-      <c r="P10" s="133"/>
-      <c r="Q10" s="133"/>
-    </row>
-    <row r="11" spans="1:17">
-      <c r="A11" s="132"/>
-      <c r="B11" s="132"/>
+      <c r="P10" s="130"/>
+      <c r="Q10" s="130"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A11" s="136"/>
+      <c r="B11" s="136"/>
       <c r="C11" s="5" t="s">
         <v>15</v>
       </c>
@@ -3355,8 +3515,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
-      <c r="A12" s="133" t="s">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A12" s="130" t="s">
         <v>18</v>
       </c>
       <c r="B12" s="5">
@@ -3405,8 +3565,8 @@
         <v>6806</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
-      <c r="A13" s="133"/>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A13" s="130"/>
       <c r="B13" s="5">
         <v>88</v>
       </c>
@@ -3453,8 +3613,8 @@
         <v>3520</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
-      <c r="A14" s="133"/>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A14" s="130"/>
       <c r="B14" s="5">
         <v>100</v>
       </c>
@@ -3501,8 +3661,8 @@
         <v>26600</v>
       </c>
     </row>
-    <row r="15" spans="1:17">
-      <c r="A15" s="133"/>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A15" s="130"/>
       <c r="B15" s="5" t="s">
         <v>19</v>
       </c>
@@ -3558,8 +3718,8 @@
         <v>36926</v>
       </c>
     </row>
-    <row r="16" spans="1:17" hidden="1">
-      <c r="A16" s="131" t="s">
+    <row r="16" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="135" t="s">
         <v>20</v>
       </c>
       <c r="B16" s="5">
@@ -3605,8 +3765,8 @@
       </c>
       <c r="Q16" s="40"/>
     </row>
-    <row r="17" spans="1:17" hidden="1">
-      <c r="A17" s="132"/>
+    <row r="17" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="136"/>
       <c r="B17" s="5" t="s">
         <v>19</v>
       </c>
@@ -3659,8 +3819,8 @@
       </c>
       <c r="Q17" s="40"/>
     </row>
-    <row r="18" spans="1:17">
-      <c r="A18" s="133" t="s">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A18" s="130" t="s">
         <v>21</v>
       </c>
       <c r="B18" s="5">
@@ -3712,8 +3872,8 @@
         <v>153600</v>
       </c>
     </row>
-    <row r="19" spans="1:17">
-      <c r="A19" s="133"/>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A19" s="130"/>
       <c r="B19" s="5">
         <v>180</v>
       </c>
@@ -3763,8 +3923,8 @@
         <v>3240</v>
       </c>
     </row>
-    <row r="20" spans="1:17">
-      <c r="A20" s="133"/>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A20" s="130"/>
       <c r="B20" s="5">
         <v>240</v>
       </c>
@@ -3814,8 +3974,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:17">
-      <c r="A21" s="133"/>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A21" s="130"/>
       <c r="B21" s="5" t="s">
         <v>19</v>
       </c>
@@ -3871,7 +4031,7 @@
         <v>156840</v>
       </c>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A22" s="43" t="s">
         <v>22</v>
       </c>
@@ -3883,7 +4043,7 @@
       <c r="G22" s="9"/>
       <c r="H22" s="9"/>
     </row>
-    <row r="23" spans="1:17">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A23" s="43" t="s">
         <v>23</v>
       </c>
@@ -3895,7 +4055,7 @@
       <c r="G23" s="9"/>
       <c r="H23" s="9"/>
     </row>
-    <row r="24" spans="1:17">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A24" s="43" t="s">
         <v>24</v>
       </c>
@@ -3907,7 +4067,7 @@
       <c r="G24" s="9"/>
       <c r="H24" s="9"/>
     </row>
-    <row r="25" spans="1:17">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A25" s="44"/>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
@@ -3917,23 +4077,23 @@
       <c r="G25" s="9"/>
       <c r="H25" s="9"/>
     </row>
-    <row r="26" spans="1:17">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A26" s="41" t="s">
         <v>25</v>
       </c>
       <c r="B26" s="41"/>
     </row>
-    <row r="27" spans="1:17">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="44" spans="1:20">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="45" spans="1:20">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
         <v>28</v>
       </c>
@@ -3954,7 +4114,7 @@
       </c>
       <c r="T45" s="11"/>
     </row>
-    <row r="46" spans="1:20">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A46" s="4" t="s">
         <v>34</v>
       </c>
@@ -3979,7 +4139,7 @@
       </c>
       <c r="T46" s="13"/>
     </row>
-    <row r="47" spans="1:20">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A47" s="4" t="s">
         <v>39</v>
       </c>
@@ -3989,22 +4149,22 @@
       <c r="C47" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D47" s="128" t="s">
+      <c r="D47" s="131" t="s">
         <v>41</v>
       </c>
-      <c r="E47" s="129"/>
-      <c r="F47" s="129"/>
-      <c r="G47" s="129"/>
-      <c r="H47" s="129"/>
-      <c r="I47" s="129"/>
-      <c r="J47" s="129"/>
-      <c r="K47" s="130"/>
+      <c r="E47" s="132"/>
+      <c r="F47" s="132"/>
+      <c r="G47" s="132"/>
+      <c r="H47" s="132"/>
+      <c r="I47" s="132"/>
+      <c r="J47" s="132"/>
+      <c r="K47" s="133"/>
       <c r="L47" t="s">
         <v>42</v>
       </c>
       <c r="T47" s="13"/>
     </row>
-    <row r="48" spans="1:20">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A48" s="4" t="s">
         <v>39</v>
       </c>
@@ -4014,22 +4174,22 @@
       <c r="C48" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D48" s="128" t="s">
+      <c r="D48" s="131" t="s">
         <v>44</v>
       </c>
-      <c r="E48" s="129"/>
-      <c r="F48" s="129"/>
-      <c r="G48" s="129"/>
-      <c r="H48" s="129"/>
-      <c r="I48" s="129"/>
-      <c r="J48" s="129"/>
-      <c r="K48" s="130"/>
+      <c r="E48" s="132"/>
+      <c r="F48" s="132"/>
+      <c r="G48" s="132"/>
+      <c r="H48" s="132"/>
+      <c r="I48" s="132"/>
+      <c r="J48" s="132"/>
+      <c r="K48" s="133"/>
       <c r="L48" t="s">
         <v>45</v>
       </c>
       <c r="T48" s="13"/>
     </row>
-    <row r="50" spans="1:20">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
         <v>46</v>
       </c>
@@ -4049,7 +4209,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="51" spans="1:20">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A51" s="4" t="s">
         <v>34</v>
       </c>
@@ -4073,7 +4233,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:20">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A52" s="4" t="s">
         <v>39</v>
       </c>
@@ -4083,21 +4243,21 @@
       <c r="C52" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D52" s="128" t="s">
+      <c r="D52" s="131" t="s">
         <v>51</v>
       </c>
-      <c r="E52" s="129"/>
-      <c r="F52" s="129"/>
-      <c r="G52" s="129"/>
-      <c r="H52" s="129"/>
-      <c r="I52" s="129"/>
-      <c r="J52" s="129"/>
-      <c r="K52" s="130"/>
+      <c r="E52" s="132"/>
+      <c r="F52" s="132"/>
+      <c r="G52" s="132"/>
+      <c r="H52" s="132"/>
+      <c r="I52" s="132"/>
+      <c r="J52" s="132"/>
+      <c r="K52" s="133"/>
       <c r="L52" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="53" spans="1:20">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A53" s="4" t="s">
         <v>39</v>
       </c>
@@ -4107,21 +4267,21 @@
       <c r="C53" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D53" s="128" t="s">
+      <c r="D53" s="131" t="s">
         <v>53</v>
       </c>
-      <c r="E53" s="129"/>
-      <c r="F53" s="129"/>
-      <c r="G53" s="129"/>
-      <c r="H53" s="129"/>
-      <c r="I53" s="129"/>
-      <c r="J53" s="129"/>
-      <c r="K53" s="130"/>
+      <c r="E53" s="132"/>
+      <c r="F53" s="132"/>
+      <c r="G53" s="132"/>
+      <c r="H53" s="132"/>
+      <c r="I53" s="132"/>
+      <c r="J53" s="132"/>
+      <c r="K53" s="133"/>
       <c r="L53" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="54" spans="1:20">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.15">
       <c r="C54" s="9"/>
       <c r="D54" s="37"/>
       <c r="E54" s="37"/>
@@ -4131,7 +4291,7 @@
       <c r="I54" s="37"/>
       <c r="J54" s="37"/>
     </row>
-    <row r="55" spans="1:20">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
         <v>55</v>
       </c>
@@ -4151,7 +4311,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="56" spans="1:20">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A56" s="4" t="s">
         <v>34</v>
       </c>
@@ -4175,7 +4335,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="57" spans="1:20">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A57" s="4" t="s">
         <v>39</v>
       </c>
@@ -4185,21 +4345,21 @@
       <c r="C57" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D57" s="128" t="s">
+      <c r="D57" s="131" t="s">
         <v>51</v>
       </c>
-      <c r="E57" s="129"/>
-      <c r="F57" s="129"/>
-      <c r="G57" s="129"/>
-      <c r="H57" s="129"/>
-      <c r="I57" s="129"/>
-      <c r="J57" s="129"/>
-      <c r="K57" s="130"/>
+      <c r="E57" s="132"/>
+      <c r="F57" s="132"/>
+      <c r="G57" s="132"/>
+      <c r="H57" s="132"/>
+      <c r="I57" s="132"/>
+      <c r="J57" s="132"/>
+      <c r="K57" s="133"/>
       <c r="L57" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="58" spans="1:20">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A58" s="4" t="s">
         <v>39</v>
       </c>
@@ -4209,21 +4369,21 @@
       <c r="C58" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D58" s="128" t="s">
+      <c r="D58" s="131" t="s">
         <v>53</v>
       </c>
-      <c r="E58" s="129"/>
-      <c r="F58" s="129"/>
-      <c r="G58" s="129"/>
-      <c r="H58" s="129"/>
-      <c r="I58" s="129"/>
-      <c r="J58" s="129"/>
-      <c r="K58" s="130"/>
+      <c r="E58" s="132"/>
+      <c r="F58" s="132"/>
+      <c r="G58" s="132"/>
+      <c r="H58" s="132"/>
+      <c r="I58" s="132"/>
+      <c r="J58" s="132"/>
+      <c r="K58" s="133"/>
       <c r="L58" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="59" spans="1:20">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.15">
       <c r="C59" s="9"/>
       <c r="D59" s="27"/>
       <c r="E59" s="27"/>
@@ -4234,22 +4394,17 @@
       <c r="J59" s="27"/>
       <c r="K59" s="27"/>
     </row>
-    <row r="60" spans="1:20">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
         <v>59</v>
       </c>
       <c r="T60" s="11"/>
     </row>
-    <row r="61" spans="1:20">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.15">
       <c r="T61" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="L10:N10"/>
-    <mergeCell ref="O10:Q10"/>
-    <mergeCell ref="D53:K53"/>
-    <mergeCell ref="D56:K56"/>
-    <mergeCell ref="D57:K57"/>
     <mergeCell ref="D58:K58"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A12:A15"/>
@@ -4264,6 +4419,11 @@
     <mergeCell ref="C10:E10"/>
     <mergeCell ref="F10:H10"/>
     <mergeCell ref="I10:K10"/>
+    <mergeCell ref="L10:N10"/>
+    <mergeCell ref="O10:Q10"/>
+    <mergeCell ref="D53:K53"/>
+    <mergeCell ref="D56:K56"/>
+    <mergeCell ref="D57:K57"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
@@ -4271,32 +4431,53 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="12" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T68"/>
   <sheetViews>
     <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="A44" sqref="A44:XFD68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="16.25" customWidth="1"/>
     <col min="2" max="2" width="14.25" customWidth="1"/>
     <col min="11" max="11" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="20.25">
+    <row r="1" spans="1:1" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:20">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:20">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>28</v>
       </c>
@@ -4317,7 +4498,7 @@
       </c>
       <c r="T19" s="11"/>
     </row>
-    <row r="20" spans="1:20">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A20" s="4" t="s">
         <v>34</v>
       </c>
@@ -4339,7 +4520,7 @@
       <c r="K20" s="134"/>
       <c r="T20" s="13"/>
     </row>
-    <row r="21" spans="1:20">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A21" s="4" t="s">
         <v>39</v>
       </c>
@@ -4349,19 +4530,19 @@
       <c r="C21" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D21" s="128" t="s">
+      <c r="D21" s="131" t="s">
         <v>41</v>
       </c>
-      <c r="E21" s="129"/>
-      <c r="F21" s="129"/>
-      <c r="G21" s="129"/>
-      <c r="H21" s="129"/>
-      <c r="I21" s="129"/>
-      <c r="J21" s="129"/>
-      <c r="K21" s="130"/>
+      <c r="E21" s="132"/>
+      <c r="F21" s="132"/>
+      <c r="G21" s="132"/>
+      <c r="H21" s="132"/>
+      <c r="I21" s="132"/>
+      <c r="J21" s="132"/>
+      <c r="K21" s="133"/>
       <c r="T21" s="13"/>
     </row>
-    <row r="22" spans="1:20">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A22" s="4" t="s">
         <v>39</v>
       </c>
@@ -4371,19 +4552,19 @@
       <c r="C22" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D22" s="128" t="s">
+      <c r="D22" s="131" t="s">
         <v>44</v>
       </c>
-      <c r="E22" s="129"/>
-      <c r="F22" s="129"/>
-      <c r="G22" s="129"/>
-      <c r="H22" s="129"/>
-      <c r="I22" s="129"/>
-      <c r="J22" s="129"/>
-      <c r="K22" s="130"/>
+      <c r="E22" s="132"/>
+      <c r="F22" s="132"/>
+      <c r="G22" s="132"/>
+      <c r="H22" s="132"/>
+      <c r="I22" s="132"/>
+      <c r="J22" s="132"/>
+      <c r="K22" s="133"/>
       <c r="T22" s="13"/>
     </row>
-    <row r="24" spans="1:20">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>46</v>
       </c>
@@ -4403,7 +4584,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="1:20">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A25" s="4" t="s">
         <v>34</v>
       </c>
@@ -4424,7 +4605,7 @@
       <c r="J25" s="134"/>
       <c r="K25" s="134"/>
     </row>
-    <row r="26" spans="1:20">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A26" s="4" t="s">
         <v>39</v>
       </c>
@@ -4434,18 +4615,18 @@
       <c r="C26" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D26" s="128" t="s">
+      <c r="D26" s="131" t="s">
         <v>51</v>
       </c>
-      <c r="E26" s="129"/>
-      <c r="F26" s="129"/>
-      <c r="G26" s="129"/>
-      <c r="H26" s="129"/>
-      <c r="I26" s="129"/>
-      <c r="J26" s="129"/>
-      <c r="K26" s="130"/>
-    </row>
-    <row r="27" spans="1:20">
+      <c r="E26" s="132"/>
+      <c r="F26" s="132"/>
+      <c r="G26" s="132"/>
+      <c r="H26" s="132"/>
+      <c r="I26" s="132"/>
+      <c r="J26" s="132"/>
+      <c r="K26" s="133"/>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A27" s="4" t="s">
         <v>39</v>
       </c>
@@ -4455,18 +4636,18 @@
       <c r="C27" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D27" s="128" t="s">
+      <c r="D27" s="131" t="s">
         <v>53</v>
       </c>
-      <c r="E27" s="129"/>
-      <c r="F27" s="129"/>
-      <c r="G27" s="129"/>
-      <c r="H27" s="129"/>
-      <c r="I27" s="129"/>
-      <c r="J27" s="129"/>
-      <c r="K27" s="130"/>
-    </row>
-    <row r="28" spans="1:20">
+      <c r="E27" s="132"/>
+      <c r="F27" s="132"/>
+      <c r="G27" s="132"/>
+      <c r="H27" s="132"/>
+      <c r="I27" s="132"/>
+      <c r="J27" s="132"/>
+      <c r="K27" s="133"/>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.15">
       <c r="C28" s="9"/>
       <c r="D28" s="37"/>
       <c r="E28" s="37"/>
@@ -4476,7 +4657,7 @@
       <c r="I28" s="37"/>
       <c r="J28" s="37"/>
     </row>
-    <row r="29" spans="1:20">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>55</v>
       </c>
@@ -4496,7 +4677,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="1:20">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A30" s="4" t="s">
         <v>34</v>
       </c>
@@ -4517,7 +4698,7 @@
       <c r="J30" s="134"/>
       <c r="K30" s="134"/>
     </row>
-    <row r="31" spans="1:20">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A31" s="4" t="s">
         <v>39</v>
       </c>
@@ -4527,18 +4708,18 @@
       <c r="C31" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D31" s="128" t="s">
+      <c r="D31" s="131" t="s">
         <v>51</v>
       </c>
-      <c r="E31" s="129"/>
-      <c r="F31" s="129"/>
-      <c r="G31" s="129"/>
-      <c r="H31" s="129"/>
-      <c r="I31" s="129"/>
-      <c r="J31" s="129"/>
-      <c r="K31" s="130"/>
-    </row>
-    <row r="32" spans="1:20">
+      <c r="E31" s="132"/>
+      <c r="F31" s="132"/>
+      <c r="G31" s="132"/>
+      <c r="H31" s="132"/>
+      <c r="I31" s="132"/>
+      <c r="J31" s="132"/>
+      <c r="K31" s="133"/>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A32" s="4" t="s">
         <v>39</v>
       </c>
@@ -4548,52 +4729,52 @@
       <c r="C32" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D32" s="128" t="s">
+      <c r="D32" s="131" t="s">
         <v>53</v>
       </c>
-      <c r="E32" s="129"/>
-      <c r="F32" s="129"/>
-      <c r="G32" s="129"/>
-      <c r="H32" s="129"/>
-      <c r="I32" s="129"/>
-      <c r="J32" s="129"/>
-      <c r="K32" s="130"/>
-    </row>
-    <row r="33" spans="1:20">
+      <c r="E32" s="132"/>
+      <c r="F32" s="132"/>
+      <c r="G32" s="132"/>
+      <c r="H32" s="132"/>
+      <c r="I32" s="132"/>
+      <c r="J32" s="132"/>
+      <c r="K32" s="133"/>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>59</v>
       </c>
       <c r="T33" s="11"/>
     </row>
-    <row r="36" spans="1:20">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.15">
       <c r="T36" s="11"/>
     </row>
-    <row r="37" spans="1:20">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="38" spans="1:20">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="39" spans="1:20">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="40" spans="1:20">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="41" spans="1:20">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="44" spans="1:20">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A44" s="16" t="s">
         <v>66</v>
       </c>
@@ -4612,13 +4793,13 @@
       <c r="J44" s="19"/>
       <c r="K44" s="32"/>
     </row>
-    <row r="45" spans="1:20">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A45" s="25"/>
       <c r="B45" s="9"/>
       <c r="C45" s="20"/>
       <c r="K45" s="33"/>
     </row>
-    <row r="46" spans="1:20" ht="22.5">
+    <row r="46" spans="1:20" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A46" s="21" t="s">
         <v>69</v>
       </c>
@@ -4627,7 +4808,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="47" spans="1:20">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A47" s="22"/>
       <c r="B47" s="23"/>
       <c r="C47" s="24"/>
@@ -4636,7 +4817,7 @@
       <c r="F47" s="23"/>
       <c r="K47" s="33"/>
     </row>
-    <row r="48" spans="1:20">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A48" s="25" t="s">
         <v>71</v>
       </c>
@@ -4657,7 +4838,7 @@
       </c>
       <c r="K48" s="33"/>
     </row>
-    <row r="49" spans="1:20">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A49" s="26" t="s">
         <v>76</v>
       </c>
@@ -4676,41 +4857,41 @@
       <c r="H49" s="134"/>
       <c r="I49" s="134"/>
       <c r="J49" s="134"/>
-      <c r="K49" s="144"/>
+      <c r="K49" s="138"/>
       <c r="T49" s="13"/>
     </row>
-    <row r="50" spans="1:20">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A50" s="26"/>
       <c r="B50" s="4"/>
       <c r="C50" s="5"/>
-      <c r="D50" s="128"/>
-      <c r="E50" s="129"/>
-      <c r="F50" s="129"/>
-      <c r="G50" s="129"/>
-      <c r="H50" s="129"/>
-      <c r="I50" s="129"/>
-      <c r="J50" s="129"/>
-      <c r="K50" s="143"/>
+      <c r="D50" s="131"/>
+      <c r="E50" s="132"/>
+      <c r="F50" s="132"/>
+      <c r="G50" s="132"/>
+      <c r="H50" s="132"/>
+      <c r="I50" s="132"/>
+      <c r="J50" s="132"/>
+      <c r="K50" s="139"/>
       <c r="L50" t="s">
         <v>80</v>
       </c>
       <c r="T50" s="13"/>
     </row>
-    <row r="51" spans="1:20">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A51" s="26"/>
       <c r="B51" s="4"/>
       <c r="C51" s="5"/>
-      <c r="D51" s="128"/>
-      <c r="E51" s="129"/>
-      <c r="F51" s="129"/>
-      <c r="G51" s="129"/>
-      <c r="H51" s="129"/>
-      <c r="I51" s="129"/>
-      <c r="J51" s="129"/>
-      <c r="K51" s="143"/>
+      <c r="D51" s="131"/>
+      <c r="E51" s="132"/>
+      <c r="F51" s="132"/>
+      <c r="G51" s="132"/>
+      <c r="H51" s="132"/>
+      <c r="I51" s="132"/>
+      <c r="J51" s="132"/>
+      <c r="K51" s="139"/>
       <c r="T51" s="13"/>
     </row>
-    <row r="52" spans="1:20">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A52" s="22"/>
       <c r="C52" s="9"/>
       <c r="D52" s="27"/>
@@ -4723,7 +4904,7 @@
       <c r="K52" s="35"/>
       <c r="T52" s="37"/>
     </row>
-    <row r="53" spans="1:20">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A53" s="25" t="s">
         <v>81</v>
       </c>
@@ -4745,7 +4926,7 @@
       <c r="K53" s="33"/>
       <c r="T53" s="37"/>
     </row>
-    <row r="54" spans="1:20">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A54" s="26" t="s">
         <v>76</v>
       </c>
@@ -4765,7 +4946,7 @@
       <c r="K54" s="142"/>
       <c r="T54" s="37"/>
     </row>
-    <row r="55" spans="1:20">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A55" s="26"/>
       <c r="B55" s="4"/>
       <c r="C55" s="140"/>
@@ -4782,7 +4963,7 @@
       </c>
       <c r="T55" s="37"/>
     </row>
-    <row r="56" spans="1:20">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A56" s="26"/>
       <c r="B56" s="4"/>
       <c r="C56" s="140"/>
@@ -4796,17 +4977,17 @@
       <c r="K56" s="142"/>
       <c r="T56" s="37"/>
     </row>
-    <row r="57" spans="1:20">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A57" s="22"/>
       <c r="K57" s="33"/>
     </row>
-    <row r="58" spans="1:20">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A58" s="22" t="s">
         <v>84</v>
       </c>
       <c r="K58" s="33"/>
     </row>
-    <row r="59" spans="1:20">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A59" s="26" t="s">
         <v>85</v>
       </c>
@@ -4826,7 +5007,7 @@
       <c r="K59" s="142"/>
       <c r="T59" s="13"/>
     </row>
-    <row r="60" spans="1:20">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A60" s="26"/>
       <c r="B60" s="4"/>
       <c r="C60" s="140"/>
@@ -4840,7 +5021,7 @@
       <c r="K60" s="142"/>
       <c r="T60" s="13"/>
     </row>
-    <row r="61" spans="1:20">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A61" s="26"/>
       <c r="B61" s="4"/>
       <c r="C61" s="140"/>
@@ -4854,72 +5035,72 @@
       <c r="K61" s="142"/>
       <c r="T61" s="13"/>
     </row>
-    <row r="62" spans="1:20">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A62" s="22"/>
       <c r="K62" s="33"/>
     </row>
-    <row r="63" spans="1:20">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A63" s="22" t="s">
         <v>87</v>
       </c>
       <c r="K63" s="33"/>
     </row>
-    <row r="64" spans="1:20">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A64" s="26" t="s">
         <v>88</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C64" s="133" t="s">
+      <c r="C64" s="130" t="s">
         <v>90</v>
       </c>
-      <c r="D64" s="133"/>
-      <c r="E64" s="133" t="s">
+      <c r="D64" s="130"/>
+      <c r="E64" s="130" t="s">
         <v>91</v>
       </c>
-      <c r="F64" s="133"/>
-      <c r="G64" s="138" t="s">
+      <c r="F64" s="130"/>
+      <c r="G64" s="143" t="s">
         <v>92</v>
       </c>
-      <c r="H64" s="137"/>
-      <c r="I64" s="138" t="s">
+      <c r="H64" s="129"/>
+      <c r="I64" s="143" t="s">
         <v>93</v>
       </c>
-      <c r="J64" s="136"/>
-      <c r="K64" s="139"/>
-    </row>
-    <row r="65" spans="1:11">
+      <c r="J64" s="128"/>
+      <c r="K64" s="144"/>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A65" s="26"/>
       <c r="B65" s="4"/>
-      <c r="C65" s="133"/>
-      <c r="D65" s="133"/>
-      <c r="E65" s="133"/>
-      <c r="F65" s="133"/>
-      <c r="G65" s="138"/>
-      <c r="H65" s="137"/>
-      <c r="I65" s="138"/>
-      <c r="J65" s="136"/>
-      <c r="K65" s="139"/>
-    </row>
-    <row r="66" spans="1:11">
+      <c r="C65" s="130"/>
+      <c r="D65" s="130"/>
+      <c r="E65" s="130"/>
+      <c r="F65" s="130"/>
+      <c r="G65" s="143"/>
+      <c r="H65" s="129"/>
+      <c r="I65" s="143"/>
+      <c r="J65" s="128"/>
+      <c r="K65" s="144"/>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A66" s="26"/>
       <c r="B66" s="4"/>
-      <c r="C66" s="133"/>
-      <c r="D66" s="133"/>
-      <c r="E66" s="133"/>
-      <c r="F66" s="133"/>
-      <c r="G66" s="138"/>
-      <c r="H66" s="137"/>
-      <c r="I66" s="138"/>
-      <c r="J66" s="136"/>
-      <c r="K66" s="139"/>
-    </row>
-    <row r="67" spans="1:11">
+      <c r="C66" s="130"/>
+      <c r="D66" s="130"/>
+      <c r="E66" s="130"/>
+      <c r="F66" s="130"/>
+      <c r="G66" s="143"/>
+      <c r="H66" s="129"/>
+      <c r="I66" s="143"/>
+      <c r="J66" s="128"/>
+      <c r="K66" s="144"/>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A67" s="22"/>
       <c r="K67" s="33"/>
     </row>
-    <row r="68" spans="1:11">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A68" s="28"/>
       <c r="B68" s="29"/>
       <c r="C68" s="29"/>
@@ -4934,28 +5115,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="D20:K20"/>
-    <mergeCell ref="D21:K21"/>
-    <mergeCell ref="D22:K22"/>
-    <mergeCell ref="D25:K25"/>
-    <mergeCell ref="D26:K26"/>
-    <mergeCell ref="D27:K27"/>
-    <mergeCell ref="D30:K30"/>
-    <mergeCell ref="D31:K31"/>
-    <mergeCell ref="D32:K32"/>
-    <mergeCell ref="D49:K49"/>
-    <mergeCell ref="D50:K50"/>
-    <mergeCell ref="D51:K51"/>
-    <mergeCell ref="C54:K54"/>
-    <mergeCell ref="C55:K55"/>
-    <mergeCell ref="C56:K56"/>
-    <mergeCell ref="C59:K59"/>
-    <mergeCell ref="C60:K60"/>
-    <mergeCell ref="C61:K61"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="E64:F64"/>
-    <mergeCell ref="G64:H64"/>
-    <mergeCell ref="I64:K64"/>
     <mergeCell ref="C65:D65"/>
     <mergeCell ref="E65:F65"/>
     <mergeCell ref="G65:H65"/>
@@ -4964,6 +5123,28 @@
     <mergeCell ref="E66:F66"/>
     <mergeCell ref="G66:H66"/>
     <mergeCell ref="I66:K66"/>
+    <mergeCell ref="C59:K59"/>
+    <mergeCell ref="C60:K60"/>
+    <mergeCell ref="C61:K61"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="G64:H64"/>
+    <mergeCell ref="I64:K64"/>
+    <mergeCell ref="D50:K50"/>
+    <mergeCell ref="D51:K51"/>
+    <mergeCell ref="C54:K54"/>
+    <mergeCell ref="C55:K55"/>
+    <mergeCell ref="C56:K56"/>
+    <mergeCell ref="D27:K27"/>
+    <mergeCell ref="D30:K30"/>
+    <mergeCell ref="D31:K31"/>
+    <mergeCell ref="D32:K32"/>
+    <mergeCell ref="D49:K49"/>
+    <mergeCell ref="D20:K20"/>
+    <mergeCell ref="D21:K21"/>
+    <mergeCell ref="D22:K22"/>
+    <mergeCell ref="D25:K25"/>
+    <mergeCell ref="D26:K26"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
@@ -4972,64 +5153,64 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A19" sqref="A19:H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="4" max="4" width="9.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="30" customHeight="1">
+    <row r="1" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
-      <c r="A3" s="131" t="s">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A3" s="135" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="131" t="s">
+      <c r="B3" s="135" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="135" t="s">
+      <c r="C3" s="137" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="136"/>
-      <c r="E3" s="137"/>
-      <c r="F3" s="135" t="s">
+      <c r="D3" s="128"/>
+      <c r="E3" s="129"/>
+      <c r="F3" s="137" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="136"/>
-      <c r="H3" s="137"/>
-      <c r="I3" s="135" t="s">
+      <c r="G3" s="128"/>
+      <c r="H3" s="129"/>
+      <c r="I3" s="137" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="136"/>
-      <c r="K3" s="137"/>
-      <c r="L3" s="136" t="s">
+      <c r="J3" s="128"/>
+      <c r="K3" s="129"/>
+      <c r="L3" s="128" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="136"/>
-      <c r="N3" s="137"/>
-      <c r="O3" s="133" t="s">
+      <c r="M3" s="128"/>
+      <c r="N3" s="129"/>
+      <c r="O3" s="130" t="s">
         <v>14</v>
       </c>
-      <c r="P3" s="133"/>
-      <c r="Q3" s="133"/>
-    </row>
-    <row r="4" spans="1:17">
-      <c r="A4" s="132"/>
-      <c r="B4" s="132"/>
+      <c r="P3" s="130"/>
+      <c r="Q3" s="130"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A4" s="136"/>
+      <c r="B4" s="136"/>
       <c r="C4" s="5" t="s">
         <v>15</v>
       </c>
@@ -5076,8 +5257,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
-      <c r="A5" s="133" t="s">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A5" s="130" t="s">
         <v>18</v>
       </c>
       <c r="B5" s="5">
@@ -5126,8 +5307,8 @@
         <v>6806</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
-      <c r="A6" s="133"/>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A6" s="130"/>
       <c r="B6" s="5">
         <v>88</v>
       </c>
@@ -5174,8 +5355,8 @@
         <v>3520</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
-      <c r="A7" s="133"/>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A7" s="130"/>
       <c r="B7" s="5">
         <v>100</v>
       </c>
@@ -5222,8 +5403,8 @@
         <v>26600</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
-      <c r="A8" s="133"/>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A8" s="130"/>
       <c r="B8" s="5" t="s">
         <v>19</v>
       </c>
@@ -5279,8 +5460,8 @@
         <v>36926</v>
       </c>
     </row>
-    <row r="9" spans="1:17" hidden="1">
-      <c r="A9" s="131" t="s">
+    <row r="9" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="135" t="s">
         <v>20</v>
       </c>
       <c r="B9" s="5">
@@ -5326,8 +5507,8 @@
       </c>
       <c r="Q9" s="40"/>
     </row>
-    <row r="10" spans="1:17" hidden="1">
-      <c r="A10" s="132"/>
+    <row r="10" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="136"/>
       <c r="B10" s="5" t="s">
         <v>19</v>
       </c>
@@ -5380,8 +5561,8 @@
       </c>
       <c r="Q10" s="40"/>
     </row>
-    <row r="11" spans="1:17">
-      <c r="A11" s="133" t="s">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A11" s="130" t="s">
         <v>21</v>
       </c>
       <c r="B11" s="5">
@@ -5433,8 +5614,8 @@
         <v>153600</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
-      <c r="A12" s="133"/>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A12" s="130"/>
       <c r="B12" s="5">
         <v>180</v>
       </c>
@@ -5484,8 +5665,8 @@
         <v>3240</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
-      <c r="A13" s="133"/>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A13" s="130"/>
       <c r="B13" s="5">
         <v>240</v>
       </c>
@@ -5535,8 +5716,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
-      <c r="A14" s="133"/>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A14" s="130"/>
       <c r="B14" s="5" t="s">
         <v>19</v>
       </c>
@@ -5592,7 +5773,7 @@
         <v>156840</v>
       </c>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>95</v>
       </c>
@@ -5600,17 +5781,17 @@
         <v>96</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B17" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="17.100000000000001" customHeight="1">
+    <row r="19" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="20" spans="1:12" s="10" customFormat="1" ht="27.95" customHeight="1">
+    <row r="20" spans="1:12" s="10" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="30" t="s">
         <v>8</v>
       </c>
@@ -5640,8 +5821,8 @@
       <c r="K20" s="39"/>
       <c r="L20" s="39"/>
     </row>
-    <row r="21" spans="1:12">
-      <c r="A21" s="133" t="s">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A21" s="130" t="s">
         <v>18</v>
       </c>
       <c r="B21" s="5">
@@ -5671,8 +5852,8 @@
       <c r="K21" s="34"/>
       <c r="L21" s="34"/>
     </row>
-    <row r="22" spans="1:12">
-      <c r="A22" s="133"/>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A22" s="130"/>
       <c r="B22" s="5">
         <v>88</v>
       </c>
@@ -5700,8 +5881,8 @@
       <c r="K22" s="34"/>
       <c r="L22" s="34"/>
     </row>
-    <row r="23" spans="1:12">
-      <c r="A23" s="133"/>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A23" s="130"/>
       <c r="B23" s="5">
         <v>100</v>
       </c>
@@ -5729,8 +5910,8 @@
       <c r="K23" s="34"/>
       <c r="L23" s="34"/>
     </row>
-    <row r="24" spans="1:12">
-      <c r="A24" s="133"/>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A24" s="130"/>
       <c r="B24" s="5" t="s">
         <v>19</v>
       </c>
@@ -5762,7 +5943,7 @@
       <c r="K24" s="34"/>
       <c r="L24" s="34"/>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>105</v>
       </c>
@@ -5787,14 +5968,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="T15" sqref="T15:V21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="2" width="7.125" customWidth="1"/>
     <col min="9" max="9" width="9.375"/>
@@ -5806,12 +5987,12 @@
     <col min="20" max="20" width="10.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="22.5">
+    <row r="1" spans="1:22" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A1" s="38" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="7" spans="1:22">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.15">
       <c r="O7" s="9"/>
       <c r="P7" s="5" t="s">
         <v>107</v>
@@ -5830,7 +6011,7 @@
       </c>
       <c r="U7" s="9"/>
     </row>
-    <row r="8" spans="1:22">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.15">
       <c r="O8" s="9" t="s">
         <v>112</v>
       </c>
@@ -5849,7 +6030,7 @@
       <c r="T8" s="5"/>
       <c r="U8" s="9"/>
     </row>
-    <row r="9" spans="1:22">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.15">
       <c r="O9" s="9"/>
       <c r="P9" s="12">
         <v>43133</v>
@@ -5866,7 +6047,7 @@
       </c>
       <c r="U9" s="9"/>
     </row>
-    <row r="10" spans="1:22">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>116</v>
       </c>
@@ -5886,7 +6067,7 @@
       </c>
       <c r="U10" s="9"/>
     </row>
-    <row r="11" spans="1:22">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>118</v>
       </c>
@@ -5906,7 +6087,7 @@
       <c r="T11" s="5"/>
       <c r="U11" s="9"/>
     </row>
-    <row r="12" spans="1:22">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>121</v>
       </c>
@@ -5926,7 +6107,7 @@
       </c>
       <c r="U12" s="9"/>
     </row>
-    <row r="13" spans="1:22">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>122</v>
       </c>
@@ -5938,7 +6119,7 @@
       <c r="T13" s="9"/>
       <c r="U13" s="9"/>
     </row>
-    <row r="14" spans="1:22">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.15">
       <c r="O14" s="9"/>
       <c r="P14" s="15"/>
       <c r="Q14" s="9"/>
@@ -5947,28 +6128,28 @@
       <c r="T14" s="9"/>
       <c r="U14" s="9"/>
     </row>
-    <row r="15" spans="1:22">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>123</v>
       </c>
       <c r="O15" s="9"/>
-      <c r="P15" s="133" t="s">
+      <c r="P15" s="130" t="s">
         <v>107</v>
       </c>
-      <c r="Q15" s="133" t="s">
+      <c r="Q15" s="130" t="s">
         <v>109</v>
       </c>
-      <c r="R15" s="133" t="s">
+      <c r="R15" s="130" t="s">
         <v>124</v>
       </c>
-      <c r="S15" s="133"/>
-      <c r="T15" s="133" t="s">
+      <c r="S15" s="130"/>
+      <c r="T15" s="130" t="s">
         <v>125</v>
       </c>
-      <c r="U15" s="133"/>
-      <c r="V15" s="133"/>
-    </row>
-    <row r="16" spans="1:22">
+      <c r="U15" s="130"/>
+      <c r="V15" s="130"/>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>126</v>
       </c>
@@ -5991,7 +6172,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="17" spans="1:22">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>129</v>
       </c>
@@ -6014,7 +6195,7 @@
       </c>
       <c r="V17" s="4"/>
     </row>
-    <row r="18" spans="1:22">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>130</v>
       </c>
@@ -6033,7 +6214,7 @@
       <c r="U18" s="4"/>
       <c r="V18" s="4"/>
     </row>
-    <row r="19" spans="1:22">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.15">
       <c r="O19" s="9"/>
       <c r="P19" s="14">
         <v>43133</v>
@@ -6049,7 +6230,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="20" spans="1:22">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.15">
       <c r="O20" s="9"/>
       <c r="P20" s="5"/>
       <c r="Q20" s="5" t="s">
@@ -6076,7 +6257,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="21" spans="1:22">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>131</v>
       </c>
@@ -6085,19 +6266,19 @@
       <c r="Q21" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="R21" s="133">
+      <c r="R21" s="130">
         <f>SUM(R17:S18)</f>
         <v>1500</v>
       </c>
-      <c r="S21" s="133"/>
-      <c r="T21" s="138">
+      <c r="S21" s="130"/>
+      <c r="T21" s="143">
         <f>SUM(T17:V20)</f>
         <v>1500</v>
       </c>
-      <c r="U21" s="136"/>
-      <c r="V21" s="137"/>
-    </row>
-    <row r="22" spans="1:22">
+      <c r="U21" s="128"/>
+      <c r="V21" s="129"/>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>133</v>
       </c>
@@ -6109,7 +6290,7 @@
       <c r="T22" s="9"/>
       <c r="U22" s="9"/>
     </row>
-    <row r="23" spans="1:22">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>134</v>
       </c>
@@ -6121,7 +6302,7 @@
       <c r="T23" s="9"/>
       <c r="U23" s="9"/>
     </row>
-    <row r="24" spans="1:22">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>130</v>
       </c>
@@ -6133,7 +6314,7 @@
       <c r="T24" s="9"/>
       <c r="U24" s="9"/>
     </row>
-    <row r="25" spans="1:22">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.15">
       <c r="O25" s="9"/>
       <c r="P25" s="9"/>
       <c r="Q25" s="9"/>
@@ -6142,7 +6323,7 @@
       <c r="T25" s="9"/>
       <c r="U25" s="9"/>
     </row>
-    <row r="26" spans="1:22">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>135</v>
       </c>
@@ -6154,7 +6335,7 @@
       <c r="T26" s="9"/>
       <c r="U26" s="9"/>
     </row>
-    <row r="27" spans="1:22">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>136</v>
       </c>
@@ -6166,7 +6347,7 @@
       <c r="T27" s="9"/>
       <c r="U27" s="9"/>
     </row>
-    <row r="28" spans="1:22">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>137</v>
       </c>
@@ -6178,7 +6359,7 @@
       <c r="T28" s="9"/>
       <c r="U28" s="9"/>
     </row>
-    <row r="29" spans="1:22">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>130</v>
       </c>
@@ -6190,7 +6371,7 @@
       <c r="T29" s="9"/>
       <c r="U29" s="9"/>
     </row>
-    <row r="30" spans="1:22">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.15">
       <c r="O30" s="9"/>
       <c r="P30" s="9"/>
       <c r="Q30" s="9"/>
@@ -6199,7 +6380,7 @@
       <c r="T30" s="9"/>
       <c r="U30" s="9"/>
     </row>
-    <row r="31" spans="1:22" ht="29.1" customHeight="1">
+    <row r="31" spans="1:22" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
         <v>138</v>
       </c>
@@ -6211,7 +6392,7 @@
       <c r="T31" s="9"/>
       <c r="U31" s="9"/>
     </row>
-    <row r="32" spans="1:22">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>139</v>
       </c>
@@ -6223,22 +6404,22 @@
       <c r="T32" s="9"/>
       <c r="U32" s="9"/>
     </row>
-    <row r="48" spans="1:1">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="49" spans="1:1">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="50" spans="1:1">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="51" spans="1:1">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
         <v>143</v>
       </c>
@@ -6260,14 +6441,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="18.5" customWidth="1"/>
     <col min="2" max="2" width="35.25" customWidth="1"/>
@@ -6277,7 +6458,7 @@
     <col min="6" max="6" width="15.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="24.95" customHeight="1">
+    <row r="1" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>144</v>
       </c>
@@ -6285,7 +6466,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>146</v>
       </c>
@@ -6305,7 +6486,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="69.95" customHeight="1">
+    <row r="3" spans="1:6" ht="69.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="6">
         <v>43136.354166666701</v>
       </c>
@@ -6326,7 +6507,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="21" customHeight="1">
+    <row r="4" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C4" s="9" t="s">
         <v>152</v>
       </c>
@@ -6340,7 +6521,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="45" customHeight="1">
+    <row r="5" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C5" s="10" t="s">
         <v>153</v>
       </c>
@@ -6361,61 +6542,240 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:I12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9" style="218"/>
+    <col min="2" max="14" width="16.625" style="218" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="218"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:9" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="B3" s="217" t="s">
+        <v>296</v>
+      </c>
+      <c r="C3" s="217" t="s">
+        <v>297</v>
+      </c>
+      <c r="E3" s="217" t="s">
+        <v>304</v>
+      </c>
+      <c r="F3" s="217" t="s">
+        <v>305</v>
+      </c>
+      <c r="H3" s="217" t="s">
+        <v>306</v>
+      </c>
+      <c r="I3" s="217" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="B4" s="217"/>
+      <c r="C4" s="217"/>
+      <c r="E4" s="217"/>
+      <c r="F4" s="217"/>
+      <c r="H4" s="217"/>
+      <c r="I4" s="217"/>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B5" s="218" t="s">
+        <v>298</v>
+      </c>
+      <c r="C5" s="218" t="s">
+        <v>302</v>
+      </c>
+      <c r="E5" s="218" t="s">
+        <v>298</v>
+      </c>
+      <c r="F5" s="218" t="s">
+        <v>307</v>
+      </c>
+      <c r="H5" s="218" t="s">
+        <v>298</v>
+      </c>
+      <c r="I5" s="218" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B6" s="218" t="s">
+        <v>299</v>
+      </c>
+      <c r="C6" s="218" t="s">
+        <v>303</v>
+      </c>
+      <c r="E6" s="218" t="s">
+        <v>299</v>
+      </c>
+      <c r="F6" s="218" t="s">
+        <v>308</v>
+      </c>
+      <c r="H6" s="218" t="s">
+        <v>299</v>
+      </c>
+      <c r="I6" s="218" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B7" s="218" t="s">
+        <v>300</v>
+      </c>
+      <c r="C7" s="218" t="s">
+        <v>301</v>
+      </c>
+      <c r="E7" s="218" t="s">
+        <v>300</v>
+      </c>
+      <c r="F7" s="218" t="s">
+        <v>309</v>
+      </c>
+      <c r="H7" s="218" t="s">
+        <v>300</v>
+      </c>
+      <c r="I7" s="218" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="E8" s="218" t="s">
+        <v>314</v>
+      </c>
+      <c r="F8" s="218" t="s">
+        <v>327</v>
+      </c>
+      <c r="H8" s="218" t="s">
+        <v>314</v>
+      </c>
+      <c r="I8" s="218" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="E9" s="218" t="s">
+        <v>315</v>
+      </c>
+      <c r="F9" s="218" t="s">
+        <v>316</v>
+      </c>
+      <c r="H9" s="218" t="s">
+        <v>315</v>
+      </c>
+      <c r="I9" s="218" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="E10" s="218" t="s">
+        <v>319</v>
+      </c>
+      <c r="F10" s="218" t="s">
+        <v>321</v>
+      </c>
+      <c r="H10" s="218" t="s">
+        <v>319</v>
+      </c>
+      <c r="I10" s="218" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="E11" s="218" t="s">
+        <v>320</v>
+      </c>
+      <c r="F11" s="218" t="s">
+        <v>322</v>
+      </c>
+      <c r="H11" s="218" t="s">
+        <v>320</v>
+      </c>
+      <c r="I11" s="218" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="E12" s="218" t="s">
+        <v>318</v>
+      </c>
+      <c r="F12" s="218" t="s">
+        <v>323</v>
+      </c>
+      <c r="H12" s="218" t="s">
+        <v>318</v>
+      </c>
+      <c r="I12" s="218" t="s">
+        <v>324</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="12" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A13" workbookViewId="0">
       <selection activeCell="O28" sqref="O28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="5" width="14.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="20.25">
+    <row r="1" spans="1:10" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="20.25">
+    <row r="2" spans="1:10" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="21" thickBot="1">
+    <row r="3" spans="1:10" ht="21" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
     </row>
-    <row r="4" spans="1:10" ht="18.75" customHeight="1">
-      <c r="A4" s="146" t="s">
+    <row r="4" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="167" t="s">
         <v>159</v>
       </c>
-      <c r="B4" s="146" t="s">
+      <c r="B4" s="167" t="s">
         <v>125</v>
       </c>
-      <c r="C4" s="152" t="s">
+      <c r="C4" s="171" t="s">
         <v>124</v>
       </c>
-      <c r="D4" s="153"/>
-      <c r="E4" s="146" t="s">
+      <c r="D4" s="172"/>
+      <c r="E4" s="167" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A5" s="147"/>
-      <c r="B5" s="147"/>
+    <row r="5" spans="1:10" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="168"/>
+      <c r="B5" s="168"/>
       <c r="C5" s="102" t="s">
         <v>202</v>
       </c>
       <c r="D5" s="103" t="s">
         <v>203</v>
       </c>
-      <c r="E5" s="147"/>
+      <c r="E5" s="168"/>
       <c r="J5" s="50" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="18.75" customHeight="1">
+    <row r="6" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="100">
         <v>43101</v>
       </c>
@@ -6438,7 +6798,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="18.75" customHeight="1">
+    <row r="7" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="75">
         <v>43102</v>
       </c>
@@ -6459,7 +6819,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="18.75" customHeight="1">
+    <row r="8" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="75">
         <v>43103</v>
       </c>
@@ -6479,7 +6839,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="18.75" customHeight="1">
+    <row r="9" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="75">
         <v>43104</v>
       </c>
@@ -6496,7 +6856,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="18.75" customHeight="1">
+    <row r="10" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="76" t="s">
         <v>160</v>
       </c>
@@ -6507,7 +6867,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="18.75" customHeight="1">
+    <row r="11" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="76" t="s">
         <v>160</v>
       </c>
@@ -6516,7 +6876,7 @@
       <c r="D11" s="95"/>
       <c r="E11" s="48"/>
     </row>
-    <row r="12" spans="1:10" ht="18.75" customHeight="1">
+    <row r="12" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="76">
         <v>43131</v>
       </c>
@@ -6533,7 +6893,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="18.75" customHeight="1">
+    <row r="13" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="77" t="s">
         <v>207</v>
       </c>
@@ -6550,93 +6910,93 @@
         <v>90</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="18.75" customHeight="1" thickBot="1">
+    <row r="14" spans="1:10" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A14" s="78" t="s">
         <v>132</v>
       </c>
       <c r="B14" s="88">
         <v>50</v>
       </c>
-      <c r="C14" s="148" t="s">
+      <c r="C14" s="169" t="s">
         <v>208</v>
       </c>
-      <c r="D14" s="149"/>
+      <c r="D14" s="153"/>
       <c r="E14" s="84">
         <v>90</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="65.25" customHeight="1">
+    <row r="16" spans="1:10" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="17" spans="1:19" ht="32.25" customHeight="1">
-      <c r="A17" s="150" t="s">
+    <row r="17" spans="1:19" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="170" t="s">
         <v>214</v>
       </c>
-      <c r="B17" s="151"/>
-      <c r="C17" s="151" t="s">
+      <c r="B17" s="166"/>
+      <c r="C17" s="166" t="s">
         <v>215</v>
       </c>
-      <c r="D17" s="151"/>
-      <c r="E17" s="151"/>
-      <c r="F17" s="151"/>
-      <c r="G17" s="151"/>
-      <c r="H17" s="154" t="s">
+      <c r="D17" s="166"/>
+      <c r="E17" s="166"/>
+      <c r="F17" s="166"/>
+      <c r="G17" s="166"/>
+      <c r="H17" s="161" t="s">
         <v>216</v>
       </c>
-      <c r="I17" s="154"/>
-      <c r="J17" s="155" t="s">
+      <c r="I17" s="161"/>
+      <c r="J17" s="164" t="s">
         <v>217</v>
       </c>
-      <c r="K17" s="156"/>
-    </row>
-    <row r="18" spans="1:19" ht="25.5" customHeight="1">
-      <c r="A18" s="158" t="s">
+      <c r="K17" s="165"/>
+    </row>
+    <row r="18" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="148" t="s">
         <v>289</v>
       </c>
-      <c r="B18" s="159"/>
-      <c r="C18" s="157" t="s">
+      <c r="B18" s="146"/>
+      <c r="C18" s="147" t="s">
         <v>288</v>
       </c>
-      <c r="D18" s="158"/>
-      <c r="E18" s="158"/>
-      <c r="F18" s="159"/>
-      <c r="G18" s="157" t="s">
+      <c r="D18" s="148"/>
+      <c r="E18" s="148"/>
+      <c r="F18" s="146"/>
+      <c r="G18" s="147" t="s">
         <v>222</v>
       </c>
-      <c r="H18" s="158"/>
-      <c r="I18" s="158"/>
-      <c r="J18" s="158"/>
-      <c r="K18" s="158"/>
+      <c r="H18" s="148"/>
+      <c r="I18" s="148"/>
+      <c r="J18" s="148"/>
+      <c r="K18" s="148"/>
       <c r="N18" s="54" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="19" spans="1:19" ht="21" customHeight="1">
-      <c r="A19" s="138" t="s">
+    <row r="19" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="143" t="s">
         <v>76</v>
       </c>
-      <c r="B19" s="137"/>
-      <c r="C19" s="159" t="s">
+      <c r="B19" s="129"/>
+      <c r="C19" s="146" t="s">
         <v>226</v>
       </c>
-      <c r="D19" s="157"/>
+      <c r="D19" s="147"/>
       <c r="E19" s="52" t="s">
         <v>219</v>
       </c>
-      <c r="F19" s="159" t="s">
+      <c r="F19" s="146" t="s">
         <v>218</v>
       </c>
-      <c r="G19" s="137"/>
-      <c r="H19" s="159" t="s">
+      <c r="G19" s="129"/>
+      <c r="H19" s="146" t="s">
         <v>220</v>
       </c>
-      <c r="I19" s="137"/>
-      <c r="J19" s="159" t="s">
+      <c r="I19" s="129"/>
+      <c r="J19" s="146" t="s">
         <v>224</v>
       </c>
-      <c r="K19" s="137"/>
+      <c r="K19" s="129"/>
       <c r="N19" s="49" t="s">
         <v>146</v>
       </c>
@@ -6656,24 +7016,24 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:19" ht="21" customHeight="1">
-      <c r="A20" s="159" t="s">
+    <row r="20" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="146" t="s">
         <v>227</v>
       </c>
-      <c r="B20" s="137"/>
-      <c r="C20" s="159" t="s">
+      <c r="B20" s="129"/>
+      <c r="C20" s="146" t="s">
         <v>229</v>
       </c>
-      <c r="D20" s="137"/>
+      <c r="D20" s="129"/>
       <c r="E20" s="45"/>
-      <c r="F20" s="138"/>
-      <c r="G20" s="137"/>
-      <c r="H20" s="138"/>
-      <c r="I20" s="137"/>
-      <c r="J20" s="159" t="s">
+      <c r="F20" s="143"/>
+      <c r="G20" s="129"/>
+      <c r="H20" s="143"/>
+      <c r="I20" s="129"/>
+      <c r="J20" s="146" t="s">
         <v>225</v>
       </c>
-      <c r="K20" s="137"/>
+      <c r="K20" s="129"/>
       <c r="N20" s="49"/>
       <c r="O20" s="49"/>
       <c r="P20" s="49"/>
@@ -6683,24 +7043,24 @@
       </c>
       <c r="S20" s="49"/>
     </row>
-    <row r="21" spans="1:19" ht="21" customHeight="1">
-      <c r="A21" s="159" t="s">
+    <row r="21" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="146" t="s">
         <v>227</v>
       </c>
-      <c r="B21" s="137"/>
-      <c r="C21" s="159" t="s">
+      <c r="B21" s="129"/>
+      <c r="C21" s="146" t="s">
         <v>230</v>
       </c>
-      <c r="D21" s="137"/>
+      <c r="D21" s="129"/>
       <c r="E21" s="45"/>
-      <c r="F21" s="138"/>
-      <c r="G21" s="137"/>
-      <c r="H21" s="138"/>
-      <c r="I21" s="137"/>
-      <c r="J21" s="159" t="s">
+      <c r="F21" s="143"/>
+      <c r="G21" s="129"/>
+      <c r="H21" s="143"/>
+      <c r="I21" s="129"/>
+      <c r="J21" s="146" t="s">
         <v>225</v>
       </c>
-      <c r="K21" s="137"/>
+      <c r="K21" s="129"/>
       <c r="N21" s="49"/>
       <c r="O21" s="49"/>
       <c r="P21" s="49"/>
@@ -6708,70 +7068,70 @@
       <c r="R21" s="49"/>
       <c r="S21" s="49"/>
     </row>
-    <row r="22" spans="1:19" ht="21" customHeight="1">
-      <c r="A22" s="159" t="s">
+    <row r="22" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="146" t="s">
         <v>228</v>
       </c>
-      <c r="B22" s="137"/>
-      <c r="C22" s="159" t="s">
+      <c r="B22" s="129"/>
+      <c r="C22" s="146" t="s">
         <v>231</v>
       </c>
-      <c r="D22" s="137"/>
+      <c r="D22" s="129"/>
       <c r="E22" s="49"/>
-      <c r="F22" s="138"/>
-      <c r="G22" s="137"/>
-      <c r="H22" s="138"/>
-      <c r="I22" s="137"/>
-      <c r="J22" s="159" t="s">
+      <c r="F22" s="143"/>
+      <c r="G22" s="129"/>
+      <c r="H22" s="143"/>
+      <c r="I22" s="129"/>
+      <c r="J22" s="146" t="s">
         <v>225</v>
       </c>
-      <c r="K22" s="137"/>
-    </row>
-    <row r="23" spans="1:19" ht="21" customHeight="1">
-      <c r="A23" s="159" t="s">
+      <c r="K22" s="129"/>
+    </row>
+    <row r="23" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="146" t="s">
         <v>228</v>
       </c>
-      <c r="B23" s="137"/>
-      <c r="C23" s="159" t="s">
+      <c r="B23" s="129"/>
+      <c r="C23" s="146" t="s">
         <v>232</v>
       </c>
-      <c r="D23" s="137"/>
+      <c r="D23" s="129"/>
       <c r="E23" s="49"/>
-      <c r="F23" s="138"/>
-      <c r="G23" s="137"/>
-      <c r="H23" s="138"/>
-      <c r="I23" s="137"/>
-      <c r="J23" s="159" t="s">
+      <c r="F23" s="143"/>
+      <c r="G23" s="129"/>
+      <c r="H23" s="143"/>
+      <c r="I23" s="129"/>
+      <c r="J23" s="146" t="s">
         <v>225</v>
       </c>
-      <c r="K23" s="137"/>
-    </row>
-    <row r="26" spans="1:19" ht="32.25" customHeight="1" thickBot="1">
-      <c r="A26" s="164" t="s">
+      <c r="K23" s="129"/>
+    </row>
+    <row r="26" spans="1:19" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="158" t="s">
         <v>214</v>
       </c>
-      <c r="B26" s="165"/>
-      <c r="C26" s="165" t="s">
+      <c r="B26" s="159"/>
+      <c r="C26" s="159" t="s">
         <v>215</v>
       </c>
-      <c r="D26" s="165"/>
-      <c r="E26" s="165"/>
-      <c r="F26" s="165"/>
-      <c r="G26" s="165"/>
-      <c r="H26" s="166" t="s">
+      <c r="D26" s="159"/>
+      <c r="E26" s="159"/>
+      <c r="F26" s="159"/>
+      <c r="G26" s="159"/>
+      <c r="H26" s="160" t="s">
         <v>216</v>
       </c>
-      <c r="I26" s="166"/>
-      <c r="J26" s="154" t="s">
+      <c r="I26" s="160"/>
+      <c r="J26" s="161" t="s">
         <v>217</v>
       </c>
-      <c r="K26" s="154"/>
-    </row>
-    <row r="27" spans="1:19" ht="25.5" customHeight="1">
-      <c r="A27" s="167" t="s">
+      <c r="K26" s="161"/>
+    </row>
+    <row r="27" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="162" t="s">
         <v>233</v>
       </c>
-      <c r="B27" s="168"/>
+      <c r="B27" s="163"/>
       <c r="C27" s="60"/>
       <c r="D27" s="61"/>
       <c r="E27" s="62"/>
@@ -6782,68 +7142,93 @@
       <c r="J27" s="64"/>
       <c r="K27" s="65"/>
     </row>
-    <row r="28" spans="1:19" ht="21.75" customHeight="1">
+    <row r="28" spans="1:19" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="55" t="s">
         <v>88</v>
       </c>
       <c r="B28" s="59" t="s">
         <v>89</v>
       </c>
-      <c r="C28" s="132" t="s">
+      <c r="C28" s="136" t="s">
         <v>90</v>
       </c>
-      <c r="D28" s="132"/>
-      <c r="E28" s="132" t="s">
+      <c r="D28" s="136"/>
+      <c r="E28" s="136" t="s">
         <v>91</v>
       </c>
-      <c r="F28" s="132"/>
-      <c r="G28" s="160" t="s">
+      <c r="F28" s="136"/>
+      <c r="G28" s="154" t="s">
         <v>92</v>
       </c>
-      <c r="H28" s="161"/>
-      <c r="I28" s="160" t="s">
+      <c r="H28" s="155"/>
+      <c r="I28" s="154" t="s">
         <v>93</v>
       </c>
-      <c r="J28" s="162"/>
-      <c r="K28" s="163"/>
-    </row>
-    <row r="29" spans="1:19" ht="21.75" customHeight="1">
+      <c r="J28" s="156"/>
+      <c r="K28" s="157"/>
+    </row>
+    <row r="29" spans="1:19" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="26"/>
       <c r="B29" s="49"/>
-      <c r="C29" s="133"/>
-      <c r="D29" s="133"/>
-      <c r="E29" s="133"/>
-      <c r="F29" s="133"/>
-      <c r="G29" s="138"/>
-      <c r="H29" s="137"/>
-      <c r="I29" s="138"/>
-      <c r="J29" s="136"/>
-      <c r="K29" s="139"/>
-    </row>
-    <row r="30" spans="1:19" ht="21.75" customHeight="1" thickBot="1">
+      <c r="C29" s="130"/>
+      <c r="D29" s="130"/>
+      <c r="E29" s="130"/>
+      <c r="F29" s="130"/>
+      <c r="G29" s="143"/>
+      <c r="H29" s="129"/>
+      <c r="I29" s="143"/>
+      <c r="J29" s="128"/>
+      <c r="K29" s="144"/>
+    </row>
+    <row r="30" spans="1:19" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A30" s="58"/>
       <c r="B30" s="57"/>
-      <c r="C30" s="169"/>
-      <c r="D30" s="169"/>
-      <c r="E30" s="169"/>
-      <c r="F30" s="169"/>
-      <c r="G30" s="170"/>
-      <c r="H30" s="171"/>
-      <c r="I30" s="170"/>
-      <c r="J30" s="172"/>
-      <c r="K30" s="149"/>
+      <c r="C30" s="149"/>
+      <c r="D30" s="149"/>
+      <c r="E30" s="149"/>
+      <c r="F30" s="149"/>
+      <c r="G30" s="150"/>
+      <c r="H30" s="151"/>
+      <c r="I30" s="150"/>
+      <c r="J30" s="152"/>
+      <c r="K30" s="153"/>
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="G18:K18"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="H23:I23"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="J19:K19"/>
     <mergeCell ref="J20:K20"/>
@@ -6855,66 +7240,41 @@
     <mergeCell ref="F20:G20"/>
     <mergeCell ref="F22:G22"/>
     <mergeCell ref="F21:G21"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="I29:K29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="G18:K18"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T110"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A82" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="18.5" customWidth="1"/>
     <col min="2" max="9" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="31.5" customHeight="1">
+    <row r="1" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="29.25" customHeight="1">
+    <row r="3" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>292</v>
       </c>
@@ -6926,20 +7286,20 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:9" ht="41.25" customHeight="1">
+    <row r="4" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="29.25" customHeight="1">
+    <row r="5" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="45" t="s">
         <v>146</v>
       </c>
-      <c r="B5" s="138" t="s">
+      <c r="B5" s="143" t="s">
         <v>147</v>
       </c>
-      <c r="C5" s="136"/>
-      <c r="D5" s="137"/>
+      <c r="C5" s="128"/>
+      <c r="D5" s="129"/>
       <c r="E5" s="52" t="s">
         <v>243</v>
       </c>
@@ -6954,15 +7314,15 @@
         <v>205</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="78.75" customHeight="1">
+    <row r="6" spans="1:9" ht="78.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="66">
         <v>43136.354166666664</v>
       </c>
-      <c r="B6" s="176" t="s">
+      <c r="B6" s="204" t="s">
         <v>235</v>
       </c>
-      <c r="C6" s="177"/>
-      <c r="D6" s="178"/>
+      <c r="C6" s="205"/>
+      <c r="D6" s="206"/>
       <c r="E6" s="45">
         <v>400</v>
       </c>
@@ -6978,15 +7338,15 @@
         <v>160</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="66">
         <v>43137.354166608799</v>
       </c>
-      <c r="B7" s="176" t="s">
+      <c r="B7" s="204" t="s">
         <v>290</v>
       </c>
-      <c r="C7" s="177"/>
-      <c r="D7" s="178"/>
+      <c r="C7" s="205"/>
+      <c r="D7" s="206"/>
       <c r="E7" s="127">
         <v>400</v>
       </c>
@@ -7002,15 +7362,15 @@
         <v>160</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="30" customHeight="1">
+    <row r="8" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="66">
         <v>43138.354166608799</v>
       </c>
-      <c r="B8" s="176" t="s">
+      <c r="B8" s="204" t="s">
         <v>291</v>
       </c>
-      <c r="C8" s="177"/>
-      <c r="D8" s="178"/>
+      <c r="C8" s="205"/>
+      <c r="D8" s="206"/>
       <c r="E8" s="127">
         <v>400</v>
       </c>
@@ -7026,39 +7386,39 @@
         <v>160</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="37.5" customHeight="1">
+    <row r="9" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="21" thickBot="1">
+    <row r="10" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
     </row>
-    <row r="11" spans="1:9" ht="27.75" customHeight="1">
-      <c r="A11" s="173" t="s">
+    <row r="11" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="201" t="s">
         <v>159</v>
       </c>
-      <c r="B11" s="179" t="s">
+      <c r="B11" s="207" t="s">
         <v>125</v>
       </c>
-      <c r="C11" s="181"/>
-      <c r="D11" s="180"/>
-      <c r="E11" s="179" t="s">
+      <c r="C11" s="209"/>
+      <c r="D11" s="208"/>
+      <c r="E11" s="207" t="s">
         <v>220</v>
       </c>
-      <c r="F11" s="180"/>
-      <c r="G11" s="173" t="s">
+      <c r="F11" s="208"/>
+      <c r="G11" s="201" t="s">
         <v>243</v>
       </c>
-      <c r="H11" s="173" t="s">
+      <c r="H11" s="201" t="s">
         <v>240</v>
       </c>
-      <c r="I11" s="153" t="s">
+      <c r="I11" s="172" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="27.75" customHeight="1">
-      <c r="A12" s="174"/>
+    <row r="12" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="202"/>
       <c r="B12" s="79" t="s">
         <v>237</v>
       </c>
@@ -7074,11 +7434,11 @@
       <c r="F12" s="80" t="s">
         <v>236</v>
       </c>
-      <c r="G12" s="174"/>
-      <c r="H12" s="174"/>
-      <c r="I12" s="175"/>
-    </row>
-    <row r="13" spans="1:9" ht="27.75" customHeight="1">
+      <c r="G12" s="202"/>
+      <c r="H12" s="202"/>
+      <c r="I12" s="203"/>
+    </row>
+    <row r="13" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="75">
         <v>43101</v>
       </c>
@@ -7107,7 +7467,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="27.75" customHeight="1">
+    <row r="14" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="75">
         <v>43102</v>
       </c>
@@ -7136,7 +7496,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="27.75" customHeight="1">
+    <row r="15" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="75">
         <v>43103</v>
       </c>
@@ -7165,7 +7525,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="27.75" customHeight="1">
+    <row r="16" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="75">
         <v>43104</v>
       </c>
@@ -7194,7 +7554,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="27.75" customHeight="1">
+    <row r="17" spans="1:20" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="76" t="s">
         <v>160</v>
       </c>
@@ -7223,7 +7583,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="27.75" customHeight="1">
+    <row r="18" spans="1:20" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="76">
         <v>43131</v>
       </c>
@@ -7252,7 +7612,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="19" spans="1:20" ht="27.75" customHeight="1">
+    <row r="19" spans="1:20" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="77" t="s">
         <v>207</v>
       </c>
@@ -7281,19 +7641,19 @@
         <v>90</v>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="27.75" customHeight="1" thickBot="1">
+    <row r="20" spans="1:20" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A20" s="78" t="s">
         <v>132</v>
       </c>
-      <c r="B20" s="182" t="s">
+      <c r="B20" s="198" t="s">
         <v>242</v>
       </c>
-      <c r="C20" s="183"/>
-      <c r="D20" s="184"/>
-      <c r="E20" s="182" t="s">
+      <c r="C20" s="199"/>
+      <c r="D20" s="200"/>
+      <c r="E20" s="198" t="s">
         <v>241</v>
       </c>
-      <c r="F20" s="184"/>
+      <c r="F20" s="200"/>
       <c r="G20" s="88">
         <v>2888</v>
       </c>
@@ -7304,87 +7664,87 @@
         <v>90</v>
       </c>
     </row>
-    <row r="22" spans="1:20" ht="30" customHeight="1"/>
-    <row r="23" spans="1:20" ht="44.25" customHeight="1">
+    <row r="22" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="23" spans="1:20" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="3" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="24" spans="1:20" ht="25.5" customHeight="1">
-      <c r="A24" s="150" t="s">
+    <row r="24" spans="1:20" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="170" t="s">
         <v>214</v>
       </c>
-      <c r="B24" s="151"/>
-      <c r="C24" s="151" t="s">
+      <c r="B24" s="166"/>
+      <c r="C24" s="166" t="s">
         <v>246</v>
       </c>
-      <c r="D24" s="151"/>
-      <c r="E24" s="151"/>
-      <c r="F24" s="151"/>
-      <c r="G24" s="151"/>
+      <c r="D24" s="166"/>
+      <c r="E24" s="166"/>
+      <c r="F24" s="166"/>
+      <c r="G24" s="166"/>
       <c r="H24" s="112"/>
-      <c r="I24" s="185" t="s">
+      <c r="I24" s="183" t="s">
         <v>216</v>
       </c>
-      <c r="J24" s="185"/>
-      <c r="K24" s="155" t="s">
+      <c r="J24" s="183"/>
+      <c r="K24" s="164" t="s">
         <v>245</v>
       </c>
-      <c r="L24" s="156"/>
-    </row>
-    <row r="25" spans="1:20" ht="29.25" customHeight="1">
-      <c r="A25" s="158" t="s">
+      <c r="L24" s="165"/>
+    </row>
+    <row r="25" spans="1:20" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="148" t="s">
         <v>223</v>
       </c>
-      <c r="B25" s="159"/>
-      <c r="C25" s="157" t="s">
+      <c r="B25" s="146"/>
+      <c r="C25" s="147" t="s">
         <v>221</v>
       </c>
-      <c r="D25" s="158"/>
-      <c r="E25" s="158"/>
-      <c r="F25" s="159"/>
-      <c r="G25" s="157" t="s">
+      <c r="D25" s="148"/>
+      <c r="E25" s="148"/>
+      <c r="F25" s="146"/>
+      <c r="G25" s="147" t="s">
         <v>222</v>
       </c>
-      <c r="H25" s="157"/>
-      <c r="I25" s="158"/>
-      <c r="J25" s="158"/>
-      <c r="K25" s="158"/>
-      <c r="L25" s="158"/>
-      <c r="O25" s="201" t="s">
+      <c r="H25" s="147"/>
+      <c r="I25" s="148"/>
+      <c r="J25" s="148"/>
+      <c r="K25" s="148"/>
+      <c r="L25" s="148"/>
+      <c r="O25" s="177" t="s">
         <v>204</v>
       </c>
-      <c r="P25" s="201"/>
-      <c r="Q25" s="201"/>
-      <c r="R25" s="201"/>
-      <c r="S25" s="201"/>
-      <c r="T25" s="201"/>
-    </row>
-    <row r="26" spans="1:20" ht="29.25" customHeight="1">
-      <c r="A26" s="186" t="s">
+      <c r="P25" s="177"/>
+      <c r="Q25" s="177"/>
+      <c r="R25" s="177"/>
+      <c r="S25" s="177"/>
+      <c r="T25" s="177"/>
+    </row>
+    <row r="26" spans="1:20" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="194" t="s">
         <v>76</v>
       </c>
-      <c r="B26" s="187"/>
-      <c r="C26" s="188" t="s">
+      <c r="B26" s="195"/>
+      <c r="C26" s="196" t="s">
         <v>226</v>
       </c>
-      <c r="D26" s="189"/>
-      <c r="E26" s="205" t="s">
+      <c r="D26" s="197"/>
+      <c r="E26" s="181" t="s">
         <v>219</v>
       </c>
-      <c r="F26" s="203"/>
-      <c r="G26" s="203" t="s">
+      <c r="F26" s="179"/>
+      <c r="G26" s="179" t="s">
         <v>218</v>
       </c>
-      <c r="H26" s="204"/>
-      <c r="I26" s="188" t="s">
+      <c r="H26" s="180"/>
+      <c r="I26" s="196" t="s">
         <v>220</v>
       </c>
-      <c r="J26" s="187"/>
-      <c r="K26" s="188" t="s">
+      <c r="J26" s="195"/>
+      <c r="K26" s="196" t="s">
         <v>224</v>
       </c>
-      <c r="L26" s="187"/>
+      <c r="L26" s="195"/>
       <c r="O26" s="59" t="s">
         <v>146</v>
       </c>
@@ -7404,27 +7764,27 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:20" ht="29.25" customHeight="1">
-      <c r="A27" s="159" t="s">
+    <row r="27" spans="1:20" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="146" t="s">
         <v>227</v>
       </c>
-      <c r="B27" s="137"/>
-      <c r="C27" s="159" t="s">
+      <c r="B27" s="129"/>
+      <c r="C27" s="146" t="s">
         <v>229</v>
       </c>
-      <c r="D27" s="136"/>
-      <c r="E27" s="194"/>
-      <c r="F27" s="194"/>
-      <c r="G27" s="194"/>
-      <c r="H27" s="194"/>
+      <c r="D27" s="128"/>
+      <c r="E27" s="182"/>
+      <c r="F27" s="182"/>
+      <c r="G27" s="182"/>
+      <c r="H27" s="182"/>
       <c r="I27" s="190" t="s">
         <v>244</v>
       </c>
       <c r="J27" s="191"/>
-      <c r="K27" s="159" t="s">
+      <c r="K27" s="146" t="s">
         <v>225</v>
       </c>
-      <c r="L27" s="137"/>
+      <c r="L27" s="129"/>
       <c r="O27" s="49"/>
       <c r="P27" s="49"/>
       <c r="Q27" s="49"/>
@@ -7434,27 +7794,27 @@
       </c>
       <c r="T27" s="49"/>
     </row>
-    <row r="28" spans="1:20" ht="29.25" customHeight="1">
-      <c r="A28" s="159" t="s">
+    <row r="28" spans="1:20" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="146" t="s">
         <v>227</v>
       </c>
-      <c r="B28" s="137"/>
-      <c r="C28" s="159" t="s">
+      <c r="B28" s="129"/>
+      <c r="C28" s="146" t="s">
         <v>230</v>
       </c>
-      <c r="D28" s="136"/>
-      <c r="E28" s="194"/>
-      <c r="F28" s="194"/>
-      <c r="G28" s="194"/>
-      <c r="H28" s="194"/>
+      <c r="D28" s="128"/>
+      <c r="E28" s="182"/>
+      <c r="F28" s="182"/>
+      <c r="G28" s="182"/>
+      <c r="H28" s="182"/>
       <c r="I28" s="192" t="s">
         <v>273</v>
       </c>
       <c r="J28" s="193"/>
-      <c r="K28" s="159" t="s">
+      <c r="K28" s="146" t="s">
         <v>225</v>
       </c>
-      <c r="L28" s="137"/>
+      <c r="L28" s="129"/>
       <c r="O28" s="49"/>
       <c r="P28" s="49"/>
       <c r="Q28" s="49"/>
@@ -7462,150 +7822,150 @@
       <c r="S28" s="49"/>
       <c r="T28" s="49"/>
     </row>
-    <row r="29" spans="1:20" ht="29.25" customHeight="1">
-      <c r="A29" s="159" t="s">
+    <row r="29" spans="1:20" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="146" t="s">
         <v>228</v>
       </c>
-      <c r="B29" s="137"/>
-      <c r="C29" s="159" t="s">
+      <c r="B29" s="129"/>
+      <c r="C29" s="146" t="s">
         <v>231</v>
       </c>
-      <c r="D29" s="136"/>
-      <c r="E29" s="194"/>
-      <c r="F29" s="194"/>
-      <c r="G29" s="194"/>
-      <c r="H29" s="194"/>
-      <c r="I29" s="136"/>
-      <c r="J29" s="137"/>
-      <c r="K29" s="159" t="s">
+      <c r="D29" s="128"/>
+      <c r="E29" s="182"/>
+      <c r="F29" s="182"/>
+      <c r="G29" s="182"/>
+      <c r="H29" s="182"/>
+      <c r="I29" s="128"/>
+      <c r="J29" s="129"/>
+      <c r="K29" s="146" t="s">
         <v>225</v>
       </c>
-      <c r="L29" s="137"/>
-    </row>
-    <row r="30" spans="1:20" ht="29.25" customHeight="1">
-      <c r="A30" s="159" t="s">
+      <c r="L29" s="129"/>
+    </row>
+    <row r="30" spans="1:20" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="146" t="s">
         <v>228</v>
       </c>
-      <c r="B30" s="137"/>
-      <c r="C30" s="159" t="s">
+      <c r="B30" s="129"/>
+      <c r="C30" s="146" t="s">
         <v>232</v>
       </c>
-      <c r="D30" s="136"/>
-      <c r="E30" s="194"/>
-      <c r="F30" s="194"/>
-      <c r="G30" s="194"/>
-      <c r="H30" s="194"/>
-      <c r="I30" s="136"/>
-      <c r="J30" s="137"/>
-      <c r="K30" s="159" t="s">
+      <c r="D30" s="128"/>
+      <c r="E30" s="182"/>
+      <c r="F30" s="182"/>
+      <c r="G30" s="182"/>
+      <c r="H30" s="182"/>
+      <c r="I30" s="128"/>
+      <c r="J30" s="129"/>
+      <c r="K30" s="146" t="s">
         <v>225</v>
       </c>
-      <c r="L30" s="137"/>
-    </row>
-    <row r="31" spans="1:20" ht="29.25" customHeight="1"/>
-    <row r="32" spans="1:20" ht="29.25" customHeight="1">
-      <c r="A32" s="150" t="s">
+      <c r="L30" s="129"/>
+    </row>
+    <row r="31" spans="1:20" ht="29.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="32" spans="1:20" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="170" t="s">
         <v>214</v>
       </c>
-      <c r="B32" s="151"/>
-      <c r="C32" s="151" t="s">
+      <c r="B32" s="166"/>
+      <c r="C32" s="166" t="s">
         <v>246</v>
       </c>
-      <c r="D32" s="151"/>
-      <c r="E32" s="151"/>
-      <c r="F32" s="151"/>
-      <c r="G32" s="151"/>
+      <c r="D32" s="166"/>
+      <c r="E32" s="166"/>
+      <c r="F32" s="166"/>
+      <c r="G32" s="166"/>
       <c r="H32" s="112"/>
-      <c r="I32" s="155" t="s">
+      <c r="I32" s="164" t="s">
         <v>216</v>
       </c>
-      <c r="J32" s="155"/>
-      <c r="K32" s="185" t="s">
+      <c r="J32" s="164"/>
+      <c r="K32" s="183" t="s">
         <v>245</v>
       </c>
-      <c r="L32" s="185"/>
-    </row>
-    <row r="33" spans="1:12" ht="29.25" customHeight="1">
-      <c r="A33" s="158" t="s">
+      <c r="L32" s="183"/>
+    </row>
+    <row r="33" spans="1:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="148" t="s">
         <v>247</v>
       </c>
-      <c r="B33" s="159"/>
-      <c r="C33" s="202"/>
-      <c r="D33" s="202"/>
-      <c r="E33" s="202" t="s">
+      <c r="B33" s="146"/>
+      <c r="C33" s="178"/>
+      <c r="D33" s="178"/>
+      <c r="E33" s="178" t="s">
         <v>271</v>
       </c>
-      <c r="F33" s="202"/>
-      <c r="G33" s="202"/>
+      <c r="F33" s="178"/>
+      <c r="G33" s="178"/>
       <c r="H33" s="67"/>
-      <c r="I33" s="202" t="s">
+      <c r="I33" s="178" t="s">
         <v>267</v>
       </c>
-      <c r="J33" s="202"/>
-      <c r="K33" s="202"/>
-      <c r="L33" s="157"/>
-    </row>
-    <row r="34" spans="1:12" ht="29.25" customHeight="1">
+      <c r="J33" s="178"/>
+      <c r="K33" s="178"/>
+      <c r="L33" s="147"/>
+    </row>
+    <row r="34" spans="1:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="89" t="s">
         <v>248</v>
       </c>
       <c r="B34" s="91" t="s">
         <v>249</v>
       </c>
-      <c r="C34" s="195" t="s">
+      <c r="C34" s="184" t="s">
         <v>250</v>
       </c>
-      <c r="D34" s="196"/>
-      <c r="E34" s="195" t="s">
+      <c r="D34" s="185"/>
+      <c r="E34" s="184" t="s">
         <v>251</v>
       </c>
-      <c r="F34" s="196"/>
-      <c r="G34" s="197" t="s">
+      <c r="F34" s="185"/>
+      <c r="G34" s="186" t="s">
         <v>236</v>
       </c>
-      <c r="H34" s="198"/>
-      <c r="I34" s="199"/>
-      <c r="J34" s="197" t="s">
+      <c r="H34" s="187"/>
+      <c r="I34" s="188"/>
+      <c r="J34" s="186" t="s">
         <v>224</v>
       </c>
-      <c r="K34" s="200"/>
-      <c r="L34" s="199"/>
-    </row>
-    <row r="35" spans="1:12" ht="29.25" customHeight="1">
+      <c r="K34" s="189"/>
+      <c r="L34" s="188"/>
+    </row>
+    <row r="35" spans="1:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="49"/>
       <c r="B35" s="49"/>
-      <c r="C35" s="133"/>
-      <c r="D35" s="133"/>
-      <c r="E35" s="133"/>
-      <c r="F35" s="133"/>
-      <c r="G35" s="138"/>
-      <c r="H35" s="136"/>
-      <c r="I35" s="137"/>
-      <c r="J35" s="138"/>
-      <c r="K35" s="136"/>
-      <c r="L35" s="137"/>
-    </row>
-    <row r="36" spans="1:12" ht="29.25" customHeight="1">
+      <c r="C35" s="130"/>
+      <c r="D35" s="130"/>
+      <c r="E35" s="130"/>
+      <c r="F35" s="130"/>
+      <c r="G35" s="143"/>
+      <c r="H35" s="128"/>
+      <c r="I35" s="129"/>
+      <c r="J35" s="143"/>
+      <c r="K35" s="128"/>
+      <c r="L35" s="129"/>
+    </row>
+    <row r="36" spans="1:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="49"/>
       <c r="B36" s="49"/>
-      <c r="C36" s="133"/>
-      <c r="D36" s="133"/>
-      <c r="E36" s="133"/>
-      <c r="F36" s="133"/>
-      <c r="G36" s="138"/>
-      <c r="H36" s="136"/>
-      <c r="I36" s="137"/>
-      <c r="J36" s="138"/>
-      <c r="K36" s="136"/>
-      <c r="L36" s="137"/>
-    </row>
-    <row r="38" spans="1:12" ht="47.25" customHeight="1"/>
-    <row r="39" spans="1:12" ht="45" customHeight="1">
+      <c r="C36" s="130"/>
+      <c r="D36" s="130"/>
+      <c r="E36" s="130"/>
+      <c r="F36" s="130"/>
+      <c r="G36" s="143"/>
+      <c r="H36" s="128"/>
+      <c r="I36" s="129"/>
+      <c r="J36" s="143"/>
+      <c r="K36" s="128"/>
+      <c r="L36" s="129"/>
+    </row>
+    <row r="38" spans="1:12" ht="47.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="39" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="3" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="43.5" customHeight="1">
+    <row r="40" spans="1:12" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="117" t="s">
         <v>280</v>
       </c>
@@ -7618,15 +7978,15 @@
       <c r="D40" s="118" t="s">
         <v>283</v>
       </c>
-      <c r="E40" s="208" t="s">
+      <c r="E40" s="175" t="s">
         <v>284</v>
       </c>
-      <c r="F40" s="209"/>
+      <c r="F40" s="176"/>
       <c r="G40" s="34"/>
       <c r="H40" s="34"/>
       <c r="I40" s="11"/>
     </row>
-    <row r="41" spans="1:12" ht="39" customHeight="1">
+    <row r="41" spans="1:12" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="50" t="s">
         <v>278</v>
       </c>
@@ -7635,7 +7995,7 @@
       </c>
       <c r="G41" s="50"/>
     </row>
-    <row r="42" spans="1:12" ht="44.25" customHeight="1">
+    <row r="42" spans="1:12" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="90" t="s">
         <v>171</v>
       </c>
@@ -7658,7 +8018,7 @@
       <c r="H42" s="120"/>
       <c r="I42" s="120"/>
     </row>
-    <row r="43" spans="1:12" ht="44.25" customHeight="1">
+    <row r="43" spans="1:12" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="45" t="s">
         <v>172</v>
       </c>
@@ -7681,7 +8041,7 @@
       <c r="H43" s="115"/>
       <c r="I43" s="115"/>
     </row>
-    <row r="44" spans="1:12" ht="44.25" customHeight="1">
+    <row r="44" spans="1:12" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="45" t="s">
         <v>173</v>
       </c>
@@ -7704,7 +8064,7 @@
       <c r="H44" s="115"/>
       <c r="I44" s="115"/>
     </row>
-    <row r="45" spans="1:12" ht="44.25" customHeight="1">
+    <row r="45" spans="1:12" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="45" t="s">
         <v>174</v>
       </c>
@@ -7727,7 +8087,7 @@
       <c r="H45" s="115"/>
       <c r="I45" s="115"/>
     </row>
-    <row r="46" spans="1:12" ht="44.25" customHeight="1">
+    <row r="46" spans="1:12" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="52" t="s">
         <v>253</v>
       </c>
@@ -7753,18 +8113,18 @@
       <c r="H46" s="115"/>
       <c r="I46" s="115"/>
     </row>
-    <row r="48" spans="1:12" ht="76.5" customHeight="1"/>
-    <row r="49" spans="1:8" ht="30" customHeight="1">
+    <row r="48" spans="1:12" ht="76.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="49" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="3" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="27" customHeight="1">
+    <row r="53" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="50" t="s">
         <v>256</v>
       </c>
@@ -7779,7 +8139,7 @@
       </c>
       <c r="H53" s="50"/>
     </row>
-    <row r="55" spans="1:8" ht="19.5" customHeight="1">
+    <row r="55" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="68" t="s">
         <v>177</v>
       </c>
@@ -7800,7 +8160,7 @@
       </c>
       <c r="H55" s="115"/>
     </row>
-    <row r="56" spans="1:8" ht="19.5" customHeight="1">
+    <row r="56" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="45" t="s">
         <v>162</v>
       </c>
@@ -7816,7 +8176,7 @@
       <c r="G56" s="49"/>
       <c r="H56" s="11"/>
     </row>
-    <row r="57" spans="1:8" ht="19.5" customHeight="1">
+    <row r="57" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="45" t="s">
         <v>180</v>
       </c>
@@ -7829,7 +8189,7 @@
       <c r="G57" s="49"/>
       <c r="H57" s="11"/>
     </row>
-    <row r="58" spans="1:8" ht="19.5" customHeight="1">
+    <row r="58" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="45" t="s">
         <v>132</v>
       </c>
@@ -7842,7 +8202,7 @@
       <c r="G58" s="49"/>
       <c r="H58" s="11"/>
     </row>
-    <row r="64" spans="1:8" ht="22.5">
+    <row r="64" spans="1:8" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A64" s="3" t="s">
         <v>181</v>
       </c>
@@ -7850,15 +8210,15 @@
         <v>182</v>
       </c>
     </row>
-    <row r="66" spans="6:6">
+    <row r="66" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F66" s="50"/>
     </row>
-    <row r="86" spans="1:8">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A86" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="26.25" customHeight="1">
+    <row r="88" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" t="s">
         <v>184</v>
       </c>
@@ -7875,7 +8235,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="89" spans="1:8" ht="26.25" customHeight="1">
+    <row r="89" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B89" s="45"/>
       <c r="C89" s="45" t="s">
         <v>187</v>
@@ -7885,13 +8245,13 @@
       </c>
       <c r="E89" s="45"/>
     </row>
-    <row r="90" spans="1:8" ht="32.25" customHeight="1">
+    <row r="90" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="91" spans="1:8">
-      <c r="B91" s="133" t="s">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B91" s="130" t="s">
         <v>190</v>
       </c>
       <c r="C91" s="49" t="s">
@@ -7901,14 +8261,14 @@
       <c r="E91" s="106" t="s">
         <v>191</v>
       </c>
-      <c r="F91" s="206" t="s">
+      <c r="F91" s="173" t="s">
         <v>261</v>
       </c>
-      <c r="G91" s="207"/>
+      <c r="G91" s="174"/>
       <c r="H91" s="114"/>
     </row>
-    <row r="92" spans="1:8">
-      <c r="B92" s="133"/>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B92" s="130"/>
       <c r="C92" s="49" t="s">
         <v>127</v>
       </c>
@@ -7916,12 +8276,12 @@
       <c r="E92" s="106" t="s">
         <v>191</v>
       </c>
-      <c r="F92" s="207"/>
-      <c r="G92" s="207"/>
+      <c r="F92" s="174"/>
+      <c r="G92" s="174"/>
       <c r="H92" s="114"/>
     </row>
-    <row r="93" spans="1:8">
-      <c r="B93" s="133" t="s">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B93" s="130" t="s">
         <v>192</v>
       </c>
       <c r="C93" s="49" t="s">
@@ -7931,12 +8291,12 @@
       <c r="E93" s="106" t="s">
         <v>191</v>
       </c>
-      <c r="F93" s="207"/>
-      <c r="G93" s="207"/>
+      <c r="F93" s="174"/>
+      <c r="G93" s="174"/>
       <c r="H93" s="114"/>
     </row>
-    <row r="94" spans="1:8">
-      <c r="B94" s="133"/>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B94" s="130"/>
       <c r="C94" s="49" t="s">
         <v>16</v>
       </c>
@@ -7944,12 +8304,12 @@
       <c r="E94" s="106" t="s">
         <v>191</v>
       </c>
-      <c r="F94" s="207"/>
-      <c r="G94" s="207"/>
+      <c r="F94" s="174"/>
+      <c r="G94" s="174"/>
       <c r="H94" s="114"/>
     </row>
-    <row r="95" spans="1:8">
-      <c r="B95" s="133"/>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B95" s="130"/>
       <c r="C95" s="49" t="s">
         <v>115</v>
       </c>
@@ -7957,12 +8317,12 @@
       <c r="E95" s="106" t="s">
         <v>191</v>
       </c>
-      <c r="F95" s="207"/>
-      <c r="G95" s="207"/>
+      <c r="F95" s="174"/>
+      <c r="G95" s="174"/>
       <c r="H95" s="114"/>
     </row>
-    <row r="96" spans="1:8">
-      <c r="B96" s="133"/>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B96" s="130"/>
       <c r="C96" s="51" t="s">
         <v>262</v>
       </c>
@@ -7976,7 +8336,7 @@
       <c r="G96" s="108"/>
       <c r="H96" s="108"/>
     </row>
-    <row r="97" spans="1:5">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B97" s="45" t="s">
         <v>193</v>
       </c>
@@ -7986,17 +8346,17 @@
       </c>
       <c r="E97" s="105"/>
     </row>
-    <row r="99" spans="1:5">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A99" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="101" spans="1:5">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A101" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="103" spans="1:5">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B103" s="45" t="s">
         <v>197</v>
       </c>
@@ -8007,37 +8367,37 @@
         <v>199</v>
       </c>
     </row>
-    <row r="104" spans="1:5">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B104" s="45"/>
       <c r="C104" s="45"/>
       <c r="D104" s="45"/>
     </row>
-    <row r="105" spans="1:5">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B105" s="45"/>
       <c r="C105" s="45"/>
       <c r="D105" s="45"/>
     </row>
-    <row r="106" spans="1:5">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B106" s="45"/>
       <c r="C106" s="45"/>
       <c r="D106" s="45"/>
     </row>
-    <row r="107" spans="1:5">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B107" s="45"/>
       <c r="C107" s="45"/>
       <c r="D107" s="45"/>
     </row>
-    <row r="108" spans="1:5">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B108" s="45"/>
       <c r="C108" s="45"/>
       <c r="D108" s="45"/>
     </row>
-    <row r="109" spans="1:5">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B109" s="45"/>
       <c r="C109" s="45"/>
       <c r="D109" s="45"/>
     </row>
-    <row r="110" spans="1:5">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B110" s="45" t="s">
         <v>132</v>
       </c>
@@ -8048,13 +8408,57 @@
     </row>
   </sheetData>
   <mergeCells count="74">
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="F91:G95"/>
-    <mergeCell ref="B93:B96"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="G25:L25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="J36:L36"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="J34:L34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="J35:L35"/>
     <mergeCell ref="O25:T25"/>
     <mergeCell ref="A33:B33"/>
     <mergeCell ref="C33:D33"/>
@@ -8071,26 +8475,1157 @@
     <mergeCell ref="G27:H27"/>
     <mergeCell ref="G28:H28"/>
     <mergeCell ref="G29:H29"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="J36:L36"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="J34:L34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="J35:L35"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="F91:G95"/>
+    <mergeCell ref="B93:B96"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="E40:F40"/>
+  </mergeCells>
+  <phoneticPr fontId="12" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T109"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="9" width="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="50" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="1:16" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="45" t="s">
+        <v>146</v>
+      </c>
+      <c r="B5" s="143" t="s">
+        <v>147</v>
+      </c>
+      <c r="C5" s="128"/>
+      <c r="D5" s="129"/>
+      <c r="E5" s="52" t="s">
+        <v>243</v>
+      </c>
+      <c r="F5" s="45" t="s">
+        <v>117</v>
+      </c>
+      <c r="G5" s="146" t="s">
+        <v>205</v>
+      </c>
+      <c r="H5" s="178"/>
+      <c r="I5" s="147"/>
+    </row>
+    <row r="6" spans="1:16" ht="78.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="66">
+        <v>43136.354166666664</v>
+      </c>
+      <c r="B6" s="204" t="s">
+        <v>235</v>
+      </c>
+      <c r="C6" s="205"/>
+      <c r="D6" s="206"/>
+      <c r="E6" s="45">
+        <v>400</v>
+      </c>
+      <c r="F6" s="45">
+        <v>200</v>
+      </c>
+      <c r="G6" s="143">
+        <v>200</v>
+      </c>
+      <c r="H6" s="128"/>
+      <c r="I6" s="129"/>
+    </row>
+    <row r="8" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="1:16" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="21" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="3"/>
+    </row>
+    <row r="11" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="201" t="s">
+        <v>159</v>
+      </c>
+      <c r="B11" s="207" t="s">
+        <v>125</v>
+      </c>
+      <c r="C11" s="209"/>
+      <c r="D11" s="208"/>
+      <c r="E11" s="207" t="s">
+        <v>220</v>
+      </c>
+      <c r="F11" s="208"/>
+      <c r="G11" s="201" t="s">
+        <v>243</v>
+      </c>
+      <c r="H11" s="201" t="s">
+        <v>240</v>
+      </c>
+      <c r="I11" s="212" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="202"/>
+      <c r="B12" s="79" t="s">
+        <v>265</v>
+      </c>
+      <c r="C12" s="69" t="s">
+        <v>238</v>
+      </c>
+      <c r="D12" s="80" t="s">
+        <v>239</v>
+      </c>
+      <c r="E12" s="79" t="s">
+        <v>266</v>
+      </c>
+      <c r="F12" s="80" t="s">
+        <v>236</v>
+      </c>
+      <c r="G12" s="202"/>
+      <c r="H12" s="202"/>
+      <c r="I12" s="213"/>
+      <c r="J12" s="126" t="s">
+        <v>287</v>
+      </c>
+      <c r="K12" s="126"/>
+      <c r="L12" s="126"/>
+      <c r="M12" s="126"/>
+      <c r="N12" s="126"/>
+      <c r="O12" s="126"/>
+      <c r="P12" s="126"/>
+    </row>
+    <row r="13" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="75">
+        <v>43101</v>
+      </c>
+      <c r="B13" s="72">
+        <v>10</v>
+      </c>
+      <c r="C13" s="53">
+        <v>200</v>
+      </c>
+      <c r="D13" s="70">
+        <v>200</v>
+      </c>
+      <c r="E13" s="72">
+        <v>200</v>
+      </c>
+      <c r="F13" s="70">
+        <v>200</v>
+      </c>
+      <c r="G13" s="85">
+        <v>30</v>
+      </c>
+      <c r="H13" s="85">
+        <v>30</v>
+      </c>
+      <c r="I13" s="123">
+        <v>40</v>
+      </c>
+      <c r="J13" s="126" t="s">
+        <v>286</v>
+      </c>
+      <c r="K13" s="126"/>
+      <c r="L13" s="126"/>
+      <c r="M13" s="126"/>
+      <c r="N13" s="126"/>
+      <c r="O13" s="126"/>
+      <c r="P13" s="126"/>
+    </row>
+    <row r="14" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="75">
+        <v>43102</v>
+      </c>
+      <c r="B14" s="72">
+        <v>10</v>
+      </c>
+      <c r="C14" s="53">
+        <v>200</v>
+      </c>
+      <c r="D14" s="70">
+        <v>200</v>
+      </c>
+      <c r="E14" s="72">
+        <v>200</v>
+      </c>
+      <c r="F14" s="70">
+        <v>200</v>
+      </c>
+      <c r="G14" s="86">
+        <v>30</v>
+      </c>
+      <c r="H14" s="86">
+        <v>30</v>
+      </c>
+      <c r="I14" s="123">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="75">
+        <v>43103</v>
+      </c>
+      <c r="B15" s="72">
+        <v>10</v>
+      </c>
+      <c r="C15" s="53">
+        <v>200</v>
+      </c>
+      <c r="D15" s="70">
+        <v>200</v>
+      </c>
+      <c r="E15" s="72">
+        <v>200</v>
+      </c>
+      <c r="F15" s="70">
+        <v>200</v>
+      </c>
+      <c r="G15" s="85">
+        <v>30</v>
+      </c>
+      <c r="H15" s="85">
+        <v>30</v>
+      </c>
+      <c r="I15" s="123">
+        <v>60</v>
+      </c>
+      <c r="L15" s="109" t="s">
+        <v>275</v>
+      </c>
+      <c r="M15" s="109"/>
+      <c r="N15" s="109"/>
+    </row>
+    <row r="16" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="75">
+        <v>43104</v>
+      </c>
+      <c r="B16" s="72">
+        <v>10</v>
+      </c>
+      <c r="C16" s="53">
+        <v>200</v>
+      </c>
+      <c r="D16" s="70">
+        <v>200</v>
+      </c>
+      <c r="E16" s="72">
+        <v>200</v>
+      </c>
+      <c r="F16" s="70">
+        <v>200</v>
+      </c>
+      <c r="G16" s="85">
+        <v>30</v>
+      </c>
+      <c r="H16" s="85">
+        <v>30</v>
+      </c>
+      <c r="I16" s="123">
+        <v>70</v>
+      </c>
+      <c r="K16" s="50"/>
+      <c r="L16" s="110" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="76" t="s">
+        <v>160</v>
+      </c>
+      <c r="B17" s="73" t="s">
+        <v>160</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="D17" s="71" t="s">
+        <v>160</v>
+      </c>
+      <c r="E17" s="73" t="s">
+        <v>160</v>
+      </c>
+      <c r="F17" s="71" t="s">
+        <v>160</v>
+      </c>
+      <c r="G17" s="76" t="s">
+        <v>160</v>
+      </c>
+      <c r="H17" s="76" t="s">
+        <v>160</v>
+      </c>
+      <c r="I17" s="124" t="s">
+        <v>160</v>
+      </c>
+      <c r="L17" s="111" t="s">
+        <v>277</v>
+      </c>
+      <c r="M17" s="50"/>
+      <c r="N17" s="50"/>
+    </row>
+    <row r="18" spans="1:20" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="76">
+        <v>43131</v>
+      </c>
+      <c r="B18" s="72">
+        <v>10</v>
+      </c>
+      <c r="C18" s="53">
+        <v>200</v>
+      </c>
+      <c r="D18" s="70">
+        <v>200</v>
+      </c>
+      <c r="E18" s="72">
+        <v>200</v>
+      </c>
+      <c r="F18" s="70">
+        <v>200</v>
+      </c>
+      <c r="G18" s="85">
+        <v>30</v>
+      </c>
+      <c r="H18" s="85">
+        <v>30</v>
+      </c>
+      <c r="I18" s="123">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="77" t="s">
+        <v>207</v>
+      </c>
+      <c r="B19" s="74">
+        <v>50</v>
+      </c>
+      <c r="C19" s="69">
+        <v>1000</v>
+      </c>
+      <c r="D19" s="80">
+        <v>200</v>
+      </c>
+      <c r="E19" s="79">
+        <v>200</v>
+      </c>
+      <c r="F19" s="80">
+        <v>1000</v>
+      </c>
+      <c r="G19" s="87">
+        <v>150</v>
+      </c>
+      <c r="H19" s="87">
+        <v>150</v>
+      </c>
+      <c r="I19" s="123">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="78" t="s">
+        <v>132</v>
+      </c>
+      <c r="B20" s="198" t="s">
+        <v>242</v>
+      </c>
+      <c r="C20" s="199"/>
+      <c r="D20" s="200"/>
+      <c r="E20" s="198" t="s">
+        <v>241</v>
+      </c>
+      <c r="F20" s="200"/>
+      <c r="G20" s="88">
+        <v>2888</v>
+      </c>
+      <c r="H20" s="88">
+        <v>2888</v>
+      </c>
+      <c r="I20" s="125">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E21" s="214" t="s">
+        <v>274</v>
+      </c>
+      <c r="F21" s="214"/>
+    </row>
+    <row r="22" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="23" spans="1:20" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="170" t="s">
+        <v>214</v>
+      </c>
+      <c r="B24" s="166"/>
+      <c r="C24" s="166" t="s">
+        <v>272</v>
+      </c>
+      <c r="D24" s="166"/>
+      <c r="E24" s="166"/>
+      <c r="F24" s="166"/>
+      <c r="G24" s="166"/>
+      <c r="H24" s="112"/>
+      <c r="I24" s="183" t="s">
+        <v>268</v>
+      </c>
+      <c r="J24" s="183"/>
+      <c r="K24" s="164" t="s">
+        <v>245</v>
+      </c>
+      <c r="L24" s="165"/>
+    </row>
+    <row r="25" spans="1:20" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="148" t="s">
+        <v>269</v>
+      </c>
+      <c r="B25" s="146"/>
+      <c r="C25" s="178" t="s">
+        <v>271</v>
+      </c>
+      <c r="D25" s="178"/>
+      <c r="E25" s="215" t="s">
+        <v>270</v>
+      </c>
+      <c r="F25" s="215"/>
+      <c r="G25" s="215"/>
+      <c r="H25" s="116"/>
+      <c r="I25" s="178" t="s">
+        <v>267</v>
+      </c>
+      <c r="J25" s="178"/>
+      <c r="K25" s="178"/>
+      <c r="L25" s="147"/>
+      <c r="O25" s="177" t="s">
+        <v>204</v>
+      </c>
+      <c r="P25" s="177"/>
+      <c r="Q25" s="177"/>
+      <c r="R25" s="177"/>
+      <c r="S25" s="177"/>
+      <c r="T25" s="177"/>
+    </row>
+    <row r="26" spans="1:20" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="194" t="s">
+        <v>76</v>
+      </c>
+      <c r="B26" s="195"/>
+      <c r="C26" s="196" t="s">
+        <v>226</v>
+      </c>
+      <c r="D26" s="216"/>
+      <c r="E26" s="211" t="s">
+        <v>219</v>
+      </c>
+      <c r="F26" s="211"/>
+      <c r="G26" s="211" t="s">
+        <v>218</v>
+      </c>
+      <c r="H26" s="211"/>
+      <c r="I26" s="216" t="s">
+        <v>220</v>
+      </c>
+      <c r="J26" s="195"/>
+      <c r="K26" s="196" t="s">
+        <v>224</v>
+      </c>
+      <c r="L26" s="195"/>
+      <c r="O26" s="59" t="s">
+        <v>146</v>
+      </c>
+      <c r="P26" s="46" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q26" s="59" t="s">
+        <v>164</v>
+      </c>
+      <c r="R26" s="59" t="s">
+        <v>165</v>
+      </c>
+      <c r="S26" s="59" t="s">
+        <v>166</v>
+      </c>
+      <c r="T26" s="59" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="146" t="s">
+        <v>227</v>
+      </c>
+      <c r="B27" s="129"/>
+      <c r="C27" s="146" t="s">
+        <v>229</v>
+      </c>
+      <c r="D27" s="128"/>
+      <c r="E27" s="182"/>
+      <c r="F27" s="182"/>
+      <c r="G27" s="182"/>
+      <c r="H27" s="182"/>
+      <c r="I27" s="190" t="s">
+        <v>244</v>
+      </c>
+      <c r="J27" s="191"/>
+      <c r="K27" s="146" t="s">
+        <v>225</v>
+      </c>
+      <c r="L27" s="129"/>
+      <c r="O27" s="49"/>
+      <c r="P27" s="49"/>
+      <c r="Q27" s="49"/>
+      <c r="R27" s="49"/>
+      <c r="S27" s="49" t="s">
+        <v>167</v>
+      </c>
+      <c r="T27" s="49"/>
+    </row>
+    <row r="28" spans="1:20" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="146" t="s">
+        <v>227</v>
+      </c>
+      <c r="B28" s="129"/>
+      <c r="C28" s="146" t="s">
+        <v>230</v>
+      </c>
+      <c r="D28" s="128"/>
+      <c r="E28" s="182"/>
+      <c r="F28" s="182"/>
+      <c r="G28" s="182"/>
+      <c r="H28" s="182"/>
+      <c r="I28" s="192" t="s">
+        <v>274</v>
+      </c>
+      <c r="J28" s="193"/>
+      <c r="K28" s="146" t="s">
+        <v>225</v>
+      </c>
+      <c r="L28" s="129"/>
+      <c r="O28" s="49"/>
+      <c r="P28" s="49"/>
+      <c r="Q28" s="49"/>
+      <c r="R28" s="49"/>
+      <c r="S28" s="49"/>
+      <c r="T28" s="49"/>
+    </row>
+    <row r="29" spans="1:20" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="146" t="s">
+        <v>228</v>
+      </c>
+      <c r="B29" s="129"/>
+      <c r="C29" s="146" t="s">
+        <v>231</v>
+      </c>
+      <c r="D29" s="128"/>
+      <c r="E29" s="182"/>
+      <c r="F29" s="182"/>
+      <c r="G29" s="182"/>
+      <c r="H29" s="182"/>
+      <c r="I29" s="128"/>
+      <c r="J29" s="129"/>
+      <c r="K29" s="146" t="s">
+        <v>225</v>
+      </c>
+      <c r="L29" s="129"/>
+    </row>
+    <row r="30" spans="1:20" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="146" t="s">
+        <v>228</v>
+      </c>
+      <c r="B30" s="129"/>
+      <c r="C30" s="146" t="s">
+        <v>232</v>
+      </c>
+      <c r="D30" s="128"/>
+      <c r="E30" s="182"/>
+      <c r="F30" s="182"/>
+      <c r="G30" s="182"/>
+      <c r="H30" s="182"/>
+      <c r="I30" s="128"/>
+      <c r="J30" s="129"/>
+      <c r="K30" s="146" t="s">
+        <v>225</v>
+      </c>
+      <c r="L30" s="129"/>
+    </row>
+    <row r="31" spans="1:20" ht="29.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="32" spans="1:20" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="170" t="s">
+        <v>214</v>
+      </c>
+      <c r="B32" s="166"/>
+      <c r="C32" s="166" t="s">
+        <v>272</v>
+      </c>
+      <c r="D32" s="166"/>
+      <c r="E32" s="166"/>
+      <c r="F32" s="166"/>
+      <c r="G32" s="166"/>
+      <c r="H32" s="112"/>
+      <c r="I32" s="164" t="s">
+        <v>268</v>
+      </c>
+      <c r="J32" s="164"/>
+      <c r="K32" s="183" t="s">
+        <v>245</v>
+      </c>
+      <c r="L32" s="183"/>
+    </row>
+    <row r="33" spans="1:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="148" t="s">
+        <v>247</v>
+      </c>
+      <c r="B33" s="146"/>
+      <c r="C33" s="178"/>
+      <c r="D33" s="178"/>
+      <c r="E33" s="178" t="s">
+        <v>271</v>
+      </c>
+      <c r="F33" s="178"/>
+      <c r="G33" s="178"/>
+      <c r="H33" s="67"/>
+      <c r="I33" s="178" t="s">
+        <v>267</v>
+      </c>
+      <c r="J33" s="178"/>
+      <c r="K33" s="178"/>
+      <c r="L33" s="147"/>
+    </row>
+    <row r="34" spans="1:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="89" t="s">
+        <v>248</v>
+      </c>
+      <c r="B34" s="91" t="s">
+        <v>249</v>
+      </c>
+      <c r="C34" s="184" t="s">
+        <v>250</v>
+      </c>
+      <c r="D34" s="185"/>
+      <c r="E34" s="184" t="s">
+        <v>251</v>
+      </c>
+      <c r="F34" s="185"/>
+      <c r="G34" s="186" t="s">
+        <v>236</v>
+      </c>
+      <c r="H34" s="187"/>
+      <c r="I34" s="188"/>
+      <c r="J34" s="186" t="s">
+        <v>224</v>
+      </c>
+      <c r="K34" s="189"/>
+      <c r="L34" s="188"/>
+    </row>
+    <row r="35" spans="1:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="49"/>
+      <c r="B35" s="49"/>
+      <c r="C35" s="130"/>
+      <c r="D35" s="130"/>
+      <c r="E35" s="130"/>
+      <c r="F35" s="130"/>
+      <c r="G35" s="143"/>
+      <c r="H35" s="128"/>
+      <c r="I35" s="129"/>
+      <c r="J35" s="143"/>
+      <c r="K35" s="128"/>
+      <c r="L35" s="129"/>
+    </row>
+    <row r="36" spans="1:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="49"/>
+      <c r="B36" s="49"/>
+      <c r="C36" s="130"/>
+      <c r="D36" s="130"/>
+      <c r="E36" s="130"/>
+      <c r="F36" s="130"/>
+      <c r="G36" s="143"/>
+      <c r="H36" s="128"/>
+      <c r="I36" s="129"/>
+      <c r="J36" s="143"/>
+      <c r="K36" s="128"/>
+      <c r="L36" s="129"/>
+    </row>
+    <row r="38" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="39" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="117" t="s">
+        <v>280</v>
+      </c>
+      <c r="B40" s="118" t="s">
+        <v>281</v>
+      </c>
+      <c r="C40" s="118" t="s">
+        <v>282</v>
+      </c>
+      <c r="D40" s="118" t="s">
+        <v>283</v>
+      </c>
+      <c r="E40" s="175" t="s">
+        <v>284</v>
+      </c>
+      <c r="F40" s="176"/>
+    </row>
+    <row r="41" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="210" t="s">
+        <v>278</v>
+      </c>
+      <c r="B41" s="210"/>
+      <c r="D41" s="50" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="90" t="s">
+        <v>171</v>
+      </c>
+      <c r="B42" s="90" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42" s="90" t="s">
+        <v>100</v>
+      </c>
+      <c r="D42" s="90" t="s">
+        <v>101</v>
+      </c>
+      <c r="E42" s="119" t="s">
+        <v>102</v>
+      </c>
+      <c r="F42" s="121" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="45" t="s">
+        <v>172</v>
+      </c>
+      <c r="B43" s="45">
+        <v>83</v>
+      </c>
+      <c r="C43" s="45">
+        <v>90</v>
+      </c>
+      <c r="D43" s="45">
+        <v>0</v>
+      </c>
+      <c r="E43" s="47">
+        <v>8</v>
+      </c>
+      <c r="F43" s="122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="45" t="s">
+        <v>173</v>
+      </c>
+      <c r="B44" s="45">
+        <v>88</v>
+      </c>
+      <c r="C44" s="45">
+        <v>30</v>
+      </c>
+      <c r="D44" s="45">
+        <v>0</v>
+      </c>
+      <c r="E44" s="47">
+        <v>3</v>
+      </c>
+      <c r="F44" s="122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="45" t="s">
+        <v>174</v>
+      </c>
+      <c r="B45" s="45">
+        <v>100</v>
+      </c>
+      <c r="C45" s="45">
+        <v>15</v>
+      </c>
+      <c r="D45" s="45">
+        <v>0</v>
+      </c>
+      <c r="E45" s="47">
+        <v>86</v>
+      </c>
+      <c r="F45" s="122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="52" t="s">
+        <v>253</v>
+      </c>
+      <c r="B46" s="52" t="s">
+        <v>252</v>
+      </c>
+      <c r="C46" s="45">
+        <f t="shared" ref="C46:E46" si="0">SUM(C43:C45)</f>
+        <v>135</v>
+      </c>
+      <c r="D46" s="45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E46" s="47">
+        <f t="shared" si="0"/>
+        <v>97</v>
+      </c>
+      <c r="F46" s="122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" ht="82.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="48" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A49" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="50" t="s">
+        <v>256</v>
+      </c>
+      <c r="C52" s="50" t="s">
+        <v>257</v>
+      </c>
+      <c r="E52" s="50" t="s">
+        <v>258</v>
+      </c>
+      <c r="G52" s="50" t="s">
+        <v>259</v>
+      </c>
+      <c r="H52" s="50"/>
+    </row>
+    <row r="54" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="68" t="s">
+        <v>177</v>
+      </c>
+      <c r="B54" s="68" t="s">
+        <v>178</v>
+      </c>
+      <c r="C54" s="68" t="s">
+        <v>179</v>
+      </c>
+      <c r="E54" s="68" t="s">
+        <v>177</v>
+      </c>
+      <c r="F54" s="68" t="s">
+        <v>178</v>
+      </c>
+      <c r="G54" s="68" t="s">
+        <v>179</v>
+      </c>
+      <c r="H54" s="113"/>
+    </row>
+    <row r="55" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="45" t="s">
+        <v>162</v>
+      </c>
+      <c r="B55" s="49"/>
+      <c r="C55" s="49"/>
+      <c r="D55" s="56" t="s">
+        <v>260</v>
+      </c>
+      <c r="E55" s="52" t="s">
+        <v>254</v>
+      </c>
+      <c r="F55" s="49"/>
+      <c r="G55" s="49"/>
+      <c r="H55" s="11"/>
+    </row>
+    <row r="56" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A56" s="45" t="s">
+        <v>180</v>
+      </c>
+      <c r="B56" s="49"/>
+      <c r="C56" s="49"/>
+      <c r="E56" s="52" t="s">
+        <v>255</v>
+      </c>
+      <c r="F56" s="49"/>
+      <c r="G56" s="49"/>
+      <c r="H56" s="11"/>
+    </row>
+    <row r="57" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A57" s="45" t="s">
+        <v>132</v>
+      </c>
+      <c r="B57" s="49"/>
+      <c r="C57" s="49"/>
+      <c r="E57" s="45" t="s">
+        <v>132</v>
+      </c>
+      <c r="F57" s="49"/>
+      <c r="G57" s="49"/>
+      <c r="H57" s="11"/>
+    </row>
+    <row r="63" spans="1:8" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A63" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="F63" s="31" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="65" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="F65" s="50"/>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A85" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A87" t="s">
+        <v>184</v>
+      </c>
+      <c r="B87" s="45" t="s">
+        <v>107</v>
+      </c>
+      <c r="C87" s="45" t="s">
+        <v>185</v>
+      </c>
+      <c r="D87" s="45" t="s">
+        <v>186</v>
+      </c>
+      <c r="E87" s="45" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B88" s="45"/>
+      <c r="C88" s="45" t="s">
+        <v>187</v>
+      </c>
+      <c r="D88" s="45" t="s">
+        <v>188</v>
+      </c>
+      <c r="E88" s="45"/>
+    </row>
+    <row r="89" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A89" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B90" s="130" t="s">
+        <v>190</v>
+      </c>
+      <c r="C90" s="49" t="s">
+        <v>113</v>
+      </c>
+      <c r="D90" s="49"/>
+      <c r="E90" s="106" t="s">
+        <v>191</v>
+      </c>
+      <c r="F90" s="173" t="s">
+        <v>261</v>
+      </c>
+      <c r="G90" s="174"/>
+      <c r="H90" s="114"/>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B91" s="130"/>
+      <c r="C91" s="49" t="s">
+        <v>127</v>
+      </c>
+      <c r="D91" s="49"/>
+      <c r="E91" s="106" t="s">
+        <v>191</v>
+      </c>
+      <c r="F91" s="174"/>
+      <c r="G91" s="174"/>
+      <c r="H91" s="114"/>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B92" s="130" t="s">
+        <v>192</v>
+      </c>
+      <c r="C92" s="49" t="s">
+        <v>117</v>
+      </c>
+      <c r="D92" s="49"/>
+      <c r="E92" s="106" t="s">
+        <v>191</v>
+      </c>
+      <c r="F92" s="174"/>
+      <c r="G92" s="174"/>
+      <c r="H92" s="114"/>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B93" s="130"/>
+      <c r="C93" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="D93" s="49"/>
+      <c r="E93" s="106" t="s">
+        <v>191</v>
+      </c>
+      <c r="F93" s="174"/>
+      <c r="G93" s="174"/>
+      <c r="H93" s="114"/>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B94" s="130"/>
+      <c r="C94" s="49" t="s">
+        <v>115</v>
+      </c>
+      <c r="D94" s="49"/>
+      <c r="E94" s="106" t="s">
+        <v>191</v>
+      </c>
+      <c r="F94" s="174"/>
+      <c r="G94" s="174"/>
+      <c r="H94" s="114"/>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B95" s="130"/>
+      <c r="C95" s="51" t="s">
+        <v>262</v>
+      </c>
+      <c r="D95" s="49"/>
+      <c r="E95" s="107" t="s">
+        <v>191</v>
+      </c>
+      <c r="F95" s="108" t="s">
+        <v>263</v>
+      </c>
+      <c r="G95" s="108"/>
+      <c r="H95" s="108"/>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B96" s="45" t="s">
+        <v>193</v>
+      </c>
+      <c r="C96" s="49"/>
+      <c r="D96" s="49" t="s">
+        <v>194</v>
+      </c>
+      <c r="E96" s="105"/>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A98" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A100" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B102" s="45" t="s">
+        <v>197</v>
+      </c>
+      <c r="C102" s="45" t="s">
+        <v>198</v>
+      </c>
+      <c r="D102" s="45" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B103" s="45"/>
+      <c r="C103" s="45"/>
+      <c r="D103" s="45"/>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B104" s="45"/>
+      <c r="C104" s="45"/>
+      <c r="D104" s="45"/>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B105" s="45"/>
+      <c r="C105" s="45"/>
+      <c r="D105" s="45"/>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B106" s="45"/>
+      <c r="C106" s="45"/>
+      <c r="D106" s="45"/>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B107" s="45"/>
+      <c r="C107" s="45"/>
+      <c r="D107" s="45"/>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B108" s="45"/>
+      <c r="C108" s="45"/>
+      <c r="D108" s="45"/>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B109" s="45" t="s">
+        <v>132</v>
+      </c>
+      <c r="C109" s="45"/>
+      <c r="D109" s="45" t="s">
+        <v>200</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="77">
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="O25:T25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="K26:L26"/>
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="C27:D27"/>
     <mergeCell ref="I27:J27"/>
@@ -8099,1157 +9634,43 @@
     <mergeCell ref="C28:D28"/>
     <mergeCell ref="I28:J28"/>
     <mergeCell ref="K28:L28"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="J34:L34"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="I33:L33"/>
+    <mergeCell ref="B90:B91"/>
+    <mergeCell ref="F90:G94"/>
+    <mergeCell ref="B92:B95"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="I25:L25"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="J35:L35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
     <mergeCell ref="K24:L24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="G25:L25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="A11:A12"/>
     <mergeCell ref="I11:I12"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E11:F11"/>
     <mergeCell ref="G11:G12"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
-  </mergeCells>
-  <phoneticPr fontId="12" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T109"/>
-  <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="9" width="13" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:16" ht="31.5" customHeight="1">
-      <c r="A1" s="50" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" ht="29.25" customHeight="1">
-      <c r="A3" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-    </row>
-    <row r="4" spans="1:16" ht="41.25" customHeight="1">
-      <c r="A4" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" ht="29.25" customHeight="1">
-      <c r="A5" s="45" t="s">
-        <v>146</v>
-      </c>
-      <c r="B5" s="138" t="s">
-        <v>147</v>
-      </c>
-      <c r="C5" s="136"/>
-      <c r="D5" s="137"/>
-      <c r="E5" s="52" t="s">
-        <v>243</v>
-      </c>
-      <c r="F5" s="45" t="s">
-        <v>117</v>
-      </c>
-      <c r="G5" s="159" t="s">
-        <v>205</v>
-      </c>
-      <c r="H5" s="202"/>
-      <c r="I5" s="157"/>
-    </row>
-    <row r="6" spans="1:16" ht="78.75" customHeight="1">
-      <c r="A6" s="66">
-        <v>43136.354166666664</v>
-      </c>
-      <c r="B6" s="176" t="s">
-        <v>235</v>
-      </c>
-      <c r="C6" s="177"/>
-      <c r="D6" s="178"/>
-      <c r="E6" s="45">
-        <v>400</v>
-      </c>
-      <c r="F6" s="45">
-        <v>200</v>
-      </c>
-      <c r="G6" s="138">
-        <v>200</v>
-      </c>
-      <c r="H6" s="136"/>
-      <c r="I6" s="137"/>
-    </row>
-    <row r="8" spans="1:16" ht="30" customHeight="1"/>
-    <row r="9" spans="1:16" ht="37.5" customHeight="1">
-      <c r="A9" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" ht="21" thickBot="1">
-      <c r="A10" s="3"/>
-    </row>
-    <row r="11" spans="1:16" ht="27.75" customHeight="1">
-      <c r="A11" s="173" t="s">
-        <v>159</v>
-      </c>
-      <c r="B11" s="179" t="s">
-        <v>125</v>
-      </c>
-      <c r="C11" s="181"/>
-      <c r="D11" s="180"/>
-      <c r="E11" s="179" t="s">
-        <v>220</v>
-      </c>
-      <c r="F11" s="180"/>
-      <c r="G11" s="173" t="s">
-        <v>243</v>
-      </c>
-      <c r="H11" s="173" t="s">
-        <v>240</v>
-      </c>
-      <c r="I11" s="214" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" ht="27.75" customHeight="1">
-      <c r="A12" s="174"/>
-      <c r="B12" s="79" t="s">
-        <v>265</v>
-      </c>
-      <c r="C12" s="69" t="s">
-        <v>238</v>
-      </c>
-      <c r="D12" s="80" t="s">
-        <v>239</v>
-      </c>
-      <c r="E12" s="79" t="s">
-        <v>266</v>
-      </c>
-      <c r="F12" s="80" t="s">
-        <v>236</v>
-      </c>
-      <c r="G12" s="174"/>
-      <c r="H12" s="174"/>
-      <c r="I12" s="215"/>
-      <c r="J12" s="126" t="s">
-        <v>287</v>
-      </c>
-      <c r="K12" s="126"/>
-      <c r="L12" s="126"/>
-      <c r="M12" s="126"/>
-      <c r="N12" s="126"/>
-      <c r="O12" s="126"/>
-      <c r="P12" s="126"/>
-    </row>
-    <row r="13" spans="1:16" ht="27.75" customHeight="1">
-      <c r="A13" s="75">
-        <v>43101</v>
-      </c>
-      <c r="B13" s="72">
-        <v>10</v>
-      </c>
-      <c r="C13" s="53">
-        <v>200</v>
-      </c>
-      <c r="D13" s="70">
-        <v>200</v>
-      </c>
-      <c r="E13" s="72">
-        <v>200</v>
-      </c>
-      <c r="F13" s="70">
-        <v>200</v>
-      </c>
-      <c r="G13" s="85">
-        <v>30</v>
-      </c>
-      <c r="H13" s="85">
-        <v>30</v>
-      </c>
-      <c r="I13" s="123">
-        <v>40</v>
-      </c>
-      <c r="J13" s="126" t="s">
-        <v>286</v>
-      </c>
-      <c r="K13" s="126"/>
-      <c r="L13" s="126"/>
-      <c r="M13" s="126"/>
-      <c r="N13" s="126"/>
-      <c r="O13" s="126"/>
-      <c r="P13" s="126"/>
-    </row>
-    <row r="14" spans="1:16" ht="27.75" customHeight="1">
-      <c r="A14" s="75">
-        <v>43102</v>
-      </c>
-      <c r="B14" s="72">
-        <v>10</v>
-      </c>
-      <c r="C14" s="53">
-        <v>200</v>
-      </c>
-      <c r="D14" s="70">
-        <v>200</v>
-      </c>
-      <c r="E14" s="72">
-        <v>200</v>
-      </c>
-      <c r="F14" s="70">
-        <v>200</v>
-      </c>
-      <c r="G14" s="86">
-        <v>30</v>
-      </c>
-      <c r="H14" s="86">
-        <v>30</v>
-      </c>
-      <c r="I14" s="123">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" ht="27.75" customHeight="1">
-      <c r="A15" s="75">
-        <v>43103</v>
-      </c>
-      <c r="B15" s="72">
-        <v>10</v>
-      </c>
-      <c r="C15" s="53">
-        <v>200</v>
-      </c>
-      <c r="D15" s="70">
-        <v>200</v>
-      </c>
-      <c r="E15" s="72">
-        <v>200</v>
-      </c>
-      <c r="F15" s="70">
-        <v>200</v>
-      </c>
-      <c r="G15" s="85">
-        <v>30</v>
-      </c>
-      <c r="H15" s="85">
-        <v>30</v>
-      </c>
-      <c r="I15" s="123">
-        <v>60</v>
-      </c>
-      <c r="L15" s="109" t="s">
-        <v>275</v>
-      </c>
-      <c r="M15" s="109"/>
-      <c r="N15" s="109"/>
-    </row>
-    <row r="16" spans="1:16" ht="27.75" customHeight="1">
-      <c r="A16" s="75">
-        <v>43104</v>
-      </c>
-      <c r="B16" s="72">
-        <v>10</v>
-      </c>
-      <c r="C16" s="53">
-        <v>200</v>
-      </c>
-      <c r="D16" s="70">
-        <v>200</v>
-      </c>
-      <c r="E16" s="72">
-        <v>200</v>
-      </c>
-      <c r="F16" s="70">
-        <v>200</v>
-      </c>
-      <c r="G16" s="85">
-        <v>30</v>
-      </c>
-      <c r="H16" s="85">
-        <v>30</v>
-      </c>
-      <c r="I16" s="123">
-        <v>70</v>
-      </c>
-      <c r="K16" s="50"/>
-      <c r="L16" s="110" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" ht="27.75" customHeight="1">
-      <c r="A17" s="76" t="s">
-        <v>160</v>
-      </c>
-      <c r="B17" s="73" t="s">
-        <v>160</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="D17" s="71" t="s">
-        <v>160</v>
-      </c>
-      <c r="E17" s="73" t="s">
-        <v>160</v>
-      </c>
-      <c r="F17" s="71" t="s">
-        <v>160</v>
-      </c>
-      <c r="G17" s="76" t="s">
-        <v>160</v>
-      </c>
-      <c r="H17" s="76" t="s">
-        <v>160</v>
-      </c>
-      <c r="I17" s="124" t="s">
-        <v>160</v>
-      </c>
-      <c r="L17" s="111" t="s">
-        <v>277</v>
-      </c>
-      <c r="M17" s="50"/>
-      <c r="N17" s="50"/>
-    </row>
-    <row r="18" spans="1:20" ht="27.75" customHeight="1">
-      <c r="A18" s="76">
-        <v>43131</v>
-      </c>
-      <c r="B18" s="72">
-        <v>10</v>
-      </c>
-      <c r="C18" s="53">
-        <v>200</v>
-      </c>
-      <c r="D18" s="70">
-        <v>200</v>
-      </c>
-      <c r="E18" s="72">
-        <v>200</v>
-      </c>
-      <c r="F18" s="70">
-        <v>200</v>
-      </c>
-      <c r="G18" s="85">
-        <v>30</v>
-      </c>
-      <c r="H18" s="85">
-        <v>30</v>
-      </c>
-      <c r="I18" s="123">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" ht="27.75" customHeight="1">
-      <c r="A19" s="77" t="s">
-        <v>207</v>
-      </c>
-      <c r="B19" s="74">
-        <v>50</v>
-      </c>
-      <c r="C19" s="69">
-        <v>1000</v>
-      </c>
-      <c r="D19" s="80">
-        <v>200</v>
-      </c>
-      <c r="E19" s="79">
-        <v>200</v>
-      </c>
-      <c r="F19" s="80">
-        <v>1000</v>
-      </c>
-      <c r="G19" s="87">
-        <v>150</v>
-      </c>
-      <c r="H19" s="87">
-        <v>150</v>
-      </c>
-      <c r="I19" s="123">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" ht="27.75" customHeight="1" thickBot="1">
-      <c r="A20" s="78" t="s">
-        <v>132</v>
-      </c>
-      <c r="B20" s="182" t="s">
-        <v>242</v>
-      </c>
-      <c r="C20" s="183"/>
-      <c r="D20" s="184"/>
-      <c r="E20" s="182" t="s">
-        <v>241</v>
-      </c>
-      <c r="F20" s="184"/>
-      <c r="G20" s="88">
-        <v>2888</v>
-      </c>
-      <c r="H20" s="88">
-        <v>2888</v>
-      </c>
-      <c r="I20" s="125">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" ht="23.25" customHeight="1">
-      <c r="E21" s="211" t="s">
-        <v>274</v>
-      </c>
-      <c r="F21" s="211"/>
-    </row>
-    <row r="22" spans="1:20" ht="30" customHeight="1"/>
-    <row r="23" spans="1:20" ht="44.25" customHeight="1">
-      <c r="A23" s="3" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20" ht="25.5" customHeight="1">
-      <c r="A24" s="150" t="s">
-        <v>214</v>
-      </c>
-      <c r="B24" s="151"/>
-      <c r="C24" s="151" t="s">
-        <v>272</v>
-      </c>
-      <c r="D24" s="151"/>
-      <c r="E24" s="151"/>
-      <c r="F24" s="151"/>
-      <c r="G24" s="151"/>
-      <c r="H24" s="112"/>
-      <c r="I24" s="185" t="s">
-        <v>268</v>
-      </c>
-      <c r="J24" s="185"/>
-      <c r="K24" s="155" t="s">
-        <v>245</v>
-      </c>
-      <c r="L24" s="156"/>
-    </row>
-    <row r="25" spans="1:20" ht="29.25" customHeight="1">
-      <c r="A25" s="158" t="s">
-        <v>269</v>
-      </c>
-      <c r="B25" s="159"/>
-      <c r="C25" s="202" t="s">
-        <v>271</v>
-      </c>
-      <c r="D25" s="202"/>
-      <c r="E25" s="212" t="s">
-        <v>270</v>
-      </c>
-      <c r="F25" s="212"/>
-      <c r="G25" s="212"/>
-      <c r="H25" s="116"/>
-      <c r="I25" s="202" t="s">
-        <v>267</v>
-      </c>
-      <c r="J25" s="202"/>
-      <c r="K25" s="202"/>
-      <c r="L25" s="157"/>
-      <c r="O25" s="201" t="s">
-        <v>204</v>
-      </c>
-      <c r="P25" s="201"/>
-      <c r="Q25" s="201"/>
-      <c r="R25" s="201"/>
-      <c r="S25" s="201"/>
-      <c r="T25" s="201"/>
-    </row>
-    <row r="26" spans="1:20" ht="29.25" customHeight="1">
-      <c r="A26" s="186" t="s">
-        <v>76</v>
-      </c>
-      <c r="B26" s="187"/>
-      <c r="C26" s="188" t="s">
-        <v>226</v>
-      </c>
-      <c r="D26" s="210"/>
-      <c r="E26" s="213" t="s">
-        <v>219</v>
-      </c>
-      <c r="F26" s="213"/>
-      <c r="G26" s="213" t="s">
-        <v>218</v>
-      </c>
-      <c r="H26" s="213"/>
-      <c r="I26" s="210" t="s">
-        <v>220</v>
-      </c>
-      <c r="J26" s="187"/>
-      <c r="K26" s="188" t="s">
-        <v>224</v>
-      </c>
-      <c r="L26" s="187"/>
-      <c r="O26" s="59" t="s">
-        <v>146</v>
-      </c>
-      <c r="P26" s="46" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q26" s="59" t="s">
-        <v>164</v>
-      </c>
-      <c r="R26" s="59" t="s">
-        <v>165</v>
-      </c>
-      <c r="S26" s="59" t="s">
-        <v>166</v>
-      </c>
-      <c r="T26" s="59" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20" ht="29.25" customHeight="1">
-      <c r="A27" s="159" t="s">
-        <v>227</v>
-      </c>
-      <c r="B27" s="137"/>
-      <c r="C27" s="159" t="s">
-        <v>229</v>
-      </c>
-      <c r="D27" s="136"/>
-      <c r="E27" s="194"/>
-      <c r="F27" s="194"/>
-      <c r="G27" s="194"/>
-      <c r="H27" s="194"/>
-      <c r="I27" s="190" t="s">
-        <v>244</v>
-      </c>
-      <c r="J27" s="191"/>
-      <c r="K27" s="159" t="s">
-        <v>225</v>
-      </c>
-      <c r="L27" s="137"/>
-      <c r="O27" s="49"/>
-      <c r="P27" s="49"/>
-      <c r="Q27" s="49"/>
-      <c r="R27" s="49"/>
-      <c r="S27" s="49" t="s">
-        <v>167</v>
-      </c>
-      <c r="T27" s="49"/>
-    </row>
-    <row r="28" spans="1:20" ht="29.25" customHeight="1">
-      <c r="A28" s="159" t="s">
-        <v>227</v>
-      </c>
-      <c r="B28" s="137"/>
-      <c r="C28" s="159" t="s">
-        <v>230</v>
-      </c>
-      <c r="D28" s="136"/>
-      <c r="E28" s="194"/>
-      <c r="F28" s="194"/>
-      <c r="G28" s="194"/>
-      <c r="H28" s="194"/>
-      <c r="I28" s="192" t="s">
-        <v>274</v>
-      </c>
-      <c r="J28" s="193"/>
-      <c r="K28" s="159" t="s">
-        <v>225</v>
-      </c>
-      <c r="L28" s="137"/>
-      <c r="O28" s="49"/>
-      <c r="P28" s="49"/>
-      <c r="Q28" s="49"/>
-      <c r="R28" s="49"/>
-      <c r="S28" s="49"/>
-      <c r="T28" s="49"/>
-    </row>
-    <row r="29" spans="1:20" ht="29.25" customHeight="1">
-      <c r="A29" s="159" t="s">
-        <v>228</v>
-      </c>
-      <c r="B29" s="137"/>
-      <c r="C29" s="159" t="s">
-        <v>231</v>
-      </c>
-      <c r="D29" s="136"/>
-      <c r="E29" s="194"/>
-      <c r="F29" s="194"/>
-      <c r="G29" s="194"/>
-      <c r="H29" s="194"/>
-      <c r="I29" s="136"/>
-      <c r="J29" s="137"/>
-      <c r="K29" s="159" t="s">
-        <v>225</v>
-      </c>
-      <c r="L29" s="137"/>
-    </row>
-    <row r="30" spans="1:20" ht="29.25" customHeight="1">
-      <c r="A30" s="159" t="s">
-        <v>228</v>
-      </c>
-      <c r="B30" s="137"/>
-      <c r="C30" s="159" t="s">
-        <v>232</v>
-      </c>
-      <c r="D30" s="136"/>
-      <c r="E30" s="194"/>
-      <c r="F30" s="194"/>
-      <c r="G30" s="194"/>
-      <c r="H30" s="194"/>
-      <c r="I30" s="136"/>
-      <c r="J30" s="137"/>
-      <c r="K30" s="159" t="s">
-        <v>225</v>
-      </c>
-      <c r="L30" s="137"/>
-    </row>
-    <row r="31" spans="1:20" ht="29.25" customHeight="1"/>
-    <row r="32" spans="1:20" ht="29.25" customHeight="1">
-      <c r="A32" s="150" t="s">
-        <v>214</v>
-      </c>
-      <c r="B32" s="151"/>
-      <c r="C32" s="151" t="s">
-        <v>272</v>
-      </c>
-      <c r="D32" s="151"/>
-      <c r="E32" s="151"/>
-      <c r="F32" s="151"/>
-      <c r="G32" s="151"/>
-      <c r="H32" s="112"/>
-      <c r="I32" s="155" t="s">
-        <v>268</v>
-      </c>
-      <c r="J32" s="155"/>
-      <c r="K32" s="185" t="s">
-        <v>245</v>
-      </c>
-      <c r="L32" s="185"/>
-    </row>
-    <row r="33" spans="1:12" ht="29.25" customHeight="1">
-      <c r="A33" s="158" t="s">
-        <v>247</v>
-      </c>
-      <c r="B33" s="159"/>
-      <c r="C33" s="202"/>
-      <c r="D33" s="202"/>
-      <c r="E33" s="202" t="s">
-        <v>271</v>
-      </c>
-      <c r="F33" s="202"/>
-      <c r="G33" s="202"/>
-      <c r="H33" s="67"/>
-      <c r="I33" s="202" t="s">
-        <v>267</v>
-      </c>
-      <c r="J33" s="202"/>
-      <c r="K33" s="202"/>
-      <c r="L33" s="157"/>
-    </row>
-    <row r="34" spans="1:12" ht="29.25" customHeight="1">
-      <c r="A34" s="89" t="s">
-        <v>248</v>
-      </c>
-      <c r="B34" s="91" t="s">
-        <v>249</v>
-      </c>
-      <c r="C34" s="195" t="s">
-        <v>250</v>
-      </c>
-      <c r="D34" s="196"/>
-      <c r="E34" s="195" t="s">
-        <v>251</v>
-      </c>
-      <c r="F34" s="196"/>
-      <c r="G34" s="197" t="s">
-        <v>236</v>
-      </c>
-      <c r="H34" s="198"/>
-      <c r="I34" s="199"/>
-      <c r="J34" s="197" t="s">
-        <v>224</v>
-      </c>
-      <c r="K34" s="200"/>
-      <c r="L34" s="199"/>
-    </row>
-    <row r="35" spans="1:12" ht="29.25" customHeight="1">
-      <c r="A35" s="49"/>
-      <c r="B35" s="49"/>
-      <c r="C35" s="133"/>
-      <c r="D35" s="133"/>
-      <c r="E35" s="133"/>
-      <c r="F35" s="133"/>
-      <c r="G35" s="138"/>
-      <c r="H35" s="136"/>
-      <c r="I35" s="137"/>
-      <c r="J35" s="138"/>
-      <c r="K35" s="136"/>
-      <c r="L35" s="137"/>
-    </row>
-    <row r="36" spans="1:12" ht="29.25" customHeight="1">
-      <c r="A36" s="49"/>
-      <c r="B36" s="49"/>
-      <c r="C36" s="133"/>
-      <c r="D36" s="133"/>
-      <c r="E36" s="133"/>
-      <c r="F36" s="133"/>
-      <c r="G36" s="138"/>
-      <c r="H36" s="136"/>
-      <c r="I36" s="137"/>
-      <c r="J36" s="138"/>
-      <c r="K36" s="136"/>
-      <c r="L36" s="137"/>
-    </row>
-    <row r="38" spans="1:12" ht="28.5" customHeight="1"/>
-    <row r="39" spans="1:12" ht="48" customHeight="1">
-      <c r="A39" s="3" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" ht="45" customHeight="1">
-      <c r="A40" s="117" t="s">
-        <v>280</v>
-      </c>
-      <c r="B40" s="118" t="s">
-        <v>281</v>
-      </c>
-      <c r="C40" s="118" t="s">
-        <v>282</v>
-      </c>
-      <c r="D40" s="118" t="s">
-        <v>283</v>
-      </c>
-      <c r="E40" s="208" t="s">
-        <v>284</v>
-      </c>
-      <c r="F40" s="209"/>
-    </row>
-    <row r="41" spans="1:12" ht="45" customHeight="1">
-      <c r="A41" s="216" t="s">
-        <v>278</v>
-      </c>
-      <c r="B41" s="216"/>
-      <c r="D41" s="50" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" ht="45" customHeight="1">
-      <c r="A42" s="90" t="s">
-        <v>171</v>
-      </c>
-      <c r="B42" s="90" t="s">
-        <v>9</v>
-      </c>
-      <c r="C42" s="90" t="s">
-        <v>100</v>
-      </c>
-      <c r="D42" s="90" t="s">
-        <v>101</v>
-      </c>
-      <c r="E42" s="119" t="s">
-        <v>102</v>
-      </c>
-      <c r="F42" s="121" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" ht="45" customHeight="1">
-      <c r="A43" s="45" t="s">
-        <v>172</v>
-      </c>
-      <c r="B43" s="45">
-        <v>83</v>
-      </c>
-      <c r="C43" s="45">
-        <v>90</v>
-      </c>
-      <c r="D43" s="45">
-        <v>0</v>
-      </c>
-      <c r="E43" s="47">
-        <v>8</v>
-      </c>
-      <c r="F43" s="122">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" ht="45" customHeight="1">
-      <c r="A44" s="45" t="s">
-        <v>173</v>
-      </c>
-      <c r="B44" s="45">
-        <v>88</v>
-      </c>
-      <c r="C44" s="45">
-        <v>30</v>
-      </c>
-      <c r="D44" s="45">
-        <v>0</v>
-      </c>
-      <c r="E44" s="47">
-        <v>3</v>
-      </c>
-      <c r="F44" s="122">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" ht="45" customHeight="1">
-      <c r="A45" s="45" t="s">
-        <v>174</v>
-      </c>
-      <c r="B45" s="45">
-        <v>100</v>
-      </c>
-      <c r="C45" s="45">
-        <v>15</v>
-      </c>
-      <c r="D45" s="45">
-        <v>0</v>
-      </c>
-      <c r="E45" s="47">
-        <v>86</v>
-      </c>
-      <c r="F45" s="122">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" ht="45" customHeight="1">
-      <c r="A46" s="52" t="s">
-        <v>253</v>
-      </c>
-      <c r="B46" s="52" t="s">
-        <v>252</v>
-      </c>
-      <c r="C46" s="45">
-        <f t="shared" ref="C46:E46" si="0">SUM(C43:C45)</f>
-        <v>135</v>
-      </c>
-      <c r="D46" s="45">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E46" s="47">
-        <f t="shared" si="0"/>
-        <v>97</v>
-      </c>
-      <c r="F46" s="122">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" ht="82.5" customHeight="1"/>
-    <row r="48" spans="1:12" ht="30" customHeight="1">
-      <c r="A48" s="3" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
-      <c r="A49" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" ht="27" customHeight="1">
-      <c r="A52" s="50" t="s">
-        <v>256</v>
-      </c>
-      <c r="C52" s="50" t="s">
-        <v>257</v>
-      </c>
-      <c r="E52" s="50" t="s">
-        <v>258</v>
-      </c>
-      <c r="G52" s="50" t="s">
-        <v>259</v>
-      </c>
-      <c r="H52" s="50"/>
-    </row>
-    <row r="54" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A54" s="68" t="s">
-        <v>177</v>
-      </c>
-      <c r="B54" s="68" t="s">
-        <v>178</v>
-      </c>
-      <c r="C54" s="68" t="s">
-        <v>179</v>
-      </c>
-      <c r="E54" s="68" t="s">
-        <v>177</v>
-      </c>
-      <c r="F54" s="68" t="s">
-        <v>178</v>
-      </c>
-      <c r="G54" s="68" t="s">
-        <v>179</v>
-      </c>
-      <c r="H54" s="113"/>
-    </row>
-    <row r="55" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A55" s="45" t="s">
-        <v>162</v>
-      </c>
-      <c r="B55" s="49"/>
-      <c r="C55" s="49"/>
-      <c r="D55" s="56" t="s">
-        <v>260</v>
-      </c>
-      <c r="E55" s="52" t="s">
-        <v>254</v>
-      </c>
-      <c r="F55" s="49"/>
-      <c r="G55" s="49"/>
-      <c r="H55" s="11"/>
-    </row>
-    <row r="56" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A56" s="45" t="s">
-        <v>180</v>
-      </c>
-      <c r="B56" s="49"/>
-      <c r="C56" s="49"/>
-      <c r="E56" s="52" t="s">
-        <v>255</v>
-      </c>
-      <c r="F56" s="49"/>
-      <c r="G56" s="49"/>
-      <c r="H56" s="11"/>
-    </row>
-    <row r="57" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A57" s="45" t="s">
-        <v>132</v>
-      </c>
-      <c r="B57" s="49"/>
-      <c r="C57" s="49"/>
-      <c r="E57" s="45" t="s">
-        <v>132</v>
-      </c>
-      <c r="F57" s="49"/>
-      <c r="G57" s="49"/>
-      <c r="H57" s="11"/>
-    </row>
-    <row r="63" spans="1:8" ht="22.5">
-      <c r="A63" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="F63" s="31" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="65" spans="6:6">
-      <c r="F65" s="50"/>
-    </row>
-    <row r="85" spans="1:8">
-      <c r="A85" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" ht="26.25" customHeight="1">
-      <c r="A87" t="s">
-        <v>184</v>
-      </c>
-      <c r="B87" s="45" t="s">
-        <v>107</v>
-      </c>
-      <c r="C87" s="45" t="s">
-        <v>185</v>
-      </c>
-      <c r="D87" s="45" t="s">
-        <v>186</v>
-      </c>
-      <c r="E87" s="45" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" ht="26.25" customHeight="1">
-      <c r="B88" s="45"/>
-      <c r="C88" s="45" t="s">
-        <v>187</v>
-      </c>
-      <c r="D88" s="45" t="s">
-        <v>188</v>
-      </c>
-      <c r="E88" s="45"/>
-    </row>
-    <row r="89" spans="1:8" ht="32.25" customHeight="1">
-      <c r="A89" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
-      <c r="B90" s="133" t="s">
-        <v>190</v>
-      </c>
-      <c r="C90" s="49" t="s">
-        <v>113</v>
-      </c>
-      <c r="D90" s="49"/>
-      <c r="E90" s="106" t="s">
-        <v>191</v>
-      </c>
-      <c r="F90" s="206" t="s">
-        <v>261</v>
-      </c>
-      <c r="G90" s="207"/>
-      <c r="H90" s="114"/>
-    </row>
-    <row r="91" spans="1:8">
-      <c r="B91" s="133"/>
-      <c r="C91" s="49" t="s">
-        <v>127</v>
-      </c>
-      <c r="D91" s="49"/>
-      <c r="E91" s="106" t="s">
-        <v>191</v>
-      </c>
-      <c r="F91" s="207"/>
-      <c r="G91" s="207"/>
-      <c r="H91" s="114"/>
-    </row>
-    <row r="92" spans="1:8">
-      <c r="B92" s="133" t="s">
-        <v>192</v>
-      </c>
-      <c r="C92" s="49" t="s">
-        <v>117</v>
-      </c>
-      <c r="D92" s="49"/>
-      <c r="E92" s="106" t="s">
-        <v>191</v>
-      </c>
-      <c r="F92" s="207"/>
-      <c r="G92" s="207"/>
-      <c r="H92" s="114"/>
-    </row>
-    <row r="93" spans="1:8">
-      <c r="B93" s="133"/>
-      <c r="C93" s="49" t="s">
-        <v>16</v>
-      </c>
-      <c r="D93" s="49"/>
-      <c r="E93" s="106" t="s">
-        <v>191</v>
-      </c>
-      <c r="F93" s="207"/>
-      <c r="G93" s="207"/>
-      <c r="H93" s="114"/>
-    </row>
-    <row r="94" spans="1:8">
-      <c r="B94" s="133"/>
-      <c r="C94" s="49" t="s">
-        <v>115</v>
-      </c>
-      <c r="D94" s="49"/>
-      <c r="E94" s="106" t="s">
-        <v>191</v>
-      </c>
-      <c r="F94" s="207"/>
-      <c r="G94" s="207"/>
-      <c r="H94" s="114"/>
-    </row>
-    <row r="95" spans="1:8">
-      <c r="B95" s="133"/>
-      <c r="C95" s="51" t="s">
-        <v>262</v>
-      </c>
-      <c r="D95" s="49"/>
-      <c r="E95" s="107" t="s">
-        <v>191</v>
-      </c>
-      <c r="F95" s="108" t="s">
-        <v>263</v>
-      </c>
-      <c r="G95" s="108"/>
-      <c r="H95" s="108"/>
-    </row>
-    <row r="96" spans="1:8">
-      <c r="B96" s="45" t="s">
-        <v>193</v>
-      </c>
-      <c r="C96" s="49"/>
-      <c r="D96" s="49" t="s">
-        <v>194</v>
-      </c>
-      <c r="E96" s="105"/>
-    </row>
-    <row r="98" spans="1:4">
-      <c r="A98" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
-      <c r="A100" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
-      <c r="B102" s="45" t="s">
-        <v>197</v>
-      </c>
-      <c r="C102" s="45" t="s">
-        <v>198</v>
-      </c>
-      <c r="D102" s="45" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
-      <c r="B103" s="45"/>
-      <c r="C103" s="45"/>
-      <c r="D103" s="45"/>
-    </row>
-    <row r="104" spans="1:4">
-      <c r="B104" s="45"/>
-      <c r="C104" s="45"/>
-      <c r="D104" s="45"/>
-    </row>
-    <row r="105" spans="1:4">
-      <c r="B105" s="45"/>
-      <c r="C105" s="45"/>
-      <c r="D105" s="45"/>
-    </row>
-    <row r="106" spans="1:4">
-      <c r="B106" s="45"/>
-      <c r="C106" s="45"/>
-      <c r="D106" s="45"/>
-    </row>
-    <row r="107" spans="1:4">
-      <c r="B107" s="45"/>
-      <c r="C107" s="45"/>
-      <c r="D107" s="45"/>
-    </row>
-    <row r="108" spans="1:4">
-      <c r="B108" s="45"/>
-      <c r="C108" s="45"/>
-      <c r="D108" s="45"/>
-    </row>
-    <row r="109" spans="1:4">
-      <c r="B109" s="45" t="s">
-        <v>132</v>
-      </c>
-      <c r="C109" s="45"/>
-      <c r="D109" s="45" t="s">
-        <v>200</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="77">
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="K29:L29"/>
     <mergeCell ref="E40:F40"/>
     <mergeCell ref="A41:B41"/>
     <mergeCell ref="E33:G33"/>
@@ -9266,90 +9687,8 @@
     <mergeCell ref="I32:J32"/>
     <mergeCell ref="K32:L32"/>
     <mergeCell ref="C34:D34"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="B90:B91"/>
-    <mergeCell ref="F90:G94"/>
-    <mergeCell ref="B92:B95"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="I25:L25"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="J35:L35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="J34:L34"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="I33:L33"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="O25:T25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:F11"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>201</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="12" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-</worksheet>
 </file>
--- a/doc/alice/20180302后台财务更新.xlsx
+++ b/doc/alice/20180302后台财务更新.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Hot-Tech\git.hot-basketball.com\doc\alice\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28080" windowHeight="13200" firstSheet="5" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28080" windowHeight="13200" firstSheet="5" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet4" sheetId="4" state="hidden" r:id="rId1"/>
@@ -23,7 +18,7 @@
     <sheet name="训练营（机构版，按照营业额计算收入）" sheetId="15" r:id="rId9"/>
     <sheet name="平台" sheetId="12" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -1330,8 +1325,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="23" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2579,14 +2574,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2597,121 +2589,229 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2726,131 +2826,26 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2890,7 +2885,7 @@
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2943,7 +2938,7 @@
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2996,7 +2991,7 @@
         <xdr:cNvPr id="5" name="图片 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3044,7 +3039,7 @@
         <xdr:cNvPr id="6" name="图片 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3363,14 +3358,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T61"/>
   <sheetViews>
     <sheetView topLeftCell="A15" workbookViewId="0">
       <selection activeCell="A27" sqref="A27:XFD61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="14.25" customWidth="1"/>
     <col min="2" max="2" width="11.875" customWidth="1"/>
@@ -3391,84 +3386,84 @@
     <col min="18" max="18" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:17">
       <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="41"/>
     </row>
-    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:17" ht="15" customHeight="1">
       <c r="A2" s="42" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="42"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:17">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:17">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:17">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:17">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:17">
       <c r="A8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:17">
       <c r="A9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A10" s="135" t="s">
+    <row r="10" spans="1:17">
+      <c r="A10" s="133" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="135" t="s">
+      <c r="B10" s="133" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="137" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="128"/>
-      <c r="E10" s="129"/>
+      <c r="D10" s="138"/>
+      <c r="E10" s="139"/>
       <c r="F10" s="137" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="128"/>
-      <c r="H10" s="129"/>
+      <c r="G10" s="138"/>
+      <c r="H10" s="139"/>
       <c r="I10" s="137" t="s">
         <v>12</v>
       </c>
-      <c r="J10" s="128"/>
-      <c r="K10" s="129"/>
-      <c r="L10" s="128" t="s">
+      <c r="J10" s="138"/>
+      <c r="K10" s="139"/>
+      <c r="L10" s="138" t="s">
         <v>13</v>
       </c>
-      <c r="M10" s="128"/>
-      <c r="N10" s="129"/>
-      <c r="O10" s="130" t="s">
+      <c r="M10" s="138"/>
+      <c r="N10" s="139"/>
+      <c r="O10" s="135" t="s">
         <v>14</v>
       </c>
-      <c r="P10" s="130"/>
-      <c r="Q10" s="130"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A11" s="136"/>
-      <c r="B11" s="136"/>
+      <c r="P10" s="135"/>
+      <c r="Q10" s="135"/>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" s="134"/>
+      <c r="B11" s="134"/>
       <c r="C11" s="5" t="s">
         <v>15</v>
       </c>
@@ -3515,8 +3510,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A12" s="130" t="s">
+    <row r="12" spans="1:17">
+      <c r="A12" s="135" t="s">
         <v>18</v>
       </c>
       <c r="B12" s="5">
@@ -3565,8 +3560,8 @@
         <v>6806</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A13" s="130"/>
+    <row r="13" spans="1:17">
+      <c r="A13" s="135"/>
       <c r="B13" s="5">
         <v>88</v>
       </c>
@@ -3613,8 +3608,8 @@
         <v>3520</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A14" s="130"/>
+    <row r="14" spans="1:17">
+      <c r="A14" s="135"/>
       <c r="B14" s="5">
         <v>100</v>
       </c>
@@ -3661,8 +3656,8 @@
         <v>26600</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A15" s="130"/>
+    <row r="15" spans="1:17">
+      <c r="A15" s="135"/>
       <c r="B15" s="5" t="s">
         <v>19</v>
       </c>
@@ -3718,8 +3713,8 @@
         <v>36926</v>
       </c>
     </row>
-    <row r="16" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="135" t="s">
+    <row r="16" spans="1:17" hidden="1">
+      <c r="A16" s="133" t="s">
         <v>20</v>
       </c>
       <c r="B16" s="5">
@@ -3765,8 +3760,8 @@
       </c>
       <c r="Q16" s="40"/>
     </row>
-    <row r="17" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="136"/>
+    <row r="17" spans="1:17" hidden="1">
+      <c r="A17" s="134"/>
       <c r="B17" s="5" t="s">
         <v>19</v>
       </c>
@@ -3819,8 +3814,8 @@
       </c>
       <c r="Q17" s="40"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A18" s="130" t="s">
+    <row r="18" spans="1:17">
+      <c r="A18" s="135" t="s">
         <v>21</v>
       </c>
       <c r="B18" s="5">
@@ -3872,8 +3867,8 @@
         <v>153600</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A19" s="130"/>
+    <row r="19" spans="1:17">
+      <c r="A19" s="135"/>
       <c r="B19" s="5">
         <v>180</v>
       </c>
@@ -3923,8 +3918,8 @@
         <v>3240</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A20" s="130"/>
+    <row r="20" spans="1:17">
+      <c r="A20" s="135"/>
       <c r="B20" s="5">
         <v>240</v>
       </c>
@@ -3974,8 +3969,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A21" s="130"/>
+    <row r="21" spans="1:17">
+      <c r="A21" s="135"/>
       <c r="B21" s="5" t="s">
         <v>19</v>
       </c>
@@ -4031,7 +4026,7 @@
         <v>156840</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:17">
       <c r="A22" s="43" t="s">
         <v>22</v>
       </c>
@@ -4043,7 +4038,7 @@
       <c r="G22" s="9"/>
       <c r="H22" s="9"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:17">
       <c r="A23" s="43" t="s">
         <v>23</v>
       </c>
@@ -4055,7 +4050,7 @@
       <c r="G23" s="9"/>
       <c r="H23" s="9"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:17">
       <c r="A24" s="43" t="s">
         <v>24</v>
       </c>
@@ -4067,7 +4062,7 @@
       <c r="G24" s="9"/>
       <c r="H24" s="9"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:17">
       <c r="A25" s="44"/>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
@@ -4077,23 +4072,23 @@
       <c r="G25" s="9"/>
       <c r="H25" s="9"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:17">
       <c r="A26" s="41" t="s">
         <v>25</v>
       </c>
       <c r="B26" s="41"/>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:17">
       <c r="A27" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:20">
       <c r="A44" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:20">
       <c r="A45" t="s">
         <v>28</v>
       </c>
@@ -4114,7 +4109,7 @@
       </c>
       <c r="T45" s="11"/>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:20">
       <c r="A46" s="4" t="s">
         <v>34</v>
       </c>
@@ -4124,22 +4119,22 @@
       <c r="C46" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D46" s="134" t="s">
+      <c r="D46" s="136" t="s">
         <v>37</v>
       </c>
-      <c r="E46" s="134"/>
-      <c r="F46" s="134"/>
-      <c r="G46" s="134"/>
-      <c r="H46" s="134"/>
-      <c r="I46" s="134"/>
-      <c r="J46" s="134"/>
-      <c r="K46" s="134"/>
+      <c r="E46" s="136"/>
+      <c r="F46" s="136"/>
+      <c r="G46" s="136"/>
+      <c r="H46" s="136"/>
+      <c r="I46" s="136"/>
+      <c r="J46" s="136"/>
+      <c r="K46" s="136"/>
       <c r="L46" t="s">
         <v>38</v>
       </c>
       <c r="T46" s="13"/>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:20">
       <c r="A47" s="4" t="s">
         <v>39</v>
       </c>
@@ -4149,22 +4144,22 @@
       <c r="C47" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D47" s="131" t="s">
+      <c r="D47" s="130" t="s">
         <v>41</v>
       </c>
-      <c r="E47" s="132"/>
-      <c r="F47" s="132"/>
-      <c r="G47" s="132"/>
-      <c r="H47" s="132"/>
-      <c r="I47" s="132"/>
-      <c r="J47" s="132"/>
-      <c r="K47" s="133"/>
+      <c r="E47" s="131"/>
+      <c r="F47" s="131"/>
+      <c r="G47" s="131"/>
+      <c r="H47" s="131"/>
+      <c r="I47" s="131"/>
+      <c r="J47" s="131"/>
+      <c r="K47" s="132"/>
       <c r="L47" t="s">
         <v>42</v>
       </c>
       <c r="T47" s="13"/>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:20">
       <c r="A48" s="4" t="s">
         <v>39</v>
       </c>
@@ -4174,22 +4169,22 @@
       <c r="C48" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D48" s="131" t="s">
+      <c r="D48" s="130" t="s">
         <v>44</v>
       </c>
-      <c r="E48" s="132"/>
-      <c r="F48" s="132"/>
-      <c r="G48" s="132"/>
-      <c r="H48" s="132"/>
-      <c r="I48" s="132"/>
-      <c r="J48" s="132"/>
-      <c r="K48" s="133"/>
+      <c r="E48" s="131"/>
+      <c r="F48" s="131"/>
+      <c r="G48" s="131"/>
+      <c r="H48" s="131"/>
+      <c r="I48" s="131"/>
+      <c r="J48" s="131"/>
+      <c r="K48" s="132"/>
       <c r="L48" t="s">
         <v>45</v>
       </c>
       <c r="T48" s="13"/>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:20">
       <c r="A50" t="s">
         <v>46</v>
       </c>
@@ -4209,7 +4204,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:20">
       <c r="A51" s="4" t="s">
         <v>34</v>
       </c>
@@ -4219,21 +4214,21 @@
       <c r="C51" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D51" s="134" t="s">
+      <c r="D51" s="136" t="s">
         <v>49</v>
       </c>
-      <c r="E51" s="134"/>
-      <c r="F51" s="134"/>
-      <c r="G51" s="134"/>
-      <c r="H51" s="134"/>
-      <c r="I51" s="134"/>
-      <c r="J51" s="134"/>
-      <c r="K51" s="134"/>
+      <c r="E51" s="136"/>
+      <c r="F51" s="136"/>
+      <c r="G51" s="136"/>
+      <c r="H51" s="136"/>
+      <c r="I51" s="136"/>
+      <c r="J51" s="136"/>
+      <c r="K51" s="136"/>
       <c r="L51" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:20">
       <c r="A52" s="4" t="s">
         <v>39</v>
       </c>
@@ -4243,21 +4238,21 @@
       <c r="C52" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D52" s="131" t="s">
+      <c r="D52" s="130" t="s">
         <v>51</v>
       </c>
-      <c r="E52" s="132"/>
-      <c r="F52" s="132"/>
-      <c r="G52" s="132"/>
-      <c r="H52" s="132"/>
-      <c r="I52" s="132"/>
-      <c r="J52" s="132"/>
-      <c r="K52" s="133"/>
+      <c r="E52" s="131"/>
+      <c r="F52" s="131"/>
+      <c r="G52" s="131"/>
+      <c r="H52" s="131"/>
+      <c r="I52" s="131"/>
+      <c r="J52" s="131"/>
+      <c r="K52" s="132"/>
       <c r="L52" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:20">
       <c r="A53" s="4" t="s">
         <v>39</v>
       </c>
@@ -4267,21 +4262,21 @@
       <c r="C53" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D53" s="131" t="s">
+      <c r="D53" s="130" t="s">
         <v>53</v>
       </c>
-      <c r="E53" s="132"/>
-      <c r="F53" s="132"/>
-      <c r="G53" s="132"/>
-      <c r="H53" s="132"/>
-      <c r="I53" s="132"/>
-      <c r="J53" s="132"/>
-      <c r="K53" s="133"/>
+      <c r="E53" s="131"/>
+      <c r="F53" s="131"/>
+      <c r="G53" s="131"/>
+      <c r="H53" s="131"/>
+      <c r="I53" s="131"/>
+      <c r="J53" s="131"/>
+      <c r="K53" s="132"/>
       <c r="L53" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:20">
       <c r="C54" s="9"/>
       <c r="D54" s="37"/>
       <c r="E54" s="37"/>
@@ -4291,7 +4286,7 @@
       <c r="I54" s="37"/>
       <c r="J54" s="37"/>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:20">
       <c r="A55" t="s">
         <v>55</v>
       </c>
@@ -4311,7 +4306,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:20">
       <c r="A56" s="4" t="s">
         <v>34</v>
       </c>
@@ -4321,21 +4316,21 @@
       <c r="C56" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D56" s="134" t="s">
+      <c r="D56" s="136" t="s">
         <v>57</v>
       </c>
-      <c r="E56" s="134"/>
-      <c r="F56" s="134"/>
-      <c r="G56" s="134"/>
-      <c r="H56" s="134"/>
-      <c r="I56" s="134"/>
-      <c r="J56" s="134"/>
-      <c r="K56" s="134"/>
+      <c r="E56" s="136"/>
+      <c r="F56" s="136"/>
+      <c r="G56" s="136"/>
+      <c r="H56" s="136"/>
+      <c r="I56" s="136"/>
+      <c r="J56" s="136"/>
+      <c r="K56" s="136"/>
       <c r="L56" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:20">
       <c r="A57" s="4" t="s">
         <v>39</v>
       </c>
@@ -4345,21 +4340,21 @@
       <c r="C57" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D57" s="131" t="s">
+      <c r="D57" s="130" t="s">
         <v>51</v>
       </c>
-      <c r="E57" s="132"/>
-      <c r="F57" s="132"/>
-      <c r="G57" s="132"/>
-      <c r="H57" s="132"/>
-      <c r="I57" s="132"/>
-      <c r="J57" s="132"/>
-      <c r="K57" s="133"/>
+      <c r="E57" s="131"/>
+      <c r="F57" s="131"/>
+      <c r="G57" s="131"/>
+      <c r="H57" s="131"/>
+      <c r="I57" s="131"/>
+      <c r="J57" s="131"/>
+      <c r="K57" s="132"/>
       <c r="L57" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:20">
       <c r="A58" s="4" t="s">
         <v>39</v>
       </c>
@@ -4369,21 +4364,21 @@
       <c r="C58" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D58" s="131" t="s">
+      <c r="D58" s="130" t="s">
         <v>53</v>
       </c>
-      <c r="E58" s="132"/>
-      <c r="F58" s="132"/>
-      <c r="G58" s="132"/>
-      <c r="H58" s="132"/>
-      <c r="I58" s="132"/>
-      <c r="J58" s="132"/>
-      <c r="K58" s="133"/>
+      <c r="E58" s="131"/>
+      <c r="F58" s="131"/>
+      <c r="G58" s="131"/>
+      <c r="H58" s="131"/>
+      <c r="I58" s="131"/>
+      <c r="J58" s="131"/>
+      <c r="K58" s="132"/>
       <c r="L58" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:20">
       <c r="C59" s="9"/>
       <c r="D59" s="27"/>
       <c r="E59" s="27"/>
@@ -4394,17 +4389,22 @@
       <c r="J59" s="27"/>
       <c r="K59" s="27"/>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:20">
       <c r="A60" t="s">
         <v>59</v>
       </c>
       <c r="T60" s="11"/>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:20">
       <c r="T61" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="L10:N10"/>
+    <mergeCell ref="O10:Q10"/>
+    <mergeCell ref="D53:K53"/>
+    <mergeCell ref="D56:K56"/>
+    <mergeCell ref="D57:K57"/>
     <mergeCell ref="D58:K58"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A12:A15"/>
@@ -4419,11 +4419,6 @@
     <mergeCell ref="C10:E10"/>
     <mergeCell ref="F10:H10"/>
     <mergeCell ref="I10:K10"/>
-    <mergeCell ref="L10:N10"/>
-    <mergeCell ref="O10:Q10"/>
-    <mergeCell ref="D53:K53"/>
-    <mergeCell ref="D56:K56"/>
-    <mergeCell ref="D57:K57"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
@@ -4432,16 +4427,16 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>201</v>
       </c>
@@ -4453,31 +4448,31 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T68"/>
   <sheetViews>
     <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="A44" sqref="A44:XFD68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="16.25" customWidth="1"/>
     <col min="2" max="2" width="14.25" customWidth="1"/>
     <col min="11" max="11" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="20.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1" ht="20.25">
       <c r="A1" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:20">
       <c r="A18" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:20">
       <c r="A19" t="s">
         <v>28</v>
       </c>
@@ -4498,7 +4493,7 @@
       </c>
       <c r="T19" s="11"/>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:20">
       <c r="A20" s="4" t="s">
         <v>34</v>
       </c>
@@ -4508,19 +4503,19 @@
       <c r="C20" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D20" s="134" t="s">
+      <c r="D20" s="136" t="s">
         <v>37</v>
       </c>
-      <c r="E20" s="134"/>
-      <c r="F20" s="134"/>
-      <c r="G20" s="134"/>
-      <c r="H20" s="134"/>
-      <c r="I20" s="134"/>
-      <c r="J20" s="134"/>
-      <c r="K20" s="134"/>
+      <c r="E20" s="136"/>
+      <c r="F20" s="136"/>
+      <c r="G20" s="136"/>
+      <c r="H20" s="136"/>
+      <c r="I20" s="136"/>
+      <c r="J20" s="136"/>
+      <c r="K20" s="136"/>
       <c r="T20" s="13"/>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:20">
       <c r="A21" s="4" t="s">
         <v>39</v>
       </c>
@@ -4530,19 +4525,19 @@
       <c r="C21" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D21" s="131" t="s">
+      <c r="D21" s="130" t="s">
         <v>41</v>
       </c>
-      <c r="E21" s="132"/>
-      <c r="F21" s="132"/>
-      <c r="G21" s="132"/>
-      <c r="H21" s="132"/>
-      <c r="I21" s="132"/>
-      <c r="J21" s="132"/>
-      <c r="K21" s="133"/>
+      <c r="E21" s="131"/>
+      <c r="F21" s="131"/>
+      <c r="G21" s="131"/>
+      <c r="H21" s="131"/>
+      <c r="I21" s="131"/>
+      <c r="J21" s="131"/>
+      <c r="K21" s="132"/>
       <c r="T21" s="13"/>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:20">
       <c r="A22" s="4" t="s">
         <v>39</v>
       </c>
@@ -4552,19 +4547,19 @@
       <c r="C22" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D22" s="131" t="s">
+      <c r="D22" s="130" t="s">
         <v>44</v>
       </c>
-      <c r="E22" s="132"/>
-      <c r="F22" s="132"/>
-      <c r="G22" s="132"/>
-      <c r="H22" s="132"/>
-      <c r="I22" s="132"/>
-      <c r="J22" s="132"/>
-      <c r="K22" s="133"/>
+      <c r="E22" s="131"/>
+      <c r="F22" s="131"/>
+      <c r="G22" s="131"/>
+      <c r="H22" s="131"/>
+      <c r="I22" s="131"/>
+      <c r="J22" s="131"/>
+      <c r="K22" s="132"/>
       <c r="T22" s="13"/>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:20">
       <c r="A24" t="s">
         <v>46</v>
       </c>
@@ -4584,7 +4579,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:20">
       <c r="A25" s="4" t="s">
         <v>34</v>
       </c>
@@ -4594,18 +4589,18 @@
       <c r="C25" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D25" s="134" t="s">
+      <c r="D25" s="136" t="s">
         <v>49</v>
       </c>
-      <c r="E25" s="134"/>
-      <c r="F25" s="134"/>
-      <c r="G25" s="134"/>
-      <c r="H25" s="134"/>
-      <c r="I25" s="134"/>
-      <c r="J25" s="134"/>
-      <c r="K25" s="134"/>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="E25" s="136"/>
+      <c r="F25" s="136"/>
+      <c r="G25" s="136"/>
+      <c r="H25" s="136"/>
+      <c r="I25" s="136"/>
+      <c r="J25" s="136"/>
+      <c r="K25" s="136"/>
+    </row>
+    <row r="26" spans="1:20">
       <c r="A26" s="4" t="s">
         <v>39</v>
       </c>
@@ -4615,18 +4610,18 @@
       <c r="C26" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D26" s="131" t="s">
+      <c r="D26" s="130" t="s">
         <v>51</v>
       </c>
-      <c r="E26" s="132"/>
-      <c r="F26" s="132"/>
-      <c r="G26" s="132"/>
-      <c r="H26" s="132"/>
-      <c r="I26" s="132"/>
-      <c r="J26" s="132"/>
-      <c r="K26" s="133"/>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="E26" s="131"/>
+      <c r="F26" s="131"/>
+      <c r="G26" s="131"/>
+      <c r="H26" s="131"/>
+      <c r="I26" s="131"/>
+      <c r="J26" s="131"/>
+      <c r="K26" s="132"/>
+    </row>
+    <row r="27" spans="1:20">
       <c r="A27" s="4" t="s">
         <v>39</v>
       </c>
@@ -4636,18 +4631,18 @@
       <c r="C27" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D27" s="131" t="s">
+      <c r="D27" s="130" t="s">
         <v>53</v>
       </c>
-      <c r="E27" s="132"/>
-      <c r="F27" s="132"/>
-      <c r="G27" s="132"/>
-      <c r="H27" s="132"/>
-      <c r="I27" s="132"/>
-      <c r="J27" s="132"/>
-      <c r="K27" s="133"/>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="E27" s="131"/>
+      <c r="F27" s="131"/>
+      <c r="G27" s="131"/>
+      <c r="H27" s="131"/>
+      <c r="I27" s="131"/>
+      <c r="J27" s="131"/>
+      <c r="K27" s="132"/>
+    </row>
+    <row r="28" spans="1:20">
       <c r="C28" s="9"/>
       <c r="D28" s="37"/>
       <c r="E28" s="37"/>
@@ -4657,7 +4652,7 @@
       <c r="I28" s="37"/>
       <c r="J28" s="37"/>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:20">
       <c r="A29" t="s">
         <v>55</v>
       </c>
@@ -4677,7 +4672,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:20">
       <c r="A30" s="4" t="s">
         <v>34</v>
       </c>
@@ -4687,18 +4682,18 @@
       <c r="C30" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D30" s="134" t="s">
+      <c r="D30" s="136" t="s">
         <v>57</v>
       </c>
-      <c r="E30" s="134"/>
-      <c r="F30" s="134"/>
-      <c r="G30" s="134"/>
-      <c r="H30" s="134"/>
-      <c r="I30" s="134"/>
-      <c r="J30" s="134"/>
-      <c r="K30" s="134"/>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="E30" s="136"/>
+      <c r="F30" s="136"/>
+      <c r="G30" s="136"/>
+      <c r="H30" s="136"/>
+      <c r="I30" s="136"/>
+      <c r="J30" s="136"/>
+      <c r="K30" s="136"/>
+    </row>
+    <row r="31" spans="1:20">
       <c r="A31" s="4" t="s">
         <v>39</v>
       </c>
@@ -4708,18 +4703,18 @@
       <c r="C31" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D31" s="131" t="s">
+      <c r="D31" s="130" t="s">
         <v>51</v>
       </c>
-      <c r="E31" s="132"/>
-      <c r="F31" s="132"/>
-      <c r="G31" s="132"/>
-      <c r="H31" s="132"/>
-      <c r="I31" s="132"/>
-      <c r="J31" s="132"/>
-      <c r="K31" s="133"/>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="E31" s="131"/>
+      <c r="F31" s="131"/>
+      <c r="G31" s="131"/>
+      <c r="H31" s="131"/>
+      <c r="I31" s="131"/>
+      <c r="J31" s="131"/>
+      <c r="K31" s="132"/>
+    </row>
+    <row r="32" spans="1:20">
       <c r="A32" s="4" t="s">
         <v>39</v>
       </c>
@@ -4729,52 +4724,52 @@
       <c r="C32" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D32" s="131" t="s">
+      <c r="D32" s="130" t="s">
         <v>53</v>
       </c>
-      <c r="E32" s="132"/>
-      <c r="F32" s="132"/>
-      <c r="G32" s="132"/>
-      <c r="H32" s="132"/>
-      <c r="I32" s="132"/>
-      <c r="J32" s="132"/>
-      <c r="K32" s="133"/>
-    </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="E32" s="131"/>
+      <c r="F32" s="131"/>
+      <c r="G32" s="131"/>
+      <c r="H32" s="131"/>
+      <c r="I32" s="131"/>
+      <c r="J32" s="131"/>
+      <c r="K32" s="132"/>
+    </row>
+    <row r="33" spans="1:20">
       <c r="A33" t="s">
         <v>59</v>
       </c>
       <c r="T33" s="11"/>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:20">
       <c r="T36" s="11"/>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:20">
       <c r="A37" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:20">
       <c r="A38" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:20">
       <c r="A39" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:20">
       <c r="A40" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:20">
       <c r="A41" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:20">
       <c r="A44" s="16" t="s">
         <v>66</v>
       </c>
@@ -4793,13 +4788,13 @@
       <c r="J44" s="19"/>
       <c r="K44" s="32"/>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:20">
       <c r="A45" s="25"/>
       <c r="B45" s="9"/>
       <c r="C45" s="20"/>
       <c r="K45" s="33"/>
     </row>
-    <row r="46" spans="1:20" ht="22.5" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:20" ht="22.5">
       <c r="A46" s="21" t="s">
         <v>69</v>
       </c>
@@ -4808,7 +4803,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:20">
       <c r="A47" s="22"/>
       <c r="B47" s="23"/>
       <c r="C47" s="24"/>
@@ -4817,7 +4812,7 @@
       <c r="F47" s="23"/>
       <c r="K47" s="33"/>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:20">
       <c r="A48" s="25" t="s">
         <v>71</v>
       </c>
@@ -4838,7 +4833,7 @@
       </c>
       <c r="K48" s="33"/>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:20">
       <c r="A49" s="26" t="s">
         <v>76</v>
       </c>
@@ -4848,50 +4843,50 @@
       <c r="C49" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="D49" s="134" t="s">
+      <c r="D49" s="136" t="s">
         <v>79</v>
       </c>
-      <c r="E49" s="134"/>
-      <c r="F49" s="134"/>
-      <c r="G49" s="134"/>
-      <c r="H49" s="134"/>
-      <c r="I49" s="134"/>
-      <c r="J49" s="134"/>
-      <c r="K49" s="138"/>
+      <c r="E49" s="136"/>
+      <c r="F49" s="136"/>
+      <c r="G49" s="136"/>
+      <c r="H49" s="136"/>
+      <c r="I49" s="136"/>
+      <c r="J49" s="136"/>
+      <c r="K49" s="146"/>
       <c r="T49" s="13"/>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:20">
       <c r="A50" s="26"/>
       <c r="B50" s="4"/>
       <c r="C50" s="5"/>
-      <c r="D50" s="131"/>
-      <c r="E50" s="132"/>
-      <c r="F50" s="132"/>
-      <c r="G50" s="132"/>
-      <c r="H50" s="132"/>
-      <c r="I50" s="132"/>
-      <c r="J50" s="132"/>
-      <c r="K50" s="139"/>
+      <c r="D50" s="130"/>
+      <c r="E50" s="131"/>
+      <c r="F50" s="131"/>
+      <c r="G50" s="131"/>
+      <c r="H50" s="131"/>
+      <c r="I50" s="131"/>
+      <c r="J50" s="131"/>
+      <c r="K50" s="145"/>
       <c r="L50" t="s">
         <v>80</v>
       </c>
       <c r="T50" s="13"/>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:20">
       <c r="A51" s="26"/>
       <c r="B51" s="4"/>
       <c r="C51" s="5"/>
-      <c r="D51" s="131"/>
-      <c r="E51" s="132"/>
-      <c r="F51" s="132"/>
-      <c r="G51" s="132"/>
-      <c r="H51" s="132"/>
-      <c r="I51" s="132"/>
-      <c r="J51" s="132"/>
-      <c r="K51" s="139"/>
+      <c r="D51" s="130"/>
+      <c r="E51" s="131"/>
+      <c r="F51" s="131"/>
+      <c r="G51" s="131"/>
+      <c r="H51" s="131"/>
+      <c r="I51" s="131"/>
+      <c r="J51" s="131"/>
+      <c r="K51" s="145"/>
       <c r="T51" s="13"/>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:20">
       <c r="A52" s="22"/>
       <c r="C52" s="9"/>
       <c r="D52" s="27"/>
@@ -4904,7 +4899,7 @@
       <c r="K52" s="35"/>
       <c r="T52" s="37"/>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:20">
       <c r="A53" s="25" t="s">
         <v>81</v>
       </c>
@@ -4926,181 +4921,181 @@
       <c r="K53" s="33"/>
       <c r="T53" s="37"/>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:20">
       <c r="A54" s="26" t="s">
         <v>76</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C54" s="140" t="s">
+      <c r="C54" s="142" t="s">
         <v>82</v>
       </c>
-      <c r="D54" s="141"/>
-      <c r="E54" s="141"/>
-      <c r="F54" s="141"/>
-      <c r="G54" s="141"/>
-      <c r="H54" s="141"/>
-      <c r="I54" s="141"/>
-      <c r="J54" s="141"/>
-      <c r="K54" s="142"/>
+      <c r="D54" s="143"/>
+      <c r="E54" s="143"/>
+      <c r="F54" s="143"/>
+      <c r="G54" s="143"/>
+      <c r="H54" s="143"/>
+      <c r="I54" s="143"/>
+      <c r="J54" s="143"/>
+      <c r="K54" s="144"/>
       <c r="T54" s="37"/>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:20">
       <c r="A55" s="26"/>
       <c r="B55" s="4"/>
-      <c r="C55" s="140"/>
-      <c r="D55" s="141"/>
-      <c r="E55" s="141"/>
-      <c r="F55" s="141"/>
-      <c r="G55" s="141"/>
-      <c r="H55" s="141"/>
-      <c r="I55" s="141"/>
-      <c r="J55" s="141"/>
-      <c r="K55" s="142"/>
+      <c r="C55" s="142"/>
+      <c r="D55" s="143"/>
+      <c r="E55" s="143"/>
+      <c r="F55" s="143"/>
+      <c r="G55" s="143"/>
+      <c r="H55" s="143"/>
+      <c r="I55" s="143"/>
+      <c r="J55" s="143"/>
+      <c r="K55" s="144"/>
       <c r="L55" t="s">
         <v>83</v>
       </c>
       <c r="T55" s="37"/>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:20">
       <c r="A56" s="26"/>
       <c r="B56" s="4"/>
-      <c r="C56" s="140"/>
-      <c r="D56" s="141"/>
-      <c r="E56" s="141"/>
-      <c r="F56" s="141"/>
-      <c r="G56" s="141"/>
-      <c r="H56" s="141"/>
-      <c r="I56" s="141"/>
-      <c r="J56" s="141"/>
-      <c r="K56" s="142"/>
+      <c r="C56" s="142"/>
+      <c r="D56" s="143"/>
+      <c r="E56" s="143"/>
+      <c r="F56" s="143"/>
+      <c r="G56" s="143"/>
+      <c r="H56" s="143"/>
+      <c r="I56" s="143"/>
+      <c r="J56" s="143"/>
+      <c r="K56" s="144"/>
       <c r="T56" s="37"/>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:20">
       <c r="A57" s="22"/>
       <c r="K57" s="33"/>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:20">
       <c r="A58" s="22" t="s">
         <v>84</v>
       </c>
       <c r="K58" s="33"/>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:20">
       <c r="A59" s="26" t="s">
         <v>85</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="C59" s="140" t="s">
+      <c r="C59" s="142" t="s">
         <v>82</v>
       </c>
-      <c r="D59" s="141"/>
-      <c r="E59" s="141"/>
-      <c r="F59" s="141"/>
-      <c r="G59" s="141"/>
-      <c r="H59" s="141"/>
-      <c r="I59" s="141"/>
-      <c r="J59" s="141"/>
-      <c r="K59" s="142"/>
+      <c r="D59" s="143"/>
+      <c r="E59" s="143"/>
+      <c r="F59" s="143"/>
+      <c r="G59" s="143"/>
+      <c r="H59" s="143"/>
+      <c r="I59" s="143"/>
+      <c r="J59" s="143"/>
+      <c r="K59" s="144"/>
       <c r="T59" s="13"/>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:20">
       <c r="A60" s="26"/>
       <c r="B60" s="4"/>
-      <c r="C60" s="140"/>
-      <c r="D60" s="141"/>
-      <c r="E60" s="141"/>
-      <c r="F60" s="141"/>
-      <c r="G60" s="141"/>
-      <c r="H60" s="141"/>
-      <c r="I60" s="141"/>
-      <c r="J60" s="141"/>
-      <c r="K60" s="142"/>
+      <c r="C60" s="142"/>
+      <c r="D60" s="143"/>
+      <c r="E60" s="143"/>
+      <c r="F60" s="143"/>
+      <c r="G60" s="143"/>
+      <c r="H60" s="143"/>
+      <c r="I60" s="143"/>
+      <c r="J60" s="143"/>
+      <c r="K60" s="144"/>
       <c r="T60" s="13"/>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:20">
       <c r="A61" s="26"/>
       <c r="B61" s="4"/>
-      <c r="C61" s="140"/>
-      <c r="D61" s="141"/>
-      <c r="E61" s="141"/>
-      <c r="F61" s="141"/>
-      <c r="G61" s="141"/>
-      <c r="H61" s="141"/>
-      <c r="I61" s="141"/>
-      <c r="J61" s="141"/>
-      <c r="K61" s="142"/>
+      <c r="C61" s="142"/>
+      <c r="D61" s="143"/>
+      <c r="E61" s="143"/>
+      <c r="F61" s="143"/>
+      <c r="G61" s="143"/>
+      <c r="H61" s="143"/>
+      <c r="I61" s="143"/>
+      <c r="J61" s="143"/>
+      <c r="K61" s="144"/>
       <c r="T61" s="13"/>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:20">
       <c r="A62" s="22"/>
       <c r="K62" s="33"/>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:20">
       <c r="A63" s="22" t="s">
         <v>87</v>
       </c>
       <c r="K63" s="33"/>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:20">
       <c r="A64" s="26" t="s">
         <v>88</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C64" s="130" t="s">
+      <c r="C64" s="135" t="s">
         <v>90</v>
       </c>
-      <c r="D64" s="130"/>
-      <c r="E64" s="130" t="s">
+      <c r="D64" s="135"/>
+      <c r="E64" s="135" t="s">
         <v>91</v>
       </c>
-      <c r="F64" s="130"/>
-      <c r="G64" s="143" t="s">
+      <c r="F64" s="135"/>
+      <c r="G64" s="140" t="s">
         <v>92</v>
       </c>
-      <c r="H64" s="129"/>
-      <c r="I64" s="143" t="s">
+      <c r="H64" s="139"/>
+      <c r="I64" s="140" t="s">
         <v>93</v>
       </c>
-      <c r="J64" s="128"/>
-      <c r="K64" s="144"/>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="J64" s="138"/>
+      <c r="K64" s="141"/>
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65" s="26"/>
       <c r="B65" s="4"/>
-      <c r="C65" s="130"/>
-      <c r="D65" s="130"/>
-      <c r="E65" s="130"/>
-      <c r="F65" s="130"/>
-      <c r="G65" s="143"/>
-      <c r="H65" s="129"/>
-      <c r="I65" s="143"/>
-      <c r="J65" s="128"/>
-      <c r="K65" s="144"/>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="C65" s="135"/>
+      <c r="D65" s="135"/>
+      <c r="E65" s="135"/>
+      <c r="F65" s="135"/>
+      <c r="G65" s="140"/>
+      <c r="H65" s="139"/>
+      <c r="I65" s="140"/>
+      <c r="J65" s="138"/>
+      <c r="K65" s="141"/>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66" s="26"/>
       <c r="B66" s="4"/>
-      <c r="C66" s="130"/>
-      <c r="D66" s="130"/>
-      <c r="E66" s="130"/>
-      <c r="F66" s="130"/>
-      <c r="G66" s="143"/>
-      <c r="H66" s="129"/>
-      <c r="I66" s="143"/>
-      <c r="J66" s="128"/>
-      <c r="K66" s="144"/>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="C66" s="135"/>
+      <c r="D66" s="135"/>
+      <c r="E66" s="135"/>
+      <c r="F66" s="135"/>
+      <c r="G66" s="140"/>
+      <c r="H66" s="139"/>
+      <c r="I66" s="140"/>
+      <c r="J66" s="138"/>
+      <c r="K66" s="141"/>
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67" s="22"/>
       <c r="K67" s="33"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:11">
       <c r="A68" s="28"/>
       <c r="B68" s="29"/>
       <c r="C68" s="29"/>
@@ -5115,6 +5110,28 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="D20:K20"/>
+    <mergeCell ref="D21:K21"/>
+    <mergeCell ref="D22:K22"/>
+    <mergeCell ref="D25:K25"/>
+    <mergeCell ref="D26:K26"/>
+    <mergeCell ref="D27:K27"/>
+    <mergeCell ref="D30:K30"/>
+    <mergeCell ref="D31:K31"/>
+    <mergeCell ref="D32:K32"/>
+    <mergeCell ref="D49:K49"/>
+    <mergeCell ref="D50:K50"/>
+    <mergeCell ref="D51:K51"/>
+    <mergeCell ref="C54:K54"/>
+    <mergeCell ref="C55:K55"/>
+    <mergeCell ref="C56:K56"/>
+    <mergeCell ref="C59:K59"/>
+    <mergeCell ref="C60:K60"/>
+    <mergeCell ref="C61:K61"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="G64:H64"/>
+    <mergeCell ref="I64:K64"/>
     <mergeCell ref="C65:D65"/>
     <mergeCell ref="E65:F65"/>
     <mergeCell ref="G65:H65"/>
@@ -5123,28 +5140,6 @@
     <mergeCell ref="E66:F66"/>
     <mergeCell ref="G66:H66"/>
     <mergeCell ref="I66:K66"/>
-    <mergeCell ref="C59:K59"/>
-    <mergeCell ref="C60:K60"/>
-    <mergeCell ref="C61:K61"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="E64:F64"/>
-    <mergeCell ref="G64:H64"/>
-    <mergeCell ref="I64:K64"/>
-    <mergeCell ref="D50:K50"/>
-    <mergeCell ref="D51:K51"/>
-    <mergeCell ref="C54:K54"/>
-    <mergeCell ref="C55:K55"/>
-    <mergeCell ref="C56:K56"/>
-    <mergeCell ref="D27:K27"/>
-    <mergeCell ref="D30:K30"/>
-    <mergeCell ref="D31:K31"/>
-    <mergeCell ref="D32:K32"/>
-    <mergeCell ref="D49:K49"/>
-    <mergeCell ref="D20:K20"/>
-    <mergeCell ref="D21:K21"/>
-    <mergeCell ref="D22:K22"/>
-    <mergeCell ref="D25:K25"/>
-    <mergeCell ref="D26:K26"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
@@ -5153,64 +5148,64 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A19" sqref="A19:H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="4" max="4" width="9.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:17" ht="30" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:17">
       <c r="A2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A3" s="135" t="s">
+    <row r="3" spans="1:17">
+      <c r="A3" s="133" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="135" t="s">
+      <c r="B3" s="133" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="137" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="128"/>
-      <c r="E3" s="129"/>
+      <c r="D3" s="138"/>
+      <c r="E3" s="139"/>
       <c r="F3" s="137" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="128"/>
-      <c r="H3" s="129"/>
+      <c r="G3" s="138"/>
+      <c r="H3" s="139"/>
       <c r="I3" s="137" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="128"/>
-      <c r="K3" s="129"/>
-      <c r="L3" s="128" t="s">
+      <c r="J3" s="138"/>
+      <c r="K3" s="139"/>
+      <c r="L3" s="138" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="128"/>
-      <c r="N3" s="129"/>
-      <c r="O3" s="130" t="s">
+      <c r="M3" s="138"/>
+      <c r="N3" s="139"/>
+      <c r="O3" s="135" t="s">
         <v>14</v>
       </c>
-      <c r="P3" s="130"/>
-      <c r="Q3" s="130"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A4" s="136"/>
-      <c r="B4" s="136"/>
+      <c r="P3" s="135"/>
+      <c r="Q3" s="135"/>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="134"/>
+      <c r="B4" s="134"/>
       <c r="C4" s="5" t="s">
         <v>15</v>
       </c>
@@ -5257,8 +5252,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A5" s="130" t="s">
+    <row r="5" spans="1:17">
+      <c r="A5" s="135" t="s">
         <v>18</v>
       </c>
       <c r="B5" s="5">
@@ -5307,8 +5302,8 @@
         <v>6806</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A6" s="130"/>
+    <row r="6" spans="1:17">
+      <c r="A6" s="135"/>
       <c r="B6" s="5">
         <v>88</v>
       </c>
@@ -5355,8 +5350,8 @@
         <v>3520</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A7" s="130"/>
+    <row r="7" spans="1:17">
+      <c r="A7" s="135"/>
       <c r="B7" s="5">
         <v>100</v>
       </c>
@@ -5403,8 +5398,8 @@
         <v>26600</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A8" s="130"/>
+    <row r="8" spans="1:17">
+      <c r="A8" s="135"/>
       <c r="B8" s="5" t="s">
         <v>19</v>
       </c>
@@ -5460,8 +5455,8 @@
         <v>36926</v>
       </c>
     </row>
-    <row r="9" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="135" t="s">
+    <row r="9" spans="1:17" hidden="1">
+      <c r="A9" s="133" t="s">
         <v>20</v>
       </c>
       <c r="B9" s="5">
@@ -5507,8 +5502,8 @@
       </c>
       <c r="Q9" s="40"/>
     </row>
-    <row r="10" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="136"/>
+    <row r="10" spans="1:17" hidden="1">
+      <c r="A10" s="134"/>
       <c r="B10" s="5" t="s">
         <v>19</v>
       </c>
@@ -5561,8 +5556,8 @@
       </c>
       <c r="Q10" s="40"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A11" s="130" t="s">
+    <row r="11" spans="1:17">
+      <c r="A11" s="135" t="s">
         <v>21</v>
       </c>
       <c r="B11" s="5">
@@ -5614,8 +5609,8 @@
         <v>153600</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A12" s="130"/>
+    <row r="12" spans="1:17">
+      <c r="A12" s="135"/>
       <c r="B12" s="5">
         <v>180</v>
       </c>
@@ -5665,8 +5660,8 @@
         <v>3240</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A13" s="130"/>
+    <row r="13" spans="1:17">
+      <c r="A13" s="135"/>
       <c r="B13" s="5">
         <v>240</v>
       </c>
@@ -5716,8 +5711,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A14" s="130"/>
+    <row r="14" spans="1:17">
+      <c r="A14" s="135"/>
       <c r="B14" s="5" t="s">
         <v>19</v>
       </c>
@@ -5773,7 +5768,7 @@
         <v>156840</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:17">
       <c r="A16" t="s">
         <v>95</v>
       </c>
@@ -5781,17 +5776,17 @@
         <v>96</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:12">
       <c r="B17" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:12" ht="17.100000000000001" customHeight="1">
       <c r="A19" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="20" spans="1:12" s="10" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:12" s="10" customFormat="1" ht="27.95" customHeight="1">
       <c r="A20" s="30" t="s">
         <v>8</v>
       </c>
@@ -5821,8 +5816,8 @@
       <c r="K20" s="39"/>
       <c r="L20" s="39"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A21" s="130" t="s">
+    <row r="21" spans="1:12">
+      <c r="A21" s="135" t="s">
         <v>18</v>
       </c>
       <c r="B21" s="5">
@@ -5852,8 +5847,8 @@
       <c r="K21" s="34"/>
       <c r="L21" s="34"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A22" s="130"/>
+    <row r="22" spans="1:12">
+      <c r="A22" s="135"/>
       <c r="B22" s="5">
         <v>88</v>
       </c>
@@ -5881,8 +5876,8 @@
       <c r="K22" s="34"/>
       <c r="L22" s="34"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A23" s="130"/>
+    <row r="23" spans="1:12">
+      <c r="A23" s="135"/>
       <c r="B23" s="5">
         <v>100</v>
       </c>
@@ -5910,8 +5905,8 @@
       <c r="K23" s="34"/>
       <c r="L23" s="34"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A24" s="130"/>
+    <row r="24" spans="1:12">
+      <c r="A24" s="135"/>
       <c r="B24" s="5" t="s">
         <v>19</v>
       </c>
@@ -5943,7 +5938,7 @@
       <c r="K24" s="34"/>
       <c r="L24" s="34"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:12">
       <c r="A26" t="s">
         <v>105</v>
       </c>
@@ -5968,14 +5963,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:V51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="T15" sqref="T15:V21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="2" width="7.125" customWidth="1"/>
     <col min="9" max="9" width="9.375"/>
@@ -5987,12 +5982,12 @@
     <col min="20" max="20" width="10.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="22.5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:22" ht="22.5">
       <c r="A1" s="38" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:22">
       <c r="O7" s="9"/>
       <c r="P7" s="5" t="s">
         <v>107</v>
@@ -6011,7 +6006,7 @@
       </c>
       <c r="U7" s="9"/>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:22">
       <c r="O8" s="9" t="s">
         <v>112</v>
       </c>
@@ -6030,7 +6025,7 @@
       <c r="T8" s="5"/>
       <c r="U8" s="9"/>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:22">
       <c r="O9" s="9"/>
       <c r="P9" s="12">
         <v>43133</v>
@@ -6047,7 +6042,7 @@
       </c>
       <c r="U9" s="9"/>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:22">
       <c r="A10" t="s">
         <v>116</v>
       </c>
@@ -6067,7 +6062,7 @@
       </c>
       <c r="U10" s="9"/>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:22">
       <c r="A11" t="s">
         <v>118</v>
       </c>
@@ -6087,7 +6082,7 @@
       <c r="T11" s="5"/>
       <c r="U11" s="9"/>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:22">
       <c r="A12" t="s">
         <v>121</v>
       </c>
@@ -6107,7 +6102,7 @@
       </c>
       <c r="U12" s="9"/>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:22">
       <c r="A13" t="s">
         <v>122</v>
       </c>
@@ -6119,7 +6114,7 @@
       <c r="T13" s="9"/>
       <c r="U13" s="9"/>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:22">
       <c r="O14" s="9"/>
       <c r="P14" s="15"/>
       <c r="Q14" s="9"/>
@@ -6128,34 +6123,34 @@
       <c r="T14" s="9"/>
       <c r="U14" s="9"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:22">
       <c r="A15" t="s">
         <v>123</v>
       </c>
       <c r="O15" s="9"/>
-      <c r="P15" s="130" t="s">
+      <c r="P15" s="135" t="s">
         <v>107</v>
       </c>
-      <c r="Q15" s="130" t="s">
+      <c r="Q15" s="135" t="s">
         <v>109</v>
       </c>
-      <c r="R15" s="130" t="s">
+      <c r="R15" s="135" t="s">
         <v>124</v>
       </c>
-      <c r="S15" s="130"/>
-      <c r="T15" s="130" t="s">
+      <c r="S15" s="135"/>
+      <c r="T15" s="135" t="s">
         <v>125</v>
       </c>
-      <c r="U15" s="130"/>
-      <c r="V15" s="130"/>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="U15" s="135"/>
+      <c r="V15" s="135"/>
+    </row>
+    <row r="16" spans="1:22">
       <c r="A16" t="s">
         <v>126</v>
       </c>
       <c r="O16" s="9"/>
-      <c r="P16" s="145"/>
-      <c r="Q16" s="145"/>
+      <c r="P16" s="147"/>
+      <c r="Q16" s="147"/>
       <c r="R16" s="5" t="s">
         <v>113</v>
       </c>
@@ -6172,7 +6167,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:22">
       <c r="A17" t="s">
         <v>129</v>
       </c>
@@ -6195,7 +6190,7 @@
       </c>
       <c r="V17" s="4"/>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:22">
       <c r="A18" t="s">
         <v>130</v>
       </c>
@@ -6214,7 +6209,7 @@
       <c r="U18" s="4"/>
       <c r="V18" s="4"/>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:22">
       <c r="O19" s="9"/>
       <c r="P19" s="14">
         <v>43133</v>
@@ -6230,7 +6225,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:22">
       <c r="O20" s="9"/>
       <c r="P20" s="5"/>
       <c r="Q20" s="5" t="s">
@@ -6257,7 +6252,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:22">
       <c r="A21" t="s">
         <v>131</v>
       </c>
@@ -6266,19 +6261,19 @@
       <c r="Q21" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="R21" s="130">
+      <c r="R21" s="135">
         <f>SUM(R17:S18)</f>
         <v>1500</v>
       </c>
-      <c r="S21" s="130"/>
-      <c r="T21" s="143">
+      <c r="S21" s="135"/>
+      <c r="T21" s="140">
         <f>SUM(T17:V20)</f>
         <v>1500</v>
       </c>
-      <c r="U21" s="128"/>
-      <c r="V21" s="129"/>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="U21" s="138"/>
+      <c r="V21" s="139"/>
+    </row>
+    <row r="22" spans="1:22">
       <c r="A22" t="s">
         <v>133</v>
       </c>
@@ -6290,7 +6285,7 @@
       <c r="T22" s="9"/>
       <c r="U22" s="9"/>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:22">
       <c r="A23" t="s">
         <v>134</v>
       </c>
@@ -6302,7 +6297,7 @@
       <c r="T23" s="9"/>
       <c r="U23" s="9"/>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:22">
       <c r="A24" t="s">
         <v>130</v>
       </c>
@@ -6314,7 +6309,7 @@
       <c r="T24" s="9"/>
       <c r="U24" s="9"/>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:22">
       <c r="O25" s="9"/>
       <c r="P25" s="9"/>
       <c r="Q25" s="9"/>
@@ -6323,7 +6318,7 @@
       <c r="T25" s="9"/>
       <c r="U25" s="9"/>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:22">
       <c r="A26" t="s">
         <v>135</v>
       </c>
@@ -6335,7 +6330,7 @@
       <c r="T26" s="9"/>
       <c r="U26" s="9"/>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:22">
       <c r="A27" t="s">
         <v>136</v>
       </c>
@@ -6347,7 +6342,7 @@
       <c r="T27" s="9"/>
       <c r="U27" s="9"/>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:22">
       <c r="A28" t="s">
         <v>137</v>
       </c>
@@ -6359,7 +6354,7 @@
       <c r="T28" s="9"/>
       <c r="U28" s="9"/>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:22">
       <c r="A29" t="s">
         <v>130</v>
       </c>
@@ -6371,7 +6366,7 @@
       <c r="T29" s="9"/>
       <c r="U29" s="9"/>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:22">
       <c r="O30" s="9"/>
       <c r="P30" s="9"/>
       <c r="Q30" s="9"/>
@@ -6380,7 +6375,7 @@
       <c r="T30" s="9"/>
       <c r="U30" s="9"/>
     </row>
-    <row r="31" spans="1:22" ht="29.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:22" ht="29.1" customHeight="1">
       <c r="A31" s="1" t="s">
         <v>138</v>
       </c>
@@ -6392,7 +6387,7 @@
       <c r="T31" s="9"/>
       <c r="U31" s="9"/>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:22">
       <c r="A32" t="s">
         <v>139</v>
       </c>
@@ -6404,22 +6399,22 @@
       <c r="T32" s="9"/>
       <c r="U32" s="9"/>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:1">
       <c r="A48" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:1">
       <c r="A49" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:1">
       <c r="A50" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:1">
       <c r="A51" t="s">
         <v>143</v>
       </c>
@@ -6441,14 +6436,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="18.5" customWidth="1"/>
     <col min="2" max="2" width="35.25" customWidth="1"/>
@@ -6458,7 +6453,7 @@
     <col min="6" max="6" width="15.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="24.95" customHeight="1">
       <c r="A1" t="s">
         <v>144</v>
       </c>
@@ -6466,7 +6461,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6">
       <c r="A2" s="4" t="s">
         <v>146</v>
       </c>
@@ -6486,7 +6481,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="69.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" ht="69.95" customHeight="1">
       <c r="A3" s="6">
         <v>43136.354166666701</v>
       </c>
@@ -6507,7 +6502,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" ht="21" customHeight="1">
       <c r="C4" s="9" t="s">
         <v>152</v>
       </c>
@@ -6521,7 +6516,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" ht="45" customHeight="1">
       <c r="C5" s="10" t="s">
         <v>153</v>
       </c>
@@ -6542,175 +6537,175 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B3:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="218"/>
-    <col min="2" max="14" width="16.625" style="218" customWidth="1"/>
-    <col min="15" max="16384" width="9" style="218"/>
+    <col min="1" max="1" width="9" style="129"/>
+    <col min="2" max="14" width="16.625" style="129" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="129"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:9" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="B3" s="217" t="s">
+    <row r="3" spans="2:9" ht="22.5">
+      <c r="B3" s="128" t="s">
         <v>296</v>
       </c>
-      <c r="C3" s="217" t="s">
+      <c r="C3" s="128" t="s">
         <v>297</v>
       </c>
-      <c r="E3" s="217" t="s">
+      <c r="E3" s="128" t="s">
         <v>304</v>
       </c>
-      <c r="F3" s="217" t="s">
+      <c r="F3" s="128" t="s">
         <v>305</v>
       </c>
-      <c r="H3" s="217" t="s">
+      <c r="H3" s="128" t="s">
         <v>306</v>
       </c>
-      <c r="I3" s="217" t="s">
+      <c r="I3" s="128" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="4" spans="2:9" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="B4" s="217"/>
-      <c r="C4" s="217"/>
-      <c r="E4" s="217"/>
-      <c r="F4" s="217"/>
-      <c r="H4" s="217"/>
-      <c r="I4" s="217"/>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B5" s="218" t="s">
+    <row r="4" spans="2:9" ht="22.5">
+      <c r="B4" s="128"/>
+      <c r="C4" s="128"/>
+      <c r="E4" s="128"/>
+      <c r="F4" s="128"/>
+      <c r="H4" s="128"/>
+      <c r="I4" s="128"/>
+    </row>
+    <row r="5" spans="2:9">
+      <c r="B5" s="129" t="s">
         <v>298</v>
       </c>
-      <c r="C5" s="218" t="s">
+      <c r="C5" s="129" t="s">
         <v>302</v>
       </c>
-      <c r="E5" s="218" t="s">
+      <c r="E5" s="129" t="s">
         <v>298</v>
       </c>
-      <c r="F5" s="218" t="s">
+      <c r="F5" s="129" t="s">
         <v>307</v>
       </c>
-      <c r="H5" s="218" t="s">
+      <c r="H5" s="129" t="s">
         <v>298</v>
       </c>
-      <c r="I5" s="218" t="s">
+      <c r="I5" s="129" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B6" s="218" t="s">
+    <row r="6" spans="2:9">
+      <c r="B6" s="129" t="s">
         <v>299</v>
       </c>
-      <c r="C6" s="218" t="s">
+      <c r="C6" s="129" t="s">
         <v>303</v>
       </c>
-      <c r="E6" s="218" t="s">
+      <c r="E6" s="129" t="s">
         <v>299</v>
       </c>
-      <c r="F6" s="218" t="s">
+      <c r="F6" s="129" t="s">
         <v>308</v>
       </c>
-      <c r="H6" s="218" t="s">
+      <c r="H6" s="129" t="s">
         <v>299</v>
       </c>
-      <c r="I6" s="218" t="s">
+      <c r="I6" s="129" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B7" s="218" t="s">
+    <row r="7" spans="2:9">
+      <c r="B7" s="129" t="s">
         <v>300</v>
       </c>
-      <c r="C7" s="218" t="s">
+      <c r="C7" s="129" t="s">
         <v>301</v>
       </c>
-      <c r="E7" s="218" t="s">
+      <c r="E7" s="129" t="s">
         <v>300</v>
       </c>
-      <c r="F7" s="218" t="s">
+      <c r="F7" s="129" t="s">
         <v>309</v>
       </c>
-      <c r="H7" s="218" t="s">
+      <c r="H7" s="129" t="s">
         <v>300</v>
       </c>
-      <c r="I7" s="218" t="s">
+      <c r="I7" s="129" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="E8" s="218" t="s">
+    <row r="8" spans="2:9">
+      <c r="E8" s="129" t="s">
         <v>314</v>
       </c>
-      <c r="F8" s="218" t="s">
+      <c r="F8" s="129" t="s">
         <v>327</v>
       </c>
-      <c r="H8" s="218" t="s">
+      <c r="H8" s="129" t="s">
         <v>314</v>
       </c>
-      <c r="I8" s="218" t="s">
+      <c r="I8" s="129" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="E9" s="218" t="s">
+    <row r="9" spans="2:9">
+      <c r="E9" s="129" t="s">
         <v>315</v>
       </c>
-      <c r="F9" s="218" t="s">
+      <c r="F9" s="129" t="s">
         <v>316</v>
       </c>
-      <c r="H9" s="218" t="s">
+      <c r="H9" s="129" t="s">
         <v>315</v>
       </c>
-      <c r="I9" s="218" t="s">
+      <c r="I9" s="129" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="E10" s="218" t="s">
+    <row r="10" spans="2:9">
+      <c r="E10" s="129" t="s">
         <v>319</v>
       </c>
-      <c r="F10" s="218" t="s">
+      <c r="F10" s="129" t="s">
         <v>321</v>
       </c>
-      <c r="H10" s="218" t="s">
+      <c r="H10" s="129" t="s">
         <v>319</v>
       </c>
-      <c r="I10" s="218" t="s">
+      <c r="I10" s="129" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="E11" s="218" t="s">
+    <row r="11" spans="2:9">
+      <c r="E11" s="129" t="s">
         <v>320</v>
       </c>
-      <c r="F11" s="218" t="s">
+      <c r="F11" s="129" t="s">
         <v>322</v>
       </c>
-      <c r="H11" s="218" t="s">
+      <c r="H11" s="129" t="s">
         <v>320</v>
       </c>
-      <c r="I11" s="218" t="s">
+      <c r="I11" s="129" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="E12" s="218" t="s">
+    <row r="12" spans="2:9">
+      <c r="E12" s="129" t="s">
         <v>318</v>
       </c>
-      <c r="F12" s="218" t="s">
+      <c r="F12" s="129" t="s">
         <v>323</v>
       </c>
-      <c r="H12" s="218" t="s">
+      <c r="H12" s="129" t="s">
         <v>318</v>
       </c>
-      <c r="I12" s="218" t="s">
+      <c r="I12" s="129" t="s">
         <v>324</v>
       </c>
     </row>
@@ -6721,61 +6716,61 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S30"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A13" workbookViewId="0">
       <selection activeCell="O28" sqref="O28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="5" width="14.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="20.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" ht="20.25">
       <c r="A1" s="1" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="20.25" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" ht="20.25">
       <c r="A2" s="3" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="21" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" ht="21" thickBot="1">
       <c r="A3" s="3"/>
     </row>
-    <row r="4" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="167" t="s">
+    <row r="4" spans="1:10" ht="18.75" customHeight="1">
+      <c r="A4" s="148" t="s">
         <v>159</v>
       </c>
-      <c r="B4" s="167" t="s">
+      <c r="B4" s="148" t="s">
         <v>125</v>
       </c>
-      <c r="C4" s="171" t="s">
+      <c r="C4" s="154" t="s">
         <v>124</v>
       </c>
-      <c r="D4" s="172"/>
-      <c r="E4" s="167" t="s">
+      <c r="D4" s="155"/>
+      <c r="E4" s="148" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="168"/>
-      <c r="B5" s="168"/>
+    <row r="5" spans="1:10" ht="18.75" customHeight="1" thickBot="1">
+      <c r="A5" s="149"/>
+      <c r="B5" s="149"/>
       <c r="C5" s="102" t="s">
         <v>202</v>
       </c>
       <c r="D5" s="103" t="s">
         <v>203</v>
       </c>
-      <c r="E5" s="168"/>
+      <c r="E5" s="149"/>
       <c r="J5" s="50" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" ht="18.75" customHeight="1">
       <c r="A6" s="100">
         <v>43101</v>
       </c>
@@ -6798,7 +6793,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" ht="18.75" customHeight="1">
       <c r="A7" s="75">
         <v>43102</v>
       </c>
@@ -6819,7 +6814,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" ht="18.75" customHeight="1">
       <c r="A8" s="75">
         <v>43103</v>
       </c>
@@ -6839,7 +6834,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10" ht="18.75" customHeight="1">
       <c r="A9" s="75">
         <v>43104</v>
       </c>
@@ -6856,7 +6851,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" ht="18.75" customHeight="1">
       <c r="A10" s="76" t="s">
         <v>160</v>
       </c>
@@ -6867,7 +6862,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10" ht="18.75" customHeight="1">
       <c r="A11" s="76" t="s">
         <v>160</v>
       </c>
@@ -6876,7 +6871,7 @@
       <c r="D11" s="95"/>
       <c r="E11" s="48"/>
     </row>
-    <row r="12" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" ht="18.75" customHeight="1">
       <c r="A12" s="76">
         <v>43131</v>
       </c>
@@ -6893,7 +6888,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" ht="18.75" customHeight="1">
       <c r="A13" s="77" t="s">
         <v>207</v>
       </c>
@@ -6910,93 +6905,93 @@
         <v>90</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" ht="18.75" customHeight="1" thickBot="1">
       <c r="A14" s="78" t="s">
         <v>132</v>
       </c>
       <c r="B14" s="88">
         <v>50</v>
       </c>
-      <c r="C14" s="169" t="s">
+      <c r="C14" s="150" t="s">
         <v>208</v>
       </c>
-      <c r="D14" s="153"/>
+      <c r="D14" s="151"/>
       <c r="E14" s="84">
         <v>90</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10" ht="65.25" customHeight="1">
       <c r="A16" s="3" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="17" spans="1:19" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="170" t="s">
+    <row r="17" spans="1:19" ht="32.25" customHeight="1">
+      <c r="A17" s="152" t="s">
         <v>214</v>
       </c>
-      <c r="B17" s="166"/>
-      <c r="C17" s="166" t="s">
+      <c r="B17" s="153"/>
+      <c r="C17" s="153" t="s">
         <v>215</v>
       </c>
-      <c r="D17" s="166"/>
-      <c r="E17" s="166"/>
-      <c r="F17" s="166"/>
-      <c r="G17" s="166"/>
-      <c r="H17" s="161" t="s">
+      <c r="D17" s="153"/>
+      <c r="E17" s="153"/>
+      <c r="F17" s="153"/>
+      <c r="G17" s="153"/>
+      <c r="H17" s="156" t="s">
         <v>216</v>
       </c>
-      <c r="I17" s="161"/>
-      <c r="J17" s="164" t="s">
+      <c r="I17" s="156"/>
+      <c r="J17" s="157" t="s">
         <v>217</v>
       </c>
-      <c r="K17" s="165"/>
-    </row>
-    <row r="18" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="148" t="s">
+      <c r="K17" s="158"/>
+    </row>
+    <row r="18" spans="1:19" ht="25.5" customHeight="1">
+      <c r="A18" s="160" t="s">
         <v>289</v>
       </c>
-      <c r="B18" s="146"/>
-      <c r="C18" s="147" t="s">
+      <c r="B18" s="161"/>
+      <c r="C18" s="159" t="s">
         <v>288</v>
       </c>
-      <c r="D18" s="148"/>
-      <c r="E18" s="148"/>
-      <c r="F18" s="146"/>
-      <c r="G18" s="147" t="s">
+      <c r="D18" s="160"/>
+      <c r="E18" s="160"/>
+      <c r="F18" s="161"/>
+      <c r="G18" s="159" t="s">
         <v>222</v>
       </c>
-      <c r="H18" s="148"/>
-      <c r="I18" s="148"/>
-      <c r="J18" s="148"/>
-      <c r="K18" s="148"/>
+      <c r="H18" s="160"/>
+      <c r="I18" s="160"/>
+      <c r="J18" s="160"/>
+      <c r="K18" s="160"/>
       <c r="N18" s="54" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="19" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="143" t="s">
+    <row r="19" spans="1:19" ht="21" customHeight="1">
+      <c r="A19" s="140" t="s">
         <v>76</v>
       </c>
-      <c r="B19" s="129"/>
-      <c r="C19" s="146" t="s">
+      <c r="B19" s="139"/>
+      <c r="C19" s="161" t="s">
         <v>226</v>
       </c>
-      <c r="D19" s="147"/>
+      <c r="D19" s="159"/>
       <c r="E19" s="52" t="s">
         <v>219</v>
       </c>
-      <c r="F19" s="146" t="s">
+      <c r="F19" s="161" t="s">
         <v>218</v>
       </c>
-      <c r="G19" s="129"/>
-      <c r="H19" s="146" t="s">
+      <c r="G19" s="139"/>
+      <c r="H19" s="161" t="s">
         <v>220</v>
       </c>
-      <c r="I19" s="129"/>
-      <c r="J19" s="146" t="s">
+      <c r="I19" s="139"/>
+      <c r="J19" s="161" t="s">
         <v>224</v>
       </c>
-      <c r="K19" s="129"/>
+      <c r="K19" s="139"/>
       <c r="N19" s="49" t="s">
         <v>146</v>
       </c>
@@ -7016,24 +7011,24 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="146" t="s">
+    <row r="20" spans="1:19" ht="21" customHeight="1">
+      <c r="A20" s="161" t="s">
         <v>227</v>
       </c>
-      <c r="B20" s="129"/>
-      <c r="C20" s="146" t="s">
+      <c r="B20" s="139"/>
+      <c r="C20" s="161" t="s">
         <v>229</v>
       </c>
-      <c r="D20" s="129"/>
+      <c r="D20" s="139"/>
       <c r="E20" s="45"/>
-      <c r="F20" s="143"/>
-      <c r="G20" s="129"/>
-      <c r="H20" s="143"/>
-      <c r="I20" s="129"/>
-      <c r="J20" s="146" t="s">
+      <c r="F20" s="140"/>
+      <c r="G20" s="139"/>
+      <c r="H20" s="140"/>
+      <c r="I20" s="139"/>
+      <c r="J20" s="161" t="s">
         <v>225</v>
       </c>
-      <c r="K20" s="129"/>
+      <c r="K20" s="139"/>
       <c r="N20" s="49"/>
       <c r="O20" s="49"/>
       <c r="P20" s="49"/>
@@ -7043,24 +7038,24 @@
       </c>
       <c r="S20" s="49"/>
     </row>
-    <row r="21" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="146" t="s">
+    <row r="21" spans="1:19" ht="21" customHeight="1">
+      <c r="A21" s="161" t="s">
         <v>227</v>
       </c>
-      <c r="B21" s="129"/>
-      <c r="C21" s="146" t="s">
+      <c r="B21" s="139"/>
+      <c r="C21" s="161" t="s">
         <v>230</v>
       </c>
-      <c r="D21" s="129"/>
+      <c r="D21" s="139"/>
       <c r="E21" s="45"/>
-      <c r="F21" s="143"/>
-      <c r="G21" s="129"/>
-      <c r="H21" s="143"/>
-      <c r="I21" s="129"/>
-      <c r="J21" s="146" t="s">
+      <c r="F21" s="140"/>
+      <c r="G21" s="139"/>
+      <c r="H21" s="140"/>
+      <c r="I21" s="139"/>
+      <c r="J21" s="161" t="s">
         <v>225</v>
       </c>
-      <c r="K21" s="129"/>
+      <c r="K21" s="139"/>
       <c r="N21" s="49"/>
       <c r="O21" s="49"/>
       <c r="P21" s="49"/>
@@ -7068,70 +7063,70 @@
       <c r="R21" s="49"/>
       <c r="S21" s="49"/>
     </row>
-    <row r="22" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="146" t="s">
+    <row r="22" spans="1:19" ht="21" customHeight="1">
+      <c r="A22" s="161" t="s">
         <v>228</v>
       </c>
-      <c r="B22" s="129"/>
-      <c r="C22" s="146" t="s">
+      <c r="B22" s="139"/>
+      <c r="C22" s="161" t="s">
         <v>231</v>
       </c>
-      <c r="D22" s="129"/>
+      <c r="D22" s="139"/>
       <c r="E22" s="49"/>
-      <c r="F22" s="143"/>
-      <c r="G22" s="129"/>
-      <c r="H22" s="143"/>
-      <c r="I22" s="129"/>
-      <c r="J22" s="146" t="s">
+      <c r="F22" s="140"/>
+      <c r="G22" s="139"/>
+      <c r="H22" s="140"/>
+      <c r="I22" s="139"/>
+      <c r="J22" s="161" t="s">
         <v>225</v>
       </c>
-      <c r="K22" s="129"/>
-    </row>
-    <row r="23" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="146" t="s">
+      <c r="K22" s="139"/>
+    </row>
+    <row r="23" spans="1:19" ht="21" customHeight="1">
+      <c r="A23" s="161" t="s">
         <v>228</v>
       </c>
-      <c r="B23" s="129"/>
-      <c r="C23" s="146" t="s">
+      <c r="B23" s="139"/>
+      <c r="C23" s="161" t="s">
         <v>232</v>
       </c>
-      <c r="D23" s="129"/>
+      <c r="D23" s="139"/>
       <c r="E23" s="49"/>
-      <c r="F23" s="143"/>
-      <c r="G23" s="129"/>
-      <c r="H23" s="143"/>
-      <c r="I23" s="129"/>
-      <c r="J23" s="146" t="s">
+      <c r="F23" s="140"/>
+      <c r="G23" s="139"/>
+      <c r="H23" s="140"/>
+      <c r="I23" s="139"/>
+      <c r="J23" s="161" t="s">
         <v>225</v>
       </c>
-      <c r="K23" s="129"/>
-    </row>
-    <row r="26" spans="1:19" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="158" t="s">
+      <c r="K23" s="139"/>
+    </row>
+    <row r="26" spans="1:19" ht="32.25" customHeight="1" thickBot="1">
+      <c r="A26" s="166" t="s">
         <v>214</v>
       </c>
-      <c r="B26" s="159"/>
-      <c r="C26" s="159" t="s">
+      <c r="B26" s="167"/>
+      <c r="C26" s="167" t="s">
         <v>215</v>
       </c>
-      <c r="D26" s="159"/>
-      <c r="E26" s="159"/>
-      <c r="F26" s="159"/>
-      <c r="G26" s="159"/>
-      <c r="H26" s="160" t="s">
+      <c r="D26" s="167"/>
+      <c r="E26" s="167"/>
+      <c r="F26" s="167"/>
+      <c r="G26" s="167"/>
+      <c r="H26" s="168" t="s">
         <v>216</v>
       </c>
-      <c r="I26" s="160"/>
-      <c r="J26" s="161" t="s">
+      <c r="I26" s="168"/>
+      <c r="J26" s="156" t="s">
         <v>217</v>
       </c>
-      <c r="K26" s="161"/>
-    </row>
-    <row r="27" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="162" t="s">
+      <c r="K26" s="156"/>
+    </row>
+    <row r="27" spans="1:19" ht="25.5" customHeight="1">
+      <c r="A27" s="169" t="s">
         <v>233</v>
       </c>
-      <c r="B27" s="163"/>
+      <c r="B27" s="170"/>
       <c r="C27" s="60"/>
       <c r="D27" s="61"/>
       <c r="E27" s="62"/>
@@ -7142,93 +7137,68 @@
       <c r="J27" s="64"/>
       <c r="K27" s="65"/>
     </row>
-    <row r="28" spans="1:19" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:19" ht="21.75" customHeight="1">
       <c r="A28" s="55" t="s">
         <v>88</v>
       </c>
       <c r="B28" s="59" t="s">
         <v>89</v>
       </c>
-      <c r="C28" s="136" t="s">
+      <c r="C28" s="134" t="s">
         <v>90</v>
       </c>
-      <c r="D28" s="136"/>
-      <c r="E28" s="136" t="s">
+      <c r="D28" s="134"/>
+      <c r="E28" s="134" t="s">
         <v>91</v>
       </c>
-      <c r="F28" s="136"/>
-      <c r="G28" s="154" t="s">
+      <c r="F28" s="134"/>
+      <c r="G28" s="162" t="s">
         <v>92</v>
       </c>
-      <c r="H28" s="155"/>
-      <c r="I28" s="154" t="s">
+      <c r="H28" s="163"/>
+      <c r="I28" s="162" t="s">
         <v>93</v>
       </c>
-      <c r="J28" s="156"/>
-      <c r="K28" s="157"/>
-    </row>
-    <row r="29" spans="1:19" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J28" s="164"/>
+      <c r="K28" s="165"/>
+    </row>
+    <row r="29" spans="1:19" ht="21.75" customHeight="1">
       <c r="A29" s="26"/>
       <c r="B29" s="49"/>
-      <c r="C29" s="130"/>
-      <c r="D29" s="130"/>
-      <c r="E29" s="130"/>
-      <c r="F29" s="130"/>
-      <c r="G29" s="143"/>
-      <c r="H29" s="129"/>
-      <c r="I29" s="143"/>
-      <c r="J29" s="128"/>
-      <c r="K29" s="144"/>
-    </row>
-    <row r="30" spans="1:19" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C29" s="135"/>
+      <c r="D29" s="135"/>
+      <c r="E29" s="135"/>
+      <c r="F29" s="135"/>
+      <c r="G29" s="140"/>
+      <c r="H29" s="139"/>
+      <c r="I29" s="140"/>
+      <c r="J29" s="138"/>
+      <c r="K29" s="141"/>
+    </row>
+    <row r="30" spans="1:19" ht="21.75" customHeight="1" thickBot="1">
       <c r="A30" s="58"/>
       <c r="B30" s="57"/>
-      <c r="C30" s="149"/>
-      <c r="D30" s="149"/>
-      <c r="E30" s="149"/>
-      <c r="F30" s="149"/>
-      <c r="G30" s="150"/>
-      <c r="H30" s="151"/>
-      <c r="I30" s="150"/>
-      <c r="J30" s="152"/>
-      <c r="K30" s="153"/>
+      <c r="C30" s="171"/>
+      <c r="D30" s="171"/>
+      <c r="E30" s="171"/>
+      <c r="F30" s="171"/>
+      <c r="G30" s="172"/>
+      <c r="H30" s="173"/>
+      <c r="I30" s="172"/>
+      <c r="J30" s="174"/>
+      <c r="K30" s="151"/>
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="G18:K18"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="I29:K29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="J19:K19"/>
     <mergeCell ref="J20:K20"/>
@@ -7240,15 +7210,40 @@
     <mergeCell ref="F20:G20"/>
     <mergeCell ref="F22:G22"/>
     <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="G18:K18"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B4:B5"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7256,25 +7251,25 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T110"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="18.5" customWidth="1"/>
     <col min="2" max="9" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" ht="31.5" customHeight="1">
       <c r="A1" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" ht="29.25" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>292</v>
       </c>
@@ -7286,20 +7281,20 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9" ht="41.25" customHeight="1">
       <c r="A4" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9" ht="29.25" customHeight="1">
       <c r="A5" s="45" t="s">
         <v>146</v>
       </c>
-      <c r="B5" s="143" t="s">
+      <c r="B5" s="140" t="s">
         <v>147</v>
       </c>
-      <c r="C5" s="128"/>
-      <c r="D5" s="129"/>
+      <c r="C5" s="138"/>
+      <c r="D5" s="139"/>
       <c r="E5" s="52" t="s">
         <v>243</v>
       </c>
@@ -7314,15 +7309,15 @@
         <v>205</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="78.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9" ht="78.75" customHeight="1">
       <c r="A6" s="66">
         <v>43136.354166666664</v>
       </c>
-      <c r="B6" s="204" t="s">
+      <c r="B6" s="178" t="s">
         <v>235</v>
       </c>
-      <c r="C6" s="205"/>
-      <c r="D6" s="206"/>
+      <c r="C6" s="179"/>
+      <c r="D6" s="180"/>
       <c r="E6" s="45">
         <v>400</v>
       </c>
@@ -7338,15 +7333,15 @@
         <v>160</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9">
       <c r="A7" s="66">
         <v>43137.354166608799</v>
       </c>
-      <c r="B7" s="204" t="s">
+      <c r="B7" s="178" t="s">
         <v>290</v>
       </c>
-      <c r="C7" s="205"/>
-      <c r="D7" s="206"/>
+      <c r="C7" s="179"/>
+      <c r="D7" s="180"/>
       <c r="E7" s="127">
         <v>400</v>
       </c>
@@ -7362,15 +7357,15 @@
         <v>160</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9" ht="30" customHeight="1">
       <c r="A8" s="66">
         <v>43138.354166608799</v>
       </c>
-      <c r="B8" s="204" t="s">
+      <c r="B8" s="178" t="s">
         <v>291</v>
       </c>
-      <c r="C8" s="205"/>
-      <c r="D8" s="206"/>
+      <c r="C8" s="179"/>
+      <c r="D8" s="180"/>
       <c r="E8" s="127">
         <v>400</v>
       </c>
@@ -7386,39 +7381,39 @@
         <v>160</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9" ht="37.5" customHeight="1">
       <c r="A9" s="3" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" ht="21" thickBot="1">
       <c r="A10" s="3"/>
     </row>
-    <row r="11" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="201" t="s">
+    <row r="11" spans="1:9" ht="27.75" customHeight="1">
+      <c r="A11" s="175" t="s">
         <v>159</v>
       </c>
-      <c r="B11" s="207" t="s">
+      <c r="B11" s="181" t="s">
         <v>125</v>
       </c>
-      <c r="C11" s="209"/>
-      <c r="D11" s="208"/>
-      <c r="E11" s="207" t="s">
+      <c r="C11" s="183"/>
+      <c r="D11" s="182"/>
+      <c r="E11" s="181" t="s">
         <v>220</v>
       </c>
-      <c r="F11" s="208"/>
-      <c r="G11" s="201" t="s">
+      <c r="F11" s="182"/>
+      <c r="G11" s="175" t="s">
         <v>243</v>
       </c>
-      <c r="H11" s="201" t="s">
+      <c r="H11" s="175" t="s">
         <v>240</v>
       </c>
-      <c r="I11" s="172" t="s">
+      <c r="I11" s="155" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="202"/>
+    <row r="12" spans="1:9" ht="27.75" customHeight="1">
+      <c r="A12" s="176"/>
       <c r="B12" s="79" t="s">
         <v>237</v>
       </c>
@@ -7434,11 +7429,11 @@
       <c r="F12" s="80" t="s">
         <v>236</v>
       </c>
-      <c r="G12" s="202"/>
-      <c r="H12" s="202"/>
-      <c r="I12" s="203"/>
-    </row>
-    <row r="13" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G12" s="176"/>
+      <c r="H12" s="176"/>
+      <c r="I12" s="177"/>
+    </row>
+    <row r="13" spans="1:9" ht="27.75" customHeight="1">
       <c r="A13" s="75">
         <v>43101</v>
       </c>
@@ -7467,7 +7462,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9" ht="27.75" customHeight="1">
       <c r="A14" s="75">
         <v>43102</v>
       </c>
@@ -7496,7 +7491,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:9" ht="27.75" customHeight="1">
       <c r="A15" s="75">
         <v>43103</v>
       </c>
@@ -7525,7 +7520,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:9" ht="27.75" customHeight="1">
       <c r="A16" s="75">
         <v>43104</v>
       </c>
@@ -7554,7 +7549,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:20" ht="27.75" customHeight="1">
       <c r="A17" s="76" t="s">
         <v>160</v>
       </c>
@@ -7583,7 +7578,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:20" ht="27.75" customHeight="1">
       <c r="A18" s="76">
         <v>43131</v>
       </c>
@@ -7612,7 +7607,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="19" spans="1:20" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:20" ht="27.75" customHeight="1">
       <c r="A19" s="77" t="s">
         <v>207</v>
       </c>
@@ -7641,19 +7636,19 @@
         <v>90</v>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:20" ht="27.75" customHeight="1" thickBot="1">
       <c r="A20" s="78" t="s">
         <v>132</v>
       </c>
-      <c r="B20" s="198" t="s">
+      <c r="B20" s="184" t="s">
         <v>242</v>
       </c>
-      <c r="C20" s="199"/>
-      <c r="D20" s="200"/>
-      <c r="E20" s="198" t="s">
+      <c r="C20" s="185"/>
+      <c r="D20" s="186"/>
+      <c r="E20" s="184" t="s">
         <v>241</v>
       </c>
-      <c r="F20" s="200"/>
+      <c r="F20" s="186"/>
       <c r="G20" s="88">
         <v>2888</v>
       </c>
@@ -7664,87 +7659,87 @@
         <v>90</v>
       </c>
     </row>
-    <row r="22" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="23" spans="1:20" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:20" ht="30" customHeight="1"/>
+    <row r="23" spans="1:20" ht="44.25" customHeight="1">
       <c r="A23" s="3" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="24" spans="1:20" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="170" t="s">
+    <row r="24" spans="1:20" ht="25.5" customHeight="1">
+      <c r="A24" s="152" t="s">
         <v>214</v>
       </c>
-      <c r="B24" s="166"/>
-      <c r="C24" s="166" t="s">
+      <c r="B24" s="153"/>
+      <c r="C24" s="153" t="s">
         <v>246</v>
       </c>
-      <c r="D24" s="166"/>
-      <c r="E24" s="166"/>
-      <c r="F24" s="166"/>
-      <c r="G24" s="166"/>
+      <c r="D24" s="153"/>
+      <c r="E24" s="153"/>
+      <c r="F24" s="153"/>
+      <c r="G24" s="153"/>
       <c r="H24" s="112"/>
-      <c r="I24" s="183" t="s">
+      <c r="I24" s="187" t="s">
         <v>216</v>
       </c>
-      <c r="J24" s="183"/>
-      <c r="K24" s="164" t="s">
+      <c r="J24" s="187"/>
+      <c r="K24" s="157" t="s">
         <v>245</v>
       </c>
-      <c r="L24" s="165"/>
-    </row>
-    <row r="25" spans="1:20" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="148" t="s">
+      <c r="L24" s="158"/>
+    </row>
+    <row r="25" spans="1:20" ht="29.25" customHeight="1">
+      <c r="A25" s="160" t="s">
         <v>223</v>
       </c>
-      <c r="B25" s="146"/>
-      <c r="C25" s="147" t="s">
+      <c r="B25" s="161"/>
+      <c r="C25" s="159" t="s">
         <v>221</v>
       </c>
-      <c r="D25" s="148"/>
-      <c r="E25" s="148"/>
-      <c r="F25" s="146"/>
-      <c r="G25" s="147" t="s">
+      <c r="D25" s="160"/>
+      <c r="E25" s="160"/>
+      <c r="F25" s="161"/>
+      <c r="G25" s="159" t="s">
         <v>222</v>
       </c>
-      <c r="H25" s="147"/>
-      <c r="I25" s="148"/>
-      <c r="J25" s="148"/>
-      <c r="K25" s="148"/>
-      <c r="L25" s="148"/>
-      <c r="O25" s="177" t="s">
+      <c r="H25" s="159"/>
+      <c r="I25" s="160"/>
+      <c r="J25" s="160"/>
+      <c r="K25" s="160"/>
+      <c r="L25" s="160"/>
+      <c r="O25" s="203" t="s">
         <v>204</v>
       </c>
-      <c r="P25" s="177"/>
-      <c r="Q25" s="177"/>
-      <c r="R25" s="177"/>
-      <c r="S25" s="177"/>
-      <c r="T25" s="177"/>
-    </row>
-    <row r="26" spans="1:20" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="194" t="s">
+      <c r="P25" s="203"/>
+      <c r="Q25" s="203"/>
+      <c r="R25" s="203"/>
+      <c r="S25" s="203"/>
+      <c r="T25" s="203"/>
+    </row>
+    <row r="26" spans="1:20" ht="29.25" customHeight="1">
+      <c r="A26" s="188" t="s">
         <v>76</v>
       </c>
-      <c r="B26" s="195"/>
-      <c r="C26" s="196" t="s">
+      <c r="B26" s="189"/>
+      <c r="C26" s="190" t="s">
         <v>226</v>
       </c>
-      <c r="D26" s="197"/>
-      <c r="E26" s="181" t="s">
+      <c r="D26" s="191"/>
+      <c r="E26" s="207" t="s">
         <v>219</v>
       </c>
-      <c r="F26" s="179"/>
-      <c r="G26" s="179" t="s">
+      <c r="F26" s="205"/>
+      <c r="G26" s="205" t="s">
         <v>218</v>
       </c>
-      <c r="H26" s="180"/>
-      <c r="I26" s="196" t="s">
+      <c r="H26" s="206"/>
+      <c r="I26" s="190" t="s">
         <v>220</v>
       </c>
-      <c r="J26" s="195"/>
-      <c r="K26" s="196" t="s">
+      <c r="J26" s="189"/>
+      <c r="K26" s="190" t="s">
         <v>224</v>
       </c>
-      <c r="L26" s="195"/>
+      <c r="L26" s="189"/>
       <c r="O26" s="59" t="s">
         <v>146</v>
       </c>
@@ -7764,27 +7759,27 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:20" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="146" t="s">
+    <row r="27" spans="1:20" ht="29.25" customHeight="1">
+      <c r="A27" s="161" t="s">
         <v>227</v>
       </c>
-      <c r="B27" s="129"/>
-      <c r="C27" s="146" t="s">
+      <c r="B27" s="139"/>
+      <c r="C27" s="161" t="s">
         <v>229</v>
       </c>
-      <c r="D27" s="128"/>
-      <c r="E27" s="182"/>
-      <c r="F27" s="182"/>
-      <c r="G27" s="182"/>
-      <c r="H27" s="182"/>
-      <c r="I27" s="190" t="s">
+      <c r="D27" s="138"/>
+      <c r="E27" s="196"/>
+      <c r="F27" s="196"/>
+      <c r="G27" s="196"/>
+      <c r="H27" s="196"/>
+      <c r="I27" s="192" t="s">
         <v>244</v>
       </c>
-      <c r="J27" s="191"/>
-      <c r="K27" s="146" t="s">
+      <c r="J27" s="193"/>
+      <c r="K27" s="161" t="s">
         <v>225</v>
       </c>
-      <c r="L27" s="129"/>
+      <c r="L27" s="139"/>
       <c r="O27" s="49"/>
       <c r="P27" s="49"/>
       <c r="Q27" s="49"/>
@@ -7794,27 +7789,27 @@
       </c>
       <c r="T27" s="49"/>
     </row>
-    <row r="28" spans="1:20" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="146" t="s">
+    <row r="28" spans="1:20" ht="29.25" customHeight="1">
+      <c r="A28" s="161" t="s">
         <v>227</v>
       </c>
-      <c r="B28" s="129"/>
-      <c r="C28" s="146" t="s">
+      <c r="B28" s="139"/>
+      <c r="C28" s="161" t="s">
         <v>230</v>
       </c>
-      <c r="D28" s="128"/>
-      <c r="E28" s="182"/>
-      <c r="F28" s="182"/>
-      <c r="G28" s="182"/>
-      <c r="H28" s="182"/>
-      <c r="I28" s="192" t="s">
+      <c r="D28" s="138"/>
+      <c r="E28" s="196"/>
+      <c r="F28" s="196"/>
+      <c r="G28" s="196"/>
+      <c r="H28" s="196"/>
+      <c r="I28" s="194" t="s">
         <v>273</v>
       </c>
-      <c r="J28" s="193"/>
-      <c r="K28" s="146" t="s">
+      <c r="J28" s="195"/>
+      <c r="K28" s="161" t="s">
         <v>225</v>
       </c>
-      <c r="L28" s="129"/>
+      <c r="L28" s="139"/>
       <c r="O28" s="49"/>
       <c r="P28" s="49"/>
       <c r="Q28" s="49"/>
@@ -7822,150 +7817,150 @@
       <c r="S28" s="49"/>
       <c r="T28" s="49"/>
     </row>
-    <row r="29" spans="1:20" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="146" t="s">
+    <row r="29" spans="1:20" ht="29.25" customHeight="1">
+      <c r="A29" s="161" t="s">
         <v>228</v>
       </c>
-      <c r="B29" s="129"/>
-      <c r="C29" s="146" t="s">
+      <c r="B29" s="139"/>
+      <c r="C29" s="161" t="s">
         <v>231</v>
       </c>
-      <c r="D29" s="128"/>
-      <c r="E29" s="182"/>
-      <c r="F29" s="182"/>
-      <c r="G29" s="182"/>
-      <c r="H29" s="182"/>
-      <c r="I29" s="128"/>
-      <c r="J29" s="129"/>
-      <c r="K29" s="146" t="s">
+      <c r="D29" s="138"/>
+      <c r="E29" s="196"/>
+      <c r="F29" s="196"/>
+      <c r="G29" s="196"/>
+      <c r="H29" s="196"/>
+      <c r="I29" s="138"/>
+      <c r="J29" s="139"/>
+      <c r="K29" s="161" t="s">
         <v>225</v>
       </c>
-      <c r="L29" s="129"/>
-    </row>
-    <row r="30" spans="1:20" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="146" t="s">
+      <c r="L29" s="139"/>
+    </row>
+    <row r="30" spans="1:20" ht="29.25" customHeight="1">
+      <c r="A30" s="161" t="s">
         <v>228</v>
       </c>
-      <c r="B30" s="129"/>
-      <c r="C30" s="146" t="s">
+      <c r="B30" s="139"/>
+      <c r="C30" s="161" t="s">
         <v>232</v>
       </c>
-      <c r="D30" s="128"/>
-      <c r="E30" s="182"/>
-      <c r="F30" s="182"/>
-      <c r="G30" s="182"/>
-      <c r="H30" s="182"/>
-      <c r="I30" s="128"/>
-      <c r="J30" s="129"/>
-      <c r="K30" s="146" t="s">
+      <c r="D30" s="138"/>
+      <c r="E30" s="196"/>
+      <c r="F30" s="196"/>
+      <c r="G30" s="196"/>
+      <c r="H30" s="196"/>
+      <c r="I30" s="138"/>
+      <c r="J30" s="139"/>
+      <c r="K30" s="161" t="s">
         <v>225</v>
       </c>
-      <c r="L30" s="129"/>
-    </row>
-    <row r="31" spans="1:20" ht="29.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="32" spans="1:20" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="170" t="s">
+      <c r="L30" s="139"/>
+    </row>
+    <row r="31" spans="1:20" ht="29.25" customHeight="1"/>
+    <row r="32" spans="1:20" ht="29.25" customHeight="1">
+      <c r="A32" s="152" t="s">
         <v>214</v>
       </c>
-      <c r="B32" s="166"/>
-      <c r="C32" s="166" t="s">
+      <c r="B32" s="153"/>
+      <c r="C32" s="153" t="s">
         <v>246</v>
       </c>
-      <c r="D32" s="166"/>
-      <c r="E32" s="166"/>
-      <c r="F32" s="166"/>
-      <c r="G32" s="166"/>
+      <c r="D32" s="153"/>
+      <c r="E32" s="153"/>
+      <c r="F32" s="153"/>
+      <c r="G32" s="153"/>
       <c r="H32" s="112"/>
-      <c r="I32" s="164" t="s">
+      <c r="I32" s="157" t="s">
         <v>216</v>
       </c>
-      <c r="J32" s="164"/>
-      <c r="K32" s="183" t="s">
+      <c r="J32" s="157"/>
+      <c r="K32" s="187" t="s">
         <v>245</v>
       </c>
-      <c r="L32" s="183"/>
-    </row>
-    <row r="33" spans="1:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="148" t="s">
+      <c r="L32" s="187"/>
+    </row>
+    <row r="33" spans="1:12" ht="29.25" customHeight="1">
+      <c r="A33" s="160" t="s">
         <v>247</v>
       </c>
-      <c r="B33" s="146"/>
-      <c r="C33" s="178"/>
-      <c r="D33" s="178"/>
-      <c r="E33" s="178" t="s">
+      <c r="B33" s="161"/>
+      <c r="C33" s="204"/>
+      <c r="D33" s="204"/>
+      <c r="E33" s="204" t="s">
         <v>271</v>
       </c>
-      <c r="F33" s="178"/>
-      <c r="G33" s="178"/>
+      <c r="F33" s="204"/>
+      <c r="G33" s="204"/>
       <c r="H33" s="67"/>
-      <c r="I33" s="178" t="s">
+      <c r="I33" s="204" t="s">
         <v>267</v>
       </c>
-      <c r="J33" s="178"/>
-      <c r="K33" s="178"/>
-      <c r="L33" s="147"/>
-    </row>
-    <row r="34" spans="1:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J33" s="204"/>
+      <c r="K33" s="204"/>
+      <c r="L33" s="159"/>
+    </row>
+    <row r="34" spans="1:12" ht="29.25" customHeight="1">
       <c r="A34" s="89" t="s">
         <v>248</v>
       </c>
       <c r="B34" s="91" t="s">
         <v>249</v>
       </c>
-      <c r="C34" s="184" t="s">
+      <c r="C34" s="197" t="s">
         <v>250</v>
       </c>
-      <c r="D34" s="185"/>
-      <c r="E34" s="184" t="s">
+      <c r="D34" s="198"/>
+      <c r="E34" s="197" t="s">
         <v>251</v>
       </c>
-      <c r="F34" s="185"/>
-      <c r="G34" s="186" t="s">
+      <c r="F34" s="198"/>
+      <c r="G34" s="199" t="s">
         <v>236</v>
       </c>
-      <c r="H34" s="187"/>
-      <c r="I34" s="188"/>
-      <c r="J34" s="186" t="s">
+      <c r="H34" s="200"/>
+      <c r="I34" s="201"/>
+      <c r="J34" s="199" t="s">
         <v>224</v>
       </c>
-      <c r="K34" s="189"/>
-      <c r="L34" s="188"/>
-    </row>
-    <row r="35" spans="1:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K34" s="202"/>
+      <c r="L34" s="201"/>
+    </row>
+    <row r="35" spans="1:12" ht="29.25" customHeight="1">
       <c r="A35" s="49"/>
       <c r="B35" s="49"/>
-      <c r="C35" s="130"/>
-      <c r="D35" s="130"/>
-      <c r="E35" s="130"/>
-      <c r="F35" s="130"/>
-      <c r="G35" s="143"/>
-      <c r="H35" s="128"/>
-      <c r="I35" s="129"/>
-      <c r="J35" s="143"/>
-      <c r="K35" s="128"/>
-      <c r="L35" s="129"/>
-    </row>
-    <row r="36" spans="1:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C35" s="135"/>
+      <c r="D35" s="135"/>
+      <c r="E35" s="135"/>
+      <c r="F35" s="135"/>
+      <c r="G35" s="140"/>
+      <c r="H35" s="138"/>
+      <c r="I35" s="139"/>
+      <c r="J35" s="140"/>
+      <c r="K35" s="138"/>
+      <c r="L35" s="139"/>
+    </row>
+    <row r="36" spans="1:12" ht="29.25" customHeight="1">
       <c r="A36" s="49"/>
       <c r="B36" s="49"/>
-      <c r="C36" s="130"/>
-      <c r="D36" s="130"/>
-      <c r="E36" s="130"/>
-      <c r="F36" s="130"/>
-      <c r="G36" s="143"/>
-      <c r="H36" s="128"/>
-      <c r="I36" s="129"/>
-      <c r="J36" s="143"/>
-      <c r="K36" s="128"/>
-      <c r="L36" s="129"/>
-    </row>
-    <row r="38" spans="1:12" ht="47.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="39" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C36" s="135"/>
+      <c r="D36" s="135"/>
+      <c r="E36" s="135"/>
+      <c r="F36" s="135"/>
+      <c r="G36" s="140"/>
+      <c r="H36" s="138"/>
+      <c r="I36" s="139"/>
+      <c r="J36" s="140"/>
+      <c r="K36" s="138"/>
+      <c r="L36" s="139"/>
+    </row>
+    <row r="38" spans="1:12" ht="47.25" customHeight="1"/>
+    <row r="39" spans="1:12" ht="45" customHeight="1">
       <c r="A39" s="3" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:12" ht="43.5" customHeight="1">
       <c r="A40" s="117" t="s">
         <v>280</v>
       </c>
@@ -7978,15 +7973,15 @@
       <c r="D40" s="118" t="s">
         <v>283</v>
       </c>
-      <c r="E40" s="175" t="s">
+      <c r="E40" s="210" t="s">
         <v>284</v>
       </c>
-      <c r="F40" s="176"/>
+      <c r="F40" s="211"/>
       <c r="G40" s="34"/>
       <c r="H40" s="34"/>
       <c r="I40" s="11"/>
     </row>
-    <row r="41" spans="1:12" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:12" ht="39" customHeight="1">
       <c r="A41" s="50" t="s">
         <v>278</v>
       </c>
@@ -7995,7 +7990,7 @@
       </c>
       <c r="G41" s="50"/>
     </row>
-    <row r="42" spans="1:12" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:12" ht="44.25" customHeight="1">
       <c r="A42" s="90" t="s">
         <v>171</v>
       </c>
@@ -8018,7 +8013,7 @@
       <c r="H42" s="120"/>
       <c r="I42" s="120"/>
     </row>
-    <row r="43" spans="1:12" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:12" ht="44.25" customHeight="1">
       <c r="A43" s="45" t="s">
         <v>172</v>
       </c>
@@ -8041,7 +8036,7 @@
       <c r="H43" s="115"/>
       <c r="I43" s="115"/>
     </row>
-    <row r="44" spans="1:12" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:12" ht="44.25" customHeight="1">
       <c r="A44" s="45" t="s">
         <v>173</v>
       </c>
@@ -8064,7 +8059,7 @@
       <c r="H44" s="115"/>
       <c r="I44" s="115"/>
     </row>
-    <row r="45" spans="1:12" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:12" ht="44.25" customHeight="1">
       <c r="A45" s="45" t="s">
         <v>174</v>
       </c>
@@ -8087,7 +8082,7 @@
       <c r="H45" s="115"/>
       <c r="I45" s="115"/>
     </row>
-    <row r="46" spans="1:12" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:12" ht="44.25" customHeight="1">
       <c r="A46" s="52" t="s">
         <v>253</v>
       </c>
@@ -8113,18 +8108,18 @@
       <c r="H46" s="115"/>
       <c r="I46" s="115"/>
     </row>
-    <row r="48" spans="1:12" ht="76.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="49" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:12" ht="76.5" customHeight="1"/>
+    <row r="49" spans="1:8" ht="30" customHeight="1">
       <c r="A49" s="3" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:8">
       <c r="A50" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:8" ht="27" customHeight="1">
       <c r="A53" s="50" t="s">
         <v>256</v>
       </c>
@@ -8139,7 +8134,7 @@
       </c>
       <c r="H53" s="50"/>
     </row>
-    <row r="55" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:8" ht="19.5" customHeight="1">
       <c r="A55" s="68" t="s">
         <v>177</v>
       </c>
@@ -8160,7 +8155,7 @@
       </c>
       <c r="H55" s="115"/>
     </row>
-    <row r="56" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:8" ht="19.5" customHeight="1">
       <c r="A56" s="45" t="s">
         <v>162</v>
       </c>
@@ -8176,7 +8171,7 @@
       <c r="G56" s="49"/>
       <c r="H56" s="11"/>
     </row>
-    <row r="57" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:8" ht="19.5" customHeight="1">
       <c r="A57" s="45" t="s">
         <v>180</v>
       </c>
@@ -8189,7 +8184,7 @@
       <c r="G57" s="49"/>
       <c r="H57" s="11"/>
     </row>
-    <row r="58" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:8" ht="19.5" customHeight="1">
       <c r="A58" s="45" t="s">
         <v>132</v>
       </c>
@@ -8202,7 +8197,7 @@
       <c r="G58" s="49"/>
       <c r="H58" s="11"/>
     </row>
-    <row r="64" spans="1:8" ht="22.5" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:8" ht="22.5">
       <c r="A64" s="3" t="s">
         <v>181</v>
       </c>
@@ -8210,15 +8205,15 @@
         <v>182</v>
       </c>
     </row>
-    <row r="66" spans="6:6" x14ac:dyDescent="0.15">
+    <row r="66" spans="6:6">
       <c r="F66" s="50"/>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:8">
       <c r="A86" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:8" ht="26.25" customHeight="1">
       <c r="A88" t="s">
         <v>184</v>
       </c>
@@ -8235,7 +8230,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="89" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:8" ht="26.25" customHeight="1">
       <c r="B89" s="45"/>
       <c r="C89" s="45" t="s">
         <v>187</v>
@@ -8245,13 +8240,13 @@
       </c>
       <c r="E89" s="45"/>
     </row>
-    <row r="90" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:8" ht="32.25" customHeight="1">
       <c r="A90" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B91" s="130" t="s">
+    <row r="91" spans="1:8">
+      <c r="B91" s="135" t="s">
         <v>190</v>
       </c>
       <c r="C91" s="49" t="s">
@@ -8261,14 +8256,14 @@
       <c r="E91" s="106" t="s">
         <v>191</v>
       </c>
-      <c r="F91" s="173" t="s">
+      <c r="F91" s="208" t="s">
         <v>261</v>
       </c>
-      <c r="G91" s="174"/>
+      <c r="G91" s="209"/>
       <c r="H91" s="114"/>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B92" s="130"/>
+    <row r="92" spans="1:8">
+      <c r="B92" s="135"/>
       <c r="C92" s="49" t="s">
         <v>127</v>
       </c>
@@ -8276,12 +8271,12 @@
       <c r="E92" s="106" t="s">
         <v>191</v>
       </c>
-      <c r="F92" s="174"/>
-      <c r="G92" s="174"/>
+      <c r="F92" s="209"/>
+      <c r="G92" s="209"/>
       <c r="H92" s="114"/>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B93" s="130" t="s">
+    <row r="93" spans="1:8">
+      <c r="B93" s="135" t="s">
         <v>192</v>
       </c>
       <c r="C93" s="49" t="s">
@@ -8291,12 +8286,12 @@
       <c r="E93" s="106" t="s">
         <v>191</v>
       </c>
-      <c r="F93" s="174"/>
-      <c r="G93" s="174"/>
+      <c r="F93" s="209"/>
+      <c r="G93" s="209"/>
       <c r="H93" s="114"/>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B94" s="130"/>
+    <row r="94" spans="1:8">
+      <c r="B94" s="135"/>
       <c r="C94" s="49" t="s">
         <v>16</v>
       </c>
@@ -8304,12 +8299,12 @@
       <c r="E94" s="106" t="s">
         <v>191</v>
       </c>
-      <c r="F94" s="174"/>
-      <c r="G94" s="174"/>
+      <c r="F94" s="209"/>
+      <c r="G94" s="209"/>
       <c r="H94" s="114"/>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B95" s="130"/>
+    <row r="95" spans="1:8">
+      <c r="B95" s="135"/>
       <c r="C95" s="49" t="s">
         <v>115</v>
       </c>
@@ -8317,12 +8312,12 @@
       <c r="E95" s="106" t="s">
         <v>191</v>
       </c>
-      <c r="F95" s="174"/>
-      <c r="G95" s="174"/>
+      <c r="F95" s="209"/>
+      <c r="G95" s="209"/>
       <c r="H95" s="114"/>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B96" s="130"/>
+    <row r="96" spans="1:8">
+      <c r="B96" s="135"/>
       <c r="C96" s="51" t="s">
         <v>262</v>
       </c>
@@ -8336,7 +8331,7 @@
       <c r="G96" s="108"/>
       <c r="H96" s="108"/>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:5">
       <c r="B97" s="45" t="s">
         <v>193</v>
       </c>
@@ -8346,17 +8341,17 @@
       </c>
       <c r="E97" s="105"/>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:5">
       <c r="A99" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:5">
       <c r="A101" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:5">
       <c r="B103" s="45" t="s">
         <v>197</v>
       </c>
@@ -8367,37 +8362,37 @@
         <v>199</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:5">
       <c r="B104" s="45"/>
       <c r="C104" s="45"/>
       <c r="D104" s="45"/>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:5">
       <c r="B105" s="45"/>
       <c r="C105" s="45"/>
       <c r="D105" s="45"/>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:5">
       <c r="B106" s="45"/>
       <c r="C106" s="45"/>
       <c r="D106" s="45"/>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:5">
       <c r="B107" s="45"/>
       <c r="C107" s="45"/>
       <c r="D107" s="45"/>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:5">
       <c r="B108" s="45"/>
       <c r="C108" s="45"/>
       <c r="D108" s="45"/>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:5">
       <c r="B109" s="45"/>
       <c r="C109" s="45"/>
       <c r="D109" s="45"/>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:5">
       <c r="B110" s="45" t="s">
         <v>132</v>
       </c>
@@ -8408,57 +8403,13 @@
     </row>
   </sheetData>
   <mergeCells count="74">
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="G25:L25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="J36:L36"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="J34:L34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="J35:L35"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="F91:G95"/>
+    <mergeCell ref="B93:B96"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="E40:F40"/>
     <mergeCell ref="O25:T25"/>
     <mergeCell ref="A33:B33"/>
     <mergeCell ref="C33:D33"/>
@@ -8475,1157 +8426,26 @@
     <mergeCell ref="G27:H27"/>
     <mergeCell ref="G28:H28"/>
     <mergeCell ref="G29:H29"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="F91:G95"/>
-    <mergeCell ref="B93:B96"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="E40:F40"/>
-  </mergeCells>
-  <phoneticPr fontId="12" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T109"/>
-  <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="9" width="13" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:16" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="50" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-    </row>
-    <row r="4" spans="1:16" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="45" t="s">
-        <v>146</v>
-      </c>
-      <c r="B5" s="143" t="s">
-        <v>147</v>
-      </c>
-      <c r="C5" s="128"/>
-      <c r="D5" s="129"/>
-      <c r="E5" s="52" t="s">
-        <v>243</v>
-      </c>
-      <c r="F5" s="45" t="s">
-        <v>117</v>
-      </c>
-      <c r="G5" s="146" t="s">
-        <v>205</v>
-      </c>
-      <c r="H5" s="178"/>
-      <c r="I5" s="147"/>
-    </row>
-    <row r="6" spans="1:16" ht="78.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="66">
-        <v>43136.354166666664</v>
-      </c>
-      <c r="B6" s="204" t="s">
-        <v>235</v>
-      </c>
-      <c r="C6" s="205"/>
-      <c r="D6" s="206"/>
-      <c r="E6" s="45">
-        <v>400</v>
-      </c>
-      <c r="F6" s="45">
-        <v>200</v>
-      </c>
-      <c r="G6" s="143">
-        <v>200</v>
-      </c>
-      <c r="H6" s="128"/>
-      <c r="I6" s="129"/>
-    </row>
-    <row r="8" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="9" spans="1:16" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" ht="21" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="3"/>
-    </row>
-    <row r="11" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="201" t="s">
-        <v>159</v>
-      </c>
-      <c r="B11" s="207" t="s">
-        <v>125</v>
-      </c>
-      <c r="C11" s="209"/>
-      <c r="D11" s="208"/>
-      <c r="E11" s="207" t="s">
-        <v>220</v>
-      </c>
-      <c r="F11" s="208"/>
-      <c r="G11" s="201" t="s">
-        <v>243</v>
-      </c>
-      <c r="H11" s="201" t="s">
-        <v>240</v>
-      </c>
-      <c r="I11" s="212" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="202"/>
-      <c r="B12" s="79" t="s">
-        <v>265</v>
-      </c>
-      <c r="C12" s="69" t="s">
-        <v>238</v>
-      </c>
-      <c r="D12" s="80" t="s">
-        <v>239</v>
-      </c>
-      <c r="E12" s="79" t="s">
-        <v>266</v>
-      </c>
-      <c r="F12" s="80" t="s">
-        <v>236</v>
-      </c>
-      <c r="G12" s="202"/>
-      <c r="H12" s="202"/>
-      <c r="I12" s="213"/>
-      <c r="J12" s="126" t="s">
-        <v>287</v>
-      </c>
-      <c r="K12" s="126"/>
-      <c r="L12" s="126"/>
-      <c r="M12" s="126"/>
-      <c r="N12" s="126"/>
-      <c r="O12" s="126"/>
-      <c r="P12" s="126"/>
-    </row>
-    <row r="13" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="75">
-        <v>43101</v>
-      </c>
-      <c r="B13" s="72">
-        <v>10</v>
-      </c>
-      <c r="C13" s="53">
-        <v>200</v>
-      </c>
-      <c r="D13" s="70">
-        <v>200</v>
-      </c>
-      <c r="E13" s="72">
-        <v>200</v>
-      </c>
-      <c r="F13" s="70">
-        <v>200</v>
-      </c>
-      <c r="G13" s="85">
-        <v>30</v>
-      </c>
-      <c r="H13" s="85">
-        <v>30</v>
-      </c>
-      <c r="I13" s="123">
-        <v>40</v>
-      </c>
-      <c r="J13" s="126" t="s">
-        <v>286</v>
-      </c>
-      <c r="K13" s="126"/>
-      <c r="L13" s="126"/>
-      <c r="M13" s="126"/>
-      <c r="N13" s="126"/>
-      <c r="O13" s="126"/>
-      <c r="P13" s="126"/>
-    </row>
-    <row r="14" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="75">
-        <v>43102</v>
-      </c>
-      <c r="B14" s="72">
-        <v>10</v>
-      </c>
-      <c r="C14" s="53">
-        <v>200</v>
-      </c>
-      <c r="D14" s="70">
-        <v>200</v>
-      </c>
-      <c r="E14" s="72">
-        <v>200</v>
-      </c>
-      <c r="F14" s="70">
-        <v>200</v>
-      </c>
-      <c r="G14" s="86">
-        <v>30</v>
-      </c>
-      <c r="H14" s="86">
-        <v>30</v>
-      </c>
-      <c r="I14" s="123">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="75">
-        <v>43103</v>
-      </c>
-      <c r="B15" s="72">
-        <v>10</v>
-      </c>
-      <c r="C15" s="53">
-        <v>200</v>
-      </c>
-      <c r="D15" s="70">
-        <v>200</v>
-      </c>
-      <c r="E15" s="72">
-        <v>200</v>
-      </c>
-      <c r="F15" s="70">
-        <v>200</v>
-      </c>
-      <c r="G15" s="85">
-        <v>30</v>
-      </c>
-      <c r="H15" s="85">
-        <v>30</v>
-      </c>
-      <c r="I15" s="123">
-        <v>60</v>
-      </c>
-      <c r="L15" s="109" t="s">
-        <v>275</v>
-      </c>
-      <c r="M15" s="109"/>
-      <c r="N15" s="109"/>
-    </row>
-    <row r="16" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="75">
-        <v>43104</v>
-      </c>
-      <c r="B16" s="72">
-        <v>10</v>
-      </c>
-      <c r="C16" s="53">
-        <v>200</v>
-      </c>
-      <c r="D16" s="70">
-        <v>200</v>
-      </c>
-      <c r="E16" s="72">
-        <v>200</v>
-      </c>
-      <c r="F16" s="70">
-        <v>200</v>
-      </c>
-      <c r="G16" s="85">
-        <v>30</v>
-      </c>
-      <c r="H16" s="85">
-        <v>30</v>
-      </c>
-      <c r="I16" s="123">
-        <v>70</v>
-      </c>
-      <c r="K16" s="50"/>
-      <c r="L16" s="110" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="76" t="s">
-        <v>160</v>
-      </c>
-      <c r="B17" s="73" t="s">
-        <v>160</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="D17" s="71" t="s">
-        <v>160</v>
-      </c>
-      <c r="E17" s="73" t="s">
-        <v>160</v>
-      </c>
-      <c r="F17" s="71" t="s">
-        <v>160</v>
-      </c>
-      <c r="G17" s="76" t="s">
-        <v>160</v>
-      </c>
-      <c r="H17" s="76" t="s">
-        <v>160</v>
-      </c>
-      <c r="I17" s="124" t="s">
-        <v>160</v>
-      </c>
-      <c r="L17" s="111" t="s">
-        <v>277</v>
-      </c>
-      <c r="M17" s="50"/>
-      <c r="N17" s="50"/>
-    </row>
-    <row r="18" spans="1:20" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="76">
-        <v>43131</v>
-      </c>
-      <c r="B18" s="72">
-        <v>10</v>
-      </c>
-      <c r="C18" s="53">
-        <v>200</v>
-      </c>
-      <c r="D18" s="70">
-        <v>200</v>
-      </c>
-      <c r="E18" s="72">
-        <v>200</v>
-      </c>
-      <c r="F18" s="70">
-        <v>200</v>
-      </c>
-      <c r="G18" s="85">
-        <v>30</v>
-      </c>
-      <c r="H18" s="85">
-        <v>30</v>
-      </c>
-      <c r="I18" s="123">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="77" t="s">
-        <v>207</v>
-      </c>
-      <c r="B19" s="74">
-        <v>50</v>
-      </c>
-      <c r="C19" s="69">
-        <v>1000</v>
-      </c>
-      <c r="D19" s="80">
-        <v>200</v>
-      </c>
-      <c r="E19" s="79">
-        <v>200</v>
-      </c>
-      <c r="F19" s="80">
-        <v>1000</v>
-      </c>
-      <c r="G19" s="87">
-        <v>150</v>
-      </c>
-      <c r="H19" s="87">
-        <v>150</v>
-      </c>
-      <c r="I19" s="123">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="78" t="s">
-        <v>132</v>
-      </c>
-      <c r="B20" s="198" t="s">
-        <v>242</v>
-      </c>
-      <c r="C20" s="199"/>
-      <c r="D20" s="200"/>
-      <c r="E20" s="198" t="s">
-        <v>241</v>
-      </c>
-      <c r="F20" s="200"/>
-      <c r="G20" s="88">
-        <v>2888</v>
-      </c>
-      <c r="H20" s="88">
-        <v>2888</v>
-      </c>
-      <c r="I20" s="125">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E21" s="214" t="s">
-        <v>274</v>
-      </c>
-      <c r="F21" s="214"/>
-    </row>
-    <row r="22" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="23" spans="1:20" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="3" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="170" t="s">
-        <v>214</v>
-      </c>
-      <c r="B24" s="166"/>
-      <c r="C24" s="166" t="s">
-        <v>272</v>
-      </c>
-      <c r="D24" s="166"/>
-      <c r="E24" s="166"/>
-      <c r="F24" s="166"/>
-      <c r="G24" s="166"/>
-      <c r="H24" s="112"/>
-      <c r="I24" s="183" t="s">
-        <v>268</v>
-      </c>
-      <c r="J24" s="183"/>
-      <c r="K24" s="164" t="s">
-        <v>245</v>
-      </c>
-      <c r="L24" s="165"/>
-    </row>
-    <row r="25" spans="1:20" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="148" t="s">
-        <v>269</v>
-      </c>
-      <c r="B25" s="146"/>
-      <c r="C25" s="178" t="s">
-        <v>271</v>
-      </c>
-      <c r="D25" s="178"/>
-      <c r="E25" s="215" t="s">
-        <v>270</v>
-      </c>
-      <c r="F25" s="215"/>
-      <c r="G25" s="215"/>
-      <c r="H25" s="116"/>
-      <c r="I25" s="178" t="s">
-        <v>267</v>
-      </c>
-      <c r="J25" s="178"/>
-      <c r="K25" s="178"/>
-      <c r="L25" s="147"/>
-      <c r="O25" s="177" t="s">
-        <v>204</v>
-      </c>
-      <c r="P25" s="177"/>
-      <c r="Q25" s="177"/>
-      <c r="R25" s="177"/>
-      <c r="S25" s="177"/>
-      <c r="T25" s="177"/>
-    </row>
-    <row r="26" spans="1:20" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="194" t="s">
-        <v>76</v>
-      </c>
-      <c r="B26" s="195"/>
-      <c r="C26" s="196" t="s">
-        <v>226</v>
-      </c>
-      <c r="D26" s="216"/>
-      <c r="E26" s="211" t="s">
-        <v>219</v>
-      </c>
-      <c r="F26" s="211"/>
-      <c r="G26" s="211" t="s">
-        <v>218</v>
-      </c>
-      <c r="H26" s="211"/>
-      <c r="I26" s="216" t="s">
-        <v>220</v>
-      </c>
-      <c r="J26" s="195"/>
-      <c r="K26" s="196" t="s">
-        <v>224</v>
-      </c>
-      <c r="L26" s="195"/>
-      <c r="O26" s="59" t="s">
-        <v>146</v>
-      </c>
-      <c r="P26" s="46" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q26" s="59" t="s">
-        <v>164</v>
-      </c>
-      <c r="R26" s="59" t="s">
-        <v>165</v>
-      </c>
-      <c r="S26" s="59" t="s">
-        <v>166</v>
-      </c>
-      <c r="T26" s="59" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="146" t="s">
-        <v>227</v>
-      </c>
-      <c r="B27" s="129"/>
-      <c r="C27" s="146" t="s">
-        <v>229</v>
-      </c>
-      <c r="D27" s="128"/>
-      <c r="E27" s="182"/>
-      <c r="F27" s="182"/>
-      <c r="G27" s="182"/>
-      <c r="H27" s="182"/>
-      <c r="I27" s="190" t="s">
-        <v>244</v>
-      </c>
-      <c r="J27" s="191"/>
-      <c r="K27" s="146" t="s">
-        <v>225</v>
-      </c>
-      <c r="L27" s="129"/>
-      <c r="O27" s="49"/>
-      <c r="P27" s="49"/>
-      <c r="Q27" s="49"/>
-      <c r="R27" s="49"/>
-      <c r="S27" s="49" t="s">
-        <v>167</v>
-      </c>
-      <c r="T27" s="49"/>
-    </row>
-    <row r="28" spans="1:20" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="146" t="s">
-        <v>227</v>
-      </c>
-      <c r="B28" s="129"/>
-      <c r="C28" s="146" t="s">
-        <v>230</v>
-      </c>
-      <c r="D28" s="128"/>
-      <c r="E28" s="182"/>
-      <c r="F28" s="182"/>
-      <c r="G28" s="182"/>
-      <c r="H28" s="182"/>
-      <c r="I28" s="192" t="s">
-        <v>274</v>
-      </c>
-      <c r="J28" s="193"/>
-      <c r="K28" s="146" t="s">
-        <v>225</v>
-      </c>
-      <c r="L28" s="129"/>
-      <c r="O28" s="49"/>
-      <c r="P28" s="49"/>
-      <c r="Q28" s="49"/>
-      <c r="R28" s="49"/>
-      <c r="S28" s="49"/>
-      <c r="T28" s="49"/>
-    </row>
-    <row r="29" spans="1:20" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="146" t="s">
-        <v>228</v>
-      </c>
-      <c r="B29" s="129"/>
-      <c r="C29" s="146" t="s">
-        <v>231</v>
-      </c>
-      <c r="D29" s="128"/>
-      <c r="E29" s="182"/>
-      <c r="F29" s="182"/>
-      <c r="G29" s="182"/>
-      <c r="H29" s="182"/>
-      <c r="I29" s="128"/>
-      <c r="J29" s="129"/>
-      <c r="K29" s="146" t="s">
-        <v>225</v>
-      </c>
-      <c r="L29" s="129"/>
-    </row>
-    <row r="30" spans="1:20" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="146" t="s">
-        <v>228</v>
-      </c>
-      <c r="B30" s="129"/>
-      <c r="C30" s="146" t="s">
-        <v>232</v>
-      </c>
-      <c r="D30" s="128"/>
-      <c r="E30" s="182"/>
-      <c r="F30" s="182"/>
-      <c r="G30" s="182"/>
-      <c r="H30" s="182"/>
-      <c r="I30" s="128"/>
-      <c r="J30" s="129"/>
-      <c r="K30" s="146" t="s">
-        <v>225</v>
-      </c>
-      <c r="L30" s="129"/>
-    </row>
-    <row r="31" spans="1:20" ht="29.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="32" spans="1:20" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="170" t="s">
-        <v>214</v>
-      </c>
-      <c r="B32" s="166"/>
-      <c r="C32" s="166" t="s">
-        <v>272</v>
-      </c>
-      <c r="D32" s="166"/>
-      <c r="E32" s="166"/>
-      <c r="F32" s="166"/>
-      <c r="G32" s="166"/>
-      <c r="H32" s="112"/>
-      <c r="I32" s="164" t="s">
-        <v>268</v>
-      </c>
-      <c r="J32" s="164"/>
-      <c r="K32" s="183" t="s">
-        <v>245</v>
-      </c>
-      <c r="L32" s="183"/>
-    </row>
-    <row r="33" spans="1:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="148" t="s">
-        <v>247</v>
-      </c>
-      <c r="B33" s="146"/>
-      <c r="C33" s="178"/>
-      <c r="D33" s="178"/>
-      <c r="E33" s="178" t="s">
-        <v>271</v>
-      </c>
-      <c r="F33" s="178"/>
-      <c r="G33" s="178"/>
-      <c r="H33" s="67"/>
-      <c r="I33" s="178" t="s">
-        <v>267</v>
-      </c>
-      <c r="J33" s="178"/>
-      <c r="K33" s="178"/>
-      <c r="L33" s="147"/>
-    </row>
-    <row r="34" spans="1:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="89" t="s">
-        <v>248</v>
-      </c>
-      <c r="B34" s="91" t="s">
-        <v>249</v>
-      </c>
-      <c r="C34" s="184" t="s">
-        <v>250</v>
-      </c>
-      <c r="D34" s="185"/>
-      <c r="E34" s="184" t="s">
-        <v>251</v>
-      </c>
-      <c r="F34" s="185"/>
-      <c r="G34" s="186" t="s">
-        <v>236</v>
-      </c>
-      <c r="H34" s="187"/>
-      <c r="I34" s="188"/>
-      <c r="J34" s="186" t="s">
-        <v>224</v>
-      </c>
-      <c r="K34" s="189"/>
-      <c r="L34" s="188"/>
-    </row>
-    <row r="35" spans="1:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="49"/>
-      <c r="B35" s="49"/>
-      <c r="C35" s="130"/>
-      <c r="D35" s="130"/>
-      <c r="E35" s="130"/>
-      <c r="F35" s="130"/>
-      <c r="G35" s="143"/>
-      <c r="H35" s="128"/>
-      <c r="I35" s="129"/>
-      <c r="J35" s="143"/>
-      <c r="K35" s="128"/>
-      <c r="L35" s="129"/>
-    </row>
-    <row r="36" spans="1:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="49"/>
-      <c r="B36" s="49"/>
-      <c r="C36" s="130"/>
-      <c r="D36" s="130"/>
-      <c r="E36" s="130"/>
-      <c r="F36" s="130"/>
-      <c r="G36" s="143"/>
-      <c r="H36" s="128"/>
-      <c r="I36" s="129"/>
-      <c r="J36" s="143"/>
-      <c r="K36" s="128"/>
-      <c r="L36" s="129"/>
-    </row>
-    <row r="38" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="39" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="3" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="117" t="s">
-        <v>280</v>
-      </c>
-      <c r="B40" s="118" t="s">
-        <v>281</v>
-      </c>
-      <c r="C40" s="118" t="s">
-        <v>282</v>
-      </c>
-      <c r="D40" s="118" t="s">
-        <v>283</v>
-      </c>
-      <c r="E40" s="175" t="s">
-        <v>284</v>
-      </c>
-      <c r="F40" s="176"/>
-    </row>
-    <row r="41" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="210" t="s">
-        <v>278</v>
-      </c>
-      <c r="B41" s="210"/>
-      <c r="D41" s="50" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="90" t="s">
-        <v>171</v>
-      </c>
-      <c r="B42" s="90" t="s">
-        <v>9</v>
-      </c>
-      <c r="C42" s="90" t="s">
-        <v>100</v>
-      </c>
-      <c r="D42" s="90" t="s">
-        <v>101</v>
-      </c>
-      <c r="E42" s="119" t="s">
-        <v>102</v>
-      </c>
-      <c r="F42" s="121" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="45" t="s">
-        <v>172</v>
-      </c>
-      <c r="B43" s="45">
-        <v>83</v>
-      </c>
-      <c r="C43" s="45">
-        <v>90</v>
-      </c>
-      <c r="D43" s="45">
-        <v>0</v>
-      </c>
-      <c r="E43" s="47">
-        <v>8</v>
-      </c>
-      <c r="F43" s="122">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="45" t="s">
-        <v>173</v>
-      </c>
-      <c r="B44" s="45">
-        <v>88</v>
-      </c>
-      <c r="C44" s="45">
-        <v>30</v>
-      </c>
-      <c r="D44" s="45">
-        <v>0</v>
-      </c>
-      <c r="E44" s="47">
-        <v>3</v>
-      </c>
-      <c r="F44" s="122">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="45" t="s">
-        <v>174</v>
-      </c>
-      <c r="B45" s="45">
-        <v>100</v>
-      </c>
-      <c r="C45" s="45">
-        <v>15</v>
-      </c>
-      <c r="D45" s="45">
-        <v>0</v>
-      </c>
-      <c r="E45" s="47">
-        <v>86</v>
-      </c>
-      <c r="F45" s="122">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="52" t="s">
-        <v>253</v>
-      </c>
-      <c r="B46" s="52" t="s">
-        <v>252</v>
-      </c>
-      <c r="C46" s="45">
-        <f t="shared" ref="C46:E46" si="0">SUM(C43:C45)</f>
-        <v>135</v>
-      </c>
-      <c r="D46" s="45">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E46" s="47">
-        <f t="shared" si="0"/>
-        <v>97</v>
-      </c>
-      <c r="F46" s="122">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" ht="82.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="48" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="3" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A49" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="50" t="s">
-        <v>256</v>
-      </c>
-      <c r="C52" s="50" t="s">
-        <v>257</v>
-      </c>
-      <c r="E52" s="50" t="s">
-        <v>258</v>
-      </c>
-      <c r="G52" s="50" t="s">
-        <v>259</v>
-      </c>
-      <c r="H52" s="50"/>
-    </row>
-    <row r="54" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="68" t="s">
-        <v>177</v>
-      </c>
-      <c r="B54" s="68" t="s">
-        <v>178</v>
-      </c>
-      <c r="C54" s="68" t="s">
-        <v>179</v>
-      </c>
-      <c r="E54" s="68" t="s">
-        <v>177</v>
-      </c>
-      <c r="F54" s="68" t="s">
-        <v>178</v>
-      </c>
-      <c r="G54" s="68" t="s">
-        <v>179</v>
-      </c>
-      <c r="H54" s="113"/>
-    </row>
-    <row r="55" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="45" t="s">
-        <v>162</v>
-      </c>
-      <c r="B55" s="49"/>
-      <c r="C55" s="49"/>
-      <c r="D55" s="56" t="s">
-        <v>260</v>
-      </c>
-      <c r="E55" s="52" t="s">
-        <v>254</v>
-      </c>
-      <c r="F55" s="49"/>
-      <c r="G55" s="49"/>
-      <c r="H55" s="11"/>
-    </row>
-    <row r="56" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="45" t="s">
-        <v>180</v>
-      </c>
-      <c r="B56" s="49"/>
-      <c r="C56" s="49"/>
-      <c r="E56" s="52" t="s">
-        <v>255</v>
-      </c>
-      <c r="F56" s="49"/>
-      <c r="G56" s="49"/>
-      <c r="H56" s="11"/>
-    </row>
-    <row r="57" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="45" t="s">
-        <v>132</v>
-      </c>
-      <c r="B57" s="49"/>
-      <c r="C57" s="49"/>
-      <c r="E57" s="45" t="s">
-        <v>132</v>
-      </c>
-      <c r="F57" s="49"/>
-      <c r="G57" s="49"/>
-      <c r="H57" s="11"/>
-    </row>
-    <row r="63" spans="1:8" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A63" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="F63" s="31" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="65" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F65" s="50"/>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A85" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A87" t="s">
-        <v>184</v>
-      </c>
-      <c r="B87" s="45" t="s">
-        <v>107</v>
-      </c>
-      <c r="C87" s="45" t="s">
-        <v>185</v>
-      </c>
-      <c r="D87" s="45" t="s">
-        <v>186</v>
-      </c>
-      <c r="E87" s="45" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B88" s="45"/>
-      <c r="C88" s="45" t="s">
-        <v>187</v>
-      </c>
-      <c r="D88" s="45" t="s">
-        <v>188</v>
-      </c>
-      <c r="E88" s="45"/>
-    </row>
-    <row r="89" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A89" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B90" s="130" t="s">
-        <v>190</v>
-      </c>
-      <c r="C90" s="49" t="s">
-        <v>113</v>
-      </c>
-      <c r="D90" s="49"/>
-      <c r="E90" s="106" t="s">
-        <v>191</v>
-      </c>
-      <c r="F90" s="173" t="s">
-        <v>261</v>
-      </c>
-      <c r="G90" s="174"/>
-      <c r="H90" s="114"/>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B91" s="130"/>
-      <c r="C91" s="49" t="s">
-        <v>127</v>
-      </c>
-      <c r="D91" s="49"/>
-      <c r="E91" s="106" t="s">
-        <v>191</v>
-      </c>
-      <c r="F91" s="174"/>
-      <c r="G91" s="174"/>
-      <c r="H91" s="114"/>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B92" s="130" t="s">
-        <v>192</v>
-      </c>
-      <c r="C92" s="49" t="s">
-        <v>117</v>
-      </c>
-      <c r="D92" s="49"/>
-      <c r="E92" s="106" t="s">
-        <v>191</v>
-      </c>
-      <c r="F92" s="174"/>
-      <c r="G92" s="174"/>
-      <c r="H92" s="114"/>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B93" s="130"/>
-      <c r="C93" s="49" t="s">
-        <v>16</v>
-      </c>
-      <c r="D93" s="49"/>
-      <c r="E93" s="106" t="s">
-        <v>191</v>
-      </c>
-      <c r="F93" s="174"/>
-      <c r="G93" s="174"/>
-      <c r="H93" s="114"/>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B94" s="130"/>
-      <c r="C94" s="49" t="s">
-        <v>115</v>
-      </c>
-      <c r="D94" s="49"/>
-      <c r="E94" s="106" t="s">
-        <v>191</v>
-      </c>
-      <c r="F94" s="174"/>
-      <c r="G94" s="174"/>
-      <c r="H94" s="114"/>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B95" s="130"/>
-      <c r="C95" s="51" t="s">
-        <v>262</v>
-      </c>
-      <c r="D95" s="49"/>
-      <c r="E95" s="107" t="s">
-        <v>191</v>
-      </c>
-      <c r="F95" s="108" t="s">
-        <v>263</v>
-      </c>
-      <c r="G95" s="108"/>
-      <c r="H95" s="108"/>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B96" s="45" t="s">
-        <v>193</v>
-      </c>
-      <c r="C96" s="49"/>
-      <c r="D96" s="49" t="s">
-        <v>194</v>
-      </c>
-      <c r="E96" s="105"/>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A98" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A100" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B102" s="45" t="s">
-        <v>197</v>
-      </c>
-      <c r="C102" s="45" t="s">
-        <v>198</v>
-      </c>
-      <c r="D102" s="45" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B103" s="45"/>
-      <c r="C103" s="45"/>
-      <c r="D103" s="45"/>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B104" s="45"/>
-      <c r="C104" s="45"/>
-      <c r="D104" s="45"/>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B105" s="45"/>
-      <c r="C105" s="45"/>
-      <c r="D105" s="45"/>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B106" s="45"/>
-      <c r="C106" s="45"/>
-      <c r="D106" s="45"/>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B107" s="45"/>
-      <c r="C107" s="45"/>
-      <c r="D107" s="45"/>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B108" s="45"/>
-      <c r="C108" s="45"/>
-      <c r="D108" s="45"/>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B109" s="45" t="s">
-        <v>132</v>
-      </c>
-      <c r="C109" s="45"/>
-      <c r="D109" s="45" t="s">
-        <v>200</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="77">
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="O25:T25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="J36:L36"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="J34:L34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="J35:L35"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="G30:H30"/>
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="C27:D27"/>
     <mergeCell ref="I27:J27"/>
@@ -9634,11 +8454,1189 @@
     <mergeCell ref="C28:D28"/>
     <mergeCell ref="I28:J28"/>
     <mergeCell ref="K28:L28"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="J34:L34"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="I33:L33"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="G25:L25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+  </mergeCells>
+  <phoneticPr fontId="12" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:T109"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="9" width="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="31.5" customHeight="1">
+      <c r="A1" s="50" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="29.25" customHeight="1">
+      <c r="A3" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="1:16" ht="41.25" customHeight="1">
+      <c r="A4" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="29.25" customHeight="1">
+      <c r="A5" s="45" t="s">
+        <v>146</v>
+      </c>
+      <c r="B5" s="140" t="s">
+        <v>147</v>
+      </c>
+      <c r="C5" s="138"/>
+      <c r="D5" s="139"/>
+      <c r="E5" s="52" t="s">
+        <v>243</v>
+      </c>
+      <c r="F5" s="45" t="s">
+        <v>117</v>
+      </c>
+      <c r="G5" s="161" t="s">
+        <v>205</v>
+      </c>
+      <c r="H5" s="204"/>
+      <c r="I5" s="159"/>
+    </row>
+    <row r="6" spans="1:16" ht="78.75" customHeight="1">
+      <c r="A6" s="66">
+        <v>43136.354166666664</v>
+      </c>
+      <c r="B6" s="178" t="s">
+        <v>235</v>
+      </c>
+      <c r="C6" s="179"/>
+      <c r="D6" s="180"/>
+      <c r="E6" s="45">
+        <v>400</v>
+      </c>
+      <c r="F6" s="45">
+        <v>200</v>
+      </c>
+      <c r="G6" s="140">
+        <v>200</v>
+      </c>
+      <c r="H6" s="138"/>
+      <c r="I6" s="139"/>
+    </row>
+    <row r="8" spans="1:16" ht="30" customHeight="1"/>
+    <row r="9" spans="1:16" ht="37.5" customHeight="1">
+      <c r="A9" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="21" thickBot="1">
+      <c r="A10" s="3"/>
+    </row>
+    <row r="11" spans="1:16" ht="27.75" customHeight="1">
+      <c r="A11" s="175" t="s">
+        <v>159</v>
+      </c>
+      <c r="B11" s="181" t="s">
+        <v>125</v>
+      </c>
+      <c r="C11" s="183"/>
+      <c r="D11" s="182"/>
+      <c r="E11" s="181" t="s">
+        <v>220</v>
+      </c>
+      <c r="F11" s="182"/>
+      <c r="G11" s="175" t="s">
+        <v>243</v>
+      </c>
+      <c r="H11" s="175" t="s">
+        <v>240</v>
+      </c>
+      <c r="I11" s="216" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="27.75" customHeight="1">
+      <c r="A12" s="176"/>
+      <c r="B12" s="79" t="s">
+        <v>265</v>
+      </c>
+      <c r="C12" s="69" t="s">
+        <v>238</v>
+      </c>
+      <c r="D12" s="80" t="s">
+        <v>239</v>
+      </c>
+      <c r="E12" s="79" t="s">
+        <v>266</v>
+      </c>
+      <c r="F12" s="80" t="s">
+        <v>236</v>
+      </c>
+      <c r="G12" s="176"/>
+      <c r="H12" s="176"/>
+      <c r="I12" s="217"/>
+      <c r="J12" s="126" t="s">
+        <v>287</v>
+      </c>
+      <c r="K12" s="126"/>
+      <c r="L12" s="126"/>
+      <c r="M12" s="126"/>
+      <c r="N12" s="126"/>
+      <c r="O12" s="126"/>
+      <c r="P12" s="126"/>
+    </row>
+    <row r="13" spans="1:16" ht="27.75" customHeight="1">
+      <c r="A13" s="75">
+        <v>43101</v>
+      </c>
+      <c r="B13" s="72">
+        <v>10</v>
+      </c>
+      <c r="C13" s="53">
+        <v>200</v>
+      </c>
+      <c r="D13" s="70">
+        <v>200</v>
+      </c>
+      <c r="E13" s="72">
+        <v>200</v>
+      </c>
+      <c r="F13" s="70">
+        <v>200</v>
+      </c>
+      <c r="G13" s="85">
+        <v>30</v>
+      </c>
+      <c r="H13" s="85">
+        <v>30</v>
+      </c>
+      <c r="I13" s="123">
+        <v>40</v>
+      </c>
+      <c r="J13" s="126" t="s">
+        <v>286</v>
+      </c>
+      <c r="K13" s="126"/>
+      <c r="L13" s="126"/>
+      <c r="M13" s="126"/>
+      <c r="N13" s="126"/>
+      <c r="O13" s="126"/>
+      <c r="P13" s="126"/>
+    </row>
+    <row r="14" spans="1:16" ht="27.75" customHeight="1">
+      <c r="A14" s="75">
+        <v>43102</v>
+      </c>
+      <c r="B14" s="72">
+        <v>10</v>
+      </c>
+      <c r="C14" s="53">
+        <v>200</v>
+      </c>
+      <c r="D14" s="70">
+        <v>200</v>
+      </c>
+      <c r="E14" s="72">
+        <v>200</v>
+      </c>
+      <c r="F14" s="70">
+        <v>200</v>
+      </c>
+      <c r="G14" s="86">
+        <v>30</v>
+      </c>
+      <c r="H14" s="86">
+        <v>30</v>
+      </c>
+      <c r="I14" s="123">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="27.75" customHeight="1">
+      <c r="A15" s="75">
+        <v>43103</v>
+      </c>
+      <c r="B15" s="72">
+        <v>10</v>
+      </c>
+      <c r="C15" s="53">
+        <v>200</v>
+      </c>
+      <c r="D15" s="70">
+        <v>200</v>
+      </c>
+      <c r="E15" s="72">
+        <v>200</v>
+      </c>
+      <c r="F15" s="70">
+        <v>200</v>
+      </c>
+      <c r="G15" s="85">
+        <v>30</v>
+      </c>
+      <c r="H15" s="85">
+        <v>30</v>
+      </c>
+      <c r="I15" s="123">
+        <v>60</v>
+      </c>
+      <c r="L15" s="109" t="s">
+        <v>275</v>
+      </c>
+      <c r="M15" s="109"/>
+      <c r="N15" s="109"/>
+    </row>
+    <row r="16" spans="1:16" ht="27.75" customHeight="1">
+      <c r="A16" s="75">
+        <v>43104</v>
+      </c>
+      <c r="B16" s="72">
+        <v>10</v>
+      </c>
+      <c r="C16" s="53">
+        <v>200</v>
+      </c>
+      <c r="D16" s="70">
+        <v>200</v>
+      </c>
+      <c r="E16" s="72">
+        <v>200</v>
+      </c>
+      <c r="F16" s="70">
+        <v>200</v>
+      </c>
+      <c r="G16" s="85">
+        <v>30</v>
+      </c>
+      <c r="H16" s="85">
+        <v>30</v>
+      </c>
+      <c r="I16" s="123">
+        <v>70</v>
+      </c>
+      <c r="K16" s="50"/>
+      <c r="L16" s="110" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" ht="27.75" customHeight="1">
+      <c r="A17" s="76" t="s">
+        <v>160</v>
+      </c>
+      <c r="B17" s="73" t="s">
+        <v>160</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="D17" s="71" t="s">
+        <v>160</v>
+      </c>
+      <c r="E17" s="73" t="s">
+        <v>160</v>
+      </c>
+      <c r="F17" s="71" t="s">
+        <v>160</v>
+      </c>
+      <c r="G17" s="76" t="s">
+        <v>160</v>
+      </c>
+      <c r="H17" s="76" t="s">
+        <v>160</v>
+      </c>
+      <c r="I17" s="124" t="s">
+        <v>160</v>
+      </c>
+      <c r="L17" s="111" t="s">
+        <v>277</v>
+      </c>
+      <c r="M17" s="50"/>
+      <c r="N17" s="50"/>
+    </row>
+    <row r="18" spans="1:20" ht="27.75" customHeight="1">
+      <c r="A18" s="76">
+        <v>43131</v>
+      </c>
+      <c r="B18" s="72">
+        <v>10</v>
+      </c>
+      <c r="C18" s="53">
+        <v>200</v>
+      </c>
+      <c r="D18" s="70">
+        <v>200</v>
+      </c>
+      <c r="E18" s="72">
+        <v>200</v>
+      </c>
+      <c r="F18" s="70">
+        <v>200</v>
+      </c>
+      <c r="G18" s="85">
+        <v>30</v>
+      </c>
+      <c r="H18" s="85">
+        <v>30</v>
+      </c>
+      <c r="I18" s="123">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" ht="27.75" customHeight="1">
+      <c r="A19" s="77" t="s">
+        <v>207</v>
+      </c>
+      <c r="B19" s="74">
+        <v>50</v>
+      </c>
+      <c r="C19" s="69">
+        <v>1000</v>
+      </c>
+      <c r="D19" s="80">
+        <v>200</v>
+      </c>
+      <c r="E19" s="79">
+        <v>200</v>
+      </c>
+      <c r="F19" s="80">
+        <v>1000</v>
+      </c>
+      <c r="G19" s="87">
+        <v>150</v>
+      </c>
+      <c r="H19" s="87">
+        <v>150</v>
+      </c>
+      <c r="I19" s="123">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" ht="27.75" customHeight="1" thickBot="1">
+      <c r="A20" s="78" t="s">
+        <v>132</v>
+      </c>
+      <c r="B20" s="184" t="s">
+        <v>242</v>
+      </c>
+      <c r="C20" s="185"/>
+      <c r="D20" s="186"/>
+      <c r="E20" s="184" t="s">
+        <v>241</v>
+      </c>
+      <c r="F20" s="186"/>
+      <c r="G20" s="88">
+        <v>2888</v>
+      </c>
+      <c r="H20" s="88">
+        <v>2888</v>
+      </c>
+      <c r="I20" s="125">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" ht="23.25" customHeight="1">
+      <c r="E21" s="213" t="s">
+        <v>274</v>
+      </c>
+      <c r="F21" s="213"/>
+    </row>
+    <row r="22" spans="1:20" ht="30" customHeight="1"/>
+    <row r="23" spans="1:20" ht="44.25" customHeight="1">
+      <c r="A23" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" ht="25.5" customHeight="1">
+      <c r="A24" s="152" t="s">
+        <v>214</v>
+      </c>
+      <c r="B24" s="153"/>
+      <c r="C24" s="153" t="s">
+        <v>272</v>
+      </c>
+      <c r="D24" s="153"/>
+      <c r="E24" s="153"/>
+      <c r="F24" s="153"/>
+      <c r="G24" s="153"/>
+      <c r="H24" s="112"/>
+      <c r="I24" s="187" t="s">
+        <v>268</v>
+      </c>
+      <c r="J24" s="187"/>
+      <c r="K24" s="157" t="s">
+        <v>245</v>
+      </c>
+      <c r="L24" s="158"/>
+    </row>
+    <row r="25" spans="1:20" ht="29.25" customHeight="1">
+      <c r="A25" s="160" t="s">
+        <v>269</v>
+      </c>
+      <c r="B25" s="161"/>
+      <c r="C25" s="204" t="s">
+        <v>271</v>
+      </c>
+      <c r="D25" s="204"/>
+      <c r="E25" s="214" t="s">
+        <v>270</v>
+      </c>
+      <c r="F25" s="214"/>
+      <c r="G25" s="214"/>
+      <c r="H25" s="116"/>
+      <c r="I25" s="204" t="s">
+        <v>267</v>
+      </c>
+      <c r="J25" s="204"/>
+      <c r="K25" s="204"/>
+      <c r="L25" s="159"/>
+      <c r="O25" s="203" t="s">
+        <v>204</v>
+      </c>
+      <c r="P25" s="203"/>
+      <c r="Q25" s="203"/>
+      <c r="R25" s="203"/>
+      <c r="S25" s="203"/>
+      <c r="T25" s="203"/>
+    </row>
+    <row r="26" spans="1:20" ht="29.25" customHeight="1">
+      <c r="A26" s="188" t="s">
+        <v>76</v>
+      </c>
+      <c r="B26" s="189"/>
+      <c r="C26" s="190" t="s">
+        <v>226</v>
+      </c>
+      <c r="D26" s="212"/>
+      <c r="E26" s="215" t="s">
+        <v>219</v>
+      </c>
+      <c r="F26" s="215"/>
+      <c r="G26" s="215" t="s">
+        <v>218</v>
+      </c>
+      <c r="H26" s="215"/>
+      <c r="I26" s="212" t="s">
+        <v>220</v>
+      </c>
+      <c r="J26" s="189"/>
+      <c r="K26" s="190" t="s">
+        <v>224</v>
+      </c>
+      <c r="L26" s="189"/>
+      <c r="O26" s="59" t="s">
+        <v>146</v>
+      </c>
+      <c r="P26" s="46" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q26" s="59" t="s">
+        <v>164</v>
+      </c>
+      <c r="R26" s="59" t="s">
+        <v>165</v>
+      </c>
+      <c r="S26" s="59" t="s">
+        <v>166</v>
+      </c>
+      <c r="T26" s="59" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" ht="29.25" customHeight="1">
+      <c r="A27" s="161" t="s">
+        <v>227</v>
+      </c>
+      <c r="B27" s="139"/>
+      <c r="C27" s="161" t="s">
+        <v>229</v>
+      </c>
+      <c r="D27" s="138"/>
+      <c r="E27" s="196"/>
+      <c r="F27" s="196"/>
+      <c r="G27" s="196"/>
+      <c r="H27" s="196"/>
+      <c r="I27" s="192" t="s">
+        <v>244</v>
+      </c>
+      <c r="J27" s="193"/>
+      <c r="K27" s="161" t="s">
+        <v>225</v>
+      </c>
+      <c r="L27" s="139"/>
+      <c r="O27" s="49"/>
+      <c r="P27" s="49"/>
+      <c r="Q27" s="49"/>
+      <c r="R27" s="49"/>
+      <c r="S27" s="49" t="s">
+        <v>167</v>
+      </c>
+      <c r="T27" s="49"/>
+    </row>
+    <row r="28" spans="1:20" ht="29.25" customHeight="1">
+      <c r="A28" s="161" t="s">
+        <v>227</v>
+      </c>
+      <c r="B28" s="139"/>
+      <c r="C28" s="161" t="s">
+        <v>230</v>
+      </c>
+      <c r="D28" s="138"/>
+      <c r="E28" s="196"/>
+      <c r="F28" s="196"/>
+      <c r="G28" s="196"/>
+      <c r="H28" s="196"/>
+      <c r="I28" s="194" t="s">
+        <v>274</v>
+      </c>
+      <c r="J28" s="195"/>
+      <c r="K28" s="161" t="s">
+        <v>225</v>
+      </c>
+      <c r="L28" s="139"/>
+      <c r="O28" s="49"/>
+      <c r="P28" s="49"/>
+      <c r="Q28" s="49"/>
+      <c r="R28" s="49"/>
+      <c r="S28" s="49"/>
+      <c r="T28" s="49"/>
+    </row>
+    <row r="29" spans="1:20" ht="29.25" customHeight="1">
+      <c r="A29" s="161" t="s">
+        <v>228</v>
+      </c>
+      <c r="B29" s="139"/>
+      <c r="C29" s="161" t="s">
+        <v>231</v>
+      </c>
+      <c r="D29" s="138"/>
+      <c r="E29" s="196"/>
+      <c r="F29" s="196"/>
+      <c r="G29" s="196"/>
+      <c r="H29" s="196"/>
+      <c r="I29" s="138"/>
+      <c r="J29" s="139"/>
+      <c r="K29" s="161" t="s">
+        <v>225</v>
+      </c>
+      <c r="L29" s="139"/>
+    </row>
+    <row r="30" spans="1:20" ht="29.25" customHeight="1">
+      <c r="A30" s="161" t="s">
+        <v>228</v>
+      </c>
+      <c r="B30" s="139"/>
+      <c r="C30" s="161" t="s">
+        <v>232</v>
+      </c>
+      <c r="D30" s="138"/>
+      <c r="E30" s="196"/>
+      <c r="F30" s="196"/>
+      <c r="G30" s="196"/>
+      <c r="H30" s="196"/>
+      <c r="I30" s="138"/>
+      <c r="J30" s="139"/>
+      <c r="K30" s="161" t="s">
+        <v>225</v>
+      </c>
+      <c r="L30" s="139"/>
+    </row>
+    <row r="31" spans="1:20" ht="29.25" customHeight="1"/>
+    <row r="32" spans="1:20" ht="29.25" customHeight="1">
+      <c r="A32" s="152" t="s">
+        <v>214</v>
+      </c>
+      <c r="B32" s="153"/>
+      <c r="C32" s="153" t="s">
+        <v>272</v>
+      </c>
+      <c r="D32" s="153"/>
+      <c r="E32" s="153"/>
+      <c r="F32" s="153"/>
+      <c r="G32" s="153"/>
+      <c r="H32" s="112"/>
+      <c r="I32" s="157" t="s">
+        <v>268</v>
+      </c>
+      <c r="J32" s="157"/>
+      <c r="K32" s="187" t="s">
+        <v>245</v>
+      </c>
+      <c r="L32" s="187"/>
+    </row>
+    <row r="33" spans="1:12" ht="29.25" customHeight="1">
+      <c r="A33" s="160" t="s">
+        <v>247</v>
+      </c>
+      <c r="B33" s="161"/>
+      <c r="C33" s="204"/>
+      <c r="D33" s="204"/>
+      <c r="E33" s="204" t="s">
+        <v>271</v>
+      </c>
+      <c r="F33" s="204"/>
+      <c r="G33" s="204"/>
+      <c r="H33" s="67"/>
+      <c r="I33" s="204" t="s">
+        <v>267</v>
+      </c>
+      <c r="J33" s="204"/>
+      <c r="K33" s="204"/>
+      <c r="L33" s="159"/>
+    </row>
+    <row r="34" spans="1:12" ht="29.25" customHeight="1">
+      <c r="A34" s="89" t="s">
+        <v>248</v>
+      </c>
+      <c r="B34" s="91" t="s">
+        <v>249</v>
+      </c>
+      <c r="C34" s="197" t="s">
+        <v>250</v>
+      </c>
+      <c r="D34" s="198"/>
+      <c r="E34" s="197" t="s">
+        <v>251</v>
+      </c>
+      <c r="F34" s="198"/>
+      <c r="G34" s="199" t="s">
+        <v>236</v>
+      </c>
+      <c r="H34" s="200"/>
+      <c r="I34" s="201"/>
+      <c r="J34" s="199" t="s">
+        <v>224</v>
+      </c>
+      <c r="K34" s="202"/>
+      <c r="L34" s="201"/>
+    </row>
+    <row r="35" spans="1:12" ht="29.25" customHeight="1">
+      <c r="A35" s="49"/>
+      <c r="B35" s="49"/>
+      <c r="C35" s="135"/>
+      <c r="D35" s="135"/>
+      <c r="E35" s="135"/>
+      <c r="F35" s="135"/>
+      <c r="G35" s="140"/>
+      <c r="H35" s="138"/>
+      <c r="I35" s="139"/>
+      <c r="J35" s="140"/>
+      <c r="K35" s="138"/>
+      <c r="L35" s="139"/>
+    </row>
+    <row r="36" spans="1:12" ht="29.25" customHeight="1">
+      <c r="A36" s="49"/>
+      <c r="B36" s="49"/>
+      <c r="C36" s="135"/>
+      <c r="D36" s="135"/>
+      <c r="E36" s="135"/>
+      <c r="F36" s="135"/>
+      <c r="G36" s="140"/>
+      <c r="H36" s="138"/>
+      <c r="I36" s="139"/>
+      <c r="J36" s="140"/>
+      <c r="K36" s="138"/>
+      <c r="L36" s="139"/>
+    </row>
+    <row r="38" spans="1:12" ht="28.5" customHeight="1"/>
+    <row r="39" spans="1:12" ht="48" customHeight="1">
+      <c r="A39" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="45" customHeight="1">
+      <c r="A40" s="117" t="s">
+        <v>280</v>
+      </c>
+      <c r="B40" s="118" t="s">
+        <v>281</v>
+      </c>
+      <c r="C40" s="118" t="s">
+        <v>282</v>
+      </c>
+      <c r="D40" s="118" t="s">
+        <v>283</v>
+      </c>
+      <c r="E40" s="210" t="s">
+        <v>284</v>
+      </c>
+      <c r="F40" s="211"/>
+    </row>
+    <row r="41" spans="1:12" ht="45" customHeight="1">
+      <c r="A41" s="218" t="s">
+        <v>278</v>
+      </c>
+      <c r="B41" s="218"/>
+      <c r="D41" s="50" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="45" customHeight="1">
+      <c r="A42" s="90" t="s">
+        <v>171</v>
+      </c>
+      <c r="B42" s="90" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42" s="90" t="s">
+        <v>100</v>
+      </c>
+      <c r="D42" s="90" t="s">
+        <v>101</v>
+      </c>
+      <c r="E42" s="119" t="s">
+        <v>102</v>
+      </c>
+      <c r="F42" s="121" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="45" customHeight="1">
+      <c r="A43" s="45" t="s">
+        <v>172</v>
+      </c>
+      <c r="B43" s="45">
+        <v>83</v>
+      </c>
+      <c r="C43" s="45">
+        <v>90</v>
+      </c>
+      <c r="D43" s="45">
+        <v>0</v>
+      </c>
+      <c r="E43" s="47">
+        <v>8</v>
+      </c>
+      <c r="F43" s="122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" ht="45" customHeight="1">
+      <c r="A44" s="45" t="s">
+        <v>173</v>
+      </c>
+      <c r="B44" s="45">
+        <v>88</v>
+      </c>
+      <c r="C44" s="45">
+        <v>30</v>
+      </c>
+      <c r="D44" s="45">
+        <v>0</v>
+      </c>
+      <c r="E44" s="47">
+        <v>3</v>
+      </c>
+      <c r="F44" s="122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" ht="45" customHeight="1">
+      <c r="A45" s="45" t="s">
+        <v>174</v>
+      </c>
+      <c r="B45" s="45">
+        <v>100</v>
+      </c>
+      <c r="C45" s="45">
+        <v>15</v>
+      </c>
+      <c r="D45" s="45">
+        <v>0</v>
+      </c>
+      <c r="E45" s="47">
+        <v>86</v>
+      </c>
+      <c r="F45" s="122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" ht="45" customHeight="1">
+      <c r="A46" s="52" t="s">
+        <v>253</v>
+      </c>
+      <c r="B46" s="52" t="s">
+        <v>252</v>
+      </c>
+      <c r="C46" s="45">
+        <f t="shared" ref="C46:E46" si="0">SUM(C43:C45)</f>
+        <v>135</v>
+      </c>
+      <c r="D46" s="45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E46" s="47">
+        <f t="shared" si="0"/>
+        <v>97</v>
+      </c>
+      <c r="F46" s="122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" ht="82.5" customHeight="1"/>
+    <row r="48" spans="1:12" ht="30" customHeight="1">
+      <c r="A48" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="27" customHeight="1">
+      <c r="A52" s="50" t="s">
+        <v>256</v>
+      </c>
+      <c r="C52" s="50" t="s">
+        <v>257</v>
+      </c>
+      <c r="E52" s="50" t="s">
+        <v>258</v>
+      </c>
+      <c r="G52" s="50" t="s">
+        <v>259</v>
+      </c>
+      <c r="H52" s="50"/>
+    </row>
+    <row r="54" spans="1:8" ht="19.5" customHeight="1">
+      <c r="A54" s="68" t="s">
+        <v>177</v>
+      </c>
+      <c r="B54" s="68" t="s">
+        <v>178</v>
+      </c>
+      <c r="C54" s="68" t="s">
+        <v>179</v>
+      </c>
+      <c r="E54" s="68" t="s">
+        <v>177</v>
+      </c>
+      <c r="F54" s="68" t="s">
+        <v>178</v>
+      </c>
+      <c r="G54" s="68" t="s">
+        <v>179</v>
+      </c>
+      <c r="H54" s="113"/>
+    </row>
+    <row r="55" spans="1:8" ht="19.5" customHeight="1">
+      <c r="A55" s="45" t="s">
+        <v>162</v>
+      </c>
+      <c r="B55" s="49"/>
+      <c r="C55" s="49"/>
+      <c r="D55" s="56" t="s">
+        <v>260</v>
+      </c>
+      <c r="E55" s="52" t="s">
+        <v>254</v>
+      </c>
+      <c r="F55" s="49"/>
+      <c r="G55" s="49"/>
+      <c r="H55" s="11"/>
+    </row>
+    <row r="56" spans="1:8" ht="19.5" customHeight="1">
+      <c r="A56" s="45" t="s">
+        <v>180</v>
+      </c>
+      <c r="B56" s="49"/>
+      <c r="C56" s="49"/>
+      <c r="E56" s="52" t="s">
+        <v>255</v>
+      </c>
+      <c r="F56" s="49"/>
+      <c r="G56" s="49"/>
+      <c r="H56" s="11"/>
+    </row>
+    <row r="57" spans="1:8" ht="19.5" customHeight="1">
+      <c r="A57" s="45" t="s">
+        <v>132</v>
+      </c>
+      <c r="B57" s="49"/>
+      <c r="C57" s="49"/>
+      <c r="E57" s="45" t="s">
+        <v>132</v>
+      </c>
+      <c r="F57" s="49"/>
+      <c r="G57" s="49"/>
+      <c r="H57" s="11"/>
+    </row>
+    <row r="63" spans="1:8" ht="22.5">
+      <c r="A63" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="F63" s="31" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="65" spans="6:6">
+      <c r="F65" s="50"/>
+    </row>
+    <row r="85" spans="1:8">
+      <c r="A85" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" ht="26.25" customHeight="1">
+      <c r="A87" t="s">
+        <v>184</v>
+      </c>
+      <c r="B87" s="45" t="s">
+        <v>107</v>
+      </c>
+      <c r="C87" s="45" t="s">
+        <v>185</v>
+      </c>
+      <c r="D87" s="45" t="s">
+        <v>186</v>
+      </c>
+      <c r="E87" s="45" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="26.25" customHeight="1">
+      <c r="B88" s="45"/>
+      <c r="C88" s="45" t="s">
+        <v>187</v>
+      </c>
+      <c r="D88" s="45" t="s">
+        <v>188</v>
+      </c>
+      <c r="E88" s="45"/>
+    </row>
+    <row r="89" spans="1:8" ht="32.25" customHeight="1">
+      <c r="A89" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
+      <c r="B90" s="135" t="s">
+        <v>190</v>
+      </c>
+      <c r="C90" s="49" t="s">
+        <v>113</v>
+      </c>
+      <c r="D90" s="49"/>
+      <c r="E90" s="106" t="s">
+        <v>191</v>
+      </c>
+      <c r="F90" s="208" t="s">
+        <v>261</v>
+      </c>
+      <c r="G90" s="209"/>
+      <c r="H90" s="114"/>
+    </row>
+    <row r="91" spans="1:8">
+      <c r="B91" s="135"/>
+      <c r="C91" s="49" t="s">
+        <v>127</v>
+      </c>
+      <c r="D91" s="49"/>
+      <c r="E91" s="106" t="s">
+        <v>191</v>
+      </c>
+      <c r="F91" s="209"/>
+      <c r="G91" s="209"/>
+      <c r="H91" s="114"/>
+    </row>
+    <row r="92" spans="1:8">
+      <c r="B92" s="135" t="s">
+        <v>192</v>
+      </c>
+      <c r="C92" s="49" t="s">
+        <v>117</v>
+      </c>
+      <c r="D92" s="49"/>
+      <c r="E92" s="106" t="s">
+        <v>191</v>
+      </c>
+      <c r="F92" s="209"/>
+      <c r="G92" s="209"/>
+      <c r="H92" s="114"/>
+    </row>
+    <row r="93" spans="1:8">
+      <c r="B93" s="135"/>
+      <c r="C93" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="D93" s="49"/>
+      <c r="E93" s="106" t="s">
+        <v>191</v>
+      </c>
+      <c r="F93" s="209"/>
+      <c r="G93" s="209"/>
+      <c r="H93" s="114"/>
+    </row>
+    <row r="94" spans="1:8">
+      <c r="B94" s="135"/>
+      <c r="C94" s="49" t="s">
+        <v>115</v>
+      </c>
+      <c r="D94" s="49"/>
+      <c r="E94" s="106" t="s">
+        <v>191</v>
+      </c>
+      <c r="F94" s="209"/>
+      <c r="G94" s="209"/>
+      <c r="H94" s="114"/>
+    </row>
+    <row r="95" spans="1:8">
+      <c r="B95" s="135"/>
+      <c r="C95" s="51" t="s">
+        <v>262</v>
+      </c>
+      <c r="D95" s="49"/>
+      <c r="E95" s="107" t="s">
+        <v>191</v>
+      </c>
+      <c r="F95" s="108" t="s">
+        <v>263</v>
+      </c>
+      <c r="G95" s="108"/>
+      <c r="H95" s="108"/>
+    </row>
+    <row r="96" spans="1:8">
+      <c r="B96" s="45" t="s">
+        <v>193</v>
+      </c>
+      <c r="C96" s="49"/>
+      <c r="D96" s="49" t="s">
+        <v>194</v>
+      </c>
+      <c r="E96" s="105"/>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="B102" s="45" t="s">
+        <v>197</v>
+      </c>
+      <c r="C102" s="45" t="s">
+        <v>198</v>
+      </c>
+      <c r="D102" s="45" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="B103" s="45"/>
+      <c r="C103" s="45"/>
+      <c r="D103" s="45"/>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="B104" s="45"/>
+      <c r="C104" s="45"/>
+      <c r="D104" s="45"/>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="B105" s="45"/>
+      <c r="C105" s="45"/>
+      <c r="D105" s="45"/>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="B106" s="45"/>
+      <c r="C106" s="45"/>
+      <c r="D106" s="45"/>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="B107" s="45"/>
+      <c r="C107" s="45"/>
+      <c r="D107" s="45"/>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="B108" s="45"/>
+      <c r="C108" s="45"/>
+      <c r="D108" s="45"/>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="B109" s="45" t="s">
+        <v>132</v>
+      </c>
+      <c r="C109" s="45"/>
+      <c r="D109" s="45" t="s">
+        <v>200</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="77">
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="J36:L36"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="K29:L29"/>
     <mergeCell ref="B90:B91"/>
     <mergeCell ref="F90:G94"/>
     <mergeCell ref="B92:B95"/>
@@ -9655,38 +9653,35 @@
     <mergeCell ref="J35:L35"/>
     <mergeCell ref="C36:D36"/>
     <mergeCell ref="E36:F36"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="J36:L36"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="J34:L34"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="I33:L33"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="O25:T25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:F11"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/alice/20180302后台财务更新.xlsx
+++ b/doc/alice/20180302后台财务更新.xlsx
@@ -2580,6 +2580,15 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2589,32 +2598,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2625,15 +2625,78 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2643,76 +2706,97 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2742,109 +2826,25 @@
     <xf numFmtId="0" fontId="13" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2885,7 +2885,7 @@
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2938,7 +2938,7 @@
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2991,7 +2991,7 @@
         <xdr:cNvPr id="5" name="图片 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000005000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3039,7 +3039,7 @@
         <xdr:cNvPr id="6" name="图片 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000006000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3429,41 +3429,41 @@
       </c>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="133" t="s">
+      <c r="A10" s="137" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="133" t="s">
+      <c r="B10" s="137" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="137" t="s">
+      <c r="C10" s="139" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="138"/>
-      <c r="E10" s="139"/>
-      <c r="F10" s="137" t="s">
+      <c r="D10" s="130"/>
+      <c r="E10" s="131"/>
+      <c r="F10" s="139" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="138"/>
-      <c r="H10" s="139"/>
-      <c r="I10" s="137" t="s">
+      <c r="G10" s="130"/>
+      <c r="H10" s="131"/>
+      <c r="I10" s="139" t="s">
         <v>12</v>
       </c>
-      <c r="J10" s="138"/>
-      <c r="K10" s="139"/>
-      <c r="L10" s="138" t="s">
+      <c r="J10" s="130"/>
+      <c r="K10" s="131"/>
+      <c r="L10" s="130" t="s">
         <v>13</v>
       </c>
-      <c r="M10" s="138"/>
-      <c r="N10" s="139"/>
-      <c r="O10" s="135" t="s">
+      <c r="M10" s="130"/>
+      <c r="N10" s="131"/>
+      <c r="O10" s="132" t="s">
         <v>14</v>
       </c>
-      <c r="P10" s="135"/>
-      <c r="Q10" s="135"/>
+      <c r="P10" s="132"/>
+      <c r="Q10" s="132"/>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="134"/>
-      <c r="B11" s="134"/>
+      <c r="A11" s="138"/>
+      <c r="B11" s="138"/>
       <c r="C11" s="5" t="s">
         <v>15</v>
       </c>
@@ -3511,7 +3511,7 @@
       </c>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="135" t="s">
+      <c r="A12" s="132" t="s">
         <v>18</v>
       </c>
       <c r="B12" s="5">
@@ -3561,7 +3561,7 @@
       </c>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="135"/>
+      <c r="A13" s="132"/>
       <c r="B13" s="5">
         <v>88</v>
       </c>
@@ -3609,7 +3609,7 @@
       </c>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="135"/>
+      <c r="A14" s="132"/>
       <c r="B14" s="5">
         <v>100</v>
       </c>
@@ -3657,7 +3657,7 @@
       </c>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="135"/>
+      <c r="A15" s="132"/>
       <c r="B15" s="5" t="s">
         <v>19</v>
       </c>
@@ -3714,7 +3714,7 @@
       </c>
     </row>
     <row r="16" spans="1:17" hidden="1">
-      <c r="A16" s="133" t="s">
+      <c r="A16" s="137" t="s">
         <v>20</v>
       </c>
       <c r="B16" s="5">
@@ -3761,7 +3761,7 @@
       <c r="Q16" s="40"/>
     </row>
     <row r="17" spans="1:17" hidden="1">
-      <c r="A17" s="134"/>
+      <c r="A17" s="138"/>
       <c r="B17" s="5" t="s">
         <v>19</v>
       </c>
@@ -3815,7 +3815,7 @@
       <c r="Q17" s="40"/>
     </row>
     <row r="18" spans="1:17">
-      <c r="A18" s="135" t="s">
+      <c r="A18" s="132" t="s">
         <v>21</v>
       </c>
       <c r="B18" s="5">
@@ -3868,7 +3868,7 @@
       </c>
     </row>
     <row r="19" spans="1:17">
-      <c r="A19" s="135"/>
+      <c r="A19" s="132"/>
       <c r="B19" s="5">
         <v>180</v>
       </c>
@@ -3919,7 +3919,7 @@
       </c>
     </row>
     <row r="20" spans="1:17">
-      <c r="A20" s="135"/>
+      <c r="A20" s="132"/>
       <c r="B20" s="5">
         <v>240</v>
       </c>
@@ -3970,7 +3970,7 @@
       </c>
     </row>
     <row r="21" spans="1:17">
-      <c r="A21" s="135"/>
+      <c r="A21" s="132"/>
       <c r="B21" s="5" t="s">
         <v>19</v>
       </c>
@@ -4144,16 +4144,16 @@
       <c r="C47" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D47" s="130" t="s">
+      <c r="D47" s="133" t="s">
         <v>41</v>
       </c>
-      <c r="E47" s="131"/>
-      <c r="F47" s="131"/>
-      <c r="G47" s="131"/>
-      <c r="H47" s="131"/>
-      <c r="I47" s="131"/>
-      <c r="J47" s="131"/>
-      <c r="K47" s="132"/>
+      <c r="E47" s="134"/>
+      <c r="F47" s="134"/>
+      <c r="G47" s="134"/>
+      <c r="H47" s="134"/>
+      <c r="I47" s="134"/>
+      <c r="J47" s="134"/>
+      <c r="K47" s="135"/>
       <c r="L47" t="s">
         <v>42</v>
       </c>
@@ -4169,16 +4169,16 @@
       <c r="C48" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D48" s="130" t="s">
+      <c r="D48" s="133" t="s">
         <v>44</v>
       </c>
-      <c r="E48" s="131"/>
-      <c r="F48" s="131"/>
-      <c r="G48" s="131"/>
-      <c r="H48" s="131"/>
-      <c r="I48" s="131"/>
-      <c r="J48" s="131"/>
-      <c r="K48" s="132"/>
+      <c r="E48" s="134"/>
+      <c r="F48" s="134"/>
+      <c r="G48" s="134"/>
+      <c r="H48" s="134"/>
+      <c r="I48" s="134"/>
+      <c r="J48" s="134"/>
+      <c r="K48" s="135"/>
       <c r="L48" t="s">
         <v>45</v>
       </c>
@@ -4238,16 +4238,16 @@
       <c r="C52" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D52" s="130" t="s">
+      <c r="D52" s="133" t="s">
         <v>51</v>
       </c>
-      <c r="E52" s="131"/>
-      <c r="F52" s="131"/>
-      <c r="G52" s="131"/>
-      <c r="H52" s="131"/>
-      <c r="I52" s="131"/>
-      <c r="J52" s="131"/>
-      <c r="K52" s="132"/>
+      <c r="E52" s="134"/>
+      <c r="F52" s="134"/>
+      <c r="G52" s="134"/>
+      <c r="H52" s="134"/>
+      <c r="I52" s="134"/>
+      <c r="J52" s="134"/>
+      <c r="K52" s="135"/>
       <c r="L52" t="s">
         <v>52</v>
       </c>
@@ -4262,16 +4262,16 @@
       <c r="C53" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D53" s="130" t="s">
+      <c r="D53" s="133" t="s">
         <v>53</v>
       </c>
-      <c r="E53" s="131"/>
-      <c r="F53" s="131"/>
-      <c r="G53" s="131"/>
-      <c r="H53" s="131"/>
-      <c r="I53" s="131"/>
-      <c r="J53" s="131"/>
-      <c r="K53" s="132"/>
+      <c r="E53" s="134"/>
+      <c r="F53" s="134"/>
+      <c r="G53" s="134"/>
+      <c r="H53" s="134"/>
+      <c r="I53" s="134"/>
+      <c r="J53" s="134"/>
+      <c r="K53" s="135"/>
       <c r="L53" t="s">
         <v>54</v>
       </c>
@@ -4340,16 +4340,16 @@
       <c r="C57" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D57" s="130" t="s">
+      <c r="D57" s="133" t="s">
         <v>51</v>
       </c>
-      <c r="E57" s="131"/>
-      <c r="F57" s="131"/>
-      <c r="G57" s="131"/>
-      <c r="H57" s="131"/>
-      <c r="I57" s="131"/>
-      <c r="J57" s="131"/>
-      <c r="K57" s="132"/>
+      <c r="E57" s="134"/>
+      <c r="F57" s="134"/>
+      <c r="G57" s="134"/>
+      <c r="H57" s="134"/>
+      <c r="I57" s="134"/>
+      <c r="J57" s="134"/>
+      <c r="K57" s="135"/>
       <c r="L57" t="s">
         <v>52</v>
       </c>
@@ -4364,16 +4364,16 @@
       <c r="C58" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D58" s="130" t="s">
+      <c r="D58" s="133" t="s">
         <v>53</v>
       </c>
-      <c r="E58" s="131"/>
-      <c r="F58" s="131"/>
-      <c r="G58" s="131"/>
-      <c r="H58" s="131"/>
-      <c r="I58" s="131"/>
-      <c r="J58" s="131"/>
-      <c r="K58" s="132"/>
+      <c r="E58" s="134"/>
+      <c r="F58" s="134"/>
+      <c r="G58" s="134"/>
+      <c r="H58" s="134"/>
+      <c r="I58" s="134"/>
+      <c r="J58" s="134"/>
+      <c r="K58" s="135"/>
       <c r="L58" t="s">
         <v>54</v>
       </c>
@@ -4400,11 +4400,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="L10:N10"/>
-    <mergeCell ref="O10:Q10"/>
-    <mergeCell ref="D53:K53"/>
-    <mergeCell ref="D56:K56"/>
-    <mergeCell ref="D57:K57"/>
     <mergeCell ref="D58:K58"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A12:A15"/>
@@ -4419,6 +4414,11 @@
     <mergeCell ref="C10:E10"/>
     <mergeCell ref="F10:H10"/>
     <mergeCell ref="I10:K10"/>
+    <mergeCell ref="L10:N10"/>
+    <mergeCell ref="O10:Q10"/>
+    <mergeCell ref="D53:K53"/>
+    <mergeCell ref="D56:K56"/>
+    <mergeCell ref="D57:K57"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
@@ -4525,16 +4525,16 @@
       <c r="C21" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D21" s="130" t="s">
+      <c r="D21" s="133" t="s">
         <v>41</v>
       </c>
-      <c r="E21" s="131"/>
-      <c r="F21" s="131"/>
-      <c r="G21" s="131"/>
-      <c r="H21" s="131"/>
-      <c r="I21" s="131"/>
-      <c r="J21" s="131"/>
-      <c r="K21" s="132"/>
+      <c r="E21" s="134"/>
+      <c r="F21" s="134"/>
+      <c r="G21" s="134"/>
+      <c r="H21" s="134"/>
+      <c r="I21" s="134"/>
+      <c r="J21" s="134"/>
+      <c r="K21" s="135"/>
       <c r="T21" s="13"/>
     </row>
     <row r="22" spans="1:20">
@@ -4547,16 +4547,16 @@
       <c r="C22" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D22" s="130" t="s">
+      <c r="D22" s="133" t="s">
         <v>44</v>
       </c>
-      <c r="E22" s="131"/>
-      <c r="F22" s="131"/>
-      <c r="G22" s="131"/>
-      <c r="H22" s="131"/>
-      <c r="I22" s="131"/>
-      <c r="J22" s="131"/>
-      <c r="K22" s="132"/>
+      <c r="E22" s="134"/>
+      <c r="F22" s="134"/>
+      <c r="G22" s="134"/>
+      <c r="H22" s="134"/>
+      <c r="I22" s="134"/>
+      <c r="J22" s="134"/>
+      <c r="K22" s="135"/>
       <c r="T22" s="13"/>
     </row>
     <row r="24" spans="1:20">
@@ -4610,16 +4610,16 @@
       <c r="C26" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D26" s="130" t="s">
+      <c r="D26" s="133" t="s">
         <v>51</v>
       </c>
-      <c r="E26" s="131"/>
-      <c r="F26" s="131"/>
-      <c r="G26" s="131"/>
-      <c r="H26" s="131"/>
-      <c r="I26" s="131"/>
-      <c r="J26" s="131"/>
-      <c r="K26" s="132"/>
+      <c r="E26" s="134"/>
+      <c r="F26" s="134"/>
+      <c r="G26" s="134"/>
+      <c r="H26" s="134"/>
+      <c r="I26" s="134"/>
+      <c r="J26" s="134"/>
+      <c r="K26" s="135"/>
     </row>
     <row r="27" spans="1:20">
       <c r="A27" s="4" t="s">
@@ -4631,16 +4631,16 @@
       <c r="C27" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D27" s="130" t="s">
+      <c r="D27" s="133" t="s">
         <v>53</v>
       </c>
-      <c r="E27" s="131"/>
-      <c r="F27" s="131"/>
-      <c r="G27" s="131"/>
-      <c r="H27" s="131"/>
-      <c r="I27" s="131"/>
-      <c r="J27" s="131"/>
-      <c r="K27" s="132"/>
+      <c r="E27" s="134"/>
+      <c r="F27" s="134"/>
+      <c r="G27" s="134"/>
+      <c r="H27" s="134"/>
+      <c r="I27" s="134"/>
+      <c r="J27" s="134"/>
+      <c r="K27" s="135"/>
     </row>
     <row r="28" spans="1:20">
       <c r="C28" s="9"/>
@@ -4703,16 +4703,16 @@
       <c r="C31" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D31" s="130" t="s">
+      <c r="D31" s="133" t="s">
         <v>51</v>
       </c>
-      <c r="E31" s="131"/>
-      <c r="F31" s="131"/>
-      <c r="G31" s="131"/>
-      <c r="H31" s="131"/>
-      <c r="I31" s="131"/>
-      <c r="J31" s="131"/>
-      <c r="K31" s="132"/>
+      <c r="E31" s="134"/>
+      <c r="F31" s="134"/>
+      <c r="G31" s="134"/>
+      <c r="H31" s="134"/>
+      <c r="I31" s="134"/>
+      <c r="J31" s="134"/>
+      <c r="K31" s="135"/>
     </row>
     <row r="32" spans="1:20">
       <c r="A32" s="4" t="s">
@@ -4724,16 +4724,16 @@
       <c r="C32" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D32" s="130" t="s">
+      <c r="D32" s="133" t="s">
         <v>53</v>
       </c>
-      <c r="E32" s="131"/>
-      <c r="F32" s="131"/>
-      <c r="G32" s="131"/>
-      <c r="H32" s="131"/>
-      <c r="I32" s="131"/>
-      <c r="J32" s="131"/>
-      <c r="K32" s="132"/>
+      <c r="E32" s="134"/>
+      <c r="F32" s="134"/>
+      <c r="G32" s="134"/>
+      <c r="H32" s="134"/>
+      <c r="I32" s="134"/>
+      <c r="J32" s="134"/>
+      <c r="K32" s="135"/>
     </row>
     <row r="33" spans="1:20">
       <c r="A33" t="s">
@@ -4852,21 +4852,21 @@
       <c r="H49" s="136"/>
       <c r="I49" s="136"/>
       <c r="J49" s="136"/>
-      <c r="K49" s="146"/>
+      <c r="K49" s="140"/>
       <c r="T49" s="13"/>
     </row>
     <row r="50" spans="1:20">
       <c r="A50" s="26"/>
       <c r="B50" s="4"/>
       <c r="C50" s="5"/>
-      <c r="D50" s="130"/>
-      <c r="E50" s="131"/>
-      <c r="F50" s="131"/>
-      <c r="G50" s="131"/>
-      <c r="H50" s="131"/>
-      <c r="I50" s="131"/>
-      <c r="J50" s="131"/>
-      <c r="K50" s="145"/>
+      <c r="D50" s="133"/>
+      <c r="E50" s="134"/>
+      <c r="F50" s="134"/>
+      <c r="G50" s="134"/>
+      <c r="H50" s="134"/>
+      <c r="I50" s="134"/>
+      <c r="J50" s="134"/>
+      <c r="K50" s="141"/>
       <c r="L50" t="s">
         <v>80</v>
       </c>
@@ -4876,14 +4876,14 @@
       <c r="A51" s="26"/>
       <c r="B51" s="4"/>
       <c r="C51" s="5"/>
-      <c r="D51" s="130"/>
-      <c r="E51" s="131"/>
-      <c r="F51" s="131"/>
-      <c r="G51" s="131"/>
-      <c r="H51" s="131"/>
-      <c r="I51" s="131"/>
-      <c r="J51" s="131"/>
-      <c r="K51" s="145"/>
+      <c r="D51" s="133"/>
+      <c r="E51" s="134"/>
+      <c r="F51" s="134"/>
+      <c r="G51" s="134"/>
+      <c r="H51" s="134"/>
+      <c r="I51" s="134"/>
+      <c r="J51" s="134"/>
+      <c r="K51" s="141"/>
       <c r="T51" s="13"/>
     </row>
     <row r="52" spans="1:20">
@@ -5047,49 +5047,49 @@
       <c r="B64" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C64" s="135" t="s">
+      <c r="C64" s="132" t="s">
         <v>90</v>
       </c>
-      <c r="D64" s="135"/>
-      <c r="E64" s="135" t="s">
+      <c r="D64" s="132"/>
+      <c r="E64" s="132" t="s">
         <v>91</v>
       </c>
-      <c r="F64" s="135"/>
-      <c r="G64" s="140" t="s">
+      <c r="F64" s="132"/>
+      <c r="G64" s="145" t="s">
         <v>92</v>
       </c>
-      <c r="H64" s="139"/>
-      <c r="I64" s="140" t="s">
+      <c r="H64" s="131"/>
+      <c r="I64" s="145" t="s">
         <v>93</v>
       </c>
-      <c r="J64" s="138"/>
-      <c r="K64" s="141"/>
+      <c r="J64" s="130"/>
+      <c r="K64" s="146"/>
     </row>
     <row r="65" spans="1:11">
       <c r="A65" s="26"/>
       <c r="B65" s="4"/>
-      <c r="C65" s="135"/>
-      <c r="D65" s="135"/>
-      <c r="E65" s="135"/>
-      <c r="F65" s="135"/>
-      <c r="G65" s="140"/>
-      <c r="H65" s="139"/>
-      <c r="I65" s="140"/>
-      <c r="J65" s="138"/>
-      <c r="K65" s="141"/>
+      <c r="C65" s="132"/>
+      <c r="D65" s="132"/>
+      <c r="E65" s="132"/>
+      <c r="F65" s="132"/>
+      <c r="G65" s="145"/>
+      <c r="H65" s="131"/>
+      <c r="I65" s="145"/>
+      <c r="J65" s="130"/>
+      <c r="K65" s="146"/>
     </row>
     <row r="66" spans="1:11">
       <c r="A66" s="26"/>
       <c r="B66" s="4"/>
-      <c r="C66" s="135"/>
-      <c r="D66" s="135"/>
-      <c r="E66" s="135"/>
-      <c r="F66" s="135"/>
-      <c r="G66" s="140"/>
-      <c r="H66" s="139"/>
-      <c r="I66" s="140"/>
-      <c r="J66" s="138"/>
-      <c r="K66" s="141"/>
+      <c r="C66" s="132"/>
+      <c r="D66" s="132"/>
+      <c r="E66" s="132"/>
+      <c r="F66" s="132"/>
+      <c r="G66" s="145"/>
+      <c r="H66" s="131"/>
+      <c r="I66" s="145"/>
+      <c r="J66" s="130"/>
+      <c r="K66" s="146"/>
     </row>
     <row r="67" spans="1:11">
       <c r="A67" s="22"/>
@@ -5110,28 +5110,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="D20:K20"/>
-    <mergeCell ref="D21:K21"/>
-    <mergeCell ref="D22:K22"/>
-    <mergeCell ref="D25:K25"/>
-    <mergeCell ref="D26:K26"/>
-    <mergeCell ref="D27:K27"/>
-    <mergeCell ref="D30:K30"/>
-    <mergeCell ref="D31:K31"/>
-    <mergeCell ref="D32:K32"/>
-    <mergeCell ref="D49:K49"/>
-    <mergeCell ref="D50:K50"/>
-    <mergeCell ref="D51:K51"/>
-    <mergeCell ref="C54:K54"/>
-    <mergeCell ref="C55:K55"/>
-    <mergeCell ref="C56:K56"/>
-    <mergeCell ref="C59:K59"/>
-    <mergeCell ref="C60:K60"/>
-    <mergeCell ref="C61:K61"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="E64:F64"/>
-    <mergeCell ref="G64:H64"/>
-    <mergeCell ref="I64:K64"/>
     <mergeCell ref="C65:D65"/>
     <mergeCell ref="E65:F65"/>
     <mergeCell ref="G65:H65"/>
@@ -5140,6 +5118,28 @@
     <mergeCell ref="E66:F66"/>
     <mergeCell ref="G66:H66"/>
     <mergeCell ref="I66:K66"/>
+    <mergeCell ref="C59:K59"/>
+    <mergeCell ref="C60:K60"/>
+    <mergeCell ref="C61:K61"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="G64:H64"/>
+    <mergeCell ref="I64:K64"/>
+    <mergeCell ref="D50:K50"/>
+    <mergeCell ref="D51:K51"/>
+    <mergeCell ref="C54:K54"/>
+    <mergeCell ref="C55:K55"/>
+    <mergeCell ref="C56:K56"/>
+    <mergeCell ref="D27:K27"/>
+    <mergeCell ref="D30:K30"/>
+    <mergeCell ref="D31:K31"/>
+    <mergeCell ref="D32:K32"/>
+    <mergeCell ref="D49:K49"/>
+    <mergeCell ref="D20:K20"/>
+    <mergeCell ref="D21:K21"/>
+    <mergeCell ref="D22:K22"/>
+    <mergeCell ref="D25:K25"/>
+    <mergeCell ref="D26:K26"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
@@ -5171,41 +5171,41 @@
       </c>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="133" t="s">
+      <c r="A3" s="137" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="133" t="s">
+      <c r="B3" s="137" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="137" t="s">
+      <c r="C3" s="139" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="138"/>
-      <c r="E3" s="139"/>
-      <c r="F3" s="137" t="s">
+      <c r="D3" s="130"/>
+      <c r="E3" s="131"/>
+      <c r="F3" s="139" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="138"/>
-      <c r="H3" s="139"/>
-      <c r="I3" s="137" t="s">
+      <c r="G3" s="130"/>
+      <c r="H3" s="131"/>
+      <c r="I3" s="139" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="138"/>
-      <c r="K3" s="139"/>
-      <c r="L3" s="138" t="s">
+      <c r="J3" s="130"/>
+      <c r="K3" s="131"/>
+      <c r="L3" s="130" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="138"/>
-      <c r="N3" s="139"/>
-      <c r="O3" s="135" t="s">
+      <c r="M3" s="130"/>
+      <c r="N3" s="131"/>
+      <c r="O3" s="132" t="s">
         <v>14</v>
       </c>
-      <c r="P3" s="135"/>
-      <c r="Q3" s="135"/>
+      <c r="P3" s="132"/>
+      <c r="Q3" s="132"/>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="134"/>
-      <c r="B4" s="134"/>
+      <c r="A4" s="138"/>
+      <c r="B4" s="138"/>
       <c r="C4" s="5" t="s">
         <v>15</v>
       </c>
@@ -5253,7 +5253,7 @@
       </c>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="135" t="s">
+      <c r="A5" s="132" t="s">
         <v>18</v>
       </c>
       <c r="B5" s="5">
@@ -5303,7 +5303,7 @@
       </c>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="135"/>
+      <c r="A6" s="132"/>
       <c r="B6" s="5">
         <v>88</v>
       </c>
@@ -5351,7 +5351,7 @@
       </c>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="135"/>
+      <c r="A7" s="132"/>
       <c r="B7" s="5">
         <v>100</v>
       </c>
@@ -5399,7 +5399,7 @@
       </c>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="135"/>
+      <c r="A8" s="132"/>
       <c r="B8" s="5" t="s">
         <v>19</v>
       </c>
@@ -5456,7 +5456,7 @@
       </c>
     </row>
     <row r="9" spans="1:17" hidden="1">
-      <c r="A9" s="133" t="s">
+      <c r="A9" s="137" t="s">
         <v>20</v>
       </c>
       <c r="B9" s="5">
@@ -5503,7 +5503,7 @@
       <c r="Q9" s="40"/>
     </row>
     <row r="10" spans="1:17" hidden="1">
-      <c r="A10" s="134"/>
+      <c r="A10" s="138"/>
       <c r="B10" s="5" t="s">
         <v>19</v>
       </c>
@@ -5557,7 +5557,7 @@
       <c r="Q10" s="40"/>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="135" t="s">
+      <c r="A11" s="132" t="s">
         <v>21</v>
       </c>
       <c r="B11" s="5">
@@ -5610,7 +5610,7 @@
       </c>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="135"/>
+      <c r="A12" s="132"/>
       <c r="B12" s="5">
         <v>180</v>
       </c>
@@ -5661,7 +5661,7 @@
       </c>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="135"/>
+      <c r="A13" s="132"/>
       <c r="B13" s="5">
         <v>240</v>
       </c>
@@ -5712,7 +5712,7 @@
       </c>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="135"/>
+      <c r="A14" s="132"/>
       <c r="B14" s="5" t="s">
         <v>19</v>
       </c>
@@ -5817,7 +5817,7 @@
       <c r="L20" s="39"/>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="135" t="s">
+      <c r="A21" s="132" t="s">
         <v>18</v>
       </c>
       <c r="B21" s="5">
@@ -5848,7 +5848,7 @@
       <c r="L21" s="34"/>
     </row>
     <row r="22" spans="1:12">
-      <c r="A22" s="135"/>
+      <c r="A22" s="132"/>
       <c r="B22" s="5">
         <v>88</v>
       </c>
@@ -5877,7 +5877,7 @@
       <c r="L22" s="34"/>
     </row>
     <row r="23" spans="1:12">
-      <c r="A23" s="135"/>
+      <c r="A23" s="132"/>
       <c r="B23" s="5">
         <v>100</v>
       </c>
@@ -5906,7 +5906,7 @@
       <c r="L23" s="34"/>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24" s="135"/>
+      <c r="A24" s="132"/>
       <c r="B24" s="5" t="s">
         <v>19</v>
       </c>
@@ -6128,21 +6128,21 @@
         <v>123</v>
       </c>
       <c r="O15" s="9"/>
-      <c r="P15" s="135" t="s">
+      <c r="P15" s="132" t="s">
         <v>107</v>
       </c>
-      <c r="Q15" s="135" t="s">
+      <c r="Q15" s="132" t="s">
         <v>109</v>
       </c>
-      <c r="R15" s="135" t="s">
+      <c r="R15" s="132" t="s">
         <v>124</v>
       </c>
-      <c r="S15" s="135"/>
-      <c r="T15" s="135" t="s">
+      <c r="S15" s="132"/>
+      <c r="T15" s="132" t="s">
         <v>125</v>
       </c>
-      <c r="U15" s="135"/>
-      <c r="V15" s="135"/>
+      <c r="U15" s="132"/>
+      <c r="V15" s="132"/>
     </row>
     <row r="16" spans="1:22">
       <c r="A16" t="s">
@@ -6261,17 +6261,17 @@
       <c r="Q21" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="R21" s="135">
+      <c r="R21" s="132">
         <f>SUM(R17:S18)</f>
         <v>1500</v>
       </c>
-      <c r="S21" s="135"/>
-      <c r="T21" s="140">
+      <c r="S21" s="132"/>
+      <c r="T21" s="145">
         <f>SUM(T17:V20)</f>
         <v>1500</v>
       </c>
-      <c r="U21" s="138"/>
-      <c r="V21" s="139"/>
+      <c r="U21" s="130"/>
+      <c r="V21" s="131"/>
     </row>
     <row r="22" spans="1:22">
       <c r="A22" t="s">
@@ -6742,30 +6742,30 @@
       <c r="A3" s="3"/>
     </row>
     <row r="4" spans="1:10" ht="18.75" customHeight="1">
-      <c r="A4" s="148" t="s">
+      <c r="A4" s="169" t="s">
         <v>159</v>
       </c>
-      <c r="B4" s="148" t="s">
+      <c r="B4" s="169" t="s">
         <v>125</v>
       </c>
-      <c r="C4" s="154" t="s">
+      <c r="C4" s="173" t="s">
         <v>124</v>
       </c>
-      <c r="D4" s="155"/>
-      <c r="E4" s="148" t="s">
+      <c r="D4" s="174"/>
+      <c r="E4" s="169" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A5" s="149"/>
-      <c r="B5" s="149"/>
+      <c r="A5" s="170"/>
+      <c r="B5" s="170"/>
       <c r="C5" s="102" t="s">
         <v>202</v>
       </c>
       <c r="D5" s="103" t="s">
         <v>203</v>
       </c>
-      <c r="E5" s="149"/>
+      <c r="E5" s="170"/>
       <c r="J5" s="50" t="s">
         <v>210</v>
       </c>
@@ -6912,10 +6912,10 @@
       <c r="B14" s="88">
         <v>50</v>
       </c>
-      <c r="C14" s="150" t="s">
+      <c r="C14" s="171" t="s">
         <v>208</v>
       </c>
-      <c r="D14" s="151"/>
+      <c r="D14" s="155"/>
       <c r="E14" s="84">
         <v>90</v>
       </c>
@@ -6926,72 +6926,72 @@
       </c>
     </row>
     <row r="17" spans="1:19" ht="32.25" customHeight="1">
-      <c r="A17" s="152" t="s">
+      <c r="A17" s="172" t="s">
         <v>214</v>
       </c>
-      <c r="B17" s="153"/>
-      <c r="C17" s="153" t="s">
+      <c r="B17" s="168"/>
+      <c r="C17" s="168" t="s">
         <v>215</v>
       </c>
-      <c r="D17" s="153"/>
-      <c r="E17" s="153"/>
-      <c r="F17" s="153"/>
-      <c r="G17" s="153"/>
-      <c r="H17" s="156" t="s">
+      <c r="D17" s="168"/>
+      <c r="E17" s="168"/>
+      <c r="F17" s="168"/>
+      <c r="G17" s="168"/>
+      <c r="H17" s="163" t="s">
         <v>216</v>
       </c>
-      <c r="I17" s="156"/>
-      <c r="J17" s="157" t="s">
+      <c r="I17" s="163"/>
+      <c r="J17" s="166" t="s">
         <v>217</v>
       </c>
-      <c r="K17" s="158"/>
+      <c r="K17" s="167"/>
     </row>
     <row r="18" spans="1:19" ht="25.5" customHeight="1">
-      <c r="A18" s="160" t="s">
+      <c r="A18" s="150" t="s">
         <v>289</v>
       </c>
-      <c r="B18" s="161"/>
-      <c r="C18" s="159" t="s">
+      <c r="B18" s="148"/>
+      <c r="C18" s="149" t="s">
         <v>288</v>
       </c>
-      <c r="D18" s="160"/>
-      <c r="E18" s="160"/>
-      <c r="F18" s="161"/>
-      <c r="G18" s="159" t="s">
+      <c r="D18" s="150"/>
+      <c r="E18" s="150"/>
+      <c r="F18" s="148"/>
+      <c r="G18" s="149" t="s">
         <v>222</v>
       </c>
-      <c r="H18" s="160"/>
-      <c r="I18" s="160"/>
-      <c r="J18" s="160"/>
-      <c r="K18" s="160"/>
+      <c r="H18" s="150"/>
+      <c r="I18" s="150"/>
+      <c r="J18" s="150"/>
+      <c r="K18" s="150"/>
       <c r="N18" s="54" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="19" spans="1:19" ht="21" customHeight="1">
-      <c r="A19" s="140" t="s">
+      <c r="A19" s="145" t="s">
         <v>76</v>
       </c>
-      <c r="B19" s="139"/>
-      <c r="C19" s="161" t="s">
+      <c r="B19" s="131"/>
+      <c r="C19" s="148" t="s">
         <v>226</v>
       </c>
-      <c r="D19" s="159"/>
+      <c r="D19" s="149"/>
       <c r="E19" s="52" t="s">
         <v>219</v>
       </c>
-      <c r="F19" s="161" t="s">
+      <c r="F19" s="148" t="s">
         <v>218</v>
       </c>
-      <c r="G19" s="139"/>
-      <c r="H19" s="161" t="s">
+      <c r="G19" s="131"/>
+      <c r="H19" s="148" t="s">
         <v>220</v>
       </c>
-      <c r="I19" s="139"/>
-      <c r="J19" s="161" t="s">
+      <c r="I19" s="131"/>
+      <c r="J19" s="148" t="s">
         <v>224</v>
       </c>
-      <c r="K19" s="139"/>
+      <c r="K19" s="131"/>
       <c r="N19" s="49" t="s">
         <v>146</v>
       </c>
@@ -7012,23 +7012,23 @@
       </c>
     </row>
     <row r="20" spans="1:19" ht="21" customHeight="1">
-      <c r="A20" s="161" t="s">
+      <c r="A20" s="148" t="s">
         <v>227</v>
       </c>
-      <c r="B20" s="139"/>
-      <c r="C20" s="161" t="s">
+      <c r="B20" s="131"/>
+      <c r="C20" s="148" t="s">
         <v>229</v>
       </c>
-      <c r="D20" s="139"/>
+      <c r="D20" s="131"/>
       <c r="E20" s="45"/>
-      <c r="F20" s="140"/>
-      <c r="G20" s="139"/>
-      <c r="H20" s="140"/>
-      <c r="I20" s="139"/>
-      <c r="J20" s="161" t="s">
+      <c r="F20" s="145"/>
+      <c r="G20" s="131"/>
+      <c r="H20" s="145"/>
+      <c r="I20" s="131"/>
+      <c r="J20" s="148" t="s">
         <v>225</v>
       </c>
-      <c r="K20" s="139"/>
+      <c r="K20" s="131"/>
       <c r="N20" s="49"/>
       <c r="O20" s="49"/>
       <c r="P20" s="49"/>
@@ -7039,23 +7039,23 @@
       <c r="S20" s="49"/>
     </row>
     <row r="21" spans="1:19" ht="21" customHeight="1">
-      <c r="A21" s="161" t="s">
+      <c r="A21" s="148" t="s">
         <v>227</v>
       </c>
-      <c r="B21" s="139"/>
-      <c r="C21" s="161" t="s">
+      <c r="B21" s="131"/>
+      <c r="C21" s="148" t="s">
         <v>230</v>
       </c>
-      <c r="D21" s="139"/>
+      <c r="D21" s="131"/>
       <c r="E21" s="45"/>
-      <c r="F21" s="140"/>
-      <c r="G21" s="139"/>
-      <c r="H21" s="140"/>
-      <c r="I21" s="139"/>
-      <c r="J21" s="161" t="s">
+      <c r="F21" s="145"/>
+      <c r="G21" s="131"/>
+      <c r="H21" s="145"/>
+      <c r="I21" s="131"/>
+      <c r="J21" s="148" t="s">
         <v>225</v>
       </c>
-      <c r="K21" s="139"/>
+      <c r="K21" s="131"/>
       <c r="N21" s="49"/>
       <c r="O21" s="49"/>
       <c r="P21" s="49"/>
@@ -7064,69 +7064,69 @@
       <c r="S21" s="49"/>
     </row>
     <row r="22" spans="1:19" ht="21" customHeight="1">
-      <c r="A22" s="161" t="s">
+      <c r="A22" s="148" t="s">
         <v>228</v>
       </c>
-      <c r="B22" s="139"/>
-      <c r="C22" s="161" t="s">
+      <c r="B22" s="131"/>
+      <c r="C22" s="148" t="s">
         <v>231</v>
       </c>
-      <c r="D22" s="139"/>
+      <c r="D22" s="131"/>
       <c r="E22" s="49"/>
-      <c r="F22" s="140"/>
-      <c r="G22" s="139"/>
-      <c r="H22" s="140"/>
-      <c r="I22" s="139"/>
-      <c r="J22" s="161" t="s">
+      <c r="F22" s="145"/>
+      <c r="G22" s="131"/>
+      <c r="H22" s="145"/>
+      <c r="I22" s="131"/>
+      <c r="J22" s="148" t="s">
         <v>225</v>
       </c>
-      <c r="K22" s="139"/>
+      <c r="K22" s="131"/>
     </row>
     <row r="23" spans="1:19" ht="21" customHeight="1">
-      <c r="A23" s="161" t="s">
+      <c r="A23" s="148" t="s">
         <v>228</v>
       </c>
-      <c r="B23" s="139"/>
-      <c r="C23" s="161" t="s">
+      <c r="B23" s="131"/>
+      <c r="C23" s="148" t="s">
         <v>232</v>
       </c>
-      <c r="D23" s="139"/>
+      <c r="D23" s="131"/>
       <c r="E23" s="49"/>
-      <c r="F23" s="140"/>
-      <c r="G23" s="139"/>
-      <c r="H23" s="140"/>
-      <c r="I23" s="139"/>
-      <c r="J23" s="161" t="s">
+      <c r="F23" s="145"/>
+      <c r="G23" s="131"/>
+      <c r="H23" s="145"/>
+      <c r="I23" s="131"/>
+      <c r="J23" s="148" t="s">
         <v>225</v>
       </c>
-      <c r="K23" s="139"/>
+      <c r="K23" s="131"/>
     </row>
     <row r="26" spans="1:19" ht="32.25" customHeight="1" thickBot="1">
-      <c r="A26" s="166" t="s">
+      <c r="A26" s="160" t="s">
         <v>214</v>
       </c>
-      <c r="B26" s="167"/>
-      <c r="C26" s="167" t="s">
+      <c r="B26" s="161"/>
+      <c r="C26" s="161" t="s">
         <v>215</v>
       </c>
-      <c r="D26" s="167"/>
-      <c r="E26" s="167"/>
-      <c r="F26" s="167"/>
-      <c r="G26" s="167"/>
-      <c r="H26" s="168" t="s">
+      <c r="D26" s="161"/>
+      <c r="E26" s="161"/>
+      <c r="F26" s="161"/>
+      <c r="G26" s="161"/>
+      <c r="H26" s="162" t="s">
         <v>216</v>
       </c>
-      <c r="I26" s="168"/>
-      <c r="J26" s="156" t="s">
+      <c r="I26" s="162"/>
+      <c r="J26" s="163" t="s">
         <v>217</v>
       </c>
-      <c r="K26" s="156"/>
+      <c r="K26" s="163"/>
     </row>
     <row r="27" spans="1:19" ht="25.5" customHeight="1">
-      <c r="A27" s="169" t="s">
+      <c r="A27" s="164" t="s">
         <v>233</v>
       </c>
-      <c r="B27" s="170"/>
+      <c r="B27" s="165"/>
       <c r="C27" s="60"/>
       <c r="D27" s="61"/>
       <c r="E27" s="62"/>
@@ -7144,61 +7144,86 @@
       <c r="B28" s="59" t="s">
         <v>89</v>
       </c>
-      <c r="C28" s="134" t="s">
+      <c r="C28" s="138" t="s">
         <v>90</v>
       </c>
-      <c r="D28" s="134"/>
-      <c r="E28" s="134" t="s">
+      <c r="D28" s="138"/>
+      <c r="E28" s="138" t="s">
         <v>91</v>
       </c>
-      <c r="F28" s="134"/>
-      <c r="G28" s="162" t="s">
+      <c r="F28" s="138"/>
+      <c r="G28" s="156" t="s">
         <v>92</v>
       </c>
-      <c r="H28" s="163"/>
-      <c r="I28" s="162" t="s">
+      <c r="H28" s="157"/>
+      <c r="I28" s="156" t="s">
         <v>93</v>
       </c>
-      <c r="J28" s="164"/>
-      <c r="K28" s="165"/>
+      <c r="J28" s="158"/>
+      <c r="K28" s="159"/>
     </row>
     <row r="29" spans="1:19" ht="21.75" customHeight="1">
       <c r="A29" s="26"/>
       <c r="B29" s="49"/>
-      <c r="C29" s="135"/>
-      <c r="D29" s="135"/>
-      <c r="E29" s="135"/>
-      <c r="F29" s="135"/>
-      <c r="G29" s="140"/>
-      <c r="H29" s="139"/>
-      <c r="I29" s="140"/>
-      <c r="J29" s="138"/>
-      <c r="K29" s="141"/>
+      <c r="C29" s="132"/>
+      <c r="D29" s="132"/>
+      <c r="E29" s="132"/>
+      <c r="F29" s="132"/>
+      <c r="G29" s="145"/>
+      <c r="H29" s="131"/>
+      <c r="I29" s="145"/>
+      <c r="J29" s="130"/>
+      <c r="K29" s="146"/>
     </row>
     <row r="30" spans="1:19" ht="21.75" customHeight="1" thickBot="1">
       <c r="A30" s="58"/>
       <c r="B30" s="57"/>
-      <c r="C30" s="171"/>
-      <c r="D30" s="171"/>
-      <c r="E30" s="171"/>
-      <c r="F30" s="171"/>
-      <c r="G30" s="172"/>
-      <c r="H30" s="173"/>
-      <c r="I30" s="172"/>
-      <c r="J30" s="174"/>
-      <c r="K30" s="151"/>
+      <c r="C30" s="151"/>
+      <c r="D30" s="151"/>
+      <c r="E30" s="151"/>
+      <c r="F30" s="151"/>
+      <c r="G30" s="152"/>
+      <c r="H30" s="153"/>
+      <c r="I30" s="152"/>
+      <c r="J30" s="154"/>
+      <c r="K30" s="155"/>
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="G18:K18"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="H23:I23"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="J19:K19"/>
     <mergeCell ref="J20:K20"/>
@@ -7210,40 +7235,15 @@
     <mergeCell ref="F20:G20"/>
     <mergeCell ref="F22:G22"/>
     <mergeCell ref="F21:G21"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="I29:K29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="G18:K18"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7255,7 +7255,7 @@
   <dimension ref="A1:T110"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7290,11 +7290,11 @@
       <c r="A5" s="45" t="s">
         <v>146</v>
       </c>
-      <c r="B5" s="140" t="s">
+      <c r="B5" s="145" t="s">
         <v>147</v>
       </c>
-      <c r="C5" s="138"/>
-      <c r="D5" s="139"/>
+      <c r="C5" s="130"/>
+      <c r="D5" s="131"/>
       <c r="E5" s="52" t="s">
         <v>243</v>
       </c>
@@ -7313,11 +7313,11 @@
       <c r="A6" s="66">
         <v>43136.354166666664</v>
       </c>
-      <c r="B6" s="178" t="s">
+      <c r="B6" s="206" t="s">
         <v>235</v>
       </c>
-      <c r="C6" s="179"/>
-      <c r="D6" s="180"/>
+      <c r="C6" s="207"/>
+      <c r="D6" s="208"/>
       <c r="E6" s="45">
         <v>400</v>
       </c>
@@ -7337,11 +7337,11 @@
       <c r="A7" s="66">
         <v>43137.354166608799</v>
       </c>
-      <c r="B7" s="178" t="s">
+      <c r="B7" s="206" t="s">
         <v>290</v>
       </c>
-      <c r="C7" s="179"/>
-      <c r="D7" s="180"/>
+      <c r="C7" s="207"/>
+      <c r="D7" s="208"/>
       <c r="E7" s="127">
         <v>400</v>
       </c>
@@ -7361,11 +7361,11 @@
       <c r="A8" s="66">
         <v>43138.354166608799</v>
       </c>
-      <c r="B8" s="178" t="s">
+      <c r="B8" s="206" t="s">
         <v>291</v>
       </c>
-      <c r="C8" s="179"/>
-      <c r="D8" s="180"/>
+      <c r="C8" s="207"/>
+      <c r="D8" s="208"/>
       <c r="E8" s="127">
         <v>400</v>
       </c>
@@ -7390,30 +7390,30 @@
       <c r="A10" s="3"/>
     </row>
     <row r="11" spans="1:9" ht="27.75" customHeight="1">
-      <c r="A11" s="175" t="s">
+      <c r="A11" s="203" t="s">
         <v>159</v>
       </c>
-      <c r="B11" s="181" t="s">
+      <c r="B11" s="209" t="s">
         <v>125</v>
       </c>
-      <c r="C11" s="183"/>
-      <c r="D11" s="182"/>
-      <c r="E11" s="181" t="s">
+      <c r="C11" s="211"/>
+      <c r="D11" s="210"/>
+      <c r="E11" s="209" t="s">
         <v>220</v>
       </c>
-      <c r="F11" s="182"/>
-      <c r="G11" s="175" t="s">
+      <c r="F11" s="210"/>
+      <c r="G11" s="203" t="s">
         <v>243</v>
       </c>
-      <c r="H11" s="175" t="s">
+      <c r="H11" s="203" t="s">
         <v>240</v>
       </c>
-      <c r="I11" s="155" t="s">
+      <c r="I11" s="174" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="27.75" customHeight="1">
-      <c r="A12" s="176"/>
+      <c r="A12" s="204"/>
       <c r="B12" s="79" t="s">
         <v>237</v>
       </c>
@@ -7429,9 +7429,9 @@
       <c r="F12" s="80" t="s">
         <v>236</v>
       </c>
-      <c r="G12" s="176"/>
-      <c r="H12" s="176"/>
-      <c r="I12" s="177"/>
+      <c r="G12" s="204"/>
+      <c r="H12" s="204"/>
+      <c r="I12" s="205"/>
     </row>
     <row r="13" spans="1:9" ht="27.75" customHeight="1">
       <c r="A13" s="75">
@@ -7640,15 +7640,15 @@
       <c r="A20" s="78" t="s">
         <v>132</v>
       </c>
-      <c r="B20" s="184" t="s">
+      <c r="B20" s="200" t="s">
         <v>242</v>
       </c>
-      <c r="C20" s="185"/>
-      <c r="D20" s="186"/>
-      <c r="E20" s="184" t="s">
+      <c r="C20" s="201"/>
+      <c r="D20" s="202"/>
+      <c r="E20" s="200" t="s">
         <v>241</v>
       </c>
-      <c r="F20" s="186"/>
+      <c r="F20" s="202"/>
       <c r="G20" s="88">
         <v>2888</v>
       </c>
@@ -7666,80 +7666,80 @@
       </c>
     </row>
     <row r="24" spans="1:20" ht="25.5" customHeight="1">
-      <c r="A24" s="152" t="s">
+      <c r="A24" s="172" t="s">
         <v>214</v>
       </c>
-      <c r="B24" s="153"/>
-      <c r="C24" s="153" t="s">
+      <c r="B24" s="168"/>
+      <c r="C24" s="168" t="s">
         <v>246</v>
       </c>
-      <c r="D24" s="153"/>
-      <c r="E24" s="153"/>
-      <c r="F24" s="153"/>
-      <c r="G24" s="153"/>
+      <c r="D24" s="168"/>
+      <c r="E24" s="168"/>
+      <c r="F24" s="168"/>
+      <c r="G24" s="168"/>
       <c r="H24" s="112"/>
-      <c r="I24" s="187" t="s">
+      <c r="I24" s="185" t="s">
         <v>216</v>
       </c>
-      <c r="J24" s="187"/>
-      <c r="K24" s="157" t="s">
+      <c r="J24" s="185"/>
+      <c r="K24" s="166" t="s">
         <v>245</v>
       </c>
-      <c r="L24" s="158"/>
+      <c r="L24" s="167"/>
     </row>
     <row r="25" spans="1:20" ht="29.25" customHeight="1">
-      <c r="A25" s="160" t="s">
+      <c r="A25" s="150" t="s">
         <v>223</v>
       </c>
-      <c r="B25" s="161"/>
-      <c r="C25" s="159" t="s">
+      <c r="B25" s="148"/>
+      <c r="C25" s="149" t="s">
         <v>221</v>
       </c>
-      <c r="D25" s="160"/>
-      <c r="E25" s="160"/>
-      <c r="F25" s="161"/>
-      <c r="G25" s="159" t="s">
+      <c r="D25" s="150"/>
+      <c r="E25" s="150"/>
+      <c r="F25" s="148"/>
+      <c r="G25" s="149" t="s">
         <v>222</v>
       </c>
-      <c r="H25" s="159"/>
-      <c r="I25" s="160"/>
-      <c r="J25" s="160"/>
-      <c r="K25" s="160"/>
-      <c r="L25" s="160"/>
-      <c r="O25" s="203" t="s">
+      <c r="H25" s="149"/>
+      <c r="I25" s="150"/>
+      <c r="J25" s="150"/>
+      <c r="K25" s="150"/>
+      <c r="L25" s="150"/>
+      <c r="O25" s="179" t="s">
         <v>204</v>
       </c>
-      <c r="P25" s="203"/>
-      <c r="Q25" s="203"/>
-      <c r="R25" s="203"/>
-      <c r="S25" s="203"/>
-      <c r="T25" s="203"/>
+      <c r="P25" s="179"/>
+      <c r="Q25" s="179"/>
+      <c r="R25" s="179"/>
+      <c r="S25" s="179"/>
+      <c r="T25" s="179"/>
     </row>
     <row r="26" spans="1:20" ht="29.25" customHeight="1">
-      <c r="A26" s="188" t="s">
+      <c r="A26" s="196" t="s">
         <v>76</v>
       </c>
-      <c r="B26" s="189"/>
-      <c r="C26" s="190" t="s">
+      <c r="B26" s="197"/>
+      <c r="C26" s="198" t="s">
         <v>226</v>
       </c>
-      <c r="D26" s="191"/>
-      <c r="E26" s="207" t="s">
+      <c r="D26" s="199"/>
+      <c r="E26" s="183" t="s">
         <v>219</v>
       </c>
-      <c r="F26" s="205"/>
-      <c r="G26" s="205" t="s">
+      <c r="F26" s="181"/>
+      <c r="G26" s="181" t="s">
         <v>218</v>
       </c>
-      <c r="H26" s="206"/>
-      <c r="I26" s="190" t="s">
+      <c r="H26" s="182"/>
+      <c r="I26" s="198" t="s">
         <v>220</v>
       </c>
-      <c r="J26" s="189"/>
-      <c r="K26" s="190" t="s">
+      <c r="J26" s="197"/>
+      <c r="K26" s="198" t="s">
         <v>224</v>
       </c>
-      <c r="L26" s="189"/>
+      <c r="L26" s="197"/>
       <c r="O26" s="59" t="s">
         <v>146</v>
       </c>
@@ -7760,26 +7760,26 @@
       </c>
     </row>
     <row r="27" spans="1:20" ht="29.25" customHeight="1">
-      <c r="A27" s="161" t="s">
+      <c r="A27" s="148" t="s">
         <v>227</v>
       </c>
-      <c r="B27" s="139"/>
-      <c r="C27" s="161" t="s">
+      <c r="B27" s="131"/>
+      <c r="C27" s="148" t="s">
         <v>229</v>
       </c>
-      <c r="D27" s="138"/>
-      <c r="E27" s="196"/>
-      <c r="F27" s="196"/>
-      <c r="G27" s="196"/>
-      <c r="H27" s="196"/>
+      <c r="D27" s="130"/>
+      <c r="E27" s="184"/>
+      <c r="F27" s="184"/>
+      <c r="G27" s="184"/>
+      <c r="H27" s="184"/>
       <c r="I27" s="192" t="s">
         <v>244</v>
       </c>
       <c r="J27" s="193"/>
-      <c r="K27" s="161" t="s">
+      <c r="K27" s="148" t="s">
         <v>225</v>
       </c>
-      <c r="L27" s="139"/>
+      <c r="L27" s="131"/>
       <c r="O27" s="49"/>
       <c r="P27" s="49"/>
       <c r="Q27" s="49"/>
@@ -7790,26 +7790,26 @@
       <c r="T27" s="49"/>
     </row>
     <row r="28" spans="1:20" ht="29.25" customHeight="1">
-      <c r="A28" s="161" t="s">
+      <c r="A28" s="148" t="s">
         <v>227</v>
       </c>
-      <c r="B28" s="139"/>
-      <c r="C28" s="161" t="s">
+      <c r="B28" s="131"/>
+      <c r="C28" s="148" t="s">
         <v>230</v>
       </c>
-      <c r="D28" s="138"/>
-      <c r="E28" s="196"/>
-      <c r="F28" s="196"/>
-      <c r="G28" s="196"/>
-      <c r="H28" s="196"/>
+      <c r="D28" s="130"/>
+      <c r="E28" s="184"/>
+      <c r="F28" s="184"/>
+      <c r="G28" s="184"/>
+      <c r="H28" s="184"/>
       <c r="I28" s="194" t="s">
         <v>273</v>
       </c>
       <c r="J28" s="195"/>
-      <c r="K28" s="161" t="s">
+      <c r="K28" s="148" t="s">
         <v>225</v>
       </c>
-      <c r="L28" s="139"/>
+      <c r="L28" s="131"/>
       <c r="O28" s="49"/>
       <c r="P28" s="49"/>
       <c r="Q28" s="49"/>
@@ -7818,87 +7818,87 @@
       <c r="T28" s="49"/>
     </row>
     <row r="29" spans="1:20" ht="29.25" customHeight="1">
-      <c r="A29" s="161" t="s">
+      <c r="A29" s="148" t="s">
         <v>228</v>
       </c>
-      <c r="B29" s="139"/>
-      <c r="C29" s="161" t="s">
+      <c r="B29" s="131"/>
+      <c r="C29" s="148" t="s">
         <v>231</v>
       </c>
-      <c r="D29" s="138"/>
-      <c r="E29" s="196"/>
-      <c r="F29" s="196"/>
-      <c r="G29" s="196"/>
-      <c r="H29" s="196"/>
-      <c r="I29" s="138"/>
-      <c r="J29" s="139"/>
-      <c r="K29" s="161" t="s">
+      <c r="D29" s="130"/>
+      <c r="E29" s="184"/>
+      <c r="F29" s="184"/>
+      <c r="G29" s="184"/>
+      <c r="H29" s="184"/>
+      <c r="I29" s="130"/>
+      <c r="J29" s="131"/>
+      <c r="K29" s="148" t="s">
         <v>225</v>
       </c>
-      <c r="L29" s="139"/>
+      <c r="L29" s="131"/>
     </row>
     <row r="30" spans="1:20" ht="29.25" customHeight="1">
-      <c r="A30" s="161" t="s">
+      <c r="A30" s="148" t="s">
         <v>228</v>
       </c>
-      <c r="B30" s="139"/>
-      <c r="C30" s="161" t="s">
+      <c r="B30" s="131"/>
+      <c r="C30" s="148" t="s">
         <v>232</v>
       </c>
-      <c r="D30" s="138"/>
-      <c r="E30" s="196"/>
-      <c r="F30" s="196"/>
-      <c r="G30" s="196"/>
-      <c r="H30" s="196"/>
-      <c r="I30" s="138"/>
-      <c r="J30" s="139"/>
-      <c r="K30" s="161" t="s">
+      <c r="D30" s="130"/>
+      <c r="E30" s="184"/>
+      <c r="F30" s="184"/>
+      <c r="G30" s="184"/>
+      <c r="H30" s="184"/>
+      <c r="I30" s="130"/>
+      <c r="J30" s="131"/>
+      <c r="K30" s="148" t="s">
         <v>225</v>
       </c>
-      <c r="L30" s="139"/>
+      <c r="L30" s="131"/>
     </row>
     <row r="31" spans="1:20" ht="29.25" customHeight="1"/>
     <row r="32" spans="1:20" ht="29.25" customHeight="1">
-      <c r="A32" s="152" t="s">
+      <c r="A32" s="172" t="s">
         <v>214</v>
       </c>
-      <c r="B32" s="153"/>
-      <c r="C32" s="153" t="s">
+      <c r="B32" s="168"/>
+      <c r="C32" s="168" t="s">
         <v>246</v>
       </c>
-      <c r="D32" s="153"/>
-      <c r="E32" s="153"/>
-      <c r="F32" s="153"/>
-      <c r="G32" s="153"/>
+      <c r="D32" s="168"/>
+      <c r="E32" s="168"/>
+      <c r="F32" s="168"/>
+      <c r="G32" s="168"/>
       <c r="H32" s="112"/>
-      <c r="I32" s="157" t="s">
+      <c r="I32" s="166" t="s">
         <v>216</v>
       </c>
-      <c r="J32" s="157"/>
-      <c r="K32" s="187" t="s">
+      <c r="J32" s="166"/>
+      <c r="K32" s="185" t="s">
         <v>245</v>
       </c>
-      <c r="L32" s="187"/>
+      <c r="L32" s="185"/>
     </row>
     <row r="33" spans="1:12" ht="29.25" customHeight="1">
-      <c r="A33" s="160" t="s">
+      <c r="A33" s="150" t="s">
         <v>247</v>
       </c>
-      <c r="B33" s="161"/>
-      <c r="C33" s="204"/>
-      <c r="D33" s="204"/>
-      <c r="E33" s="204" t="s">
+      <c r="B33" s="148"/>
+      <c r="C33" s="180"/>
+      <c r="D33" s="180"/>
+      <c r="E33" s="180" t="s">
         <v>271</v>
       </c>
-      <c r="F33" s="204"/>
-      <c r="G33" s="204"/>
+      <c r="F33" s="180"/>
+      <c r="G33" s="180"/>
       <c r="H33" s="67"/>
-      <c r="I33" s="204" t="s">
+      <c r="I33" s="180" t="s">
         <v>267</v>
       </c>
-      <c r="J33" s="204"/>
-      <c r="K33" s="204"/>
-      <c r="L33" s="159"/>
+      <c r="J33" s="180"/>
+      <c r="K33" s="180"/>
+      <c r="L33" s="149"/>
     </row>
     <row r="34" spans="1:12" ht="29.25" customHeight="1">
       <c r="A34" s="89" t="s">
@@ -7907,52 +7907,52 @@
       <c r="B34" s="91" t="s">
         <v>249</v>
       </c>
-      <c r="C34" s="197" t="s">
+      <c r="C34" s="186" t="s">
         <v>250</v>
       </c>
-      <c r="D34" s="198"/>
-      <c r="E34" s="197" t="s">
+      <c r="D34" s="187"/>
+      <c r="E34" s="186" t="s">
         <v>251</v>
       </c>
-      <c r="F34" s="198"/>
-      <c r="G34" s="199" t="s">
+      <c r="F34" s="187"/>
+      <c r="G34" s="188" t="s">
         <v>236</v>
       </c>
-      <c r="H34" s="200"/>
-      <c r="I34" s="201"/>
-      <c r="J34" s="199" t="s">
+      <c r="H34" s="189"/>
+      <c r="I34" s="190"/>
+      <c r="J34" s="188" t="s">
         <v>224</v>
       </c>
-      <c r="K34" s="202"/>
-      <c r="L34" s="201"/>
+      <c r="K34" s="191"/>
+      <c r="L34" s="190"/>
     </row>
     <row r="35" spans="1:12" ht="29.25" customHeight="1">
       <c r="A35" s="49"/>
       <c r="B35" s="49"/>
-      <c r="C35" s="135"/>
-      <c r="D35" s="135"/>
-      <c r="E35" s="135"/>
-      <c r="F35" s="135"/>
-      <c r="G35" s="140"/>
-      <c r="H35" s="138"/>
-      <c r="I35" s="139"/>
-      <c r="J35" s="140"/>
-      <c r="K35" s="138"/>
-      <c r="L35" s="139"/>
+      <c r="C35" s="132"/>
+      <c r="D35" s="132"/>
+      <c r="E35" s="132"/>
+      <c r="F35" s="132"/>
+      <c r="G35" s="145"/>
+      <c r="H35" s="130"/>
+      <c r="I35" s="131"/>
+      <c r="J35" s="145"/>
+      <c r="K35" s="130"/>
+      <c r="L35" s="131"/>
     </row>
     <row r="36" spans="1:12" ht="29.25" customHeight="1">
       <c r="A36" s="49"/>
       <c r="B36" s="49"/>
-      <c r="C36" s="135"/>
-      <c r="D36" s="135"/>
-      <c r="E36" s="135"/>
-      <c r="F36" s="135"/>
-      <c r="G36" s="140"/>
-      <c r="H36" s="138"/>
-      <c r="I36" s="139"/>
-      <c r="J36" s="140"/>
-      <c r="K36" s="138"/>
-      <c r="L36" s="139"/>
+      <c r="C36" s="132"/>
+      <c r="D36" s="132"/>
+      <c r="E36" s="132"/>
+      <c r="F36" s="132"/>
+      <c r="G36" s="145"/>
+      <c r="H36" s="130"/>
+      <c r="I36" s="131"/>
+      <c r="J36" s="145"/>
+      <c r="K36" s="130"/>
+      <c r="L36" s="131"/>
     </row>
     <row r="38" spans="1:12" ht="47.25" customHeight="1"/>
     <row r="39" spans="1:12" ht="45" customHeight="1">
@@ -7973,10 +7973,10 @@
       <c r="D40" s="118" t="s">
         <v>283</v>
       </c>
-      <c r="E40" s="210" t="s">
+      <c r="E40" s="177" t="s">
         <v>284</v>
       </c>
-      <c r="F40" s="211"/>
+      <c r="F40" s="178"/>
       <c r="G40" s="34"/>
       <c r="H40" s="34"/>
       <c r="I40" s="11"/>
@@ -8246,7 +8246,7 @@
       </c>
     </row>
     <row r="91" spans="1:8">
-      <c r="B91" s="135" t="s">
+      <c r="B91" s="132" t="s">
         <v>190</v>
       </c>
       <c r="C91" s="49" t="s">
@@ -8256,14 +8256,14 @@
       <c r="E91" s="106" t="s">
         <v>191</v>
       </c>
-      <c r="F91" s="208" t="s">
+      <c r="F91" s="175" t="s">
         <v>261</v>
       </c>
-      <c r="G91" s="209"/>
+      <c r="G91" s="176"/>
       <c r="H91" s="114"/>
     </row>
     <row r="92" spans="1:8">
-      <c r="B92" s="135"/>
+      <c r="B92" s="132"/>
       <c r="C92" s="49" t="s">
         <v>127</v>
       </c>
@@ -8271,12 +8271,12 @@
       <c r="E92" s="106" t="s">
         <v>191</v>
       </c>
-      <c r="F92" s="209"/>
-      <c r="G92" s="209"/>
+      <c r="F92" s="176"/>
+      <c r="G92" s="176"/>
       <c r="H92" s="114"/>
     </row>
     <row r="93" spans="1:8">
-      <c r="B93" s="135" t="s">
+      <c r="B93" s="132" t="s">
         <v>192</v>
       </c>
       <c r="C93" s="49" t="s">
@@ -8286,12 +8286,12 @@
       <c r="E93" s="106" t="s">
         <v>191</v>
       </c>
-      <c r="F93" s="209"/>
-      <c r="G93" s="209"/>
+      <c r="F93" s="176"/>
+      <c r="G93" s="176"/>
       <c r="H93" s="114"/>
     </row>
     <row r="94" spans="1:8">
-      <c r="B94" s="135"/>
+      <c r="B94" s="132"/>
       <c r="C94" s="49" t="s">
         <v>16</v>
       </c>
@@ -8299,12 +8299,12 @@
       <c r="E94" s="106" t="s">
         <v>191</v>
       </c>
-      <c r="F94" s="209"/>
-      <c r="G94" s="209"/>
+      <c r="F94" s="176"/>
+      <c r="G94" s="176"/>
       <c r="H94" s="114"/>
     </row>
     <row r="95" spans="1:8">
-      <c r="B95" s="135"/>
+      <c r="B95" s="132"/>
       <c r="C95" s="49" t="s">
         <v>115</v>
       </c>
@@ -8312,12 +8312,12 @@
       <c r="E95" s="106" t="s">
         <v>191</v>
       </c>
-      <c r="F95" s="209"/>
-      <c r="G95" s="209"/>
+      <c r="F95" s="176"/>
+      <c r="G95" s="176"/>
       <c r="H95" s="114"/>
     </row>
     <row r="96" spans="1:8">
-      <c r="B96" s="135"/>
+      <c r="B96" s="132"/>
       <c r="C96" s="51" t="s">
         <v>262</v>
       </c>
@@ -8403,13 +8403,57 @@
     </row>
   </sheetData>
   <mergeCells count="74">
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="F91:G95"/>
-    <mergeCell ref="B93:B96"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="G25:L25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="J36:L36"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="J34:L34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="J35:L35"/>
     <mergeCell ref="O25:T25"/>
     <mergeCell ref="A33:B33"/>
     <mergeCell ref="C33:D33"/>
@@ -8426,57 +8470,13 @@
     <mergeCell ref="G27:H27"/>
     <mergeCell ref="G28:H28"/>
     <mergeCell ref="G29:H29"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="J36:L36"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="J34:L34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="J35:L35"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="G25:L25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="F91:G95"/>
+    <mergeCell ref="B93:B96"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="E40:F40"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8522,43 +8522,43 @@
       <c r="A5" s="45" t="s">
         <v>146</v>
       </c>
-      <c r="B5" s="140" t="s">
+      <c r="B5" s="145" t="s">
         <v>147</v>
       </c>
-      <c r="C5" s="138"/>
-      <c r="D5" s="139"/>
+      <c r="C5" s="130"/>
+      <c r="D5" s="131"/>
       <c r="E5" s="52" t="s">
         <v>243</v>
       </c>
       <c r="F5" s="45" t="s">
         <v>117</v>
       </c>
-      <c r="G5" s="161" t="s">
+      <c r="G5" s="148" t="s">
         <v>205</v>
       </c>
-      <c r="H5" s="204"/>
-      <c r="I5" s="159"/>
+      <c r="H5" s="180"/>
+      <c r="I5" s="149"/>
     </row>
     <row r="6" spans="1:16" ht="78.75" customHeight="1">
       <c r="A6" s="66">
         <v>43136.354166666664</v>
       </c>
-      <c r="B6" s="178" t="s">
+      <c r="B6" s="206" t="s">
         <v>235</v>
       </c>
-      <c r="C6" s="179"/>
-      <c r="D6" s="180"/>
+      <c r="C6" s="207"/>
+      <c r="D6" s="208"/>
       <c r="E6" s="45">
         <v>400</v>
       </c>
       <c r="F6" s="45">
         <v>200</v>
       </c>
-      <c r="G6" s="140">
+      <c r="G6" s="145">
         <v>200</v>
       </c>
-      <c r="H6" s="138"/>
-      <c r="I6" s="139"/>
+      <c r="H6" s="130"/>
+      <c r="I6" s="131"/>
     </row>
     <row r="8" spans="1:16" ht="30" customHeight="1"/>
     <row r="9" spans="1:16" ht="37.5" customHeight="1">
@@ -8570,30 +8570,30 @@
       <c r="A10" s="3"/>
     </row>
     <row r="11" spans="1:16" ht="27.75" customHeight="1">
-      <c r="A11" s="175" t="s">
+      <c r="A11" s="203" t="s">
         <v>159</v>
       </c>
-      <c r="B11" s="181" t="s">
+      <c r="B11" s="209" t="s">
         <v>125</v>
       </c>
-      <c r="C11" s="183"/>
-      <c r="D11" s="182"/>
-      <c r="E11" s="181" t="s">
+      <c r="C11" s="211"/>
+      <c r="D11" s="210"/>
+      <c r="E11" s="209" t="s">
         <v>220</v>
       </c>
-      <c r="F11" s="182"/>
-      <c r="G11" s="175" t="s">
+      <c r="F11" s="210"/>
+      <c r="G11" s="203" t="s">
         <v>243</v>
       </c>
-      <c r="H11" s="175" t="s">
+      <c r="H11" s="203" t="s">
         <v>240</v>
       </c>
-      <c r="I11" s="216" t="s">
+      <c r="I11" s="214" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="27.75" customHeight="1">
-      <c r="A12" s="176"/>
+      <c r="A12" s="204"/>
       <c r="B12" s="79" t="s">
         <v>265</v>
       </c>
@@ -8609,9 +8609,9 @@
       <c r="F12" s="80" t="s">
         <v>236</v>
       </c>
-      <c r="G12" s="176"/>
-      <c r="H12" s="176"/>
-      <c r="I12" s="217"/>
+      <c r="G12" s="204"/>
+      <c r="H12" s="204"/>
+      <c r="I12" s="215"/>
       <c r="J12" s="126" t="s">
         <v>287</v>
       </c>
@@ -8852,15 +8852,15 @@
       <c r="A20" s="78" t="s">
         <v>132</v>
       </c>
-      <c r="B20" s="184" t="s">
+      <c r="B20" s="200" t="s">
         <v>242</v>
       </c>
-      <c r="C20" s="185"/>
-      <c r="D20" s="186"/>
-      <c r="E20" s="184" t="s">
+      <c r="C20" s="201"/>
+      <c r="D20" s="202"/>
+      <c r="E20" s="200" t="s">
         <v>241</v>
       </c>
-      <c r="F20" s="186"/>
+      <c r="F20" s="202"/>
       <c r="G20" s="88">
         <v>2888</v>
       </c>
@@ -8872,10 +8872,10 @@
       </c>
     </row>
     <row r="21" spans="1:20" ht="23.25" customHeight="1">
-      <c r="E21" s="213" t="s">
+      <c r="E21" s="216" t="s">
         <v>274</v>
       </c>
-      <c r="F21" s="213"/>
+      <c r="F21" s="216"/>
     </row>
     <row r="22" spans="1:20" ht="30" customHeight="1"/>
     <row r="23" spans="1:20" ht="44.25" customHeight="1">
@@ -8884,82 +8884,82 @@
       </c>
     </row>
     <row r="24" spans="1:20" ht="25.5" customHeight="1">
-      <c r="A24" s="152" t="s">
+      <c r="A24" s="172" t="s">
         <v>214</v>
       </c>
-      <c r="B24" s="153"/>
-      <c r="C24" s="153" t="s">
+      <c r="B24" s="168"/>
+      <c r="C24" s="168" t="s">
         <v>272</v>
       </c>
-      <c r="D24" s="153"/>
-      <c r="E24" s="153"/>
-      <c r="F24" s="153"/>
-      <c r="G24" s="153"/>
+      <c r="D24" s="168"/>
+      <c r="E24" s="168"/>
+      <c r="F24" s="168"/>
+      <c r="G24" s="168"/>
       <c r="H24" s="112"/>
-      <c r="I24" s="187" t="s">
+      <c r="I24" s="185" t="s">
         <v>268</v>
       </c>
-      <c r="J24" s="187"/>
-      <c r="K24" s="157" t="s">
+      <c r="J24" s="185"/>
+      <c r="K24" s="166" t="s">
         <v>245</v>
       </c>
-      <c r="L24" s="158"/>
+      <c r="L24" s="167"/>
     </row>
     <row r="25" spans="1:20" ht="29.25" customHeight="1">
-      <c r="A25" s="160" t="s">
+      <c r="A25" s="150" t="s">
         <v>269</v>
       </c>
-      <c r="B25" s="161"/>
-      <c r="C25" s="204" t="s">
+      <c r="B25" s="148"/>
+      <c r="C25" s="180" t="s">
         <v>271</v>
       </c>
-      <c r="D25" s="204"/>
-      <c r="E25" s="214" t="s">
+      <c r="D25" s="180"/>
+      <c r="E25" s="217" t="s">
         <v>270</v>
       </c>
-      <c r="F25" s="214"/>
-      <c r="G25" s="214"/>
+      <c r="F25" s="217"/>
+      <c r="G25" s="217"/>
       <c r="H25" s="116"/>
-      <c r="I25" s="204" t="s">
+      <c r="I25" s="180" t="s">
         <v>267</v>
       </c>
-      <c r="J25" s="204"/>
-      <c r="K25" s="204"/>
-      <c r="L25" s="159"/>
-      <c r="O25" s="203" t="s">
+      <c r="J25" s="180"/>
+      <c r="K25" s="180"/>
+      <c r="L25" s="149"/>
+      <c r="O25" s="179" t="s">
         <v>204</v>
       </c>
-      <c r="P25" s="203"/>
-      <c r="Q25" s="203"/>
-      <c r="R25" s="203"/>
-      <c r="S25" s="203"/>
-      <c r="T25" s="203"/>
+      <c r="P25" s="179"/>
+      <c r="Q25" s="179"/>
+      <c r="R25" s="179"/>
+      <c r="S25" s="179"/>
+      <c r="T25" s="179"/>
     </row>
     <row r="26" spans="1:20" ht="29.25" customHeight="1">
-      <c r="A26" s="188" t="s">
+      <c r="A26" s="196" t="s">
         <v>76</v>
       </c>
-      <c r="B26" s="189"/>
-      <c r="C26" s="190" t="s">
+      <c r="B26" s="197"/>
+      <c r="C26" s="198" t="s">
         <v>226</v>
       </c>
-      <c r="D26" s="212"/>
-      <c r="E26" s="215" t="s">
+      <c r="D26" s="218"/>
+      <c r="E26" s="213" t="s">
         <v>219</v>
       </c>
-      <c r="F26" s="215"/>
-      <c r="G26" s="215" t="s">
+      <c r="F26" s="213"/>
+      <c r="G26" s="213" t="s">
         <v>218</v>
       </c>
-      <c r="H26" s="215"/>
-      <c r="I26" s="212" t="s">
+      <c r="H26" s="213"/>
+      <c r="I26" s="218" t="s">
         <v>220</v>
       </c>
-      <c r="J26" s="189"/>
-      <c r="K26" s="190" t="s">
+      <c r="J26" s="197"/>
+      <c r="K26" s="198" t="s">
         <v>224</v>
       </c>
-      <c r="L26" s="189"/>
+      <c r="L26" s="197"/>
       <c r="O26" s="59" t="s">
         <v>146</v>
       </c>
@@ -8980,26 +8980,26 @@
       </c>
     </row>
     <row r="27" spans="1:20" ht="29.25" customHeight="1">
-      <c r="A27" s="161" t="s">
+      <c r="A27" s="148" t="s">
         <v>227</v>
       </c>
-      <c r="B27" s="139"/>
-      <c r="C27" s="161" t="s">
+      <c r="B27" s="131"/>
+      <c r="C27" s="148" t="s">
         <v>229</v>
       </c>
-      <c r="D27" s="138"/>
-      <c r="E27" s="196"/>
-      <c r="F27" s="196"/>
-      <c r="G27" s="196"/>
-      <c r="H27" s="196"/>
+      <c r="D27" s="130"/>
+      <c r="E27" s="184"/>
+      <c r="F27" s="184"/>
+      <c r="G27" s="184"/>
+      <c r="H27" s="184"/>
       <c r="I27" s="192" t="s">
         <v>244</v>
       </c>
       <c r="J27" s="193"/>
-      <c r="K27" s="161" t="s">
+      <c r="K27" s="148" t="s">
         <v>225</v>
       </c>
-      <c r="L27" s="139"/>
+      <c r="L27" s="131"/>
       <c r="O27" s="49"/>
       <c r="P27" s="49"/>
       <c r="Q27" s="49"/>
@@ -9010,26 +9010,26 @@
       <c r="T27" s="49"/>
     </row>
     <row r="28" spans="1:20" ht="29.25" customHeight="1">
-      <c r="A28" s="161" t="s">
+      <c r="A28" s="148" t="s">
         <v>227</v>
       </c>
-      <c r="B28" s="139"/>
-      <c r="C28" s="161" t="s">
+      <c r="B28" s="131"/>
+      <c r="C28" s="148" t="s">
         <v>230</v>
       </c>
-      <c r="D28" s="138"/>
-      <c r="E28" s="196"/>
-      <c r="F28" s="196"/>
-      <c r="G28" s="196"/>
-      <c r="H28" s="196"/>
+      <c r="D28" s="130"/>
+      <c r="E28" s="184"/>
+      <c r="F28" s="184"/>
+      <c r="G28" s="184"/>
+      <c r="H28" s="184"/>
       <c r="I28" s="194" t="s">
         <v>274</v>
       </c>
       <c r="J28" s="195"/>
-      <c r="K28" s="161" t="s">
+      <c r="K28" s="148" t="s">
         <v>225</v>
       </c>
-      <c r="L28" s="139"/>
+      <c r="L28" s="131"/>
       <c r="O28" s="49"/>
       <c r="P28" s="49"/>
       <c r="Q28" s="49"/>
@@ -9038,87 +9038,87 @@
       <c r="T28" s="49"/>
     </row>
     <row r="29" spans="1:20" ht="29.25" customHeight="1">
-      <c r="A29" s="161" t="s">
+      <c r="A29" s="148" t="s">
         <v>228</v>
       </c>
-      <c r="B29" s="139"/>
-      <c r="C29" s="161" t="s">
+      <c r="B29" s="131"/>
+      <c r="C29" s="148" t="s">
         <v>231</v>
       </c>
-      <c r="D29" s="138"/>
-      <c r="E29" s="196"/>
-      <c r="F29" s="196"/>
-      <c r="G29" s="196"/>
-      <c r="H29" s="196"/>
-      <c r="I29" s="138"/>
-      <c r="J29" s="139"/>
-      <c r="K29" s="161" t="s">
+      <c r="D29" s="130"/>
+      <c r="E29" s="184"/>
+      <c r="F29" s="184"/>
+      <c r="G29" s="184"/>
+      <c r="H29" s="184"/>
+      <c r="I29" s="130"/>
+      <c r="J29" s="131"/>
+      <c r="K29" s="148" t="s">
         <v>225</v>
       </c>
-      <c r="L29" s="139"/>
+      <c r="L29" s="131"/>
     </row>
     <row r="30" spans="1:20" ht="29.25" customHeight="1">
-      <c r="A30" s="161" t="s">
+      <c r="A30" s="148" t="s">
         <v>228</v>
       </c>
-      <c r="B30" s="139"/>
-      <c r="C30" s="161" t="s">
+      <c r="B30" s="131"/>
+      <c r="C30" s="148" t="s">
         <v>232</v>
       </c>
-      <c r="D30" s="138"/>
-      <c r="E30" s="196"/>
-      <c r="F30" s="196"/>
-      <c r="G30" s="196"/>
-      <c r="H30" s="196"/>
-      <c r="I30" s="138"/>
-      <c r="J30" s="139"/>
-      <c r="K30" s="161" t="s">
+      <c r="D30" s="130"/>
+      <c r="E30" s="184"/>
+      <c r="F30" s="184"/>
+      <c r="G30" s="184"/>
+      <c r="H30" s="184"/>
+      <c r="I30" s="130"/>
+      <c r="J30" s="131"/>
+      <c r="K30" s="148" t="s">
         <v>225</v>
       </c>
-      <c r="L30" s="139"/>
+      <c r="L30" s="131"/>
     </row>
     <row r="31" spans="1:20" ht="29.25" customHeight="1"/>
     <row r="32" spans="1:20" ht="29.25" customHeight="1">
-      <c r="A32" s="152" t="s">
+      <c r="A32" s="172" t="s">
         <v>214</v>
       </c>
-      <c r="B32" s="153"/>
-      <c r="C32" s="153" t="s">
+      <c r="B32" s="168"/>
+      <c r="C32" s="168" t="s">
         <v>272</v>
       </c>
-      <c r="D32" s="153"/>
-      <c r="E32" s="153"/>
-      <c r="F32" s="153"/>
-      <c r="G32" s="153"/>
+      <c r="D32" s="168"/>
+      <c r="E32" s="168"/>
+      <c r="F32" s="168"/>
+      <c r="G32" s="168"/>
       <c r="H32" s="112"/>
-      <c r="I32" s="157" t="s">
+      <c r="I32" s="166" t="s">
         <v>268</v>
       </c>
-      <c r="J32" s="157"/>
-      <c r="K32" s="187" t="s">
+      <c r="J32" s="166"/>
+      <c r="K32" s="185" t="s">
         <v>245</v>
       </c>
-      <c r="L32" s="187"/>
+      <c r="L32" s="185"/>
     </row>
     <row r="33" spans="1:12" ht="29.25" customHeight="1">
-      <c r="A33" s="160" t="s">
+      <c r="A33" s="150" t="s">
         <v>247</v>
       </c>
-      <c r="B33" s="161"/>
-      <c r="C33" s="204"/>
-      <c r="D33" s="204"/>
-      <c r="E33" s="204" t="s">
+      <c r="B33" s="148"/>
+      <c r="C33" s="180"/>
+      <c r="D33" s="180"/>
+      <c r="E33" s="180" t="s">
         <v>271</v>
       </c>
-      <c r="F33" s="204"/>
-      <c r="G33" s="204"/>
+      <c r="F33" s="180"/>
+      <c r="G33" s="180"/>
       <c r="H33" s="67"/>
-      <c r="I33" s="204" t="s">
+      <c r="I33" s="180" t="s">
         <v>267</v>
       </c>
-      <c r="J33" s="204"/>
-      <c r="K33" s="204"/>
-      <c r="L33" s="159"/>
+      <c r="J33" s="180"/>
+      <c r="K33" s="180"/>
+      <c r="L33" s="149"/>
     </row>
     <row r="34" spans="1:12" ht="29.25" customHeight="1">
       <c r="A34" s="89" t="s">
@@ -9127,52 +9127,52 @@
       <c r="B34" s="91" t="s">
         <v>249</v>
       </c>
-      <c r="C34" s="197" t="s">
+      <c r="C34" s="186" t="s">
         <v>250</v>
       </c>
-      <c r="D34" s="198"/>
-      <c r="E34" s="197" t="s">
+      <c r="D34" s="187"/>
+      <c r="E34" s="186" t="s">
         <v>251</v>
       </c>
-      <c r="F34" s="198"/>
-      <c r="G34" s="199" t="s">
+      <c r="F34" s="187"/>
+      <c r="G34" s="188" t="s">
         <v>236</v>
       </c>
-      <c r="H34" s="200"/>
-      <c r="I34" s="201"/>
-      <c r="J34" s="199" t="s">
+      <c r="H34" s="189"/>
+      <c r="I34" s="190"/>
+      <c r="J34" s="188" t="s">
         <v>224</v>
       </c>
-      <c r="K34" s="202"/>
-      <c r="L34" s="201"/>
+      <c r="K34" s="191"/>
+      <c r="L34" s="190"/>
     </row>
     <row r="35" spans="1:12" ht="29.25" customHeight="1">
       <c r="A35" s="49"/>
       <c r="B35" s="49"/>
-      <c r="C35" s="135"/>
-      <c r="D35" s="135"/>
-      <c r="E35" s="135"/>
-      <c r="F35" s="135"/>
-      <c r="G35" s="140"/>
-      <c r="H35" s="138"/>
-      <c r="I35" s="139"/>
-      <c r="J35" s="140"/>
-      <c r="K35" s="138"/>
-      <c r="L35" s="139"/>
+      <c r="C35" s="132"/>
+      <c r="D35" s="132"/>
+      <c r="E35" s="132"/>
+      <c r="F35" s="132"/>
+      <c r="G35" s="145"/>
+      <c r="H35" s="130"/>
+      <c r="I35" s="131"/>
+      <c r="J35" s="145"/>
+      <c r="K35" s="130"/>
+      <c r="L35" s="131"/>
     </row>
     <row r="36" spans="1:12" ht="29.25" customHeight="1">
       <c r="A36" s="49"/>
       <c r="B36" s="49"/>
-      <c r="C36" s="135"/>
-      <c r="D36" s="135"/>
-      <c r="E36" s="135"/>
-      <c r="F36" s="135"/>
-      <c r="G36" s="140"/>
-      <c r="H36" s="138"/>
-      <c r="I36" s="139"/>
-      <c r="J36" s="140"/>
-      <c r="K36" s="138"/>
-      <c r="L36" s="139"/>
+      <c r="C36" s="132"/>
+      <c r="D36" s="132"/>
+      <c r="E36" s="132"/>
+      <c r="F36" s="132"/>
+      <c r="G36" s="145"/>
+      <c r="H36" s="130"/>
+      <c r="I36" s="131"/>
+      <c r="J36" s="145"/>
+      <c r="K36" s="130"/>
+      <c r="L36" s="131"/>
     </row>
     <row r="38" spans="1:12" ht="28.5" customHeight="1"/>
     <row r="39" spans="1:12" ht="48" customHeight="1">
@@ -9193,16 +9193,16 @@
       <c r="D40" s="118" t="s">
         <v>283</v>
       </c>
-      <c r="E40" s="210" t="s">
+      <c r="E40" s="177" t="s">
         <v>284</v>
       </c>
-      <c r="F40" s="211"/>
+      <c r="F40" s="178"/>
     </row>
     <row r="41" spans="1:12" ht="45" customHeight="1">
-      <c r="A41" s="218" t="s">
+      <c r="A41" s="212" t="s">
         <v>278</v>
       </c>
-      <c r="B41" s="218"/>
+      <c r="B41" s="212"/>
       <c r="D41" s="50" t="s">
         <v>279</v>
       </c>
@@ -9448,7 +9448,7 @@
       </c>
     </row>
     <row r="90" spans="1:8">
-      <c r="B90" s="135" t="s">
+      <c r="B90" s="132" t="s">
         <v>190</v>
       </c>
       <c r="C90" s="49" t="s">
@@ -9458,14 +9458,14 @@
       <c r="E90" s="106" t="s">
         <v>191</v>
       </c>
-      <c r="F90" s="208" t="s">
+      <c r="F90" s="175" t="s">
         <v>261</v>
       </c>
-      <c r="G90" s="209"/>
+      <c r="G90" s="176"/>
       <c r="H90" s="114"/>
     </row>
     <row r="91" spans="1:8">
-      <c r="B91" s="135"/>
+      <c r="B91" s="132"/>
       <c r="C91" s="49" t="s">
         <v>127</v>
       </c>
@@ -9473,12 +9473,12 @@
       <c r="E91" s="106" t="s">
         <v>191</v>
       </c>
-      <c r="F91" s="209"/>
-      <c r="G91" s="209"/>
+      <c r="F91" s="176"/>
+      <c r="G91" s="176"/>
       <c r="H91" s="114"/>
     </row>
     <row r="92" spans="1:8">
-      <c r="B92" s="135" t="s">
+      <c r="B92" s="132" t="s">
         <v>192</v>
       </c>
       <c r="C92" s="49" t="s">
@@ -9488,12 +9488,12 @@
       <c r="E92" s="106" t="s">
         <v>191</v>
       </c>
-      <c r="F92" s="209"/>
-      <c r="G92" s="209"/>
+      <c r="F92" s="176"/>
+      <c r="G92" s="176"/>
       <c r="H92" s="114"/>
     </row>
     <row r="93" spans="1:8">
-      <c r="B93" s="135"/>
+      <c r="B93" s="132"/>
       <c r="C93" s="49" t="s">
         <v>16</v>
       </c>
@@ -9501,12 +9501,12 @@
       <c r="E93" s="106" t="s">
         <v>191</v>
       </c>
-      <c r="F93" s="209"/>
-      <c r="G93" s="209"/>
+      <c r="F93" s="176"/>
+      <c r="G93" s="176"/>
       <c r="H93" s="114"/>
     </row>
     <row r="94" spans="1:8">
-      <c r="B94" s="135"/>
+      <c r="B94" s="132"/>
       <c r="C94" s="49" t="s">
         <v>115</v>
       </c>
@@ -9514,12 +9514,12 @@
       <c r="E94" s="106" t="s">
         <v>191</v>
       </c>
-      <c r="F94" s="209"/>
-      <c r="G94" s="209"/>
+      <c r="F94" s="176"/>
+      <c r="G94" s="176"/>
       <c r="H94" s="114"/>
     </row>
     <row r="95" spans="1:8">
-      <c r="B95" s="135"/>
+      <c r="B95" s="132"/>
       <c r="C95" s="51" t="s">
         <v>262</v>
       </c>
@@ -9605,6 +9605,67 @@
     </row>
   </sheetData>
   <mergeCells count="77">
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="O25:T25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="J34:L34"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="I33:L33"/>
+    <mergeCell ref="B90:B91"/>
+    <mergeCell ref="F90:G94"/>
+    <mergeCell ref="B92:B95"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="I25:L25"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="J35:L35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="K29:L29"/>
     <mergeCell ref="E40:F40"/>
     <mergeCell ref="A41:B41"/>
     <mergeCell ref="E33:G33"/>
@@ -9621,67 +9682,6 @@
     <mergeCell ref="I32:J32"/>
     <mergeCell ref="K32:L32"/>
     <mergeCell ref="C34:D34"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="B90:B91"/>
-    <mergeCell ref="F90:G94"/>
-    <mergeCell ref="B92:B95"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="I25:L25"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="J35:L35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="J34:L34"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="I33:L33"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="O25:T25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:F11"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/alice/20180302后台财务更新.xlsx
+++ b/doc/alice/20180302后台财务更新.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="330">
   <si>
     <t>收：</t>
   </si>
@@ -1319,6 +1319,10 @@
   </si>
   <si>
     <t>orgzTurnover</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>资金账单statisticsCamp/campBill</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
@@ -2580,15 +2584,6 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2598,121 +2593,229 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2727,124 +2830,25 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2885,7 +2889,7 @@
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2938,7 +2942,7 @@
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2991,7 +2995,7 @@
         <xdr:cNvPr id="5" name="图片 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3039,7 +3043,7 @@
         <xdr:cNvPr id="6" name="图片 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3429,41 +3433,41 @@
       </c>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="137" t="s">
+      <c r="A10" s="133" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="137" t="s">
+      <c r="B10" s="133" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="139" t="s">
+      <c r="C10" s="137" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="130"/>
-      <c r="E10" s="131"/>
-      <c r="F10" s="139" t="s">
+      <c r="D10" s="138"/>
+      <c r="E10" s="139"/>
+      <c r="F10" s="137" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="130"/>
-      <c r="H10" s="131"/>
-      <c r="I10" s="139" t="s">
+      <c r="G10" s="138"/>
+      <c r="H10" s="139"/>
+      <c r="I10" s="137" t="s">
         <v>12</v>
       </c>
-      <c r="J10" s="130"/>
-      <c r="K10" s="131"/>
-      <c r="L10" s="130" t="s">
+      <c r="J10" s="138"/>
+      <c r="K10" s="139"/>
+      <c r="L10" s="138" t="s">
         <v>13</v>
       </c>
-      <c r="M10" s="130"/>
-      <c r="N10" s="131"/>
-      <c r="O10" s="132" t="s">
+      <c r="M10" s="138"/>
+      <c r="N10" s="139"/>
+      <c r="O10" s="135" t="s">
         <v>14</v>
       </c>
-      <c r="P10" s="132"/>
-      <c r="Q10" s="132"/>
+      <c r="P10" s="135"/>
+      <c r="Q10" s="135"/>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="138"/>
-      <c r="B11" s="138"/>
+      <c r="A11" s="134"/>
+      <c r="B11" s="134"/>
       <c r="C11" s="5" t="s">
         <v>15</v>
       </c>
@@ -3511,7 +3515,7 @@
       </c>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="132" t="s">
+      <c r="A12" s="135" t="s">
         <v>18</v>
       </c>
       <c r="B12" s="5">
@@ -3561,7 +3565,7 @@
       </c>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="132"/>
+      <c r="A13" s="135"/>
       <c r="B13" s="5">
         <v>88</v>
       </c>
@@ -3609,7 +3613,7 @@
       </c>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="132"/>
+      <c r="A14" s="135"/>
       <c r="B14" s="5">
         <v>100</v>
       </c>
@@ -3657,7 +3661,7 @@
       </c>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="132"/>
+      <c r="A15" s="135"/>
       <c r="B15" s="5" t="s">
         <v>19</v>
       </c>
@@ -3714,7 +3718,7 @@
       </c>
     </row>
     <row r="16" spans="1:17" hidden="1">
-      <c r="A16" s="137" t="s">
+      <c r="A16" s="133" t="s">
         <v>20</v>
       </c>
       <c r="B16" s="5">
@@ -3761,7 +3765,7 @@
       <c r="Q16" s="40"/>
     </row>
     <row r="17" spans="1:17" hidden="1">
-      <c r="A17" s="138"/>
+      <c r="A17" s="134"/>
       <c r="B17" s="5" t="s">
         <v>19</v>
       </c>
@@ -3815,7 +3819,7 @@
       <c r="Q17" s="40"/>
     </row>
     <row r="18" spans="1:17">
-      <c r="A18" s="132" t="s">
+      <c r="A18" s="135" t="s">
         <v>21</v>
       </c>
       <c r="B18" s="5">
@@ -3868,7 +3872,7 @@
       </c>
     </row>
     <row r="19" spans="1:17">
-      <c r="A19" s="132"/>
+      <c r="A19" s="135"/>
       <c r="B19" s="5">
         <v>180</v>
       </c>
@@ -3919,7 +3923,7 @@
       </c>
     </row>
     <row r="20" spans="1:17">
-      <c r="A20" s="132"/>
+      <c r="A20" s="135"/>
       <c r="B20" s="5">
         <v>240</v>
       </c>
@@ -3970,7 +3974,7 @@
       </c>
     </row>
     <row r="21" spans="1:17">
-      <c r="A21" s="132"/>
+      <c r="A21" s="135"/>
       <c r="B21" s="5" t="s">
         <v>19</v>
       </c>
@@ -4144,16 +4148,16 @@
       <c r="C47" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D47" s="133" t="s">
+      <c r="D47" s="130" t="s">
         <v>41</v>
       </c>
-      <c r="E47" s="134"/>
-      <c r="F47" s="134"/>
-      <c r="G47" s="134"/>
-      <c r="H47" s="134"/>
-      <c r="I47" s="134"/>
-      <c r="J47" s="134"/>
-      <c r="K47" s="135"/>
+      <c r="E47" s="131"/>
+      <c r="F47" s="131"/>
+      <c r="G47" s="131"/>
+      <c r="H47" s="131"/>
+      <c r="I47" s="131"/>
+      <c r="J47" s="131"/>
+      <c r="K47" s="132"/>
       <c r="L47" t="s">
         <v>42</v>
       </c>
@@ -4169,16 +4173,16 @@
       <c r="C48" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D48" s="133" t="s">
+      <c r="D48" s="130" t="s">
         <v>44</v>
       </c>
-      <c r="E48" s="134"/>
-      <c r="F48" s="134"/>
-      <c r="G48" s="134"/>
-      <c r="H48" s="134"/>
-      <c r="I48" s="134"/>
-      <c r="J48" s="134"/>
-      <c r="K48" s="135"/>
+      <c r="E48" s="131"/>
+      <c r="F48" s="131"/>
+      <c r="G48" s="131"/>
+      <c r="H48" s="131"/>
+      <c r="I48" s="131"/>
+      <c r="J48" s="131"/>
+      <c r="K48" s="132"/>
       <c r="L48" t="s">
         <v>45</v>
       </c>
@@ -4238,16 +4242,16 @@
       <c r="C52" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D52" s="133" t="s">
+      <c r="D52" s="130" t="s">
         <v>51</v>
       </c>
-      <c r="E52" s="134"/>
-      <c r="F52" s="134"/>
-      <c r="G52" s="134"/>
-      <c r="H52" s="134"/>
-      <c r="I52" s="134"/>
-      <c r="J52" s="134"/>
-      <c r="K52" s="135"/>
+      <c r="E52" s="131"/>
+      <c r="F52" s="131"/>
+      <c r="G52" s="131"/>
+      <c r="H52" s="131"/>
+      <c r="I52" s="131"/>
+      <c r="J52" s="131"/>
+      <c r="K52" s="132"/>
       <c r="L52" t="s">
         <v>52</v>
       </c>
@@ -4262,16 +4266,16 @@
       <c r="C53" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D53" s="133" t="s">
+      <c r="D53" s="130" t="s">
         <v>53</v>
       </c>
-      <c r="E53" s="134"/>
-      <c r="F53" s="134"/>
-      <c r="G53" s="134"/>
-      <c r="H53" s="134"/>
-      <c r="I53" s="134"/>
-      <c r="J53" s="134"/>
-      <c r="K53" s="135"/>
+      <c r="E53" s="131"/>
+      <c r="F53" s="131"/>
+      <c r="G53" s="131"/>
+      <c r="H53" s="131"/>
+      <c r="I53" s="131"/>
+      <c r="J53" s="131"/>
+      <c r="K53" s="132"/>
       <c r="L53" t="s">
         <v>54</v>
       </c>
@@ -4340,16 +4344,16 @@
       <c r="C57" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D57" s="133" t="s">
+      <c r="D57" s="130" t="s">
         <v>51</v>
       </c>
-      <c r="E57" s="134"/>
-      <c r="F57" s="134"/>
-      <c r="G57" s="134"/>
-      <c r="H57" s="134"/>
-      <c r="I57" s="134"/>
-      <c r="J57" s="134"/>
-      <c r="K57" s="135"/>
+      <c r="E57" s="131"/>
+      <c r="F57" s="131"/>
+      <c r="G57" s="131"/>
+      <c r="H57" s="131"/>
+      <c r="I57" s="131"/>
+      <c r="J57" s="131"/>
+      <c r="K57" s="132"/>
       <c r="L57" t="s">
         <v>52</v>
       </c>
@@ -4364,16 +4368,16 @@
       <c r="C58" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D58" s="133" t="s">
+      <c r="D58" s="130" t="s">
         <v>53</v>
       </c>
-      <c r="E58" s="134"/>
-      <c r="F58" s="134"/>
-      <c r="G58" s="134"/>
-      <c r="H58" s="134"/>
-      <c r="I58" s="134"/>
-      <c r="J58" s="134"/>
-      <c r="K58" s="135"/>
+      <c r="E58" s="131"/>
+      <c r="F58" s="131"/>
+      <c r="G58" s="131"/>
+      <c r="H58" s="131"/>
+      <c r="I58" s="131"/>
+      <c r="J58" s="131"/>
+      <c r="K58" s="132"/>
       <c r="L58" t="s">
         <v>54</v>
       </c>
@@ -4400,6 +4404,11 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="L10:N10"/>
+    <mergeCell ref="O10:Q10"/>
+    <mergeCell ref="D53:K53"/>
+    <mergeCell ref="D56:K56"/>
+    <mergeCell ref="D57:K57"/>
     <mergeCell ref="D58:K58"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A12:A15"/>
@@ -4414,11 +4423,6 @@
     <mergeCell ref="C10:E10"/>
     <mergeCell ref="F10:H10"/>
     <mergeCell ref="I10:K10"/>
-    <mergeCell ref="L10:N10"/>
-    <mergeCell ref="O10:Q10"/>
-    <mergeCell ref="D53:K53"/>
-    <mergeCell ref="D56:K56"/>
-    <mergeCell ref="D57:K57"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
@@ -4525,16 +4529,16 @@
       <c r="C21" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D21" s="133" t="s">
+      <c r="D21" s="130" t="s">
         <v>41</v>
       </c>
-      <c r="E21" s="134"/>
-      <c r="F21" s="134"/>
-      <c r="G21" s="134"/>
-      <c r="H21" s="134"/>
-      <c r="I21" s="134"/>
-      <c r="J21" s="134"/>
-      <c r="K21" s="135"/>
+      <c r="E21" s="131"/>
+      <c r="F21" s="131"/>
+      <c r="G21" s="131"/>
+      <c r="H21" s="131"/>
+      <c r="I21" s="131"/>
+      <c r="J21" s="131"/>
+      <c r="K21" s="132"/>
       <c r="T21" s="13"/>
     </row>
     <row r="22" spans="1:20">
@@ -4547,16 +4551,16 @@
       <c r="C22" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D22" s="133" t="s">
+      <c r="D22" s="130" t="s">
         <v>44</v>
       </c>
-      <c r="E22" s="134"/>
-      <c r="F22" s="134"/>
-      <c r="G22" s="134"/>
-      <c r="H22" s="134"/>
-      <c r="I22" s="134"/>
-      <c r="J22" s="134"/>
-      <c r="K22" s="135"/>
+      <c r="E22" s="131"/>
+      <c r="F22" s="131"/>
+      <c r="G22" s="131"/>
+      <c r="H22" s="131"/>
+      <c r="I22" s="131"/>
+      <c r="J22" s="131"/>
+      <c r="K22" s="132"/>
       <c r="T22" s="13"/>
     </row>
     <row r="24" spans="1:20">
@@ -4610,16 +4614,16 @@
       <c r="C26" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D26" s="133" t="s">
+      <c r="D26" s="130" t="s">
         <v>51</v>
       </c>
-      <c r="E26" s="134"/>
-      <c r="F26" s="134"/>
-      <c r="G26" s="134"/>
-      <c r="H26" s="134"/>
-      <c r="I26" s="134"/>
-      <c r="J26" s="134"/>
-      <c r="K26" s="135"/>
+      <c r="E26" s="131"/>
+      <c r="F26" s="131"/>
+      <c r="G26" s="131"/>
+      <c r="H26" s="131"/>
+      <c r="I26" s="131"/>
+      <c r="J26" s="131"/>
+      <c r="K26" s="132"/>
     </row>
     <row r="27" spans="1:20">
       <c r="A27" s="4" t="s">
@@ -4631,16 +4635,16 @@
       <c r="C27" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D27" s="133" t="s">
+      <c r="D27" s="130" t="s">
         <v>53</v>
       </c>
-      <c r="E27" s="134"/>
-      <c r="F27" s="134"/>
-      <c r="G27" s="134"/>
-      <c r="H27" s="134"/>
-      <c r="I27" s="134"/>
-      <c r="J27" s="134"/>
-      <c r="K27" s="135"/>
+      <c r="E27" s="131"/>
+      <c r="F27" s="131"/>
+      <c r="G27" s="131"/>
+      <c r="H27" s="131"/>
+      <c r="I27" s="131"/>
+      <c r="J27" s="131"/>
+      <c r="K27" s="132"/>
     </row>
     <row r="28" spans="1:20">
       <c r="C28" s="9"/>
@@ -4703,16 +4707,16 @@
       <c r="C31" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D31" s="133" t="s">
+      <c r="D31" s="130" t="s">
         <v>51</v>
       </c>
-      <c r="E31" s="134"/>
-      <c r="F31" s="134"/>
-      <c r="G31" s="134"/>
-      <c r="H31" s="134"/>
-      <c r="I31" s="134"/>
-      <c r="J31" s="134"/>
-      <c r="K31" s="135"/>
+      <c r="E31" s="131"/>
+      <c r="F31" s="131"/>
+      <c r="G31" s="131"/>
+      <c r="H31" s="131"/>
+      <c r="I31" s="131"/>
+      <c r="J31" s="131"/>
+      <c r="K31" s="132"/>
     </row>
     <row r="32" spans="1:20">
       <c r="A32" s="4" t="s">
@@ -4724,16 +4728,16 @@
       <c r="C32" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D32" s="133" t="s">
+      <c r="D32" s="130" t="s">
         <v>53</v>
       </c>
-      <c r="E32" s="134"/>
-      <c r="F32" s="134"/>
-      <c r="G32" s="134"/>
-      <c r="H32" s="134"/>
-      <c r="I32" s="134"/>
-      <c r="J32" s="134"/>
-      <c r="K32" s="135"/>
+      <c r="E32" s="131"/>
+      <c r="F32" s="131"/>
+      <c r="G32" s="131"/>
+      <c r="H32" s="131"/>
+      <c r="I32" s="131"/>
+      <c r="J32" s="131"/>
+      <c r="K32" s="132"/>
     </row>
     <row r="33" spans="1:20">
       <c r="A33" t="s">
@@ -4852,21 +4856,21 @@
       <c r="H49" s="136"/>
       <c r="I49" s="136"/>
       <c r="J49" s="136"/>
-      <c r="K49" s="140"/>
+      <c r="K49" s="146"/>
       <c r="T49" s="13"/>
     </row>
     <row r="50" spans="1:20">
       <c r="A50" s="26"/>
       <c r="B50" s="4"/>
       <c r="C50" s="5"/>
-      <c r="D50" s="133"/>
-      <c r="E50" s="134"/>
-      <c r="F50" s="134"/>
-      <c r="G50" s="134"/>
-      <c r="H50" s="134"/>
-      <c r="I50" s="134"/>
-      <c r="J50" s="134"/>
-      <c r="K50" s="141"/>
+      <c r="D50" s="130"/>
+      <c r="E50" s="131"/>
+      <c r="F50" s="131"/>
+      <c r="G50" s="131"/>
+      <c r="H50" s="131"/>
+      <c r="I50" s="131"/>
+      <c r="J50" s="131"/>
+      <c r="K50" s="145"/>
       <c r="L50" t="s">
         <v>80</v>
       </c>
@@ -4876,14 +4880,14 @@
       <c r="A51" s="26"/>
       <c r="B51" s="4"/>
       <c r="C51" s="5"/>
-      <c r="D51" s="133"/>
-      <c r="E51" s="134"/>
-      <c r="F51" s="134"/>
-      <c r="G51" s="134"/>
-      <c r="H51" s="134"/>
-      <c r="I51" s="134"/>
-      <c r="J51" s="134"/>
-      <c r="K51" s="141"/>
+      <c r="D51" s="130"/>
+      <c r="E51" s="131"/>
+      <c r="F51" s="131"/>
+      <c r="G51" s="131"/>
+      <c r="H51" s="131"/>
+      <c r="I51" s="131"/>
+      <c r="J51" s="131"/>
+      <c r="K51" s="145"/>
       <c r="T51" s="13"/>
     </row>
     <row r="52" spans="1:20">
@@ -5047,49 +5051,49 @@
       <c r="B64" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C64" s="132" t="s">
+      <c r="C64" s="135" t="s">
         <v>90</v>
       </c>
-      <c r="D64" s="132"/>
-      <c r="E64" s="132" t="s">
+      <c r="D64" s="135"/>
+      <c r="E64" s="135" t="s">
         <v>91</v>
       </c>
-      <c r="F64" s="132"/>
-      <c r="G64" s="145" t="s">
+      <c r="F64" s="135"/>
+      <c r="G64" s="140" t="s">
         <v>92</v>
       </c>
-      <c r="H64" s="131"/>
-      <c r="I64" s="145" t="s">
+      <c r="H64" s="139"/>
+      <c r="I64" s="140" t="s">
         <v>93</v>
       </c>
-      <c r="J64" s="130"/>
-      <c r="K64" s="146"/>
+      <c r="J64" s="138"/>
+      <c r="K64" s="141"/>
     </row>
     <row r="65" spans="1:11">
       <c r="A65" s="26"/>
       <c r="B65" s="4"/>
-      <c r="C65" s="132"/>
-      <c r="D65" s="132"/>
-      <c r="E65" s="132"/>
-      <c r="F65" s="132"/>
-      <c r="G65" s="145"/>
-      <c r="H65" s="131"/>
-      <c r="I65" s="145"/>
-      <c r="J65" s="130"/>
-      <c r="K65" s="146"/>
+      <c r="C65" s="135"/>
+      <c r="D65" s="135"/>
+      <c r="E65" s="135"/>
+      <c r="F65" s="135"/>
+      <c r="G65" s="140"/>
+      <c r="H65" s="139"/>
+      <c r="I65" s="140"/>
+      <c r="J65" s="138"/>
+      <c r="K65" s="141"/>
     </row>
     <row r="66" spans="1:11">
       <c r="A66" s="26"/>
       <c r="B66" s="4"/>
-      <c r="C66" s="132"/>
-      <c r="D66" s="132"/>
-      <c r="E66" s="132"/>
-      <c r="F66" s="132"/>
-      <c r="G66" s="145"/>
-      <c r="H66" s="131"/>
-      <c r="I66" s="145"/>
-      <c r="J66" s="130"/>
-      <c r="K66" s="146"/>
+      <c r="C66" s="135"/>
+      <c r="D66" s="135"/>
+      <c r="E66" s="135"/>
+      <c r="F66" s="135"/>
+      <c r="G66" s="140"/>
+      <c r="H66" s="139"/>
+      <c r="I66" s="140"/>
+      <c r="J66" s="138"/>
+      <c r="K66" s="141"/>
     </row>
     <row r="67" spans="1:11">
       <c r="A67" s="22"/>
@@ -5110,6 +5114,28 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="D20:K20"/>
+    <mergeCell ref="D21:K21"/>
+    <mergeCell ref="D22:K22"/>
+    <mergeCell ref="D25:K25"/>
+    <mergeCell ref="D26:K26"/>
+    <mergeCell ref="D27:K27"/>
+    <mergeCell ref="D30:K30"/>
+    <mergeCell ref="D31:K31"/>
+    <mergeCell ref="D32:K32"/>
+    <mergeCell ref="D49:K49"/>
+    <mergeCell ref="D50:K50"/>
+    <mergeCell ref="D51:K51"/>
+    <mergeCell ref="C54:K54"/>
+    <mergeCell ref="C55:K55"/>
+    <mergeCell ref="C56:K56"/>
+    <mergeCell ref="C59:K59"/>
+    <mergeCell ref="C60:K60"/>
+    <mergeCell ref="C61:K61"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="G64:H64"/>
+    <mergeCell ref="I64:K64"/>
     <mergeCell ref="C65:D65"/>
     <mergeCell ref="E65:F65"/>
     <mergeCell ref="G65:H65"/>
@@ -5118,28 +5144,6 @@
     <mergeCell ref="E66:F66"/>
     <mergeCell ref="G66:H66"/>
     <mergeCell ref="I66:K66"/>
-    <mergeCell ref="C59:K59"/>
-    <mergeCell ref="C60:K60"/>
-    <mergeCell ref="C61:K61"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="E64:F64"/>
-    <mergeCell ref="G64:H64"/>
-    <mergeCell ref="I64:K64"/>
-    <mergeCell ref="D50:K50"/>
-    <mergeCell ref="D51:K51"/>
-    <mergeCell ref="C54:K54"/>
-    <mergeCell ref="C55:K55"/>
-    <mergeCell ref="C56:K56"/>
-    <mergeCell ref="D27:K27"/>
-    <mergeCell ref="D30:K30"/>
-    <mergeCell ref="D31:K31"/>
-    <mergeCell ref="D32:K32"/>
-    <mergeCell ref="D49:K49"/>
-    <mergeCell ref="D20:K20"/>
-    <mergeCell ref="D21:K21"/>
-    <mergeCell ref="D22:K22"/>
-    <mergeCell ref="D25:K25"/>
-    <mergeCell ref="D26:K26"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
@@ -5171,41 +5175,41 @@
       </c>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="137" t="s">
+      <c r="A3" s="133" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="137" t="s">
+      <c r="B3" s="133" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="139" t="s">
+      <c r="C3" s="137" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="130"/>
-      <c r="E3" s="131"/>
-      <c r="F3" s="139" t="s">
+      <c r="D3" s="138"/>
+      <c r="E3" s="139"/>
+      <c r="F3" s="137" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="130"/>
-      <c r="H3" s="131"/>
-      <c r="I3" s="139" t="s">
+      <c r="G3" s="138"/>
+      <c r="H3" s="139"/>
+      <c r="I3" s="137" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="130"/>
-      <c r="K3" s="131"/>
-      <c r="L3" s="130" t="s">
+      <c r="J3" s="138"/>
+      <c r="K3" s="139"/>
+      <c r="L3" s="138" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="130"/>
-      <c r="N3" s="131"/>
-      <c r="O3" s="132" t="s">
+      <c r="M3" s="138"/>
+      <c r="N3" s="139"/>
+      <c r="O3" s="135" t="s">
         <v>14</v>
       </c>
-      <c r="P3" s="132"/>
-      <c r="Q3" s="132"/>
+      <c r="P3" s="135"/>
+      <c r="Q3" s="135"/>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="138"/>
-      <c r="B4" s="138"/>
+      <c r="A4" s="134"/>
+      <c r="B4" s="134"/>
       <c r="C4" s="5" t="s">
         <v>15</v>
       </c>
@@ -5253,7 +5257,7 @@
       </c>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="132" t="s">
+      <c r="A5" s="135" t="s">
         <v>18</v>
       </c>
       <c r="B5" s="5">
@@ -5303,7 +5307,7 @@
       </c>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="132"/>
+      <c r="A6" s="135"/>
       <c r="B6" s="5">
         <v>88</v>
       </c>
@@ -5351,7 +5355,7 @@
       </c>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="132"/>
+      <c r="A7" s="135"/>
       <c r="B7" s="5">
         <v>100</v>
       </c>
@@ -5399,7 +5403,7 @@
       </c>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="132"/>
+      <c r="A8" s="135"/>
       <c r="B8" s="5" t="s">
         <v>19</v>
       </c>
@@ -5456,7 +5460,7 @@
       </c>
     </row>
     <row r="9" spans="1:17" hidden="1">
-      <c r="A9" s="137" t="s">
+      <c r="A9" s="133" t="s">
         <v>20</v>
       </c>
       <c r="B9" s="5">
@@ -5503,7 +5507,7 @@
       <c r="Q9" s="40"/>
     </row>
     <row r="10" spans="1:17" hidden="1">
-      <c r="A10" s="138"/>
+      <c r="A10" s="134"/>
       <c r="B10" s="5" t="s">
         <v>19</v>
       </c>
@@ -5557,7 +5561,7 @@
       <c r="Q10" s="40"/>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="132" t="s">
+      <c r="A11" s="135" t="s">
         <v>21</v>
       </c>
       <c r="B11" s="5">
@@ -5610,7 +5614,7 @@
       </c>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="132"/>
+      <c r="A12" s="135"/>
       <c r="B12" s="5">
         <v>180</v>
       </c>
@@ -5661,7 +5665,7 @@
       </c>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="132"/>
+      <c r="A13" s="135"/>
       <c r="B13" s="5">
         <v>240</v>
       </c>
@@ -5712,7 +5716,7 @@
       </c>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="132"/>
+      <c r="A14" s="135"/>
       <c r="B14" s="5" t="s">
         <v>19</v>
       </c>
@@ -5817,7 +5821,7 @@
       <c r="L20" s="39"/>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="132" t="s">
+      <c r="A21" s="135" t="s">
         <v>18</v>
       </c>
       <c r="B21" s="5">
@@ -5848,7 +5852,7 @@
       <c r="L21" s="34"/>
     </row>
     <row r="22" spans="1:12">
-      <c r="A22" s="132"/>
+      <c r="A22" s="135"/>
       <c r="B22" s="5">
         <v>88</v>
       </c>
@@ -5877,7 +5881,7 @@
       <c r="L22" s="34"/>
     </row>
     <row r="23" spans="1:12">
-      <c r="A23" s="132"/>
+      <c r="A23" s="135"/>
       <c r="B23" s="5">
         <v>100</v>
       </c>
@@ -5906,7 +5910,7 @@
       <c r="L23" s="34"/>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24" s="132"/>
+      <c r="A24" s="135"/>
       <c r="B24" s="5" t="s">
         <v>19</v>
       </c>
@@ -6128,21 +6132,21 @@
         <v>123</v>
       </c>
       <c r="O15" s="9"/>
-      <c r="P15" s="132" t="s">
+      <c r="P15" s="135" t="s">
         <v>107</v>
       </c>
-      <c r="Q15" s="132" t="s">
+      <c r="Q15" s="135" t="s">
         <v>109</v>
       </c>
-      <c r="R15" s="132" t="s">
+      <c r="R15" s="135" t="s">
         <v>124</v>
       </c>
-      <c r="S15" s="132"/>
-      <c r="T15" s="132" t="s">
+      <c r="S15" s="135"/>
+      <c r="T15" s="135" t="s">
         <v>125</v>
       </c>
-      <c r="U15" s="132"/>
-      <c r="V15" s="132"/>
+      <c r="U15" s="135"/>
+      <c r="V15" s="135"/>
     </row>
     <row r="16" spans="1:22">
       <c r="A16" t="s">
@@ -6261,17 +6265,17 @@
       <c r="Q21" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="R21" s="132">
+      <c r="R21" s="135">
         <f>SUM(R17:S18)</f>
         <v>1500</v>
       </c>
-      <c r="S21" s="132"/>
-      <c r="T21" s="145">
+      <c r="S21" s="135"/>
+      <c r="T21" s="140">
         <f>SUM(T17:V20)</f>
         <v>1500</v>
       </c>
-      <c r="U21" s="130"/>
-      <c r="V21" s="131"/>
+      <c r="U21" s="138"/>
+      <c r="V21" s="139"/>
     </row>
     <row r="22" spans="1:22">
       <c r="A22" t="s">
@@ -6541,7 +6545,7 @@
   <dimension ref="B3:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -6719,7 +6723,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S30"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A13" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A16" workbookViewId="0">
       <selection activeCell="O28" sqref="O28"/>
     </sheetView>
   </sheetViews>
@@ -6742,30 +6746,30 @@
       <c r="A3" s="3"/>
     </row>
     <row r="4" spans="1:10" ht="18.75" customHeight="1">
-      <c r="A4" s="169" t="s">
+      <c r="A4" s="148" t="s">
         <v>159</v>
       </c>
-      <c r="B4" s="169" t="s">
+      <c r="B4" s="148" t="s">
         <v>125</v>
       </c>
-      <c r="C4" s="173" t="s">
+      <c r="C4" s="154" t="s">
         <v>124</v>
       </c>
-      <c r="D4" s="174"/>
-      <c r="E4" s="169" t="s">
+      <c r="D4" s="155"/>
+      <c r="E4" s="148" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A5" s="170"/>
-      <c r="B5" s="170"/>
+      <c r="A5" s="149"/>
+      <c r="B5" s="149"/>
       <c r="C5" s="102" t="s">
         <v>202</v>
       </c>
       <c r="D5" s="103" t="s">
         <v>203</v>
       </c>
-      <c r="E5" s="170"/>
+      <c r="E5" s="149"/>
       <c r="J5" s="50" t="s">
         <v>210</v>
       </c>
@@ -6912,10 +6916,10 @@
       <c r="B14" s="88">
         <v>50</v>
       </c>
-      <c r="C14" s="171" t="s">
+      <c r="C14" s="150" t="s">
         <v>208</v>
       </c>
-      <c r="D14" s="155"/>
+      <c r="D14" s="151"/>
       <c r="E14" s="84">
         <v>90</v>
       </c>
@@ -6926,72 +6930,72 @@
       </c>
     </row>
     <row r="17" spans="1:19" ht="32.25" customHeight="1">
-      <c r="A17" s="172" t="s">
+      <c r="A17" s="152" t="s">
         <v>214</v>
       </c>
-      <c r="B17" s="168"/>
-      <c r="C17" s="168" t="s">
+      <c r="B17" s="153"/>
+      <c r="C17" s="153" t="s">
         <v>215</v>
       </c>
-      <c r="D17" s="168"/>
-      <c r="E17" s="168"/>
-      <c r="F17" s="168"/>
-      <c r="G17" s="168"/>
-      <c r="H17" s="163" t="s">
+      <c r="D17" s="153"/>
+      <c r="E17" s="153"/>
+      <c r="F17" s="153"/>
+      <c r="G17" s="153"/>
+      <c r="H17" s="156" t="s">
         <v>216</v>
       </c>
-      <c r="I17" s="163"/>
-      <c r="J17" s="166" t="s">
+      <c r="I17" s="156"/>
+      <c r="J17" s="157" t="s">
         <v>217</v>
       </c>
-      <c r="K17" s="167"/>
+      <c r="K17" s="158"/>
     </row>
     <row r="18" spans="1:19" ht="25.5" customHeight="1">
-      <c r="A18" s="150" t="s">
+      <c r="A18" s="160" t="s">
         <v>289</v>
       </c>
-      <c r="B18" s="148"/>
-      <c r="C18" s="149" t="s">
+      <c r="B18" s="161"/>
+      <c r="C18" s="159" t="s">
         <v>288</v>
       </c>
-      <c r="D18" s="150"/>
-      <c r="E18" s="150"/>
-      <c r="F18" s="148"/>
-      <c r="G18" s="149" t="s">
+      <c r="D18" s="160"/>
+      <c r="E18" s="160"/>
+      <c r="F18" s="161"/>
+      <c r="G18" s="159" t="s">
         <v>222</v>
       </c>
-      <c r="H18" s="150"/>
-      <c r="I18" s="150"/>
-      <c r="J18" s="150"/>
-      <c r="K18" s="150"/>
+      <c r="H18" s="160"/>
+      <c r="I18" s="160"/>
+      <c r="J18" s="160"/>
+      <c r="K18" s="160"/>
       <c r="N18" s="54" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="19" spans="1:19" ht="21" customHeight="1">
-      <c r="A19" s="145" t="s">
+      <c r="A19" s="140" t="s">
         <v>76</v>
       </c>
-      <c r="B19" s="131"/>
-      <c r="C19" s="148" t="s">
+      <c r="B19" s="139"/>
+      <c r="C19" s="161" t="s">
         <v>226</v>
       </c>
-      <c r="D19" s="149"/>
+      <c r="D19" s="159"/>
       <c r="E19" s="52" t="s">
         <v>219</v>
       </c>
-      <c r="F19" s="148" t="s">
+      <c r="F19" s="161" t="s">
         <v>218</v>
       </c>
-      <c r="G19" s="131"/>
-      <c r="H19" s="148" t="s">
+      <c r="G19" s="139"/>
+      <c r="H19" s="161" t="s">
         <v>220</v>
       </c>
-      <c r="I19" s="131"/>
-      <c r="J19" s="148" t="s">
+      <c r="I19" s="139"/>
+      <c r="J19" s="161" t="s">
         <v>224</v>
       </c>
-      <c r="K19" s="131"/>
+      <c r="K19" s="139"/>
       <c r="N19" s="49" t="s">
         <v>146</v>
       </c>
@@ -7012,23 +7016,23 @@
       </c>
     </row>
     <row r="20" spans="1:19" ht="21" customHeight="1">
-      <c r="A20" s="148" t="s">
+      <c r="A20" s="161" t="s">
         <v>227</v>
       </c>
-      <c r="B20" s="131"/>
-      <c r="C20" s="148" t="s">
+      <c r="B20" s="139"/>
+      <c r="C20" s="161" t="s">
         <v>229</v>
       </c>
-      <c r="D20" s="131"/>
+      <c r="D20" s="139"/>
       <c r="E20" s="45"/>
-      <c r="F20" s="145"/>
-      <c r="G20" s="131"/>
-      <c r="H20" s="145"/>
-      <c r="I20" s="131"/>
-      <c r="J20" s="148" t="s">
+      <c r="F20" s="140"/>
+      <c r="G20" s="139"/>
+      <c r="H20" s="140"/>
+      <c r="I20" s="139"/>
+      <c r="J20" s="161" t="s">
         <v>225</v>
       </c>
-      <c r="K20" s="131"/>
+      <c r="K20" s="139"/>
       <c r="N20" s="49"/>
       <c r="O20" s="49"/>
       <c r="P20" s="49"/>
@@ -7039,23 +7043,23 @@
       <c r="S20" s="49"/>
     </row>
     <row r="21" spans="1:19" ht="21" customHeight="1">
-      <c r="A21" s="148" t="s">
+      <c r="A21" s="161" t="s">
         <v>227</v>
       </c>
-      <c r="B21" s="131"/>
-      <c r="C21" s="148" t="s">
+      <c r="B21" s="139"/>
+      <c r="C21" s="161" t="s">
         <v>230</v>
       </c>
-      <c r="D21" s="131"/>
+      <c r="D21" s="139"/>
       <c r="E21" s="45"/>
-      <c r="F21" s="145"/>
-      <c r="G21" s="131"/>
-      <c r="H21" s="145"/>
-      <c r="I21" s="131"/>
-      <c r="J21" s="148" t="s">
+      <c r="F21" s="140"/>
+      <c r="G21" s="139"/>
+      <c r="H21" s="140"/>
+      <c r="I21" s="139"/>
+      <c r="J21" s="161" t="s">
         <v>225</v>
       </c>
-      <c r="K21" s="131"/>
+      <c r="K21" s="139"/>
       <c r="N21" s="49"/>
       <c r="O21" s="49"/>
       <c r="P21" s="49"/>
@@ -7064,69 +7068,69 @@
       <c r="S21" s="49"/>
     </row>
     <row r="22" spans="1:19" ht="21" customHeight="1">
-      <c r="A22" s="148" t="s">
+      <c r="A22" s="161" t="s">
         <v>228</v>
       </c>
-      <c r="B22" s="131"/>
-      <c r="C22" s="148" t="s">
+      <c r="B22" s="139"/>
+      <c r="C22" s="161" t="s">
         <v>231</v>
       </c>
-      <c r="D22" s="131"/>
+      <c r="D22" s="139"/>
       <c r="E22" s="49"/>
-      <c r="F22" s="145"/>
-      <c r="G22" s="131"/>
-      <c r="H22" s="145"/>
-      <c r="I22" s="131"/>
-      <c r="J22" s="148" t="s">
+      <c r="F22" s="140"/>
+      <c r="G22" s="139"/>
+      <c r="H22" s="140"/>
+      <c r="I22" s="139"/>
+      <c r="J22" s="161" t="s">
         <v>225</v>
       </c>
-      <c r="K22" s="131"/>
+      <c r="K22" s="139"/>
     </row>
     <row r="23" spans="1:19" ht="21" customHeight="1">
-      <c r="A23" s="148" t="s">
+      <c r="A23" s="161" t="s">
         <v>228</v>
       </c>
-      <c r="B23" s="131"/>
-      <c r="C23" s="148" t="s">
+      <c r="B23" s="139"/>
+      <c r="C23" s="161" t="s">
         <v>232</v>
       </c>
-      <c r="D23" s="131"/>
+      <c r="D23" s="139"/>
       <c r="E23" s="49"/>
-      <c r="F23" s="145"/>
-      <c r="G23" s="131"/>
-      <c r="H23" s="145"/>
-      <c r="I23" s="131"/>
-      <c r="J23" s="148" t="s">
+      <c r="F23" s="140"/>
+      <c r="G23" s="139"/>
+      <c r="H23" s="140"/>
+      <c r="I23" s="139"/>
+      <c r="J23" s="161" t="s">
         <v>225</v>
       </c>
-      <c r="K23" s="131"/>
+      <c r="K23" s="139"/>
     </row>
     <row r="26" spans="1:19" ht="32.25" customHeight="1" thickBot="1">
-      <c r="A26" s="160" t="s">
+      <c r="A26" s="166" t="s">
         <v>214</v>
       </c>
-      <c r="B26" s="161"/>
-      <c r="C26" s="161" t="s">
+      <c r="B26" s="167"/>
+      <c r="C26" s="167" t="s">
         <v>215</v>
       </c>
-      <c r="D26" s="161"/>
-      <c r="E26" s="161"/>
-      <c r="F26" s="161"/>
-      <c r="G26" s="161"/>
-      <c r="H26" s="162" t="s">
+      <c r="D26" s="167"/>
+      <c r="E26" s="167"/>
+      <c r="F26" s="167"/>
+      <c r="G26" s="167"/>
+      <c r="H26" s="168" t="s">
         <v>216</v>
       </c>
-      <c r="I26" s="162"/>
-      <c r="J26" s="163" t="s">
+      <c r="I26" s="168"/>
+      <c r="J26" s="156" t="s">
         <v>217</v>
       </c>
-      <c r="K26" s="163"/>
+      <c r="K26" s="156"/>
     </row>
     <row r="27" spans="1:19" ht="25.5" customHeight="1">
-      <c r="A27" s="164" t="s">
+      <c r="A27" s="169" t="s">
         <v>233</v>
       </c>
-      <c r="B27" s="165"/>
+      <c r="B27" s="170"/>
       <c r="C27" s="60"/>
       <c r="D27" s="61"/>
       <c r="E27" s="62"/>
@@ -7144,86 +7148,61 @@
       <c r="B28" s="59" t="s">
         <v>89</v>
       </c>
-      <c r="C28" s="138" t="s">
+      <c r="C28" s="134" t="s">
         <v>90</v>
       </c>
-      <c r="D28" s="138"/>
-      <c r="E28" s="138" t="s">
+      <c r="D28" s="134"/>
+      <c r="E28" s="134" t="s">
         <v>91</v>
       </c>
-      <c r="F28" s="138"/>
-      <c r="G28" s="156" t="s">
+      <c r="F28" s="134"/>
+      <c r="G28" s="162" t="s">
         <v>92</v>
       </c>
-      <c r="H28" s="157"/>
-      <c r="I28" s="156" t="s">
+      <c r="H28" s="163"/>
+      <c r="I28" s="162" t="s">
         <v>93</v>
       </c>
-      <c r="J28" s="158"/>
-      <c r="K28" s="159"/>
+      <c r="J28" s="164"/>
+      <c r="K28" s="165"/>
     </row>
     <row r="29" spans="1:19" ht="21.75" customHeight="1">
       <c r="A29" s="26"/>
       <c r="B29" s="49"/>
-      <c r="C29" s="132"/>
-      <c r="D29" s="132"/>
-      <c r="E29" s="132"/>
-      <c r="F29" s="132"/>
-      <c r="G29" s="145"/>
-      <c r="H29" s="131"/>
-      <c r="I29" s="145"/>
-      <c r="J29" s="130"/>
-      <c r="K29" s="146"/>
+      <c r="C29" s="135"/>
+      <c r="D29" s="135"/>
+      <c r="E29" s="135"/>
+      <c r="F29" s="135"/>
+      <c r="G29" s="140"/>
+      <c r="H29" s="139"/>
+      <c r="I29" s="140"/>
+      <c r="J29" s="138"/>
+      <c r="K29" s="141"/>
     </row>
     <row r="30" spans="1:19" ht="21.75" customHeight="1" thickBot="1">
       <c r="A30" s="58"/>
       <c r="B30" s="57"/>
-      <c r="C30" s="151"/>
-      <c r="D30" s="151"/>
-      <c r="E30" s="151"/>
-      <c r="F30" s="151"/>
-      <c r="G30" s="152"/>
-      <c r="H30" s="153"/>
-      <c r="I30" s="152"/>
-      <c r="J30" s="154"/>
-      <c r="K30" s="155"/>
+      <c r="C30" s="171"/>
+      <c r="D30" s="171"/>
+      <c r="E30" s="171"/>
+      <c r="F30" s="171"/>
+      <c r="G30" s="172"/>
+      <c r="H30" s="173"/>
+      <c r="I30" s="172"/>
+      <c r="J30" s="174"/>
+      <c r="K30" s="151"/>
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="G18:K18"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="I29:K29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="J19:K19"/>
     <mergeCell ref="J20:K20"/>
@@ -7235,15 +7214,40 @@
     <mergeCell ref="F20:G20"/>
     <mergeCell ref="F22:G22"/>
     <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="G18:K18"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B4:B5"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7255,7 +7259,7 @@
   <dimension ref="A1:T110"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7290,11 +7294,11 @@
       <c r="A5" s="45" t="s">
         <v>146</v>
       </c>
-      <c r="B5" s="145" t="s">
+      <c r="B5" s="140" t="s">
         <v>147</v>
       </c>
-      <c r="C5" s="130"/>
-      <c r="D5" s="131"/>
+      <c r="C5" s="138"/>
+      <c r="D5" s="139"/>
       <c r="E5" s="52" t="s">
         <v>243</v>
       </c>
@@ -7313,11 +7317,11 @@
       <c r="A6" s="66">
         <v>43136.354166666664</v>
       </c>
-      <c r="B6" s="206" t="s">
+      <c r="B6" s="178" t="s">
         <v>235</v>
       </c>
-      <c r="C6" s="207"/>
-      <c r="D6" s="208"/>
+      <c r="C6" s="179"/>
+      <c r="D6" s="180"/>
       <c r="E6" s="45">
         <v>400</v>
       </c>
@@ -7337,11 +7341,11 @@
       <c r="A7" s="66">
         <v>43137.354166608799</v>
       </c>
-      <c r="B7" s="206" t="s">
+      <c r="B7" s="178" t="s">
         <v>290</v>
       </c>
-      <c r="C7" s="207"/>
-      <c r="D7" s="208"/>
+      <c r="C7" s="179"/>
+      <c r="D7" s="180"/>
       <c r="E7" s="127">
         <v>400</v>
       </c>
@@ -7361,11 +7365,11 @@
       <c r="A8" s="66">
         <v>43138.354166608799</v>
       </c>
-      <c r="B8" s="206" t="s">
+      <c r="B8" s="178" t="s">
         <v>291</v>
       </c>
-      <c r="C8" s="207"/>
-      <c r="D8" s="208"/>
+      <c r="C8" s="179"/>
+      <c r="D8" s="180"/>
       <c r="E8" s="127">
         <v>400</v>
       </c>
@@ -7383,37 +7387,37 @@
     </row>
     <row r="9" spans="1:9" ht="37.5" customHeight="1">
       <c r="A9" s="3" t="s">
-        <v>158</v>
+        <v>329</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="21" thickBot="1">
       <c r="A10" s="3"/>
     </row>
     <row r="11" spans="1:9" ht="27.75" customHeight="1">
-      <c r="A11" s="203" t="s">
+      <c r="A11" s="175" t="s">
         <v>159</v>
       </c>
-      <c r="B11" s="209" t="s">
+      <c r="B11" s="181" t="s">
         <v>125</v>
       </c>
-      <c r="C11" s="211"/>
-      <c r="D11" s="210"/>
-      <c r="E11" s="209" t="s">
+      <c r="C11" s="183"/>
+      <c r="D11" s="182"/>
+      <c r="E11" s="181" t="s">
         <v>220</v>
       </c>
-      <c r="F11" s="210"/>
-      <c r="G11" s="203" t="s">
+      <c r="F11" s="182"/>
+      <c r="G11" s="175" t="s">
         <v>243</v>
       </c>
-      <c r="H11" s="203" t="s">
+      <c r="H11" s="175" t="s">
         <v>240</v>
       </c>
-      <c r="I11" s="174" t="s">
+      <c r="I11" s="155" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="27.75" customHeight="1">
-      <c r="A12" s="204"/>
+      <c r="A12" s="176"/>
       <c r="B12" s="79" t="s">
         <v>237</v>
       </c>
@@ -7429,9 +7433,9 @@
       <c r="F12" s="80" t="s">
         <v>236</v>
       </c>
-      <c r="G12" s="204"/>
-      <c r="H12" s="204"/>
-      <c r="I12" s="205"/>
+      <c r="G12" s="176"/>
+      <c r="H12" s="176"/>
+      <c r="I12" s="177"/>
     </row>
     <row r="13" spans="1:9" ht="27.75" customHeight="1">
       <c r="A13" s="75">
@@ -7640,15 +7644,15 @@
       <c r="A20" s="78" t="s">
         <v>132</v>
       </c>
-      <c r="B20" s="200" t="s">
+      <c r="B20" s="184" t="s">
         <v>242</v>
       </c>
-      <c r="C20" s="201"/>
-      <c r="D20" s="202"/>
-      <c r="E20" s="200" t="s">
+      <c r="C20" s="185"/>
+      <c r="D20" s="186"/>
+      <c r="E20" s="184" t="s">
         <v>241</v>
       </c>
-      <c r="F20" s="202"/>
+      <c r="F20" s="186"/>
       <c r="G20" s="88">
         <v>2888</v>
       </c>
@@ -7666,80 +7670,80 @@
       </c>
     </row>
     <row r="24" spans="1:20" ht="25.5" customHeight="1">
-      <c r="A24" s="172" t="s">
+      <c r="A24" s="152" t="s">
         <v>214</v>
       </c>
-      <c r="B24" s="168"/>
-      <c r="C24" s="168" t="s">
+      <c r="B24" s="153"/>
+      <c r="C24" s="153" t="s">
         <v>246</v>
       </c>
-      <c r="D24" s="168"/>
-      <c r="E24" s="168"/>
-      <c r="F24" s="168"/>
-      <c r="G24" s="168"/>
+      <c r="D24" s="153"/>
+      <c r="E24" s="153"/>
+      <c r="F24" s="153"/>
+      <c r="G24" s="153"/>
       <c r="H24" s="112"/>
-      <c r="I24" s="185" t="s">
+      <c r="I24" s="187" t="s">
         <v>216</v>
       </c>
-      <c r="J24" s="185"/>
-      <c r="K24" s="166" t="s">
+      <c r="J24" s="187"/>
+      <c r="K24" s="157" t="s">
         <v>245</v>
       </c>
-      <c r="L24" s="167"/>
+      <c r="L24" s="158"/>
     </row>
     <row r="25" spans="1:20" ht="29.25" customHeight="1">
-      <c r="A25" s="150" t="s">
+      <c r="A25" s="160" t="s">
         <v>223</v>
       </c>
-      <c r="B25" s="148"/>
-      <c r="C25" s="149" t="s">
+      <c r="B25" s="161"/>
+      <c r="C25" s="159" t="s">
         <v>221</v>
       </c>
-      <c r="D25" s="150"/>
-      <c r="E25" s="150"/>
-      <c r="F25" s="148"/>
-      <c r="G25" s="149" t="s">
+      <c r="D25" s="160"/>
+      <c r="E25" s="160"/>
+      <c r="F25" s="161"/>
+      <c r="G25" s="159" t="s">
         <v>222</v>
       </c>
-      <c r="H25" s="149"/>
-      <c r="I25" s="150"/>
-      <c r="J25" s="150"/>
-      <c r="K25" s="150"/>
-      <c r="L25" s="150"/>
-      <c r="O25" s="179" t="s">
+      <c r="H25" s="159"/>
+      <c r="I25" s="160"/>
+      <c r="J25" s="160"/>
+      <c r="K25" s="160"/>
+      <c r="L25" s="160"/>
+      <c r="O25" s="203" t="s">
         <v>204</v>
       </c>
-      <c r="P25" s="179"/>
-      <c r="Q25" s="179"/>
-      <c r="R25" s="179"/>
-      <c r="S25" s="179"/>
-      <c r="T25" s="179"/>
+      <c r="P25" s="203"/>
+      <c r="Q25" s="203"/>
+      <c r="R25" s="203"/>
+      <c r="S25" s="203"/>
+      <c r="T25" s="203"/>
     </row>
     <row r="26" spans="1:20" ht="29.25" customHeight="1">
-      <c r="A26" s="196" t="s">
+      <c r="A26" s="188" t="s">
         <v>76</v>
       </c>
-      <c r="B26" s="197"/>
-      <c r="C26" s="198" t="s">
+      <c r="B26" s="189"/>
+      <c r="C26" s="190" t="s">
         <v>226</v>
       </c>
-      <c r="D26" s="199"/>
-      <c r="E26" s="183" t="s">
+      <c r="D26" s="191"/>
+      <c r="E26" s="207" t="s">
         <v>219</v>
       </c>
-      <c r="F26" s="181"/>
-      <c r="G26" s="181" t="s">
+      <c r="F26" s="205"/>
+      <c r="G26" s="205" t="s">
         <v>218</v>
       </c>
-      <c r="H26" s="182"/>
-      <c r="I26" s="198" t="s">
+      <c r="H26" s="206"/>
+      <c r="I26" s="190" t="s">
         <v>220</v>
       </c>
-      <c r="J26" s="197"/>
-      <c r="K26" s="198" t="s">
+      <c r="J26" s="189"/>
+      <c r="K26" s="190" t="s">
         <v>224</v>
       </c>
-      <c r="L26" s="197"/>
+      <c r="L26" s="189"/>
       <c r="O26" s="59" t="s">
         <v>146</v>
       </c>
@@ -7760,26 +7764,26 @@
       </c>
     </row>
     <row r="27" spans="1:20" ht="29.25" customHeight="1">
-      <c r="A27" s="148" t="s">
+      <c r="A27" s="161" t="s">
         <v>227</v>
       </c>
-      <c r="B27" s="131"/>
-      <c r="C27" s="148" t="s">
+      <c r="B27" s="139"/>
+      <c r="C27" s="161" t="s">
         <v>229</v>
       </c>
-      <c r="D27" s="130"/>
-      <c r="E27" s="184"/>
-      <c r="F27" s="184"/>
-      <c r="G27" s="184"/>
-      <c r="H27" s="184"/>
+      <c r="D27" s="138"/>
+      <c r="E27" s="196"/>
+      <c r="F27" s="196"/>
+      <c r="G27" s="196"/>
+      <c r="H27" s="196"/>
       <c r="I27" s="192" t="s">
         <v>244</v>
       </c>
       <c r="J27" s="193"/>
-      <c r="K27" s="148" t="s">
+      <c r="K27" s="161" t="s">
         <v>225</v>
       </c>
-      <c r="L27" s="131"/>
+      <c r="L27" s="139"/>
       <c r="O27" s="49"/>
       <c r="P27" s="49"/>
       <c r="Q27" s="49"/>
@@ -7790,26 +7794,26 @@
       <c r="T27" s="49"/>
     </row>
     <row r="28" spans="1:20" ht="29.25" customHeight="1">
-      <c r="A28" s="148" t="s">
+      <c r="A28" s="161" t="s">
         <v>227</v>
       </c>
-      <c r="B28" s="131"/>
-      <c r="C28" s="148" t="s">
+      <c r="B28" s="139"/>
+      <c r="C28" s="161" t="s">
         <v>230</v>
       </c>
-      <c r="D28" s="130"/>
-      <c r="E28" s="184"/>
-      <c r="F28" s="184"/>
-      <c r="G28" s="184"/>
-      <c r="H28" s="184"/>
+      <c r="D28" s="138"/>
+      <c r="E28" s="196"/>
+      <c r="F28" s="196"/>
+      <c r="G28" s="196"/>
+      <c r="H28" s="196"/>
       <c r="I28" s="194" t="s">
         <v>273</v>
       </c>
       <c r="J28" s="195"/>
-      <c r="K28" s="148" t="s">
+      <c r="K28" s="161" t="s">
         <v>225</v>
       </c>
-      <c r="L28" s="131"/>
+      <c r="L28" s="139"/>
       <c r="O28" s="49"/>
       <c r="P28" s="49"/>
       <c r="Q28" s="49"/>
@@ -7818,87 +7822,87 @@
       <c r="T28" s="49"/>
     </row>
     <row r="29" spans="1:20" ht="29.25" customHeight="1">
-      <c r="A29" s="148" t="s">
+      <c r="A29" s="161" t="s">
         <v>228</v>
       </c>
-      <c r="B29" s="131"/>
-      <c r="C29" s="148" t="s">
+      <c r="B29" s="139"/>
+      <c r="C29" s="161" t="s">
         <v>231</v>
       </c>
-      <c r="D29" s="130"/>
-      <c r="E29" s="184"/>
-      <c r="F29" s="184"/>
-      <c r="G29" s="184"/>
-      <c r="H29" s="184"/>
-      <c r="I29" s="130"/>
-      <c r="J29" s="131"/>
-      <c r="K29" s="148" t="s">
+      <c r="D29" s="138"/>
+      <c r="E29" s="196"/>
+      <c r="F29" s="196"/>
+      <c r="G29" s="196"/>
+      <c r="H29" s="196"/>
+      <c r="I29" s="138"/>
+      <c r="J29" s="139"/>
+      <c r="K29" s="161" t="s">
         <v>225</v>
       </c>
-      <c r="L29" s="131"/>
+      <c r="L29" s="139"/>
     </row>
     <row r="30" spans="1:20" ht="29.25" customHeight="1">
-      <c r="A30" s="148" t="s">
+      <c r="A30" s="161" t="s">
         <v>228</v>
       </c>
-      <c r="B30" s="131"/>
-      <c r="C30" s="148" t="s">
+      <c r="B30" s="139"/>
+      <c r="C30" s="161" t="s">
         <v>232</v>
       </c>
-      <c r="D30" s="130"/>
-      <c r="E30" s="184"/>
-      <c r="F30" s="184"/>
-      <c r="G30" s="184"/>
-      <c r="H30" s="184"/>
-      <c r="I30" s="130"/>
-      <c r="J30" s="131"/>
-      <c r="K30" s="148" t="s">
+      <c r="D30" s="138"/>
+      <c r="E30" s="196"/>
+      <c r="F30" s="196"/>
+      <c r="G30" s="196"/>
+      <c r="H30" s="196"/>
+      <c r="I30" s="138"/>
+      <c r="J30" s="139"/>
+      <c r="K30" s="161" t="s">
         <v>225</v>
       </c>
-      <c r="L30" s="131"/>
+      <c r="L30" s="139"/>
     </row>
     <row r="31" spans="1:20" ht="29.25" customHeight="1"/>
     <row r="32" spans="1:20" ht="29.25" customHeight="1">
-      <c r="A32" s="172" t="s">
+      <c r="A32" s="152" t="s">
         <v>214</v>
       </c>
-      <c r="B32" s="168"/>
-      <c r="C32" s="168" t="s">
+      <c r="B32" s="153"/>
+      <c r="C32" s="153" t="s">
         <v>246</v>
       </c>
-      <c r="D32" s="168"/>
-      <c r="E32" s="168"/>
-      <c r="F32" s="168"/>
-      <c r="G32" s="168"/>
+      <c r="D32" s="153"/>
+      <c r="E32" s="153"/>
+      <c r="F32" s="153"/>
+      <c r="G32" s="153"/>
       <c r="H32" s="112"/>
-      <c r="I32" s="166" t="s">
+      <c r="I32" s="157" t="s">
         <v>216</v>
       </c>
-      <c r="J32" s="166"/>
-      <c r="K32" s="185" t="s">
+      <c r="J32" s="157"/>
+      <c r="K32" s="187" t="s">
         <v>245</v>
       </c>
-      <c r="L32" s="185"/>
+      <c r="L32" s="187"/>
     </row>
     <row r="33" spans="1:12" ht="29.25" customHeight="1">
-      <c r="A33" s="150" t="s">
+      <c r="A33" s="160" t="s">
         <v>247</v>
       </c>
-      <c r="B33" s="148"/>
-      <c r="C33" s="180"/>
-      <c r="D33" s="180"/>
-      <c r="E33" s="180" t="s">
+      <c r="B33" s="161"/>
+      <c r="C33" s="204"/>
+      <c r="D33" s="204"/>
+      <c r="E33" s="204" t="s">
         <v>271</v>
       </c>
-      <c r="F33" s="180"/>
-      <c r="G33" s="180"/>
+      <c r="F33" s="204"/>
+      <c r="G33" s="204"/>
       <c r="H33" s="67"/>
-      <c r="I33" s="180" t="s">
+      <c r="I33" s="204" t="s">
         <v>267</v>
       </c>
-      <c r="J33" s="180"/>
-      <c r="K33" s="180"/>
-      <c r="L33" s="149"/>
+      <c r="J33" s="204"/>
+      <c r="K33" s="204"/>
+      <c r="L33" s="159"/>
     </row>
     <row r="34" spans="1:12" ht="29.25" customHeight="1">
       <c r="A34" s="89" t="s">
@@ -7907,52 +7911,52 @@
       <c r="B34" s="91" t="s">
         <v>249</v>
       </c>
-      <c r="C34" s="186" t="s">
+      <c r="C34" s="197" t="s">
         <v>250</v>
       </c>
-      <c r="D34" s="187"/>
-      <c r="E34" s="186" t="s">
+      <c r="D34" s="198"/>
+      <c r="E34" s="197" t="s">
         <v>251</v>
       </c>
-      <c r="F34" s="187"/>
-      <c r="G34" s="188" t="s">
+      <c r="F34" s="198"/>
+      <c r="G34" s="199" t="s">
         <v>236</v>
       </c>
-      <c r="H34" s="189"/>
-      <c r="I34" s="190"/>
-      <c r="J34" s="188" t="s">
+      <c r="H34" s="200"/>
+      <c r="I34" s="201"/>
+      <c r="J34" s="199" t="s">
         <v>224</v>
       </c>
-      <c r="K34" s="191"/>
-      <c r="L34" s="190"/>
+      <c r="K34" s="202"/>
+      <c r="L34" s="201"/>
     </row>
     <row r="35" spans="1:12" ht="29.25" customHeight="1">
       <c r="A35" s="49"/>
       <c r="B35" s="49"/>
-      <c r="C35" s="132"/>
-      <c r="D35" s="132"/>
-      <c r="E35" s="132"/>
-      <c r="F35" s="132"/>
-      <c r="G35" s="145"/>
-      <c r="H35" s="130"/>
-      <c r="I35" s="131"/>
-      <c r="J35" s="145"/>
-      <c r="K35" s="130"/>
-      <c r="L35" s="131"/>
+      <c r="C35" s="135"/>
+      <c r="D35" s="135"/>
+      <c r="E35" s="135"/>
+      <c r="F35" s="135"/>
+      <c r="G35" s="140"/>
+      <c r="H35" s="138"/>
+      <c r="I35" s="139"/>
+      <c r="J35" s="140"/>
+      <c r="K35" s="138"/>
+      <c r="L35" s="139"/>
     </row>
     <row r="36" spans="1:12" ht="29.25" customHeight="1">
       <c r="A36" s="49"/>
       <c r="B36" s="49"/>
-      <c r="C36" s="132"/>
-      <c r="D36" s="132"/>
-      <c r="E36" s="132"/>
-      <c r="F36" s="132"/>
-      <c r="G36" s="145"/>
-      <c r="H36" s="130"/>
-      <c r="I36" s="131"/>
-      <c r="J36" s="145"/>
-      <c r="K36" s="130"/>
-      <c r="L36" s="131"/>
+      <c r="C36" s="135"/>
+      <c r="D36" s="135"/>
+      <c r="E36" s="135"/>
+      <c r="F36" s="135"/>
+      <c r="G36" s="140"/>
+      <c r="H36" s="138"/>
+      <c r="I36" s="139"/>
+      <c r="J36" s="140"/>
+      <c r="K36" s="138"/>
+      <c r="L36" s="139"/>
     </row>
     <row r="38" spans="1:12" ht="47.25" customHeight="1"/>
     <row r="39" spans="1:12" ht="45" customHeight="1">
@@ -7973,10 +7977,10 @@
       <c r="D40" s="118" t="s">
         <v>283</v>
       </c>
-      <c r="E40" s="177" t="s">
+      <c r="E40" s="210" t="s">
         <v>284</v>
       </c>
-      <c r="F40" s="178"/>
+      <c r="F40" s="211"/>
       <c r="G40" s="34"/>
       <c r="H40" s="34"/>
       <c r="I40" s="11"/>
@@ -8246,7 +8250,7 @@
       </c>
     </row>
     <row r="91" spans="1:8">
-      <c r="B91" s="132" t="s">
+      <c r="B91" s="135" t="s">
         <v>190</v>
       </c>
       <c r="C91" s="49" t="s">
@@ -8256,14 +8260,14 @@
       <c r="E91" s="106" t="s">
         <v>191</v>
       </c>
-      <c r="F91" s="175" t="s">
+      <c r="F91" s="208" t="s">
         <v>261</v>
       </c>
-      <c r="G91" s="176"/>
+      <c r="G91" s="209"/>
       <c r="H91" s="114"/>
     </row>
     <row r="92" spans="1:8">
-      <c r="B92" s="132"/>
+      <c r="B92" s="135"/>
       <c r="C92" s="49" t="s">
         <v>127</v>
       </c>
@@ -8271,12 +8275,12 @@
       <c r="E92" s="106" t="s">
         <v>191</v>
       </c>
-      <c r="F92" s="176"/>
-      <c r="G92" s="176"/>
+      <c r="F92" s="209"/>
+      <c r="G92" s="209"/>
       <c r="H92" s="114"/>
     </row>
     <row r="93" spans="1:8">
-      <c r="B93" s="132" t="s">
+      <c r="B93" s="135" t="s">
         <v>192</v>
       </c>
       <c r="C93" s="49" t="s">
@@ -8286,12 +8290,12 @@
       <c r="E93" s="106" t="s">
         <v>191</v>
       </c>
-      <c r="F93" s="176"/>
-      <c r="G93" s="176"/>
+      <c r="F93" s="209"/>
+      <c r="G93" s="209"/>
       <c r="H93" s="114"/>
     </row>
     <row r="94" spans="1:8">
-      <c r="B94" s="132"/>
+      <c r="B94" s="135"/>
       <c r="C94" s="49" t="s">
         <v>16</v>
       </c>
@@ -8299,12 +8303,12 @@
       <c r="E94" s="106" t="s">
         <v>191</v>
       </c>
-      <c r="F94" s="176"/>
-      <c r="G94" s="176"/>
+      <c r="F94" s="209"/>
+      <c r="G94" s="209"/>
       <c r="H94" s="114"/>
     </row>
     <row r="95" spans="1:8">
-      <c r="B95" s="132"/>
+      <c r="B95" s="135"/>
       <c r="C95" s="49" t="s">
         <v>115</v>
       </c>
@@ -8312,12 +8316,12 @@
       <c r="E95" s="106" t="s">
         <v>191</v>
       </c>
-      <c r="F95" s="176"/>
-      <c r="G95" s="176"/>
+      <c r="F95" s="209"/>
+      <c r="G95" s="209"/>
       <c r="H95" s="114"/>
     </row>
     <row r="96" spans="1:8">
-      <c r="B96" s="132"/>
+      <c r="B96" s="135"/>
       <c r="C96" s="51" t="s">
         <v>262</v>
       </c>
@@ -8403,57 +8407,13 @@
     </row>
   </sheetData>
   <mergeCells count="74">
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="G25:L25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="J36:L36"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="J34:L34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="J35:L35"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="F91:G95"/>
+    <mergeCell ref="B93:B96"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="E40:F40"/>
     <mergeCell ref="O25:T25"/>
     <mergeCell ref="A33:B33"/>
     <mergeCell ref="C33:D33"/>
@@ -8470,13 +8430,57 @@
     <mergeCell ref="G27:H27"/>
     <mergeCell ref="G28:H28"/>
     <mergeCell ref="G29:H29"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="F91:G95"/>
-    <mergeCell ref="B93:B96"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="J36:L36"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="J34:L34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="J35:L35"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="G25:L25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8522,43 +8526,43 @@
       <c r="A5" s="45" t="s">
         <v>146</v>
       </c>
-      <c r="B5" s="145" t="s">
+      <c r="B5" s="140" t="s">
         <v>147</v>
       </c>
-      <c r="C5" s="130"/>
-      <c r="D5" s="131"/>
+      <c r="C5" s="138"/>
+      <c r="D5" s="139"/>
       <c r="E5" s="52" t="s">
         <v>243</v>
       </c>
       <c r="F5" s="45" t="s">
         <v>117</v>
       </c>
-      <c r="G5" s="148" t="s">
+      <c r="G5" s="161" t="s">
         <v>205</v>
       </c>
-      <c r="H5" s="180"/>
-      <c r="I5" s="149"/>
+      <c r="H5" s="204"/>
+      <c r="I5" s="159"/>
     </row>
     <row r="6" spans="1:16" ht="78.75" customHeight="1">
       <c r="A6" s="66">
         <v>43136.354166666664</v>
       </c>
-      <c r="B6" s="206" t="s">
+      <c r="B6" s="178" t="s">
         <v>235</v>
       </c>
-      <c r="C6" s="207"/>
-      <c r="D6" s="208"/>
+      <c r="C6" s="179"/>
+      <c r="D6" s="180"/>
       <c r="E6" s="45">
         <v>400</v>
       </c>
       <c r="F6" s="45">
         <v>200</v>
       </c>
-      <c r="G6" s="145">
+      <c r="G6" s="140">
         <v>200</v>
       </c>
-      <c r="H6" s="130"/>
-      <c r="I6" s="131"/>
+      <c r="H6" s="138"/>
+      <c r="I6" s="139"/>
     </row>
     <row r="8" spans="1:16" ht="30" customHeight="1"/>
     <row r="9" spans="1:16" ht="37.5" customHeight="1">
@@ -8570,30 +8574,30 @@
       <c r="A10" s="3"/>
     </row>
     <row r="11" spans="1:16" ht="27.75" customHeight="1">
-      <c r="A11" s="203" t="s">
+      <c r="A11" s="175" t="s">
         <v>159</v>
       </c>
-      <c r="B11" s="209" t="s">
+      <c r="B11" s="181" t="s">
         <v>125</v>
       </c>
-      <c r="C11" s="211"/>
-      <c r="D11" s="210"/>
-      <c r="E11" s="209" t="s">
+      <c r="C11" s="183"/>
+      <c r="D11" s="182"/>
+      <c r="E11" s="181" t="s">
         <v>220</v>
       </c>
-      <c r="F11" s="210"/>
-      <c r="G11" s="203" t="s">
+      <c r="F11" s="182"/>
+      <c r="G11" s="175" t="s">
         <v>243</v>
       </c>
-      <c r="H11" s="203" t="s">
+      <c r="H11" s="175" t="s">
         <v>240</v>
       </c>
-      <c r="I11" s="214" t="s">
+      <c r="I11" s="216" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="27.75" customHeight="1">
-      <c r="A12" s="204"/>
+      <c r="A12" s="176"/>
       <c r="B12" s="79" t="s">
         <v>265</v>
       </c>
@@ -8609,9 +8613,9 @@
       <c r="F12" s="80" t="s">
         <v>236</v>
       </c>
-      <c r="G12" s="204"/>
-      <c r="H12" s="204"/>
-      <c r="I12" s="215"/>
+      <c r="G12" s="176"/>
+      <c r="H12" s="176"/>
+      <c r="I12" s="217"/>
       <c r="J12" s="126" t="s">
         <v>287</v>
       </c>
@@ -8852,15 +8856,15 @@
       <c r="A20" s="78" t="s">
         <v>132</v>
       </c>
-      <c r="B20" s="200" t="s">
+      <c r="B20" s="184" t="s">
         <v>242</v>
       </c>
-      <c r="C20" s="201"/>
-      <c r="D20" s="202"/>
-      <c r="E20" s="200" t="s">
+      <c r="C20" s="185"/>
+      <c r="D20" s="186"/>
+      <c r="E20" s="184" t="s">
         <v>241</v>
       </c>
-      <c r="F20" s="202"/>
+      <c r="F20" s="186"/>
       <c r="G20" s="88">
         <v>2888</v>
       </c>
@@ -8872,10 +8876,10 @@
       </c>
     </row>
     <row r="21" spans="1:20" ht="23.25" customHeight="1">
-      <c r="E21" s="216" t="s">
+      <c r="E21" s="213" t="s">
         <v>274</v>
       </c>
-      <c r="F21" s="216"/>
+      <c r="F21" s="213"/>
     </row>
     <row r="22" spans="1:20" ht="30" customHeight="1"/>
     <row r="23" spans="1:20" ht="44.25" customHeight="1">
@@ -8884,82 +8888,82 @@
       </c>
     </row>
     <row r="24" spans="1:20" ht="25.5" customHeight="1">
-      <c r="A24" s="172" t="s">
+      <c r="A24" s="152" t="s">
         <v>214</v>
       </c>
-      <c r="B24" s="168"/>
-      <c r="C24" s="168" t="s">
+      <c r="B24" s="153"/>
+      <c r="C24" s="153" t="s">
         <v>272</v>
       </c>
-      <c r="D24" s="168"/>
-      <c r="E24" s="168"/>
-      <c r="F24" s="168"/>
-      <c r="G24" s="168"/>
+      <c r="D24" s="153"/>
+      <c r="E24" s="153"/>
+      <c r="F24" s="153"/>
+      <c r="G24" s="153"/>
       <c r="H24" s="112"/>
-      <c r="I24" s="185" t="s">
+      <c r="I24" s="187" t="s">
         <v>268</v>
       </c>
-      <c r="J24" s="185"/>
-      <c r="K24" s="166" t="s">
+      <c r="J24" s="187"/>
+      <c r="K24" s="157" t="s">
         <v>245</v>
       </c>
-      <c r="L24" s="167"/>
+      <c r="L24" s="158"/>
     </row>
     <row r="25" spans="1:20" ht="29.25" customHeight="1">
-      <c r="A25" s="150" t="s">
+      <c r="A25" s="160" t="s">
         <v>269</v>
       </c>
-      <c r="B25" s="148"/>
-      <c r="C25" s="180" t="s">
+      <c r="B25" s="161"/>
+      <c r="C25" s="204" t="s">
         <v>271</v>
       </c>
-      <c r="D25" s="180"/>
-      <c r="E25" s="217" t="s">
+      <c r="D25" s="204"/>
+      <c r="E25" s="214" t="s">
         <v>270</v>
       </c>
-      <c r="F25" s="217"/>
-      <c r="G25" s="217"/>
+      <c r="F25" s="214"/>
+      <c r="G25" s="214"/>
       <c r="H25" s="116"/>
-      <c r="I25" s="180" t="s">
+      <c r="I25" s="204" t="s">
         <v>267</v>
       </c>
-      <c r="J25" s="180"/>
-      <c r="K25" s="180"/>
-      <c r="L25" s="149"/>
-      <c r="O25" s="179" t="s">
+      <c r="J25" s="204"/>
+      <c r="K25" s="204"/>
+      <c r="L25" s="159"/>
+      <c r="O25" s="203" t="s">
         <v>204</v>
       </c>
-      <c r="P25" s="179"/>
-      <c r="Q25" s="179"/>
-      <c r="R25" s="179"/>
-      <c r="S25" s="179"/>
-      <c r="T25" s="179"/>
+      <c r="P25" s="203"/>
+      <c r="Q25" s="203"/>
+      <c r="R25" s="203"/>
+      <c r="S25" s="203"/>
+      <c r="T25" s="203"/>
     </row>
     <row r="26" spans="1:20" ht="29.25" customHeight="1">
-      <c r="A26" s="196" t="s">
+      <c r="A26" s="188" t="s">
         <v>76</v>
       </c>
-      <c r="B26" s="197"/>
-      <c r="C26" s="198" t="s">
+      <c r="B26" s="189"/>
+      <c r="C26" s="190" t="s">
         <v>226</v>
       </c>
-      <c r="D26" s="218"/>
-      <c r="E26" s="213" t="s">
+      <c r="D26" s="212"/>
+      <c r="E26" s="215" t="s">
         <v>219</v>
       </c>
-      <c r="F26" s="213"/>
-      <c r="G26" s="213" t="s">
+      <c r="F26" s="215"/>
+      <c r="G26" s="215" t="s">
         <v>218</v>
       </c>
-      <c r="H26" s="213"/>
-      <c r="I26" s="218" t="s">
+      <c r="H26" s="215"/>
+      <c r="I26" s="212" t="s">
         <v>220</v>
       </c>
-      <c r="J26" s="197"/>
-      <c r="K26" s="198" t="s">
+      <c r="J26" s="189"/>
+      <c r="K26" s="190" t="s">
         <v>224</v>
       </c>
-      <c r="L26" s="197"/>
+      <c r="L26" s="189"/>
       <c r="O26" s="59" t="s">
         <v>146</v>
       </c>
@@ -8980,26 +8984,26 @@
       </c>
     </row>
     <row r="27" spans="1:20" ht="29.25" customHeight="1">
-      <c r="A27" s="148" t="s">
+      <c r="A27" s="161" t="s">
         <v>227</v>
       </c>
-      <c r="B27" s="131"/>
-      <c r="C27" s="148" t="s">
+      <c r="B27" s="139"/>
+      <c r="C27" s="161" t="s">
         <v>229</v>
       </c>
-      <c r="D27" s="130"/>
-      <c r="E27" s="184"/>
-      <c r="F27" s="184"/>
-      <c r="G27" s="184"/>
-      <c r="H27" s="184"/>
+      <c r="D27" s="138"/>
+      <c r="E27" s="196"/>
+      <c r="F27" s="196"/>
+      <c r="G27" s="196"/>
+      <c r="H27" s="196"/>
       <c r="I27" s="192" t="s">
         <v>244</v>
       </c>
       <c r="J27" s="193"/>
-      <c r="K27" s="148" t="s">
+      <c r="K27" s="161" t="s">
         <v>225</v>
       </c>
-      <c r="L27" s="131"/>
+      <c r="L27" s="139"/>
       <c r="O27" s="49"/>
       <c r="P27" s="49"/>
       <c r="Q27" s="49"/>
@@ -9010,26 +9014,26 @@
       <c r="T27" s="49"/>
     </row>
     <row r="28" spans="1:20" ht="29.25" customHeight="1">
-      <c r="A28" s="148" t="s">
+      <c r="A28" s="161" t="s">
         <v>227</v>
       </c>
-      <c r="B28" s="131"/>
-      <c r="C28" s="148" t="s">
+      <c r="B28" s="139"/>
+      <c r="C28" s="161" t="s">
         <v>230</v>
       </c>
-      <c r="D28" s="130"/>
-      <c r="E28" s="184"/>
-      <c r="F28" s="184"/>
-      <c r="G28" s="184"/>
-      <c r="H28" s="184"/>
+      <c r="D28" s="138"/>
+      <c r="E28" s="196"/>
+      <c r="F28" s="196"/>
+      <c r="G28" s="196"/>
+      <c r="H28" s="196"/>
       <c r="I28" s="194" t="s">
         <v>274</v>
       </c>
       <c r="J28" s="195"/>
-      <c r="K28" s="148" t="s">
+      <c r="K28" s="161" t="s">
         <v>225</v>
       </c>
-      <c r="L28" s="131"/>
+      <c r="L28" s="139"/>
       <c r="O28" s="49"/>
       <c r="P28" s="49"/>
       <c r="Q28" s="49"/>
@@ -9038,87 +9042,87 @@
       <c r="T28" s="49"/>
     </row>
     <row r="29" spans="1:20" ht="29.25" customHeight="1">
-      <c r="A29" s="148" t="s">
+      <c r="A29" s="161" t="s">
         <v>228</v>
       </c>
-      <c r="B29" s="131"/>
-      <c r="C29" s="148" t="s">
+      <c r="B29" s="139"/>
+      <c r="C29" s="161" t="s">
         <v>231</v>
       </c>
-      <c r="D29" s="130"/>
-      <c r="E29" s="184"/>
-      <c r="F29" s="184"/>
-      <c r="G29" s="184"/>
-      <c r="H29" s="184"/>
-      <c r="I29" s="130"/>
-      <c r="J29" s="131"/>
-      <c r="K29" s="148" t="s">
+      <c r="D29" s="138"/>
+      <c r="E29" s="196"/>
+      <c r="F29" s="196"/>
+      <c r="G29" s="196"/>
+      <c r="H29" s="196"/>
+      <c r="I29" s="138"/>
+      <c r="J29" s="139"/>
+      <c r="K29" s="161" t="s">
         <v>225</v>
       </c>
-      <c r="L29" s="131"/>
+      <c r="L29" s="139"/>
     </row>
     <row r="30" spans="1:20" ht="29.25" customHeight="1">
-      <c r="A30" s="148" t="s">
+      <c r="A30" s="161" t="s">
         <v>228</v>
       </c>
-      <c r="B30" s="131"/>
-      <c r="C30" s="148" t="s">
+      <c r="B30" s="139"/>
+      <c r="C30" s="161" t="s">
         <v>232</v>
       </c>
-      <c r="D30" s="130"/>
-      <c r="E30" s="184"/>
-      <c r="F30" s="184"/>
-      <c r="G30" s="184"/>
-      <c r="H30" s="184"/>
-      <c r="I30" s="130"/>
-      <c r="J30" s="131"/>
-      <c r="K30" s="148" t="s">
+      <c r="D30" s="138"/>
+      <c r="E30" s="196"/>
+      <c r="F30" s="196"/>
+      <c r="G30" s="196"/>
+      <c r="H30" s="196"/>
+      <c r="I30" s="138"/>
+      <c r="J30" s="139"/>
+      <c r="K30" s="161" t="s">
         <v>225</v>
       </c>
-      <c r="L30" s="131"/>
+      <c r="L30" s="139"/>
     </row>
     <row r="31" spans="1:20" ht="29.25" customHeight="1"/>
     <row r="32" spans="1:20" ht="29.25" customHeight="1">
-      <c r="A32" s="172" t="s">
+      <c r="A32" s="152" t="s">
         <v>214</v>
       </c>
-      <c r="B32" s="168"/>
-      <c r="C32" s="168" t="s">
+      <c r="B32" s="153"/>
+      <c r="C32" s="153" t="s">
         <v>272</v>
       </c>
-      <c r="D32" s="168"/>
-      <c r="E32" s="168"/>
-      <c r="F32" s="168"/>
-      <c r="G32" s="168"/>
+      <c r="D32" s="153"/>
+      <c r="E32" s="153"/>
+      <c r="F32" s="153"/>
+      <c r="G32" s="153"/>
       <c r="H32" s="112"/>
-      <c r="I32" s="166" t="s">
+      <c r="I32" s="157" t="s">
         <v>268</v>
       </c>
-      <c r="J32" s="166"/>
-      <c r="K32" s="185" t="s">
+      <c r="J32" s="157"/>
+      <c r="K32" s="187" t="s">
         <v>245</v>
       </c>
-      <c r="L32" s="185"/>
+      <c r="L32" s="187"/>
     </row>
     <row r="33" spans="1:12" ht="29.25" customHeight="1">
-      <c r="A33" s="150" t="s">
+      <c r="A33" s="160" t="s">
         <v>247</v>
       </c>
-      <c r="B33" s="148"/>
-      <c r="C33" s="180"/>
-      <c r="D33" s="180"/>
-      <c r="E33" s="180" t="s">
+      <c r="B33" s="161"/>
+      <c r="C33" s="204"/>
+      <c r="D33" s="204"/>
+      <c r="E33" s="204" t="s">
         <v>271</v>
       </c>
-      <c r="F33" s="180"/>
-      <c r="G33" s="180"/>
+      <c r="F33" s="204"/>
+      <c r="G33" s="204"/>
       <c r="H33" s="67"/>
-      <c r="I33" s="180" t="s">
+      <c r="I33" s="204" t="s">
         <v>267</v>
       </c>
-      <c r="J33" s="180"/>
-      <c r="K33" s="180"/>
-      <c r="L33" s="149"/>
+      <c r="J33" s="204"/>
+      <c r="K33" s="204"/>
+      <c r="L33" s="159"/>
     </row>
     <row r="34" spans="1:12" ht="29.25" customHeight="1">
       <c r="A34" s="89" t="s">
@@ -9127,52 +9131,52 @@
       <c r="B34" s="91" t="s">
         <v>249</v>
       </c>
-      <c r="C34" s="186" t="s">
+      <c r="C34" s="197" t="s">
         <v>250</v>
       </c>
-      <c r="D34" s="187"/>
-      <c r="E34" s="186" t="s">
+      <c r="D34" s="198"/>
+      <c r="E34" s="197" t="s">
         <v>251</v>
       </c>
-      <c r="F34" s="187"/>
-      <c r="G34" s="188" t="s">
+      <c r="F34" s="198"/>
+      <c r="G34" s="199" t="s">
         <v>236</v>
       </c>
-      <c r="H34" s="189"/>
-      <c r="I34" s="190"/>
-      <c r="J34" s="188" t="s">
+      <c r="H34" s="200"/>
+      <c r="I34" s="201"/>
+      <c r="J34" s="199" t="s">
         <v>224</v>
       </c>
-      <c r="K34" s="191"/>
-      <c r="L34" s="190"/>
+      <c r="K34" s="202"/>
+      <c r="L34" s="201"/>
     </row>
     <row r="35" spans="1:12" ht="29.25" customHeight="1">
       <c r="A35" s="49"/>
       <c r="B35" s="49"/>
-      <c r="C35" s="132"/>
-      <c r="D35" s="132"/>
-      <c r="E35" s="132"/>
-      <c r="F35" s="132"/>
-      <c r="G35" s="145"/>
-      <c r="H35" s="130"/>
-      <c r="I35" s="131"/>
-      <c r="J35" s="145"/>
-      <c r="K35" s="130"/>
-      <c r="L35" s="131"/>
+      <c r="C35" s="135"/>
+      <c r="D35" s="135"/>
+      <c r="E35" s="135"/>
+      <c r="F35" s="135"/>
+      <c r="G35" s="140"/>
+      <c r="H35" s="138"/>
+      <c r="I35" s="139"/>
+      <c r="J35" s="140"/>
+      <c r="K35" s="138"/>
+      <c r="L35" s="139"/>
     </row>
     <row r="36" spans="1:12" ht="29.25" customHeight="1">
       <c r="A36" s="49"/>
       <c r="B36" s="49"/>
-      <c r="C36" s="132"/>
-      <c r="D36" s="132"/>
-      <c r="E36" s="132"/>
-      <c r="F36" s="132"/>
-      <c r="G36" s="145"/>
-      <c r="H36" s="130"/>
-      <c r="I36" s="131"/>
-      <c r="J36" s="145"/>
-      <c r="K36" s="130"/>
-      <c r="L36" s="131"/>
+      <c r="C36" s="135"/>
+      <c r="D36" s="135"/>
+      <c r="E36" s="135"/>
+      <c r="F36" s="135"/>
+      <c r="G36" s="140"/>
+      <c r="H36" s="138"/>
+      <c r="I36" s="139"/>
+      <c r="J36" s="140"/>
+      <c r="K36" s="138"/>
+      <c r="L36" s="139"/>
     </row>
     <row r="38" spans="1:12" ht="28.5" customHeight="1"/>
     <row r="39" spans="1:12" ht="48" customHeight="1">
@@ -9193,16 +9197,16 @@
       <c r="D40" s="118" t="s">
         <v>283</v>
       </c>
-      <c r="E40" s="177" t="s">
+      <c r="E40" s="210" t="s">
         <v>284</v>
       </c>
-      <c r="F40" s="178"/>
+      <c r="F40" s="211"/>
     </row>
     <row r="41" spans="1:12" ht="45" customHeight="1">
-      <c r="A41" s="212" t="s">
+      <c r="A41" s="218" t="s">
         <v>278</v>
       </c>
-      <c r="B41" s="212"/>
+      <c r="B41" s="218"/>
       <c r="D41" s="50" t="s">
         <v>279</v>
       </c>
@@ -9448,7 +9452,7 @@
       </c>
     </row>
     <row r="90" spans="1:8">
-      <c r="B90" s="132" t="s">
+      <c r="B90" s="135" t="s">
         <v>190</v>
       </c>
       <c r="C90" s="49" t="s">
@@ -9458,14 +9462,14 @@
       <c r="E90" s="106" t="s">
         <v>191</v>
       </c>
-      <c r="F90" s="175" t="s">
+      <c r="F90" s="208" t="s">
         <v>261</v>
       </c>
-      <c r="G90" s="176"/>
+      <c r="G90" s="209"/>
       <c r="H90" s="114"/>
     </row>
     <row r="91" spans="1:8">
-      <c r="B91" s="132"/>
+      <c r="B91" s="135"/>
       <c r="C91" s="49" t="s">
         <v>127</v>
       </c>
@@ -9473,12 +9477,12 @@
       <c r="E91" s="106" t="s">
         <v>191</v>
       </c>
-      <c r="F91" s="176"/>
-      <c r="G91" s="176"/>
+      <c r="F91" s="209"/>
+      <c r="G91" s="209"/>
       <c r="H91" s="114"/>
     </row>
     <row r="92" spans="1:8">
-      <c r="B92" s="132" t="s">
+      <c r="B92" s="135" t="s">
         <v>192</v>
       </c>
       <c r="C92" s="49" t="s">
@@ -9488,12 +9492,12 @@
       <c r="E92" s="106" t="s">
         <v>191</v>
       </c>
-      <c r="F92" s="176"/>
-      <c r="G92" s="176"/>
+      <c r="F92" s="209"/>
+      <c r="G92" s="209"/>
       <c r="H92" s="114"/>
     </row>
     <row r="93" spans="1:8">
-      <c r="B93" s="132"/>
+      <c r="B93" s="135"/>
       <c r="C93" s="49" t="s">
         <v>16</v>
       </c>
@@ -9501,12 +9505,12 @@
       <c r="E93" s="106" t="s">
         <v>191</v>
       </c>
-      <c r="F93" s="176"/>
-      <c r="G93" s="176"/>
+      <c r="F93" s="209"/>
+      <c r="G93" s="209"/>
       <c r="H93" s="114"/>
     </row>
     <row r="94" spans="1:8">
-      <c r="B94" s="132"/>
+      <c r="B94" s="135"/>
       <c r="C94" s="49" t="s">
         <v>115</v>
       </c>
@@ -9514,12 +9518,12 @@
       <c r="E94" s="106" t="s">
         <v>191</v>
       </c>
-      <c r="F94" s="176"/>
-      <c r="G94" s="176"/>
+      <c r="F94" s="209"/>
+      <c r="G94" s="209"/>
       <c r="H94" s="114"/>
     </row>
     <row r="95" spans="1:8">
-      <c r="B95" s="132"/>
+      <c r="B95" s="135"/>
       <c r="C95" s="51" t="s">
         <v>262</v>
       </c>
@@ -9605,35 +9609,38 @@
     </row>
   </sheetData>
   <mergeCells count="77">
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="O25:T25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="J34:L34"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="I33:L33"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="J36:L36"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="K29:L29"/>
     <mergeCell ref="B90:B91"/>
     <mergeCell ref="F90:G94"/>
     <mergeCell ref="B92:B95"/>
@@ -9650,38 +9657,35 @@
     <mergeCell ref="J35:L35"/>
     <mergeCell ref="C36:D36"/>
     <mergeCell ref="E36:F36"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="J36:L36"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="J34:L34"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="I33:L33"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="O25:T25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:F11"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/alice/20180302后台财务更新.xlsx
+++ b/doc/alice/20180302后台财务更新.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="334">
   <si>
     <t>收：</t>
   </si>
@@ -658,55 +658,55 @@
   </si>
   <si>
     <t>课时收入</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>返利收入</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>课时结算表</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>训练营收入</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>余额</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>小计</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>本月收益：1150</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>点击数字查看相关详情→</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>支出（提现）：列出该教练员当天所有提现记录</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>课时收入：列出该教练员当天所有课时结算记录</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>返利收入：列出该教练员当天所有层级返现记录</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>余额：列出该教练员当天所有收支记录（有余额字段的）</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>选择时间：2018/1/1</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -735,79 +735,79 @@
       </rPr>
       <t>（=课时收入+返利=资金账单收入合计）</t>
     </r>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>课时</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>返利</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>人次</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>课次</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>收入</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>上课总课次：888</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>上课总人次：888</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>课时实际收益：888</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>详情</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>查看</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>课程名称</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>大热篮球俱乐部</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>顶峰篮球训练营</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>课程A</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>课程B</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>课程C</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>课程D</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>返利收益：888</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>训练营身份进入（按照课时费计算收入）</t>
@@ -817,48 +817,44 @@
 班级：丽山文体公园高年级班
 正式学员人数：4
 学员名单：周宇乐,余鲁文,林城佑,刘昊,教练：安凯翔</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>活动收入</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>平台分成</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>教练工资</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>购买赠课</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>提现</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>本月总收益：2888</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>本月总支出：2888</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>课时总价</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>该训练营这个月
 这个课程的总收入</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>活动</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -887,107 +883,107 @@
       </rPr>
       <t>（=课时收入+活动=资金账单收入合计）</t>
     </r>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>活动收益：888</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>训练营名称</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>活动名称</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>活动单价</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>报名人次</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>#</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>合计</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>活动A</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>活动B</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>选择年月：201801</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>营业总额：8888</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>课程营业额：8888</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>活动营业额：8888</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>切换查看</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>这五项都是平台数据</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>自定义支出</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>训练营自己添加的（如上述场地费）</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>训练营身份进入（按照营业额计算收入）</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>平台手续费</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>学费收入</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>购买总人数：888</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>学费</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>学费收益：888</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>购买总课量：888</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>总订单：888</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1016,35 +1012,35 @@
       </rPr>
       <t>（=学费收入+活动=资金账单收入合计）</t>
     </r>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>已扣除教练工资的</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>订单扣手续费的收入</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>平台手续费在训练营提现时扣除</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>每个月提现时扣取平台的分成，例如可提现1000，提现时显示100是平台收费，900是实际提现金额，这样就有两条支出了</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>就是用户提现10000，会产生两条支出数据（1、提现记录10000,2、平台手续费记录100）</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>选择时间2018年1月</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>（2月只能选择1月或之前，不能查看本月）</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1063,7 +1059,7 @@
       </rPr>
       <t>80000</t>
     </r>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1082,7 +1078,7 @@
       </rPr>
       <t>100</t>
     </r>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1101,7 +1097,7 @@
       </rPr>
       <t>10000</t>
     </r>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1120,7 +1116,7 @@
       </rPr>
       <t>100</t>
     </r>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1139,27 +1135,27 @@
       </rPr>
       <t>70000</t>
     </r>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>余额</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>银行流水也是按每一笔金钱交易后显示的余额</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>只能按每一次收支进行动态余额告知,按天无法统计,银行流水都做不到</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>上课总课次：888</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>课时实际收益：888</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>课程：大热常规班（单价：100）
@@ -1175,166 +1171,194 @@
   </si>
   <si>
     <t>课时列表 admin/income/salaryList</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>资金账单admin/salaryin/salaryList</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>收益统计admin/salaryin/coachin</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>课时结算表admin/salaryin/scheduleInfo</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>教练统计</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>statisticsCoach</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>资金账目</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>收益统计</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>课时统计</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>coachSchedule</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>coachBill</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>coachIncome</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>训练营统计</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>statisticsCamp</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>机构统计</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>campBill</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>campIncome</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>campSchedule</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>statisticsOrgz</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>orgzBill</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>orgzIncome</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>orgzSchedule</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>营业额统计</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>图表统计</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>campChart</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>orgzChart</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>每月报表</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>赠课统计</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>附加支出列表</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>campGift</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>campOutput</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>campStatistics</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>orgzStatistics</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>orgzOutput</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>orgzGift</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>campTurnover</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>orgzTurnover</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>资金账单statisticsCamp/campBill</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>本月总收益：2888</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>本月总支出：2888</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>平台分成</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>教练工资</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买赠课</t>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="23">
+  <fonts count="32">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1516,8 +1540,67 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1551,6 +1634,27 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
       </patternFill>
     </fill>
   </fills>
@@ -2185,27 +2289,39 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="219">
+  <cellXfs count="251">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2257,7 +2373,7 @@
     <xf numFmtId="57" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
@@ -2287,7 +2403,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
@@ -2308,7 +2424,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2317,16 +2433,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2344,25 +2460,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1">
@@ -2374,16 +2490,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="57" fontId="13" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="57" fontId="14" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2395,22 +2511,22 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -2425,22 +2541,16 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="13" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="14" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2449,25 +2559,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
@@ -2476,79 +2586,79 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="14" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2563,27 +2673,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="20" fillId="6" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" xfId="1">
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="21" fillId="6" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2593,32 +2712,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2629,232 +2739,338 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="39" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="37" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="28" fillId="7" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="28" fillId="7" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="32" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="38" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="39" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="8" borderId="36" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="8" borderId="37" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="8" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="8" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="8" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="29" fillId="8" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="29" fillId="8" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="29" fillId="8" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="8" borderId="32" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="8" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="8" borderId="38" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="6" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="6" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="30" fillId="6" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="6" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="34" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="18" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="18" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="24" fillId="9" borderId="18" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="29" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="10" borderId="15" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="10" borderId="15" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="31" fillId="10" borderId="15" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="6">
+    <cellStyle name="40% - 强调文字颜色 1" xfId="4" builtinId="31"/>
     <cellStyle name="差" xfId="1" builtinId="27"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="好" xfId="2" builtinId="26"/>
+    <cellStyle name="强调文字颜色 3" xfId="5" builtinId="37"/>
+    <cellStyle name="适中" xfId="3" builtinId="28"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2889,7 +3105,7 @@
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2942,7 +3158,7 @@
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2995,7 +3211,7 @@
         <xdr:cNvPr id="5" name="图片 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000005000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3043,7 +3259,7 @@
         <xdr:cNvPr id="6" name="图片 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000006000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3433,41 +3649,41 @@
       </c>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="133" t="s">
+      <c r="A10" s="135" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="133" t="s">
+      <c r="B10" s="135" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="137" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="138"/>
-      <c r="E10" s="139"/>
+      <c r="D10" s="128"/>
+      <c r="E10" s="129"/>
       <c r="F10" s="137" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="138"/>
-      <c r="H10" s="139"/>
+      <c r="G10" s="128"/>
+      <c r="H10" s="129"/>
       <c r="I10" s="137" t="s">
         <v>12</v>
       </c>
-      <c r="J10" s="138"/>
-      <c r="K10" s="139"/>
-      <c r="L10" s="138" t="s">
+      <c r="J10" s="128"/>
+      <c r="K10" s="129"/>
+      <c r="L10" s="128" t="s">
         <v>13</v>
       </c>
-      <c r="M10" s="138"/>
-      <c r="N10" s="139"/>
-      <c r="O10" s="135" t="s">
+      <c r="M10" s="128"/>
+      <c r="N10" s="129"/>
+      <c r="O10" s="130" t="s">
         <v>14</v>
       </c>
-      <c r="P10" s="135"/>
-      <c r="Q10" s="135"/>
+      <c r="P10" s="130"/>
+      <c r="Q10" s="130"/>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="134"/>
-      <c r="B11" s="134"/>
+      <c r="A11" s="136"/>
+      <c r="B11" s="136"/>
       <c r="C11" s="5" t="s">
         <v>15</v>
       </c>
@@ -3515,7 +3731,7 @@
       </c>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="135" t="s">
+      <c r="A12" s="130" t="s">
         <v>18</v>
       </c>
       <c r="B12" s="5">
@@ -3565,7 +3781,7 @@
       </c>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="135"/>
+      <c r="A13" s="130"/>
       <c r="B13" s="5">
         <v>88</v>
       </c>
@@ -3613,7 +3829,7 @@
       </c>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="135"/>
+      <c r="A14" s="130"/>
       <c r="B14" s="5">
         <v>100</v>
       </c>
@@ -3661,7 +3877,7 @@
       </c>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="135"/>
+      <c r="A15" s="130"/>
       <c r="B15" s="5" t="s">
         <v>19</v>
       </c>
@@ -3718,7 +3934,7 @@
       </c>
     </row>
     <row r="16" spans="1:17" hidden="1">
-      <c r="A16" s="133" t="s">
+      <c r="A16" s="135" t="s">
         <v>20</v>
       </c>
       <c r="B16" s="5">
@@ -3765,7 +3981,7 @@
       <c r="Q16" s="40"/>
     </row>
     <row r="17" spans="1:17" hidden="1">
-      <c r="A17" s="134"/>
+      <c r="A17" s="136"/>
       <c r="B17" s="5" t="s">
         <v>19</v>
       </c>
@@ -3819,7 +4035,7 @@
       <c r="Q17" s="40"/>
     </row>
     <row r="18" spans="1:17">
-      <c r="A18" s="135" t="s">
+      <c r="A18" s="130" t="s">
         <v>21</v>
       </c>
       <c r="B18" s="5">
@@ -3872,7 +4088,7 @@
       </c>
     </row>
     <row r="19" spans="1:17">
-      <c r="A19" s="135"/>
+      <c r="A19" s="130"/>
       <c r="B19" s="5">
         <v>180</v>
       </c>
@@ -3923,7 +4139,7 @@
       </c>
     </row>
     <row r="20" spans="1:17">
-      <c r="A20" s="135"/>
+      <c r="A20" s="130"/>
       <c r="B20" s="5">
         <v>240</v>
       </c>
@@ -3974,7 +4190,7 @@
       </c>
     </row>
     <row r="21" spans="1:17">
-      <c r="A21" s="135"/>
+      <c r="A21" s="130"/>
       <c r="B21" s="5" t="s">
         <v>19</v>
       </c>
@@ -4123,16 +4339,16 @@
       <c r="C46" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D46" s="136" t="s">
+      <c r="D46" s="134" t="s">
         <v>37</v>
       </c>
-      <c r="E46" s="136"/>
-      <c r="F46" s="136"/>
-      <c r="G46" s="136"/>
-      <c r="H46" s="136"/>
-      <c r="I46" s="136"/>
-      <c r="J46" s="136"/>
-      <c r="K46" s="136"/>
+      <c r="E46" s="134"/>
+      <c r="F46" s="134"/>
+      <c r="G46" s="134"/>
+      <c r="H46" s="134"/>
+      <c r="I46" s="134"/>
+      <c r="J46" s="134"/>
+      <c r="K46" s="134"/>
       <c r="L46" t="s">
         <v>38</v>
       </c>
@@ -4148,16 +4364,16 @@
       <c r="C47" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D47" s="130" t="s">
+      <c r="D47" s="131" t="s">
         <v>41</v>
       </c>
-      <c r="E47" s="131"/>
-      <c r="F47" s="131"/>
-      <c r="G47" s="131"/>
-      <c r="H47" s="131"/>
-      <c r="I47" s="131"/>
-      <c r="J47" s="131"/>
-      <c r="K47" s="132"/>
+      <c r="E47" s="132"/>
+      <c r="F47" s="132"/>
+      <c r="G47" s="132"/>
+      <c r="H47" s="132"/>
+      <c r="I47" s="132"/>
+      <c r="J47" s="132"/>
+      <c r="K47" s="133"/>
       <c r="L47" t="s">
         <v>42</v>
       </c>
@@ -4173,16 +4389,16 @@
       <c r="C48" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D48" s="130" t="s">
+      <c r="D48" s="131" t="s">
         <v>44</v>
       </c>
-      <c r="E48" s="131"/>
-      <c r="F48" s="131"/>
-      <c r="G48" s="131"/>
-      <c r="H48" s="131"/>
-      <c r="I48" s="131"/>
-      <c r="J48" s="131"/>
-      <c r="K48" s="132"/>
+      <c r="E48" s="132"/>
+      <c r="F48" s="132"/>
+      <c r="G48" s="132"/>
+      <c r="H48" s="132"/>
+      <c r="I48" s="132"/>
+      <c r="J48" s="132"/>
+      <c r="K48" s="133"/>
       <c r="L48" t="s">
         <v>45</v>
       </c>
@@ -4218,16 +4434,16 @@
       <c r="C51" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D51" s="136" t="s">
+      <c r="D51" s="134" t="s">
         <v>49</v>
       </c>
-      <c r="E51" s="136"/>
-      <c r="F51" s="136"/>
-      <c r="G51" s="136"/>
-      <c r="H51" s="136"/>
-      <c r="I51" s="136"/>
-      <c r="J51" s="136"/>
-      <c r="K51" s="136"/>
+      <c r="E51" s="134"/>
+      <c r="F51" s="134"/>
+      <c r="G51" s="134"/>
+      <c r="H51" s="134"/>
+      <c r="I51" s="134"/>
+      <c r="J51" s="134"/>
+      <c r="K51" s="134"/>
       <c r="L51" t="s">
         <v>50</v>
       </c>
@@ -4242,16 +4458,16 @@
       <c r="C52" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D52" s="130" t="s">
+      <c r="D52" s="131" t="s">
         <v>51</v>
       </c>
-      <c r="E52" s="131"/>
-      <c r="F52" s="131"/>
-      <c r="G52" s="131"/>
-      <c r="H52" s="131"/>
-      <c r="I52" s="131"/>
-      <c r="J52" s="131"/>
-      <c r="K52" s="132"/>
+      <c r="E52" s="132"/>
+      <c r="F52" s="132"/>
+      <c r="G52" s="132"/>
+      <c r="H52" s="132"/>
+      <c r="I52" s="132"/>
+      <c r="J52" s="132"/>
+      <c r="K52" s="133"/>
       <c r="L52" t="s">
         <v>52</v>
       </c>
@@ -4266,16 +4482,16 @@
       <c r="C53" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D53" s="130" t="s">
+      <c r="D53" s="131" t="s">
         <v>53</v>
       </c>
-      <c r="E53" s="131"/>
-      <c r="F53" s="131"/>
-      <c r="G53" s="131"/>
-      <c r="H53" s="131"/>
-      <c r="I53" s="131"/>
-      <c r="J53" s="131"/>
-      <c r="K53" s="132"/>
+      <c r="E53" s="132"/>
+      <c r="F53" s="132"/>
+      <c r="G53" s="132"/>
+      <c r="H53" s="132"/>
+      <c r="I53" s="132"/>
+      <c r="J53" s="132"/>
+      <c r="K53" s="133"/>
       <c r="L53" t="s">
         <v>54</v>
       </c>
@@ -4320,16 +4536,16 @@
       <c r="C56" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D56" s="136" t="s">
+      <c r="D56" s="134" t="s">
         <v>57</v>
       </c>
-      <c r="E56" s="136"/>
-      <c r="F56" s="136"/>
-      <c r="G56" s="136"/>
-      <c r="H56" s="136"/>
-      <c r="I56" s="136"/>
-      <c r="J56" s="136"/>
-      <c r="K56" s="136"/>
+      <c r="E56" s="134"/>
+      <c r="F56" s="134"/>
+      <c r="G56" s="134"/>
+      <c r="H56" s="134"/>
+      <c r="I56" s="134"/>
+      <c r="J56" s="134"/>
+      <c r="K56" s="134"/>
       <c r="L56" t="s">
         <v>58</v>
       </c>
@@ -4344,16 +4560,16 @@
       <c r="C57" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D57" s="130" t="s">
+      <c r="D57" s="131" t="s">
         <v>51</v>
       </c>
-      <c r="E57" s="131"/>
-      <c r="F57" s="131"/>
-      <c r="G57" s="131"/>
-      <c r="H57" s="131"/>
-      <c r="I57" s="131"/>
-      <c r="J57" s="131"/>
-      <c r="K57" s="132"/>
+      <c r="E57" s="132"/>
+      <c r="F57" s="132"/>
+      <c r="G57" s="132"/>
+      <c r="H57" s="132"/>
+      <c r="I57" s="132"/>
+      <c r="J57" s="132"/>
+      <c r="K57" s="133"/>
       <c r="L57" t="s">
         <v>52</v>
       </c>
@@ -4368,16 +4584,16 @@
       <c r="C58" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D58" s="130" t="s">
+      <c r="D58" s="131" t="s">
         <v>53</v>
       </c>
-      <c r="E58" s="131"/>
-      <c r="F58" s="131"/>
-      <c r="G58" s="131"/>
-      <c r="H58" s="131"/>
-      <c r="I58" s="131"/>
-      <c r="J58" s="131"/>
-      <c r="K58" s="132"/>
+      <c r="E58" s="132"/>
+      <c r="F58" s="132"/>
+      <c r="G58" s="132"/>
+      <c r="H58" s="132"/>
+      <c r="I58" s="132"/>
+      <c r="J58" s="132"/>
+      <c r="K58" s="133"/>
       <c r="L58" t="s">
         <v>54</v>
       </c>
@@ -4404,11 +4620,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="L10:N10"/>
-    <mergeCell ref="O10:Q10"/>
-    <mergeCell ref="D53:K53"/>
-    <mergeCell ref="D56:K56"/>
-    <mergeCell ref="D57:K57"/>
     <mergeCell ref="D58:K58"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A12:A15"/>
@@ -4423,8 +4634,13 @@
     <mergeCell ref="C10:E10"/>
     <mergeCell ref="F10:H10"/>
     <mergeCell ref="I10:K10"/>
+    <mergeCell ref="L10:N10"/>
+    <mergeCell ref="O10:Q10"/>
+    <mergeCell ref="D53:K53"/>
+    <mergeCell ref="D56:K56"/>
+    <mergeCell ref="D57:K57"/>
   </mergeCells>
-  <phoneticPr fontId="12" type="noConversion"/>
+  <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -4446,7 +4662,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="12" type="noConversion"/>
+  <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
@@ -4507,16 +4723,16 @@
       <c r="C20" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D20" s="136" t="s">
+      <c r="D20" s="134" t="s">
         <v>37</v>
       </c>
-      <c r="E20" s="136"/>
-      <c r="F20" s="136"/>
-      <c r="G20" s="136"/>
-      <c r="H20" s="136"/>
-      <c r="I20" s="136"/>
-      <c r="J20" s="136"/>
-      <c r="K20" s="136"/>
+      <c r="E20" s="134"/>
+      <c r="F20" s="134"/>
+      <c r="G20" s="134"/>
+      <c r="H20" s="134"/>
+      <c r="I20" s="134"/>
+      <c r="J20" s="134"/>
+      <c r="K20" s="134"/>
       <c r="T20" s="13"/>
     </row>
     <row r="21" spans="1:20">
@@ -4529,16 +4745,16 @@
       <c r="C21" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D21" s="130" t="s">
+      <c r="D21" s="131" t="s">
         <v>41</v>
       </c>
-      <c r="E21" s="131"/>
-      <c r="F21" s="131"/>
-      <c r="G21" s="131"/>
-      <c r="H21" s="131"/>
-      <c r="I21" s="131"/>
-      <c r="J21" s="131"/>
-      <c r="K21" s="132"/>
+      <c r="E21" s="132"/>
+      <c r="F21" s="132"/>
+      <c r="G21" s="132"/>
+      <c r="H21" s="132"/>
+      <c r="I21" s="132"/>
+      <c r="J21" s="132"/>
+      <c r="K21" s="133"/>
       <c r="T21" s="13"/>
     </row>
     <row r="22" spans="1:20">
@@ -4551,16 +4767,16 @@
       <c r="C22" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D22" s="130" t="s">
+      <c r="D22" s="131" t="s">
         <v>44</v>
       </c>
-      <c r="E22" s="131"/>
-      <c r="F22" s="131"/>
-      <c r="G22" s="131"/>
-      <c r="H22" s="131"/>
-      <c r="I22" s="131"/>
-      <c r="J22" s="131"/>
-      <c r="K22" s="132"/>
+      <c r="E22" s="132"/>
+      <c r="F22" s="132"/>
+      <c r="G22" s="132"/>
+      <c r="H22" s="132"/>
+      <c r="I22" s="132"/>
+      <c r="J22" s="132"/>
+      <c r="K22" s="133"/>
       <c r="T22" s="13"/>
     </row>
     <row r="24" spans="1:20">
@@ -4593,16 +4809,16 @@
       <c r="C25" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D25" s="136" t="s">
+      <c r="D25" s="134" t="s">
         <v>49</v>
       </c>
-      <c r="E25" s="136"/>
-      <c r="F25" s="136"/>
-      <c r="G25" s="136"/>
-      <c r="H25" s="136"/>
-      <c r="I25" s="136"/>
-      <c r="J25" s="136"/>
-      <c r="K25" s="136"/>
+      <c r="E25" s="134"/>
+      <c r="F25" s="134"/>
+      <c r="G25" s="134"/>
+      <c r="H25" s="134"/>
+      <c r="I25" s="134"/>
+      <c r="J25" s="134"/>
+      <c r="K25" s="134"/>
     </row>
     <row r="26" spans="1:20">
       <c r="A26" s="4" t="s">
@@ -4614,16 +4830,16 @@
       <c r="C26" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D26" s="130" t="s">
+      <c r="D26" s="131" t="s">
         <v>51</v>
       </c>
-      <c r="E26" s="131"/>
-      <c r="F26" s="131"/>
-      <c r="G26" s="131"/>
-      <c r="H26" s="131"/>
-      <c r="I26" s="131"/>
-      <c r="J26" s="131"/>
-      <c r="K26" s="132"/>
+      <c r="E26" s="132"/>
+      <c r="F26" s="132"/>
+      <c r="G26" s="132"/>
+      <c r="H26" s="132"/>
+      <c r="I26" s="132"/>
+      <c r="J26" s="132"/>
+      <c r="K26" s="133"/>
     </row>
     <row r="27" spans="1:20">
       <c r="A27" s="4" t="s">
@@ -4635,16 +4851,16 @@
       <c r="C27" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D27" s="130" t="s">
+      <c r="D27" s="131" t="s">
         <v>53</v>
       </c>
-      <c r="E27" s="131"/>
-      <c r="F27" s="131"/>
-      <c r="G27" s="131"/>
-      <c r="H27" s="131"/>
-      <c r="I27" s="131"/>
-      <c r="J27" s="131"/>
-      <c r="K27" s="132"/>
+      <c r="E27" s="132"/>
+      <c r="F27" s="132"/>
+      <c r="G27" s="132"/>
+      <c r="H27" s="132"/>
+      <c r="I27" s="132"/>
+      <c r="J27" s="132"/>
+      <c r="K27" s="133"/>
     </row>
     <row r="28" spans="1:20">
       <c r="C28" s="9"/>
@@ -4686,16 +4902,16 @@
       <c r="C30" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D30" s="136" t="s">
+      <c r="D30" s="134" t="s">
         <v>57</v>
       </c>
-      <c r="E30" s="136"/>
-      <c r="F30" s="136"/>
-      <c r="G30" s="136"/>
-      <c r="H30" s="136"/>
-      <c r="I30" s="136"/>
-      <c r="J30" s="136"/>
-      <c r="K30" s="136"/>
+      <c r="E30" s="134"/>
+      <c r="F30" s="134"/>
+      <c r="G30" s="134"/>
+      <c r="H30" s="134"/>
+      <c r="I30" s="134"/>
+      <c r="J30" s="134"/>
+      <c r="K30" s="134"/>
     </row>
     <row r="31" spans="1:20">
       <c r="A31" s="4" t="s">
@@ -4707,16 +4923,16 @@
       <c r="C31" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D31" s="130" t="s">
+      <c r="D31" s="131" t="s">
         <v>51</v>
       </c>
-      <c r="E31" s="131"/>
-      <c r="F31" s="131"/>
-      <c r="G31" s="131"/>
-      <c r="H31" s="131"/>
-      <c r="I31" s="131"/>
-      <c r="J31" s="131"/>
-      <c r="K31" s="132"/>
+      <c r="E31" s="132"/>
+      <c r="F31" s="132"/>
+      <c r="G31" s="132"/>
+      <c r="H31" s="132"/>
+      <c r="I31" s="132"/>
+      <c r="J31" s="132"/>
+      <c r="K31" s="133"/>
     </row>
     <row r="32" spans="1:20">
       <c r="A32" s="4" t="s">
@@ -4728,16 +4944,16 @@
       <c r="C32" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D32" s="130" t="s">
+      <c r="D32" s="131" t="s">
         <v>53</v>
       </c>
-      <c r="E32" s="131"/>
-      <c r="F32" s="131"/>
-      <c r="G32" s="131"/>
-      <c r="H32" s="131"/>
-      <c r="I32" s="131"/>
-      <c r="J32" s="131"/>
-      <c r="K32" s="132"/>
+      <c r="E32" s="132"/>
+      <c r="F32" s="132"/>
+      <c r="G32" s="132"/>
+      <c r="H32" s="132"/>
+      <c r="I32" s="132"/>
+      <c r="J32" s="132"/>
+      <c r="K32" s="133"/>
     </row>
     <row r="33" spans="1:20">
       <c r="A33" t="s">
@@ -4847,30 +5063,30 @@
       <c r="C49" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="D49" s="136" t="s">
+      <c r="D49" s="134" t="s">
         <v>79</v>
       </c>
-      <c r="E49" s="136"/>
-      <c r="F49" s="136"/>
-      <c r="G49" s="136"/>
-      <c r="H49" s="136"/>
-      <c r="I49" s="136"/>
-      <c r="J49" s="136"/>
-      <c r="K49" s="146"/>
+      <c r="E49" s="134"/>
+      <c r="F49" s="134"/>
+      <c r="G49" s="134"/>
+      <c r="H49" s="134"/>
+      <c r="I49" s="134"/>
+      <c r="J49" s="134"/>
+      <c r="K49" s="138"/>
       <c r="T49" s="13"/>
     </row>
     <row r="50" spans="1:20">
       <c r="A50" s="26"/>
       <c r="B50" s="4"/>
       <c r="C50" s="5"/>
-      <c r="D50" s="130"/>
-      <c r="E50" s="131"/>
-      <c r="F50" s="131"/>
-      <c r="G50" s="131"/>
-      <c r="H50" s="131"/>
-      <c r="I50" s="131"/>
-      <c r="J50" s="131"/>
-      <c r="K50" s="145"/>
+      <c r="D50" s="131"/>
+      <c r="E50" s="132"/>
+      <c r="F50" s="132"/>
+      <c r="G50" s="132"/>
+      <c r="H50" s="132"/>
+      <c r="I50" s="132"/>
+      <c r="J50" s="132"/>
+      <c r="K50" s="139"/>
       <c r="L50" t="s">
         <v>80</v>
       </c>
@@ -4880,14 +5096,14 @@
       <c r="A51" s="26"/>
       <c r="B51" s="4"/>
       <c r="C51" s="5"/>
-      <c r="D51" s="130"/>
-      <c r="E51" s="131"/>
-      <c r="F51" s="131"/>
-      <c r="G51" s="131"/>
-      <c r="H51" s="131"/>
-      <c r="I51" s="131"/>
-      <c r="J51" s="131"/>
-      <c r="K51" s="145"/>
+      <c r="D51" s="131"/>
+      <c r="E51" s="132"/>
+      <c r="F51" s="132"/>
+      <c r="G51" s="132"/>
+      <c r="H51" s="132"/>
+      <c r="I51" s="132"/>
+      <c r="J51" s="132"/>
+      <c r="K51" s="139"/>
       <c r="T51" s="13"/>
     </row>
     <row r="52" spans="1:20">
@@ -4932,31 +5148,31 @@
       <c r="B54" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C54" s="142" t="s">
+      <c r="C54" s="140" t="s">
         <v>82</v>
       </c>
-      <c r="D54" s="143"/>
-      <c r="E54" s="143"/>
-      <c r="F54" s="143"/>
-      <c r="G54" s="143"/>
-      <c r="H54" s="143"/>
-      <c r="I54" s="143"/>
-      <c r="J54" s="143"/>
-      <c r="K54" s="144"/>
+      <c r="D54" s="141"/>
+      <c r="E54" s="141"/>
+      <c r="F54" s="141"/>
+      <c r="G54" s="141"/>
+      <c r="H54" s="141"/>
+      <c r="I54" s="141"/>
+      <c r="J54" s="141"/>
+      <c r="K54" s="142"/>
       <c r="T54" s="37"/>
     </row>
     <row r="55" spans="1:20">
       <c r="A55" s="26"/>
       <c r="B55" s="4"/>
-      <c r="C55" s="142"/>
-      <c r="D55" s="143"/>
-      <c r="E55" s="143"/>
-      <c r="F55" s="143"/>
-      <c r="G55" s="143"/>
-      <c r="H55" s="143"/>
-      <c r="I55" s="143"/>
-      <c r="J55" s="143"/>
-      <c r="K55" s="144"/>
+      <c r="C55" s="140"/>
+      <c r="D55" s="141"/>
+      <c r="E55" s="141"/>
+      <c r="F55" s="141"/>
+      <c r="G55" s="141"/>
+      <c r="H55" s="141"/>
+      <c r="I55" s="141"/>
+      <c r="J55" s="141"/>
+      <c r="K55" s="142"/>
       <c r="L55" t="s">
         <v>83</v>
       </c>
@@ -4965,15 +5181,15 @@
     <row r="56" spans="1:20">
       <c r="A56" s="26"/>
       <c r="B56" s="4"/>
-      <c r="C56" s="142"/>
-      <c r="D56" s="143"/>
-      <c r="E56" s="143"/>
-      <c r="F56" s="143"/>
-      <c r="G56" s="143"/>
-      <c r="H56" s="143"/>
-      <c r="I56" s="143"/>
-      <c r="J56" s="143"/>
-      <c r="K56" s="144"/>
+      <c r="C56" s="140"/>
+      <c r="D56" s="141"/>
+      <c r="E56" s="141"/>
+      <c r="F56" s="141"/>
+      <c r="G56" s="141"/>
+      <c r="H56" s="141"/>
+      <c r="I56" s="141"/>
+      <c r="J56" s="141"/>
+      <c r="K56" s="142"/>
       <c r="T56" s="37"/>
     </row>
     <row r="57" spans="1:20">
@@ -4993,45 +5209,45 @@
       <c r="B59" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="C59" s="142" t="s">
+      <c r="C59" s="140" t="s">
         <v>82</v>
       </c>
-      <c r="D59" s="143"/>
-      <c r="E59" s="143"/>
-      <c r="F59" s="143"/>
-      <c r="G59" s="143"/>
-      <c r="H59" s="143"/>
-      <c r="I59" s="143"/>
-      <c r="J59" s="143"/>
-      <c r="K59" s="144"/>
+      <c r="D59" s="141"/>
+      <c r="E59" s="141"/>
+      <c r="F59" s="141"/>
+      <c r="G59" s="141"/>
+      <c r="H59" s="141"/>
+      <c r="I59" s="141"/>
+      <c r="J59" s="141"/>
+      <c r="K59" s="142"/>
       <c r="T59" s="13"/>
     </row>
     <row r="60" spans="1:20">
       <c r="A60" s="26"/>
       <c r="B60" s="4"/>
-      <c r="C60" s="142"/>
-      <c r="D60" s="143"/>
-      <c r="E60" s="143"/>
-      <c r="F60" s="143"/>
-      <c r="G60" s="143"/>
-      <c r="H60" s="143"/>
-      <c r="I60" s="143"/>
-      <c r="J60" s="143"/>
-      <c r="K60" s="144"/>
+      <c r="C60" s="140"/>
+      <c r="D60" s="141"/>
+      <c r="E60" s="141"/>
+      <c r="F60" s="141"/>
+      <c r="G60" s="141"/>
+      <c r="H60" s="141"/>
+      <c r="I60" s="141"/>
+      <c r="J60" s="141"/>
+      <c r="K60" s="142"/>
       <c r="T60" s="13"/>
     </row>
     <row r="61" spans="1:20">
       <c r="A61" s="26"/>
       <c r="B61" s="4"/>
-      <c r="C61" s="142"/>
-      <c r="D61" s="143"/>
-      <c r="E61" s="143"/>
-      <c r="F61" s="143"/>
-      <c r="G61" s="143"/>
-      <c r="H61" s="143"/>
-      <c r="I61" s="143"/>
-      <c r="J61" s="143"/>
-      <c r="K61" s="144"/>
+      <c r="C61" s="140"/>
+      <c r="D61" s="141"/>
+      <c r="E61" s="141"/>
+      <c r="F61" s="141"/>
+      <c r="G61" s="141"/>
+      <c r="H61" s="141"/>
+      <c r="I61" s="141"/>
+      <c r="J61" s="141"/>
+      <c r="K61" s="142"/>
       <c r="T61" s="13"/>
     </row>
     <row r="62" spans="1:20">
@@ -5051,49 +5267,49 @@
       <c r="B64" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C64" s="135" t="s">
+      <c r="C64" s="130" t="s">
         <v>90</v>
       </c>
-      <c r="D64" s="135"/>
-      <c r="E64" s="135" t="s">
+      <c r="D64" s="130"/>
+      <c r="E64" s="130" t="s">
         <v>91</v>
       </c>
-      <c r="F64" s="135"/>
-      <c r="G64" s="140" t="s">
+      <c r="F64" s="130"/>
+      <c r="G64" s="143" t="s">
         <v>92</v>
       </c>
-      <c r="H64" s="139"/>
-      <c r="I64" s="140" t="s">
+      <c r="H64" s="129"/>
+      <c r="I64" s="143" t="s">
         <v>93</v>
       </c>
-      <c r="J64" s="138"/>
-      <c r="K64" s="141"/>
+      <c r="J64" s="128"/>
+      <c r="K64" s="144"/>
     </row>
     <row r="65" spans="1:11">
       <c r="A65" s="26"/>
       <c r="B65" s="4"/>
-      <c r="C65" s="135"/>
-      <c r="D65" s="135"/>
-      <c r="E65" s="135"/>
-      <c r="F65" s="135"/>
-      <c r="G65" s="140"/>
-      <c r="H65" s="139"/>
-      <c r="I65" s="140"/>
-      <c r="J65" s="138"/>
-      <c r="K65" s="141"/>
+      <c r="C65" s="130"/>
+      <c r="D65" s="130"/>
+      <c r="E65" s="130"/>
+      <c r="F65" s="130"/>
+      <c r="G65" s="143"/>
+      <c r="H65" s="129"/>
+      <c r="I65" s="143"/>
+      <c r="J65" s="128"/>
+      <c r="K65" s="144"/>
     </row>
     <row r="66" spans="1:11">
       <c r="A66" s="26"/>
       <c r="B66" s="4"/>
-      <c r="C66" s="135"/>
-      <c r="D66" s="135"/>
-      <c r="E66" s="135"/>
-      <c r="F66" s="135"/>
-      <c r="G66" s="140"/>
-      <c r="H66" s="139"/>
-      <c r="I66" s="140"/>
-      <c r="J66" s="138"/>
-      <c r="K66" s="141"/>
+      <c r="C66" s="130"/>
+      <c r="D66" s="130"/>
+      <c r="E66" s="130"/>
+      <c r="F66" s="130"/>
+      <c r="G66" s="143"/>
+      <c r="H66" s="129"/>
+      <c r="I66" s="143"/>
+      <c r="J66" s="128"/>
+      <c r="K66" s="144"/>
     </row>
     <row r="67" spans="1:11">
       <c r="A67" s="22"/>
@@ -5114,28 +5330,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="D20:K20"/>
-    <mergeCell ref="D21:K21"/>
-    <mergeCell ref="D22:K22"/>
-    <mergeCell ref="D25:K25"/>
-    <mergeCell ref="D26:K26"/>
-    <mergeCell ref="D27:K27"/>
-    <mergeCell ref="D30:K30"/>
-    <mergeCell ref="D31:K31"/>
-    <mergeCell ref="D32:K32"/>
-    <mergeCell ref="D49:K49"/>
-    <mergeCell ref="D50:K50"/>
-    <mergeCell ref="D51:K51"/>
-    <mergeCell ref="C54:K54"/>
-    <mergeCell ref="C55:K55"/>
-    <mergeCell ref="C56:K56"/>
-    <mergeCell ref="C59:K59"/>
-    <mergeCell ref="C60:K60"/>
-    <mergeCell ref="C61:K61"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="E64:F64"/>
-    <mergeCell ref="G64:H64"/>
-    <mergeCell ref="I64:K64"/>
     <mergeCell ref="C65:D65"/>
     <mergeCell ref="E65:F65"/>
     <mergeCell ref="G65:H65"/>
@@ -5144,8 +5338,30 @@
     <mergeCell ref="E66:F66"/>
     <mergeCell ref="G66:H66"/>
     <mergeCell ref="I66:K66"/>
+    <mergeCell ref="C59:K59"/>
+    <mergeCell ref="C60:K60"/>
+    <mergeCell ref="C61:K61"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="G64:H64"/>
+    <mergeCell ref="I64:K64"/>
+    <mergeCell ref="D50:K50"/>
+    <mergeCell ref="D51:K51"/>
+    <mergeCell ref="C54:K54"/>
+    <mergeCell ref="C55:K55"/>
+    <mergeCell ref="C56:K56"/>
+    <mergeCell ref="D27:K27"/>
+    <mergeCell ref="D30:K30"/>
+    <mergeCell ref="D31:K31"/>
+    <mergeCell ref="D32:K32"/>
+    <mergeCell ref="D49:K49"/>
+    <mergeCell ref="D20:K20"/>
+    <mergeCell ref="D21:K21"/>
+    <mergeCell ref="D22:K22"/>
+    <mergeCell ref="D25:K25"/>
+    <mergeCell ref="D26:K26"/>
   </mergeCells>
-  <phoneticPr fontId="12" type="noConversion"/>
+  <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -5175,41 +5391,41 @@
       </c>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="133" t="s">
+      <c r="A3" s="135" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="133" t="s">
+      <c r="B3" s="135" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="137" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="138"/>
-      <c r="E3" s="139"/>
+      <c r="D3" s="128"/>
+      <c r="E3" s="129"/>
       <c r="F3" s="137" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="138"/>
-      <c r="H3" s="139"/>
+      <c r="G3" s="128"/>
+      <c r="H3" s="129"/>
       <c r="I3" s="137" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="138"/>
-      <c r="K3" s="139"/>
-      <c r="L3" s="138" t="s">
+      <c r="J3" s="128"/>
+      <c r="K3" s="129"/>
+      <c r="L3" s="128" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="138"/>
-      <c r="N3" s="139"/>
-      <c r="O3" s="135" t="s">
+      <c r="M3" s="128"/>
+      <c r="N3" s="129"/>
+      <c r="O3" s="130" t="s">
         <v>14</v>
       </c>
-      <c r="P3" s="135"/>
-      <c r="Q3" s="135"/>
+      <c r="P3" s="130"/>
+      <c r="Q3" s="130"/>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="134"/>
-      <c r="B4" s="134"/>
+      <c r="A4" s="136"/>
+      <c r="B4" s="136"/>
       <c r="C4" s="5" t="s">
         <v>15</v>
       </c>
@@ -5257,7 +5473,7 @@
       </c>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="135" t="s">
+      <c r="A5" s="130" t="s">
         <v>18</v>
       </c>
       <c r="B5" s="5">
@@ -5307,7 +5523,7 @@
       </c>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="135"/>
+      <c r="A6" s="130"/>
       <c r="B6" s="5">
         <v>88</v>
       </c>
@@ -5355,7 +5571,7 @@
       </c>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="135"/>
+      <c r="A7" s="130"/>
       <c r="B7" s="5">
         <v>100</v>
       </c>
@@ -5403,7 +5619,7 @@
       </c>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="135"/>
+      <c r="A8" s="130"/>
       <c r="B8" s="5" t="s">
         <v>19</v>
       </c>
@@ -5460,7 +5676,7 @@
       </c>
     </row>
     <row r="9" spans="1:17" hidden="1">
-      <c r="A9" s="133" t="s">
+      <c r="A9" s="135" t="s">
         <v>20</v>
       </c>
       <c r="B9" s="5">
@@ -5507,7 +5723,7 @@
       <c r="Q9" s="40"/>
     </row>
     <row r="10" spans="1:17" hidden="1">
-      <c r="A10" s="134"/>
+      <c r="A10" s="136"/>
       <c r="B10" s="5" t="s">
         <v>19</v>
       </c>
@@ -5561,7 +5777,7 @@
       <c r="Q10" s="40"/>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="135" t="s">
+      <c r="A11" s="130" t="s">
         <v>21</v>
       </c>
       <c r="B11" s="5">
@@ -5614,7 +5830,7 @@
       </c>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="135"/>
+      <c r="A12" s="130"/>
       <c r="B12" s="5">
         <v>180</v>
       </c>
@@ -5665,7 +5881,7 @@
       </c>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="135"/>
+      <c r="A13" s="130"/>
       <c r="B13" s="5">
         <v>240</v>
       </c>
@@ -5716,7 +5932,7 @@
       </c>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="135"/>
+      <c r="A14" s="130"/>
       <c r="B14" s="5" t="s">
         <v>19</v>
       </c>
@@ -5821,7 +6037,7 @@
       <c r="L20" s="39"/>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="135" t="s">
+      <c r="A21" s="130" t="s">
         <v>18</v>
       </c>
       <c r="B21" s="5">
@@ -5852,7 +6068,7 @@
       <c r="L21" s="34"/>
     </row>
     <row r="22" spans="1:12">
-      <c r="A22" s="135"/>
+      <c r="A22" s="130"/>
       <c r="B22" s="5">
         <v>88</v>
       </c>
@@ -5881,7 +6097,7 @@
       <c r="L22" s="34"/>
     </row>
     <row r="23" spans="1:12">
-      <c r="A23" s="135"/>
+      <c r="A23" s="130"/>
       <c r="B23" s="5">
         <v>100</v>
       </c>
@@ -5910,7 +6126,7 @@
       <c r="L23" s="34"/>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24" s="135"/>
+      <c r="A24" s="130"/>
       <c r="B24" s="5" t="s">
         <v>19</v>
       </c>
@@ -5961,7 +6177,7 @@
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="A11:A14"/>
   </mergeCells>
-  <phoneticPr fontId="12" type="noConversion"/>
+  <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
@@ -6132,29 +6348,29 @@
         <v>123</v>
       </c>
       <c r="O15" s="9"/>
-      <c r="P15" s="135" t="s">
+      <c r="P15" s="130" t="s">
         <v>107</v>
       </c>
-      <c r="Q15" s="135" t="s">
+      <c r="Q15" s="130" t="s">
         <v>109</v>
       </c>
-      <c r="R15" s="135" t="s">
+      <c r="R15" s="130" t="s">
         <v>124</v>
       </c>
-      <c r="S15" s="135"/>
-      <c r="T15" s="135" t="s">
+      <c r="S15" s="130"/>
+      <c r="T15" s="130" t="s">
         <v>125</v>
       </c>
-      <c r="U15" s="135"/>
-      <c r="V15" s="135"/>
+      <c r="U15" s="130"/>
+      <c r="V15" s="130"/>
     </row>
     <row r="16" spans="1:22">
       <c r="A16" t="s">
         <v>126</v>
       </c>
       <c r="O16" s="9"/>
-      <c r="P16" s="147"/>
-      <c r="Q16" s="147"/>
+      <c r="P16" s="145"/>
+      <c r="Q16" s="145"/>
       <c r="R16" s="5" t="s">
         <v>113</v>
       </c>
@@ -6265,17 +6481,17 @@
       <c r="Q21" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="R21" s="135">
+      <c r="R21" s="130">
         <f>SUM(R17:S18)</f>
         <v>1500</v>
       </c>
-      <c r="S21" s="135"/>
-      <c r="T21" s="140">
+      <c r="S21" s="130"/>
+      <c r="T21" s="143">
         <f>SUM(T17:V20)</f>
         <v>1500</v>
       </c>
-      <c r="U21" s="138"/>
-      <c r="V21" s="139"/>
+      <c r="U21" s="128"/>
+      <c r="V21" s="129"/>
     </row>
     <row r="22" spans="1:22">
       <c r="A22" t="s">
@@ -6432,7 +6648,7 @@
     <mergeCell ref="P15:P16"/>
     <mergeCell ref="Q15:Q16"/>
   </mergeCells>
-  <phoneticPr fontId="12" type="noConversion"/>
+  <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -6535,7 +6751,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="12" type="noConversion"/>
+  <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
@@ -6550,171 +6766,171 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="129"/>
-    <col min="2" max="14" width="16.625" style="129" customWidth="1"/>
-    <col min="15" max="16384" width="9" style="129"/>
+    <col min="1" max="1" width="9" style="127"/>
+    <col min="2" max="14" width="16.625" style="127" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="127"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:9" ht="22.5">
-      <c r="B3" s="128" t="s">
+      <c r="B3" s="126" t="s">
+        <v>295</v>
+      </c>
+      <c r="C3" s="126" t="s">
         <v>296</v>
       </c>
-      <c r="C3" s="128" t="s">
+      <c r="E3" s="126" t="s">
+        <v>303</v>
+      </c>
+      <c r="F3" s="126" t="s">
+        <v>304</v>
+      </c>
+      <c r="H3" s="126" t="s">
+        <v>305</v>
+      </c>
+      <c r="I3" s="126" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" ht="22.5">
+      <c r="B4" s="126"/>
+      <c r="C4" s="126"/>
+      <c r="E4" s="126"/>
+      <c r="F4" s="126"/>
+      <c r="H4" s="126"/>
+      <c r="I4" s="126"/>
+    </row>
+    <row r="5" spans="2:9">
+      <c r="B5" s="127" t="s">
         <v>297</v>
       </c>
-      <c r="E3" s="128" t="s">
-        <v>304</v>
-      </c>
-      <c r="F3" s="128" t="s">
-        <v>305</v>
-      </c>
-      <c r="H3" s="128" t="s">
+      <c r="C5" s="127" t="s">
+        <v>301</v>
+      </c>
+      <c r="E5" s="127" t="s">
+        <v>297</v>
+      </c>
+      <c r="F5" s="127" t="s">
         <v>306</v>
       </c>
-      <c r="I3" s="128" t="s">
+      <c r="H5" s="127" t="s">
+        <v>297</v>
+      </c>
+      <c r="I5" s="127" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="4" spans="2:9" ht="22.5">
-      <c r="B4" s="128"/>
-      <c r="C4" s="128"/>
-      <c r="E4" s="128"/>
-      <c r="F4" s="128"/>
-      <c r="H4" s="128"/>
-      <c r="I4" s="128"/>
-    </row>
-    <row r="5" spans="2:9">
-      <c r="B5" s="129" t="s">
+    <row r="6" spans="2:9">
+      <c r="B6" s="127" t="s">
         <v>298</v>
       </c>
-      <c r="C5" s="129" t="s">
+      <c r="C6" s="127" t="s">
         <v>302</v>
       </c>
-      <c r="E5" s="129" t="s">
+      <c r="E6" s="127" t="s">
         <v>298</v>
       </c>
-      <c r="F5" s="129" t="s">
+      <c r="F6" s="127" t="s">
         <v>307</v>
       </c>
-      <c r="H5" s="129" t="s">
+      <c r="H6" s="127" t="s">
         <v>298</v>
       </c>
-      <c r="I5" s="129" t="s">
+      <c r="I6" s="127" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="6" spans="2:9">
-      <c r="B6" s="129" t="s">
+    <row r="7" spans="2:9">
+      <c r="B7" s="127" t="s">
         <v>299</v>
       </c>
-      <c r="C6" s="129" t="s">
-        <v>303</v>
-      </c>
-      <c r="E6" s="129" t="s">
+      <c r="C7" s="127" t="s">
+        <v>300</v>
+      </c>
+      <c r="E7" s="127" t="s">
         <v>299</v>
       </c>
-      <c r="F6" s="129" t="s">
+      <c r="F7" s="127" t="s">
         <v>308</v>
       </c>
-      <c r="H6" s="129" t="s">
+      <c r="H7" s="127" t="s">
         <v>299</v>
       </c>
-      <c r="I6" s="129" t="s">
+      <c r="I7" s="127" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="7" spans="2:9">
-      <c r="B7" s="129" t="s">
-        <v>300</v>
-      </c>
-      <c r="C7" s="129" t="s">
-        <v>301</v>
-      </c>
-      <c r="E7" s="129" t="s">
-        <v>300</v>
-      </c>
-      <c r="F7" s="129" t="s">
-        <v>309</v>
-      </c>
-      <c r="H7" s="129" t="s">
-        <v>300</v>
-      </c>
-      <c r="I7" s="129" t="s">
+    <row r="8" spans="2:9">
+      <c r="E8" s="127" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="8" spans="2:9">
-      <c r="E8" s="129" t="s">
+      <c r="F8" s="127" t="s">
+        <v>326</v>
+      </c>
+      <c r="H8" s="127" t="s">
+        <v>313</v>
+      </c>
+      <c r="I8" s="127" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9">
+      <c r="E9" s="127" t="s">
         <v>314</v>
       </c>
-      <c r="F8" s="129" t="s">
-        <v>327</v>
-      </c>
-      <c r="H8" s="129" t="s">
+      <c r="F9" s="127" t="s">
+        <v>315</v>
+      </c>
+      <c r="H9" s="127" t="s">
         <v>314</v>
       </c>
-      <c r="I8" s="129" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9">
-      <c r="E9" s="129" t="s">
-        <v>315</v>
-      </c>
-      <c r="F9" s="129" t="s">
+      <c r="I9" s="127" t="s">
         <v>316</v>
       </c>
-      <c r="H9" s="129" t="s">
-        <v>315</v>
-      </c>
-      <c r="I9" s="129" t="s">
+    </row>
+    <row r="10" spans="2:9">
+      <c r="E10" s="127" t="s">
+        <v>318</v>
+      </c>
+      <c r="F10" s="127" t="s">
+        <v>320</v>
+      </c>
+      <c r="H10" s="127" t="s">
+        <v>318</v>
+      </c>
+      <c r="I10" s="127" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9">
+      <c r="E11" s="127" t="s">
+        <v>319</v>
+      </c>
+      <c r="F11" s="127" t="s">
+        <v>321</v>
+      </c>
+      <c r="H11" s="127" t="s">
+        <v>319</v>
+      </c>
+      <c r="I11" s="127" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9">
+      <c r="E12" s="127" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="10" spans="2:9">
-      <c r="E10" s="129" t="s">
-        <v>319</v>
-      </c>
-      <c r="F10" s="129" t="s">
-        <v>321</v>
-      </c>
-      <c r="H10" s="129" t="s">
-        <v>319</v>
-      </c>
-      <c r="I10" s="129" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9">
-      <c r="E11" s="129" t="s">
-        <v>320</v>
-      </c>
-      <c r="F11" s="129" t="s">
+      <c r="F12" s="127" t="s">
         <v>322</v>
       </c>
-      <c r="H11" s="129" t="s">
-        <v>320</v>
-      </c>
-      <c r="I11" s="129" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9">
-      <c r="E12" s="129" t="s">
-        <v>318</v>
-      </c>
-      <c r="F12" s="129" t="s">
+      <c r="H12" s="127" t="s">
+        <v>317</v>
+      </c>
+      <c r="I12" s="127" t="s">
         <v>323</v>
       </c>
-      <c r="H12" s="129" t="s">
-        <v>318</v>
-      </c>
-      <c r="I12" s="129" t="s">
-        <v>324</v>
-      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="12" type="noConversion"/>
+  <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -6739,55 +6955,55 @@
     </row>
     <row r="2" spans="1:10" ht="20.25">
       <c r="A2" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="21" thickBot="1">
       <c r="A3" s="3"/>
     </row>
     <row r="4" spans="1:10" ht="18.75" customHeight="1">
-      <c r="A4" s="148" t="s">
+      <c r="A4" s="167" t="s">
         <v>159</v>
       </c>
-      <c r="B4" s="148" t="s">
+      <c r="B4" s="167" t="s">
         <v>125</v>
       </c>
-      <c r="C4" s="154" t="s">
+      <c r="C4" s="171" t="s">
         <v>124</v>
       </c>
-      <c r="D4" s="155"/>
-      <c r="E4" s="148" t="s">
+      <c r="D4" s="172"/>
+      <c r="E4" s="167" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A5" s="149"/>
-      <c r="B5" s="149"/>
-      <c r="C5" s="102" t="s">
+      <c r="A5" s="168"/>
+      <c r="B5" s="168"/>
+      <c r="C5" s="100" t="s">
         <v>202</v>
       </c>
-      <c r="D5" s="103" t="s">
+      <c r="D5" s="101" t="s">
         <v>203</v>
       </c>
-      <c r="E5" s="149"/>
+      <c r="E5" s="168"/>
       <c r="J5" s="50" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="18.75" customHeight="1">
-      <c r="A6" s="100">
+      <c r="A6" s="98">
         <v>43101</v>
       </c>
-      <c r="B6" s="101">
+      <c r="B6" s="99">
         <v>10</v>
       </c>
-      <c r="C6" s="98">
+      <c r="C6" s="96">
         <v>200</v>
       </c>
-      <c r="D6" s="99">
+      <c r="D6" s="97">
         <v>30</v>
       </c>
-      <c r="E6" s="97">
+      <c r="E6" s="95">
         <v>40</v>
       </c>
       <c r="G6" s="54" t="s">
@@ -6801,19 +7017,19 @@
       <c r="A7" s="75">
         <v>43102</v>
       </c>
-      <c r="B7" s="85">
+      <c r="B7" s="83">
         <v>10</v>
       </c>
       <c r="C7" s="72">
         <v>200</v>
       </c>
-      <c r="D7" s="94">
+      <c r="D7" s="92">
         <v>30</v>
       </c>
       <c r="E7" s="48">
         <v>50</v>
       </c>
-      <c r="F7" s="96"/>
+      <c r="F7" s="94"/>
       <c r="J7" s="50" t="s">
         <v>212</v>
       </c>
@@ -6822,7 +7038,7 @@
       <c r="A8" s="75">
         <v>43103</v>
       </c>
-      <c r="B8" s="85">
+      <c r="B8" s="83">
         <v>10</v>
       </c>
       <c r="C8" s="72">
@@ -6842,7 +7058,7 @@
       <c r="A9" s="75">
         <v>43104</v>
       </c>
-      <c r="B9" s="85">
+      <c r="B9" s="83">
         <v>10</v>
       </c>
       <c r="C9" s="72">
@@ -6859,9 +7075,9 @@
       <c r="A10" s="76" t="s">
         <v>160</v>
       </c>
-      <c r="B10" s="93"/>
-      <c r="C10" s="92"/>
-      <c r="D10" s="95"/>
+      <c r="B10" s="91"/>
+      <c r="C10" s="90"/>
+      <c r="D10" s="93"/>
       <c r="E10" s="48">
         <v>80</v>
       </c>
@@ -6870,16 +7086,16 @@
       <c r="A11" s="76" t="s">
         <v>160</v>
       </c>
-      <c r="B11" s="93"/>
-      <c r="C11" s="92"/>
-      <c r="D11" s="95"/>
+      <c r="B11" s="91"/>
+      <c r="C11" s="90"/>
+      <c r="D11" s="93"/>
       <c r="E11" s="48"/>
     </row>
     <row r="12" spans="1:10" ht="18.75" customHeight="1">
       <c r="A12" s="76">
         <v>43131</v>
       </c>
-      <c r="B12" s="85">
+      <c r="B12" s="83">
         <v>10</v>
       </c>
       <c r="C12" s="72">
@@ -6896,7 +7112,7 @@
       <c r="A13" s="77" t="s">
         <v>207</v>
       </c>
-      <c r="B13" s="104">
+      <c r="B13" s="102">
         <v>50</v>
       </c>
       <c r="C13" s="79">
@@ -6905,7 +7121,7 @@
       <c r="D13" s="80">
         <v>150</v>
       </c>
-      <c r="E13" s="83">
+      <c r="E13" s="81">
         <v>90</v>
       </c>
     </row>
@@ -6913,89 +7129,89 @@
       <c r="A14" s="78" t="s">
         <v>132</v>
       </c>
-      <c r="B14" s="88">
+      <c r="B14" s="86">
         <v>50</v>
       </c>
-      <c r="C14" s="150" t="s">
+      <c r="C14" s="169" t="s">
         <v>208</v>
       </c>
-      <c r="D14" s="151"/>
-      <c r="E14" s="84">
+      <c r="D14" s="153"/>
+      <c r="E14" s="82">
         <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="65.25" customHeight="1">
       <c r="A16" s="3" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" ht="32.25" customHeight="1">
+      <c r="A17" s="170" t="s">
+        <v>214</v>
+      </c>
+      <c r="B17" s="166"/>
+      <c r="C17" s="166" t="s">
+        <v>215</v>
+      </c>
+      <c r="D17" s="166"/>
+      <c r="E17" s="166"/>
+      <c r="F17" s="166"/>
+      <c r="G17" s="166"/>
+      <c r="H17" s="161" t="s">
+        <v>216</v>
+      </c>
+      <c r="I17" s="161"/>
+      <c r="J17" s="164" t="s">
+        <v>217</v>
+      </c>
+      <c r="K17" s="165"/>
+    </row>
+    <row r="18" spans="1:19" ht="25.5" customHeight="1">
+      <c r="A18" s="148" t="s">
+        <v>288</v>
+      </c>
+      <c r="B18" s="146"/>
+      <c r="C18" s="147" t="s">
+        <v>287</v>
+      </c>
+      <c r="D18" s="148"/>
+      <c r="E18" s="148"/>
+      <c r="F18" s="146"/>
+      <c r="G18" s="147" t="s">
+        <v>222</v>
+      </c>
+      <c r="H18" s="148"/>
+      <c r="I18" s="148"/>
+      <c r="J18" s="148"/>
+      <c r="K18" s="148"/>
+      <c r="N18" s="54" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="17" spans="1:19" ht="32.25" customHeight="1">
-      <c r="A17" s="152" t="s">
-        <v>214</v>
-      </c>
-      <c r="B17" s="153"/>
-      <c r="C17" s="153" t="s">
-        <v>215</v>
-      </c>
-      <c r="D17" s="153"/>
-      <c r="E17" s="153"/>
-      <c r="F17" s="153"/>
-      <c r="G17" s="153"/>
-      <c r="H17" s="156" t="s">
-        <v>216</v>
-      </c>
-      <c r="I17" s="156"/>
-      <c r="J17" s="157" t="s">
-        <v>217</v>
-      </c>
-      <c r="K17" s="158"/>
-    </row>
-    <row r="18" spans="1:19" ht="25.5" customHeight="1">
-      <c r="A18" s="160" t="s">
-        <v>289</v>
-      </c>
-      <c r="B18" s="161"/>
-      <c r="C18" s="159" t="s">
-        <v>288</v>
-      </c>
-      <c r="D18" s="160"/>
-      <c r="E18" s="160"/>
-      <c r="F18" s="161"/>
-      <c r="G18" s="159" t="s">
-        <v>222</v>
-      </c>
-      <c r="H18" s="160"/>
-      <c r="I18" s="160"/>
-      <c r="J18" s="160"/>
-      <c r="K18" s="160"/>
-      <c r="N18" s="54" t="s">
-        <v>295</v>
-      </c>
-    </row>
     <row r="19" spans="1:19" ht="21" customHeight="1">
-      <c r="A19" s="140" t="s">
+      <c r="A19" s="143" t="s">
         <v>76</v>
       </c>
-      <c r="B19" s="139"/>
-      <c r="C19" s="161" t="s">
+      <c r="B19" s="129"/>
+      <c r="C19" s="146" t="s">
         <v>226</v>
       </c>
-      <c r="D19" s="159"/>
+      <c r="D19" s="147"/>
       <c r="E19" s="52" t="s">
         <v>219</v>
       </c>
-      <c r="F19" s="161" t="s">
+      <c r="F19" s="146" t="s">
         <v>218</v>
       </c>
-      <c r="G19" s="139"/>
-      <c r="H19" s="161" t="s">
+      <c r="G19" s="129"/>
+      <c r="H19" s="146" t="s">
         <v>220</v>
       </c>
-      <c r="I19" s="139"/>
-      <c r="J19" s="161" t="s">
+      <c r="I19" s="129"/>
+      <c r="J19" s="146" t="s">
         <v>224</v>
       </c>
-      <c r="K19" s="139"/>
+      <c r="K19" s="129"/>
       <c r="N19" s="49" t="s">
         <v>146</v>
       </c>
@@ -7016,23 +7232,23 @@
       </c>
     </row>
     <row r="20" spans="1:19" ht="21" customHeight="1">
-      <c r="A20" s="161" t="s">
+      <c r="A20" s="146" t="s">
         <v>227</v>
       </c>
-      <c r="B20" s="139"/>
-      <c r="C20" s="161" t="s">
+      <c r="B20" s="129"/>
+      <c r="C20" s="146" t="s">
         <v>229</v>
       </c>
-      <c r="D20" s="139"/>
+      <c r="D20" s="129"/>
       <c r="E20" s="45"/>
-      <c r="F20" s="140"/>
-      <c r="G20" s="139"/>
-      <c r="H20" s="140"/>
-      <c r="I20" s="139"/>
-      <c r="J20" s="161" t="s">
+      <c r="F20" s="143"/>
+      <c r="G20" s="129"/>
+      <c r="H20" s="143"/>
+      <c r="I20" s="129"/>
+      <c r="J20" s="146" t="s">
         <v>225</v>
       </c>
-      <c r="K20" s="139"/>
+      <c r="K20" s="129"/>
       <c r="N20" s="49"/>
       <c r="O20" s="49"/>
       <c r="P20" s="49"/>
@@ -7043,23 +7259,23 @@
       <c r="S20" s="49"/>
     </row>
     <row r="21" spans="1:19" ht="21" customHeight="1">
-      <c r="A21" s="161" t="s">
+      <c r="A21" s="146" t="s">
         <v>227</v>
       </c>
-      <c r="B21" s="139"/>
-      <c r="C21" s="161" t="s">
+      <c r="B21" s="129"/>
+      <c r="C21" s="146" t="s">
         <v>230</v>
       </c>
-      <c r="D21" s="139"/>
+      <c r="D21" s="129"/>
       <c r="E21" s="45"/>
-      <c r="F21" s="140"/>
-      <c r="G21" s="139"/>
-      <c r="H21" s="140"/>
-      <c r="I21" s="139"/>
-      <c r="J21" s="161" t="s">
+      <c r="F21" s="143"/>
+      <c r="G21" s="129"/>
+      <c r="H21" s="143"/>
+      <c r="I21" s="129"/>
+      <c r="J21" s="146" t="s">
         <v>225</v>
       </c>
-      <c r="K21" s="139"/>
+      <c r="K21" s="129"/>
       <c r="N21" s="49"/>
       <c r="O21" s="49"/>
       <c r="P21" s="49"/>
@@ -7068,69 +7284,69 @@
       <c r="S21" s="49"/>
     </row>
     <row r="22" spans="1:19" ht="21" customHeight="1">
-      <c r="A22" s="161" t="s">
+      <c r="A22" s="146" t="s">
         <v>228</v>
       </c>
-      <c r="B22" s="139"/>
-      <c r="C22" s="161" t="s">
+      <c r="B22" s="129"/>
+      <c r="C22" s="146" t="s">
         <v>231</v>
       </c>
-      <c r="D22" s="139"/>
+      <c r="D22" s="129"/>
       <c r="E22" s="49"/>
-      <c r="F22" s="140"/>
-      <c r="G22" s="139"/>
-      <c r="H22" s="140"/>
-      <c r="I22" s="139"/>
-      <c r="J22" s="161" t="s">
+      <c r="F22" s="143"/>
+      <c r="G22" s="129"/>
+      <c r="H22" s="143"/>
+      <c r="I22" s="129"/>
+      <c r="J22" s="146" t="s">
         <v>225</v>
       </c>
-      <c r="K22" s="139"/>
+      <c r="K22" s="129"/>
     </row>
     <row r="23" spans="1:19" ht="21" customHeight="1">
-      <c r="A23" s="161" t="s">
+      <c r="A23" s="146" t="s">
         <v>228</v>
       </c>
-      <c r="B23" s="139"/>
-      <c r="C23" s="161" t="s">
+      <c r="B23" s="129"/>
+      <c r="C23" s="146" t="s">
         <v>232</v>
       </c>
-      <c r="D23" s="139"/>
+      <c r="D23" s="129"/>
       <c r="E23" s="49"/>
-      <c r="F23" s="140"/>
-      <c r="G23" s="139"/>
-      <c r="H23" s="140"/>
-      <c r="I23" s="139"/>
-      <c r="J23" s="161" t="s">
+      <c r="F23" s="143"/>
+      <c r="G23" s="129"/>
+      <c r="H23" s="143"/>
+      <c r="I23" s="129"/>
+      <c r="J23" s="146" t="s">
         <v>225</v>
       </c>
-      <c r="K23" s="139"/>
+      <c r="K23" s="129"/>
     </row>
     <row r="26" spans="1:19" ht="32.25" customHeight="1" thickBot="1">
-      <c r="A26" s="166" t="s">
+      <c r="A26" s="158" t="s">
         <v>214</v>
       </c>
-      <c r="B26" s="167"/>
-      <c r="C26" s="167" t="s">
+      <c r="B26" s="159"/>
+      <c r="C26" s="159" t="s">
         <v>215</v>
       </c>
-      <c r="D26" s="167"/>
-      <c r="E26" s="167"/>
-      <c r="F26" s="167"/>
-      <c r="G26" s="167"/>
-      <c r="H26" s="168" t="s">
+      <c r="D26" s="159"/>
+      <c r="E26" s="159"/>
+      <c r="F26" s="159"/>
+      <c r="G26" s="159"/>
+      <c r="H26" s="160" t="s">
         <v>216</v>
       </c>
-      <c r="I26" s="168"/>
-      <c r="J26" s="156" t="s">
+      <c r="I26" s="160"/>
+      <c r="J26" s="161" t="s">
         <v>217</v>
       </c>
-      <c r="K26" s="156"/>
+      <c r="K26" s="161"/>
     </row>
     <row r="27" spans="1:19" ht="25.5" customHeight="1">
-      <c r="A27" s="169" t="s">
+      <c r="A27" s="162" t="s">
         <v>233</v>
       </c>
-      <c r="B27" s="170"/>
+      <c r="B27" s="163"/>
       <c r="C27" s="60"/>
       <c r="D27" s="61"/>
       <c r="E27" s="62"/>
@@ -7148,61 +7364,86 @@
       <c r="B28" s="59" t="s">
         <v>89</v>
       </c>
-      <c r="C28" s="134" t="s">
+      <c r="C28" s="136" t="s">
         <v>90</v>
       </c>
-      <c r="D28" s="134"/>
-      <c r="E28" s="134" t="s">
+      <c r="D28" s="136"/>
+      <c r="E28" s="136" t="s">
         <v>91</v>
       </c>
-      <c r="F28" s="134"/>
-      <c r="G28" s="162" t="s">
+      <c r="F28" s="136"/>
+      <c r="G28" s="154" t="s">
         <v>92</v>
       </c>
-      <c r="H28" s="163"/>
-      <c r="I28" s="162" t="s">
+      <c r="H28" s="155"/>
+      <c r="I28" s="154" t="s">
         <v>93</v>
       </c>
-      <c r="J28" s="164"/>
-      <c r="K28" s="165"/>
+      <c r="J28" s="156"/>
+      <c r="K28" s="157"/>
     </row>
     <row r="29" spans="1:19" ht="21.75" customHeight="1">
       <c r="A29" s="26"/>
       <c r="B29" s="49"/>
-      <c r="C29" s="135"/>
-      <c r="D29" s="135"/>
-      <c r="E29" s="135"/>
-      <c r="F29" s="135"/>
-      <c r="G29" s="140"/>
-      <c r="H29" s="139"/>
-      <c r="I29" s="140"/>
-      <c r="J29" s="138"/>
-      <c r="K29" s="141"/>
+      <c r="C29" s="130"/>
+      <c r="D29" s="130"/>
+      <c r="E29" s="130"/>
+      <c r="F29" s="130"/>
+      <c r="G29" s="143"/>
+      <c r="H29" s="129"/>
+      <c r="I29" s="143"/>
+      <c r="J29" s="128"/>
+      <c r="K29" s="144"/>
     </row>
     <row r="30" spans="1:19" ht="21.75" customHeight="1" thickBot="1">
       <c r="A30" s="58"/>
       <c r="B30" s="57"/>
-      <c r="C30" s="171"/>
-      <c r="D30" s="171"/>
-      <c r="E30" s="171"/>
-      <c r="F30" s="171"/>
-      <c r="G30" s="172"/>
-      <c r="H30" s="173"/>
-      <c r="I30" s="172"/>
-      <c r="J30" s="174"/>
-      <c r="K30" s="151"/>
+      <c r="C30" s="149"/>
+      <c r="D30" s="149"/>
+      <c r="E30" s="149"/>
+      <c r="F30" s="149"/>
+      <c r="G30" s="150"/>
+      <c r="H30" s="151"/>
+      <c r="I30" s="150"/>
+      <c r="J30" s="152"/>
+      <c r="K30" s="153"/>
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="G18:K18"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="H23:I23"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="J19:K19"/>
     <mergeCell ref="J20:K20"/>
@@ -7214,42 +7455,17 @@
     <mergeCell ref="F20:G20"/>
     <mergeCell ref="F22:G22"/>
     <mergeCell ref="F21:G21"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="I29:K29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="G18:K18"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
   </mergeCells>
-  <phoneticPr fontId="12" type="noConversion"/>
+  <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -7258,8 +7474,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T110"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7275,7 +7491,7 @@
     </row>
     <row r="3" spans="1:9" ht="29.25" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -7294,13 +7510,13 @@
       <c r="A5" s="45" t="s">
         <v>146</v>
       </c>
-      <c r="B5" s="140" t="s">
+      <c r="B5" s="143" t="s">
         <v>147</v>
       </c>
-      <c r="C5" s="138"/>
-      <c r="D5" s="139"/>
+      <c r="C5" s="128"/>
+      <c r="D5" s="129"/>
       <c r="E5" s="52" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F5" s="45" t="s">
         <v>117</v>
@@ -7317,11 +7533,11 @@
       <c r="A6" s="66">
         <v>43136.354166666664</v>
       </c>
-      <c r="B6" s="178" t="s">
+      <c r="B6" s="203" t="s">
         <v>235</v>
       </c>
-      <c r="C6" s="179"/>
-      <c r="D6" s="180"/>
+      <c r="C6" s="204"/>
+      <c r="D6" s="205"/>
       <c r="E6" s="45">
         <v>400</v>
       </c>
@@ -7341,22 +7557,22 @@
       <c r="A7" s="66">
         <v>43137.354166608799</v>
       </c>
-      <c r="B7" s="178" t="s">
-        <v>290</v>
-      </c>
-      <c r="C7" s="179"/>
-      <c r="D7" s="180"/>
-      <c r="E7" s="127">
+      <c r="B7" s="203" t="s">
+        <v>289</v>
+      </c>
+      <c r="C7" s="204"/>
+      <c r="D7" s="205"/>
+      <c r="E7" s="125">
         <v>400</v>
       </c>
-      <c r="F7" s="127">
+      <c r="F7" s="125">
         <v>200</v>
       </c>
-      <c r="G7" s="127">
+      <c r="G7" s="125">
         <v>40</v>
       </c>
-      <c r="H7" s="127"/>
-      <c r="I7" s="127">
+      <c r="H7" s="125"/>
+      <c r="I7" s="125">
         <f t="shared" ref="I7:I8" si="0">E7-F7-G7</f>
         <v>160</v>
       </c>
@@ -7365,104 +7581,104 @@
       <c r="A8" s="66">
         <v>43138.354166608799</v>
       </c>
-      <c r="B8" s="178" t="s">
-        <v>291</v>
-      </c>
-      <c r="C8" s="179"/>
-      <c r="D8" s="180"/>
-      <c r="E8" s="127">
+      <c r="B8" s="203" t="s">
+        <v>290</v>
+      </c>
+      <c r="C8" s="204"/>
+      <c r="D8" s="205"/>
+      <c r="E8" s="125">
         <v>400</v>
       </c>
-      <c r="F8" s="127">
+      <c r="F8" s="125">
         <v>200</v>
       </c>
-      <c r="G8" s="127">
+      <c r="G8" s="125">
         <v>40</v>
       </c>
-      <c r="H8" s="127"/>
-      <c r="I8" s="127">
+      <c r="H8" s="125"/>
+      <c r="I8" s="125">
         <f t="shared" si="0"/>
         <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="37.5" customHeight="1">
       <c r="A9" s="3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="21" thickBot="1">
       <c r="A10" s="3"/>
     </row>
     <row r="11" spans="1:9" ht="27.75" customHeight="1">
-      <c r="A11" s="175" t="s">
+      <c r="A11" s="201" t="s">
         <v>159</v>
       </c>
-      <c r="B11" s="181" t="s">
+      <c r="B11" s="227" t="s">
         <v>125</v>
       </c>
-      <c r="C11" s="183"/>
-      <c r="D11" s="182"/>
-      <c r="E11" s="181" t="s">
+      <c r="C11" s="228"/>
+      <c r="D11" s="229"/>
+      <c r="E11" s="216" t="s">
         <v>220</v>
       </c>
-      <c r="F11" s="182"/>
-      <c r="G11" s="175" t="s">
-        <v>243</v>
-      </c>
-      <c r="H11" s="175" t="s">
-        <v>240</v>
-      </c>
-      <c r="I11" s="155" t="s">
-        <v>206</v>
+      <c r="F11" s="217"/>
+      <c r="G11" s="218" t="s">
+        <v>242</v>
+      </c>
+      <c r="H11" s="243" t="s">
+        <v>239</v>
+      </c>
+      <c r="I11" s="211" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="27.75" customHeight="1">
-      <c r="A12" s="176"/>
-      <c r="B12" s="79" t="s">
-        <v>237</v>
-      </c>
-      <c r="C12" s="69" t="s">
-        <v>238</v>
-      </c>
-      <c r="D12" s="80" t="s">
-        <v>239</v>
-      </c>
-      <c r="E12" s="79" t="s">
+      <c r="A12" s="202"/>
+      <c r="B12" s="230" t="s">
+        <v>331</v>
+      </c>
+      <c r="C12" s="231" t="s">
+        <v>332</v>
+      </c>
+      <c r="D12" s="232" t="s">
+        <v>333</v>
+      </c>
+      <c r="E12" s="219" t="s">
         <v>202</v>
       </c>
-      <c r="F12" s="80" t="s">
+      <c r="F12" s="248" t="s">
         <v>236</v>
       </c>
-      <c r="G12" s="176"/>
-      <c r="H12" s="176"/>
-      <c r="I12" s="177"/>
+      <c r="G12" s="220"/>
+      <c r="H12" s="244"/>
+      <c r="I12" s="239"/>
     </row>
     <row r="13" spans="1:9" ht="27.75" customHeight="1">
       <c r="A13" s="75">
         <v>43101</v>
       </c>
-      <c r="B13" s="72">
+      <c r="B13" s="230">
         <v>10</v>
       </c>
-      <c r="C13" s="53">
+      <c r="C13" s="231">
         <v>200</v>
       </c>
-      <c r="D13" s="70">
+      <c r="D13" s="232">
         <v>200</v>
       </c>
-      <c r="E13" s="72">
+      <c r="E13" s="219">
         <v>200</v>
       </c>
-      <c r="F13" s="70">
+      <c r="F13" s="249">
         <v>200</v>
       </c>
-      <c r="G13" s="85">
+      <c r="G13" s="221">
         <v>30</v>
       </c>
-      <c r="H13" s="85">
+      <c r="H13" s="245">
         <v>30</v>
       </c>
-      <c r="I13" s="81">
+      <c r="I13" s="240">
         <v>40</v>
       </c>
     </row>
@@ -7470,28 +7686,28 @@
       <c r="A14" s="75">
         <v>43102</v>
       </c>
-      <c r="B14" s="72">
+      <c r="B14" s="230">
         <v>10</v>
       </c>
-      <c r="C14" s="53">
+      <c r="C14" s="231">
         <v>200</v>
       </c>
-      <c r="D14" s="70">
+      <c r="D14" s="232">
         <v>200</v>
       </c>
-      <c r="E14" s="72">
+      <c r="E14" s="219">
         <v>200</v>
       </c>
-      <c r="F14" s="70">
+      <c r="F14" s="249">
         <v>200</v>
       </c>
-      <c r="G14" s="86">
+      <c r="G14" s="221">
         <v>30</v>
       </c>
-      <c r="H14" s="86">
+      <c r="H14" s="245">
         <v>30</v>
       </c>
-      <c r="I14" s="48">
+      <c r="I14" s="240">
         <v>50</v>
       </c>
     </row>
@@ -7499,28 +7715,28 @@
       <c r="A15" s="75">
         <v>43103</v>
       </c>
-      <c r="B15" s="72">
+      <c r="B15" s="230">
         <v>10</v>
       </c>
-      <c r="C15" s="53">
+      <c r="C15" s="231">
         <v>200</v>
       </c>
-      <c r="D15" s="70">
+      <c r="D15" s="232">
         <v>200</v>
       </c>
-      <c r="E15" s="72">
+      <c r="E15" s="219">
         <v>200</v>
       </c>
-      <c r="F15" s="70">
+      <c r="F15" s="249">
         <v>200</v>
       </c>
-      <c r="G15" s="85">
+      <c r="G15" s="221">
         <v>30</v>
       </c>
-      <c r="H15" s="85">
+      <c r="H15" s="245">
         <v>30</v>
       </c>
-      <c r="I15" s="48">
+      <c r="I15" s="240">
         <v>60</v>
       </c>
     </row>
@@ -7528,28 +7744,28 @@
       <c r="A16" s="75">
         <v>43104</v>
       </c>
-      <c r="B16" s="72">
+      <c r="B16" s="230">
         <v>10</v>
       </c>
-      <c r="C16" s="53">
+      <c r="C16" s="231">
         <v>200</v>
       </c>
-      <c r="D16" s="70">
+      <c r="D16" s="232">
         <v>200</v>
       </c>
-      <c r="E16" s="72">
+      <c r="E16" s="219">
         <v>200</v>
       </c>
-      <c r="F16" s="70">
+      <c r="F16" s="249">
         <v>200</v>
       </c>
-      <c r="G16" s="85">
+      <c r="G16" s="221">
         <v>30</v>
       </c>
-      <c r="H16" s="85">
+      <c r="H16" s="245">
         <v>30</v>
       </c>
-      <c r="I16" s="48">
+      <c r="I16" s="240">
         <v>70</v>
       </c>
     </row>
@@ -7557,28 +7773,28 @@
       <c r="A17" s="76" t="s">
         <v>160</v>
       </c>
-      <c r="B17" s="73" t="s">
+      <c r="B17" s="233" t="s">
         <v>160</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C17" s="234" t="s">
         <v>160</v>
       </c>
-      <c r="D17" s="71" t="s">
+      <c r="D17" s="235" t="s">
         <v>160</v>
       </c>
-      <c r="E17" s="73" t="s">
+      <c r="E17" s="222" t="s">
         <v>160</v>
       </c>
-      <c r="F17" s="71" t="s">
+      <c r="F17" s="250" t="s">
         <v>160</v>
       </c>
-      <c r="G17" s="76" t="s">
+      <c r="G17" s="223" t="s">
         <v>160</v>
       </c>
-      <c r="H17" s="76" t="s">
+      <c r="H17" s="246" t="s">
         <v>160</v>
       </c>
-      <c r="I17" s="82" t="s">
+      <c r="I17" s="241" t="s">
         <v>160</v>
       </c>
     </row>
@@ -7586,28 +7802,28 @@
       <c r="A18" s="76">
         <v>43131</v>
       </c>
-      <c r="B18" s="72">
+      <c r="B18" s="230">
         <v>10</v>
       </c>
-      <c r="C18" s="53">
+      <c r="C18" s="231">
         <v>200</v>
       </c>
-      <c r="D18" s="70">
+      <c r="D18" s="232">
         <v>200</v>
       </c>
-      <c r="E18" s="72">
+      <c r="E18" s="219">
         <v>200</v>
       </c>
-      <c r="F18" s="70">
+      <c r="F18" s="249">
         <v>200</v>
       </c>
-      <c r="G18" s="85">
+      <c r="G18" s="221">
         <v>30</v>
       </c>
-      <c r="H18" s="85">
+      <c r="H18" s="245">
         <v>30</v>
       </c>
-      <c r="I18" s="48">
+      <c r="I18" s="240">
         <v>90</v>
       </c>
     </row>
@@ -7615,28 +7831,28 @@
       <c r="A19" s="77" t="s">
         <v>207</v>
       </c>
-      <c r="B19" s="74">
+      <c r="B19" s="230">
         <v>50</v>
       </c>
-      <c r="C19" s="69">
+      <c r="C19" s="231">
         <v>1000</v>
       </c>
-      <c r="D19" s="80">
+      <c r="D19" s="232">
         <v>200</v>
       </c>
-      <c r="E19" s="79">
+      <c r="E19" s="219">
         <v>200</v>
       </c>
-      <c r="F19" s="80">
+      <c r="F19" s="249">
         <v>1000</v>
       </c>
-      <c r="G19" s="87">
+      <c r="G19" s="221">
         <v>150</v>
       </c>
-      <c r="H19" s="87">
+      <c r="H19" s="245">
         <v>150</v>
       </c>
-      <c r="I19" s="83">
+      <c r="I19" s="240">
         <v>90</v>
       </c>
     </row>
@@ -7644,22 +7860,22 @@
       <c r="A20" s="78" t="s">
         <v>132</v>
       </c>
-      <c r="B20" s="184" t="s">
-        <v>242</v>
-      </c>
-      <c r="C20" s="185"/>
-      <c r="D20" s="186"/>
-      <c r="E20" s="184" t="s">
-        <v>241</v>
-      </c>
-      <c r="F20" s="186"/>
-      <c r="G20" s="88">
+      <c r="B20" s="236" t="s">
+        <v>330</v>
+      </c>
+      <c r="C20" s="237"/>
+      <c r="D20" s="238"/>
+      <c r="E20" s="224" t="s">
+        <v>329</v>
+      </c>
+      <c r="F20" s="225"/>
+      <c r="G20" s="226">
         <v>2888</v>
       </c>
-      <c r="H20" s="88">
+      <c r="H20" s="247">
         <v>2888</v>
       </c>
-      <c r="I20" s="84">
+      <c r="I20" s="242">
         <v>90</v>
       </c>
     </row>
@@ -7670,80 +7886,80 @@
       </c>
     </row>
     <row r="24" spans="1:20" ht="25.5" customHeight="1">
-      <c r="A24" s="152" t="s">
+      <c r="A24" s="170" t="s">
         <v>214</v>
       </c>
-      <c r="B24" s="153"/>
-      <c r="C24" s="153" t="s">
-        <v>246</v>
-      </c>
-      <c r="D24" s="153"/>
-      <c r="E24" s="153"/>
-      <c r="F24" s="153"/>
-      <c r="G24" s="153"/>
-      <c r="H24" s="112"/>
-      <c r="I24" s="187" t="s">
+      <c r="B24" s="166"/>
+      <c r="C24" s="166" t="s">
+        <v>245</v>
+      </c>
+      <c r="D24" s="166"/>
+      <c r="E24" s="166"/>
+      <c r="F24" s="166"/>
+      <c r="G24" s="166"/>
+      <c r="H24" s="110"/>
+      <c r="I24" s="183" t="s">
         <v>216</v>
       </c>
-      <c r="J24" s="187"/>
-      <c r="K24" s="157" t="s">
-        <v>245</v>
-      </c>
-      <c r="L24" s="158"/>
+      <c r="J24" s="183"/>
+      <c r="K24" s="164" t="s">
+        <v>244</v>
+      </c>
+      <c r="L24" s="165"/>
     </row>
     <row r="25" spans="1:20" ht="29.25" customHeight="1">
-      <c r="A25" s="160" t="s">
+      <c r="A25" s="148" t="s">
         <v>223</v>
       </c>
-      <c r="B25" s="161"/>
-      <c r="C25" s="159" t="s">
+      <c r="B25" s="146"/>
+      <c r="C25" s="147" t="s">
         <v>221</v>
       </c>
-      <c r="D25" s="160"/>
-      <c r="E25" s="160"/>
-      <c r="F25" s="161"/>
-      <c r="G25" s="159" t="s">
+      <c r="D25" s="148"/>
+      <c r="E25" s="148"/>
+      <c r="F25" s="146"/>
+      <c r="G25" s="147" t="s">
         <v>222</v>
       </c>
-      <c r="H25" s="159"/>
-      <c r="I25" s="160"/>
-      <c r="J25" s="160"/>
-      <c r="K25" s="160"/>
-      <c r="L25" s="160"/>
-      <c r="O25" s="203" t="s">
+      <c r="H25" s="147"/>
+      <c r="I25" s="148"/>
+      <c r="J25" s="148"/>
+      <c r="K25" s="148"/>
+      <c r="L25" s="148"/>
+      <c r="O25" s="177" t="s">
         <v>204</v>
       </c>
-      <c r="P25" s="203"/>
-      <c r="Q25" s="203"/>
-      <c r="R25" s="203"/>
-      <c r="S25" s="203"/>
-      <c r="T25" s="203"/>
+      <c r="P25" s="177"/>
+      <c r="Q25" s="177"/>
+      <c r="R25" s="177"/>
+      <c r="S25" s="177"/>
+      <c r="T25" s="177"/>
     </row>
     <row r="26" spans="1:20" ht="29.25" customHeight="1">
-      <c r="A26" s="188" t="s">
+      <c r="A26" s="194" t="s">
         <v>76</v>
       </c>
-      <c r="B26" s="189"/>
-      <c r="C26" s="190" t="s">
+      <c r="B26" s="195"/>
+      <c r="C26" s="196" t="s">
         <v>226</v>
       </c>
-      <c r="D26" s="191"/>
-      <c r="E26" s="207" t="s">
+      <c r="D26" s="197"/>
+      <c r="E26" s="181" t="s">
         <v>219</v>
       </c>
-      <c r="F26" s="205"/>
-      <c r="G26" s="205" t="s">
+      <c r="F26" s="179"/>
+      <c r="G26" s="179" t="s">
         <v>218</v>
       </c>
-      <c r="H26" s="206"/>
-      <c r="I26" s="190" t="s">
+      <c r="H26" s="180"/>
+      <c r="I26" s="196" t="s">
         <v>220</v>
       </c>
-      <c r="J26" s="189"/>
-      <c r="K26" s="190" t="s">
+      <c r="J26" s="195"/>
+      <c r="K26" s="196" t="s">
         <v>224</v>
       </c>
-      <c r="L26" s="189"/>
+      <c r="L26" s="195"/>
       <c r="O26" s="59" t="s">
         <v>146</v>
       </c>
@@ -7764,26 +7980,26 @@
       </c>
     </row>
     <row r="27" spans="1:20" ht="29.25" customHeight="1">
-      <c r="A27" s="161" t="s">
+      <c r="A27" s="146" t="s">
         <v>227</v>
       </c>
-      <c r="B27" s="139"/>
-      <c r="C27" s="161" t="s">
+      <c r="B27" s="129"/>
+      <c r="C27" s="146" t="s">
         <v>229</v>
       </c>
-      <c r="D27" s="138"/>
-      <c r="E27" s="196"/>
-      <c r="F27" s="196"/>
-      <c r="G27" s="196"/>
-      <c r="H27" s="196"/>
-      <c r="I27" s="192" t="s">
-        <v>244</v>
-      </c>
-      <c r="J27" s="193"/>
-      <c r="K27" s="161" t="s">
+      <c r="D27" s="128"/>
+      <c r="E27" s="182"/>
+      <c r="F27" s="182"/>
+      <c r="G27" s="182"/>
+      <c r="H27" s="182"/>
+      <c r="I27" s="190" t="s">
+        <v>243</v>
+      </c>
+      <c r="J27" s="191"/>
+      <c r="K27" s="146" t="s">
         <v>225</v>
       </c>
-      <c r="L27" s="139"/>
+      <c r="L27" s="129"/>
       <c r="O27" s="49"/>
       <c r="P27" s="49"/>
       <c r="Q27" s="49"/>
@@ -7794,26 +8010,26 @@
       <c r="T27" s="49"/>
     </row>
     <row r="28" spans="1:20" ht="29.25" customHeight="1">
-      <c r="A28" s="161" t="s">
+      <c r="A28" s="146" t="s">
         <v>227</v>
       </c>
-      <c r="B28" s="139"/>
-      <c r="C28" s="161" t="s">
+      <c r="B28" s="129"/>
+      <c r="C28" s="146" t="s">
         <v>230</v>
       </c>
-      <c r="D28" s="138"/>
-      <c r="E28" s="196"/>
-      <c r="F28" s="196"/>
-      <c r="G28" s="196"/>
-      <c r="H28" s="196"/>
-      <c r="I28" s="194" t="s">
-        <v>273</v>
-      </c>
-      <c r="J28" s="195"/>
-      <c r="K28" s="161" t="s">
+      <c r="D28" s="128"/>
+      <c r="E28" s="182"/>
+      <c r="F28" s="182"/>
+      <c r="G28" s="182"/>
+      <c r="H28" s="182"/>
+      <c r="I28" s="192" t="s">
+        <v>272</v>
+      </c>
+      <c r="J28" s="193"/>
+      <c r="K28" s="146" t="s">
         <v>225</v>
       </c>
-      <c r="L28" s="139"/>
+      <c r="L28" s="129"/>
       <c r="O28" s="49"/>
       <c r="P28" s="49"/>
       <c r="Q28" s="49"/>
@@ -7822,141 +8038,141 @@
       <c r="T28" s="49"/>
     </row>
     <row r="29" spans="1:20" ht="29.25" customHeight="1">
-      <c r="A29" s="161" t="s">
+      <c r="A29" s="146" t="s">
         <v>228</v>
       </c>
-      <c r="B29" s="139"/>
-      <c r="C29" s="161" t="s">
+      <c r="B29" s="129"/>
+      <c r="C29" s="146" t="s">
         <v>231</v>
       </c>
-      <c r="D29" s="138"/>
-      <c r="E29" s="196"/>
-      <c r="F29" s="196"/>
-      <c r="G29" s="196"/>
-      <c r="H29" s="196"/>
-      <c r="I29" s="138"/>
-      <c r="J29" s="139"/>
-      <c r="K29" s="161" t="s">
+      <c r="D29" s="128"/>
+      <c r="E29" s="182"/>
+      <c r="F29" s="182"/>
+      <c r="G29" s="182"/>
+      <c r="H29" s="182"/>
+      <c r="I29" s="128"/>
+      <c r="J29" s="129"/>
+      <c r="K29" s="146" t="s">
         <v>225</v>
       </c>
-      <c r="L29" s="139"/>
+      <c r="L29" s="129"/>
     </row>
     <row r="30" spans="1:20" ht="29.25" customHeight="1">
-      <c r="A30" s="161" t="s">
+      <c r="A30" s="146" t="s">
         <v>228</v>
       </c>
-      <c r="B30" s="139"/>
-      <c r="C30" s="161" t="s">
+      <c r="B30" s="129"/>
+      <c r="C30" s="146" t="s">
         <v>232</v>
       </c>
-      <c r="D30" s="138"/>
-      <c r="E30" s="196"/>
-      <c r="F30" s="196"/>
-      <c r="G30" s="196"/>
-      <c r="H30" s="196"/>
-      <c r="I30" s="138"/>
-      <c r="J30" s="139"/>
-      <c r="K30" s="161" t="s">
+      <c r="D30" s="128"/>
+      <c r="E30" s="182"/>
+      <c r="F30" s="182"/>
+      <c r="G30" s="182"/>
+      <c r="H30" s="182"/>
+      <c r="I30" s="128"/>
+      <c r="J30" s="129"/>
+      <c r="K30" s="146" t="s">
         <v>225</v>
       </c>
-      <c r="L30" s="139"/>
+      <c r="L30" s="129"/>
     </row>
     <row r="31" spans="1:20" ht="29.25" customHeight="1"/>
     <row r="32" spans="1:20" ht="29.25" customHeight="1">
-      <c r="A32" s="152" t="s">
+      <c r="A32" s="170" t="s">
         <v>214</v>
       </c>
-      <c r="B32" s="153"/>
-      <c r="C32" s="153" t="s">
+      <c r="B32" s="166"/>
+      <c r="C32" s="166" t="s">
+        <v>245</v>
+      </c>
+      <c r="D32" s="166"/>
+      <c r="E32" s="166"/>
+      <c r="F32" s="166"/>
+      <c r="G32" s="166"/>
+      <c r="H32" s="110"/>
+      <c r="I32" s="164" t="s">
+        <v>216</v>
+      </c>
+      <c r="J32" s="164"/>
+      <c r="K32" s="183" t="s">
+        <v>244</v>
+      </c>
+      <c r="L32" s="183"/>
+    </row>
+    <row r="33" spans="1:12" ht="29.25" customHeight="1">
+      <c r="A33" s="148" t="s">
         <v>246</v>
       </c>
-      <c r="D32" s="153"/>
-      <c r="E32" s="153"/>
-      <c r="F32" s="153"/>
-      <c r="G32" s="153"/>
-      <c r="H32" s="112"/>
-      <c r="I32" s="157" t="s">
-        <v>216</v>
-      </c>
-      <c r="J32" s="157"/>
-      <c r="K32" s="187" t="s">
-        <v>245</v>
-      </c>
-      <c r="L32" s="187"/>
-    </row>
-    <row r="33" spans="1:12" ht="29.25" customHeight="1">
-      <c r="A33" s="160" t="s">
+      <c r="B33" s="146"/>
+      <c r="C33" s="178"/>
+      <c r="D33" s="178"/>
+      <c r="E33" s="178" t="s">
+        <v>270</v>
+      </c>
+      <c r="F33" s="178"/>
+      <c r="G33" s="178"/>
+      <c r="H33" s="67"/>
+      <c r="I33" s="178" t="s">
+        <v>266</v>
+      </c>
+      <c r="J33" s="178"/>
+      <c r="K33" s="178"/>
+      <c r="L33" s="147"/>
+    </row>
+    <row r="34" spans="1:12" ht="29.25" customHeight="1">
+      <c r="A34" s="87" t="s">
         <v>247</v>
       </c>
-      <c r="B33" s="161"/>
-      <c r="C33" s="204"/>
-      <c r="D33" s="204"/>
-      <c r="E33" s="204" t="s">
-        <v>271</v>
-      </c>
-      <c r="F33" s="204"/>
-      <c r="G33" s="204"/>
-      <c r="H33" s="67"/>
-      <c r="I33" s="204" t="s">
-        <v>267</v>
-      </c>
-      <c r="J33" s="204"/>
-      <c r="K33" s="204"/>
-      <c r="L33" s="159"/>
-    </row>
-    <row r="34" spans="1:12" ht="29.25" customHeight="1">
-      <c r="A34" s="89" t="s">
+      <c r="B34" s="89" t="s">
         <v>248</v>
       </c>
-      <c r="B34" s="91" t="s">
+      <c r="C34" s="184" t="s">
         <v>249</v>
       </c>
-      <c r="C34" s="197" t="s">
+      <c r="D34" s="185"/>
+      <c r="E34" s="184" t="s">
         <v>250</v>
       </c>
-      <c r="D34" s="198"/>
-      <c r="E34" s="197" t="s">
-        <v>251</v>
-      </c>
-      <c r="F34" s="198"/>
-      <c r="G34" s="199" t="s">
+      <c r="F34" s="185"/>
+      <c r="G34" s="186" t="s">
         <v>236</v>
       </c>
-      <c r="H34" s="200"/>
-      <c r="I34" s="201"/>
-      <c r="J34" s="199" t="s">
+      <c r="H34" s="187"/>
+      <c r="I34" s="188"/>
+      <c r="J34" s="186" t="s">
         <v>224</v>
       </c>
-      <c r="K34" s="202"/>
-      <c r="L34" s="201"/>
+      <c r="K34" s="189"/>
+      <c r="L34" s="188"/>
     </row>
     <row r="35" spans="1:12" ht="29.25" customHeight="1">
       <c r="A35" s="49"/>
       <c r="B35" s="49"/>
-      <c r="C35" s="135"/>
-      <c r="D35" s="135"/>
-      <c r="E35" s="135"/>
-      <c r="F35" s="135"/>
-      <c r="G35" s="140"/>
-      <c r="H35" s="138"/>
-      <c r="I35" s="139"/>
-      <c r="J35" s="140"/>
-      <c r="K35" s="138"/>
-      <c r="L35" s="139"/>
+      <c r="C35" s="130"/>
+      <c r="D35" s="130"/>
+      <c r="E35" s="130"/>
+      <c r="F35" s="130"/>
+      <c r="G35" s="143"/>
+      <c r="H35" s="128"/>
+      <c r="I35" s="129"/>
+      <c r="J35" s="143"/>
+      <c r="K35" s="128"/>
+      <c r="L35" s="129"/>
     </row>
     <row r="36" spans="1:12" ht="29.25" customHeight="1">
       <c r="A36" s="49"/>
       <c r="B36" s="49"/>
-      <c r="C36" s="135"/>
-      <c r="D36" s="135"/>
-      <c r="E36" s="135"/>
-      <c r="F36" s="135"/>
-      <c r="G36" s="140"/>
-      <c r="H36" s="138"/>
-      <c r="I36" s="139"/>
-      <c r="J36" s="140"/>
-      <c r="K36" s="138"/>
-      <c r="L36" s="139"/>
+      <c r="C36" s="130"/>
+      <c r="D36" s="130"/>
+      <c r="E36" s="130"/>
+      <c r="F36" s="130"/>
+      <c r="G36" s="143"/>
+      <c r="H36" s="128"/>
+      <c r="I36" s="129"/>
+      <c r="J36" s="143"/>
+      <c r="K36" s="128"/>
+      <c r="L36" s="129"/>
     </row>
     <row r="38" spans="1:12" ht="47.25" customHeight="1"/>
     <row r="39" spans="1:12" ht="45" customHeight="1">
@@ -7965,57 +8181,57 @@
       </c>
     </row>
     <row r="40" spans="1:12" ht="43.5" customHeight="1">
-      <c r="A40" s="117" t="s">
+      <c r="A40" s="115" t="s">
+        <v>279</v>
+      </c>
+      <c r="B40" s="116" t="s">
         <v>280</v>
       </c>
-      <c r="B40" s="118" t="s">
+      <c r="C40" s="116" t="s">
         <v>281</v>
       </c>
-      <c r="C40" s="118" t="s">
+      <c r="D40" s="116" t="s">
         <v>282</v>
       </c>
-      <c r="D40" s="118" t="s">
+      <c r="E40" s="175" t="s">
         <v>283</v>
       </c>
-      <c r="E40" s="210" t="s">
-        <v>284</v>
-      </c>
-      <c r="F40" s="211"/>
+      <c r="F40" s="176"/>
       <c r="G40" s="34"/>
       <c r="H40" s="34"/>
       <c r="I40" s="11"/>
     </row>
     <row r="41" spans="1:12" ht="39" customHeight="1">
       <c r="A41" s="50" t="s">
+        <v>277</v>
+      </c>
+      <c r="D41" s="50" t="s">
         <v>278</v>
       </c>
-      <c r="D41" s="50" t="s">
-        <v>279</v>
-      </c>
       <c r="G41" s="50"/>
     </row>
     <row r="42" spans="1:12" ht="44.25" customHeight="1">
-      <c r="A42" s="90" t="s">
+      <c r="A42" s="88" t="s">
         <v>171</v>
       </c>
-      <c r="B42" s="90" t="s">
+      <c r="B42" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="C42" s="90" t="s">
+      <c r="C42" s="88" t="s">
         <v>100</v>
       </c>
-      <c r="D42" s="90" t="s">
+      <c r="D42" s="88" t="s">
         <v>101</v>
       </c>
-      <c r="E42" s="119" t="s">
+      <c r="E42" s="117" t="s">
         <v>102</v>
       </c>
-      <c r="F42" s="121" t="s">
+      <c r="F42" s="119" t="s">
         <v>103</v>
       </c>
-      <c r="G42" s="120"/>
-      <c r="H42" s="120"/>
-      <c r="I42" s="120"/>
+      <c r="G42" s="118"/>
+      <c r="H42" s="118"/>
+      <c r="I42" s="118"/>
     </row>
     <row r="43" spans="1:12" ht="44.25" customHeight="1">
       <c r="A43" s="45" t="s">
@@ -8033,12 +8249,12 @@
       <c r="E43" s="47">
         <v>8</v>
       </c>
-      <c r="F43" s="122">
-        <v>0</v>
-      </c>
-      <c r="G43" s="115"/>
-      <c r="H43" s="115"/>
-      <c r="I43" s="115"/>
+      <c r="F43" s="120">
+        <v>0</v>
+      </c>
+      <c r="G43" s="113"/>
+      <c r="H43" s="113"/>
+      <c r="I43" s="113"/>
     </row>
     <row r="44" spans="1:12" ht="44.25" customHeight="1">
       <c r="A44" s="45" t="s">
@@ -8056,12 +8272,12 @@
       <c r="E44" s="47">
         <v>3</v>
       </c>
-      <c r="F44" s="122">
-        <v>0</v>
-      </c>
-      <c r="G44" s="115"/>
-      <c r="H44" s="115"/>
-      <c r="I44" s="115"/>
+      <c r="F44" s="120">
+        <v>0</v>
+      </c>
+      <c r="G44" s="113"/>
+      <c r="H44" s="113"/>
+      <c r="I44" s="113"/>
     </row>
     <row r="45" spans="1:12" ht="44.25" customHeight="1">
       <c r="A45" s="45" t="s">
@@ -8079,19 +8295,19 @@
       <c r="E45" s="47">
         <v>86</v>
       </c>
-      <c r="F45" s="122">
-        <v>0</v>
-      </c>
-      <c r="G45" s="115"/>
-      <c r="H45" s="115"/>
-      <c r="I45" s="115"/>
+      <c r="F45" s="120">
+        <v>0</v>
+      </c>
+      <c r="G45" s="113"/>
+      <c r="H45" s="113"/>
+      <c r="I45" s="113"/>
     </row>
     <row r="46" spans="1:12" ht="44.25" customHeight="1">
       <c r="A46" s="52" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B46" s="52" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C46" s="45">
         <f t="shared" ref="C46:E46" si="1">SUM(C43:C45)</f>
@@ -8105,12 +8321,12 @@
         <f t="shared" si="1"/>
         <v>97</v>
       </c>
-      <c r="F46" s="122">
-        <v>0</v>
-      </c>
-      <c r="G46" s="115"/>
-      <c r="H46" s="115"/>
-      <c r="I46" s="115"/>
+      <c r="F46" s="120">
+        <v>0</v>
+      </c>
+      <c r="G46" s="113"/>
+      <c r="H46" s="113"/>
+      <c r="I46" s="113"/>
     </row>
     <row r="48" spans="1:12" ht="76.5" customHeight="1"/>
     <row r="49" spans="1:8" ht="30" customHeight="1">
@@ -8125,16 +8341,16 @@
     </row>
     <row r="53" spans="1:8" ht="27" customHeight="1">
       <c r="A53" s="50" t="s">
+        <v>255</v>
+      </c>
+      <c r="C53" s="50" t="s">
         <v>256</v>
       </c>
-      <c r="C53" s="50" t="s">
+      <c r="E53" s="50" t="s">
         <v>257</v>
       </c>
-      <c r="E53" s="50" t="s">
+      <c r="G53" s="50" t="s">
         <v>258</v>
-      </c>
-      <c r="G53" s="50" t="s">
-        <v>259</v>
       </c>
       <c r="H53" s="50"/>
     </row>
@@ -8157,7 +8373,7 @@
       <c r="G55" s="68" t="s">
         <v>179</v>
       </c>
-      <c r="H55" s="115"/>
+      <c r="H55" s="113"/>
     </row>
     <row r="56" spans="1:8" ht="19.5" customHeight="1">
       <c r="A56" s="45" t="s">
@@ -8166,10 +8382,10 @@
       <c r="B56" s="49"/>
       <c r="C56" s="49"/>
       <c r="D56" s="56" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E56" s="52" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F56" s="49"/>
       <c r="G56" s="49"/>
@@ -8182,7 +8398,7 @@
       <c r="B57" s="49"/>
       <c r="C57" s="49"/>
       <c r="E57" s="52" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F57" s="49"/>
       <c r="G57" s="49"/>
@@ -8250,90 +8466,90 @@
       </c>
     </row>
     <row r="91" spans="1:8">
-      <c r="B91" s="135" t="s">
+      <c r="B91" s="130" t="s">
         <v>190</v>
       </c>
       <c r="C91" s="49" t="s">
         <v>113</v>
       </c>
       <c r="D91" s="49"/>
-      <c r="E91" s="106" t="s">
+      <c r="E91" s="104" t="s">
         <v>191</v>
       </c>
-      <c r="F91" s="208" t="s">
-        <v>261</v>
-      </c>
-      <c r="G91" s="209"/>
-      <c r="H91" s="114"/>
+      <c r="F91" s="173" t="s">
+        <v>260</v>
+      </c>
+      <c r="G91" s="174"/>
+      <c r="H91" s="112"/>
     </row>
     <row r="92" spans="1:8">
-      <c r="B92" s="135"/>
+      <c r="B92" s="130"/>
       <c r="C92" s="49" t="s">
         <v>127</v>
       </c>
       <c r="D92" s="49"/>
-      <c r="E92" s="106" t="s">
+      <c r="E92" s="104" t="s">
         <v>191</v>
       </c>
-      <c r="F92" s="209"/>
-      <c r="G92" s="209"/>
-      <c r="H92" s="114"/>
+      <c r="F92" s="174"/>
+      <c r="G92" s="174"/>
+      <c r="H92" s="112"/>
     </row>
     <row r="93" spans="1:8">
-      <c r="B93" s="135" t="s">
+      <c r="B93" s="130" t="s">
         <v>192</v>
       </c>
       <c r="C93" s="49" t="s">
         <v>117</v>
       </c>
       <c r="D93" s="49"/>
-      <c r="E93" s="106" t="s">
+      <c r="E93" s="104" t="s">
         <v>191</v>
       </c>
-      <c r="F93" s="209"/>
-      <c r="G93" s="209"/>
-      <c r="H93" s="114"/>
+      <c r="F93" s="174"/>
+      <c r="G93" s="174"/>
+      <c r="H93" s="112"/>
     </row>
     <row r="94" spans="1:8">
-      <c r="B94" s="135"/>
+      <c r="B94" s="130"/>
       <c r="C94" s="49" t="s">
         <v>16</v>
       </c>
       <c r="D94" s="49"/>
-      <c r="E94" s="106" t="s">
+      <c r="E94" s="104" t="s">
         <v>191</v>
       </c>
-      <c r="F94" s="209"/>
-      <c r="G94" s="209"/>
-      <c r="H94" s="114"/>
+      <c r="F94" s="174"/>
+      <c r="G94" s="174"/>
+      <c r="H94" s="112"/>
     </row>
     <row r="95" spans="1:8">
-      <c r="B95" s="135"/>
+      <c r="B95" s="130"/>
       <c r="C95" s="49" t="s">
         <v>115</v>
       </c>
       <c r="D95" s="49"/>
-      <c r="E95" s="106" t="s">
+      <c r="E95" s="104" t="s">
         <v>191</v>
       </c>
-      <c r="F95" s="209"/>
-      <c r="G95" s="209"/>
-      <c r="H95" s="114"/>
+      <c r="F95" s="174"/>
+      <c r="G95" s="174"/>
+      <c r="H95" s="112"/>
     </row>
     <row r="96" spans="1:8">
-      <c r="B96" s="135"/>
+      <c r="B96" s="130"/>
       <c r="C96" s="51" t="s">
+        <v>261</v>
+      </c>
+      <c r="D96" s="49"/>
+      <c r="E96" s="105" t="s">
+        <v>191</v>
+      </c>
+      <c r="F96" s="106" t="s">
         <v>262</v>
       </c>
-      <c r="D96" s="49"/>
-      <c r="E96" s="107" t="s">
-        <v>191</v>
-      </c>
-      <c r="F96" s="108" t="s">
-        <v>263</v>
-      </c>
-      <c r="G96" s="108"/>
-      <c r="H96" s="108"/>
+      <c r="G96" s="106"/>
+      <c r="H96" s="106"/>
     </row>
     <row r="97" spans="1:5">
       <c r="B97" s="45" t="s">
@@ -8343,7 +8559,7 @@
       <c r="D97" s="49" t="s">
         <v>194</v>
       </c>
-      <c r="E97" s="105"/>
+      <c r="E97" s="103"/>
     </row>
     <row r="99" spans="1:5">
       <c r="A99" t="s">
@@ -8407,13 +8623,57 @@
     </row>
   </sheetData>
   <mergeCells count="74">
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="F91:G95"/>
-    <mergeCell ref="B93:B96"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="G25:L25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="J36:L36"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="J34:L34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="J35:L35"/>
     <mergeCell ref="O25:T25"/>
     <mergeCell ref="A33:B33"/>
     <mergeCell ref="C33:D33"/>
@@ -8430,59 +8690,15 @@
     <mergeCell ref="G27:H27"/>
     <mergeCell ref="G28:H28"/>
     <mergeCell ref="G29:H29"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="J36:L36"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="J34:L34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="J35:L35"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="G25:L25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="F91:G95"/>
+    <mergeCell ref="B93:B96"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="E40:F40"/>
   </mergeCells>
-  <phoneticPr fontId="12" type="noConversion"/>
+  <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -8502,7 +8718,7 @@
   <sheetData>
     <row r="1" spans="1:16" ht="31.5" customHeight="1">
       <c r="A1" s="50" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="29.25" customHeight="1">
@@ -8526,43 +8742,43 @@
       <c r="A5" s="45" t="s">
         <v>146</v>
       </c>
-      <c r="B5" s="140" t="s">
+      <c r="B5" s="143" t="s">
         <v>147</v>
       </c>
-      <c r="C5" s="138"/>
-      <c r="D5" s="139"/>
+      <c r="C5" s="128"/>
+      <c r="D5" s="129"/>
       <c r="E5" s="52" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F5" s="45" t="s">
         <v>117</v>
       </c>
-      <c r="G5" s="161" t="s">
+      <c r="G5" s="146" t="s">
         <v>205</v>
       </c>
-      <c r="H5" s="204"/>
-      <c r="I5" s="159"/>
+      <c r="H5" s="178"/>
+      <c r="I5" s="147"/>
     </row>
     <row r="6" spans="1:16" ht="78.75" customHeight="1">
       <c r="A6" s="66">
         <v>43136.354166666664</v>
       </c>
-      <c r="B6" s="178" t="s">
+      <c r="B6" s="203" t="s">
         <v>235</v>
       </c>
-      <c r="C6" s="179"/>
-      <c r="D6" s="180"/>
+      <c r="C6" s="204"/>
+      <c r="D6" s="205"/>
       <c r="E6" s="45">
         <v>400</v>
       </c>
       <c r="F6" s="45">
         <v>200</v>
       </c>
-      <c r="G6" s="140">
+      <c r="G6" s="143">
         <v>200</v>
       </c>
-      <c r="H6" s="138"/>
-      <c r="I6" s="139"/>
+      <c r="H6" s="128"/>
+      <c r="I6" s="129"/>
     </row>
     <row r="8" spans="1:16" ht="30" customHeight="1"/>
     <row r="9" spans="1:16" ht="37.5" customHeight="1">
@@ -8574,57 +8790,57 @@
       <c r="A10" s="3"/>
     </row>
     <row r="11" spans="1:16" ht="27.75" customHeight="1">
-      <c r="A11" s="175" t="s">
+      <c r="A11" s="201" t="s">
         <v>159</v>
       </c>
-      <c r="B11" s="181" t="s">
+      <c r="B11" s="206" t="s">
         <v>125</v>
       </c>
-      <c r="C11" s="183"/>
-      <c r="D11" s="182"/>
-      <c r="E11" s="181" t="s">
+      <c r="C11" s="208"/>
+      <c r="D11" s="207"/>
+      <c r="E11" s="206" t="s">
         <v>220</v>
       </c>
-      <c r="F11" s="182"/>
-      <c r="G11" s="175" t="s">
-        <v>243</v>
-      </c>
-      <c r="H11" s="175" t="s">
-        <v>240</v>
-      </c>
-      <c r="I11" s="216" t="s">
-        <v>285</v>
+      <c r="F11" s="207"/>
+      <c r="G11" s="201" t="s">
+        <v>242</v>
+      </c>
+      <c r="H11" s="201" t="s">
+        <v>239</v>
+      </c>
+      <c r="I11" s="211" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="27.75" customHeight="1">
-      <c r="A12" s="176"/>
+      <c r="A12" s="202"/>
       <c r="B12" s="79" t="s">
+        <v>264</v>
+      </c>
+      <c r="C12" s="69" t="s">
+        <v>237</v>
+      </c>
+      <c r="D12" s="80" t="s">
+        <v>238</v>
+      </c>
+      <c r="E12" s="79" t="s">
         <v>265</v>
-      </c>
-      <c r="C12" s="69" t="s">
-        <v>238</v>
-      </c>
-      <c r="D12" s="80" t="s">
-        <v>239</v>
-      </c>
-      <c r="E12" s="79" t="s">
-        <v>266</v>
       </c>
       <c r="F12" s="80" t="s">
         <v>236</v>
       </c>
-      <c r="G12" s="176"/>
-      <c r="H12" s="176"/>
-      <c r="I12" s="217"/>
-      <c r="J12" s="126" t="s">
-        <v>287</v>
-      </c>
-      <c r="K12" s="126"/>
-      <c r="L12" s="126"/>
-      <c r="M12" s="126"/>
-      <c r="N12" s="126"/>
-      <c r="O12" s="126"/>
-      <c r="P12" s="126"/>
+      <c r="G12" s="202"/>
+      <c r="H12" s="202"/>
+      <c r="I12" s="212"/>
+      <c r="J12" s="124" t="s">
+        <v>286</v>
+      </c>
+      <c r="K12" s="124"/>
+      <c r="L12" s="124"/>
+      <c r="M12" s="124"/>
+      <c r="N12" s="124"/>
+      <c r="O12" s="124"/>
+      <c r="P12" s="124"/>
     </row>
     <row r="13" spans="1:16" ht="27.75" customHeight="1">
       <c r="A13" s="75">
@@ -8645,24 +8861,24 @@
       <c r="F13" s="70">
         <v>200</v>
       </c>
-      <c r="G13" s="85">
+      <c r="G13" s="83">
         <v>30</v>
       </c>
-      <c r="H13" s="85">
+      <c r="H13" s="83">
         <v>30</v>
       </c>
-      <c r="I13" s="123">
+      <c r="I13" s="121">
         <v>40</v>
       </c>
-      <c r="J13" s="126" t="s">
-        <v>286</v>
-      </c>
-      <c r="K13" s="126"/>
-      <c r="L13" s="126"/>
-      <c r="M13" s="126"/>
-      <c r="N13" s="126"/>
-      <c r="O13" s="126"/>
-      <c r="P13" s="126"/>
+      <c r="J13" s="124" t="s">
+        <v>285</v>
+      </c>
+      <c r="K13" s="124"/>
+      <c r="L13" s="124"/>
+      <c r="M13" s="124"/>
+      <c r="N13" s="124"/>
+      <c r="O13" s="124"/>
+      <c r="P13" s="124"/>
     </row>
     <row r="14" spans="1:16" ht="27.75" customHeight="1">
       <c r="A14" s="75">
@@ -8683,13 +8899,13 @@
       <c r="F14" s="70">
         <v>200</v>
       </c>
-      <c r="G14" s="86">
+      <c r="G14" s="84">
         <v>30</v>
       </c>
-      <c r="H14" s="86">
+      <c r="H14" s="84">
         <v>30</v>
       </c>
-      <c r="I14" s="123">
+      <c r="I14" s="121">
         <v>50</v>
       </c>
     </row>
@@ -8712,20 +8928,20 @@
       <c r="F15" s="70">
         <v>200</v>
       </c>
-      <c r="G15" s="85">
+      <c r="G15" s="83">
         <v>30</v>
       </c>
-      <c r="H15" s="85">
+      <c r="H15" s="83">
         <v>30</v>
       </c>
-      <c r="I15" s="123">
+      <c r="I15" s="121">
         <v>60</v>
       </c>
-      <c r="L15" s="109" t="s">
-        <v>275</v>
-      </c>
-      <c r="M15" s="109"/>
-      <c r="N15" s="109"/>
+      <c r="L15" s="107" t="s">
+        <v>274</v>
+      </c>
+      <c r="M15" s="107"/>
+      <c r="N15" s="107"/>
     </row>
     <row r="16" spans="1:16" ht="27.75" customHeight="1">
       <c r="A16" s="75">
@@ -8746,18 +8962,18 @@
       <c r="F16" s="70">
         <v>200</v>
       </c>
-      <c r="G16" s="85">
+      <c r="G16" s="83">
         <v>30</v>
       </c>
-      <c r="H16" s="85">
+      <c r="H16" s="83">
         <v>30</v>
       </c>
-      <c r="I16" s="123">
+      <c r="I16" s="121">
         <v>70</v>
       </c>
       <c r="K16" s="50"/>
-      <c r="L16" s="110" t="s">
-        <v>276</v>
+      <c r="L16" s="108" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="17" spans="1:20" ht="27.75" customHeight="1">
@@ -8785,11 +9001,11 @@
       <c r="H17" s="76" t="s">
         <v>160</v>
       </c>
-      <c r="I17" s="124" t="s">
+      <c r="I17" s="122" t="s">
         <v>160</v>
       </c>
-      <c r="L17" s="111" t="s">
-        <v>277</v>
+      <c r="L17" s="109" t="s">
+        <v>276</v>
       </c>
       <c r="M17" s="50"/>
       <c r="N17" s="50"/>
@@ -8813,13 +9029,13 @@
       <c r="F18" s="70">
         <v>200</v>
       </c>
-      <c r="G18" s="85">
+      <c r="G18" s="83">
         <v>30</v>
       </c>
-      <c r="H18" s="85">
+      <c r="H18" s="83">
         <v>30</v>
       </c>
-      <c r="I18" s="123">
+      <c r="I18" s="121">
         <v>90</v>
       </c>
     </row>
@@ -8842,13 +9058,13 @@
       <c r="F19" s="80">
         <v>1000</v>
       </c>
-      <c r="G19" s="87">
+      <c r="G19" s="85">
         <v>150</v>
       </c>
-      <c r="H19" s="87">
+      <c r="H19" s="85">
         <v>150</v>
       </c>
-      <c r="I19" s="123">
+      <c r="I19" s="121">
         <v>90</v>
       </c>
     </row>
@@ -8856,28 +9072,28 @@
       <c r="A20" s="78" t="s">
         <v>132</v>
       </c>
-      <c r="B20" s="184" t="s">
-        <v>242</v>
-      </c>
-      <c r="C20" s="185"/>
-      <c r="D20" s="186"/>
-      <c r="E20" s="184" t="s">
+      <c r="B20" s="198" t="s">
         <v>241</v>
       </c>
-      <c r="F20" s="186"/>
-      <c r="G20" s="88">
+      <c r="C20" s="199"/>
+      <c r="D20" s="200"/>
+      <c r="E20" s="198" t="s">
+        <v>240</v>
+      </c>
+      <c r="F20" s="200"/>
+      <c r="G20" s="86">
         <v>2888</v>
       </c>
-      <c r="H20" s="88">
+      <c r="H20" s="86">
         <v>2888</v>
       </c>
-      <c r="I20" s="125">
+      <c r="I20" s="123">
         <v>90</v>
       </c>
     </row>
     <row r="21" spans="1:20" ht="23.25" customHeight="1">
       <c r="E21" s="213" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F21" s="213"/>
     </row>
@@ -8888,82 +9104,82 @@
       </c>
     </row>
     <row r="24" spans="1:20" ht="25.5" customHeight="1">
-      <c r="A24" s="152" t="s">
+      <c r="A24" s="170" t="s">
         <v>214</v>
       </c>
-      <c r="B24" s="153"/>
-      <c r="C24" s="153" t="s">
-        <v>272</v>
-      </c>
-      <c r="D24" s="153"/>
-      <c r="E24" s="153"/>
-      <c r="F24" s="153"/>
-      <c r="G24" s="153"/>
-      <c r="H24" s="112"/>
-      <c r="I24" s="187" t="s">
+      <c r="B24" s="166"/>
+      <c r="C24" s="166" t="s">
+        <v>271</v>
+      </c>
+      <c r="D24" s="166"/>
+      <c r="E24" s="166"/>
+      <c r="F24" s="166"/>
+      <c r="G24" s="166"/>
+      <c r="H24" s="110"/>
+      <c r="I24" s="183" t="s">
+        <v>267</v>
+      </c>
+      <c r="J24" s="183"/>
+      <c r="K24" s="164" t="s">
+        <v>244</v>
+      </c>
+      <c r="L24" s="165"/>
+    </row>
+    <row r="25" spans="1:20" ht="29.25" customHeight="1">
+      <c r="A25" s="148" t="s">
         <v>268</v>
       </c>
-      <c r="J24" s="187"/>
-      <c r="K24" s="157" t="s">
-        <v>245</v>
-      </c>
-      <c r="L24" s="158"/>
-    </row>
-    <row r="25" spans="1:20" ht="29.25" customHeight="1">
-      <c r="A25" s="160" t="s">
+      <c r="B25" s="146"/>
+      <c r="C25" s="178" t="s">
+        <v>270</v>
+      </c>
+      <c r="D25" s="178"/>
+      <c r="E25" s="214" t="s">
         <v>269</v>
-      </c>
-      <c r="B25" s="161"/>
-      <c r="C25" s="204" t="s">
-        <v>271</v>
-      </c>
-      <c r="D25" s="204"/>
-      <c r="E25" s="214" t="s">
-        <v>270</v>
       </c>
       <c r="F25" s="214"/>
       <c r="G25" s="214"/>
-      <c r="H25" s="116"/>
-      <c r="I25" s="204" t="s">
-        <v>267</v>
-      </c>
-      <c r="J25" s="204"/>
-      <c r="K25" s="204"/>
-      <c r="L25" s="159"/>
-      <c r="O25" s="203" t="s">
+      <c r="H25" s="114"/>
+      <c r="I25" s="178" t="s">
+        <v>266</v>
+      </c>
+      <c r="J25" s="178"/>
+      <c r="K25" s="178"/>
+      <c r="L25" s="147"/>
+      <c r="O25" s="177" t="s">
         <v>204</v>
       </c>
-      <c r="P25" s="203"/>
-      <c r="Q25" s="203"/>
-      <c r="R25" s="203"/>
-      <c r="S25" s="203"/>
-      <c r="T25" s="203"/>
+      <c r="P25" s="177"/>
+      <c r="Q25" s="177"/>
+      <c r="R25" s="177"/>
+      <c r="S25" s="177"/>
+      <c r="T25" s="177"/>
     </row>
     <row r="26" spans="1:20" ht="29.25" customHeight="1">
-      <c r="A26" s="188" t="s">
+      <c r="A26" s="194" t="s">
         <v>76</v>
       </c>
-      <c r="B26" s="189"/>
-      <c r="C26" s="190" t="s">
+      <c r="B26" s="195"/>
+      <c r="C26" s="196" t="s">
         <v>226</v>
       </c>
-      <c r="D26" s="212"/>
-      <c r="E26" s="215" t="s">
+      <c r="D26" s="215"/>
+      <c r="E26" s="210" t="s">
         <v>219</v>
       </c>
-      <c r="F26" s="215"/>
-      <c r="G26" s="215" t="s">
+      <c r="F26" s="210"/>
+      <c r="G26" s="210" t="s">
         <v>218</v>
       </c>
-      <c r="H26" s="215"/>
-      <c r="I26" s="212" t="s">
+      <c r="H26" s="210"/>
+      <c r="I26" s="215" t="s">
         <v>220</v>
       </c>
-      <c r="J26" s="189"/>
-      <c r="K26" s="190" t="s">
+      <c r="J26" s="195"/>
+      <c r="K26" s="196" t="s">
         <v>224</v>
       </c>
-      <c r="L26" s="189"/>
+      <c r="L26" s="195"/>
       <c r="O26" s="59" t="s">
         <v>146</v>
       </c>
@@ -8984,26 +9200,26 @@
       </c>
     </row>
     <row r="27" spans="1:20" ht="29.25" customHeight="1">
-      <c r="A27" s="161" t="s">
+      <c r="A27" s="146" t="s">
         <v>227</v>
       </c>
-      <c r="B27" s="139"/>
-      <c r="C27" s="161" t="s">
+      <c r="B27" s="129"/>
+      <c r="C27" s="146" t="s">
         <v>229</v>
       </c>
-      <c r="D27" s="138"/>
-      <c r="E27" s="196"/>
-      <c r="F27" s="196"/>
-      <c r="G27" s="196"/>
-      <c r="H27" s="196"/>
-      <c r="I27" s="192" t="s">
-        <v>244</v>
-      </c>
-      <c r="J27" s="193"/>
-      <c r="K27" s="161" t="s">
+      <c r="D27" s="128"/>
+      <c r="E27" s="182"/>
+      <c r="F27" s="182"/>
+      <c r="G27" s="182"/>
+      <c r="H27" s="182"/>
+      <c r="I27" s="190" t="s">
+        <v>243</v>
+      </c>
+      <c r="J27" s="191"/>
+      <c r="K27" s="146" t="s">
         <v>225</v>
       </c>
-      <c r="L27" s="139"/>
+      <c r="L27" s="129"/>
       <c r="O27" s="49"/>
       <c r="P27" s="49"/>
       <c r="Q27" s="49"/>
@@ -9014,26 +9230,26 @@
       <c r="T27" s="49"/>
     </row>
     <row r="28" spans="1:20" ht="29.25" customHeight="1">
-      <c r="A28" s="161" t="s">
+      <c r="A28" s="146" t="s">
         <v>227</v>
       </c>
-      <c r="B28" s="139"/>
-      <c r="C28" s="161" t="s">
+      <c r="B28" s="129"/>
+      <c r="C28" s="146" t="s">
         <v>230</v>
       </c>
-      <c r="D28" s="138"/>
-      <c r="E28" s="196"/>
-      <c r="F28" s="196"/>
-      <c r="G28" s="196"/>
-      <c r="H28" s="196"/>
-      <c r="I28" s="194" t="s">
-        <v>274</v>
-      </c>
-      <c r="J28" s="195"/>
-      <c r="K28" s="161" t="s">
+      <c r="D28" s="128"/>
+      <c r="E28" s="182"/>
+      <c r="F28" s="182"/>
+      <c r="G28" s="182"/>
+      <c r="H28" s="182"/>
+      <c r="I28" s="192" t="s">
+        <v>273</v>
+      </c>
+      <c r="J28" s="193"/>
+      <c r="K28" s="146" t="s">
         <v>225</v>
       </c>
-      <c r="L28" s="139"/>
+      <c r="L28" s="129"/>
       <c r="O28" s="49"/>
       <c r="P28" s="49"/>
       <c r="Q28" s="49"/>
@@ -9042,141 +9258,141 @@
       <c r="T28" s="49"/>
     </row>
     <row r="29" spans="1:20" ht="29.25" customHeight="1">
-      <c r="A29" s="161" t="s">
+      <c r="A29" s="146" t="s">
         <v>228</v>
       </c>
-      <c r="B29" s="139"/>
-      <c r="C29" s="161" t="s">
+      <c r="B29" s="129"/>
+      <c r="C29" s="146" t="s">
         <v>231</v>
       </c>
-      <c r="D29" s="138"/>
-      <c r="E29" s="196"/>
-      <c r="F29" s="196"/>
-      <c r="G29" s="196"/>
-      <c r="H29" s="196"/>
-      <c r="I29" s="138"/>
-      <c r="J29" s="139"/>
-      <c r="K29" s="161" t="s">
+      <c r="D29" s="128"/>
+      <c r="E29" s="182"/>
+      <c r="F29" s="182"/>
+      <c r="G29" s="182"/>
+      <c r="H29" s="182"/>
+      <c r="I29" s="128"/>
+      <c r="J29" s="129"/>
+      <c r="K29" s="146" t="s">
         <v>225</v>
       </c>
-      <c r="L29" s="139"/>
+      <c r="L29" s="129"/>
     </row>
     <row r="30" spans="1:20" ht="29.25" customHeight="1">
-      <c r="A30" s="161" t="s">
+      <c r="A30" s="146" t="s">
         <v>228</v>
       </c>
-      <c r="B30" s="139"/>
-      <c r="C30" s="161" t="s">
+      <c r="B30" s="129"/>
+      <c r="C30" s="146" t="s">
         <v>232</v>
       </c>
-      <c r="D30" s="138"/>
-      <c r="E30" s="196"/>
-      <c r="F30" s="196"/>
-      <c r="G30" s="196"/>
-      <c r="H30" s="196"/>
-      <c r="I30" s="138"/>
-      <c r="J30" s="139"/>
-      <c r="K30" s="161" t="s">
+      <c r="D30" s="128"/>
+      <c r="E30" s="182"/>
+      <c r="F30" s="182"/>
+      <c r="G30" s="182"/>
+      <c r="H30" s="182"/>
+      <c r="I30" s="128"/>
+      <c r="J30" s="129"/>
+      <c r="K30" s="146" t="s">
         <v>225</v>
       </c>
-      <c r="L30" s="139"/>
+      <c r="L30" s="129"/>
     </row>
     <row r="31" spans="1:20" ht="29.25" customHeight="1"/>
     <row r="32" spans="1:20" ht="29.25" customHeight="1">
-      <c r="A32" s="152" t="s">
+      <c r="A32" s="170" t="s">
         <v>214</v>
       </c>
-      <c r="B32" s="153"/>
-      <c r="C32" s="153" t="s">
-        <v>272</v>
-      </c>
-      <c r="D32" s="153"/>
-      <c r="E32" s="153"/>
-      <c r="F32" s="153"/>
-      <c r="G32" s="153"/>
-      <c r="H32" s="112"/>
-      <c r="I32" s="157" t="s">
-        <v>268</v>
-      </c>
-      <c r="J32" s="157"/>
-      <c r="K32" s="187" t="s">
-        <v>245</v>
-      </c>
-      <c r="L32" s="187"/>
+      <c r="B32" s="166"/>
+      <c r="C32" s="166" t="s">
+        <v>271</v>
+      </c>
+      <c r="D32" s="166"/>
+      <c r="E32" s="166"/>
+      <c r="F32" s="166"/>
+      <c r="G32" s="166"/>
+      <c r="H32" s="110"/>
+      <c r="I32" s="164" t="s">
+        <v>267</v>
+      </c>
+      <c r="J32" s="164"/>
+      <c r="K32" s="183" t="s">
+        <v>244</v>
+      </c>
+      <c r="L32" s="183"/>
     </row>
     <row r="33" spans="1:12" ht="29.25" customHeight="1">
-      <c r="A33" s="160" t="s">
+      <c r="A33" s="148" t="s">
+        <v>246</v>
+      </c>
+      <c r="B33" s="146"/>
+      <c r="C33" s="178"/>
+      <c r="D33" s="178"/>
+      <c r="E33" s="178" t="s">
+        <v>270</v>
+      </c>
+      <c r="F33" s="178"/>
+      <c r="G33" s="178"/>
+      <c r="H33" s="67"/>
+      <c r="I33" s="178" t="s">
+        <v>266</v>
+      </c>
+      <c r="J33" s="178"/>
+      <c r="K33" s="178"/>
+      <c r="L33" s="147"/>
+    </row>
+    <row r="34" spans="1:12" ht="29.25" customHeight="1">
+      <c r="A34" s="87" t="s">
         <v>247</v>
       </c>
-      <c r="B33" s="161"/>
-      <c r="C33" s="204"/>
-      <c r="D33" s="204"/>
-      <c r="E33" s="204" t="s">
-        <v>271</v>
-      </c>
-      <c r="F33" s="204"/>
-      <c r="G33" s="204"/>
-      <c r="H33" s="67"/>
-      <c r="I33" s="204" t="s">
-        <v>267</v>
-      </c>
-      <c r="J33" s="204"/>
-      <c r="K33" s="204"/>
-      <c r="L33" s="159"/>
-    </row>
-    <row r="34" spans="1:12" ht="29.25" customHeight="1">
-      <c r="A34" s="89" t="s">
+      <c r="B34" s="89" t="s">
         <v>248</v>
       </c>
-      <c r="B34" s="91" t="s">
+      <c r="C34" s="184" t="s">
         <v>249</v>
       </c>
-      <c r="C34" s="197" t="s">
+      <c r="D34" s="185"/>
+      <c r="E34" s="184" t="s">
         <v>250</v>
       </c>
-      <c r="D34" s="198"/>
-      <c r="E34" s="197" t="s">
-        <v>251</v>
-      </c>
-      <c r="F34" s="198"/>
-      <c r="G34" s="199" t="s">
+      <c r="F34" s="185"/>
+      <c r="G34" s="186" t="s">
         <v>236</v>
       </c>
-      <c r="H34" s="200"/>
-      <c r="I34" s="201"/>
-      <c r="J34" s="199" t="s">
+      <c r="H34" s="187"/>
+      <c r="I34" s="188"/>
+      <c r="J34" s="186" t="s">
         <v>224</v>
       </c>
-      <c r="K34" s="202"/>
-      <c r="L34" s="201"/>
+      <c r="K34" s="189"/>
+      <c r="L34" s="188"/>
     </row>
     <row r="35" spans="1:12" ht="29.25" customHeight="1">
       <c r="A35" s="49"/>
       <c r="B35" s="49"/>
-      <c r="C35" s="135"/>
-      <c r="D35" s="135"/>
-      <c r="E35" s="135"/>
-      <c r="F35" s="135"/>
-      <c r="G35" s="140"/>
-      <c r="H35" s="138"/>
-      <c r="I35" s="139"/>
-      <c r="J35" s="140"/>
-      <c r="K35" s="138"/>
-      <c r="L35" s="139"/>
+      <c r="C35" s="130"/>
+      <c r="D35" s="130"/>
+      <c r="E35" s="130"/>
+      <c r="F35" s="130"/>
+      <c r="G35" s="143"/>
+      <c r="H35" s="128"/>
+      <c r="I35" s="129"/>
+      <c r="J35" s="143"/>
+      <c r="K35" s="128"/>
+      <c r="L35" s="129"/>
     </row>
     <row r="36" spans="1:12" ht="29.25" customHeight="1">
       <c r="A36" s="49"/>
       <c r="B36" s="49"/>
-      <c r="C36" s="135"/>
-      <c r="D36" s="135"/>
-      <c r="E36" s="135"/>
-      <c r="F36" s="135"/>
-      <c r="G36" s="140"/>
-      <c r="H36" s="138"/>
-      <c r="I36" s="139"/>
-      <c r="J36" s="140"/>
-      <c r="K36" s="138"/>
-      <c r="L36" s="139"/>
+      <c r="C36" s="130"/>
+      <c r="D36" s="130"/>
+      <c r="E36" s="130"/>
+      <c r="F36" s="130"/>
+      <c r="G36" s="143"/>
+      <c r="H36" s="128"/>
+      <c r="I36" s="129"/>
+      <c r="J36" s="143"/>
+      <c r="K36" s="128"/>
+      <c r="L36" s="129"/>
     </row>
     <row r="38" spans="1:12" ht="28.5" customHeight="1"/>
     <row r="39" spans="1:12" ht="48" customHeight="1">
@@ -9185,49 +9401,49 @@
       </c>
     </row>
     <row r="40" spans="1:12" ht="45" customHeight="1">
-      <c r="A40" s="117" t="s">
+      <c r="A40" s="115" t="s">
+        <v>279</v>
+      </c>
+      <c r="B40" s="116" t="s">
         <v>280</v>
       </c>
-      <c r="B40" s="118" t="s">
+      <c r="C40" s="116" t="s">
         <v>281</v>
       </c>
-      <c r="C40" s="118" t="s">
+      <c r="D40" s="116" t="s">
         <v>282</v>
       </c>
-      <c r="D40" s="118" t="s">
+      <c r="E40" s="175" t="s">
         <v>283</v>
       </c>
-      <c r="E40" s="210" t="s">
-        <v>284</v>
-      </c>
-      <c r="F40" s="211"/>
+      <c r="F40" s="176"/>
     </row>
     <row r="41" spans="1:12" ht="45" customHeight="1">
-      <c r="A41" s="218" t="s">
+      <c r="A41" s="209" t="s">
+        <v>277</v>
+      </c>
+      <c r="B41" s="209"/>
+      <c r="D41" s="50" t="s">
         <v>278</v>
       </c>
-      <c r="B41" s="218"/>
-      <c r="D41" s="50" t="s">
-        <v>279</v>
-      </c>
     </row>
     <row r="42" spans="1:12" ht="45" customHeight="1">
-      <c r="A42" s="90" t="s">
+      <c r="A42" s="88" t="s">
         <v>171</v>
       </c>
-      <c r="B42" s="90" t="s">
+      <c r="B42" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="C42" s="90" t="s">
+      <c r="C42" s="88" t="s">
         <v>100</v>
       </c>
-      <c r="D42" s="90" t="s">
+      <c r="D42" s="88" t="s">
         <v>101</v>
       </c>
-      <c r="E42" s="119" t="s">
+      <c r="E42" s="117" t="s">
         <v>102</v>
       </c>
-      <c r="F42" s="121" t="s">
+      <c r="F42" s="119" t="s">
         <v>103</v>
       </c>
     </row>
@@ -9247,7 +9463,7 @@
       <c r="E43" s="47">
         <v>8</v>
       </c>
-      <c r="F43" s="122">
+      <c r="F43" s="120">
         <v>0</v>
       </c>
     </row>
@@ -9267,7 +9483,7 @@
       <c r="E44" s="47">
         <v>3</v>
       </c>
-      <c r="F44" s="122">
+      <c r="F44" s="120">
         <v>0</v>
       </c>
     </row>
@@ -9287,16 +9503,16 @@
       <c r="E45" s="47">
         <v>86</v>
       </c>
-      <c r="F45" s="122">
+      <c r="F45" s="120">
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:12" ht="45" customHeight="1">
       <c r="A46" s="52" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B46" s="52" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C46" s="45">
         <f t="shared" ref="C46:E46" si="0">SUM(C43:C45)</f>
@@ -9310,7 +9526,7 @@
         <f t="shared" si="0"/>
         <v>97</v>
       </c>
-      <c r="F46" s="122">
+      <c r="F46" s="120">
         <v>0</v>
       </c>
     </row>
@@ -9327,16 +9543,16 @@
     </row>
     <row r="52" spans="1:8" ht="27" customHeight="1">
       <c r="A52" s="50" t="s">
+        <v>255</v>
+      </c>
+      <c r="C52" s="50" t="s">
         <v>256</v>
       </c>
-      <c r="C52" s="50" t="s">
+      <c r="E52" s="50" t="s">
         <v>257</v>
       </c>
-      <c r="E52" s="50" t="s">
+      <c r="G52" s="50" t="s">
         <v>258</v>
-      </c>
-      <c r="G52" s="50" t="s">
-        <v>259</v>
       </c>
       <c r="H52" s="50"/>
     </row>
@@ -9359,7 +9575,7 @@
       <c r="G54" s="68" t="s">
         <v>179</v>
       </c>
-      <c r="H54" s="113"/>
+      <c r="H54" s="111"/>
     </row>
     <row r="55" spans="1:8" ht="19.5" customHeight="1">
       <c r="A55" s="45" t="s">
@@ -9368,10 +9584,10 @@
       <c r="B55" s="49"/>
       <c r="C55" s="49"/>
       <c r="D55" s="56" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E55" s="52" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F55" s="49"/>
       <c r="G55" s="49"/>
@@ -9384,7 +9600,7 @@
       <c r="B56" s="49"/>
       <c r="C56" s="49"/>
       <c r="E56" s="52" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F56" s="49"/>
       <c r="G56" s="49"/>
@@ -9452,90 +9668,90 @@
       </c>
     </row>
     <row r="90" spans="1:8">
-      <c r="B90" s="135" t="s">
+      <c r="B90" s="130" t="s">
         <v>190</v>
       </c>
       <c r="C90" s="49" t="s">
         <v>113</v>
       </c>
       <c r="D90" s="49"/>
-      <c r="E90" s="106" t="s">
+      <c r="E90" s="104" t="s">
         <v>191</v>
       </c>
-      <c r="F90" s="208" t="s">
-        <v>261</v>
-      </c>
-      <c r="G90" s="209"/>
-      <c r="H90" s="114"/>
+      <c r="F90" s="173" t="s">
+        <v>260</v>
+      </c>
+      <c r="G90" s="174"/>
+      <c r="H90" s="112"/>
     </row>
     <row r="91" spans="1:8">
-      <c r="B91" s="135"/>
+      <c r="B91" s="130"/>
       <c r="C91" s="49" t="s">
         <v>127</v>
       </c>
       <c r="D91" s="49"/>
-      <c r="E91" s="106" t="s">
+      <c r="E91" s="104" t="s">
         <v>191</v>
       </c>
-      <c r="F91" s="209"/>
-      <c r="G91" s="209"/>
-      <c r="H91" s="114"/>
+      <c r="F91" s="174"/>
+      <c r="G91" s="174"/>
+      <c r="H91" s="112"/>
     </row>
     <row r="92" spans="1:8">
-      <c r="B92" s="135" t="s">
+      <c r="B92" s="130" t="s">
         <v>192</v>
       </c>
       <c r="C92" s="49" t="s">
         <v>117</v>
       </c>
       <c r="D92" s="49"/>
-      <c r="E92" s="106" t="s">
+      <c r="E92" s="104" t="s">
         <v>191</v>
       </c>
-      <c r="F92" s="209"/>
-      <c r="G92" s="209"/>
-      <c r="H92" s="114"/>
+      <c r="F92" s="174"/>
+      <c r="G92" s="174"/>
+      <c r="H92" s="112"/>
     </row>
     <row r="93" spans="1:8">
-      <c r="B93" s="135"/>
+      <c r="B93" s="130"/>
       <c r="C93" s="49" t="s">
         <v>16</v>
       </c>
       <c r="D93" s="49"/>
-      <c r="E93" s="106" t="s">
+      <c r="E93" s="104" t="s">
         <v>191</v>
       </c>
-      <c r="F93" s="209"/>
-      <c r="G93" s="209"/>
-      <c r="H93" s="114"/>
+      <c r="F93" s="174"/>
+      <c r="G93" s="174"/>
+      <c r="H93" s="112"/>
     </row>
     <row r="94" spans="1:8">
-      <c r="B94" s="135"/>
+      <c r="B94" s="130"/>
       <c r="C94" s="49" t="s">
         <v>115</v>
       </c>
       <c r="D94" s="49"/>
-      <c r="E94" s="106" t="s">
+      <c r="E94" s="104" t="s">
         <v>191</v>
       </c>
-      <c r="F94" s="209"/>
-      <c r="G94" s="209"/>
-      <c r="H94" s="114"/>
+      <c r="F94" s="174"/>
+      <c r="G94" s="174"/>
+      <c r="H94" s="112"/>
     </row>
     <row r="95" spans="1:8">
-      <c r="B95" s="135"/>
+      <c r="B95" s="130"/>
       <c r="C95" s="51" t="s">
+        <v>261</v>
+      </c>
+      <c r="D95" s="49"/>
+      <c r="E95" s="105" t="s">
+        <v>191</v>
+      </c>
+      <c r="F95" s="106" t="s">
         <v>262</v>
       </c>
-      <c r="D95" s="49"/>
-      <c r="E95" s="107" t="s">
-        <v>191</v>
-      </c>
-      <c r="F95" s="108" t="s">
-        <v>263</v>
-      </c>
-      <c r="G95" s="108"/>
-      <c r="H95" s="108"/>
+      <c r="G95" s="106"/>
+      <c r="H95" s="106"/>
     </row>
     <row r="96" spans="1:8">
       <c r="B96" s="45" t="s">
@@ -9545,7 +9761,7 @@
       <c r="D96" s="49" t="s">
         <v>194</v>
       </c>
-      <c r="E96" s="105"/>
+      <c r="E96" s="103"/>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" t="s">
@@ -9609,6 +9825,67 @@
     </row>
   </sheetData>
   <mergeCells count="77">
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="O25:T25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="J34:L34"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="I33:L33"/>
+    <mergeCell ref="B90:B91"/>
+    <mergeCell ref="F90:G94"/>
+    <mergeCell ref="B92:B95"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="I25:L25"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="J35:L35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="K29:L29"/>
     <mergeCell ref="E40:F40"/>
     <mergeCell ref="A41:B41"/>
     <mergeCell ref="E33:G33"/>
@@ -9625,69 +9902,8 @@
     <mergeCell ref="I32:J32"/>
     <mergeCell ref="K32:L32"/>
     <mergeCell ref="C34:D34"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="B90:B91"/>
-    <mergeCell ref="F90:G94"/>
-    <mergeCell ref="B92:B95"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="I25:L25"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="J35:L35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="J34:L34"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="I33:L33"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="O25:T25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:F11"/>
   </mergeCells>
-  <phoneticPr fontId="12" type="noConversion"/>
+  <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/doc/alice/20180302后台财务更新.xlsx
+++ b/doc/alice/20180302后台财务更新.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="335">
   <si>
     <t>收：</t>
   </si>
@@ -1339,6 +1339,10 @@
   </si>
   <si>
     <t>购买赠课</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>收益统计statisticsCamp/campIncome</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
@@ -2694,13 +2698,64 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="28" fillId="7" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="28" fillId="7" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="8" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="8" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="8" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="29" fillId="8" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="29" fillId="8" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="29" fillId="8" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="6" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="30" fillId="6" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="6" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="18" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="24" fillId="9" borderId="18" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="29" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="10" borderId="15" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="10" borderId="15" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="31" fillId="10" borderId="15" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2712,121 +2767,256 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="34" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="18" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="6" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="39" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="37" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="39" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="8" borderId="36" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="8" borderId="37" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="8" borderId="32" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="8" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="8" borderId="38" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="32" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="38" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2841,67 +3031,13 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2913,154 +3049,22 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="7" borderId="39" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="7" borderId="37" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="7" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="7" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="7" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="7" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="28" fillId="7" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="28" fillId="7" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="7" borderId="32" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="7" borderId="38" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="7" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="39" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="8" borderId="36" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="8" borderId="37" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="8" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="8" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="8" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="29" fillId="8" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="29" fillId="8" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="29" fillId="8" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="8" borderId="32" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="8" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="8" borderId="38" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="6" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="6" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="30" fillId="6" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="6" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="34" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="18" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="18" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="24" fillId="9" borderId="18" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="29" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="10" borderId="15" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="10" borderId="15" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="31" fillId="10" borderId="15" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3105,7 +3109,7 @@
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3158,7 +3162,7 @@
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3211,7 +3215,7 @@
         <xdr:cNvPr id="5" name="图片 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3259,7 +3263,7 @@
         <xdr:cNvPr id="6" name="图片 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3649,41 +3653,41 @@
       </c>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="135" t="s">
+      <c r="A10" s="151" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="135" t="s">
+      <c r="B10" s="151" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="137" t="s">
+      <c r="C10" s="155" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="128"/>
-      <c r="E10" s="129"/>
-      <c r="F10" s="137" t="s">
+      <c r="D10" s="156"/>
+      <c r="E10" s="157"/>
+      <c r="F10" s="155" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="128"/>
-      <c r="H10" s="129"/>
-      <c r="I10" s="137" t="s">
+      <c r="G10" s="156"/>
+      <c r="H10" s="157"/>
+      <c r="I10" s="155" t="s">
         <v>12</v>
       </c>
-      <c r="J10" s="128"/>
-      <c r="K10" s="129"/>
-      <c r="L10" s="128" t="s">
+      <c r="J10" s="156"/>
+      <c r="K10" s="157"/>
+      <c r="L10" s="156" t="s">
         <v>13</v>
       </c>
-      <c r="M10" s="128"/>
-      <c r="N10" s="129"/>
-      <c r="O10" s="130" t="s">
+      <c r="M10" s="156"/>
+      <c r="N10" s="157"/>
+      <c r="O10" s="153" t="s">
         <v>14</v>
       </c>
-      <c r="P10" s="130"/>
-      <c r="Q10" s="130"/>
+      <c r="P10" s="153"/>
+      <c r="Q10" s="153"/>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="136"/>
-      <c r="B11" s="136"/>
+      <c r="A11" s="152"/>
+      <c r="B11" s="152"/>
       <c r="C11" s="5" t="s">
         <v>15</v>
       </c>
@@ -3731,7 +3735,7 @@
       </c>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="130" t="s">
+      <c r="A12" s="153" t="s">
         <v>18</v>
       </c>
       <c r="B12" s="5">
@@ -3781,7 +3785,7 @@
       </c>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="130"/>
+      <c r="A13" s="153"/>
       <c r="B13" s="5">
         <v>88</v>
       </c>
@@ -3829,7 +3833,7 @@
       </c>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="130"/>
+      <c r="A14" s="153"/>
       <c r="B14" s="5">
         <v>100</v>
       </c>
@@ -3877,7 +3881,7 @@
       </c>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="130"/>
+      <c r="A15" s="153"/>
       <c r="B15" s="5" t="s">
         <v>19</v>
       </c>
@@ -3934,7 +3938,7 @@
       </c>
     </row>
     <row r="16" spans="1:17" hidden="1">
-      <c r="A16" s="135" t="s">
+      <c r="A16" s="151" t="s">
         <v>20</v>
       </c>
       <c r="B16" s="5">
@@ -3981,7 +3985,7 @@
       <c r="Q16" s="40"/>
     </row>
     <row r="17" spans="1:17" hidden="1">
-      <c r="A17" s="136"/>
+      <c r="A17" s="152"/>
       <c r="B17" s="5" t="s">
         <v>19</v>
       </c>
@@ -4035,7 +4039,7 @@
       <c r="Q17" s="40"/>
     </row>
     <row r="18" spans="1:17">
-      <c r="A18" s="130" t="s">
+      <c r="A18" s="153" t="s">
         <v>21</v>
       </c>
       <c r="B18" s="5">
@@ -4088,7 +4092,7 @@
       </c>
     </row>
     <row r="19" spans="1:17">
-      <c r="A19" s="130"/>
+      <c r="A19" s="153"/>
       <c r="B19" s="5">
         <v>180</v>
       </c>
@@ -4139,7 +4143,7 @@
       </c>
     </row>
     <row r="20" spans="1:17">
-      <c r="A20" s="130"/>
+      <c r="A20" s="153"/>
       <c r="B20" s="5">
         <v>240</v>
       </c>
@@ -4190,7 +4194,7 @@
       </c>
     </row>
     <row r="21" spans="1:17">
-      <c r="A21" s="130"/>
+      <c r="A21" s="153"/>
       <c r="B21" s="5" t="s">
         <v>19</v>
       </c>
@@ -4339,16 +4343,16 @@
       <c r="C46" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D46" s="134" t="s">
+      <c r="D46" s="154" t="s">
         <v>37</v>
       </c>
-      <c r="E46" s="134"/>
-      <c r="F46" s="134"/>
-      <c r="G46" s="134"/>
-      <c r="H46" s="134"/>
-      <c r="I46" s="134"/>
-      <c r="J46" s="134"/>
-      <c r="K46" s="134"/>
+      <c r="E46" s="154"/>
+      <c r="F46" s="154"/>
+      <c r="G46" s="154"/>
+      <c r="H46" s="154"/>
+      <c r="I46" s="154"/>
+      <c r="J46" s="154"/>
+      <c r="K46" s="154"/>
       <c r="L46" t="s">
         <v>38</v>
       </c>
@@ -4364,16 +4368,16 @@
       <c r="C47" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D47" s="131" t="s">
+      <c r="D47" s="148" t="s">
         <v>41</v>
       </c>
-      <c r="E47" s="132"/>
-      <c r="F47" s="132"/>
-      <c r="G47" s="132"/>
-      <c r="H47" s="132"/>
-      <c r="I47" s="132"/>
-      <c r="J47" s="132"/>
-      <c r="K47" s="133"/>
+      <c r="E47" s="149"/>
+      <c r="F47" s="149"/>
+      <c r="G47" s="149"/>
+      <c r="H47" s="149"/>
+      <c r="I47" s="149"/>
+      <c r="J47" s="149"/>
+      <c r="K47" s="150"/>
       <c r="L47" t="s">
         <v>42</v>
       </c>
@@ -4389,16 +4393,16 @@
       <c r="C48" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D48" s="131" t="s">
+      <c r="D48" s="148" t="s">
         <v>44</v>
       </c>
-      <c r="E48" s="132"/>
-      <c r="F48" s="132"/>
-      <c r="G48" s="132"/>
-      <c r="H48" s="132"/>
-      <c r="I48" s="132"/>
-      <c r="J48" s="132"/>
-      <c r="K48" s="133"/>
+      <c r="E48" s="149"/>
+      <c r="F48" s="149"/>
+      <c r="G48" s="149"/>
+      <c r="H48" s="149"/>
+      <c r="I48" s="149"/>
+      <c r="J48" s="149"/>
+      <c r="K48" s="150"/>
       <c r="L48" t="s">
         <v>45</v>
       </c>
@@ -4434,16 +4438,16 @@
       <c r="C51" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D51" s="134" t="s">
+      <c r="D51" s="154" t="s">
         <v>49</v>
       </c>
-      <c r="E51" s="134"/>
-      <c r="F51" s="134"/>
-      <c r="G51" s="134"/>
-      <c r="H51" s="134"/>
-      <c r="I51" s="134"/>
-      <c r="J51" s="134"/>
-      <c r="K51" s="134"/>
+      <c r="E51" s="154"/>
+      <c r="F51" s="154"/>
+      <c r="G51" s="154"/>
+      <c r="H51" s="154"/>
+      <c r="I51" s="154"/>
+      <c r="J51" s="154"/>
+      <c r="K51" s="154"/>
       <c r="L51" t="s">
         <v>50</v>
       </c>
@@ -4458,16 +4462,16 @@
       <c r="C52" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D52" s="131" t="s">
+      <c r="D52" s="148" t="s">
         <v>51</v>
       </c>
-      <c r="E52" s="132"/>
-      <c r="F52" s="132"/>
-      <c r="G52" s="132"/>
-      <c r="H52" s="132"/>
-      <c r="I52" s="132"/>
-      <c r="J52" s="132"/>
-      <c r="K52" s="133"/>
+      <c r="E52" s="149"/>
+      <c r="F52" s="149"/>
+      <c r="G52" s="149"/>
+      <c r="H52" s="149"/>
+      <c r="I52" s="149"/>
+      <c r="J52" s="149"/>
+      <c r="K52" s="150"/>
       <c r="L52" t="s">
         <v>52</v>
       </c>
@@ -4482,16 +4486,16 @@
       <c r="C53" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D53" s="131" t="s">
+      <c r="D53" s="148" t="s">
         <v>53</v>
       </c>
-      <c r="E53" s="132"/>
-      <c r="F53" s="132"/>
-      <c r="G53" s="132"/>
-      <c r="H53" s="132"/>
-      <c r="I53" s="132"/>
-      <c r="J53" s="132"/>
-      <c r="K53" s="133"/>
+      <c r="E53" s="149"/>
+      <c r="F53" s="149"/>
+      <c r="G53" s="149"/>
+      <c r="H53" s="149"/>
+      <c r="I53" s="149"/>
+      <c r="J53" s="149"/>
+      <c r="K53" s="150"/>
       <c r="L53" t="s">
         <v>54</v>
       </c>
@@ -4536,16 +4540,16 @@
       <c r="C56" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D56" s="134" t="s">
+      <c r="D56" s="154" t="s">
         <v>57</v>
       </c>
-      <c r="E56" s="134"/>
-      <c r="F56" s="134"/>
-      <c r="G56" s="134"/>
-      <c r="H56" s="134"/>
-      <c r="I56" s="134"/>
-      <c r="J56" s="134"/>
-      <c r="K56" s="134"/>
+      <c r="E56" s="154"/>
+      <c r="F56" s="154"/>
+      <c r="G56" s="154"/>
+      <c r="H56" s="154"/>
+      <c r="I56" s="154"/>
+      <c r="J56" s="154"/>
+      <c r="K56" s="154"/>
       <c r="L56" t="s">
         <v>58</v>
       </c>
@@ -4560,16 +4564,16 @@
       <c r="C57" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D57" s="131" t="s">
+      <c r="D57" s="148" t="s">
         <v>51</v>
       </c>
-      <c r="E57" s="132"/>
-      <c r="F57" s="132"/>
-      <c r="G57" s="132"/>
-      <c r="H57" s="132"/>
-      <c r="I57" s="132"/>
-      <c r="J57" s="132"/>
-      <c r="K57" s="133"/>
+      <c r="E57" s="149"/>
+      <c r="F57" s="149"/>
+      <c r="G57" s="149"/>
+      <c r="H57" s="149"/>
+      <c r="I57" s="149"/>
+      <c r="J57" s="149"/>
+      <c r="K57" s="150"/>
       <c r="L57" t="s">
         <v>52</v>
       </c>
@@ -4584,16 +4588,16 @@
       <c r="C58" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D58" s="131" t="s">
+      <c r="D58" s="148" t="s">
         <v>53</v>
       </c>
-      <c r="E58" s="132"/>
-      <c r="F58" s="132"/>
-      <c r="G58" s="132"/>
-      <c r="H58" s="132"/>
-      <c r="I58" s="132"/>
-      <c r="J58" s="132"/>
-      <c r="K58" s="133"/>
+      <c r="E58" s="149"/>
+      <c r="F58" s="149"/>
+      <c r="G58" s="149"/>
+      <c r="H58" s="149"/>
+      <c r="I58" s="149"/>
+      <c r="J58" s="149"/>
+      <c r="K58" s="150"/>
       <c r="L58" t="s">
         <v>54</v>
       </c>
@@ -4620,6 +4624,11 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="L10:N10"/>
+    <mergeCell ref="O10:Q10"/>
+    <mergeCell ref="D53:K53"/>
+    <mergeCell ref="D56:K56"/>
+    <mergeCell ref="D57:K57"/>
     <mergeCell ref="D58:K58"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A12:A15"/>
@@ -4634,11 +4643,6 @@
     <mergeCell ref="C10:E10"/>
     <mergeCell ref="F10:H10"/>
     <mergeCell ref="I10:K10"/>
-    <mergeCell ref="L10:N10"/>
-    <mergeCell ref="O10:Q10"/>
-    <mergeCell ref="D53:K53"/>
-    <mergeCell ref="D56:K56"/>
-    <mergeCell ref="D57:K57"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
@@ -4723,16 +4727,16 @@
       <c r="C20" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D20" s="134" t="s">
+      <c r="D20" s="154" t="s">
         <v>37</v>
       </c>
-      <c r="E20" s="134"/>
-      <c r="F20" s="134"/>
-      <c r="G20" s="134"/>
-      <c r="H20" s="134"/>
-      <c r="I20" s="134"/>
-      <c r="J20" s="134"/>
-      <c r="K20" s="134"/>
+      <c r="E20" s="154"/>
+      <c r="F20" s="154"/>
+      <c r="G20" s="154"/>
+      <c r="H20" s="154"/>
+      <c r="I20" s="154"/>
+      <c r="J20" s="154"/>
+      <c r="K20" s="154"/>
       <c r="T20" s="13"/>
     </row>
     <row r="21" spans="1:20">
@@ -4745,16 +4749,16 @@
       <c r="C21" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D21" s="131" t="s">
+      <c r="D21" s="148" t="s">
         <v>41</v>
       </c>
-      <c r="E21" s="132"/>
-      <c r="F21" s="132"/>
-      <c r="G21" s="132"/>
-      <c r="H21" s="132"/>
-      <c r="I21" s="132"/>
-      <c r="J21" s="132"/>
-      <c r="K21" s="133"/>
+      <c r="E21" s="149"/>
+      <c r="F21" s="149"/>
+      <c r="G21" s="149"/>
+      <c r="H21" s="149"/>
+      <c r="I21" s="149"/>
+      <c r="J21" s="149"/>
+      <c r="K21" s="150"/>
       <c r="T21" s="13"/>
     </row>
     <row r="22" spans="1:20">
@@ -4767,16 +4771,16 @@
       <c r="C22" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D22" s="131" t="s">
+      <c r="D22" s="148" t="s">
         <v>44</v>
       </c>
-      <c r="E22" s="132"/>
-      <c r="F22" s="132"/>
-      <c r="G22" s="132"/>
-      <c r="H22" s="132"/>
-      <c r="I22" s="132"/>
-      <c r="J22" s="132"/>
-      <c r="K22" s="133"/>
+      <c r="E22" s="149"/>
+      <c r="F22" s="149"/>
+      <c r="G22" s="149"/>
+      <c r="H22" s="149"/>
+      <c r="I22" s="149"/>
+      <c r="J22" s="149"/>
+      <c r="K22" s="150"/>
       <c r="T22" s="13"/>
     </row>
     <row r="24" spans="1:20">
@@ -4809,16 +4813,16 @@
       <c r="C25" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D25" s="134" t="s">
+      <c r="D25" s="154" t="s">
         <v>49</v>
       </c>
-      <c r="E25" s="134"/>
-      <c r="F25" s="134"/>
-      <c r="G25" s="134"/>
-      <c r="H25" s="134"/>
-      <c r="I25" s="134"/>
-      <c r="J25" s="134"/>
-      <c r="K25" s="134"/>
+      <c r="E25" s="154"/>
+      <c r="F25" s="154"/>
+      <c r="G25" s="154"/>
+      <c r="H25" s="154"/>
+      <c r="I25" s="154"/>
+      <c r="J25" s="154"/>
+      <c r="K25" s="154"/>
     </row>
     <row r="26" spans="1:20">
       <c r="A26" s="4" t="s">
@@ -4830,16 +4834,16 @@
       <c r="C26" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D26" s="131" t="s">
+      <c r="D26" s="148" t="s">
         <v>51</v>
       </c>
-      <c r="E26" s="132"/>
-      <c r="F26" s="132"/>
-      <c r="G26" s="132"/>
-      <c r="H26" s="132"/>
-      <c r="I26" s="132"/>
-      <c r="J26" s="132"/>
-      <c r="K26" s="133"/>
+      <c r="E26" s="149"/>
+      <c r="F26" s="149"/>
+      <c r="G26" s="149"/>
+      <c r="H26" s="149"/>
+      <c r="I26" s="149"/>
+      <c r="J26" s="149"/>
+      <c r="K26" s="150"/>
     </row>
     <row r="27" spans="1:20">
       <c r="A27" s="4" t="s">
@@ -4851,16 +4855,16 @@
       <c r="C27" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D27" s="131" t="s">
+      <c r="D27" s="148" t="s">
         <v>53</v>
       </c>
-      <c r="E27" s="132"/>
-      <c r="F27" s="132"/>
-      <c r="G27" s="132"/>
-      <c r="H27" s="132"/>
-      <c r="I27" s="132"/>
-      <c r="J27" s="132"/>
-      <c r="K27" s="133"/>
+      <c r="E27" s="149"/>
+      <c r="F27" s="149"/>
+      <c r="G27" s="149"/>
+      <c r="H27" s="149"/>
+      <c r="I27" s="149"/>
+      <c r="J27" s="149"/>
+      <c r="K27" s="150"/>
     </row>
     <row r="28" spans="1:20">
       <c r="C28" s="9"/>
@@ -4902,16 +4906,16 @@
       <c r="C30" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D30" s="134" t="s">
+      <c r="D30" s="154" t="s">
         <v>57</v>
       </c>
-      <c r="E30" s="134"/>
-      <c r="F30" s="134"/>
-      <c r="G30" s="134"/>
-      <c r="H30" s="134"/>
-      <c r="I30" s="134"/>
-      <c r="J30" s="134"/>
-      <c r="K30" s="134"/>
+      <c r="E30" s="154"/>
+      <c r="F30" s="154"/>
+      <c r="G30" s="154"/>
+      <c r="H30" s="154"/>
+      <c r="I30" s="154"/>
+      <c r="J30" s="154"/>
+      <c r="K30" s="154"/>
     </row>
     <row r="31" spans="1:20">
       <c r="A31" s="4" t="s">
@@ -4923,16 +4927,16 @@
       <c r="C31" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D31" s="131" t="s">
+      <c r="D31" s="148" t="s">
         <v>51</v>
       </c>
-      <c r="E31" s="132"/>
-      <c r="F31" s="132"/>
-      <c r="G31" s="132"/>
-      <c r="H31" s="132"/>
-      <c r="I31" s="132"/>
-      <c r="J31" s="132"/>
-      <c r="K31" s="133"/>
+      <c r="E31" s="149"/>
+      <c r="F31" s="149"/>
+      <c r="G31" s="149"/>
+      <c r="H31" s="149"/>
+      <c r="I31" s="149"/>
+      <c r="J31" s="149"/>
+      <c r="K31" s="150"/>
     </row>
     <row r="32" spans="1:20">
       <c r="A32" s="4" t="s">
@@ -4944,16 +4948,16 @@
       <c r="C32" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D32" s="131" t="s">
+      <c r="D32" s="148" t="s">
         <v>53</v>
       </c>
-      <c r="E32" s="132"/>
-      <c r="F32" s="132"/>
-      <c r="G32" s="132"/>
-      <c r="H32" s="132"/>
-      <c r="I32" s="132"/>
-      <c r="J32" s="132"/>
-      <c r="K32" s="133"/>
+      <c r="E32" s="149"/>
+      <c r="F32" s="149"/>
+      <c r="G32" s="149"/>
+      <c r="H32" s="149"/>
+      <c r="I32" s="149"/>
+      <c r="J32" s="149"/>
+      <c r="K32" s="150"/>
     </row>
     <row r="33" spans="1:20">
       <c r="A33" t="s">
@@ -5063,30 +5067,30 @@
       <c r="C49" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="D49" s="134" t="s">
+      <c r="D49" s="154" t="s">
         <v>79</v>
       </c>
-      <c r="E49" s="134"/>
-      <c r="F49" s="134"/>
-      <c r="G49" s="134"/>
-      <c r="H49" s="134"/>
-      <c r="I49" s="134"/>
-      <c r="J49" s="134"/>
-      <c r="K49" s="138"/>
+      <c r="E49" s="154"/>
+      <c r="F49" s="154"/>
+      <c r="G49" s="154"/>
+      <c r="H49" s="154"/>
+      <c r="I49" s="154"/>
+      <c r="J49" s="154"/>
+      <c r="K49" s="164"/>
       <c r="T49" s="13"/>
     </row>
     <row r="50" spans="1:20">
       <c r="A50" s="26"/>
       <c r="B50" s="4"/>
       <c r="C50" s="5"/>
-      <c r="D50" s="131"/>
-      <c r="E50" s="132"/>
-      <c r="F50" s="132"/>
-      <c r="G50" s="132"/>
-      <c r="H50" s="132"/>
-      <c r="I50" s="132"/>
-      <c r="J50" s="132"/>
-      <c r="K50" s="139"/>
+      <c r="D50" s="148"/>
+      <c r="E50" s="149"/>
+      <c r="F50" s="149"/>
+      <c r="G50" s="149"/>
+      <c r="H50" s="149"/>
+      <c r="I50" s="149"/>
+      <c r="J50" s="149"/>
+      <c r="K50" s="163"/>
       <c r="L50" t="s">
         <v>80</v>
       </c>
@@ -5096,14 +5100,14 @@
       <c r="A51" s="26"/>
       <c r="B51" s="4"/>
       <c r="C51" s="5"/>
-      <c r="D51" s="131"/>
-      <c r="E51" s="132"/>
-      <c r="F51" s="132"/>
-      <c r="G51" s="132"/>
-      <c r="H51" s="132"/>
-      <c r="I51" s="132"/>
-      <c r="J51" s="132"/>
-      <c r="K51" s="139"/>
+      <c r="D51" s="148"/>
+      <c r="E51" s="149"/>
+      <c r="F51" s="149"/>
+      <c r="G51" s="149"/>
+      <c r="H51" s="149"/>
+      <c r="I51" s="149"/>
+      <c r="J51" s="149"/>
+      <c r="K51" s="163"/>
       <c r="T51" s="13"/>
     </row>
     <row r="52" spans="1:20">
@@ -5148,31 +5152,31 @@
       <c r="B54" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C54" s="140" t="s">
+      <c r="C54" s="160" t="s">
         <v>82</v>
       </c>
-      <c r="D54" s="141"/>
-      <c r="E54" s="141"/>
-      <c r="F54" s="141"/>
-      <c r="G54" s="141"/>
-      <c r="H54" s="141"/>
-      <c r="I54" s="141"/>
-      <c r="J54" s="141"/>
-      <c r="K54" s="142"/>
+      <c r="D54" s="161"/>
+      <c r="E54" s="161"/>
+      <c r="F54" s="161"/>
+      <c r="G54" s="161"/>
+      <c r="H54" s="161"/>
+      <c r="I54" s="161"/>
+      <c r="J54" s="161"/>
+      <c r="K54" s="162"/>
       <c r="T54" s="37"/>
     </row>
     <row r="55" spans="1:20">
       <c r="A55" s="26"/>
       <c r="B55" s="4"/>
-      <c r="C55" s="140"/>
-      <c r="D55" s="141"/>
-      <c r="E55" s="141"/>
-      <c r="F55" s="141"/>
-      <c r="G55" s="141"/>
-      <c r="H55" s="141"/>
-      <c r="I55" s="141"/>
-      <c r="J55" s="141"/>
-      <c r="K55" s="142"/>
+      <c r="C55" s="160"/>
+      <c r="D55" s="161"/>
+      <c r="E55" s="161"/>
+      <c r="F55" s="161"/>
+      <c r="G55" s="161"/>
+      <c r="H55" s="161"/>
+      <c r="I55" s="161"/>
+      <c r="J55" s="161"/>
+      <c r="K55" s="162"/>
       <c r="L55" t="s">
         <v>83</v>
       </c>
@@ -5181,15 +5185,15 @@
     <row r="56" spans="1:20">
       <c r="A56" s="26"/>
       <c r="B56" s="4"/>
-      <c r="C56" s="140"/>
-      <c r="D56" s="141"/>
-      <c r="E56" s="141"/>
-      <c r="F56" s="141"/>
-      <c r="G56" s="141"/>
-      <c r="H56" s="141"/>
-      <c r="I56" s="141"/>
-      <c r="J56" s="141"/>
-      <c r="K56" s="142"/>
+      <c r="C56" s="160"/>
+      <c r="D56" s="161"/>
+      <c r="E56" s="161"/>
+      <c r="F56" s="161"/>
+      <c r="G56" s="161"/>
+      <c r="H56" s="161"/>
+      <c r="I56" s="161"/>
+      <c r="J56" s="161"/>
+      <c r="K56" s="162"/>
       <c r="T56" s="37"/>
     </row>
     <row r="57" spans="1:20">
@@ -5209,45 +5213,45 @@
       <c r="B59" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="C59" s="140" t="s">
+      <c r="C59" s="160" t="s">
         <v>82</v>
       </c>
-      <c r="D59" s="141"/>
-      <c r="E59" s="141"/>
-      <c r="F59" s="141"/>
-      <c r="G59" s="141"/>
-      <c r="H59" s="141"/>
-      <c r="I59" s="141"/>
-      <c r="J59" s="141"/>
-      <c r="K59" s="142"/>
+      <c r="D59" s="161"/>
+      <c r="E59" s="161"/>
+      <c r="F59" s="161"/>
+      <c r="G59" s="161"/>
+      <c r="H59" s="161"/>
+      <c r="I59" s="161"/>
+      <c r="J59" s="161"/>
+      <c r="K59" s="162"/>
       <c r="T59" s="13"/>
     </row>
     <row r="60" spans="1:20">
       <c r="A60" s="26"/>
       <c r="B60" s="4"/>
-      <c r="C60" s="140"/>
-      <c r="D60" s="141"/>
-      <c r="E60" s="141"/>
-      <c r="F60" s="141"/>
-      <c r="G60" s="141"/>
-      <c r="H60" s="141"/>
-      <c r="I60" s="141"/>
-      <c r="J60" s="141"/>
-      <c r="K60" s="142"/>
+      <c r="C60" s="160"/>
+      <c r="D60" s="161"/>
+      <c r="E60" s="161"/>
+      <c r="F60" s="161"/>
+      <c r="G60" s="161"/>
+      <c r="H60" s="161"/>
+      <c r="I60" s="161"/>
+      <c r="J60" s="161"/>
+      <c r="K60" s="162"/>
       <c r="T60" s="13"/>
     </row>
     <row r="61" spans="1:20">
       <c r="A61" s="26"/>
       <c r="B61" s="4"/>
-      <c r="C61" s="140"/>
-      <c r="D61" s="141"/>
-      <c r="E61" s="141"/>
-      <c r="F61" s="141"/>
-      <c r="G61" s="141"/>
-      <c r="H61" s="141"/>
-      <c r="I61" s="141"/>
-      <c r="J61" s="141"/>
-      <c r="K61" s="142"/>
+      <c r="C61" s="160"/>
+      <c r="D61" s="161"/>
+      <c r="E61" s="161"/>
+      <c r="F61" s="161"/>
+      <c r="G61" s="161"/>
+      <c r="H61" s="161"/>
+      <c r="I61" s="161"/>
+      <c r="J61" s="161"/>
+      <c r="K61" s="162"/>
       <c r="T61" s="13"/>
     </row>
     <row r="62" spans="1:20">
@@ -5267,49 +5271,49 @@
       <c r="B64" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C64" s="130" t="s">
+      <c r="C64" s="153" t="s">
         <v>90</v>
       </c>
-      <c r="D64" s="130"/>
-      <c r="E64" s="130" t="s">
+      <c r="D64" s="153"/>
+      <c r="E64" s="153" t="s">
         <v>91</v>
       </c>
-      <c r="F64" s="130"/>
-      <c r="G64" s="143" t="s">
+      <c r="F64" s="153"/>
+      <c r="G64" s="158" t="s">
         <v>92</v>
       </c>
-      <c r="H64" s="129"/>
-      <c r="I64" s="143" t="s">
+      <c r="H64" s="157"/>
+      <c r="I64" s="158" t="s">
         <v>93</v>
       </c>
-      <c r="J64" s="128"/>
-      <c r="K64" s="144"/>
+      <c r="J64" s="156"/>
+      <c r="K64" s="159"/>
     </row>
     <row r="65" spans="1:11">
       <c r="A65" s="26"/>
       <c r="B65" s="4"/>
-      <c r="C65" s="130"/>
-      <c r="D65" s="130"/>
-      <c r="E65" s="130"/>
-      <c r="F65" s="130"/>
-      <c r="G65" s="143"/>
-      <c r="H65" s="129"/>
-      <c r="I65" s="143"/>
-      <c r="J65" s="128"/>
-      <c r="K65" s="144"/>
+      <c r="C65" s="153"/>
+      <c r="D65" s="153"/>
+      <c r="E65" s="153"/>
+      <c r="F65" s="153"/>
+      <c r="G65" s="158"/>
+      <c r="H65" s="157"/>
+      <c r="I65" s="158"/>
+      <c r="J65" s="156"/>
+      <c r="K65" s="159"/>
     </row>
     <row r="66" spans="1:11">
       <c r="A66" s="26"/>
       <c r="B66" s="4"/>
-      <c r="C66" s="130"/>
-      <c r="D66" s="130"/>
-      <c r="E66" s="130"/>
-      <c r="F66" s="130"/>
-      <c r="G66" s="143"/>
-      <c r="H66" s="129"/>
-      <c r="I66" s="143"/>
-      <c r="J66" s="128"/>
-      <c r="K66" s="144"/>
+      <c r="C66" s="153"/>
+      <c r="D66" s="153"/>
+      <c r="E66" s="153"/>
+      <c r="F66" s="153"/>
+      <c r="G66" s="158"/>
+      <c r="H66" s="157"/>
+      <c r="I66" s="158"/>
+      <c r="J66" s="156"/>
+      <c r="K66" s="159"/>
     </row>
     <row r="67" spans="1:11">
       <c r="A67" s="22"/>
@@ -5330,6 +5334,28 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="D20:K20"/>
+    <mergeCell ref="D21:K21"/>
+    <mergeCell ref="D22:K22"/>
+    <mergeCell ref="D25:K25"/>
+    <mergeCell ref="D26:K26"/>
+    <mergeCell ref="D27:K27"/>
+    <mergeCell ref="D30:K30"/>
+    <mergeCell ref="D31:K31"/>
+    <mergeCell ref="D32:K32"/>
+    <mergeCell ref="D49:K49"/>
+    <mergeCell ref="D50:K50"/>
+    <mergeCell ref="D51:K51"/>
+    <mergeCell ref="C54:K54"/>
+    <mergeCell ref="C55:K55"/>
+    <mergeCell ref="C56:K56"/>
+    <mergeCell ref="C59:K59"/>
+    <mergeCell ref="C60:K60"/>
+    <mergeCell ref="C61:K61"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="G64:H64"/>
+    <mergeCell ref="I64:K64"/>
     <mergeCell ref="C65:D65"/>
     <mergeCell ref="E65:F65"/>
     <mergeCell ref="G65:H65"/>
@@ -5338,28 +5364,6 @@
     <mergeCell ref="E66:F66"/>
     <mergeCell ref="G66:H66"/>
     <mergeCell ref="I66:K66"/>
-    <mergeCell ref="C59:K59"/>
-    <mergeCell ref="C60:K60"/>
-    <mergeCell ref="C61:K61"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="E64:F64"/>
-    <mergeCell ref="G64:H64"/>
-    <mergeCell ref="I64:K64"/>
-    <mergeCell ref="D50:K50"/>
-    <mergeCell ref="D51:K51"/>
-    <mergeCell ref="C54:K54"/>
-    <mergeCell ref="C55:K55"/>
-    <mergeCell ref="C56:K56"/>
-    <mergeCell ref="D27:K27"/>
-    <mergeCell ref="D30:K30"/>
-    <mergeCell ref="D31:K31"/>
-    <mergeCell ref="D32:K32"/>
-    <mergeCell ref="D49:K49"/>
-    <mergeCell ref="D20:K20"/>
-    <mergeCell ref="D21:K21"/>
-    <mergeCell ref="D22:K22"/>
-    <mergeCell ref="D25:K25"/>
-    <mergeCell ref="D26:K26"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
@@ -5391,41 +5395,41 @@
       </c>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="135" t="s">
+      <c r="A3" s="151" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="135" t="s">
+      <c r="B3" s="151" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="137" t="s">
+      <c r="C3" s="155" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="128"/>
-      <c r="E3" s="129"/>
-      <c r="F3" s="137" t="s">
+      <c r="D3" s="156"/>
+      <c r="E3" s="157"/>
+      <c r="F3" s="155" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="128"/>
-      <c r="H3" s="129"/>
-      <c r="I3" s="137" t="s">
+      <c r="G3" s="156"/>
+      <c r="H3" s="157"/>
+      <c r="I3" s="155" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="128"/>
-      <c r="K3" s="129"/>
-      <c r="L3" s="128" t="s">
+      <c r="J3" s="156"/>
+      <c r="K3" s="157"/>
+      <c r="L3" s="156" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="128"/>
-      <c r="N3" s="129"/>
-      <c r="O3" s="130" t="s">
+      <c r="M3" s="156"/>
+      <c r="N3" s="157"/>
+      <c r="O3" s="153" t="s">
         <v>14</v>
       </c>
-      <c r="P3" s="130"/>
-      <c r="Q3" s="130"/>
+      <c r="P3" s="153"/>
+      <c r="Q3" s="153"/>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="136"/>
-      <c r="B4" s="136"/>
+      <c r="A4" s="152"/>
+      <c r="B4" s="152"/>
       <c r="C4" s="5" t="s">
         <v>15</v>
       </c>
@@ -5473,7 +5477,7 @@
       </c>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="130" t="s">
+      <c r="A5" s="153" t="s">
         <v>18</v>
       </c>
       <c r="B5" s="5">
@@ -5523,7 +5527,7 @@
       </c>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="130"/>
+      <c r="A6" s="153"/>
       <c r="B6" s="5">
         <v>88</v>
       </c>
@@ -5571,7 +5575,7 @@
       </c>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="130"/>
+      <c r="A7" s="153"/>
       <c r="B7" s="5">
         <v>100</v>
       </c>
@@ -5619,7 +5623,7 @@
       </c>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="130"/>
+      <c r="A8" s="153"/>
       <c r="B8" s="5" t="s">
         <v>19</v>
       </c>
@@ -5676,7 +5680,7 @@
       </c>
     </row>
     <row r="9" spans="1:17" hidden="1">
-      <c r="A9" s="135" t="s">
+      <c r="A9" s="151" t="s">
         <v>20</v>
       </c>
       <c r="B9" s="5">
@@ -5723,7 +5727,7 @@
       <c r="Q9" s="40"/>
     </row>
     <row r="10" spans="1:17" hidden="1">
-      <c r="A10" s="136"/>
+      <c r="A10" s="152"/>
       <c r="B10" s="5" t="s">
         <v>19</v>
       </c>
@@ -5777,7 +5781,7 @@
       <c r="Q10" s="40"/>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="130" t="s">
+      <c r="A11" s="153" t="s">
         <v>21</v>
       </c>
       <c r="B11" s="5">
@@ -5830,7 +5834,7 @@
       </c>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="130"/>
+      <c r="A12" s="153"/>
       <c r="B12" s="5">
         <v>180</v>
       </c>
@@ -5881,7 +5885,7 @@
       </c>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="130"/>
+      <c r="A13" s="153"/>
       <c r="B13" s="5">
         <v>240</v>
       </c>
@@ -5932,7 +5936,7 @@
       </c>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="130"/>
+      <c r="A14" s="153"/>
       <c r="B14" s="5" t="s">
         <v>19</v>
       </c>
@@ -6037,7 +6041,7 @@
       <c r="L20" s="39"/>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="130" t="s">
+      <c r="A21" s="153" t="s">
         <v>18</v>
       </c>
       <c r="B21" s="5">
@@ -6068,7 +6072,7 @@
       <c r="L21" s="34"/>
     </row>
     <row r="22" spans="1:12">
-      <c r="A22" s="130"/>
+      <c r="A22" s="153"/>
       <c r="B22" s="5">
         <v>88</v>
       </c>
@@ -6097,7 +6101,7 @@
       <c r="L22" s="34"/>
     </row>
     <row r="23" spans="1:12">
-      <c r="A23" s="130"/>
+      <c r="A23" s="153"/>
       <c r="B23" s="5">
         <v>100</v>
       </c>
@@ -6126,7 +6130,7 @@
       <c r="L23" s="34"/>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24" s="130"/>
+      <c r="A24" s="153"/>
       <c r="B24" s="5" t="s">
         <v>19</v>
       </c>
@@ -6348,29 +6352,29 @@
         <v>123</v>
       </c>
       <c r="O15" s="9"/>
-      <c r="P15" s="130" t="s">
+      <c r="P15" s="153" t="s">
         <v>107</v>
       </c>
-      <c r="Q15" s="130" t="s">
+      <c r="Q15" s="153" t="s">
         <v>109</v>
       </c>
-      <c r="R15" s="130" t="s">
+      <c r="R15" s="153" t="s">
         <v>124</v>
       </c>
-      <c r="S15" s="130"/>
-      <c r="T15" s="130" t="s">
+      <c r="S15" s="153"/>
+      <c r="T15" s="153" t="s">
         <v>125</v>
       </c>
-      <c r="U15" s="130"/>
-      <c r="V15" s="130"/>
+      <c r="U15" s="153"/>
+      <c r="V15" s="153"/>
     </row>
     <row r="16" spans="1:22">
       <c r="A16" t="s">
         <v>126</v>
       </c>
       <c r="O16" s="9"/>
-      <c r="P16" s="145"/>
-      <c r="Q16" s="145"/>
+      <c r="P16" s="165"/>
+      <c r="Q16" s="165"/>
       <c r="R16" s="5" t="s">
         <v>113</v>
       </c>
@@ -6481,17 +6485,17 @@
       <c r="Q21" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="R21" s="130">
+      <c r="R21" s="153">
         <f>SUM(R17:S18)</f>
         <v>1500</v>
       </c>
-      <c r="S21" s="130"/>
-      <c r="T21" s="143">
+      <c r="S21" s="153"/>
+      <c r="T21" s="158">
         <f>SUM(T17:V20)</f>
         <v>1500</v>
       </c>
-      <c r="U21" s="128"/>
-      <c r="V21" s="129"/>
+      <c r="U21" s="156"/>
+      <c r="V21" s="157"/>
     </row>
     <row r="22" spans="1:22">
       <c r="A22" t="s">
@@ -6761,7 +6765,7 @@
   <dimension ref="B3:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -6962,30 +6966,30 @@
       <c r="A3" s="3"/>
     </row>
     <row r="4" spans="1:10" ht="18.75" customHeight="1">
-      <c r="A4" s="167" t="s">
+      <c r="A4" s="166" t="s">
         <v>159</v>
       </c>
-      <c r="B4" s="167" t="s">
+      <c r="B4" s="166" t="s">
         <v>125</v>
       </c>
-      <c r="C4" s="171" t="s">
+      <c r="C4" s="172" t="s">
         <v>124</v>
       </c>
-      <c r="D4" s="172"/>
-      <c r="E4" s="167" t="s">
+      <c r="D4" s="173"/>
+      <c r="E4" s="166" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A5" s="168"/>
-      <c r="B5" s="168"/>
+      <c r="A5" s="167"/>
+      <c r="B5" s="167"/>
       <c r="C5" s="100" t="s">
         <v>202</v>
       </c>
       <c r="D5" s="101" t="s">
         <v>203</v>
       </c>
-      <c r="E5" s="168"/>
+      <c r="E5" s="167"/>
       <c r="J5" s="50" t="s">
         <v>210</v>
       </c>
@@ -7132,10 +7136,10 @@
       <c r="B14" s="86">
         <v>50</v>
       </c>
-      <c r="C14" s="169" t="s">
+      <c r="C14" s="168" t="s">
         <v>208</v>
       </c>
-      <c r="D14" s="153"/>
+      <c r="D14" s="169"/>
       <c r="E14" s="82">
         <v>90</v>
       </c>
@@ -7149,69 +7153,69 @@
       <c r="A17" s="170" t="s">
         <v>214</v>
       </c>
-      <c r="B17" s="166"/>
-      <c r="C17" s="166" t="s">
+      <c r="B17" s="171"/>
+      <c r="C17" s="171" t="s">
         <v>215</v>
       </c>
-      <c r="D17" s="166"/>
-      <c r="E17" s="166"/>
-      <c r="F17" s="166"/>
-      <c r="G17" s="166"/>
-      <c r="H17" s="161" t="s">
+      <c r="D17" s="171"/>
+      <c r="E17" s="171"/>
+      <c r="F17" s="171"/>
+      <c r="G17" s="171"/>
+      <c r="H17" s="174" t="s">
         <v>216</v>
       </c>
-      <c r="I17" s="161"/>
-      <c r="J17" s="164" t="s">
+      <c r="I17" s="174"/>
+      <c r="J17" s="175" t="s">
         <v>217</v>
       </c>
-      <c r="K17" s="165"/>
+      <c r="K17" s="176"/>
     </row>
     <row r="18" spans="1:19" ht="25.5" customHeight="1">
-      <c r="A18" s="148" t="s">
+      <c r="A18" s="178" t="s">
         <v>288</v>
       </c>
-      <c r="B18" s="146"/>
-      <c r="C18" s="147" t="s">
+      <c r="B18" s="179"/>
+      <c r="C18" s="177" t="s">
         <v>287</v>
       </c>
-      <c r="D18" s="148"/>
-      <c r="E18" s="148"/>
-      <c r="F18" s="146"/>
-      <c r="G18" s="147" t="s">
+      <c r="D18" s="178"/>
+      <c r="E18" s="178"/>
+      <c r="F18" s="179"/>
+      <c r="G18" s="177" t="s">
         <v>222</v>
       </c>
-      <c r="H18" s="148"/>
-      <c r="I18" s="148"/>
-      <c r="J18" s="148"/>
-      <c r="K18" s="148"/>
+      <c r="H18" s="178"/>
+      <c r="I18" s="178"/>
+      <c r="J18" s="178"/>
+      <c r="K18" s="178"/>
       <c r="N18" s="54" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="19" spans="1:19" ht="21" customHeight="1">
-      <c r="A19" s="143" t="s">
+      <c r="A19" s="158" t="s">
         <v>76</v>
       </c>
-      <c r="B19" s="129"/>
-      <c r="C19" s="146" t="s">
+      <c r="B19" s="157"/>
+      <c r="C19" s="179" t="s">
         <v>226</v>
       </c>
-      <c r="D19" s="147"/>
+      <c r="D19" s="177"/>
       <c r="E19" s="52" t="s">
         <v>219</v>
       </c>
-      <c r="F19" s="146" t="s">
+      <c r="F19" s="179" t="s">
         <v>218</v>
       </c>
-      <c r="G19" s="129"/>
-      <c r="H19" s="146" t="s">
+      <c r="G19" s="157"/>
+      <c r="H19" s="179" t="s">
         <v>220</v>
       </c>
-      <c r="I19" s="129"/>
-      <c r="J19" s="146" t="s">
+      <c r="I19" s="157"/>
+      <c r="J19" s="179" t="s">
         <v>224</v>
       </c>
-      <c r="K19" s="129"/>
+      <c r="K19" s="157"/>
       <c r="N19" s="49" t="s">
         <v>146</v>
       </c>
@@ -7232,23 +7236,23 @@
       </c>
     </row>
     <row r="20" spans="1:19" ht="21" customHeight="1">
-      <c r="A20" s="146" t="s">
+      <c r="A20" s="179" t="s">
         <v>227</v>
       </c>
-      <c r="B20" s="129"/>
-      <c r="C20" s="146" t="s">
+      <c r="B20" s="157"/>
+      <c r="C20" s="179" t="s">
         <v>229</v>
       </c>
-      <c r="D20" s="129"/>
+      <c r="D20" s="157"/>
       <c r="E20" s="45"/>
-      <c r="F20" s="143"/>
-      <c r="G20" s="129"/>
-      <c r="H20" s="143"/>
-      <c r="I20" s="129"/>
-      <c r="J20" s="146" t="s">
+      <c r="F20" s="158"/>
+      <c r="G20" s="157"/>
+      <c r="H20" s="158"/>
+      <c r="I20" s="157"/>
+      <c r="J20" s="179" t="s">
         <v>225</v>
       </c>
-      <c r="K20" s="129"/>
+      <c r="K20" s="157"/>
       <c r="N20" s="49"/>
       <c r="O20" s="49"/>
       <c r="P20" s="49"/>
@@ -7259,23 +7263,23 @@
       <c r="S20" s="49"/>
     </row>
     <row r="21" spans="1:19" ht="21" customHeight="1">
-      <c r="A21" s="146" t="s">
+      <c r="A21" s="179" t="s">
         <v>227</v>
       </c>
-      <c r="B21" s="129"/>
-      <c r="C21" s="146" t="s">
+      <c r="B21" s="157"/>
+      <c r="C21" s="179" t="s">
         <v>230</v>
       </c>
-      <c r="D21" s="129"/>
+      <c r="D21" s="157"/>
       <c r="E21" s="45"/>
-      <c r="F21" s="143"/>
-      <c r="G21" s="129"/>
-      <c r="H21" s="143"/>
-      <c r="I21" s="129"/>
-      <c r="J21" s="146" t="s">
+      <c r="F21" s="158"/>
+      <c r="G21" s="157"/>
+      <c r="H21" s="158"/>
+      <c r="I21" s="157"/>
+      <c r="J21" s="179" t="s">
         <v>225</v>
       </c>
-      <c r="K21" s="129"/>
+      <c r="K21" s="157"/>
       <c r="N21" s="49"/>
       <c r="O21" s="49"/>
       <c r="P21" s="49"/>
@@ -7284,69 +7288,69 @@
       <c r="S21" s="49"/>
     </row>
     <row r="22" spans="1:19" ht="21" customHeight="1">
-      <c r="A22" s="146" t="s">
+      <c r="A22" s="179" t="s">
         <v>228</v>
       </c>
-      <c r="B22" s="129"/>
-      <c r="C22" s="146" t="s">
+      <c r="B22" s="157"/>
+      <c r="C22" s="179" t="s">
         <v>231</v>
       </c>
-      <c r="D22" s="129"/>
+      <c r="D22" s="157"/>
       <c r="E22" s="49"/>
-      <c r="F22" s="143"/>
-      <c r="G22" s="129"/>
-      <c r="H22" s="143"/>
-      <c r="I22" s="129"/>
-      <c r="J22" s="146" t="s">
+      <c r="F22" s="158"/>
+      <c r="G22" s="157"/>
+      <c r="H22" s="158"/>
+      <c r="I22" s="157"/>
+      <c r="J22" s="179" t="s">
         <v>225</v>
       </c>
-      <c r="K22" s="129"/>
+      <c r="K22" s="157"/>
     </row>
     <row r="23" spans="1:19" ht="21" customHeight="1">
-      <c r="A23" s="146" t="s">
+      <c r="A23" s="179" t="s">
         <v>228</v>
       </c>
-      <c r="B23" s="129"/>
-      <c r="C23" s="146" t="s">
+      <c r="B23" s="157"/>
+      <c r="C23" s="179" t="s">
         <v>232</v>
       </c>
-      <c r="D23" s="129"/>
+      <c r="D23" s="157"/>
       <c r="E23" s="49"/>
-      <c r="F23" s="143"/>
-      <c r="G23" s="129"/>
-      <c r="H23" s="143"/>
-      <c r="I23" s="129"/>
-      <c r="J23" s="146" t="s">
+      <c r="F23" s="158"/>
+      <c r="G23" s="157"/>
+      <c r="H23" s="158"/>
+      <c r="I23" s="157"/>
+      <c r="J23" s="179" t="s">
         <v>225</v>
       </c>
-      <c r="K23" s="129"/>
+      <c r="K23" s="157"/>
     </row>
     <row r="26" spans="1:19" ht="32.25" customHeight="1" thickBot="1">
-      <c r="A26" s="158" t="s">
+      <c r="A26" s="184" t="s">
         <v>214</v>
       </c>
-      <c r="B26" s="159"/>
-      <c r="C26" s="159" t="s">
+      <c r="B26" s="185"/>
+      <c r="C26" s="185" t="s">
         <v>215</v>
       </c>
-      <c r="D26" s="159"/>
-      <c r="E26" s="159"/>
-      <c r="F26" s="159"/>
-      <c r="G26" s="159"/>
-      <c r="H26" s="160" t="s">
+      <c r="D26" s="185"/>
+      <c r="E26" s="185"/>
+      <c r="F26" s="185"/>
+      <c r="G26" s="185"/>
+      <c r="H26" s="186" t="s">
         <v>216</v>
       </c>
-      <c r="I26" s="160"/>
-      <c r="J26" s="161" t="s">
+      <c r="I26" s="186"/>
+      <c r="J26" s="174" t="s">
         <v>217</v>
       </c>
-      <c r="K26" s="161"/>
+      <c r="K26" s="174"/>
     </row>
     <row r="27" spans="1:19" ht="25.5" customHeight="1">
-      <c r="A27" s="162" t="s">
+      <c r="A27" s="187" t="s">
         <v>233</v>
       </c>
-      <c r="B27" s="163"/>
+      <c r="B27" s="188"/>
       <c r="C27" s="60"/>
       <c r="D27" s="61"/>
       <c r="E27" s="62"/>
@@ -7364,86 +7368,61 @@
       <c r="B28" s="59" t="s">
         <v>89</v>
       </c>
-      <c r="C28" s="136" t="s">
+      <c r="C28" s="152" t="s">
         <v>90</v>
       </c>
-      <c r="D28" s="136"/>
-      <c r="E28" s="136" t="s">
+      <c r="D28" s="152"/>
+      <c r="E28" s="152" t="s">
         <v>91</v>
       </c>
-      <c r="F28" s="136"/>
-      <c r="G28" s="154" t="s">
+      <c r="F28" s="152"/>
+      <c r="G28" s="180" t="s">
         <v>92</v>
       </c>
-      <c r="H28" s="155"/>
-      <c r="I28" s="154" t="s">
+      <c r="H28" s="181"/>
+      <c r="I28" s="180" t="s">
         <v>93</v>
       </c>
-      <c r="J28" s="156"/>
-      <c r="K28" s="157"/>
+      <c r="J28" s="182"/>
+      <c r="K28" s="183"/>
     </row>
     <row r="29" spans="1:19" ht="21.75" customHeight="1">
       <c r="A29" s="26"/>
       <c r="B29" s="49"/>
-      <c r="C29" s="130"/>
-      <c r="D29" s="130"/>
-      <c r="E29" s="130"/>
-      <c r="F29" s="130"/>
-      <c r="G29" s="143"/>
-      <c r="H29" s="129"/>
-      <c r="I29" s="143"/>
-      <c r="J29" s="128"/>
-      <c r="K29" s="144"/>
+      <c r="C29" s="153"/>
+      <c r="D29" s="153"/>
+      <c r="E29" s="153"/>
+      <c r="F29" s="153"/>
+      <c r="G29" s="158"/>
+      <c r="H29" s="157"/>
+      <c r="I29" s="158"/>
+      <c r="J29" s="156"/>
+      <c r="K29" s="159"/>
     </row>
     <row r="30" spans="1:19" ht="21.75" customHeight="1" thickBot="1">
       <c r="A30" s="58"/>
       <c r="B30" s="57"/>
-      <c r="C30" s="149"/>
-      <c r="D30" s="149"/>
-      <c r="E30" s="149"/>
-      <c r="F30" s="149"/>
-      <c r="G30" s="150"/>
-      <c r="H30" s="151"/>
-      <c r="I30" s="150"/>
-      <c r="J30" s="152"/>
-      <c r="K30" s="153"/>
+      <c r="C30" s="189"/>
+      <c r="D30" s="189"/>
+      <c r="E30" s="189"/>
+      <c r="F30" s="189"/>
+      <c r="G30" s="190"/>
+      <c r="H30" s="191"/>
+      <c r="I30" s="190"/>
+      <c r="J30" s="192"/>
+      <c r="K30" s="169"/>
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="G18:K18"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="I29:K29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="J19:K19"/>
     <mergeCell ref="J20:K20"/>
@@ -7455,15 +7434,40 @@
     <mergeCell ref="F20:G20"/>
     <mergeCell ref="F22:G22"/>
     <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="G18:K18"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B4:B5"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7474,8 +7478,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T110"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24:B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7510,11 +7514,11 @@
       <c r="A5" s="45" t="s">
         <v>146</v>
       </c>
-      <c r="B5" s="143" t="s">
+      <c r="B5" s="158" t="s">
         <v>147</v>
       </c>
-      <c r="C5" s="128"/>
-      <c r="D5" s="129"/>
+      <c r="C5" s="156"/>
+      <c r="D5" s="157"/>
       <c r="E5" s="52" t="s">
         <v>242</v>
       </c>
@@ -7533,11 +7537,11 @@
       <c r="A6" s="66">
         <v>43136.354166666664</v>
       </c>
-      <c r="B6" s="203" t="s">
+      <c r="B6" s="199" t="s">
         <v>235</v>
       </c>
-      <c r="C6" s="204"/>
-      <c r="D6" s="205"/>
+      <c r="C6" s="200"/>
+      <c r="D6" s="201"/>
       <c r="E6" s="45">
         <v>400</v>
       </c>
@@ -7557,11 +7561,11 @@
       <c r="A7" s="66">
         <v>43137.354166608799</v>
       </c>
-      <c r="B7" s="203" t="s">
+      <c r="B7" s="199" t="s">
         <v>289</v>
       </c>
-      <c r="C7" s="204"/>
-      <c r="D7" s="205"/>
+      <c r="C7" s="200"/>
+      <c r="D7" s="201"/>
       <c r="E7" s="125">
         <v>400</v>
       </c>
@@ -7581,11 +7585,11 @@
       <c r="A8" s="66">
         <v>43138.354166608799</v>
       </c>
-      <c r="B8" s="203" t="s">
+      <c r="B8" s="199" t="s">
         <v>290</v>
       </c>
-      <c r="C8" s="204"/>
-      <c r="D8" s="205"/>
+      <c r="C8" s="200"/>
+      <c r="D8" s="201"/>
       <c r="E8" s="125">
         <v>400</v>
       </c>
@@ -7610,75 +7614,75 @@
       <c r="A10" s="3"/>
     </row>
     <row r="11" spans="1:9" ht="27.75" customHeight="1">
-      <c r="A11" s="201" t="s">
+      <c r="A11" s="195" t="s">
         <v>159</v>
       </c>
-      <c r="B11" s="227" t="s">
+      <c r="B11" s="206" t="s">
         <v>125</v>
       </c>
-      <c r="C11" s="228"/>
-      <c r="D11" s="229"/>
-      <c r="E11" s="216" t="s">
+      <c r="C11" s="207"/>
+      <c r="D11" s="208"/>
+      <c r="E11" s="202" t="s">
         <v>220</v>
       </c>
-      <c r="F11" s="217"/>
-      <c r="G11" s="218" t="s">
+      <c r="F11" s="203"/>
+      <c r="G11" s="204" t="s">
         <v>242</v>
       </c>
-      <c r="H11" s="243" t="s">
+      <c r="H11" s="193" t="s">
         <v>239</v>
       </c>
-      <c r="I11" s="211" t="s">
+      <c r="I11" s="197" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="27.75" customHeight="1">
-      <c r="A12" s="202"/>
-      <c r="B12" s="230" t="s">
+      <c r="A12" s="196"/>
+      <c r="B12" s="133" t="s">
         <v>331</v>
       </c>
-      <c r="C12" s="231" t="s">
+      <c r="C12" s="134" t="s">
         <v>332</v>
       </c>
-      <c r="D12" s="232" t="s">
+      <c r="D12" s="135" t="s">
         <v>333</v>
       </c>
-      <c r="E12" s="219" t="s">
+      <c r="E12" s="128" t="s">
         <v>202</v>
       </c>
-      <c r="F12" s="248" t="s">
+      <c r="F12" s="145" t="s">
         <v>236</v>
       </c>
-      <c r="G12" s="220"/>
-      <c r="H12" s="244"/>
-      <c r="I12" s="239"/>
+      <c r="G12" s="205"/>
+      <c r="H12" s="194"/>
+      <c r="I12" s="198"/>
     </row>
     <row r="13" spans="1:9" ht="27.75" customHeight="1">
       <c r="A13" s="75">
         <v>43101</v>
       </c>
-      <c r="B13" s="230">
+      <c r="B13" s="133">
         <v>10</v>
       </c>
-      <c r="C13" s="231">
+      <c r="C13" s="134">
         <v>200</v>
       </c>
-      <c r="D13" s="232">
+      <c r="D13" s="135">
         <v>200</v>
       </c>
-      <c r="E13" s="219">
+      <c r="E13" s="128">
         <v>200</v>
       </c>
-      <c r="F13" s="249">
+      <c r="F13" s="146">
         <v>200</v>
       </c>
-      <c r="G13" s="221">
+      <c r="G13" s="129">
         <v>30</v>
       </c>
-      <c r="H13" s="245">
+      <c r="H13" s="142">
         <v>30</v>
       </c>
-      <c r="I13" s="240">
+      <c r="I13" s="139">
         <v>40</v>
       </c>
     </row>
@@ -7686,28 +7690,28 @@
       <c r="A14" s="75">
         <v>43102</v>
       </c>
-      <c r="B14" s="230">
+      <c r="B14" s="133">
         <v>10</v>
       </c>
-      <c r="C14" s="231">
+      <c r="C14" s="134">
         <v>200</v>
       </c>
-      <c r="D14" s="232">
+      <c r="D14" s="135">
         <v>200</v>
       </c>
-      <c r="E14" s="219">
+      <c r="E14" s="128">
         <v>200</v>
       </c>
-      <c r="F14" s="249">
+      <c r="F14" s="146">
         <v>200</v>
       </c>
-      <c r="G14" s="221">
+      <c r="G14" s="129">
         <v>30</v>
       </c>
-      <c r="H14" s="245">
+      <c r="H14" s="142">
         <v>30</v>
       </c>
-      <c r="I14" s="240">
+      <c r="I14" s="139">
         <v>50</v>
       </c>
     </row>
@@ -7715,28 +7719,28 @@
       <c r="A15" s="75">
         <v>43103</v>
       </c>
-      <c r="B15" s="230">
+      <c r="B15" s="133">
         <v>10</v>
       </c>
-      <c r="C15" s="231">
+      <c r="C15" s="134">
         <v>200</v>
       </c>
-      <c r="D15" s="232">
+      <c r="D15" s="135">
         <v>200</v>
       </c>
-      <c r="E15" s="219">
+      <c r="E15" s="128">
         <v>200</v>
       </c>
-      <c r="F15" s="249">
+      <c r="F15" s="146">
         <v>200</v>
       </c>
-      <c r="G15" s="221">
+      <c r="G15" s="129">
         <v>30</v>
       </c>
-      <c r="H15" s="245">
+      <c r="H15" s="142">
         <v>30</v>
       </c>
-      <c r="I15" s="240">
+      <c r="I15" s="139">
         <v>60</v>
       </c>
     </row>
@@ -7744,28 +7748,28 @@
       <c r="A16" s="75">
         <v>43104</v>
       </c>
-      <c r="B16" s="230">
+      <c r="B16" s="133">
         <v>10</v>
       </c>
-      <c r="C16" s="231">
+      <c r="C16" s="134">
         <v>200</v>
       </c>
-      <c r="D16" s="232">
+      <c r="D16" s="135">
         <v>200</v>
       </c>
-      <c r="E16" s="219">
+      <c r="E16" s="128">
         <v>200</v>
       </c>
-      <c r="F16" s="249">
+      <c r="F16" s="146">
         <v>200</v>
       </c>
-      <c r="G16" s="221">
+      <c r="G16" s="129">
         <v>30</v>
       </c>
-      <c r="H16" s="245">
+      <c r="H16" s="142">
         <v>30</v>
       </c>
-      <c r="I16" s="240">
+      <c r="I16" s="139">
         <v>70</v>
       </c>
     </row>
@@ -7773,28 +7777,28 @@
       <c r="A17" s="76" t="s">
         <v>160</v>
       </c>
-      <c r="B17" s="233" t="s">
+      <c r="B17" s="136" t="s">
         <v>160</v>
       </c>
-      <c r="C17" s="234" t="s">
+      <c r="C17" s="137" t="s">
         <v>160</v>
       </c>
-      <c r="D17" s="235" t="s">
+      <c r="D17" s="138" t="s">
         <v>160</v>
       </c>
-      <c r="E17" s="222" t="s">
+      <c r="E17" s="130" t="s">
         <v>160</v>
       </c>
-      <c r="F17" s="250" t="s">
+      <c r="F17" s="147" t="s">
         <v>160</v>
       </c>
-      <c r="G17" s="223" t="s">
+      <c r="G17" s="131" t="s">
         <v>160</v>
       </c>
-      <c r="H17" s="246" t="s">
+      <c r="H17" s="143" t="s">
         <v>160</v>
       </c>
-      <c r="I17" s="241" t="s">
+      <c r="I17" s="140" t="s">
         <v>160</v>
       </c>
     </row>
@@ -7802,28 +7806,28 @@
       <c r="A18" s="76">
         <v>43131</v>
       </c>
-      <c r="B18" s="230">
+      <c r="B18" s="133">
         <v>10</v>
       </c>
-      <c r="C18" s="231">
+      <c r="C18" s="134">
         <v>200</v>
       </c>
-      <c r="D18" s="232">
+      <c r="D18" s="135">
         <v>200</v>
       </c>
-      <c r="E18" s="219">
+      <c r="E18" s="128">
         <v>200</v>
       </c>
-      <c r="F18" s="249">
+      <c r="F18" s="146">
         <v>200</v>
       </c>
-      <c r="G18" s="221">
+      <c r="G18" s="129">
         <v>30</v>
       </c>
-      <c r="H18" s="245">
+      <c r="H18" s="142">
         <v>30</v>
       </c>
-      <c r="I18" s="240">
+      <c r="I18" s="139">
         <v>90</v>
       </c>
     </row>
@@ -7831,28 +7835,28 @@
       <c r="A19" s="77" t="s">
         <v>207</v>
       </c>
-      <c r="B19" s="230">
+      <c r="B19" s="133">
         <v>50</v>
       </c>
-      <c r="C19" s="231">
+      <c r="C19" s="134">
         <v>1000</v>
       </c>
-      <c r="D19" s="232">
+      <c r="D19" s="135">
         <v>200</v>
       </c>
-      <c r="E19" s="219">
+      <c r="E19" s="128">
         <v>200</v>
       </c>
-      <c r="F19" s="249">
+      <c r="F19" s="146">
         <v>1000</v>
       </c>
-      <c r="G19" s="221">
+      <c r="G19" s="129">
         <v>150</v>
       </c>
-      <c r="H19" s="245">
+      <c r="H19" s="142">
         <v>150</v>
       </c>
-      <c r="I19" s="240">
+      <c r="I19" s="139">
         <v>90</v>
       </c>
     </row>
@@ -7860,106 +7864,106 @@
       <c r="A20" s="78" t="s">
         <v>132</v>
       </c>
-      <c r="B20" s="236" t="s">
+      <c r="B20" s="209" t="s">
         <v>330</v>
       </c>
-      <c r="C20" s="237"/>
-      <c r="D20" s="238"/>
-      <c r="E20" s="224" t="s">
+      <c r="C20" s="210"/>
+      <c r="D20" s="211"/>
+      <c r="E20" s="212" t="s">
         <v>329</v>
       </c>
-      <c r="F20" s="225"/>
-      <c r="G20" s="226">
+      <c r="F20" s="213"/>
+      <c r="G20" s="132">
         <v>2888</v>
       </c>
-      <c r="H20" s="247">
+      <c r="H20" s="144">
         <v>2888</v>
       </c>
-      <c r="I20" s="242">
+      <c r="I20" s="141">
         <v>90</v>
       </c>
     </row>
     <row r="22" spans="1:20" ht="30" customHeight="1"/>
     <row r="23" spans="1:20" ht="44.25" customHeight="1">
       <c r="A23" s="3" t="s">
-        <v>161</v>
+        <v>334</v>
       </c>
     </row>
     <row r="24" spans="1:20" ht="25.5" customHeight="1">
       <c r="A24" s="170" t="s">
         <v>214</v>
       </c>
-      <c r="B24" s="166"/>
-      <c r="C24" s="166" t="s">
+      <c r="B24" s="171"/>
+      <c r="C24" s="171" t="s">
         <v>245</v>
       </c>
-      <c r="D24" s="166"/>
-      <c r="E24" s="166"/>
-      <c r="F24" s="166"/>
-      <c r="G24" s="166"/>
+      <c r="D24" s="171"/>
+      <c r="E24" s="171"/>
+      <c r="F24" s="171"/>
+      <c r="G24" s="171"/>
       <c r="H24" s="110"/>
-      <c r="I24" s="183" t="s">
+      <c r="I24" s="214" t="s">
         <v>216</v>
       </c>
-      <c r="J24" s="183"/>
-      <c r="K24" s="164" t="s">
+      <c r="J24" s="214"/>
+      <c r="K24" s="175" t="s">
         <v>244</v>
       </c>
-      <c r="L24" s="165"/>
+      <c r="L24" s="176"/>
     </row>
     <row r="25" spans="1:20" ht="29.25" customHeight="1">
-      <c r="A25" s="148" t="s">
+      <c r="A25" s="178" t="s">
         <v>223</v>
       </c>
-      <c r="B25" s="146"/>
-      <c r="C25" s="147" t="s">
+      <c r="B25" s="179"/>
+      <c r="C25" s="177" t="s">
         <v>221</v>
       </c>
-      <c r="D25" s="148"/>
-      <c r="E25" s="148"/>
-      <c r="F25" s="146"/>
-      <c r="G25" s="147" t="s">
+      <c r="D25" s="178"/>
+      <c r="E25" s="178"/>
+      <c r="F25" s="179"/>
+      <c r="G25" s="177" t="s">
         <v>222</v>
       </c>
-      <c r="H25" s="147"/>
-      <c r="I25" s="148"/>
-      <c r="J25" s="148"/>
-      <c r="K25" s="148"/>
-      <c r="L25" s="148"/>
-      <c r="O25" s="177" t="s">
+      <c r="H25" s="177"/>
+      <c r="I25" s="178"/>
+      <c r="J25" s="178"/>
+      <c r="K25" s="178"/>
+      <c r="L25" s="178"/>
+      <c r="O25" s="230" t="s">
         <v>204</v>
       </c>
-      <c r="P25" s="177"/>
-      <c r="Q25" s="177"/>
-      <c r="R25" s="177"/>
-      <c r="S25" s="177"/>
-      <c r="T25" s="177"/>
+      <c r="P25" s="230"/>
+      <c r="Q25" s="230"/>
+      <c r="R25" s="230"/>
+      <c r="S25" s="230"/>
+      <c r="T25" s="230"/>
     </row>
     <row r="26" spans="1:20" ht="29.25" customHeight="1">
-      <c r="A26" s="194" t="s">
+      <c r="A26" s="215" t="s">
         <v>76</v>
       </c>
-      <c r="B26" s="195"/>
-      <c r="C26" s="196" t="s">
+      <c r="B26" s="216"/>
+      <c r="C26" s="217" t="s">
         <v>226</v>
       </c>
-      <c r="D26" s="197"/>
-      <c r="E26" s="181" t="s">
+      <c r="D26" s="218"/>
+      <c r="E26" s="234" t="s">
         <v>219</v>
       </c>
-      <c r="F26" s="179"/>
-      <c r="G26" s="179" t="s">
+      <c r="F26" s="232"/>
+      <c r="G26" s="232" t="s">
         <v>218</v>
       </c>
-      <c r="H26" s="180"/>
-      <c r="I26" s="196" t="s">
+      <c r="H26" s="233"/>
+      <c r="I26" s="217" t="s">
         <v>220</v>
       </c>
-      <c r="J26" s="195"/>
-      <c r="K26" s="196" t="s">
+      <c r="J26" s="216"/>
+      <c r="K26" s="217" t="s">
         <v>224</v>
       </c>
-      <c r="L26" s="195"/>
+      <c r="L26" s="216"/>
       <c r="O26" s="59" t="s">
         <v>146</v>
       </c>
@@ -7980,26 +7984,26 @@
       </c>
     </row>
     <row r="27" spans="1:20" ht="29.25" customHeight="1">
-      <c r="A27" s="146" t="s">
+      <c r="A27" s="179" t="s">
         <v>227</v>
       </c>
-      <c r="B27" s="129"/>
-      <c r="C27" s="146" t="s">
+      <c r="B27" s="157"/>
+      <c r="C27" s="179" t="s">
         <v>229</v>
       </c>
-      <c r="D27" s="128"/>
-      <c r="E27" s="182"/>
-      <c r="F27" s="182"/>
-      <c r="G27" s="182"/>
-      <c r="H27" s="182"/>
-      <c r="I27" s="190" t="s">
+      <c r="D27" s="156"/>
+      <c r="E27" s="223"/>
+      <c r="F27" s="223"/>
+      <c r="G27" s="223"/>
+      <c r="H27" s="223"/>
+      <c r="I27" s="219" t="s">
         <v>243</v>
       </c>
-      <c r="J27" s="191"/>
-      <c r="K27" s="146" t="s">
+      <c r="J27" s="220"/>
+      <c r="K27" s="179" t="s">
         <v>225</v>
       </c>
-      <c r="L27" s="129"/>
+      <c r="L27" s="157"/>
       <c r="O27" s="49"/>
       <c r="P27" s="49"/>
       <c r="Q27" s="49"/>
@@ -8010,26 +8014,26 @@
       <c r="T27" s="49"/>
     </row>
     <row r="28" spans="1:20" ht="29.25" customHeight="1">
-      <c r="A28" s="146" t="s">
+      <c r="A28" s="179" t="s">
         <v>227</v>
       </c>
-      <c r="B28" s="129"/>
-      <c r="C28" s="146" t="s">
+      <c r="B28" s="157"/>
+      <c r="C28" s="179" t="s">
         <v>230</v>
       </c>
-      <c r="D28" s="128"/>
-      <c r="E28" s="182"/>
-      <c r="F28" s="182"/>
-      <c r="G28" s="182"/>
-      <c r="H28" s="182"/>
-      <c r="I28" s="192" t="s">
+      <c r="D28" s="156"/>
+      <c r="E28" s="223"/>
+      <c r="F28" s="223"/>
+      <c r="G28" s="223"/>
+      <c r="H28" s="223"/>
+      <c r="I28" s="221" t="s">
         <v>272</v>
       </c>
-      <c r="J28" s="193"/>
-      <c r="K28" s="146" t="s">
+      <c r="J28" s="222"/>
+      <c r="K28" s="179" t="s">
         <v>225</v>
       </c>
-      <c r="L28" s="129"/>
+      <c r="L28" s="157"/>
       <c r="O28" s="49"/>
       <c r="P28" s="49"/>
       <c r="Q28" s="49"/>
@@ -8038,87 +8042,87 @@
       <c r="T28" s="49"/>
     </row>
     <row r="29" spans="1:20" ht="29.25" customHeight="1">
-      <c r="A29" s="146" t="s">
+      <c r="A29" s="179" t="s">
         <v>228</v>
       </c>
-      <c r="B29" s="129"/>
-      <c r="C29" s="146" t="s">
+      <c r="B29" s="157"/>
+      <c r="C29" s="179" t="s">
         <v>231</v>
       </c>
-      <c r="D29" s="128"/>
-      <c r="E29" s="182"/>
-      <c r="F29" s="182"/>
-      <c r="G29" s="182"/>
-      <c r="H29" s="182"/>
-      <c r="I29" s="128"/>
-      <c r="J29" s="129"/>
-      <c r="K29" s="146" t="s">
+      <c r="D29" s="156"/>
+      <c r="E29" s="223"/>
+      <c r="F29" s="223"/>
+      <c r="G29" s="223"/>
+      <c r="H29" s="223"/>
+      <c r="I29" s="156"/>
+      <c r="J29" s="157"/>
+      <c r="K29" s="179" t="s">
         <v>225</v>
       </c>
-      <c r="L29" s="129"/>
+      <c r="L29" s="157"/>
     </row>
     <row r="30" spans="1:20" ht="29.25" customHeight="1">
-      <c r="A30" s="146" t="s">
+      <c r="A30" s="179" t="s">
         <v>228</v>
       </c>
-      <c r="B30" s="129"/>
-      <c r="C30" s="146" t="s">
+      <c r="B30" s="157"/>
+      <c r="C30" s="179" t="s">
         <v>232</v>
       </c>
-      <c r="D30" s="128"/>
-      <c r="E30" s="182"/>
-      <c r="F30" s="182"/>
-      <c r="G30" s="182"/>
-      <c r="H30" s="182"/>
-      <c r="I30" s="128"/>
-      <c r="J30" s="129"/>
-      <c r="K30" s="146" t="s">
+      <c r="D30" s="156"/>
+      <c r="E30" s="223"/>
+      <c r="F30" s="223"/>
+      <c r="G30" s="223"/>
+      <c r="H30" s="223"/>
+      <c r="I30" s="156"/>
+      <c r="J30" s="157"/>
+      <c r="K30" s="179" t="s">
         <v>225</v>
       </c>
-      <c r="L30" s="129"/>
+      <c r="L30" s="157"/>
     </row>
     <row r="31" spans="1:20" ht="29.25" customHeight="1"/>
     <row r="32" spans="1:20" ht="29.25" customHeight="1">
       <c r="A32" s="170" t="s">
         <v>214</v>
       </c>
-      <c r="B32" s="166"/>
-      <c r="C32" s="166" t="s">
+      <c r="B32" s="171"/>
+      <c r="C32" s="171" t="s">
         <v>245</v>
       </c>
-      <c r="D32" s="166"/>
-      <c r="E32" s="166"/>
-      <c r="F32" s="166"/>
-      <c r="G32" s="166"/>
+      <c r="D32" s="171"/>
+      <c r="E32" s="171"/>
+      <c r="F32" s="171"/>
+      <c r="G32" s="171"/>
       <c r="H32" s="110"/>
-      <c r="I32" s="164" t="s">
+      <c r="I32" s="175" t="s">
         <v>216</v>
       </c>
-      <c r="J32" s="164"/>
-      <c r="K32" s="183" t="s">
+      <c r="J32" s="175"/>
+      <c r="K32" s="214" t="s">
         <v>244</v>
       </c>
-      <c r="L32" s="183"/>
+      <c r="L32" s="214"/>
     </row>
     <row r="33" spans="1:12" ht="29.25" customHeight="1">
-      <c r="A33" s="148" t="s">
+      <c r="A33" s="178" t="s">
         <v>246</v>
       </c>
-      <c r="B33" s="146"/>
-      <c r="C33" s="178"/>
-      <c r="D33" s="178"/>
-      <c r="E33" s="178" t="s">
+      <c r="B33" s="179"/>
+      <c r="C33" s="231"/>
+      <c r="D33" s="231"/>
+      <c r="E33" s="231" t="s">
         <v>270</v>
       </c>
-      <c r="F33" s="178"/>
-      <c r="G33" s="178"/>
+      <c r="F33" s="231"/>
+      <c r="G33" s="231"/>
       <c r="H33" s="67"/>
-      <c r="I33" s="178" t="s">
+      <c r="I33" s="231" t="s">
         <v>266</v>
       </c>
-      <c r="J33" s="178"/>
-      <c r="K33" s="178"/>
-      <c r="L33" s="147"/>
+      <c r="J33" s="231"/>
+      <c r="K33" s="231"/>
+      <c r="L33" s="177"/>
     </row>
     <row r="34" spans="1:12" ht="29.25" customHeight="1">
       <c r="A34" s="87" t="s">
@@ -8127,52 +8131,52 @@
       <c r="B34" s="89" t="s">
         <v>248</v>
       </c>
-      <c r="C34" s="184" t="s">
+      <c r="C34" s="224" t="s">
         <v>249</v>
       </c>
-      <c r="D34" s="185"/>
-      <c r="E34" s="184" t="s">
+      <c r="D34" s="225"/>
+      <c r="E34" s="224" t="s">
         <v>250</v>
       </c>
-      <c r="F34" s="185"/>
-      <c r="G34" s="186" t="s">
+      <c r="F34" s="225"/>
+      <c r="G34" s="226" t="s">
         <v>236</v>
       </c>
-      <c r="H34" s="187"/>
-      <c r="I34" s="188"/>
-      <c r="J34" s="186" t="s">
+      <c r="H34" s="227"/>
+      <c r="I34" s="228"/>
+      <c r="J34" s="226" t="s">
         <v>224</v>
       </c>
-      <c r="K34" s="189"/>
-      <c r="L34" s="188"/>
+      <c r="K34" s="229"/>
+      <c r="L34" s="228"/>
     </row>
     <row r="35" spans="1:12" ht="29.25" customHeight="1">
       <c r="A35" s="49"/>
       <c r="B35" s="49"/>
-      <c r="C35" s="130"/>
-      <c r="D35" s="130"/>
-      <c r="E35" s="130"/>
-      <c r="F35" s="130"/>
-      <c r="G35" s="143"/>
-      <c r="H35" s="128"/>
-      <c r="I35" s="129"/>
-      <c r="J35" s="143"/>
-      <c r="K35" s="128"/>
-      <c r="L35" s="129"/>
+      <c r="C35" s="153"/>
+      <c r="D35" s="153"/>
+      <c r="E35" s="153"/>
+      <c r="F35" s="153"/>
+      <c r="G35" s="158"/>
+      <c r="H35" s="156"/>
+      <c r="I35" s="157"/>
+      <c r="J35" s="158"/>
+      <c r="K35" s="156"/>
+      <c r="L35" s="157"/>
     </row>
     <row r="36" spans="1:12" ht="29.25" customHeight="1">
       <c r="A36" s="49"/>
       <c r="B36" s="49"/>
-      <c r="C36" s="130"/>
-      <c r="D36" s="130"/>
-      <c r="E36" s="130"/>
-      <c r="F36" s="130"/>
-      <c r="G36" s="143"/>
-      <c r="H36" s="128"/>
-      <c r="I36" s="129"/>
-      <c r="J36" s="143"/>
-      <c r="K36" s="128"/>
-      <c r="L36" s="129"/>
+      <c r="C36" s="153"/>
+      <c r="D36" s="153"/>
+      <c r="E36" s="153"/>
+      <c r="F36" s="153"/>
+      <c r="G36" s="158"/>
+      <c r="H36" s="156"/>
+      <c r="I36" s="157"/>
+      <c r="J36" s="158"/>
+      <c r="K36" s="156"/>
+      <c r="L36" s="157"/>
     </row>
     <row r="38" spans="1:12" ht="47.25" customHeight="1"/>
     <row r="39" spans="1:12" ht="45" customHeight="1">
@@ -8193,10 +8197,10 @@
       <c r="D40" s="116" t="s">
         <v>282</v>
       </c>
-      <c r="E40" s="175" t="s">
+      <c r="E40" s="237" t="s">
         <v>283</v>
       </c>
-      <c r="F40" s="176"/>
+      <c r="F40" s="238"/>
       <c r="G40" s="34"/>
       <c r="H40" s="34"/>
       <c r="I40" s="11"/>
@@ -8466,7 +8470,7 @@
       </c>
     </row>
     <row r="91" spans="1:8">
-      <c r="B91" s="130" t="s">
+      <c r="B91" s="153" t="s">
         <v>190</v>
       </c>
       <c r="C91" s="49" t="s">
@@ -8476,14 +8480,14 @@
       <c r="E91" s="104" t="s">
         <v>191</v>
       </c>
-      <c r="F91" s="173" t="s">
+      <c r="F91" s="235" t="s">
         <v>260</v>
       </c>
-      <c r="G91" s="174"/>
+      <c r="G91" s="236"/>
       <c r="H91" s="112"/>
     </row>
     <row r="92" spans="1:8">
-      <c r="B92" s="130"/>
+      <c r="B92" s="153"/>
       <c r="C92" s="49" t="s">
         <v>127</v>
       </c>
@@ -8491,12 +8495,12 @@
       <c r="E92" s="104" t="s">
         <v>191</v>
       </c>
-      <c r="F92" s="174"/>
-      <c r="G92" s="174"/>
+      <c r="F92" s="236"/>
+      <c r="G92" s="236"/>
       <c r="H92" s="112"/>
     </row>
     <row r="93" spans="1:8">
-      <c r="B93" s="130" t="s">
+      <c r="B93" s="153" t="s">
         <v>192</v>
       </c>
       <c r="C93" s="49" t="s">
@@ -8506,12 +8510,12 @@
       <c r="E93" s="104" t="s">
         <v>191</v>
       </c>
-      <c r="F93" s="174"/>
-      <c r="G93" s="174"/>
+      <c r="F93" s="236"/>
+      <c r="G93" s="236"/>
       <c r="H93" s="112"/>
     </row>
     <row r="94" spans="1:8">
-      <c r="B94" s="130"/>
+      <c r="B94" s="153"/>
       <c r="C94" s="49" t="s">
         <v>16</v>
       </c>
@@ -8519,12 +8523,12 @@
       <c r="E94" s="104" t="s">
         <v>191</v>
       </c>
-      <c r="F94" s="174"/>
-      <c r="G94" s="174"/>
+      <c r="F94" s="236"/>
+      <c r="G94" s="236"/>
       <c r="H94" s="112"/>
     </row>
     <row r="95" spans="1:8">
-      <c r="B95" s="130"/>
+      <c r="B95" s="153"/>
       <c r="C95" s="49" t="s">
         <v>115</v>
       </c>
@@ -8532,12 +8536,12 @@
       <c r="E95" s="104" t="s">
         <v>191</v>
       </c>
-      <c r="F95" s="174"/>
-      <c r="G95" s="174"/>
+      <c r="F95" s="236"/>
+      <c r="G95" s="236"/>
       <c r="H95" s="112"/>
     </row>
     <row r="96" spans="1:8">
-      <c r="B96" s="130"/>
+      <c r="B96" s="153"/>
       <c r="C96" s="51" t="s">
         <v>261</v>
       </c>
@@ -8623,57 +8627,13 @@
     </row>
   </sheetData>
   <mergeCells count="74">
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="G25:L25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="J36:L36"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="J34:L34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="J35:L35"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="F91:G95"/>
+    <mergeCell ref="B93:B96"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="E40:F40"/>
     <mergeCell ref="O25:T25"/>
     <mergeCell ref="A33:B33"/>
     <mergeCell ref="C33:D33"/>
@@ -8690,13 +8650,57 @@
     <mergeCell ref="G27:H27"/>
     <mergeCell ref="G28:H28"/>
     <mergeCell ref="G29:H29"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="F91:G95"/>
-    <mergeCell ref="B93:B96"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="J36:L36"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="J34:L34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="J35:L35"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="G25:L25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8742,43 +8746,43 @@
       <c r="A5" s="45" t="s">
         <v>146</v>
       </c>
-      <c r="B5" s="143" t="s">
+      <c r="B5" s="158" t="s">
         <v>147</v>
       </c>
-      <c r="C5" s="128"/>
-      <c r="D5" s="129"/>
+      <c r="C5" s="156"/>
+      <c r="D5" s="157"/>
       <c r="E5" s="52" t="s">
         <v>242</v>
       </c>
       <c r="F5" s="45" t="s">
         <v>117</v>
       </c>
-      <c r="G5" s="146" t="s">
+      <c r="G5" s="179" t="s">
         <v>205</v>
       </c>
-      <c r="H5" s="178"/>
-      <c r="I5" s="147"/>
+      <c r="H5" s="231"/>
+      <c r="I5" s="177"/>
     </row>
     <row r="6" spans="1:16" ht="78.75" customHeight="1">
       <c r="A6" s="66">
         <v>43136.354166666664</v>
       </c>
-      <c r="B6" s="203" t="s">
+      <c r="B6" s="199" t="s">
         <v>235</v>
       </c>
-      <c r="C6" s="204"/>
-      <c r="D6" s="205"/>
+      <c r="C6" s="200"/>
+      <c r="D6" s="201"/>
       <c r="E6" s="45">
         <v>400</v>
       </c>
       <c r="F6" s="45">
         <v>200</v>
       </c>
-      <c r="G6" s="143">
+      <c r="G6" s="158">
         <v>200</v>
       </c>
-      <c r="H6" s="128"/>
-      <c r="I6" s="129"/>
+      <c r="H6" s="156"/>
+      <c r="I6" s="157"/>
     </row>
     <row r="8" spans="1:16" ht="30" customHeight="1"/>
     <row r="9" spans="1:16" ht="37.5" customHeight="1">
@@ -8790,30 +8794,30 @@
       <c r="A10" s="3"/>
     </row>
     <row r="11" spans="1:16" ht="27.75" customHeight="1">
-      <c r="A11" s="201" t="s">
+      <c r="A11" s="195" t="s">
         <v>159</v>
       </c>
-      <c r="B11" s="206" t="s">
+      <c r="B11" s="239" t="s">
         <v>125</v>
       </c>
-      <c r="C11" s="208"/>
-      <c r="D11" s="207"/>
-      <c r="E11" s="206" t="s">
+      <c r="C11" s="240"/>
+      <c r="D11" s="241"/>
+      <c r="E11" s="239" t="s">
         <v>220</v>
       </c>
-      <c r="F11" s="207"/>
-      <c r="G11" s="201" t="s">
+      <c r="F11" s="241"/>
+      <c r="G11" s="195" t="s">
         <v>242</v>
       </c>
-      <c r="H11" s="201" t="s">
+      <c r="H11" s="195" t="s">
         <v>239</v>
       </c>
-      <c r="I11" s="211" t="s">
+      <c r="I11" s="197" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="27.75" customHeight="1">
-      <c r="A12" s="202"/>
+      <c r="A12" s="196"/>
       <c r="B12" s="79" t="s">
         <v>264</v>
       </c>
@@ -8829,9 +8833,9 @@
       <c r="F12" s="80" t="s">
         <v>236</v>
       </c>
-      <c r="G12" s="202"/>
-      <c r="H12" s="202"/>
-      <c r="I12" s="212"/>
+      <c r="G12" s="196"/>
+      <c r="H12" s="196"/>
+      <c r="I12" s="249"/>
       <c r="J12" s="124" t="s">
         <v>286</v>
       </c>
@@ -9072,15 +9076,15 @@
       <c r="A20" s="78" t="s">
         <v>132</v>
       </c>
-      <c r="B20" s="198" t="s">
+      <c r="B20" s="242" t="s">
         <v>241</v>
       </c>
-      <c r="C20" s="199"/>
-      <c r="D20" s="200"/>
-      <c r="E20" s="198" t="s">
+      <c r="C20" s="243"/>
+      <c r="D20" s="244"/>
+      <c r="E20" s="242" t="s">
         <v>240</v>
       </c>
-      <c r="F20" s="200"/>
+      <c r="F20" s="244"/>
       <c r="G20" s="86">
         <v>2888</v>
       </c>
@@ -9092,10 +9096,10 @@
       </c>
     </row>
     <row r="21" spans="1:20" ht="23.25" customHeight="1">
-      <c r="E21" s="213" t="s">
+      <c r="E21" s="246" t="s">
         <v>273</v>
       </c>
-      <c r="F21" s="213"/>
+      <c r="F21" s="246"/>
     </row>
     <row r="22" spans="1:20" ht="30" customHeight="1"/>
     <row r="23" spans="1:20" ht="44.25" customHeight="1">
@@ -9107,79 +9111,79 @@
       <c r="A24" s="170" t="s">
         <v>214</v>
       </c>
-      <c r="B24" s="166"/>
-      <c r="C24" s="166" t="s">
+      <c r="B24" s="171"/>
+      <c r="C24" s="171" t="s">
         <v>271</v>
       </c>
-      <c r="D24" s="166"/>
-      <c r="E24" s="166"/>
-      <c r="F24" s="166"/>
-      <c r="G24" s="166"/>
+      <c r="D24" s="171"/>
+      <c r="E24" s="171"/>
+      <c r="F24" s="171"/>
+      <c r="G24" s="171"/>
       <c r="H24" s="110"/>
-      <c r="I24" s="183" t="s">
+      <c r="I24" s="214" t="s">
         <v>267</v>
       </c>
-      <c r="J24" s="183"/>
-      <c r="K24" s="164" t="s">
+      <c r="J24" s="214"/>
+      <c r="K24" s="175" t="s">
         <v>244</v>
       </c>
-      <c r="L24" s="165"/>
+      <c r="L24" s="176"/>
     </row>
     <row r="25" spans="1:20" ht="29.25" customHeight="1">
-      <c r="A25" s="148" t="s">
+      <c r="A25" s="178" t="s">
         <v>268</v>
       </c>
-      <c r="B25" s="146"/>
-      <c r="C25" s="178" t="s">
+      <c r="B25" s="179"/>
+      <c r="C25" s="231" t="s">
         <v>270</v>
       </c>
-      <c r="D25" s="178"/>
-      <c r="E25" s="214" t="s">
+      <c r="D25" s="231"/>
+      <c r="E25" s="247" t="s">
         <v>269</v>
       </c>
-      <c r="F25" s="214"/>
-      <c r="G25" s="214"/>
+      <c r="F25" s="247"/>
+      <c r="G25" s="247"/>
       <c r="H25" s="114"/>
-      <c r="I25" s="178" t="s">
+      <c r="I25" s="231" t="s">
         <v>266</v>
       </c>
-      <c r="J25" s="178"/>
-      <c r="K25" s="178"/>
-      <c r="L25" s="147"/>
-      <c r="O25" s="177" t="s">
+      <c r="J25" s="231"/>
+      <c r="K25" s="231"/>
+      <c r="L25" s="177"/>
+      <c r="O25" s="230" t="s">
         <v>204</v>
       </c>
-      <c r="P25" s="177"/>
-      <c r="Q25" s="177"/>
-      <c r="R25" s="177"/>
-      <c r="S25" s="177"/>
-      <c r="T25" s="177"/>
+      <c r="P25" s="230"/>
+      <c r="Q25" s="230"/>
+      <c r="R25" s="230"/>
+      <c r="S25" s="230"/>
+      <c r="T25" s="230"/>
     </row>
     <row r="26" spans="1:20" ht="29.25" customHeight="1">
-      <c r="A26" s="194" t="s">
+      <c r="A26" s="215" t="s">
         <v>76</v>
       </c>
-      <c r="B26" s="195"/>
-      <c r="C26" s="196" t="s">
+      <c r="B26" s="216"/>
+      <c r="C26" s="217" t="s">
         <v>226</v>
       </c>
-      <c r="D26" s="215"/>
-      <c r="E26" s="210" t="s">
+      <c r="D26" s="245"/>
+      <c r="E26" s="248" t="s">
         <v>219</v>
       </c>
-      <c r="F26" s="210"/>
-      <c r="G26" s="210" t="s">
+      <c r="F26" s="248"/>
+      <c r="G26" s="248" t="s">
         <v>218</v>
       </c>
-      <c r="H26" s="210"/>
-      <c r="I26" s="215" t="s">
+      <c r="H26" s="248"/>
+      <c r="I26" s="245" t="s">
         <v>220</v>
       </c>
-      <c r="J26" s="195"/>
-      <c r="K26" s="196" t="s">
+      <c r="J26" s="216"/>
+      <c r="K26" s="217" t="s">
         <v>224</v>
       </c>
-      <c r="L26" s="195"/>
+      <c r="L26" s="216"/>
       <c r="O26" s="59" t="s">
         <v>146</v>
       </c>
@@ -9200,26 +9204,26 @@
       </c>
     </row>
     <row r="27" spans="1:20" ht="29.25" customHeight="1">
-      <c r="A27" s="146" t="s">
+      <c r="A27" s="179" t="s">
         <v>227</v>
       </c>
-      <c r="B27" s="129"/>
-      <c r="C27" s="146" t="s">
+      <c r="B27" s="157"/>
+      <c r="C27" s="179" t="s">
         <v>229</v>
       </c>
-      <c r="D27" s="128"/>
-      <c r="E27" s="182"/>
-      <c r="F27" s="182"/>
-      <c r="G27" s="182"/>
-      <c r="H27" s="182"/>
-      <c r="I27" s="190" t="s">
+      <c r="D27" s="156"/>
+      <c r="E27" s="223"/>
+      <c r="F27" s="223"/>
+      <c r="G27" s="223"/>
+      <c r="H27" s="223"/>
+      <c r="I27" s="219" t="s">
         <v>243</v>
       </c>
-      <c r="J27" s="191"/>
-      <c r="K27" s="146" t="s">
+      <c r="J27" s="220"/>
+      <c r="K27" s="179" t="s">
         <v>225</v>
       </c>
-      <c r="L27" s="129"/>
+      <c r="L27" s="157"/>
       <c r="O27" s="49"/>
       <c r="P27" s="49"/>
       <c r="Q27" s="49"/>
@@ -9230,26 +9234,26 @@
       <c r="T27" s="49"/>
     </row>
     <row r="28" spans="1:20" ht="29.25" customHeight="1">
-      <c r="A28" s="146" t="s">
+      <c r="A28" s="179" t="s">
         <v>227</v>
       </c>
-      <c r="B28" s="129"/>
-      <c r="C28" s="146" t="s">
+      <c r="B28" s="157"/>
+      <c r="C28" s="179" t="s">
         <v>230</v>
       </c>
-      <c r="D28" s="128"/>
-      <c r="E28" s="182"/>
-      <c r="F28" s="182"/>
-      <c r="G28" s="182"/>
-      <c r="H28" s="182"/>
-      <c r="I28" s="192" t="s">
+      <c r="D28" s="156"/>
+      <c r="E28" s="223"/>
+      <c r="F28" s="223"/>
+      <c r="G28" s="223"/>
+      <c r="H28" s="223"/>
+      <c r="I28" s="221" t="s">
         <v>273</v>
       </c>
-      <c r="J28" s="193"/>
-      <c r="K28" s="146" t="s">
+      <c r="J28" s="222"/>
+      <c r="K28" s="179" t="s">
         <v>225</v>
       </c>
-      <c r="L28" s="129"/>
+      <c r="L28" s="157"/>
       <c r="O28" s="49"/>
       <c r="P28" s="49"/>
       <c r="Q28" s="49"/>
@@ -9258,87 +9262,87 @@
       <c r="T28" s="49"/>
     </row>
     <row r="29" spans="1:20" ht="29.25" customHeight="1">
-      <c r="A29" s="146" t="s">
+      <c r="A29" s="179" t="s">
         <v>228</v>
       </c>
-      <c r="B29" s="129"/>
-      <c r="C29" s="146" t="s">
+      <c r="B29" s="157"/>
+      <c r="C29" s="179" t="s">
         <v>231</v>
       </c>
-      <c r="D29" s="128"/>
-      <c r="E29" s="182"/>
-      <c r="F29" s="182"/>
-      <c r="G29" s="182"/>
-      <c r="H29" s="182"/>
-      <c r="I29" s="128"/>
-      <c r="J29" s="129"/>
-      <c r="K29" s="146" t="s">
+      <c r="D29" s="156"/>
+      <c r="E29" s="223"/>
+      <c r="F29" s="223"/>
+      <c r="G29" s="223"/>
+      <c r="H29" s="223"/>
+      <c r="I29" s="156"/>
+      <c r="J29" s="157"/>
+      <c r="K29" s="179" t="s">
         <v>225</v>
       </c>
-      <c r="L29" s="129"/>
+      <c r="L29" s="157"/>
     </row>
     <row r="30" spans="1:20" ht="29.25" customHeight="1">
-      <c r="A30" s="146" t="s">
+      <c r="A30" s="179" t="s">
         <v>228</v>
       </c>
-      <c r="B30" s="129"/>
-      <c r="C30" s="146" t="s">
+      <c r="B30" s="157"/>
+      <c r="C30" s="179" t="s">
         <v>232</v>
       </c>
-      <c r="D30" s="128"/>
-      <c r="E30" s="182"/>
-      <c r="F30" s="182"/>
-      <c r="G30" s="182"/>
-      <c r="H30" s="182"/>
-      <c r="I30" s="128"/>
-      <c r="J30" s="129"/>
-      <c r="K30" s="146" t="s">
+      <c r="D30" s="156"/>
+      <c r="E30" s="223"/>
+      <c r="F30" s="223"/>
+      <c r="G30" s="223"/>
+      <c r="H30" s="223"/>
+      <c r="I30" s="156"/>
+      <c r="J30" s="157"/>
+      <c r="K30" s="179" t="s">
         <v>225</v>
       </c>
-      <c r="L30" s="129"/>
+      <c r="L30" s="157"/>
     </row>
     <row r="31" spans="1:20" ht="29.25" customHeight="1"/>
     <row r="32" spans="1:20" ht="29.25" customHeight="1">
       <c r="A32" s="170" t="s">
         <v>214</v>
       </c>
-      <c r="B32" s="166"/>
-      <c r="C32" s="166" t="s">
+      <c r="B32" s="171"/>
+      <c r="C32" s="171" t="s">
         <v>271</v>
       </c>
-      <c r="D32" s="166"/>
-      <c r="E32" s="166"/>
-      <c r="F32" s="166"/>
-      <c r="G32" s="166"/>
+      <c r="D32" s="171"/>
+      <c r="E32" s="171"/>
+      <c r="F32" s="171"/>
+      <c r="G32" s="171"/>
       <c r="H32" s="110"/>
-      <c r="I32" s="164" t="s">
+      <c r="I32" s="175" t="s">
         <v>267</v>
       </c>
-      <c r="J32" s="164"/>
-      <c r="K32" s="183" t="s">
+      <c r="J32" s="175"/>
+      <c r="K32" s="214" t="s">
         <v>244</v>
       </c>
-      <c r="L32" s="183"/>
+      <c r="L32" s="214"/>
     </row>
     <row r="33" spans="1:12" ht="29.25" customHeight="1">
-      <c r="A33" s="148" t="s">
+      <c r="A33" s="178" t="s">
         <v>246</v>
       </c>
-      <c r="B33" s="146"/>
-      <c r="C33" s="178"/>
-      <c r="D33" s="178"/>
-      <c r="E33" s="178" t="s">
+      <c r="B33" s="179"/>
+      <c r="C33" s="231"/>
+      <c r="D33" s="231"/>
+      <c r="E33" s="231" t="s">
         <v>270</v>
       </c>
-      <c r="F33" s="178"/>
-      <c r="G33" s="178"/>
+      <c r="F33" s="231"/>
+      <c r="G33" s="231"/>
       <c r="H33" s="67"/>
-      <c r="I33" s="178" t="s">
+      <c r="I33" s="231" t="s">
         <v>266</v>
       </c>
-      <c r="J33" s="178"/>
-      <c r="K33" s="178"/>
-      <c r="L33" s="147"/>
+      <c r="J33" s="231"/>
+      <c r="K33" s="231"/>
+      <c r="L33" s="177"/>
     </row>
     <row r="34" spans="1:12" ht="29.25" customHeight="1">
       <c r="A34" s="87" t="s">
@@ -9347,52 +9351,52 @@
       <c r="B34" s="89" t="s">
         <v>248</v>
       </c>
-      <c r="C34" s="184" t="s">
+      <c r="C34" s="224" t="s">
         <v>249</v>
       </c>
-      <c r="D34" s="185"/>
-      <c r="E34" s="184" t="s">
+      <c r="D34" s="225"/>
+      <c r="E34" s="224" t="s">
         <v>250</v>
       </c>
-      <c r="F34" s="185"/>
-      <c r="G34" s="186" t="s">
+      <c r="F34" s="225"/>
+      <c r="G34" s="226" t="s">
         <v>236</v>
       </c>
-      <c r="H34" s="187"/>
-      <c r="I34" s="188"/>
-      <c r="J34" s="186" t="s">
+      <c r="H34" s="227"/>
+      <c r="I34" s="228"/>
+      <c r="J34" s="226" t="s">
         <v>224</v>
       </c>
-      <c r="K34" s="189"/>
-      <c r="L34" s="188"/>
+      <c r="K34" s="229"/>
+      <c r="L34" s="228"/>
     </row>
     <row r="35" spans="1:12" ht="29.25" customHeight="1">
       <c r="A35" s="49"/>
       <c r="B35" s="49"/>
-      <c r="C35" s="130"/>
-      <c r="D35" s="130"/>
-      <c r="E35" s="130"/>
-      <c r="F35" s="130"/>
-      <c r="G35" s="143"/>
-      <c r="H35" s="128"/>
-      <c r="I35" s="129"/>
-      <c r="J35" s="143"/>
-      <c r="K35" s="128"/>
-      <c r="L35" s="129"/>
+      <c r="C35" s="153"/>
+      <c r="D35" s="153"/>
+      <c r="E35" s="153"/>
+      <c r="F35" s="153"/>
+      <c r="G35" s="158"/>
+      <c r="H35" s="156"/>
+      <c r="I35" s="157"/>
+      <c r="J35" s="158"/>
+      <c r="K35" s="156"/>
+      <c r="L35" s="157"/>
     </row>
     <row r="36" spans="1:12" ht="29.25" customHeight="1">
       <c r="A36" s="49"/>
       <c r="B36" s="49"/>
-      <c r="C36" s="130"/>
-      <c r="D36" s="130"/>
-      <c r="E36" s="130"/>
-      <c r="F36" s="130"/>
-      <c r="G36" s="143"/>
-      <c r="H36" s="128"/>
-      <c r="I36" s="129"/>
-      <c r="J36" s="143"/>
-      <c r="K36" s="128"/>
-      <c r="L36" s="129"/>
+      <c r="C36" s="153"/>
+      <c r="D36" s="153"/>
+      <c r="E36" s="153"/>
+      <c r="F36" s="153"/>
+      <c r="G36" s="158"/>
+      <c r="H36" s="156"/>
+      <c r="I36" s="157"/>
+      <c r="J36" s="158"/>
+      <c r="K36" s="156"/>
+      <c r="L36" s="157"/>
     </row>
     <row r="38" spans="1:12" ht="28.5" customHeight="1"/>
     <row r="39" spans="1:12" ht="48" customHeight="1">
@@ -9413,16 +9417,16 @@
       <c r="D40" s="116" t="s">
         <v>282</v>
       </c>
-      <c r="E40" s="175" t="s">
+      <c r="E40" s="237" t="s">
         <v>283</v>
       </c>
-      <c r="F40" s="176"/>
+      <c r="F40" s="238"/>
     </row>
     <row r="41" spans="1:12" ht="45" customHeight="1">
-      <c r="A41" s="209" t="s">
+      <c r="A41" s="250" t="s">
         <v>277</v>
       </c>
-      <c r="B41" s="209"/>
+      <c r="B41" s="250"/>
       <c r="D41" s="50" t="s">
         <v>278</v>
       </c>
@@ -9668,7 +9672,7 @@
       </c>
     </row>
     <row r="90" spans="1:8">
-      <c r="B90" s="130" t="s">
+      <c r="B90" s="153" t="s">
         <v>190</v>
       </c>
       <c r="C90" s="49" t="s">
@@ -9678,14 +9682,14 @@
       <c r="E90" s="104" t="s">
         <v>191</v>
       </c>
-      <c r="F90" s="173" t="s">
+      <c r="F90" s="235" t="s">
         <v>260</v>
       </c>
-      <c r="G90" s="174"/>
+      <c r="G90" s="236"/>
       <c r="H90" s="112"/>
     </row>
     <row r="91" spans="1:8">
-      <c r="B91" s="130"/>
+      <c r="B91" s="153"/>
       <c r="C91" s="49" t="s">
         <v>127</v>
       </c>
@@ -9693,12 +9697,12 @@
       <c r="E91" s="104" t="s">
         <v>191</v>
       </c>
-      <c r="F91" s="174"/>
-      <c r="G91" s="174"/>
+      <c r="F91" s="236"/>
+      <c r="G91" s="236"/>
       <c r="H91" s="112"/>
     </row>
     <row r="92" spans="1:8">
-      <c r="B92" s="130" t="s">
+      <c r="B92" s="153" t="s">
         <v>192</v>
       </c>
       <c r="C92" s="49" t="s">
@@ -9708,12 +9712,12 @@
       <c r="E92" s="104" t="s">
         <v>191</v>
       </c>
-      <c r="F92" s="174"/>
-      <c r="G92" s="174"/>
+      <c r="F92" s="236"/>
+      <c r="G92" s="236"/>
       <c r="H92" s="112"/>
     </row>
     <row r="93" spans="1:8">
-      <c r="B93" s="130"/>
+      <c r="B93" s="153"/>
       <c r="C93" s="49" t="s">
         <v>16</v>
       </c>
@@ -9721,12 +9725,12 @@
       <c r="E93" s="104" t="s">
         <v>191</v>
       </c>
-      <c r="F93" s="174"/>
-      <c r="G93" s="174"/>
+      <c r="F93" s="236"/>
+      <c r="G93" s="236"/>
       <c r="H93" s="112"/>
     </row>
     <row r="94" spans="1:8">
-      <c r="B94" s="130"/>
+      <c r="B94" s="153"/>
       <c r="C94" s="49" t="s">
         <v>115</v>
       </c>
@@ -9734,12 +9738,12 @@
       <c r="E94" s="104" t="s">
         <v>191</v>
       </c>
-      <c r="F94" s="174"/>
-      <c r="G94" s="174"/>
+      <c r="F94" s="236"/>
+      <c r="G94" s="236"/>
       <c r="H94" s="112"/>
     </row>
     <row r="95" spans="1:8">
-      <c r="B95" s="130"/>
+      <c r="B95" s="153"/>
       <c r="C95" s="51" t="s">
         <v>261</v>
       </c>
@@ -9825,35 +9829,38 @@
     </row>
   </sheetData>
   <mergeCells count="77">
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="O25:T25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="J34:L34"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="I33:L33"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="J36:L36"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="K29:L29"/>
     <mergeCell ref="B90:B91"/>
     <mergeCell ref="F90:G94"/>
     <mergeCell ref="B92:B95"/>
@@ -9870,38 +9877,35 @@
     <mergeCell ref="J35:L35"/>
     <mergeCell ref="C36:D36"/>
     <mergeCell ref="E36:F36"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="J36:L36"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="J34:L34"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="I33:L33"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="O25:T25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:F11"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/alice/20180302后台财务更新.xlsx
+++ b/doc/alice/20180302后台财务更新.xlsx
@@ -19,11 +19,12 @@
     <sheet name="平台" sheetId="12" r:id="rId10"/>
   </sheets>
   <calcPr calcId="124519" concurrentCalc="0"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="341">
   <si>
     <t>收：</t>
   </si>
@@ -1182,111 +1183,183 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
+    <t>教练统计</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>statisticsCoach</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>资金账目</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>收益统计</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>课时统计</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>coachSchedule</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>coachBill</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>coachIncome</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>训练营统计</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>statisticsCamp</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>机构统计</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>campBill</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>campIncome</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>campSchedule</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>statisticsOrgz</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>orgzBill</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>orgzIncome</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>orgzSchedule</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>营业额统计</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>图表统计</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>campChart</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>orgzChart</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>每月报表</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>赠课统计</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>附加支出列表</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>campGift</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>campStatistics</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>orgzStatistics</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>orgzOutput</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>orgzGift</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>orgzTurnover</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>资金账单statisticsCamp/campBill</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>本月总收益：2888</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>本月总支出：2888</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>平台分成</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>教练工资</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买赠课</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>课时统计statisticsCamp/campSchedule</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>营业额（报名交费情况）statisticsCamp/campTurnover</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>statisticsCamp/campChart</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>月报表statisticsCamp/campStatistics</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>还有购买赠课记录statisticsCamp/campGift</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
     <t>课时结算表admin/salaryin/scheduleInfo</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>教练统计</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>statisticsCoach</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>资金账目</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>收益统计</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>课时统计</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>coachSchedule</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>coachBill</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>coachIncome</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>训练营统计</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>statisticsCamp</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>机构统计</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>campBill</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>campIncome</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>campSchedule</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>statisticsOrgz</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>orgzBill</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>orgzIncome</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>orgzSchedule</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>营业额统计</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>图表统计</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>campChart</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>orgzChart</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>每月报表</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>赠课统计</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>附加支出列表</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>campGift</t>
+    <t>收益统计statisticsCamp/campIncome</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程课时统计statisticsCamp/lessonSchedule</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
@@ -1294,55 +1367,7 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>campStatistics</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>orgzStatistics</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>orgzOutput</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>orgzGift</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>campTurnover</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>orgzTurnover</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>资金账单statisticsCamp/campBill</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>本月总收益：2888</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>本月总支出：2888</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>平台分成</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>教练工资</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>购买赠课</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>收益统计statisticsCamp/campIncome</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
@@ -1350,7 +1375,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="32">
+  <fonts count="34">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1600,6 +1625,24 @@
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -2313,7 +2356,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="251">
+  <cellXfs count="254">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2757,6 +2800,15 @@
     </xf>
     <xf numFmtId="14" fontId="31" fillId="10" borderId="15" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3653,41 +3705,41 @@
       </c>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="151" t="s">
+      <c r="A10" s="154" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="151" t="s">
+      <c r="B10" s="154" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="155" t="s">
+      <c r="C10" s="158" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="156"/>
-      <c r="E10" s="157"/>
-      <c r="F10" s="155" t="s">
+      <c r="D10" s="159"/>
+      <c r="E10" s="160"/>
+      <c r="F10" s="158" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="156"/>
-      <c r="H10" s="157"/>
-      <c r="I10" s="155" t="s">
+      <c r="G10" s="159"/>
+      <c r="H10" s="160"/>
+      <c r="I10" s="158" t="s">
         <v>12</v>
       </c>
-      <c r="J10" s="156"/>
-      <c r="K10" s="157"/>
-      <c r="L10" s="156" t="s">
+      <c r="J10" s="159"/>
+      <c r="K10" s="160"/>
+      <c r="L10" s="159" t="s">
         <v>13</v>
       </c>
-      <c r="M10" s="156"/>
-      <c r="N10" s="157"/>
-      <c r="O10" s="153" t="s">
+      <c r="M10" s="159"/>
+      <c r="N10" s="160"/>
+      <c r="O10" s="156" t="s">
         <v>14</v>
       </c>
-      <c r="P10" s="153"/>
-      <c r="Q10" s="153"/>
+      <c r="P10" s="156"/>
+      <c r="Q10" s="156"/>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="152"/>
-      <c r="B11" s="152"/>
+      <c r="A11" s="155"/>
+      <c r="B11" s="155"/>
       <c r="C11" s="5" t="s">
         <v>15</v>
       </c>
@@ -3735,7 +3787,7 @@
       </c>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="153" t="s">
+      <c r="A12" s="156" t="s">
         <v>18</v>
       </c>
       <c r="B12" s="5">
@@ -3785,7 +3837,7 @@
       </c>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="153"/>
+      <c r="A13" s="156"/>
       <c r="B13" s="5">
         <v>88</v>
       </c>
@@ -3833,7 +3885,7 @@
       </c>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="153"/>
+      <c r="A14" s="156"/>
       <c r="B14" s="5">
         <v>100</v>
       </c>
@@ -3881,7 +3933,7 @@
       </c>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="153"/>
+      <c r="A15" s="156"/>
       <c r="B15" s="5" t="s">
         <v>19</v>
       </c>
@@ -3938,7 +3990,7 @@
       </c>
     </row>
     <row r="16" spans="1:17" hidden="1">
-      <c r="A16" s="151" t="s">
+      <c r="A16" s="154" t="s">
         <v>20</v>
       </c>
       <c r="B16" s="5">
@@ -3985,7 +4037,7 @@
       <c r="Q16" s="40"/>
     </row>
     <row r="17" spans="1:17" hidden="1">
-      <c r="A17" s="152"/>
+      <c r="A17" s="155"/>
       <c r="B17" s="5" t="s">
         <v>19</v>
       </c>
@@ -4039,7 +4091,7 @@
       <c r="Q17" s="40"/>
     </row>
     <row r="18" spans="1:17">
-      <c r="A18" s="153" t="s">
+      <c r="A18" s="156" t="s">
         <v>21</v>
       </c>
       <c r="B18" s="5">
@@ -4092,7 +4144,7 @@
       </c>
     </row>
     <row r="19" spans="1:17">
-      <c r="A19" s="153"/>
+      <c r="A19" s="156"/>
       <c r="B19" s="5">
         <v>180</v>
       </c>
@@ -4143,7 +4195,7 @@
       </c>
     </row>
     <row r="20" spans="1:17">
-      <c r="A20" s="153"/>
+      <c r="A20" s="156"/>
       <c r="B20" s="5">
         <v>240</v>
       </c>
@@ -4194,7 +4246,7 @@
       </c>
     </row>
     <row r="21" spans="1:17">
-      <c r="A21" s="153"/>
+      <c r="A21" s="156"/>
       <c r="B21" s="5" t="s">
         <v>19</v>
       </c>
@@ -4343,16 +4395,16 @@
       <c r="C46" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D46" s="154" t="s">
+      <c r="D46" s="157" t="s">
         <v>37</v>
       </c>
-      <c r="E46" s="154"/>
-      <c r="F46" s="154"/>
-      <c r="G46" s="154"/>
-      <c r="H46" s="154"/>
-      <c r="I46" s="154"/>
-      <c r="J46" s="154"/>
-      <c r="K46" s="154"/>
+      <c r="E46" s="157"/>
+      <c r="F46" s="157"/>
+      <c r="G46" s="157"/>
+      <c r="H46" s="157"/>
+      <c r="I46" s="157"/>
+      <c r="J46" s="157"/>
+      <c r="K46" s="157"/>
       <c r="L46" t="s">
         <v>38</v>
       </c>
@@ -4368,16 +4420,16 @@
       <c r="C47" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D47" s="148" t="s">
+      <c r="D47" s="151" t="s">
         <v>41</v>
       </c>
-      <c r="E47" s="149"/>
-      <c r="F47" s="149"/>
-      <c r="G47" s="149"/>
-      <c r="H47" s="149"/>
-      <c r="I47" s="149"/>
-      <c r="J47" s="149"/>
-      <c r="K47" s="150"/>
+      <c r="E47" s="152"/>
+      <c r="F47" s="152"/>
+      <c r="G47" s="152"/>
+      <c r="H47" s="152"/>
+      <c r="I47" s="152"/>
+      <c r="J47" s="152"/>
+      <c r="K47" s="153"/>
       <c r="L47" t="s">
         <v>42</v>
       </c>
@@ -4393,16 +4445,16 @@
       <c r="C48" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D48" s="148" t="s">
+      <c r="D48" s="151" t="s">
         <v>44</v>
       </c>
-      <c r="E48" s="149"/>
-      <c r="F48" s="149"/>
-      <c r="G48" s="149"/>
-      <c r="H48" s="149"/>
-      <c r="I48" s="149"/>
-      <c r="J48" s="149"/>
-      <c r="K48" s="150"/>
+      <c r="E48" s="152"/>
+      <c r="F48" s="152"/>
+      <c r="G48" s="152"/>
+      <c r="H48" s="152"/>
+      <c r="I48" s="152"/>
+      <c r="J48" s="152"/>
+      <c r="K48" s="153"/>
       <c r="L48" t="s">
         <v>45</v>
       </c>
@@ -4438,16 +4490,16 @@
       <c r="C51" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D51" s="154" t="s">
+      <c r="D51" s="157" t="s">
         <v>49</v>
       </c>
-      <c r="E51" s="154"/>
-      <c r="F51" s="154"/>
-      <c r="G51" s="154"/>
-      <c r="H51" s="154"/>
-      <c r="I51" s="154"/>
-      <c r="J51" s="154"/>
-      <c r="K51" s="154"/>
+      <c r="E51" s="157"/>
+      <c r="F51" s="157"/>
+      <c r="G51" s="157"/>
+      <c r="H51" s="157"/>
+      <c r="I51" s="157"/>
+      <c r="J51" s="157"/>
+      <c r="K51" s="157"/>
       <c r="L51" t="s">
         <v>50</v>
       </c>
@@ -4462,16 +4514,16 @@
       <c r="C52" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D52" s="148" t="s">
+      <c r="D52" s="151" t="s">
         <v>51</v>
       </c>
-      <c r="E52" s="149"/>
-      <c r="F52" s="149"/>
-      <c r="G52" s="149"/>
-      <c r="H52" s="149"/>
-      <c r="I52" s="149"/>
-      <c r="J52" s="149"/>
-      <c r="K52" s="150"/>
+      <c r="E52" s="152"/>
+      <c r="F52" s="152"/>
+      <c r="G52" s="152"/>
+      <c r="H52" s="152"/>
+      <c r="I52" s="152"/>
+      <c r="J52" s="152"/>
+      <c r="K52" s="153"/>
       <c r="L52" t="s">
         <v>52</v>
       </c>
@@ -4486,16 +4538,16 @@
       <c r="C53" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D53" s="148" t="s">
+      <c r="D53" s="151" t="s">
         <v>53</v>
       </c>
-      <c r="E53" s="149"/>
-      <c r="F53" s="149"/>
-      <c r="G53" s="149"/>
-      <c r="H53" s="149"/>
-      <c r="I53" s="149"/>
-      <c r="J53" s="149"/>
-      <c r="K53" s="150"/>
+      <c r="E53" s="152"/>
+      <c r="F53" s="152"/>
+      <c r="G53" s="152"/>
+      <c r="H53" s="152"/>
+      <c r="I53" s="152"/>
+      <c r="J53" s="152"/>
+      <c r="K53" s="153"/>
       <c r="L53" t="s">
         <v>54</v>
       </c>
@@ -4540,16 +4592,16 @@
       <c r="C56" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D56" s="154" t="s">
+      <c r="D56" s="157" t="s">
         <v>57</v>
       </c>
-      <c r="E56" s="154"/>
-      <c r="F56" s="154"/>
-      <c r="G56" s="154"/>
-      <c r="H56" s="154"/>
-      <c r="I56" s="154"/>
-      <c r="J56" s="154"/>
-      <c r="K56" s="154"/>
+      <c r="E56" s="157"/>
+      <c r="F56" s="157"/>
+      <c r="G56" s="157"/>
+      <c r="H56" s="157"/>
+      <c r="I56" s="157"/>
+      <c r="J56" s="157"/>
+      <c r="K56" s="157"/>
       <c r="L56" t="s">
         <v>58</v>
       </c>
@@ -4564,16 +4616,16 @@
       <c r="C57" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D57" s="148" t="s">
+      <c r="D57" s="151" t="s">
         <v>51</v>
       </c>
-      <c r="E57" s="149"/>
-      <c r="F57" s="149"/>
-      <c r="G57" s="149"/>
-      <c r="H57" s="149"/>
-      <c r="I57" s="149"/>
-      <c r="J57" s="149"/>
-      <c r="K57" s="150"/>
+      <c r="E57" s="152"/>
+      <c r="F57" s="152"/>
+      <c r="G57" s="152"/>
+      <c r="H57" s="152"/>
+      <c r="I57" s="152"/>
+      <c r="J57" s="152"/>
+      <c r="K57" s="153"/>
       <c r="L57" t="s">
         <v>52</v>
       </c>
@@ -4588,16 +4640,16 @@
       <c r="C58" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D58" s="148" t="s">
+      <c r="D58" s="151" t="s">
         <v>53</v>
       </c>
-      <c r="E58" s="149"/>
-      <c r="F58" s="149"/>
-      <c r="G58" s="149"/>
-      <c r="H58" s="149"/>
-      <c r="I58" s="149"/>
-      <c r="J58" s="149"/>
-      <c r="K58" s="150"/>
+      <c r="E58" s="152"/>
+      <c r="F58" s="152"/>
+      <c r="G58" s="152"/>
+      <c r="H58" s="152"/>
+      <c r="I58" s="152"/>
+      <c r="J58" s="152"/>
+      <c r="K58" s="153"/>
       <c r="L58" t="s">
         <v>54</v>
       </c>
@@ -4727,16 +4779,16 @@
       <c r="C20" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D20" s="154" t="s">
+      <c r="D20" s="157" t="s">
         <v>37</v>
       </c>
-      <c r="E20" s="154"/>
-      <c r="F20" s="154"/>
-      <c r="G20" s="154"/>
-      <c r="H20" s="154"/>
-      <c r="I20" s="154"/>
-      <c r="J20" s="154"/>
-      <c r="K20" s="154"/>
+      <c r="E20" s="157"/>
+      <c r="F20" s="157"/>
+      <c r="G20" s="157"/>
+      <c r="H20" s="157"/>
+      <c r="I20" s="157"/>
+      <c r="J20" s="157"/>
+      <c r="K20" s="157"/>
       <c r="T20" s="13"/>
     </row>
     <row r="21" spans="1:20">
@@ -4749,16 +4801,16 @@
       <c r="C21" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D21" s="148" t="s">
+      <c r="D21" s="151" t="s">
         <v>41</v>
       </c>
-      <c r="E21" s="149"/>
-      <c r="F21" s="149"/>
-      <c r="G21" s="149"/>
-      <c r="H21" s="149"/>
-      <c r="I21" s="149"/>
-      <c r="J21" s="149"/>
-      <c r="K21" s="150"/>
+      <c r="E21" s="152"/>
+      <c r="F21" s="152"/>
+      <c r="G21" s="152"/>
+      <c r="H21" s="152"/>
+      <c r="I21" s="152"/>
+      <c r="J21" s="152"/>
+      <c r="K21" s="153"/>
       <c r="T21" s="13"/>
     </row>
     <row r="22" spans="1:20">
@@ -4771,16 +4823,16 @@
       <c r="C22" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D22" s="148" t="s">
+      <c r="D22" s="151" t="s">
         <v>44</v>
       </c>
-      <c r="E22" s="149"/>
-      <c r="F22" s="149"/>
-      <c r="G22" s="149"/>
-      <c r="H22" s="149"/>
-      <c r="I22" s="149"/>
-      <c r="J22" s="149"/>
-      <c r="K22" s="150"/>
+      <c r="E22" s="152"/>
+      <c r="F22" s="152"/>
+      <c r="G22" s="152"/>
+      <c r="H22" s="152"/>
+      <c r="I22" s="152"/>
+      <c r="J22" s="152"/>
+      <c r="K22" s="153"/>
       <c r="T22" s="13"/>
     </row>
     <row r="24" spans="1:20">
@@ -4813,16 +4865,16 @@
       <c r="C25" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D25" s="154" t="s">
+      <c r="D25" s="157" t="s">
         <v>49</v>
       </c>
-      <c r="E25" s="154"/>
-      <c r="F25" s="154"/>
-      <c r="G25" s="154"/>
-      <c r="H25" s="154"/>
-      <c r="I25" s="154"/>
-      <c r="J25" s="154"/>
-      <c r="K25" s="154"/>
+      <c r="E25" s="157"/>
+      <c r="F25" s="157"/>
+      <c r="G25" s="157"/>
+      <c r="H25" s="157"/>
+      <c r="I25" s="157"/>
+      <c r="J25" s="157"/>
+      <c r="K25" s="157"/>
     </row>
     <row r="26" spans="1:20">
       <c r="A26" s="4" t="s">
@@ -4834,16 +4886,16 @@
       <c r="C26" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D26" s="148" t="s">
+      <c r="D26" s="151" t="s">
         <v>51</v>
       </c>
-      <c r="E26" s="149"/>
-      <c r="F26" s="149"/>
-      <c r="G26" s="149"/>
-      <c r="H26" s="149"/>
-      <c r="I26" s="149"/>
-      <c r="J26" s="149"/>
-      <c r="K26" s="150"/>
+      <c r="E26" s="152"/>
+      <c r="F26" s="152"/>
+      <c r="G26" s="152"/>
+      <c r="H26" s="152"/>
+      <c r="I26" s="152"/>
+      <c r="J26" s="152"/>
+      <c r="K26" s="153"/>
     </row>
     <row r="27" spans="1:20">
       <c r="A27" s="4" t="s">
@@ -4855,16 +4907,16 @@
       <c r="C27" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D27" s="148" t="s">
+      <c r="D27" s="151" t="s">
         <v>53</v>
       </c>
-      <c r="E27" s="149"/>
-      <c r="F27" s="149"/>
-      <c r="G27" s="149"/>
-      <c r="H27" s="149"/>
-      <c r="I27" s="149"/>
-      <c r="J27" s="149"/>
-      <c r="K27" s="150"/>
+      <c r="E27" s="152"/>
+      <c r="F27" s="152"/>
+      <c r="G27" s="152"/>
+      <c r="H27" s="152"/>
+      <c r="I27" s="152"/>
+      <c r="J27" s="152"/>
+      <c r="K27" s="153"/>
     </row>
     <row r="28" spans="1:20">
       <c r="C28" s="9"/>
@@ -4906,16 +4958,16 @@
       <c r="C30" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D30" s="154" t="s">
+      <c r="D30" s="157" t="s">
         <v>57</v>
       </c>
-      <c r="E30" s="154"/>
-      <c r="F30" s="154"/>
-      <c r="G30" s="154"/>
-      <c r="H30" s="154"/>
-      <c r="I30" s="154"/>
-      <c r="J30" s="154"/>
-      <c r="K30" s="154"/>
+      <c r="E30" s="157"/>
+      <c r="F30" s="157"/>
+      <c r="G30" s="157"/>
+      <c r="H30" s="157"/>
+      <c r="I30" s="157"/>
+      <c r="J30" s="157"/>
+      <c r="K30" s="157"/>
     </row>
     <row r="31" spans="1:20">
       <c r="A31" s="4" t="s">
@@ -4927,16 +4979,16 @@
       <c r="C31" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D31" s="148" t="s">
+      <c r="D31" s="151" t="s">
         <v>51</v>
       </c>
-      <c r="E31" s="149"/>
-      <c r="F31" s="149"/>
-      <c r="G31" s="149"/>
-      <c r="H31" s="149"/>
-      <c r="I31" s="149"/>
-      <c r="J31" s="149"/>
-      <c r="K31" s="150"/>
+      <c r="E31" s="152"/>
+      <c r="F31" s="152"/>
+      <c r="G31" s="152"/>
+      <c r="H31" s="152"/>
+      <c r="I31" s="152"/>
+      <c r="J31" s="152"/>
+      <c r="K31" s="153"/>
     </row>
     <row r="32" spans="1:20">
       <c r="A32" s="4" t="s">
@@ -4948,16 +5000,16 @@
       <c r="C32" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D32" s="148" t="s">
+      <c r="D32" s="151" t="s">
         <v>53</v>
       </c>
-      <c r="E32" s="149"/>
-      <c r="F32" s="149"/>
-      <c r="G32" s="149"/>
-      <c r="H32" s="149"/>
-      <c r="I32" s="149"/>
-      <c r="J32" s="149"/>
-      <c r="K32" s="150"/>
+      <c r="E32" s="152"/>
+      <c r="F32" s="152"/>
+      <c r="G32" s="152"/>
+      <c r="H32" s="152"/>
+      <c r="I32" s="152"/>
+      <c r="J32" s="152"/>
+      <c r="K32" s="153"/>
     </row>
     <row r="33" spans="1:20">
       <c r="A33" t="s">
@@ -5067,30 +5119,30 @@
       <c r="C49" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="D49" s="154" t="s">
+      <c r="D49" s="157" t="s">
         <v>79</v>
       </c>
-      <c r="E49" s="154"/>
-      <c r="F49" s="154"/>
-      <c r="G49" s="154"/>
-      <c r="H49" s="154"/>
-      <c r="I49" s="154"/>
-      <c r="J49" s="154"/>
-      <c r="K49" s="164"/>
+      <c r="E49" s="157"/>
+      <c r="F49" s="157"/>
+      <c r="G49" s="157"/>
+      <c r="H49" s="157"/>
+      <c r="I49" s="157"/>
+      <c r="J49" s="157"/>
+      <c r="K49" s="167"/>
       <c r="T49" s="13"/>
     </row>
     <row r="50" spans="1:20">
       <c r="A50" s="26"/>
       <c r="B50" s="4"/>
       <c r="C50" s="5"/>
-      <c r="D50" s="148"/>
-      <c r="E50" s="149"/>
-      <c r="F50" s="149"/>
-      <c r="G50" s="149"/>
-      <c r="H50" s="149"/>
-      <c r="I50" s="149"/>
-      <c r="J50" s="149"/>
-      <c r="K50" s="163"/>
+      <c r="D50" s="151"/>
+      <c r="E50" s="152"/>
+      <c r="F50" s="152"/>
+      <c r="G50" s="152"/>
+      <c r="H50" s="152"/>
+      <c r="I50" s="152"/>
+      <c r="J50" s="152"/>
+      <c r="K50" s="166"/>
       <c r="L50" t="s">
         <v>80</v>
       </c>
@@ -5100,14 +5152,14 @@
       <c r="A51" s="26"/>
       <c r="B51" s="4"/>
       <c r="C51" s="5"/>
-      <c r="D51" s="148"/>
-      <c r="E51" s="149"/>
-      <c r="F51" s="149"/>
-      <c r="G51" s="149"/>
-      <c r="H51" s="149"/>
-      <c r="I51" s="149"/>
-      <c r="J51" s="149"/>
-      <c r="K51" s="163"/>
+      <c r="D51" s="151"/>
+      <c r="E51" s="152"/>
+      <c r="F51" s="152"/>
+      <c r="G51" s="152"/>
+      <c r="H51" s="152"/>
+      <c r="I51" s="152"/>
+      <c r="J51" s="152"/>
+      <c r="K51" s="166"/>
       <c r="T51" s="13"/>
     </row>
     <row r="52" spans="1:20">
@@ -5152,31 +5204,31 @@
       <c r="B54" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C54" s="160" t="s">
+      <c r="C54" s="163" t="s">
         <v>82</v>
       </c>
-      <c r="D54" s="161"/>
-      <c r="E54" s="161"/>
-      <c r="F54" s="161"/>
-      <c r="G54" s="161"/>
-      <c r="H54" s="161"/>
-      <c r="I54" s="161"/>
-      <c r="J54" s="161"/>
-      <c r="K54" s="162"/>
+      <c r="D54" s="164"/>
+      <c r="E54" s="164"/>
+      <c r="F54" s="164"/>
+      <c r="G54" s="164"/>
+      <c r="H54" s="164"/>
+      <c r="I54" s="164"/>
+      <c r="J54" s="164"/>
+      <c r="K54" s="165"/>
       <c r="T54" s="37"/>
     </row>
     <row r="55" spans="1:20">
       <c r="A55" s="26"/>
       <c r="B55" s="4"/>
-      <c r="C55" s="160"/>
-      <c r="D55" s="161"/>
-      <c r="E55" s="161"/>
-      <c r="F55" s="161"/>
-      <c r="G55" s="161"/>
-      <c r="H55" s="161"/>
-      <c r="I55" s="161"/>
-      <c r="J55" s="161"/>
-      <c r="K55" s="162"/>
+      <c r="C55" s="163"/>
+      <c r="D55" s="164"/>
+      <c r="E55" s="164"/>
+      <c r="F55" s="164"/>
+      <c r="G55" s="164"/>
+      <c r="H55" s="164"/>
+      <c r="I55" s="164"/>
+      <c r="J55" s="164"/>
+      <c r="K55" s="165"/>
       <c r="L55" t="s">
         <v>83</v>
       </c>
@@ -5185,15 +5237,15 @@
     <row r="56" spans="1:20">
       <c r="A56" s="26"/>
       <c r="B56" s="4"/>
-      <c r="C56" s="160"/>
-      <c r="D56" s="161"/>
-      <c r="E56" s="161"/>
-      <c r="F56" s="161"/>
-      <c r="G56" s="161"/>
-      <c r="H56" s="161"/>
-      <c r="I56" s="161"/>
-      <c r="J56" s="161"/>
-      <c r="K56" s="162"/>
+      <c r="C56" s="163"/>
+      <c r="D56" s="164"/>
+      <c r="E56" s="164"/>
+      <c r="F56" s="164"/>
+      <c r="G56" s="164"/>
+      <c r="H56" s="164"/>
+      <c r="I56" s="164"/>
+      <c r="J56" s="164"/>
+      <c r="K56" s="165"/>
       <c r="T56" s="37"/>
     </row>
     <row r="57" spans="1:20">
@@ -5213,45 +5265,45 @@
       <c r="B59" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="C59" s="160" t="s">
+      <c r="C59" s="163" t="s">
         <v>82</v>
       </c>
-      <c r="D59" s="161"/>
-      <c r="E59" s="161"/>
-      <c r="F59" s="161"/>
-      <c r="G59" s="161"/>
-      <c r="H59" s="161"/>
-      <c r="I59" s="161"/>
-      <c r="J59" s="161"/>
-      <c r="K59" s="162"/>
+      <c r="D59" s="164"/>
+      <c r="E59" s="164"/>
+      <c r="F59" s="164"/>
+      <c r="G59" s="164"/>
+      <c r="H59" s="164"/>
+      <c r="I59" s="164"/>
+      <c r="J59" s="164"/>
+      <c r="K59" s="165"/>
       <c r="T59" s="13"/>
     </row>
     <row r="60" spans="1:20">
       <c r="A60" s="26"/>
       <c r="B60" s="4"/>
-      <c r="C60" s="160"/>
-      <c r="D60" s="161"/>
-      <c r="E60" s="161"/>
-      <c r="F60" s="161"/>
-      <c r="G60" s="161"/>
-      <c r="H60" s="161"/>
-      <c r="I60" s="161"/>
-      <c r="J60" s="161"/>
-      <c r="K60" s="162"/>
+      <c r="C60" s="163"/>
+      <c r="D60" s="164"/>
+      <c r="E60" s="164"/>
+      <c r="F60" s="164"/>
+      <c r="G60" s="164"/>
+      <c r="H60" s="164"/>
+      <c r="I60" s="164"/>
+      <c r="J60" s="164"/>
+      <c r="K60" s="165"/>
       <c r="T60" s="13"/>
     </row>
     <row r="61" spans="1:20">
       <c r="A61" s="26"/>
       <c r="B61" s="4"/>
-      <c r="C61" s="160"/>
-      <c r="D61" s="161"/>
-      <c r="E61" s="161"/>
-      <c r="F61" s="161"/>
-      <c r="G61" s="161"/>
-      <c r="H61" s="161"/>
-      <c r="I61" s="161"/>
-      <c r="J61" s="161"/>
-      <c r="K61" s="162"/>
+      <c r="C61" s="163"/>
+      <c r="D61" s="164"/>
+      <c r="E61" s="164"/>
+      <c r="F61" s="164"/>
+      <c r="G61" s="164"/>
+      <c r="H61" s="164"/>
+      <c r="I61" s="164"/>
+      <c r="J61" s="164"/>
+      <c r="K61" s="165"/>
       <c r="T61" s="13"/>
     </row>
     <row r="62" spans="1:20">
@@ -5271,49 +5323,49 @@
       <c r="B64" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C64" s="153" t="s">
+      <c r="C64" s="156" t="s">
         <v>90</v>
       </c>
-      <c r="D64" s="153"/>
-      <c r="E64" s="153" t="s">
+      <c r="D64" s="156"/>
+      <c r="E64" s="156" t="s">
         <v>91</v>
       </c>
-      <c r="F64" s="153"/>
-      <c r="G64" s="158" t="s">
+      <c r="F64" s="156"/>
+      <c r="G64" s="161" t="s">
         <v>92</v>
       </c>
-      <c r="H64" s="157"/>
-      <c r="I64" s="158" t="s">
+      <c r="H64" s="160"/>
+      <c r="I64" s="161" t="s">
         <v>93</v>
       </c>
-      <c r="J64" s="156"/>
-      <c r="K64" s="159"/>
+      <c r="J64" s="159"/>
+      <c r="K64" s="162"/>
     </row>
     <row r="65" spans="1:11">
       <c r="A65" s="26"/>
       <c r="B65" s="4"/>
-      <c r="C65" s="153"/>
-      <c r="D65" s="153"/>
-      <c r="E65" s="153"/>
-      <c r="F65" s="153"/>
-      <c r="G65" s="158"/>
-      <c r="H65" s="157"/>
-      <c r="I65" s="158"/>
-      <c r="J65" s="156"/>
-      <c r="K65" s="159"/>
+      <c r="C65" s="156"/>
+      <c r="D65" s="156"/>
+      <c r="E65" s="156"/>
+      <c r="F65" s="156"/>
+      <c r="G65" s="161"/>
+      <c r="H65" s="160"/>
+      <c r="I65" s="161"/>
+      <c r="J65" s="159"/>
+      <c r="K65" s="162"/>
     </row>
     <row r="66" spans="1:11">
       <c r="A66" s="26"/>
       <c r="B66" s="4"/>
-      <c r="C66" s="153"/>
-      <c r="D66" s="153"/>
-      <c r="E66" s="153"/>
-      <c r="F66" s="153"/>
-      <c r="G66" s="158"/>
-      <c r="H66" s="157"/>
-      <c r="I66" s="158"/>
-      <c r="J66" s="156"/>
-      <c r="K66" s="159"/>
+      <c r="C66" s="156"/>
+      <c r="D66" s="156"/>
+      <c r="E66" s="156"/>
+      <c r="F66" s="156"/>
+      <c r="G66" s="161"/>
+      <c r="H66" s="160"/>
+      <c r="I66" s="161"/>
+      <c r="J66" s="159"/>
+      <c r="K66" s="162"/>
     </row>
     <row r="67" spans="1:11">
       <c r="A67" s="22"/>
@@ -5395,41 +5447,41 @@
       </c>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="151" t="s">
+      <c r="A3" s="154" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="151" t="s">
+      <c r="B3" s="154" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="155" t="s">
+      <c r="C3" s="158" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="156"/>
-      <c r="E3" s="157"/>
-      <c r="F3" s="155" t="s">
+      <c r="D3" s="159"/>
+      <c r="E3" s="160"/>
+      <c r="F3" s="158" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="156"/>
-      <c r="H3" s="157"/>
-      <c r="I3" s="155" t="s">
+      <c r="G3" s="159"/>
+      <c r="H3" s="160"/>
+      <c r="I3" s="158" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="156"/>
-      <c r="K3" s="157"/>
-      <c r="L3" s="156" t="s">
+      <c r="J3" s="159"/>
+      <c r="K3" s="160"/>
+      <c r="L3" s="159" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="156"/>
-      <c r="N3" s="157"/>
-      <c r="O3" s="153" t="s">
+      <c r="M3" s="159"/>
+      <c r="N3" s="160"/>
+      <c r="O3" s="156" t="s">
         <v>14</v>
       </c>
-      <c r="P3" s="153"/>
-      <c r="Q3" s="153"/>
+      <c r="P3" s="156"/>
+      <c r="Q3" s="156"/>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="152"/>
-      <c r="B4" s="152"/>
+      <c r="A4" s="155"/>
+      <c r="B4" s="155"/>
       <c r="C4" s="5" t="s">
         <v>15</v>
       </c>
@@ -5477,7 +5529,7 @@
       </c>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="153" t="s">
+      <c r="A5" s="156" t="s">
         <v>18</v>
       </c>
       <c r="B5" s="5">
@@ -5527,7 +5579,7 @@
       </c>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="153"/>
+      <c r="A6" s="156"/>
       <c r="B6" s="5">
         <v>88</v>
       </c>
@@ -5575,7 +5627,7 @@
       </c>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="153"/>
+      <c r="A7" s="156"/>
       <c r="B7" s="5">
         <v>100</v>
       </c>
@@ -5623,7 +5675,7 @@
       </c>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="153"/>
+      <c r="A8" s="156"/>
       <c r="B8" s="5" t="s">
         <v>19</v>
       </c>
@@ -5680,7 +5732,7 @@
       </c>
     </row>
     <row r="9" spans="1:17" hidden="1">
-      <c r="A9" s="151" t="s">
+      <c r="A9" s="154" t="s">
         <v>20</v>
       </c>
       <c r="B9" s="5">
@@ -5727,7 +5779,7 @@
       <c r="Q9" s="40"/>
     </row>
     <row r="10" spans="1:17" hidden="1">
-      <c r="A10" s="152"/>
+      <c r="A10" s="155"/>
       <c r="B10" s="5" t="s">
         <v>19</v>
       </c>
@@ -5781,7 +5833,7 @@
       <c r="Q10" s="40"/>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="153" t="s">
+      <c r="A11" s="156" t="s">
         <v>21</v>
       </c>
       <c r="B11" s="5">
@@ -5834,7 +5886,7 @@
       </c>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="153"/>
+      <c r="A12" s="156"/>
       <c r="B12" s="5">
         <v>180</v>
       </c>
@@ -5885,7 +5937,7 @@
       </c>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="153"/>
+      <c r="A13" s="156"/>
       <c r="B13" s="5">
         <v>240</v>
       </c>
@@ -5936,7 +5988,7 @@
       </c>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="153"/>
+      <c r="A14" s="156"/>
       <c r="B14" s="5" t="s">
         <v>19</v>
       </c>
@@ -6041,7 +6093,7 @@
       <c r="L20" s="39"/>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="153" t="s">
+      <c r="A21" s="156" t="s">
         <v>18</v>
       </c>
       <c r="B21" s="5">
@@ -6072,7 +6124,7 @@
       <c r="L21" s="34"/>
     </row>
     <row r="22" spans="1:12">
-      <c r="A22" s="153"/>
+      <c r="A22" s="156"/>
       <c r="B22" s="5">
         <v>88</v>
       </c>
@@ -6101,7 +6153,7 @@
       <c r="L22" s="34"/>
     </row>
     <row r="23" spans="1:12">
-      <c r="A23" s="153"/>
+      <c r="A23" s="156"/>
       <c r="B23" s="5">
         <v>100</v>
       </c>
@@ -6130,7 +6182,7 @@
       <c r="L23" s="34"/>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24" s="153"/>
+      <c r="A24" s="156"/>
       <c r="B24" s="5" t="s">
         <v>19</v>
       </c>
@@ -6352,29 +6404,29 @@
         <v>123</v>
       </c>
       <c r="O15" s="9"/>
-      <c r="P15" s="153" t="s">
+      <c r="P15" s="156" t="s">
         <v>107</v>
       </c>
-      <c r="Q15" s="153" t="s">
+      <c r="Q15" s="156" t="s">
         <v>109</v>
       </c>
-      <c r="R15" s="153" t="s">
+      <c r="R15" s="156" t="s">
         <v>124</v>
       </c>
-      <c r="S15" s="153"/>
-      <c r="T15" s="153" t="s">
+      <c r="S15" s="156"/>
+      <c r="T15" s="156" t="s">
         <v>125</v>
       </c>
-      <c r="U15" s="153"/>
-      <c r="V15" s="153"/>
+      <c r="U15" s="156"/>
+      <c r="V15" s="156"/>
     </row>
     <row r="16" spans="1:22">
       <c r="A16" t="s">
         <v>126</v>
       </c>
       <c r="O16" s="9"/>
-      <c r="P16" s="165"/>
-      <c r="Q16" s="165"/>
+      <c r="P16" s="168"/>
+      <c r="Q16" s="168"/>
       <c r="R16" s="5" t="s">
         <v>113</v>
       </c>
@@ -6485,17 +6537,17 @@
       <c r="Q21" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="R21" s="153">
+      <c r="R21" s="156">
         <f>SUM(R17:S18)</f>
         <v>1500</v>
       </c>
-      <c r="S21" s="153"/>
-      <c r="T21" s="158">
+      <c r="S21" s="156"/>
+      <c r="T21" s="161">
         <f>SUM(T17:V20)</f>
         <v>1500</v>
       </c>
-      <c r="U21" s="156"/>
-      <c r="V21" s="157"/>
+      <c r="U21" s="159"/>
+      <c r="V21" s="160"/>
     </row>
     <row r="22" spans="1:22">
       <c r="A22" t="s">
@@ -6762,10 +6814,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B3:I12"/>
+  <dimension ref="B3:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -6777,22 +6829,22 @@
   <sheetData>
     <row r="3" spans="2:9" ht="22.5">
       <c r="B3" s="126" t="s">
+        <v>294</v>
+      </c>
+      <c r="C3" s="126" t="s">
         <v>295</v>
       </c>
-      <c r="C3" s="126" t="s">
-        <v>296</v>
-      </c>
       <c r="E3" s="126" t="s">
+        <v>302</v>
+      </c>
+      <c r="F3" s="126" t="s">
         <v>303</v>
       </c>
-      <c r="F3" s="126" t="s">
+      <c r="H3" s="126" t="s">
         <v>304</v>
       </c>
-      <c r="H3" s="126" t="s">
-        <v>305</v>
-      </c>
       <c r="I3" s="126" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="4" spans="2:9" ht="22.5">
@@ -6805,132 +6857,137 @@
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="127" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C5" s="127" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E5" s="127" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F5" s="127" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H5" s="127" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="I5" s="127" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="127" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C6" s="127" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E6" s="127" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F6" s="127" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H6" s="127" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I6" s="127" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="7" spans="2:9">
       <c r="B7" s="127" t="s">
+        <v>298</v>
+      </c>
+      <c r="C7" s="127" t="s">
         <v>299</v>
       </c>
-      <c r="C7" s="127" t="s">
-        <v>300</v>
-      </c>
       <c r="E7" s="127" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F7" s="127" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H7" s="127" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="I7" s="127" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="8" spans="2:9">
       <c r="E8" s="127" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F8" s="127" t="s">
-        <v>326</v>
+        <v>340</v>
       </c>
       <c r="H8" s="127" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="I8" s="127" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="9" spans="2:9">
       <c r="E9" s="127" t="s">
+        <v>313</v>
+      </c>
+      <c r="F9" s="127" t="s">
         <v>314</v>
       </c>
-      <c r="F9" s="127" t="s">
+      <c r="H9" s="127" t="s">
+        <v>313</v>
+      </c>
+      <c r="I9" s="127" t="s">
         <v>315</v>
-      </c>
-      <c r="H9" s="127" t="s">
-        <v>314</v>
-      </c>
-      <c r="I9" s="127" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="10" spans="2:9">
       <c r="E10" s="127" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F10" s="127" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H10" s="127" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="I10" s="127" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="11" spans="2:9">
       <c r="E11" s="127" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F11" s="127" t="s">
-        <v>321</v>
+        <v>339</v>
       </c>
       <c r="H11" s="127" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I11" s="127" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="12" spans="2:9">
       <c r="E12" s="127" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F12" s="127" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="H12" s="127" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I12" s="127" t="s">
-        <v>323</v>
+        <v>321</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9">
+      <c r="E13" s="148" t="s">
+        <v>338</v>
       </c>
     </row>
   </sheetData>
@@ -6943,8 +7000,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S30"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="O28" sqref="O28"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6966,30 +7023,30 @@
       <c r="A3" s="3"/>
     </row>
     <row r="4" spans="1:10" ht="18.75" customHeight="1">
-      <c r="A4" s="166" t="s">
+      <c r="A4" s="169" t="s">
         <v>159</v>
       </c>
-      <c r="B4" s="166" t="s">
+      <c r="B4" s="169" t="s">
         <v>125</v>
       </c>
-      <c r="C4" s="172" t="s">
+      <c r="C4" s="175" t="s">
         <v>124</v>
       </c>
-      <c r="D4" s="173"/>
-      <c r="E4" s="166" t="s">
+      <c r="D4" s="176"/>
+      <c r="E4" s="169" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A5" s="167"/>
-      <c r="B5" s="167"/>
+      <c r="A5" s="170"/>
+      <c r="B5" s="170"/>
       <c r="C5" s="100" t="s">
         <v>202</v>
       </c>
       <c r="D5" s="101" t="s">
         <v>203</v>
       </c>
-      <c r="E5" s="167"/>
+      <c r="E5" s="170"/>
       <c r="J5" s="50" t="s">
         <v>210</v>
       </c>
@@ -7136,10 +7193,10 @@
       <c r="B14" s="86">
         <v>50</v>
       </c>
-      <c r="C14" s="168" t="s">
+      <c r="C14" s="171" t="s">
         <v>208</v>
       </c>
-      <c r="D14" s="169"/>
+      <c r="D14" s="172"/>
       <c r="E14" s="82">
         <v>90</v>
       </c>
@@ -7150,72 +7207,72 @@
       </c>
     </row>
     <row r="17" spans="1:19" ht="32.25" customHeight="1">
-      <c r="A17" s="170" t="s">
+      <c r="A17" s="173" t="s">
         <v>214</v>
       </c>
-      <c r="B17" s="171"/>
-      <c r="C17" s="171" t="s">
+      <c r="B17" s="174"/>
+      <c r="C17" s="174" t="s">
         <v>215</v>
       </c>
-      <c r="D17" s="171"/>
-      <c r="E17" s="171"/>
-      <c r="F17" s="171"/>
-      <c r="G17" s="171"/>
-      <c r="H17" s="174" t="s">
+      <c r="D17" s="174"/>
+      <c r="E17" s="174"/>
+      <c r="F17" s="174"/>
+      <c r="G17" s="174"/>
+      <c r="H17" s="177" t="s">
         <v>216</v>
       </c>
-      <c r="I17" s="174"/>
-      <c r="J17" s="175" t="s">
+      <c r="I17" s="177"/>
+      <c r="J17" s="178" t="s">
         <v>217</v>
       </c>
-      <c r="K17" s="176"/>
+      <c r="K17" s="179"/>
     </row>
     <row r="18" spans="1:19" ht="25.5" customHeight="1">
-      <c r="A18" s="178" t="s">
+      <c r="A18" s="181" t="s">
         <v>288</v>
       </c>
-      <c r="B18" s="179"/>
-      <c r="C18" s="177" t="s">
+      <c r="B18" s="182"/>
+      <c r="C18" s="180" t="s">
         <v>287</v>
       </c>
-      <c r="D18" s="178"/>
-      <c r="E18" s="178"/>
-      <c r="F18" s="179"/>
-      <c r="G18" s="177" t="s">
+      <c r="D18" s="181"/>
+      <c r="E18" s="181"/>
+      <c r="F18" s="182"/>
+      <c r="G18" s="180" t="s">
         <v>222</v>
       </c>
-      <c r="H18" s="178"/>
-      <c r="I18" s="178"/>
-      <c r="J18" s="178"/>
-      <c r="K18" s="178"/>
-      <c r="N18" s="54" t="s">
-        <v>294</v>
+      <c r="H18" s="181"/>
+      <c r="I18" s="181"/>
+      <c r="J18" s="181"/>
+      <c r="K18" s="181"/>
+      <c r="N18" s="150" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="19" spans="1:19" ht="21" customHeight="1">
-      <c r="A19" s="158" t="s">
+      <c r="A19" s="161" t="s">
         <v>76</v>
       </c>
-      <c r="B19" s="157"/>
-      <c r="C19" s="179" t="s">
+      <c r="B19" s="160"/>
+      <c r="C19" s="182" t="s">
         <v>226</v>
       </c>
-      <c r="D19" s="177"/>
+      <c r="D19" s="180"/>
       <c r="E19" s="52" t="s">
         <v>219</v>
       </c>
-      <c r="F19" s="179" t="s">
+      <c r="F19" s="182" t="s">
         <v>218</v>
       </c>
-      <c r="G19" s="157"/>
-      <c r="H19" s="179" t="s">
+      <c r="G19" s="160"/>
+      <c r="H19" s="182" t="s">
         <v>220</v>
       </c>
-      <c r="I19" s="157"/>
-      <c r="J19" s="179" t="s">
+      <c r="I19" s="160"/>
+      <c r="J19" s="182" t="s">
         <v>224</v>
       </c>
-      <c r="K19" s="157"/>
+      <c r="K19" s="160"/>
       <c r="N19" s="49" t="s">
         <v>146</v>
       </c>
@@ -7236,23 +7293,23 @@
       </c>
     </row>
     <row r="20" spans="1:19" ht="21" customHeight="1">
-      <c r="A20" s="179" t="s">
+      <c r="A20" s="182" t="s">
         <v>227</v>
       </c>
-      <c r="B20" s="157"/>
-      <c r="C20" s="179" t="s">
+      <c r="B20" s="160"/>
+      <c r="C20" s="182" t="s">
         <v>229</v>
       </c>
-      <c r="D20" s="157"/>
+      <c r="D20" s="160"/>
       <c r="E20" s="45"/>
-      <c r="F20" s="158"/>
-      <c r="G20" s="157"/>
-      <c r="H20" s="158"/>
-      <c r="I20" s="157"/>
-      <c r="J20" s="179" t="s">
+      <c r="F20" s="161"/>
+      <c r="G20" s="160"/>
+      <c r="H20" s="161"/>
+      <c r="I20" s="160"/>
+      <c r="J20" s="182" t="s">
         <v>225</v>
       </c>
-      <c r="K20" s="157"/>
+      <c r="K20" s="160"/>
       <c r="N20" s="49"/>
       <c r="O20" s="49"/>
       <c r="P20" s="49"/>
@@ -7263,23 +7320,23 @@
       <c r="S20" s="49"/>
     </row>
     <row r="21" spans="1:19" ht="21" customHeight="1">
-      <c r="A21" s="179" t="s">
+      <c r="A21" s="182" t="s">
         <v>227</v>
       </c>
-      <c r="B21" s="157"/>
-      <c r="C21" s="179" t="s">
+      <c r="B21" s="160"/>
+      <c r="C21" s="182" t="s">
         <v>230</v>
       </c>
-      <c r="D21" s="157"/>
+      <c r="D21" s="160"/>
       <c r="E21" s="45"/>
-      <c r="F21" s="158"/>
-      <c r="G21" s="157"/>
-      <c r="H21" s="158"/>
-      <c r="I21" s="157"/>
-      <c r="J21" s="179" t="s">
+      <c r="F21" s="161"/>
+      <c r="G21" s="160"/>
+      <c r="H21" s="161"/>
+      <c r="I21" s="160"/>
+      <c r="J21" s="182" t="s">
         <v>225</v>
       </c>
-      <c r="K21" s="157"/>
+      <c r="K21" s="160"/>
       <c r="N21" s="49"/>
       <c r="O21" s="49"/>
       <c r="P21" s="49"/>
@@ -7288,69 +7345,69 @@
       <c r="S21" s="49"/>
     </row>
     <row r="22" spans="1:19" ht="21" customHeight="1">
-      <c r="A22" s="179" t="s">
+      <c r="A22" s="182" t="s">
         <v>228</v>
       </c>
-      <c r="B22" s="157"/>
-      <c r="C22" s="179" t="s">
+      <c r="B22" s="160"/>
+      <c r="C22" s="182" t="s">
         <v>231</v>
       </c>
-      <c r="D22" s="157"/>
+      <c r="D22" s="160"/>
       <c r="E22" s="49"/>
-      <c r="F22" s="158"/>
-      <c r="G22" s="157"/>
-      <c r="H22" s="158"/>
-      <c r="I22" s="157"/>
-      <c r="J22" s="179" t="s">
+      <c r="F22" s="161"/>
+      <c r="G22" s="160"/>
+      <c r="H22" s="161"/>
+      <c r="I22" s="160"/>
+      <c r="J22" s="182" t="s">
         <v>225</v>
       </c>
-      <c r="K22" s="157"/>
+      <c r="K22" s="160"/>
     </row>
     <row r="23" spans="1:19" ht="21" customHeight="1">
-      <c r="A23" s="179" t="s">
+      <c r="A23" s="182" t="s">
         <v>228</v>
       </c>
-      <c r="B23" s="157"/>
-      <c r="C23" s="179" t="s">
+      <c r="B23" s="160"/>
+      <c r="C23" s="182" t="s">
         <v>232</v>
       </c>
-      <c r="D23" s="157"/>
+      <c r="D23" s="160"/>
       <c r="E23" s="49"/>
-      <c r="F23" s="158"/>
-      <c r="G23" s="157"/>
-      <c r="H23" s="158"/>
-      <c r="I23" s="157"/>
-      <c r="J23" s="179" t="s">
+      <c r="F23" s="161"/>
+      <c r="G23" s="160"/>
+      <c r="H23" s="161"/>
+      <c r="I23" s="160"/>
+      <c r="J23" s="182" t="s">
         <v>225</v>
       </c>
-      <c r="K23" s="157"/>
+      <c r="K23" s="160"/>
     </row>
     <row r="26" spans="1:19" ht="32.25" customHeight="1" thickBot="1">
-      <c r="A26" s="184" t="s">
+      <c r="A26" s="187" t="s">
         <v>214</v>
       </c>
-      <c r="B26" s="185"/>
-      <c r="C26" s="185" t="s">
+      <c r="B26" s="188"/>
+      <c r="C26" s="188" t="s">
         <v>215</v>
       </c>
-      <c r="D26" s="185"/>
-      <c r="E26" s="185"/>
-      <c r="F26" s="185"/>
-      <c r="G26" s="185"/>
-      <c r="H26" s="186" t="s">
+      <c r="D26" s="188"/>
+      <c r="E26" s="188"/>
+      <c r="F26" s="188"/>
+      <c r="G26" s="188"/>
+      <c r="H26" s="189" t="s">
         <v>216</v>
       </c>
-      <c r="I26" s="186"/>
-      <c r="J26" s="174" t="s">
+      <c r="I26" s="189"/>
+      <c r="J26" s="177" t="s">
         <v>217</v>
       </c>
-      <c r="K26" s="174"/>
+      <c r="K26" s="177"/>
     </row>
     <row r="27" spans="1:19" ht="25.5" customHeight="1">
-      <c r="A27" s="187" t="s">
+      <c r="A27" s="190" t="s">
         <v>233</v>
       </c>
-      <c r="B27" s="188"/>
+      <c r="B27" s="191"/>
       <c r="C27" s="60"/>
       <c r="D27" s="61"/>
       <c r="E27" s="62"/>
@@ -7368,49 +7425,49 @@
       <c r="B28" s="59" t="s">
         <v>89</v>
       </c>
-      <c r="C28" s="152" t="s">
+      <c r="C28" s="155" t="s">
         <v>90</v>
       </c>
-      <c r="D28" s="152"/>
-      <c r="E28" s="152" t="s">
+      <c r="D28" s="155"/>
+      <c r="E28" s="155" t="s">
         <v>91</v>
       </c>
-      <c r="F28" s="152"/>
-      <c r="G28" s="180" t="s">
+      <c r="F28" s="155"/>
+      <c r="G28" s="183" t="s">
         <v>92</v>
       </c>
-      <c r="H28" s="181"/>
-      <c r="I28" s="180" t="s">
+      <c r="H28" s="184"/>
+      <c r="I28" s="183" t="s">
         <v>93</v>
       </c>
-      <c r="J28" s="182"/>
-      <c r="K28" s="183"/>
+      <c r="J28" s="185"/>
+      <c r="K28" s="186"/>
     </row>
     <row r="29" spans="1:19" ht="21.75" customHeight="1">
       <c r="A29" s="26"/>
       <c r="B29" s="49"/>
-      <c r="C29" s="153"/>
-      <c r="D29" s="153"/>
-      <c r="E29" s="153"/>
-      <c r="F29" s="153"/>
-      <c r="G29" s="158"/>
-      <c r="H29" s="157"/>
-      <c r="I29" s="158"/>
-      <c r="J29" s="156"/>
-      <c r="K29" s="159"/>
+      <c r="C29" s="156"/>
+      <c r="D29" s="156"/>
+      <c r="E29" s="156"/>
+      <c r="F29" s="156"/>
+      <c r="G29" s="161"/>
+      <c r="H29" s="160"/>
+      <c r="I29" s="161"/>
+      <c r="J29" s="159"/>
+      <c r="K29" s="162"/>
     </row>
     <row r="30" spans="1:19" ht="21.75" customHeight="1" thickBot="1">
       <c r="A30" s="58"/>
       <c r="B30" s="57"/>
-      <c r="C30" s="189"/>
-      <c r="D30" s="189"/>
-      <c r="E30" s="189"/>
-      <c r="F30" s="189"/>
-      <c r="G30" s="190"/>
-      <c r="H30" s="191"/>
-      <c r="I30" s="190"/>
-      <c r="J30" s="192"/>
-      <c r="K30" s="169"/>
+      <c r="C30" s="192"/>
+      <c r="D30" s="192"/>
+      <c r="E30" s="192"/>
+      <c r="F30" s="192"/>
+      <c r="G30" s="193"/>
+      <c r="H30" s="194"/>
+      <c r="I30" s="193"/>
+      <c r="J30" s="195"/>
+      <c r="K30" s="172"/>
     </row>
   </sheetData>
   <mergeCells count="54">
@@ -7478,8 +7535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T110"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:B24"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="B104" sqref="B104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7514,11 +7571,11 @@
       <c r="A5" s="45" t="s">
         <v>146</v>
       </c>
-      <c r="B5" s="158" t="s">
+      <c r="B5" s="161" t="s">
         <v>147</v>
       </c>
-      <c r="C5" s="156"/>
-      <c r="D5" s="157"/>
+      <c r="C5" s="159"/>
+      <c r="D5" s="160"/>
       <c r="E5" s="52" t="s">
         <v>242</v>
       </c>
@@ -7537,11 +7594,11 @@
       <c r="A6" s="66">
         <v>43136.354166666664</v>
       </c>
-      <c r="B6" s="199" t="s">
+      <c r="B6" s="202" t="s">
         <v>235</v>
       </c>
-      <c r="C6" s="200"/>
-      <c r="D6" s="201"/>
+      <c r="C6" s="203"/>
+      <c r="D6" s="204"/>
       <c r="E6" s="45">
         <v>400</v>
       </c>
@@ -7561,11 +7618,11 @@
       <c r="A7" s="66">
         <v>43137.354166608799</v>
       </c>
-      <c r="B7" s="199" t="s">
+      <c r="B7" s="202" t="s">
         <v>289</v>
       </c>
-      <c r="C7" s="200"/>
-      <c r="D7" s="201"/>
+      <c r="C7" s="203"/>
+      <c r="D7" s="204"/>
       <c r="E7" s="125">
         <v>400</v>
       </c>
@@ -7585,11 +7642,11 @@
       <c r="A8" s="66">
         <v>43138.354166608799</v>
       </c>
-      <c r="B8" s="199" t="s">
+      <c r="B8" s="202" t="s">
         <v>290</v>
       </c>
-      <c r="C8" s="200"/>
-      <c r="D8" s="201"/>
+      <c r="C8" s="203"/>
+      <c r="D8" s="204"/>
       <c r="E8" s="125">
         <v>400</v>
       </c>
@@ -7607,45 +7664,45 @@
     </row>
     <row r="9" spans="1:9" ht="37.5" customHeight="1">
       <c r="A9" s="3" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="21" thickBot="1">
       <c r="A10" s="3"/>
     </row>
     <row r="11" spans="1:9" ht="27.75" customHeight="1">
-      <c r="A11" s="195" t="s">
+      <c r="A11" s="198" t="s">
         <v>159</v>
       </c>
-      <c r="B11" s="206" t="s">
+      <c r="B11" s="209" t="s">
         <v>125</v>
       </c>
-      <c r="C11" s="207"/>
-      <c r="D11" s="208"/>
-      <c r="E11" s="202" t="s">
+      <c r="C11" s="210"/>
+      <c r="D11" s="211"/>
+      <c r="E11" s="205" t="s">
         <v>220</v>
       </c>
-      <c r="F11" s="203"/>
-      <c r="G11" s="204" t="s">
+      <c r="F11" s="206"/>
+      <c r="G11" s="207" t="s">
         <v>242</v>
       </c>
-      <c r="H11" s="193" t="s">
+      <c r="H11" s="196" t="s">
         <v>239</v>
       </c>
-      <c r="I11" s="197" t="s">
+      <c r="I11" s="200" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="27.75" customHeight="1">
-      <c r="A12" s="196"/>
+      <c r="A12" s="199"/>
       <c r="B12" s="133" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C12" s="134" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="D12" s="135" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="E12" s="128" t="s">
         <v>202</v>
@@ -7653,9 +7710,9 @@
       <c r="F12" s="145" t="s">
         <v>236</v>
       </c>
-      <c r="G12" s="205"/>
-      <c r="H12" s="194"/>
-      <c r="I12" s="198"/>
+      <c r="G12" s="208"/>
+      <c r="H12" s="197"/>
+      <c r="I12" s="201"/>
     </row>
     <row r="13" spans="1:9" ht="27.75" customHeight="1">
       <c r="A13" s="75">
@@ -7864,15 +7921,15 @@
       <c r="A20" s="78" t="s">
         <v>132</v>
       </c>
-      <c r="B20" s="209" t="s">
-        <v>330</v>
-      </c>
-      <c r="C20" s="210"/>
-      <c r="D20" s="211"/>
-      <c r="E20" s="212" t="s">
-        <v>329</v>
-      </c>
-      <c r="F20" s="213"/>
+      <c r="B20" s="212" t="s">
+        <v>327</v>
+      </c>
+      <c r="C20" s="213"/>
+      <c r="D20" s="214"/>
+      <c r="E20" s="215" t="s">
+        <v>326</v>
+      </c>
+      <c r="F20" s="216"/>
       <c r="G20" s="132">
         <v>2888</v>
       </c>
@@ -7886,84 +7943,87 @@
     <row r="22" spans="1:20" ht="30" customHeight="1"/>
     <row r="23" spans="1:20" ht="44.25" customHeight="1">
       <c r="A23" s="3" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
     </row>
     <row r="24" spans="1:20" ht="25.5" customHeight="1">
-      <c r="A24" s="170" t="s">
+      <c r="A24" s="173" t="s">
         <v>214</v>
       </c>
-      <c r="B24" s="171"/>
-      <c r="C24" s="171" t="s">
+      <c r="B24" s="174"/>
+      <c r="C24" s="174" t="s">
         <v>245</v>
       </c>
-      <c r="D24" s="171"/>
-      <c r="E24" s="171"/>
-      <c r="F24" s="171"/>
-      <c r="G24" s="171"/>
+      <c r="D24" s="174"/>
+      <c r="E24" s="174"/>
+      <c r="F24" s="174"/>
+      <c r="G24" s="174"/>
       <c r="H24" s="110"/>
-      <c r="I24" s="214" t="s">
+      <c r="I24" s="217" t="s">
         <v>216</v>
       </c>
-      <c r="J24" s="214"/>
-      <c r="K24" s="175" t="s">
+      <c r="J24" s="217"/>
+      <c r="K24" s="178" t="s">
         <v>244</v>
       </c>
-      <c r="L24" s="176"/>
+      <c r="L24" s="179"/>
+      <c r="O24" s="3" t="s">
+        <v>338</v>
+      </c>
     </row>
     <row r="25" spans="1:20" ht="29.25" customHeight="1">
-      <c r="A25" s="178" t="s">
+      <c r="A25" s="181" t="s">
         <v>223</v>
       </c>
-      <c r="B25" s="179"/>
-      <c r="C25" s="177" t="s">
+      <c r="B25" s="182"/>
+      <c r="C25" s="180" t="s">
         <v>221</v>
       </c>
-      <c r="D25" s="178"/>
-      <c r="E25" s="178"/>
-      <c r="F25" s="179"/>
-      <c r="G25" s="177" t="s">
+      <c r="D25" s="181"/>
+      <c r="E25" s="181"/>
+      <c r="F25" s="182"/>
+      <c r="G25" s="180" t="s">
         <v>222</v>
       </c>
-      <c r="H25" s="177"/>
-      <c r="I25" s="178"/>
-      <c r="J25" s="178"/>
-      <c r="K25" s="178"/>
-      <c r="L25" s="178"/>
-      <c r="O25" s="230" t="s">
+      <c r="H25" s="180"/>
+      <c r="I25" s="181"/>
+      <c r="J25" s="181"/>
+      <c r="K25" s="181"/>
+      <c r="L25" s="181"/>
+      <c r="O25" s="233" t="s">
         <v>204</v>
       </c>
-      <c r="P25" s="230"/>
-      <c r="Q25" s="230"/>
-      <c r="R25" s="230"/>
-      <c r="S25" s="230"/>
-      <c r="T25" s="230"/>
+      <c r="P25" s="233"/>
+      <c r="Q25" s="233"/>
+      <c r="R25" s="233"/>
+      <c r="S25" s="233"/>
+      <c r="T25" s="233"/>
     </row>
     <row r="26" spans="1:20" ht="29.25" customHeight="1">
-      <c r="A26" s="215" t="s">
+      <c r="A26" s="218" t="s">
         <v>76</v>
       </c>
-      <c r="B26" s="216"/>
-      <c r="C26" s="217" t="s">
+      <c r="B26" s="219"/>
+      <c r="C26" s="220" t="s">
         <v>226</v>
       </c>
-      <c r="D26" s="218"/>
-      <c r="E26" s="234" t="s">
+      <c r="D26" s="221"/>
+      <c r="E26" s="237" t="s">
         <v>219</v>
       </c>
-      <c r="F26" s="232"/>
-      <c r="G26" s="232" t="s">
+      <c r="F26" s="235"/>
+      <c r="G26" s="235" t="s">
         <v>218</v>
       </c>
-      <c r="H26" s="233"/>
-      <c r="I26" s="217" t="s">
+      <c r="H26" s="236"/>
+      <c r="I26" s="220" t="s">
         <v>220</v>
       </c>
-      <c r="J26" s="216"/>
-      <c r="K26" s="217" t="s">
+      <c r="J26" s="219"/>
+      <c r="K26" s="220" t="s">
         <v>224</v>
       </c>
-      <c r="L26" s="216"/>
+      <c r="L26" s="219"/>
       <c r="O26" s="59" t="s">
         <v>146</v>
       </c>
@@ -7984,26 +8044,26 @@
       </c>
     </row>
     <row r="27" spans="1:20" ht="29.25" customHeight="1">
-      <c r="A27" s="179" t="s">
+      <c r="A27" s="182" t="s">
         <v>227</v>
       </c>
-      <c r="B27" s="157"/>
-      <c r="C27" s="179" t="s">
+      <c r="B27" s="160"/>
+      <c r="C27" s="182" t="s">
         <v>229</v>
       </c>
-      <c r="D27" s="156"/>
-      <c r="E27" s="223"/>
-      <c r="F27" s="223"/>
-      <c r="G27" s="223"/>
-      <c r="H27" s="223"/>
-      <c r="I27" s="219" t="s">
+      <c r="D27" s="159"/>
+      <c r="E27" s="226"/>
+      <c r="F27" s="226"/>
+      <c r="G27" s="226"/>
+      <c r="H27" s="226"/>
+      <c r="I27" s="222" t="s">
         <v>243</v>
       </c>
-      <c r="J27" s="220"/>
-      <c r="K27" s="179" t="s">
+      <c r="J27" s="223"/>
+      <c r="K27" s="182" t="s">
         <v>225</v>
       </c>
-      <c r="L27" s="157"/>
+      <c r="L27" s="160"/>
       <c r="O27" s="49"/>
       <c r="P27" s="49"/>
       <c r="Q27" s="49"/>
@@ -8014,26 +8074,26 @@
       <c r="T27" s="49"/>
     </row>
     <row r="28" spans="1:20" ht="29.25" customHeight="1">
-      <c r="A28" s="179" t="s">
+      <c r="A28" s="182" t="s">
         <v>227</v>
       </c>
-      <c r="B28" s="157"/>
-      <c r="C28" s="179" t="s">
+      <c r="B28" s="160"/>
+      <c r="C28" s="182" t="s">
         <v>230</v>
       </c>
-      <c r="D28" s="156"/>
-      <c r="E28" s="223"/>
-      <c r="F28" s="223"/>
-      <c r="G28" s="223"/>
-      <c r="H28" s="223"/>
-      <c r="I28" s="221" t="s">
+      <c r="D28" s="159"/>
+      <c r="E28" s="226"/>
+      <c r="F28" s="226"/>
+      <c r="G28" s="226"/>
+      <c r="H28" s="226"/>
+      <c r="I28" s="224" t="s">
         <v>272</v>
       </c>
-      <c r="J28" s="222"/>
-      <c r="K28" s="179" t="s">
+      <c r="J28" s="225"/>
+      <c r="K28" s="182" t="s">
         <v>225</v>
       </c>
-      <c r="L28" s="157"/>
+      <c r="L28" s="160"/>
       <c r="O28" s="49"/>
       <c r="P28" s="49"/>
       <c r="Q28" s="49"/>
@@ -8042,87 +8102,87 @@
       <c r="T28" s="49"/>
     </row>
     <row r="29" spans="1:20" ht="29.25" customHeight="1">
-      <c r="A29" s="179" t="s">
-        <v>228</v>
-      </c>
-      <c r="B29" s="157"/>
-      <c r="C29" s="179" t="s">
+      <c r="A29" s="182" t="s">
+        <v>227</v>
+      </c>
+      <c r="B29" s="160"/>
+      <c r="C29" s="182" t="s">
         <v>231</v>
       </c>
-      <c r="D29" s="156"/>
-      <c r="E29" s="223"/>
-      <c r="F29" s="223"/>
-      <c r="G29" s="223"/>
-      <c r="H29" s="223"/>
-      <c r="I29" s="156"/>
-      <c r="J29" s="157"/>
-      <c r="K29" s="179" t="s">
+      <c r="D29" s="159"/>
+      <c r="E29" s="226"/>
+      <c r="F29" s="226"/>
+      <c r="G29" s="226"/>
+      <c r="H29" s="226"/>
+      <c r="I29" s="159"/>
+      <c r="J29" s="160"/>
+      <c r="K29" s="182" t="s">
         <v>225</v>
       </c>
-      <c r="L29" s="157"/>
+      <c r="L29" s="160"/>
     </row>
     <row r="30" spans="1:20" ht="29.25" customHeight="1">
-      <c r="A30" s="179" t="s">
-        <v>228</v>
-      </c>
-      <c r="B30" s="157"/>
-      <c r="C30" s="179" t="s">
+      <c r="A30" s="182" t="s">
+        <v>227</v>
+      </c>
+      <c r="B30" s="160"/>
+      <c r="C30" s="182" t="s">
         <v>232</v>
       </c>
-      <c r="D30" s="156"/>
-      <c r="E30" s="223"/>
-      <c r="F30" s="223"/>
-      <c r="G30" s="223"/>
-      <c r="H30" s="223"/>
-      <c r="I30" s="156"/>
-      <c r="J30" s="157"/>
-      <c r="K30" s="179" t="s">
+      <c r="D30" s="159"/>
+      <c r="E30" s="226"/>
+      <c r="F30" s="226"/>
+      <c r="G30" s="226"/>
+      <c r="H30" s="226"/>
+      <c r="I30" s="159"/>
+      <c r="J30" s="160"/>
+      <c r="K30" s="182" t="s">
         <v>225</v>
       </c>
-      <c r="L30" s="157"/>
+      <c r="L30" s="160"/>
     </row>
     <row r="31" spans="1:20" ht="29.25" customHeight="1"/>
     <row r="32" spans="1:20" ht="29.25" customHeight="1">
-      <c r="A32" s="170" t="s">
+      <c r="A32" s="173" t="s">
         <v>214</v>
       </c>
-      <c r="B32" s="171"/>
-      <c r="C32" s="171" t="s">
+      <c r="B32" s="174"/>
+      <c r="C32" s="174" t="s">
         <v>245</v>
       </c>
-      <c r="D32" s="171"/>
-      <c r="E32" s="171"/>
-      <c r="F32" s="171"/>
-      <c r="G32" s="171"/>
+      <c r="D32" s="174"/>
+      <c r="E32" s="174"/>
+      <c r="F32" s="174"/>
+      <c r="G32" s="174"/>
       <c r="H32" s="110"/>
-      <c r="I32" s="175" t="s">
+      <c r="I32" s="178" t="s">
         <v>216</v>
       </c>
-      <c r="J32" s="175"/>
-      <c r="K32" s="214" t="s">
+      <c r="J32" s="178"/>
+      <c r="K32" s="217" t="s">
         <v>244</v>
       </c>
-      <c r="L32" s="214"/>
+      <c r="L32" s="217"/>
     </row>
     <row r="33" spans="1:12" ht="29.25" customHeight="1">
-      <c r="A33" s="178" t="s">
+      <c r="A33" s="181" t="s">
         <v>246</v>
       </c>
-      <c r="B33" s="179"/>
-      <c r="C33" s="231"/>
-      <c r="D33" s="231"/>
-      <c r="E33" s="231" t="s">
+      <c r="B33" s="182"/>
+      <c r="C33" s="234"/>
+      <c r="D33" s="234"/>
+      <c r="E33" s="234" t="s">
         <v>270</v>
       </c>
-      <c r="F33" s="231"/>
-      <c r="G33" s="231"/>
+      <c r="F33" s="234"/>
+      <c r="G33" s="234"/>
       <c r="H33" s="67"/>
-      <c r="I33" s="231" t="s">
+      <c r="I33" s="234" t="s">
         <v>266</v>
       </c>
-      <c r="J33" s="231"/>
-      <c r="K33" s="231"/>
-      <c r="L33" s="177"/>
+      <c r="J33" s="234"/>
+      <c r="K33" s="234"/>
+      <c r="L33" s="180"/>
     </row>
     <row r="34" spans="1:12" ht="29.25" customHeight="1">
       <c r="A34" s="87" t="s">
@@ -8131,57 +8191,57 @@
       <c r="B34" s="89" t="s">
         <v>248</v>
       </c>
-      <c r="C34" s="224" t="s">
+      <c r="C34" s="227" t="s">
         <v>249</v>
       </c>
-      <c r="D34" s="225"/>
-      <c r="E34" s="224" t="s">
+      <c r="D34" s="228"/>
+      <c r="E34" s="227" t="s">
         <v>250</v>
       </c>
-      <c r="F34" s="225"/>
-      <c r="G34" s="226" t="s">
+      <c r="F34" s="228"/>
+      <c r="G34" s="229" t="s">
         <v>236</v>
       </c>
-      <c r="H34" s="227"/>
-      <c r="I34" s="228"/>
-      <c r="J34" s="226" t="s">
+      <c r="H34" s="230"/>
+      <c r="I34" s="231"/>
+      <c r="J34" s="229" t="s">
         <v>224</v>
       </c>
-      <c r="K34" s="229"/>
-      <c r="L34" s="228"/>
+      <c r="K34" s="232"/>
+      <c r="L34" s="231"/>
     </row>
     <row r="35" spans="1:12" ht="29.25" customHeight="1">
       <c r="A35" s="49"/>
       <c r="B35" s="49"/>
-      <c r="C35" s="153"/>
-      <c r="D35" s="153"/>
-      <c r="E35" s="153"/>
-      <c r="F35" s="153"/>
-      <c r="G35" s="158"/>
-      <c r="H35" s="156"/>
-      <c r="I35" s="157"/>
-      <c r="J35" s="158"/>
-      <c r="K35" s="156"/>
-      <c r="L35" s="157"/>
+      <c r="C35" s="156"/>
+      <c r="D35" s="156"/>
+      <c r="E35" s="156"/>
+      <c r="F35" s="156"/>
+      <c r="G35" s="161"/>
+      <c r="H35" s="159"/>
+      <c r="I35" s="160"/>
+      <c r="J35" s="161"/>
+      <c r="K35" s="159"/>
+      <c r="L35" s="160"/>
     </row>
     <row r="36" spans="1:12" ht="29.25" customHeight="1">
       <c r="A36" s="49"/>
       <c r="B36" s="49"/>
-      <c r="C36" s="153"/>
-      <c r="D36" s="153"/>
-      <c r="E36" s="153"/>
-      <c r="F36" s="153"/>
-      <c r="G36" s="158"/>
-      <c r="H36" s="156"/>
-      <c r="I36" s="157"/>
-      <c r="J36" s="158"/>
-      <c r="K36" s="156"/>
-      <c r="L36" s="157"/>
+      <c r="C36" s="156"/>
+      <c r="D36" s="156"/>
+      <c r="E36" s="156"/>
+      <c r="F36" s="156"/>
+      <c r="G36" s="161"/>
+      <c r="H36" s="159"/>
+      <c r="I36" s="160"/>
+      <c r="J36" s="161"/>
+      <c r="K36" s="159"/>
+      <c r="L36" s="160"/>
     </row>
     <row r="38" spans="1:12" ht="47.25" customHeight="1"/>
     <row r="39" spans="1:12" ht="45" customHeight="1">
       <c r="A39" s="3" t="s">
-        <v>170</v>
+        <v>331</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="43.5" customHeight="1">
@@ -8197,10 +8257,10 @@
       <c r="D40" s="116" t="s">
         <v>282</v>
       </c>
-      <c r="E40" s="237" t="s">
+      <c r="E40" s="240" t="s">
         <v>283</v>
       </c>
-      <c r="F40" s="238"/>
+      <c r="F40" s="241"/>
       <c r="G40" s="34"/>
       <c r="H40" s="34"/>
       <c r="I40" s="11"/>
@@ -8335,7 +8395,7 @@
     <row r="48" spans="1:12" ht="76.5" customHeight="1"/>
     <row r="49" spans="1:8" ht="30" customHeight="1">
       <c r="A49" s="3" t="s">
-        <v>175</v>
+        <v>332</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -8421,6 +8481,11 @@
       <c r="G58" s="49"/>
       <c r="H58" s="11"/>
     </row>
+    <row r="63" spans="1:8" ht="20.25">
+      <c r="A63" s="3" t="s">
+        <v>333</v>
+      </c>
+    </row>
     <row r="64" spans="1:8" ht="22.5">
       <c r="A64" s="3" t="s">
         <v>181</v>
@@ -8465,12 +8530,12 @@
       <c r="E89" s="45"/>
     </row>
     <row r="90" spans="1:8" ht="32.25" customHeight="1">
-      <c r="A90" t="s">
-        <v>189</v>
+      <c r="A90" s="3" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="91" spans="1:8">
-      <c r="B91" s="153" t="s">
+      <c r="B91" s="156" t="s">
         <v>190</v>
       </c>
       <c r="C91" s="49" t="s">
@@ -8480,14 +8545,14 @@
       <c r="E91" s="104" t="s">
         <v>191</v>
       </c>
-      <c r="F91" s="235" t="s">
+      <c r="F91" s="238" t="s">
         <v>260</v>
       </c>
-      <c r="G91" s="236"/>
+      <c r="G91" s="239"/>
       <c r="H91" s="112"/>
     </row>
     <row r="92" spans="1:8">
-      <c r="B92" s="153"/>
+      <c r="B92" s="156"/>
       <c r="C92" s="49" t="s">
         <v>127</v>
       </c>
@@ -8495,12 +8560,12 @@
       <c r="E92" s="104" t="s">
         <v>191</v>
       </c>
-      <c r="F92" s="236"/>
-      <c r="G92" s="236"/>
+      <c r="F92" s="239"/>
+      <c r="G92" s="239"/>
       <c r="H92" s="112"/>
     </row>
     <row r="93" spans="1:8">
-      <c r="B93" s="153" t="s">
+      <c r="B93" s="156" t="s">
         <v>192</v>
       </c>
       <c r="C93" s="49" t="s">
@@ -8510,12 +8575,12 @@
       <c r="E93" s="104" t="s">
         <v>191</v>
       </c>
-      <c r="F93" s="236"/>
-      <c r="G93" s="236"/>
+      <c r="F93" s="239"/>
+      <c r="G93" s="239"/>
       <c r="H93" s="112"/>
     </row>
     <row r="94" spans="1:8">
-      <c r="B94" s="153"/>
+      <c r="B94" s="156"/>
       <c r="C94" s="49" t="s">
         <v>16</v>
       </c>
@@ -8523,12 +8588,12 @@
       <c r="E94" s="104" t="s">
         <v>191</v>
       </c>
-      <c r="F94" s="236"/>
-      <c r="G94" s="236"/>
+      <c r="F94" s="239"/>
+      <c r="G94" s="239"/>
       <c r="H94" s="112"/>
     </row>
     <row r="95" spans="1:8">
-      <c r="B95" s="153"/>
+      <c r="B95" s="156"/>
       <c r="C95" s="49" t="s">
         <v>115</v>
       </c>
@@ -8536,12 +8601,12 @@
       <c r="E95" s="104" t="s">
         <v>191</v>
       </c>
-      <c r="F95" s="236"/>
-      <c r="G95" s="236"/>
+      <c r="F95" s="239"/>
+      <c r="G95" s="239"/>
       <c r="H95" s="112"/>
     </row>
     <row r="96" spans="1:8">
-      <c r="B96" s="153"/>
+      <c r="B96" s="156"/>
       <c r="C96" s="51" t="s">
         <v>261</v>
       </c>
@@ -8570,9 +8635,9 @@
         <v>195</v>
       </c>
     </row>
-    <row r="101" spans="1:5">
-      <c r="A101" t="s">
-        <v>196</v>
+    <row r="101" spans="1:5" ht="18.75">
+      <c r="A101" s="149" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -8704,6 +8769,7 @@
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -8746,43 +8812,43 @@
       <c r="A5" s="45" t="s">
         <v>146</v>
       </c>
-      <c r="B5" s="158" t="s">
+      <c r="B5" s="161" t="s">
         <v>147</v>
       </c>
-      <c r="C5" s="156"/>
-      <c r="D5" s="157"/>
+      <c r="C5" s="159"/>
+      <c r="D5" s="160"/>
       <c r="E5" s="52" t="s">
         <v>242</v>
       </c>
       <c r="F5" s="45" t="s">
         <v>117</v>
       </c>
-      <c r="G5" s="179" t="s">
+      <c r="G5" s="182" t="s">
         <v>205</v>
       </c>
-      <c r="H5" s="231"/>
-      <c r="I5" s="177"/>
+      <c r="H5" s="234"/>
+      <c r="I5" s="180"/>
     </row>
     <row r="6" spans="1:16" ht="78.75" customHeight="1">
       <c r="A6" s="66">
         <v>43136.354166666664</v>
       </c>
-      <c r="B6" s="199" t="s">
+      <c r="B6" s="202" t="s">
         <v>235</v>
       </c>
-      <c r="C6" s="200"/>
-      <c r="D6" s="201"/>
+      <c r="C6" s="203"/>
+      <c r="D6" s="204"/>
       <c r="E6" s="45">
         <v>400</v>
       </c>
       <c r="F6" s="45">
         <v>200</v>
       </c>
-      <c r="G6" s="158">
+      <c r="G6" s="161">
         <v>200</v>
       </c>
-      <c r="H6" s="156"/>
-      <c r="I6" s="157"/>
+      <c r="H6" s="159"/>
+      <c r="I6" s="160"/>
     </row>
     <row r="8" spans="1:16" ht="30" customHeight="1"/>
     <row r="9" spans="1:16" ht="37.5" customHeight="1">
@@ -8794,30 +8860,30 @@
       <c r="A10" s="3"/>
     </row>
     <row r="11" spans="1:16" ht="27.75" customHeight="1">
-      <c r="A11" s="195" t="s">
+      <c r="A11" s="198" t="s">
         <v>159</v>
       </c>
-      <c r="B11" s="239" t="s">
+      <c r="B11" s="242" t="s">
         <v>125</v>
       </c>
-      <c r="C11" s="240"/>
-      <c r="D11" s="241"/>
-      <c r="E11" s="239" t="s">
+      <c r="C11" s="243"/>
+      <c r="D11" s="244"/>
+      <c r="E11" s="242" t="s">
         <v>220</v>
       </c>
-      <c r="F11" s="241"/>
-      <c r="G11" s="195" t="s">
+      <c r="F11" s="244"/>
+      <c r="G11" s="198" t="s">
         <v>242</v>
       </c>
-      <c r="H11" s="195" t="s">
+      <c r="H11" s="198" t="s">
         <v>239</v>
       </c>
-      <c r="I11" s="197" t="s">
+      <c r="I11" s="200" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="27.75" customHeight="1">
-      <c r="A12" s="196"/>
+      <c r="A12" s="199"/>
       <c r="B12" s="79" t="s">
         <v>264</v>
       </c>
@@ -8833,9 +8899,9 @@
       <c r="F12" s="80" t="s">
         <v>236</v>
       </c>
-      <c r="G12" s="196"/>
-      <c r="H12" s="196"/>
-      <c r="I12" s="249"/>
+      <c r="G12" s="199"/>
+      <c r="H12" s="199"/>
+      <c r="I12" s="252"/>
       <c r="J12" s="124" t="s">
         <v>286</v>
       </c>
@@ -9076,15 +9142,15 @@
       <c r="A20" s="78" t="s">
         <v>132</v>
       </c>
-      <c r="B20" s="242" t="s">
+      <c r="B20" s="245" t="s">
         <v>241</v>
       </c>
-      <c r="C20" s="243"/>
-      <c r="D20" s="244"/>
-      <c r="E20" s="242" t="s">
+      <c r="C20" s="246"/>
+      <c r="D20" s="247"/>
+      <c r="E20" s="245" t="s">
         <v>240</v>
       </c>
-      <c r="F20" s="244"/>
+      <c r="F20" s="247"/>
       <c r="G20" s="86">
         <v>2888</v>
       </c>
@@ -9096,10 +9162,10 @@
       </c>
     </row>
     <row r="21" spans="1:20" ht="23.25" customHeight="1">
-      <c r="E21" s="246" t="s">
+      <c r="E21" s="249" t="s">
         <v>273</v>
       </c>
-      <c r="F21" s="246"/>
+      <c r="F21" s="249"/>
     </row>
     <row r="22" spans="1:20" ht="30" customHeight="1"/>
     <row r="23" spans="1:20" ht="44.25" customHeight="1">
@@ -9108,82 +9174,82 @@
       </c>
     </row>
     <row r="24" spans="1:20" ht="25.5" customHeight="1">
-      <c r="A24" s="170" t="s">
+      <c r="A24" s="173" t="s">
         <v>214</v>
       </c>
-      <c r="B24" s="171"/>
-      <c r="C24" s="171" t="s">
+      <c r="B24" s="174"/>
+      <c r="C24" s="174" t="s">
         <v>271</v>
       </c>
-      <c r="D24" s="171"/>
-      <c r="E24" s="171"/>
-      <c r="F24" s="171"/>
-      <c r="G24" s="171"/>
+      <c r="D24" s="174"/>
+      <c r="E24" s="174"/>
+      <c r="F24" s="174"/>
+      <c r="G24" s="174"/>
       <c r="H24" s="110"/>
-      <c r="I24" s="214" t="s">
+      <c r="I24" s="217" t="s">
         <v>267</v>
       </c>
-      <c r="J24" s="214"/>
-      <c r="K24" s="175" t="s">
+      <c r="J24" s="217"/>
+      <c r="K24" s="178" t="s">
         <v>244</v>
       </c>
-      <c r="L24" s="176"/>
+      <c r="L24" s="179"/>
     </row>
     <row r="25" spans="1:20" ht="29.25" customHeight="1">
-      <c r="A25" s="178" t="s">
+      <c r="A25" s="181" t="s">
         <v>268</v>
       </c>
-      <c r="B25" s="179"/>
-      <c r="C25" s="231" t="s">
+      <c r="B25" s="182"/>
+      <c r="C25" s="234" t="s">
         <v>270</v>
       </c>
-      <c r="D25" s="231"/>
-      <c r="E25" s="247" t="s">
+      <c r="D25" s="234"/>
+      <c r="E25" s="250" t="s">
         <v>269</v>
       </c>
-      <c r="F25" s="247"/>
-      <c r="G25" s="247"/>
+      <c r="F25" s="250"/>
+      <c r="G25" s="250"/>
       <c r="H25" s="114"/>
-      <c r="I25" s="231" t="s">
+      <c r="I25" s="234" t="s">
         <v>266</v>
       </c>
-      <c r="J25" s="231"/>
-      <c r="K25" s="231"/>
-      <c r="L25" s="177"/>
-      <c r="O25" s="230" t="s">
+      <c r="J25" s="234"/>
+      <c r="K25" s="234"/>
+      <c r="L25" s="180"/>
+      <c r="O25" s="233" t="s">
         <v>204</v>
       </c>
-      <c r="P25" s="230"/>
-      <c r="Q25" s="230"/>
-      <c r="R25" s="230"/>
-      <c r="S25" s="230"/>
-      <c r="T25" s="230"/>
+      <c r="P25" s="233"/>
+      <c r="Q25" s="233"/>
+      <c r="R25" s="233"/>
+      <c r="S25" s="233"/>
+      <c r="T25" s="233"/>
     </row>
     <row r="26" spans="1:20" ht="29.25" customHeight="1">
-      <c r="A26" s="215" t="s">
+      <c r="A26" s="218" t="s">
         <v>76</v>
       </c>
-      <c r="B26" s="216"/>
-      <c r="C26" s="217" t="s">
+      <c r="B26" s="219"/>
+      <c r="C26" s="220" t="s">
         <v>226</v>
       </c>
-      <c r="D26" s="245"/>
-      <c r="E26" s="248" t="s">
+      <c r="D26" s="248"/>
+      <c r="E26" s="251" t="s">
         <v>219</v>
       </c>
-      <c r="F26" s="248"/>
-      <c r="G26" s="248" t="s">
+      <c r="F26" s="251"/>
+      <c r="G26" s="251" t="s">
         <v>218</v>
       </c>
-      <c r="H26" s="248"/>
-      <c r="I26" s="245" t="s">
+      <c r="H26" s="251"/>
+      <c r="I26" s="248" t="s">
         <v>220</v>
       </c>
-      <c r="J26" s="216"/>
-      <c r="K26" s="217" t="s">
+      <c r="J26" s="219"/>
+      <c r="K26" s="220" t="s">
         <v>224</v>
       </c>
-      <c r="L26" s="216"/>
+      <c r="L26" s="219"/>
       <c r="O26" s="59" t="s">
         <v>146</v>
       </c>
@@ -9204,26 +9270,26 @@
       </c>
     </row>
     <row r="27" spans="1:20" ht="29.25" customHeight="1">
-      <c r="A27" s="179" t="s">
+      <c r="A27" s="182" t="s">
         <v>227</v>
       </c>
-      <c r="B27" s="157"/>
-      <c r="C27" s="179" t="s">
+      <c r="B27" s="160"/>
+      <c r="C27" s="182" t="s">
         <v>229</v>
       </c>
-      <c r="D27" s="156"/>
-      <c r="E27" s="223"/>
-      <c r="F27" s="223"/>
-      <c r="G27" s="223"/>
-      <c r="H27" s="223"/>
-      <c r="I27" s="219" t="s">
+      <c r="D27" s="159"/>
+      <c r="E27" s="226"/>
+      <c r="F27" s="226"/>
+      <c r="G27" s="226"/>
+      <c r="H27" s="226"/>
+      <c r="I27" s="222" t="s">
         <v>243</v>
       </c>
-      <c r="J27" s="220"/>
-      <c r="K27" s="179" t="s">
+      <c r="J27" s="223"/>
+      <c r="K27" s="182" t="s">
         <v>225</v>
       </c>
-      <c r="L27" s="157"/>
+      <c r="L27" s="160"/>
       <c r="O27" s="49"/>
       <c r="P27" s="49"/>
       <c r="Q27" s="49"/>
@@ -9234,26 +9300,26 @@
       <c r="T27" s="49"/>
     </row>
     <row r="28" spans="1:20" ht="29.25" customHeight="1">
-      <c r="A28" s="179" t="s">
+      <c r="A28" s="182" t="s">
         <v>227</v>
       </c>
-      <c r="B28" s="157"/>
-      <c r="C28" s="179" t="s">
+      <c r="B28" s="160"/>
+      <c r="C28" s="182" t="s">
         <v>230</v>
       </c>
-      <c r="D28" s="156"/>
-      <c r="E28" s="223"/>
-      <c r="F28" s="223"/>
-      <c r="G28" s="223"/>
-      <c r="H28" s="223"/>
-      <c r="I28" s="221" t="s">
+      <c r="D28" s="159"/>
+      <c r="E28" s="226"/>
+      <c r="F28" s="226"/>
+      <c r="G28" s="226"/>
+      <c r="H28" s="226"/>
+      <c r="I28" s="224" t="s">
         <v>273</v>
       </c>
-      <c r="J28" s="222"/>
-      <c r="K28" s="179" t="s">
+      <c r="J28" s="225"/>
+      <c r="K28" s="182" t="s">
         <v>225</v>
       </c>
-      <c r="L28" s="157"/>
+      <c r="L28" s="160"/>
       <c r="O28" s="49"/>
       <c r="P28" s="49"/>
       <c r="Q28" s="49"/>
@@ -9262,87 +9328,87 @@
       <c r="T28" s="49"/>
     </row>
     <row r="29" spans="1:20" ht="29.25" customHeight="1">
-      <c r="A29" s="179" t="s">
+      <c r="A29" s="182" t="s">
         <v>228</v>
       </c>
-      <c r="B29" s="157"/>
-      <c r="C29" s="179" t="s">
+      <c r="B29" s="160"/>
+      <c r="C29" s="182" t="s">
         <v>231</v>
       </c>
-      <c r="D29" s="156"/>
-      <c r="E29" s="223"/>
-      <c r="F29" s="223"/>
-      <c r="G29" s="223"/>
-      <c r="H29" s="223"/>
-      <c r="I29" s="156"/>
-      <c r="J29" s="157"/>
-      <c r="K29" s="179" t="s">
+      <c r="D29" s="159"/>
+      <c r="E29" s="226"/>
+      <c r="F29" s="226"/>
+      <c r="G29" s="226"/>
+      <c r="H29" s="226"/>
+      <c r="I29" s="159"/>
+      <c r="J29" s="160"/>
+      <c r="K29" s="182" t="s">
         <v>225</v>
       </c>
-      <c r="L29" s="157"/>
+      <c r="L29" s="160"/>
     </row>
     <row r="30" spans="1:20" ht="29.25" customHeight="1">
-      <c r="A30" s="179" t="s">
+      <c r="A30" s="182" t="s">
         <v>228</v>
       </c>
-      <c r="B30" s="157"/>
-      <c r="C30" s="179" t="s">
+      <c r="B30" s="160"/>
+      <c r="C30" s="182" t="s">
         <v>232</v>
       </c>
-      <c r="D30" s="156"/>
-      <c r="E30" s="223"/>
-      <c r="F30" s="223"/>
-      <c r="G30" s="223"/>
-      <c r="H30" s="223"/>
-      <c r="I30" s="156"/>
-      <c r="J30" s="157"/>
-      <c r="K30" s="179" t="s">
+      <c r="D30" s="159"/>
+      <c r="E30" s="226"/>
+      <c r="F30" s="226"/>
+      <c r="G30" s="226"/>
+      <c r="H30" s="226"/>
+      <c r="I30" s="159"/>
+      <c r="J30" s="160"/>
+      <c r="K30" s="182" t="s">
         <v>225</v>
       </c>
-      <c r="L30" s="157"/>
+      <c r="L30" s="160"/>
     </row>
     <row r="31" spans="1:20" ht="29.25" customHeight="1"/>
     <row r="32" spans="1:20" ht="29.25" customHeight="1">
-      <c r="A32" s="170" t="s">
+      <c r="A32" s="173" t="s">
         <v>214</v>
       </c>
-      <c r="B32" s="171"/>
-      <c r="C32" s="171" t="s">
+      <c r="B32" s="174"/>
+      <c r="C32" s="174" t="s">
         <v>271</v>
       </c>
-      <c r="D32" s="171"/>
-      <c r="E32" s="171"/>
-      <c r="F32" s="171"/>
-      <c r="G32" s="171"/>
+      <c r="D32" s="174"/>
+      <c r="E32" s="174"/>
+      <c r="F32" s="174"/>
+      <c r="G32" s="174"/>
       <c r="H32" s="110"/>
-      <c r="I32" s="175" t="s">
+      <c r="I32" s="178" t="s">
         <v>267</v>
       </c>
-      <c r="J32" s="175"/>
-      <c r="K32" s="214" t="s">
+      <c r="J32" s="178"/>
+      <c r="K32" s="217" t="s">
         <v>244</v>
       </c>
-      <c r="L32" s="214"/>
+      <c r="L32" s="217"/>
     </row>
     <row r="33" spans="1:12" ht="29.25" customHeight="1">
-      <c r="A33" s="178" t="s">
+      <c r="A33" s="181" t="s">
         <v>246</v>
       </c>
-      <c r="B33" s="179"/>
-      <c r="C33" s="231"/>
-      <c r="D33" s="231"/>
-      <c r="E33" s="231" t="s">
+      <c r="B33" s="182"/>
+      <c r="C33" s="234"/>
+      <c r="D33" s="234"/>
+      <c r="E33" s="234" t="s">
         <v>270</v>
       </c>
-      <c r="F33" s="231"/>
-      <c r="G33" s="231"/>
+      <c r="F33" s="234"/>
+      <c r="G33" s="234"/>
       <c r="H33" s="67"/>
-      <c r="I33" s="231" t="s">
+      <c r="I33" s="234" t="s">
         <v>266</v>
       </c>
-      <c r="J33" s="231"/>
-      <c r="K33" s="231"/>
-      <c r="L33" s="177"/>
+      <c r="J33" s="234"/>
+      <c r="K33" s="234"/>
+      <c r="L33" s="180"/>
     </row>
     <row r="34" spans="1:12" ht="29.25" customHeight="1">
       <c r="A34" s="87" t="s">
@@ -9351,52 +9417,52 @@
       <c r="B34" s="89" t="s">
         <v>248</v>
       </c>
-      <c r="C34" s="224" t="s">
+      <c r="C34" s="227" t="s">
         <v>249</v>
       </c>
-      <c r="D34" s="225"/>
-      <c r="E34" s="224" t="s">
+      <c r="D34" s="228"/>
+      <c r="E34" s="227" t="s">
         <v>250</v>
       </c>
-      <c r="F34" s="225"/>
-      <c r="G34" s="226" t="s">
+      <c r="F34" s="228"/>
+      <c r="G34" s="229" t="s">
         <v>236</v>
       </c>
-      <c r="H34" s="227"/>
-      <c r="I34" s="228"/>
-      <c r="J34" s="226" t="s">
+      <c r="H34" s="230"/>
+      <c r="I34" s="231"/>
+      <c r="J34" s="229" t="s">
         <v>224</v>
       </c>
-      <c r="K34" s="229"/>
-      <c r="L34" s="228"/>
+      <c r="K34" s="232"/>
+      <c r="L34" s="231"/>
     </row>
     <row r="35" spans="1:12" ht="29.25" customHeight="1">
       <c r="A35" s="49"/>
       <c r="B35" s="49"/>
-      <c r="C35" s="153"/>
-      <c r="D35" s="153"/>
-      <c r="E35" s="153"/>
-      <c r="F35" s="153"/>
-      <c r="G35" s="158"/>
-      <c r="H35" s="156"/>
-      <c r="I35" s="157"/>
-      <c r="J35" s="158"/>
-      <c r="K35" s="156"/>
-      <c r="L35" s="157"/>
+      <c r="C35" s="156"/>
+      <c r="D35" s="156"/>
+      <c r="E35" s="156"/>
+      <c r="F35" s="156"/>
+      <c r="G35" s="161"/>
+      <c r="H35" s="159"/>
+      <c r="I35" s="160"/>
+      <c r="J35" s="161"/>
+      <c r="K35" s="159"/>
+      <c r="L35" s="160"/>
     </row>
     <row r="36" spans="1:12" ht="29.25" customHeight="1">
       <c r="A36" s="49"/>
       <c r="B36" s="49"/>
-      <c r="C36" s="153"/>
-      <c r="D36" s="153"/>
-      <c r="E36" s="153"/>
-      <c r="F36" s="153"/>
-      <c r="G36" s="158"/>
-      <c r="H36" s="156"/>
-      <c r="I36" s="157"/>
-      <c r="J36" s="158"/>
-      <c r="K36" s="156"/>
-      <c r="L36" s="157"/>
+      <c r="C36" s="156"/>
+      <c r="D36" s="156"/>
+      <c r="E36" s="156"/>
+      <c r="F36" s="156"/>
+      <c r="G36" s="161"/>
+      <c r="H36" s="159"/>
+      <c r="I36" s="160"/>
+      <c r="J36" s="161"/>
+      <c r="K36" s="159"/>
+      <c r="L36" s="160"/>
     </row>
     <row r="38" spans="1:12" ht="28.5" customHeight="1"/>
     <row r="39" spans="1:12" ht="48" customHeight="1">
@@ -9417,16 +9483,16 @@
       <c r="D40" s="116" t="s">
         <v>282</v>
       </c>
-      <c r="E40" s="237" t="s">
+      <c r="E40" s="240" t="s">
         <v>283</v>
       </c>
-      <c r="F40" s="238"/>
+      <c r="F40" s="241"/>
     </row>
     <row r="41" spans="1:12" ht="45" customHeight="1">
-      <c r="A41" s="250" t="s">
+      <c r="A41" s="253" t="s">
         <v>277</v>
       </c>
-      <c r="B41" s="250"/>
+      <c r="B41" s="253"/>
       <c r="D41" s="50" t="s">
         <v>278</v>
       </c>
@@ -9672,7 +9738,7 @@
       </c>
     </row>
     <row r="90" spans="1:8">
-      <c r="B90" s="153" t="s">
+      <c r="B90" s="156" t="s">
         <v>190</v>
       </c>
       <c r="C90" s="49" t="s">
@@ -9682,14 +9748,14 @@
       <c r="E90" s="104" t="s">
         <v>191</v>
       </c>
-      <c r="F90" s="235" t="s">
+      <c r="F90" s="238" t="s">
         <v>260</v>
       </c>
-      <c r="G90" s="236"/>
+      <c r="G90" s="239"/>
       <c r="H90" s="112"/>
     </row>
     <row r="91" spans="1:8">
-      <c r="B91" s="153"/>
+      <c r="B91" s="156"/>
       <c r="C91" s="49" t="s">
         <v>127</v>
       </c>
@@ -9697,12 +9763,12 @@
       <c r="E91" s="104" t="s">
         <v>191</v>
       </c>
-      <c r="F91" s="236"/>
-      <c r="G91" s="236"/>
+      <c r="F91" s="239"/>
+      <c r="G91" s="239"/>
       <c r="H91" s="112"/>
     </row>
     <row r="92" spans="1:8">
-      <c r="B92" s="153" t="s">
+      <c r="B92" s="156" t="s">
         <v>192</v>
       </c>
       <c r="C92" s="49" t="s">
@@ -9712,12 +9778,12 @@
       <c r="E92" s="104" t="s">
         <v>191</v>
       </c>
-      <c r="F92" s="236"/>
-      <c r="G92" s="236"/>
+      <c r="F92" s="239"/>
+      <c r="G92" s="239"/>
       <c r="H92" s="112"/>
     </row>
     <row r="93" spans="1:8">
-      <c r="B93" s="153"/>
+      <c r="B93" s="156"/>
       <c r="C93" s="49" t="s">
         <v>16</v>
       </c>
@@ -9725,12 +9791,12 @@
       <c r="E93" s="104" t="s">
         <v>191</v>
       </c>
-      <c r="F93" s="236"/>
-      <c r="G93" s="236"/>
+      <c r="F93" s="239"/>
+      <c r="G93" s="239"/>
       <c r="H93" s="112"/>
     </row>
     <row r="94" spans="1:8">
-      <c r="B94" s="153"/>
+      <c r="B94" s="156"/>
       <c r="C94" s="49" t="s">
         <v>115</v>
       </c>
@@ -9738,12 +9804,12 @@
       <c r="E94" s="104" t="s">
         <v>191</v>
       </c>
-      <c r="F94" s="236"/>
-      <c r="G94" s="236"/>
+      <c r="F94" s="239"/>
+      <c r="G94" s="239"/>
       <c r="H94" s="112"/>
     </row>
     <row r="95" spans="1:8">
-      <c r="B95" s="153"/>
+      <c r="B95" s="156"/>
       <c r="C95" s="51" t="s">
         <v>261</v>
       </c>

--- a/doc/alice/20180302后台财务更新.xlsx
+++ b/doc/alice/20180302后台财务更新.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28080" windowHeight="13200" firstSheet="5" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28080" windowHeight="13200" firstSheet="5" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet4" sheetId="4" state="hidden" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="346">
   <si>
     <t>收：</t>
   </si>
@@ -1235,139 +1235,159 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
+    <t>statisticsOrgz</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>orgzBill</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>orgzIncome</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>orgzSchedule</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>营业额统计</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>图表统计</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>campChart</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>orgzChart</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>每月报表</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>赠课统计</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>附加支出列表</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>campGift</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>campStatistics</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>orgzStatistics</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>orgzOutput</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>orgzGift</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>orgzTurnover</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>资金账单statisticsCamp/campBill</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>本月总收益：2888</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>本月总支出：2888</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>平台分成</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>教练工资</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买赠课</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>课时统计statisticsCamp/campSchedule</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>营业额（报名交费情况）statisticsCamp/campTurnover</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>statisticsCamp/campChart</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>月报表statisticsCamp/campStatistics</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>还有购买赠课记录statisticsCamp/campGift</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>课时结算表admin/salaryin/scheduleInfo</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>收益统计statisticsCamp/campIncome</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程课时统计statisticsCamp/lessonSchedule</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>campOutput</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>campTurnover</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>没人2节</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加支出：campOutput</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>课时统计</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>课时列表</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
     <t>campSchedule</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>statisticsOrgz</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>orgzBill</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>orgzIncome</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>orgzSchedule</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>营业额统计</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>图表统计</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>campChart</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>orgzChart</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>每月报表</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>赠课统计</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>附加支出列表</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>campGift</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>campStatistics</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>orgzStatistics</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>orgzOutput</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>orgzGift</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>orgzTurnover</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>资金账单statisticsCamp/campBill</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>本月总收益：2888</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>本月总支出：2888</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>平台分成</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>教练工资</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>购买赠课</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>课时统计statisticsCamp/campSchedule</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>营业额（报名交费情况）statisticsCamp/campTurnover</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>statisticsCamp/campChart</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>月报表statisticsCamp/campStatistics</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>还有购买赠课记录statisticsCamp/campGift</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>课时结算表admin/salaryin/scheduleInfo</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>收益统计statisticsCamp/campIncome</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>课程课时统计statisticsCamp/lessonSchedule</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>campOutput</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>campTurnover</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
@@ -2356,7 +2376,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="254">
+  <cellXfs count="256">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2801,6 +2821,9 @@
     <xf numFmtId="14" fontId="31" fillId="10" borderId="15" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -3118,6 +3141,9 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="0" xfId="3">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -3705,41 +3731,41 @@
       </c>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="154" t="s">
+      <c r="A10" s="155" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="154" t="s">
+      <c r="B10" s="155" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="158" t="s">
+      <c r="C10" s="159" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="159"/>
-      <c r="E10" s="160"/>
-      <c r="F10" s="158" t="s">
+      <c r="D10" s="160"/>
+      <c r="E10" s="161"/>
+      <c r="F10" s="159" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="159"/>
-      <c r="H10" s="160"/>
-      <c r="I10" s="158" t="s">
+      <c r="G10" s="160"/>
+      <c r="H10" s="161"/>
+      <c r="I10" s="159" t="s">
         <v>12</v>
       </c>
-      <c r="J10" s="159"/>
-      <c r="K10" s="160"/>
-      <c r="L10" s="159" t="s">
+      <c r="J10" s="160"/>
+      <c r="K10" s="161"/>
+      <c r="L10" s="160" t="s">
         <v>13</v>
       </c>
-      <c r="M10" s="159"/>
-      <c r="N10" s="160"/>
-      <c r="O10" s="156" t="s">
+      <c r="M10" s="160"/>
+      <c r="N10" s="161"/>
+      <c r="O10" s="157" t="s">
         <v>14</v>
       </c>
-      <c r="P10" s="156"/>
-      <c r="Q10" s="156"/>
+      <c r="P10" s="157"/>
+      <c r="Q10" s="157"/>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="155"/>
-      <c r="B11" s="155"/>
+      <c r="A11" s="156"/>
+      <c r="B11" s="156"/>
       <c r="C11" s="5" t="s">
         <v>15</v>
       </c>
@@ -3787,7 +3813,7 @@
       </c>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="156" t="s">
+      <c r="A12" s="157" t="s">
         <v>18</v>
       </c>
       <c r="B12" s="5">
@@ -3837,7 +3863,7 @@
       </c>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="156"/>
+      <c r="A13" s="157"/>
       <c r="B13" s="5">
         <v>88</v>
       </c>
@@ -3885,7 +3911,7 @@
       </c>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="156"/>
+      <c r="A14" s="157"/>
       <c r="B14" s="5">
         <v>100</v>
       </c>
@@ -3933,7 +3959,7 @@
       </c>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="156"/>
+      <c r="A15" s="157"/>
       <c r="B15" s="5" t="s">
         <v>19</v>
       </c>
@@ -3990,7 +4016,7 @@
       </c>
     </row>
     <row r="16" spans="1:17" hidden="1">
-      <c r="A16" s="154" t="s">
+      <c r="A16" s="155" t="s">
         <v>20</v>
       </c>
       <c r="B16" s="5">
@@ -4037,7 +4063,7 @@
       <c r="Q16" s="40"/>
     </row>
     <row r="17" spans="1:17" hidden="1">
-      <c r="A17" s="155"/>
+      <c r="A17" s="156"/>
       <c r="B17" s="5" t="s">
         <v>19</v>
       </c>
@@ -4091,7 +4117,7 @@
       <c r="Q17" s="40"/>
     </row>
     <row r="18" spans="1:17">
-      <c r="A18" s="156" t="s">
+      <c r="A18" s="157" t="s">
         <v>21</v>
       </c>
       <c r="B18" s="5">
@@ -4144,7 +4170,7 @@
       </c>
     </row>
     <row r="19" spans="1:17">
-      <c r="A19" s="156"/>
+      <c r="A19" s="157"/>
       <c r="B19" s="5">
         <v>180</v>
       </c>
@@ -4195,7 +4221,7 @@
       </c>
     </row>
     <row r="20" spans="1:17">
-      <c r="A20" s="156"/>
+      <c r="A20" s="157"/>
       <c r="B20" s="5">
         <v>240</v>
       </c>
@@ -4246,7 +4272,7 @@
       </c>
     </row>
     <row r="21" spans="1:17">
-      <c r="A21" s="156"/>
+      <c r="A21" s="157"/>
       <c r="B21" s="5" t="s">
         <v>19</v>
       </c>
@@ -4395,16 +4421,16 @@
       <c r="C46" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D46" s="157" t="s">
+      <c r="D46" s="158" t="s">
         <v>37</v>
       </c>
-      <c r="E46" s="157"/>
-      <c r="F46" s="157"/>
-      <c r="G46" s="157"/>
-      <c r="H46" s="157"/>
-      <c r="I46" s="157"/>
-      <c r="J46" s="157"/>
-      <c r="K46" s="157"/>
+      <c r="E46" s="158"/>
+      <c r="F46" s="158"/>
+      <c r="G46" s="158"/>
+      <c r="H46" s="158"/>
+      <c r="I46" s="158"/>
+      <c r="J46" s="158"/>
+      <c r="K46" s="158"/>
       <c r="L46" t="s">
         <v>38</v>
       </c>
@@ -4420,16 +4446,16 @@
       <c r="C47" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D47" s="151" t="s">
+      <c r="D47" s="152" t="s">
         <v>41</v>
       </c>
-      <c r="E47" s="152"/>
-      <c r="F47" s="152"/>
-      <c r="G47" s="152"/>
-      <c r="H47" s="152"/>
-      <c r="I47" s="152"/>
-      <c r="J47" s="152"/>
-      <c r="K47" s="153"/>
+      <c r="E47" s="153"/>
+      <c r="F47" s="153"/>
+      <c r="G47" s="153"/>
+      <c r="H47" s="153"/>
+      <c r="I47" s="153"/>
+      <c r="J47" s="153"/>
+      <c r="K47" s="154"/>
       <c r="L47" t="s">
         <v>42</v>
       </c>
@@ -4445,16 +4471,16 @@
       <c r="C48" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D48" s="151" t="s">
+      <c r="D48" s="152" t="s">
         <v>44</v>
       </c>
-      <c r="E48" s="152"/>
-      <c r="F48" s="152"/>
-      <c r="G48" s="152"/>
-      <c r="H48" s="152"/>
-      <c r="I48" s="152"/>
-      <c r="J48" s="152"/>
-      <c r="K48" s="153"/>
+      <c r="E48" s="153"/>
+      <c r="F48" s="153"/>
+      <c r="G48" s="153"/>
+      <c r="H48" s="153"/>
+      <c r="I48" s="153"/>
+      <c r="J48" s="153"/>
+      <c r="K48" s="154"/>
       <c r="L48" t="s">
         <v>45</v>
       </c>
@@ -4490,16 +4516,16 @@
       <c r="C51" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D51" s="157" t="s">
+      <c r="D51" s="158" t="s">
         <v>49</v>
       </c>
-      <c r="E51" s="157"/>
-      <c r="F51" s="157"/>
-      <c r="G51" s="157"/>
-      <c r="H51" s="157"/>
-      <c r="I51" s="157"/>
-      <c r="J51" s="157"/>
-      <c r="K51" s="157"/>
+      <c r="E51" s="158"/>
+      <c r="F51" s="158"/>
+      <c r="G51" s="158"/>
+      <c r="H51" s="158"/>
+      <c r="I51" s="158"/>
+      <c r="J51" s="158"/>
+      <c r="K51" s="158"/>
       <c r="L51" t="s">
         <v>50</v>
       </c>
@@ -4514,16 +4540,16 @@
       <c r="C52" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D52" s="151" t="s">
+      <c r="D52" s="152" t="s">
         <v>51</v>
       </c>
-      <c r="E52" s="152"/>
-      <c r="F52" s="152"/>
-      <c r="G52" s="152"/>
-      <c r="H52" s="152"/>
-      <c r="I52" s="152"/>
-      <c r="J52" s="152"/>
-      <c r="K52" s="153"/>
+      <c r="E52" s="153"/>
+      <c r="F52" s="153"/>
+      <c r="G52" s="153"/>
+      <c r="H52" s="153"/>
+      <c r="I52" s="153"/>
+      <c r="J52" s="153"/>
+      <c r="K52" s="154"/>
       <c r="L52" t="s">
         <v>52</v>
       </c>
@@ -4538,16 +4564,16 @@
       <c r="C53" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D53" s="151" t="s">
+      <c r="D53" s="152" t="s">
         <v>53</v>
       </c>
-      <c r="E53" s="152"/>
-      <c r="F53" s="152"/>
-      <c r="G53" s="152"/>
-      <c r="H53" s="152"/>
-      <c r="I53" s="152"/>
-      <c r="J53" s="152"/>
-      <c r="K53" s="153"/>
+      <c r="E53" s="153"/>
+      <c r="F53" s="153"/>
+      <c r="G53" s="153"/>
+      <c r="H53" s="153"/>
+      <c r="I53" s="153"/>
+      <c r="J53" s="153"/>
+      <c r="K53" s="154"/>
       <c r="L53" t="s">
         <v>54</v>
       </c>
@@ -4592,16 +4618,16 @@
       <c r="C56" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D56" s="157" t="s">
+      <c r="D56" s="158" t="s">
         <v>57</v>
       </c>
-      <c r="E56" s="157"/>
-      <c r="F56" s="157"/>
-      <c r="G56" s="157"/>
-      <c r="H56" s="157"/>
-      <c r="I56" s="157"/>
-      <c r="J56" s="157"/>
-      <c r="K56" s="157"/>
+      <c r="E56" s="158"/>
+      <c r="F56" s="158"/>
+      <c r="G56" s="158"/>
+      <c r="H56" s="158"/>
+      <c r="I56" s="158"/>
+      <c r="J56" s="158"/>
+      <c r="K56" s="158"/>
       <c r="L56" t="s">
         <v>58</v>
       </c>
@@ -4616,16 +4642,16 @@
       <c r="C57" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D57" s="151" t="s">
+      <c r="D57" s="152" t="s">
         <v>51</v>
       </c>
-      <c r="E57" s="152"/>
-      <c r="F57" s="152"/>
-      <c r="G57" s="152"/>
-      <c r="H57" s="152"/>
-      <c r="I57" s="152"/>
-      <c r="J57" s="152"/>
-      <c r="K57" s="153"/>
+      <c r="E57" s="153"/>
+      <c r="F57" s="153"/>
+      <c r="G57" s="153"/>
+      <c r="H57" s="153"/>
+      <c r="I57" s="153"/>
+      <c r="J57" s="153"/>
+      <c r="K57" s="154"/>
       <c r="L57" t="s">
         <v>52</v>
       </c>
@@ -4640,16 +4666,16 @@
       <c r="C58" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D58" s="151" t="s">
+      <c r="D58" s="152" t="s">
         <v>53</v>
       </c>
-      <c r="E58" s="152"/>
-      <c r="F58" s="152"/>
-      <c r="G58" s="152"/>
-      <c r="H58" s="152"/>
-      <c r="I58" s="152"/>
-      <c r="J58" s="152"/>
-      <c r="K58" s="153"/>
+      <c r="E58" s="153"/>
+      <c r="F58" s="153"/>
+      <c r="G58" s="153"/>
+      <c r="H58" s="153"/>
+      <c r="I58" s="153"/>
+      <c r="J58" s="153"/>
+      <c r="K58" s="154"/>
       <c r="L58" t="s">
         <v>54</v>
       </c>
@@ -4779,16 +4805,16 @@
       <c r="C20" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D20" s="157" t="s">
+      <c r="D20" s="158" t="s">
         <v>37</v>
       </c>
-      <c r="E20" s="157"/>
-      <c r="F20" s="157"/>
-      <c r="G20" s="157"/>
-      <c r="H20" s="157"/>
-      <c r="I20" s="157"/>
-      <c r="J20" s="157"/>
-      <c r="K20" s="157"/>
+      <c r="E20" s="158"/>
+      <c r="F20" s="158"/>
+      <c r="G20" s="158"/>
+      <c r="H20" s="158"/>
+      <c r="I20" s="158"/>
+      <c r="J20" s="158"/>
+      <c r="K20" s="158"/>
       <c r="T20" s="13"/>
     </row>
     <row r="21" spans="1:20">
@@ -4801,16 +4827,16 @@
       <c r="C21" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D21" s="151" t="s">
+      <c r="D21" s="152" t="s">
         <v>41</v>
       </c>
-      <c r="E21" s="152"/>
-      <c r="F21" s="152"/>
-      <c r="G21" s="152"/>
-      <c r="H21" s="152"/>
-      <c r="I21" s="152"/>
-      <c r="J21" s="152"/>
-      <c r="K21" s="153"/>
+      <c r="E21" s="153"/>
+      <c r="F21" s="153"/>
+      <c r="G21" s="153"/>
+      <c r="H21" s="153"/>
+      <c r="I21" s="153"/>
+      <c r="J21" s="153"/>
+      <c r="K21" s="154"/>
       <c r="T21" s="13"/>
     </row>
     <row r="22" spans="1:20">
@@ -4823,16 +4849,16 @@
       <c r="C22" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D22" s="151" t="s">
+      <c r="D22" s="152" t="s">
         <v>44</v>
       </c>
-      <c r="E22" s="152"/>
-      <c r="F22" s="152"/>
-      <c r="G22" s="152"/>
-      <c r="H22" s="152"/>
-      <c r="I22" s="152"/>
-      <c r="J22" s="152"/>
-      <c r="K22" s="153"/>
+      <c r="E22" s="153"/>
+      <c r="F22" s="153"/>
+      <c r="G22" s="153"/>
+      <c r="H22" s="153"/>
+      <c r="I22" s="153"/>
+      <c r="J22" s="153"/>
+      <c r="K22" s="154"/>
       <c r="T22" s="13"/>
     </row>
     <row r="24" spans="1:20">
@@ -4865,16 +4891,16 @@
       <c r="C25" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D25" s="157" t="s">
+      <c r="D25" s="158" t="s">
         <v>49</v>
       </c>
-      <c r="E25" s="157"/>
-      <c r="F25" s="157"/>
-      <c r="G25" s="157"/>
-      <c r="H25" s="157"/>
-      <c r="I25" s="157"/>
-      <c r="J25" s="157"/>
-      <c r="K25" s="157"/>
+      <c r="E25" s="158"/>
+      <c r="F25" s="158"/>
+      <c r="G25" s="158"/>
+      <c r="H25" s="158"/>
+      <c r="I25" s="158"/>
+      <c r="J25" s="158"/>
+      <c r="K25" s="158"/>
     </row>
     <row r="26" spans="1:20">
       <c r="A26" s="4" t="s">
@@ -4886,16 +4912,16 @@
       <c r="C26" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D26" s="151" t="s">
+      <c r="D26" s="152" t="s">
         <v>51</v>
       </c>
-      <c r="E26" s="152"/>
-      <c r="F26" s="152"/>
-      <c r="G26" s="152"/>
-      <c r="H26" s="152"/>
-      <c r="I26" s="152"/>
-      <c r="J26" s="152"/>
-      <c r="K26" s="153"/>
+      <c r="E26" s="153"/>
+      <c r="F26" s="153"/>
+      <c r="G26" s="153"/>
+      <c r="H26" s="153"/>
+      <c r="I26" s="153"/>
+      <c r="J26" s="153"/>
+      <c r="K26" s="154"/>
     </row>
     <row r="27" spans="1:20">
       <c r="A27" s="4" t="s">
@@ -4907,16 +4933,16 @@
       <c r="C27" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D27" s="151" t="s">
+      <c r="D27" s="152" t="s">
         <v>53</v>
       </c>
-      <c r="E27" s="152"/>
-      <c r="F27" s="152"/>
-      <c r="G27" s="152"/>
-      <c r="H27" s="152"/>
-      <c r="I27" s="152"/>
-      <c r="J27" s="152"/>
-      <c r="K27" s="153"/>
+      <c r="E27" s="153"/>
+      <c r="F27" s="153"/>
+      <c r="G27" s="153"/>
+      <c r="H27" s="153"/>
+      <c r="I27" s="153"/>
+      <c r="J27" s="153"/>
+      <c r="K27" s="154"/>
     </row>
     <row r="28" spans="1:20">
       <c r="C28" s="9"/>
@@ -4958,16 +4984,16 @@
       <c r="C30" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D30" s="157" t="s">
+      <c r="D30" s="158" t="s">
         <v>57</v>
       </c>
-      <c r="E30" s="157"/>
-      <c r="F30" s="157"/>
-      <c r="G30" s="157"/>
-      <c r="H30" s="157"/>
-      <c r="I30" s="157"/>
-      <c r="J30" s="157"/>
-      <c r="K30" s="157"/>
+      <c r="E30" s="158"/>
+      <c r="F30" s="158"/>
+      <c r="G30" s="158"/>
+      <c r="H30" s="158"/>
+      <c r="I30" s="158"/>
+      <c r="J30" s="158"/>
+      <c r="K30" s="158"/>
     </row>
     <row r="31" spans="1:20">
       <c r="A31" s="4" t="s">
@@ -4979,16 +5005,16 @@
       <c r="C31" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D31" s="151" t="s">
+      <c r="D31" s="152" t="s">
         <v>51</v>
       </c>
-      <c r="E31" s="152"/>
-      <c r="F31" s="152"/>
-      <c r="G31" s="152"/>
-      <c r="H31" s="152"/>
-      <c r="I31" s="152"/>
-      <c r="J31" s="152"/>
-      <c r="K31" s="153"/>
+      <c r="E31" s="153"/>
+      <c r="F31" s="153"/>
+      <c r="G31" s="153"/>
+      <c r="H31" s="153"/>
+      <c r="I31" s="153"/>
+      <c r="J31" s="153"/>
+      <c r="K31" s="154"/>
     </row>
     <row r="32" spans="1:20">
       <c r="A32" s="4" t="s">
@@ -5000,16 +5026,16 @@
       <c r="C32" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D32" s="151" t="s">
+      <c r="D32" s="152" t="s">
         <v>53</v>
       </c>
-      <c r="E32" s="152"/>
-      <c r="F32" s="152"/>
-      <c r="G32" s="152"/>
-      <c r="H32" s="152"/>
-      <c r="I32" s="152"/>
-      <c r="J32" s="152"/>
-      <c r="K32" s="153"/>
+      <c r="E32" s="153"/>
+      <c r="F32" s="153"/>
+      <c r="G32" s="153"/>
+      <c r="H32" s="153"/>
+      <c r="I32" s="153"/>
+      <c r="J32" s="153"/>
+      <c r="K32" s="154"/>
     </row>
     <row r="33" spans="1:20">
       <c r="A33" t="s">
@@ -5119,30 +5145,30 @@
       <c r="C49" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="D49" s="157" t="s">
+      <c r="D49" s="158" t="s">
         <v>79</v>
       </c>
-      <c r="E49" s="157"/>
-      <c r="F49" s="157"/>
-      <c r="G49" s="157"/>
-      <c r="H49" s="157"/>
-      <c r="I49" s="157"/>
-      <c r="J49" s="157"/>
-      <c r="K49" s="167"/>
+      <c r="E49" s="158"/>
+      <c r="F49" s="158"/>
+      <c r="G49" s="158"/>
+      <c r="H49" s="158"/>
+      <c r="I49" s="158"/>
+      <c r="J49" s="158"/>
+      <c r="K49" s="168"/>
       <c r="T49" s="13"/>
     </row>
     <row r="50" spans="1:20">
       <c r="A50" s="26"/>
       <c r="B50" s="4"/>
       <c r="C50" s="5"/>
-      <c r="D50" s="151"/>
-      <c r="E50" s="152"/>
-      <c r="F50" s="152"/>
-      <c r="G50" s="152"/>
-      <c r="H50" s="152"/>
-      <c r="I50" s="152"/>
-      <c r="J50" s="152"/>
-      <c r="K50" s="166"/>
+      <c r="D50" s="152"/>
+      <c r="E50" s="153"/>
+      <c r="F50" s="153"/>
+      <c r="G50" s="153"/>
+      <c r="H50" s="153"/>
+      <c r="I50" s="153"/>
+      <c r="J50" s="153"/>
+      <c r="K50" s="167"/>
       <c r="L50" t="s">
         <v>80</v>
       </c>
@@ -5152,14 +5178,14 @@
       <c r="A51" s="26"/>
       <c r="B51" s="4"/>
       <c r="C51" s="5"/>
-      <c r="D51" s="151"/>
-      <c r="E51" s="152"/>
-      <c r="F51" s="152"/>
-      <c r="G51" s="152"/>
-      <c r="H51" s="152"/>
-      <c r="I51" s="152"/>
-      <c r="J51" s="152"/>
-      <c r="K51" s="166"/>
+      <c r="D51" s="152"/>
+      <c r="E51" s="153"/>
+      <c r="F51" s="153"/>
+      <c r="G51" s="153"/>
+      <c r="H51" s="153"/>
+      <c r="I51" s="153"/>
+      <c r="J51" s="153"/>
+      <c r="K51" s="167"/>
       <c r="T51" s="13"/>
     </row>
     <row r="52" spans="1:20">
@@ -5204,31 +5230,31 @@
       <c r="B54" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C54" s="163" t="s">
+      <c r="C54" s="164" t="s">
         <v>82</v>
       </c>
-      <c r="D54" s="164"/>
-      <c r="E54" s="164"/>
-      <c r="F54" s="164"/>
-      <c r="G54" s="164"/>
-      <c r="H54" s="164"/>
-      <c r="I54" s="164"/>
-      <c r="J54" s="164"/>
-      <c r="K54" s="165"/>
+      <c r="D54" s="165"/>
+      <c r="E54" s="165"/>
+      <c r="F54" s="165"/>
+      <c r="G54" s="165"/>
+      <c r="H54" s="165"/>
+      <c r="I54" s="165"/>
+      <c r="J54" s="165"/>
+      <c r="K54" s="166"/>
       <c r="T54" s="37"/>
     </row>
     <row r="55" spans="1:20">
       <c r="A55" s="26"/>
       <c r="B55" s="4"/>
-      <c r="C55" s="163"/>
-      <c r="D55" s="164"/>
-      <c r="E55" s="164"/>
-      <c r="F55" s="164"/>
-      <c r="G55" s="164"/>
-      <c r="H55" s="164"/>
-      <c r="I55" s="164"/>
-      <c r="J55" s="164"/>
-      <c r="K55" s="165"/>
+      <c r="C55" s="164"/>
+      <c r="D55" s="165"/>
+      <c r="E55" s="165"/>
+      <c r="F55" s="165"/>
+      <c r="G55" s="165"/>
+      <c r="H55" s="165"/>
+      <c r="I55" s="165"/>
+      <c r="J55" s="165"/>
+      <c r="K55" s="166"/>
       <c r="L55" t="s">
         <v>83</v>
       </c>
@@ -5237,15 +5263,15 @@
     <row r="56" spans="1:20">
       <c r="A56" s="26"/>
       <c r="B56" s="4"/>
-      <c r="C56" s="163"/>
-      <c r="D56" s="164"/>
-      <c r="E56" s="164"/>
-      <c r="F56" s="164"/>
-      <c r="G56" s="164"/>
-      <c r="H56" s="164"/>
-      <c r="I56" s="164"/>
-      <c r="J56" s="164"/>
-      <c r="K56" s="165"/>
+      <c r="C56" s="164"/>
+      <c r="D56" s="165"/>
+      <c r="E56" s="165"/>
+      <c r="F56" s="165"/>
+      <c r="G56" s="165"/>
+      <c r="H56" s="165"/>
+      <c r="I56" s="165"/>
+      <c r="J56" s="165"/>
+      <c r="K56" s="166"/>
       <c r="T56" s="37"/>
     </row>
     <row r="57" spans="1:20">
@@ -5265,45 +5291,45 @@
       <c r="B59" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="C59" s="163" t="s">
+      <c r="C59" s="164" t="s">
         <v>82</v>
       </c>
-      <c r="D59" s="164"/>
-      <c r="E59" s="164"/>
-      <c r="F59" s="164"/>
-      <c r="G59" s="164"/>
-      <c r="H59" s="164"/>
-      <c r="I59" s="164"/>
-      <c r="J59" s="164"/>
-      <c r="K59" s="165"/>
+      <c r="D59" s="165"/>
+      <c r="E59" s="165"/>
+      <c r="F59" s="165"/>
+      <c r="G59" s="165"/>
+      <c r="H59" s="165"/>
+      <c r="I59" s="165"/>
+      <c r="J59" s="165"/>
+      <c r="K59" s="166"/>
       <c r="T59" s="13"/>
     </row>
     <row r="60" spans="1:20">
       <c r="A60" s="26"/>
       <c r="B60" s="4"/>
-      <c r="C60" s="163"/>
-      <c r="D60" s="164"/>
-      <c r="E60" s="164"/>
-      <c r="F60" s="164"/>
-      <c r="G60" s="164"/>
-      <c r="H60" s="164"/>
-      <c r="I60" s="164"/>
-      <c r="J60" s="164"/>
-      <c r="K60" s="165"/>
+      <c r="C60" s="164"/>
+      <c r="D60" s="165"/>
+      <c r="E60" s="165"/>
+      <c r="F60" s="165"/>
+      <c r="G60" s="165"/>
+      <c r="H60" s="165"/>
+      <c r="I60" s="165"/>
+      <c r="J60" s="165"/>
+      <c r="K60" s="166"/>
       <c r="T60" s="13"/>
     </row>
     <row r="61" spans="1:20">
       <c r="A61" s="26"/>
       <c r="B61" s="4"/>
-      <c r="C61" s="163"/>
-      <c r="D61" s="164"/>
-      <c r="E61" s="164"/>
-      <c r="F61" s="164"/>
-      <c r="G61" s="164"/>
-      <c r="H61" s="164"/>
-      <c r="I61" s="164"/>
-      <c r="J61" s="164"/>
-      <c r="K61" s="165"/>
+      <c r="C61" s="164"/>
+      <c r="D61" s="165"/>
+      <c r="E61" s="165"/>
+      <c r="F61" s="165"/>
+      <c r="G61" s="165"/>
+      <c r="H61" s="165"/>
+      <c r="I61" s="165"/>
+      <c r="J61" s="165"/>
+      <c r="K61" s="166"/>
       <c r="T61" s="13"/>
     </row>
     <row r="62" spans="1:20">
@@ -5323,49 +5349,49 @@
       <c r="B64" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C64" s="156" t="s">
+      <c r="C64" s="157" t="s">
         <v>90</v>
       </c>
-      <c r="D64" s="156"/>
-      <c r="E64" s="156" t="s">
+      <c r="D64" s="157"/>
+      <c r="E64" s="157" t="s">
         <v>91</v>
       </c>
-      <c r="F64" s="156"/>
-      <c r="G64" s="161" t="s">
+      <c r="F64" s="157"/>
+      <c r="G64" s="162" t="s">
         <v>92</v>
       </c>
-      <c r="H64" s="160"/>
-      <c r="I64" s="161" t="s">
+      <c r="H64" s="161"/>
+      <c r="I64" s="162" t="s">
         <v>93</v>
       </c>
-      <c r="J64" s="159"/>
-      <c r="K64" s="162"/>
+      <c r="J64" s="160"/>
+      <c r="K64" s="163"/>
     </row>
     <row r="65" spans="1:11">
       <c r="A65" s="26"/>
       <c r="B65" s="4"/>
-      <c r="C65" s="156"/>
-      <c r="D65" s="156"/>
-      <c r="E65" s="156"/>
-      <c r="F65" s="156"/>
-      <c r="G65" s="161"/>
-      <c r="H65" s="160"/>
-      <c r="I65" s="161"/>
-      <c r="J65" s="159"/>
-      <c r="K65" s="162"/>
+      <c r="C65" s="157"/>
+      <c r="D65" s="157"/>
+      <c r="E65" s="157"/>
+      <c r="F65" s="157"/>
+      <c r="G65" s="162"/>
+      <c r="H65" s="161"/>
+      <c r="I65" s="162"/>
+      <c r="J65" s="160"/>
+      <c r="K65" s="163"/>
     </row>
     <row r="66" spans="1:11">
       <c r="A66" s="26"/>
       <c r="B66" s="4"/>
-      <c r="C66" s="156"/>
-      <c r="D66" s="156"/>
-      <c r="E66" s="156"/>
-      <c r="F66" s="156"/>
-      <c r="G66" s="161"/>
-      <c r="H66" s="160"/>
-      <c r="I66" s="161"/>
-      <c r="J66" s="159"/>
-      <c r="K66" s="162"/>
+      <c r="C66" s="157"/>
+      <c r="D66" s="157"/>
+      <c r="E66" s="157"/>
+      <c r="F66" s="157"/>
+      <c r="G66" s="162"/>
+      <c r="H66" s="161"/>
+      <c r="I66" s="162"/>
+      <c r="J66" s="160"/>
+      <c r="K66" s="163"/>
     </row>
     <row r="67" spans="1:11">
       <c r="A67" s="22"/>
@@ -5447,41 +5473,41 @@
       </c>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="154" t="s">
+      <c r="A3" s="155" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="154" t="s">
+      <c r="B3" s="155" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="158" t="s">
+      <c r="C3" s="159" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="159"/>
-      <c r="E3" s="160"/>
-      <c r="F3" s="158" t="s">
+      <c r="D3" s="160"/>
+      <c r="E3" s="161"/>
+      <c r="F3" s="159" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="159"/>
-      <c r="H3" s="160"/>
-      <c r="I3" s="158" t="s">
+      <c r="G3" s="160"/>
+      <c r="H3" s="161"/>
+      <c r="I3" s="159" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="159"/>
-      <c r="K3" s="160"/>
-      <c r="L3" s="159" t="s">
+      <c r="J3" s="160"/>
+      <c r="K3" s="161"/>
+      <c r="L3" s="160" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="159"/>
-      <c r="N3" s="160"/>
-      <c r="O3" s="156" t="s">
+      <c r="M3" s="160"/>
+      <c r="N3" s="161"/>
+      <c r="O3" s="157" t="s">
         <v>14</v>
       </c>
-      <c r="P3" s="156"/>
-      <c r="Q3" s="156"/>
+      <c r="P3" s="157"/>
+      <c r="Q3" s="157"/>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="155"/>
-      <c r="B4" s="155"/>
+      <c r="A4" s="156"/>
+      <c r="B4" s="156"/>
       <c r="C4" s="5" t="s">
         <v>15</v>
       </c>
@@ -5529,7 +5555,7 @@
       </c>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="156" t="s">
+      <c r="A5" s="157" t="s">
         <v>18</v>
       </c>
       <c r="B5" s="5">
@@ -5579,7 +5605,7 @@
       </c>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="156"/>
+      <c r="A6" s="157"/>
       <c r="B6" s="5">
         <v>88</v>
       </c>
@@ -5627,7 +5653,7 @@
       </c>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="156"/>
+      <c r="A7" s="157"/>
       <c r="B7" s="5">
         <v>100</v>
       </c>
@@ -5675,7 +5701,7 @@
       </c>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="156"/>
+      <c r="A8" s="157"/>
       <c r="B8" s="5" t="s">
         <v>19</v>
       </c>
@@ -5732,7 +5758,7 @@
       </c>
     </row>
     <row r="9" spans="1:17" hidden="1">
-      <c r="A9" s="154" t="s">
+      <c r="A9" s="155" t="s">
         <v>20</v>
       </c>
       <c r="B9" s="5">
@@ -5779,7 +5805,7 @@
       <c r="Q9" s="40"/>
     </row>
     <row r="10" spans="1:17" hidden="1">
-      <c r="A10" s="155"/>
+      <c r="A10" s="156"/>
       <c r="B10" s="5" t="s">
         <v>19</v>
       </c>
@@ -5833,7 +5859,7 @@
       <c r="Q10" s="40"/>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="156" t="s">
+      <c r="A11" s="157" t="s">
         <v>21</v>
       </c>
       <c r="B11" s="5">
@@ -5886,7 +5912,7 @@
       </c>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="156"/>
+      <c r="A12" s="157"/>
       <c r="B12" s="5">
         <v>180</v>
       </c>
@@ -5937,7 +5963,7 @@
       </c>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="156"/>
+      <c r="A13" s="157"/>
       <c r="B13" s="5">
         <v>240</v>
       </c>
@@ -5988,7 +6014,7 @@
       </c>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="156"/>
+      <c r="A14" s="157"/>
       <c r="B14" s="5" t="s">
         <v>19</v>
       </c>
@@ -6093,7 +6119,7 @@
       <c r="L20" s="39"/>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="156" t="s">
+      <c r="A21" s="157" t="s">
         <v>18</v>
       </c>
       <c r="B21" s="5">
@@ -6124,7 +6150,7 @@
       <c r="L21" s="34"/>
     </row>
     <row r="22" spans="1:12">
-      <c r="A22" s="156"/>
+      <c r="A22" s="157"/>
       <c r="B22" s="5">
         <v>88</v>
       </c>
@@ -6153,7 +6179,7 @@
       <c r="L22" s="34"/>
     </row>
     <row r="23" spans="1:12">
-      <c r="A23" s="156"/>
+      <c r="A23" s="157"/>
       <c r="B23" s="5">
         <v>100</v>
       </c>
@@ -6182,7 +6208,7 @@
       <c r="L23" s="34"/>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24" s="156"/>
+      <c r="A24" s="157"/>
       <c r="B24" s="5" t="s">
         <v>19</v>
       </c>
@@ -6404,29 +6430,29 @@
         <v>123</v>
       </c>
       <c r="O15" s="9"/>
-      <c r="P15" s="156" t="s">
+      <c r="P15" s="157" t="s">
         <v>107</v>
       </c>
-      <c r="Q15" s="156" t="s">
+      <c r="Q15" s="157" t="s">
         <v>109</v>
       </c>
-      <c r="R15" s="156" t="s">
+      <c r="R15" s="157" t="s">
         <v>124</v>
       </c>
-      <c r="S15" s="156"/>
-      <c r="T15" s="156" t="s">
+      <c r="S15" s="157"/>
+      <c r="T15" s="157" t="s">
         <v>125</v>
       </c>
-      <c r="U15" s="156"/>
-      <c r="V15" s="156"/>
+      <c r="U15" s="157"/>
+      <c r="V15" s="157"/>
     </row>
     <row r="16" spans="1:22">
       <c r="A16" t="s">
         <v>126</v>
       </c>
       <c r="O16" s="9"/>
-      <c r="P16" s="168"/>
-      <c r="Q16" s="168"/>
+      <c r="P16" s="169"/>
+      <c r="Q16" s="169"/>
       <c r="R16" s="5" t="s">
         <v>113</v>
       </c>
@@ -6537,17 +6563,17 @@
       <c r="Q21" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="R21" s="156">
+      <c r="R21" s="157">
         <f>SUM(R17:S18)</f>
         <v>1500</v>
       </c>
-      <c r="S21" s="156"/>
-      <c r="T21" s="161">
+      <c r="S21" s="157"/>
+      <c r="T21" s="162">
         <f>SUM(T17:V20)</f>
         <v>1500</v>
       </c>
-      <c r="U21" s="159"/>
-      <c r="V21" s="160"/>
+      <c r="U21" s="160"/>
+      <c r="V21" s="161"/>
     </row>
     <row r="22" spans="1:22">
       <c r="A22" t="s">
@@ -6814,10 +6840,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B3:I13"/>
+  <dimension ref="B3:I14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -6844,7 +6870,7 @@
         <v>304</v>
       </c>
       <c r="I3" s="126" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="4" spans="2:9" ht="22.5">
@@ -6872,7 +6898,7 @@
         <v>296</v>
       </c>
       <c r="I5" s="127" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="6" spans="2:9">
@@ -6892,7 +6918,7 @@
         <v>297</v>
       </c>
       <c r="I6" s="127" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="7" spans="2:9">
@@ -6902,92 +6928,100 @@
       <c r="C7" s="127" t="s">
         <v>299</v>
       </c>
-      <c r="E7" s="127" t="s">
-        <v>298</v>
-      </c>
-      <c r="F7" s="127" t="s">
-        <v>307</v>
+      <c r="E7" s="124" t="s">
+        <v>343</v>
+      </c>
+      <c r="F7" s="124" t="s">
+        <v>345</v>
       </c>
       <c r="H7" s="127" t="s">
         <v>298</v>
       </c>
       <c r="I7" s="127" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="8" spans="2:9">
       <c r="E8" s="127" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F8" s="127" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H8" s="127" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="I8" s="127" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="9" spans="2:9">
       <c r="E9" s="127" t="s">
+        <v>312</v>
+      </c>
+      <c r="F9" s="127" t="s">
         <v>313</v>
       </c>
-      <c r="F9" s="127" t="s">
+      <c r="H9" s="127" t="s">
+        <v>312</v>
+      </c>
+      <c r="I9" s="127" t="s">
         <v>314</v>
-      </c>
-      <c r="H9" s="127" t="s">
-        <v>313</v>
-      </c>
-      <c r="I9" s="127" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="10" spans="2:9">
       <c r="E10" s="127" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F10" s="127" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H10" s="127" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I10" s="127" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="11" spans="2:9">
       <c r="E11" s="127" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F11" s="127" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H11" s="127" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="I11" s="127" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="12" spans="2:9">
       <c r="E12" s="127" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F12" s="127" t="s">
+        <v>319</v>
+      </c>
+      <c r="H12" s="127" t="s">
+        <v>315</v>
+      </c>
+      <c r="I12" s="127" t="s">
         <v>320</v>
       </c>
-      <c r="H12" s="127" t="s">
-        <v>316</v>
-      </c>
-      <c r="I12" s="127" t="s">
-        <v>321</v>
-      </c>
     </row>
     <row r="13" spans="2:9">
-      <c r="E13" s="148" t="s">
-        <v>338</v>
+      <c r="E13" s="149" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9">
+      <c r="E14" s="255" t="s">
+        <v>344</v>
+      </c>
+      <c r="F14" s="255" t="s">
+        <v>345</v>
       </c>
     </row>
   </sheetData>
@@ -7023,30 +7057,30 @@
       <c r="A3" s="3"/>
     </row>
     <row r="4" spans="1:10" ht="18.75" customHeight="1">
-      <c r="A4" s="169" t="s">
+      <c r="A4" s="170" t="s">
         <v>159</v>
       </c>
-      <c r="B4" s="169" t="s">
+      <c r="B4" s="170" t="s">
         <v>125</v>
       </c>
-      <c r="C4" s="175" t="s">
+      <c r="C4" s="176" t="s">
         <v>124</v>
       </c>
-      <c r="D4" s="176"/>
-      <c r="E4" s="169" t="s">
+      <c r="D4" s="177"/>
+      <c r="E4" s="170" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A5" s="170"/>
-      <c r="B5" s="170"/>
+      <c r="A5" s="171"/>
+      <c r="B5" s="171"/>
       <c r="C5" s="100" t="s">
         <v>202</v>
       </c>
       <c r="D5" s="101" t="s">
         <v>203</v>
       </c>
-      <c r="E5" s="170"/>
+      <c r="E5" s="171"/>
       <c r="J5" s="50" t="s">
         <v>210</v>
       </c>
@@ -7193,10 +7227,10 @@
       <c r="B14" s="86">
         <v>50</v>
       </c>
-      <c r="C14" s="171" t="s">
+      <c r="C14" s="172" t="s">
         <v>208</v>
       </c>
-      <c r="D14" s="172"/>
+      <c r="D14" s="173"/>
       <c r="E14" s="82">
         <v>90</v>
       </c>
@@ -7207,72 +7241,72 @@
       </c>
     </row>
     <row r="17" spans="1:19" ht="32.25" customHeight="1">
-      <c r="A17" s="173" t="s">
+      <c r="A17" s="174" t="s">
         <v>214</v>
       </c>
-      <c r="B17" s="174"/>
-      <c r="C17" s="174" t="s">
+      <c r="B17" s="175"/>
+      <c r="C17" s="175" t="s">
         <v>215</v>
       </c>
-      <c r="D17" s="174"/>
-      <c r="E17" s="174"/>
-      <c r="F17" s="174"/>
-      <c r="G17" s="174"/>
-      <c r="H17" s="177" t="s">
+      <c r="D17" s="175"/>
+      <c r="E17" s="175"/>
+      <c r="F17" s="175"/>
+      <c r="G17" s="175"/>
+      <c r="H17" s="178" t="s">
         <v>216</v>
       </c>
-      <c r="I17" s="177"/>
-      <c r="J17" s="178" t="s">
+      <c r="I17" s="178"/>
+      <c r="J17" s="179" t="s">
         <v>217</v>
       </c>
-      <c r="K17" s="179"/>
+      <c r="K17" s="180"/>
     </row>
     <row r="18" spans="1:19" ht="25.5" customHeight="1">
-      <c r="A18" s="181" t="s">
+      <c r="A18" s="182" t="s">
         <v>288</v>
       </c>
-      <c r="B18" s="182"/>
-      <c r="C18" s="180" t="s">
+      <c r="B18" s="183"/>
+      <c r="C18" s="181" t="s">
         <v>287</v>
       </c>
-      <c r="D18" s="181"/>
-      <c r="E18" s="181"/>
-      <c r="F18" s="182"/>
-      <c r="G18" s="180" t="s">
+      <c r="D18" s="182"/>
+      <c r="E18" s="182"/>
+      <c r="F18" s="183"/>
+      <c r="G18" s="181" t="s">
         <v>222</v>
       </c>
-      <c r="H18" s="181"/>
-      <c r="I18" s="181"/>
-      <c r="J18" s="181"/>
-      <c r="K18" s="181"/>
-      <c r="N18" s="150" t="s">
-        <v>336</v>
+      <c r="H18" s="182"/>
+      <c r="I18" s="182"/>
+      <c r="J18" s="182"/>
+      <c r="K18" s="182"/>
+      <c r="N18" s="151" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="19" spans="1:19" ht="21" customHeight="1">
-      <c r="A19" s="161" t="s">
+      <c r="A19" s="162" t="s">
         <v>76</v>
       </c>
-      <c r="B19" s="160"/>
-      <c r="C19" s="182" t="s">
+      <c r="B19" s="161"/>
+      <c r="C19" s="183" t="s">
         <v>226</v>
       </c>
-      <c r="D19" s="180"/>
+      <c r="D19" s="181"/>
       <c r="E19" s="52" t="s">
         <v>219</v>
       </c>
-      <c r="F19" s="182" t="s">
+      <c r="F19" s="183" t="s">
         <v>218</v>
       </c>
-      <c r="G19" s="160"/>
-      <c r="H19" s="182" t="s">
+      <c r="G19" s="161"/>
+      <c r="H19" s="183" t="s">
         <v>220</v>
       </c>
-      <c r="I19" s="160"/>
-      <c r="J19" s="182" t="s">
+      <c r="I19" s="161"/>
+      <c r="J19" s="183" t="s">
         <v>224</v>
       </c>
-      <c r="K19" s="160"/>
+      <c r="K19" s="161"/>
       <c r="N19" s="49" t="s">
         <v>146</v>
       </c>
@@ -7293,23 +7327,23 @@
       </c>
     </row>
     <row r="20" spans="1:19" ht="21" customHeight="1">
-      <c r="A20" s="182" t="s">
+      <c r="A20" s="183" t="s">
         <v>227</v>
       </c>
-      <c r="B20" s="160"/>
-      <c r="C20" s="182" t="s">
+      <c r="B20" s="161"/>
+      <c r="C20" s="183" t="s">
         <v>229</v>
       </c>
-      <c r="D20" s="160"/>
+      <c r="D20" s="161"/>
       <c r="E20" s="45"/>
-      <c r="F20" s="161"/>
-      <c r="G20" s="160"/>
-      <c r="H20" s="161"/>
-      <c r="I20" s="160"/>
-      <c r="J20" s="182" t="s">
+      <c r="F20" s="162"/>
+      <c r="G20" s="161"/>
+      <c r="H20" s="162"/>
+      <c r="I20" s="161"/>
+      <c r="J20" s="183" t="s">
         <v>225</v>
       </c>
-      <c r="K20" s="160"/>
+      <c r="K20" s="161"/>
       <c r="N20" s="49"/>
       <c r="O20" s="49"/>
       <c r="P20" s="49"/>
@@ -7320,23 +7354,23 @@
       <c r="S20" s="49"/>
     </row>
     <row r="21" spans="1:19" ht="21" customHeight="1">
-      <c r="A21" s="182" t="s">
+      <c r="A21" s="183" t="s">
         <v>227</v>
       </c>
-      <c r="B21" s="160"/>
-      <c r="C21" s="182" t="s">
+      <c r="B21" s="161"/>
+      <c r="C21" s="183" t="s">
         <v>230</v>
       </c>
-      <c r="D21" s="160"/>
+      <c r="D21" s="161"/>
       <c r="E21" s="45"/>
-      <c r="F21" s="161"/>
-      <c r="G21" s="160"/>
-      <c r="H21" s="161"/>
-      <c r="I21" s="160"/>
-      <c r="J21" s="182" t="s">
+      <c r="F21" s="162"/>
+      <c r="G21" s="161"/>
+      <c r="H21" s="162"/>
+      <c r="I21" s="161"/>
+      <c r="J21" s="183" t="s">
         <v>225</v>
       </c>
-      <c r="K21" s="160"/>
+      <c r="K21" s="161"/>
       <c r="N21" s="49"/>
       <c r="O21" s="49"/>
       <c r="P21" s="49"/>
@@ -7345,69 +7379,69 @@
       <c r="S21" s="49"/>
     </row>
     <row r="22" spans="1:19" ht="21" customHeight="1">
-      <c r="A22" s="182" t="s">
+      <c r="A22" s="183" t="s">
         <v>228</v>
       </c>
-      <c r="B22" s="160"/>
-      <c r="C22" s="182" t="s">
+      <c r="B22" s="161"/>
+      <c r="C22" s="183" t="s">
         <v>231</v>
       </c>
-      <c r="D22" s="160"/>
+      <c r="D22" s="161"/>
       <c r="E22" s="49"/>
-      <c r="F22" s="161"/>
-      <c r="G22" s="160"/>
-      <c r="H22" s="161"/>
-      <c r="I22" s="160"/>
-      <c r="J22" s="182" t="s">
+      <c r="F22" s="162"/>
+      <c r="G22" s="161"/>
+      <c r="H22" s="162"/>
+      <c r="I22" s="161"/>
+      <c r="J22" s="183" t="s">
         <v>225</v>
       </c>
-      <c r="K22" s="160"/>
+      <c r="K22" s="161"/>
     </row>
     <row r="23" spans="1:19" ht="21" customHeight="1">
-      <c r="A23" s="182" t="s">
+      <c r="A23" s="183" t="s">
         <v>228</v>
       </c>
-      <c r="B23" s="160"/>
-      <c r="C23" s="182" t="s">
+      <c r="B23" s="161"/>
+      <c r="C23" s="183" t="s">
         <v>232</v>
       </c>
-      <c r="D23" s="160"/>
+      <c r="D23" s="161"/>
       <c r="E23" s="49"/>
-      <c r="F23" s="161"/>
-      <c r="G23" s="160"/>
-      <c r="H23" s="161"/>
-      <c r="I23" s="160"/>
-      <c r="J23" s="182" t="s">
+      <c r="F23" s="162"/>
+      <c r="G23" s="161"/>
+      <c r="H23" s="162"/>
+      <c r="I23" s="161"/>
+      <c r="J23" s="183" t="s">
         <v>225</v>
       </c>
-      <c r="K23" s="160"/>
+      <c r="K23" s="161"/>
     </row>
     <row r="26" spans="1:19" ht="32.25" customHeight="1" thickBot="1">
-      <c r="A26" s="187" t="s">
+      <c r="A26" s="188" t="s">
         <v>214</v>
       </c>
-      <c r="B26" s="188"/>
-      <c r="C26" s="188" t="s">
+      <c r="B26" s="189"/>
+      <c r="C26" s="189" t="s">
         <v>215</v>
       </c>
-      <c r="D26" s="188"/>
-      <c r="E26" s="188"/>
-      <c r="F26" s="188"/>
-      <c r="G26" s="188"/>
-      <c r="H26" s="189" t="s">
+      <c r="D26" s="189"/>
+      <c r="E26" s="189"/>
+      <c r="F26" s="189"/>
+      <c r="G26" s="189"/>
+      <c r="H26" s="190" t="s">
         <v>216</v>
       </c>
-      <c r="I26" s="189"/>
-      <c r="J26" s="177" t="s">
+      <c r="I26" s="190"/>
+      <c r="J26" s="178" t="s">
         <v>217</v>
       </c>
-      <c r="K26" s="177"/>
+      <c r="K26" s="178"/>
     </row>
     <row r="27" spans="1:19" ht="25.5" customHeight="1">
-      <c r="A27" s="190" t="s">
+      <c r="A27" s="191" t="s">
         <v>233</v>
       </c>
-      <c r="B27" s="191"/>
+      <c r="B27" s="192"/>
       <c r="C27" s="60"/>
       <c r="D27" s="61"/>
       <c r="E27" s="62"/>
@@ -7425,49 +7459,49 @@
       <c r="B28" s="59" t="s">
         <v>89</v>
       </c>
-      <c r="C28" s="155" t="s">
+      <c r="C28" s="156" t="s">
         <v>90</v>
       </c>
-      <c r="D28" s="155"/>
-      <c r="E28" s="155" t="s">
+      <c r="D28" s="156"/>
+      <c r="E28" s="156" t="s">
         <v>91</v>
       </c>
-      <c r="F28" s="155"/>
-      <c r="G28" s="183" t="s">
+      <c r="F28" s="156"/>
+      <c r="G28" s="184" t="s">
         <v>92</v>
       </c>
-      <c r="H28" s="184"/>
-      <c r="I28" s="183" t="s">
+      <c r="H28" s="185"/>
+      <c r="I28" s="184" t="s">
         <v>93</v>
       </c>
-      <c r="J28" s="185"/>
-      <c r="K28" s="186"/>
+      <c r="J28" s="186"/>
+      <c r="K28" s="187"/>
     </row>
     <row r="29" spans="1:19" ht="21.75" customHeight="1">
       <c r="A29" s="26"/>
       <c r="B29" s="49"/>
-      <c r="C29" s="156"/>
-      <c r="D29" s="156"/>
-      <c r="E29" s="156"/>
-      <c r="F29" s="156"/>
-      <c r="G29" s="161"/>
-      <c r="H29" s="160"/>
-      <c r="I29" s="161"/>
-      <c r="J29" s="159"/>
-      <c r="K29" s="162"/>
+      <c r="C29" s="157"/>
+      <c r="D29" s="157"/>
+      <c r="E29" s="157"/>
+      <c r="F29" s="157"/>
+      <c r="G29" s="162"/>
+      <c r="H29" s="161"/>
+      <c r="I29" s="162"/>
+      <c r="J29" s="160"/>
+      <c r="K29" s="163"/>
     </row>
     <row r="30" spans="1:19" ht="21.75" customHeight="1" thickBot="1">
       <c r="A30" s="58"/>
       <c r="B30" s="57"/>
-      <c r="C30" s="192"/>
-      <c r="D30" s="192"/>
-      <c r="E30" s="192"/>
-      <c r="F30" s="192"/>
-      <c r="G30" s="193"/>
-      <c r="H30" s="194"/>
-      <c r="I30" s="193"/>
-      <c r="J30" s="195"/>
-      <c r="K30" s="172"/>
+      <c r="C30" s="193"/>
+      <c r="D30" s="193"/>
+      <c r="E30" s="193"/>
+      <c r="F30" s="193"/>
+      <c r="G30" s="194"/>
+      <c r="H30" s="195"/>
+      <c r="I30" s="194"/>
+      <c r="J30" s="196"/>
+      <c r="K30" s="173"/>
     </row>
   </sheetData>
   <mergeCells count="54">
@@ -7533,10 +7567,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T110"/>
+  <dimension ref="A1:T111"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="B104" sqref="B104"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7571,11 +7605,11 @@
       <c r="A5" s="45" t="s">
         <v>146</v>
       </c>
-      <c r="B5" s="161" t="s">
+      <c r="B5" s="162" t="s">
         <v>147</v>
       </c>
-      <c r="C5" s="159"/>
-      <c r="D5" s="160"/>
+      <c r="C5" s="160"/>
+      <c r="D5" s="161"/>
       <c r="E5" s="52" t="s">
         <v>242</v>
       </c>
@@ -7594,11 +7628,11 @@
       <c r="A6" s="66">
         <v>43136.354166666664</v>
       </c>
-      <c r="B6" s="202" t="s">
+      <c r="B6" s="203" t="s">
         <v>235</v>
       </c>
-      <c r="C6" s="203"/>
-      <c r="D6" s="204"/>
+      <c r="C6" s="204"/>
+      <c r="D6" s="205"/>
       <c r="E6" s="45">
         <v>400</v>
       </c>
@@ -7618,11 +7652,11 @@
       <c r="A7" s="66">
         <v>43137.354166608799</v>
       </c>
-      <c r="B7" s="202" t="s">
+      <c r="B7" s="203" t="s">
         <v>289</v>
       </c>
-      <c r="C7" s="203"/>
-      <c r="D7" s="204"/>
+      <c r="C7" s="204"/>
+      <c r="D7" s="205"/>
       <c r="E7" s="125">
         <v>400</v>
       </c>
@@ -7642,11 +7676,11 @@
       <c r="A8" s="66">
         <v>43138.354166608799</v>
       </c>
-      <c r="B8" s="202" t="s">
+      <c r="B8" s="203" t="s">
         <v>290</v>
       </c>
-      <c r="C8" s="203"/>
-      <c r="D8" s="204"/>
+      <c r="C8" s="204"/>
+      <c r="D8" s="205"/>
       <c r="E8" s="125">
         <v>400</v>
       </c>
@@ -7664,45 +7698,45 @@
     </row>
     <row r="9" spans="1:9" ht="37.5" customHeight="1">
       <c r="A9" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="21" thickBot="1">
       <c r="A10" s="3"/>
     </row>
     <row r="11" spans="1:9" ht="27.75" customHeight="1">
-      <c r="A11" s="198" t="s">
+      <c r="A11" s="199" t="s">
         <v>159</v>
       </c>
-      <c r="B11" s="209" t="s">
+      <c r="B11" s="210" t="s">
         <v>125</v>
       </c>
-      <c r="C11" s="210"/>
-      <c r="D11" s="211"/>
-      <c r="E11" s="205" t="s">
+      <c r="C11" s="211"/>
+      <c r="D11" s="212"/>
+      <c r="E11" s="206" t="s">
         <v>220</v>
       </c>
-      <c r="F11" s="206"/>
-      <c r="G11" s="207" t="s">
+      <c r="F11" s="207"/>
+      <c r="G11" s="208" t="s">
         <v>242</v>
       </c>
-      <c r="H11" s="196" t="s">
+      <c r="H11" s="197" t="s">
         <v>239</v>
       </c>
-      <c r="I11" s="200" t="s">
+      <c r="I11" s="201" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="27.75" customHeight="1">
-      <c r="A12" s="199"/>
+      <c r="A12" s="200"/>
       <c r="B12" s="133" t="s">
+        <v>327</v>
+      </c>
+      <c r="C12" s="134" t="s">
         <v>328</v>
       </c>
-      <c r="C12" s="134" t="s">
+      <c r="D12" s="135" t="s">
         <v>329</v>
-      </c>
-      <c r="D12" s="135" t="s">
-        <v>330</v>
       </c>
       <c r="E12" s="128" t="s">
         <v>202</v>
@@ -7710,9 +7744,9 @@
       <c r="F12" s="145" t="s">
         <v>236</v>
       </c>
-      <c r="G12" s="208"/>
-      <c r="H12" s="197"/>
-      <c r="I12" s="201"/>
+      <c r="G12" s="209"/>
+      <c r="H12" s="198"/>
+      <c r="I12" s="202"/>
     </row>
     <row r="13" spans="1:9" ht="27.75" customHeight="1">
       <c r="A13" s="75">
@@ -7921,15 +7955,15 @@
       <c r="A20" s="78" t="s">
         <v>132</v>
       </c>
-      <c r="B20" s="212" t="s">
-        <v>327</v>
-      </c>
-      <c r="C20" s="213"/>
-      <c r="D20" s="214"/>
-      <c r="E20" s="215" t="s">
+      <c r="B20" s="213" t="s">
         <v>326</v>
       </c>
-      <c r="F20" s="216"/>
+      <c r="C20" s="214"/>
+      <c r="D20" s="215"/>
+      <c r="E20" s="216" t="s">
+        <v>325</v>
+      </c>
+      <c r="F20" s="217"/>
       <c r="G20" s="132">
         <v>2888</v>
       </c>
@@ -7943,87 +7977,87 @@
     <row r="22" spans="1:20" ht="30" customHeight="1"/>
     <row r="23" spans="1:20" ht="44.25" customHeight="1">
       <c r="A23" s="3" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" ht="25.5" customHeight="1">
+      <c r="A24" s="174" t="s">
+        <v>214</v>
+      </c>
+      <c r="B24" s="175"/>
+      <c r="C24" s="175" t="s">
+        <v>245</v>
+      </c>
+      <c r="D24" s="175"/>
+      <c r="E24" s="175"/>
+      <c r="F24" s="175"/>
+      <c r="G24" s="175"/>
+      <c r="H24" s="110"/>
+      <c r="I24" s="218" t="s">
+        <v>216</v>
+      </c>
+      <c r="J24" s="218"/>
+      <c r="K24" s="179" t="s">
+        <v>244</v>
+      </c>
+      <c r="L24" s="180"/>
+      <c r="O24" s="3" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="24" spans="1:20" ht="25.5" customHeight="1">
-      <c r="A24" s="173" t="s">
-        <v>214</v>
-      </c>
-      <c r="B24" s="174"/>
-      <c r="C24" s="174" t="s">
-        <v>245</v>
-      </c>
-      <c r="D24" s="174"/>
-      <c r="E24" s="174"/>
-      <c r="F24" s="174"/>
-      <c r="G24" s="174"/>
-      <c r="H24" s="110"/>
-      <c r="I24" s="217" t="s">
-        <v>216</v>
-      </c>
-      <c r="J24" s="217"/>
-      <c r="K24" s="178" t="s">
-        <v>244</v>
-      </c>
-      <c r="L24" s="179"/>
-      <c r="O24" s="3" t="s">
-        <v>338</v>
-      </c>
-    </row>
     <row r="25" spans="1:20" ht="29.25" customHeight="1">
-      <c r="A25" s="181" t="s">
+      <c r="A25" s="182" t="s">
         <v>223</v>
       </c>
-      <c r="B25" s="182"/>
-      <c r="C25" s="180" t="s">
+      <c r="B25" s="183"/>
+      <c r="C25" s="181" t="s">
         <v>221</v>
       </c>
-      <c r="D25" s="181"/>
-      <c r="E25" s="181"/>
-      <c r="F25" s="182"/>
-      <c r="G25" s="180" t="s">
+      <c r="D25" s="182"/>
+      <c r="E25" s="182"/>
+      <c r="F25" s="183"/>
+      <c r="G25" s="181" t="s">
         <v>222</v>
       </c>
-      <c r="H25" s="180"/>
-      <c r="I25" s="181"/>
-      <c r="J25" s="181"/>
-      <c r="K25" s="181"/>
-      <c r="L25" s="181"/>
-      <c r="O25" s="233" t="s">
+      <c r="H25" s="181"/>
+      <c r="I25" s="182"/>
+      <c r="J25" s="182"/>
+      <c r="K25" s="182"/>
+      <c r="L25" s="182"/>
+      <c r="O25" s="234" t="s">
         <v>204</v>
       </c>
-      <c r="P25" s="233"/>
-      <c r="Q25" s="233"/>
-      <c r="R25" s="233"/>
-      <c r="S25" s="233"/>
-      <c r="T25" s="233"/>
+      <c r="P25" s="234"/>
+      <c r="Q25" s="234"/>
+      <c r="R25" s="234"/>
+      <c r="S25" s="234"/>
+      <c r="T25" s="234"/>
     </row>
     <row r="26" spans="1:20" ht="29.25" customHeight="1">
-      <c r="A26" s="218" t="s">
+      <c r="A26" s="219" t="s">
         <v>76</v>
       </c>
-      <c r="B26" s="219"/>
-      <c r="C26" s="220" t="s">
+      <c r="B26" s="220"/>
+      <c r="C26" s="221" t="s">
         <v>226</v>
       </c>
-      <c r="D26" s="221"/>
-      <c r="E26" s="237" t="s">
+      <c r="D26" s="222"/>
+      <c r="E26" s="238" t="s">
         <v>219</v>
       </c>
-      <c r="F26" s="235"/>
-      <c r="G26" s="235" t="s">
+      <c r="F26" s="236"/>
+      <c r="G26" s="236" t="s">
         <v>218</v>
       </c>
-      <c r="H26" s="236"/>
-      <c r="I26" s="220" t="s">
+      <c r="H26" s="237"/>
+      <c r="I26" s="221" t="s">
         <v>220</v>
       </c>
-      <c r="J26" s="219"/>
-      <c r="K26" s="220" t="s">
+      <c r="J26" s="220"/>
+      <c r="K26" s="221" t="s">
         <v>224</v>
       </c>
-      <c r="L26" s="219"/>
+      <c r="L26" s="220"/>
       <c r="O26" s="59" t="s">
         <v>146</v>
       </c>
@@ -8044,26 +8078,26 @@
       </c>
     </row>
     <row r="27" spans="1:20" ht="29.25" customHeight="1">
-      <c r="A27" s="182" t="s">
+      <c r="A27" s="183" t="s">
         <v>227</v>
       </c>
-      <c r="B27" s="160"/>
-      <c r="C27" s="182" t="s">
+      <c r="B27" s="161"/>
+      <c r="C27" s="183" t="s">
         <v>229</v>
       </c>
-      <c r="D27" s="159"/>
-      <c r="E27" s="226"/>
-      <c r="F27" s="226"/>
-      <c r="G27" s="226"/>
-      <c r="H27" s="226"/>
-      <c r="I27" s="222" t="s">
+      <c r="D27" s="160"/>
+      <c r="E27" s="227"/>
+      <c r="F27" s="227"/>
+      <c r="G27" s="227"/>
+      <c r="H27" s="227"/>
+      <c r="I27" s="223" t="s">
         <v>243</v>
       </c>
-      <c r="J27" s="223"/>
-      <c r="K27" s="182" t="s">
+      <c r="J27" s="224"/>
+      <c r="K27" s="183" t="s">
         <v>225</v>
       </c>
-      <c r="L27" s="160"/>
+      <c r="L27" s="161"/>
       <c r="O27" s="49"/>
       <c r="P27" s="49"/>
       <c r="Q27" s="49"/>
@@ -8074,26 +8108,26 @@
       <c r="T27" s="49"/>
     </row>
     <row r="28" spans="1:20" ht="29.25" customHeight="1">
-      <c r="A28" s="182" t="s">
+      <c r="A28" s="183" t="s">
         <v>227</v>
       </c>
-      <c r="B28" s="160"/>
-      <c r="C28" s="182" t="s">
+      <c r="B28" s="161"/>
+      <c r="C28" s="183" t="s">
         <v>230</v>
       </c>
-      <c r="D28" s="159"/>
-      <c r="E28" s="226"/>
-      <c r="F28" s="226"/>
-      <c r="G28" s="226"/>
-      <c r="H28" s="226"/>
-      <c r="I28" s="224" t="s">
+      <c r="D28" s="160"/>
+      <c r="E28" s="227"/>
+      <c r="F28" s="227"/>
+      <c r="G28" s="227"/>
+      <c r="H28" s="227"/>
+      <c r="I28" s="225" t="s">
         <v>272</v>
       </c>
-      <c r="J28" s="225"/>
-      <c r="K28" s="182" t="s">
+      <c r="J28" s="226"/>
+      <c r="K28" s="183" t="s">
         <v>225</v>
       </c>
-      <c r="L28" s="160"/>
+      <c r="L28" s="161"/>
       <c r="O28" s="49"/>
       <c r="P28" s="49"/>
       <c r="Q28" s="49"/>
@@ -8102,87 +8136,87 @@
       <c r="T28" s="49"/>
     </row>
     <row r="29" spans="1:20" ht="29.25" customHeight="1">
-      <c r="A29" s="182" t="s">
+      <c r="A29" s="183" t="s">
         <v>227</v>
       </c>
-      <c r="B29" s="160"/>
-      <c r="C29" s="182" t="s">
+      <c r="B29" s="161"/>
+      <c r="C29" s="183" t="s">
         <v>231</v>
       </c>
-      <c r="D29" s="159"/>
-      <c r="E29" s="226"/>
-      <c r="F29" s="226"/>
-      <c r="G29" s="226"/>
-      <c r="H29" s="226"/>
-      <c r="I29" s="159"/>
-      <c r="J29" s="160"/>
-      <c r="K29" s="182" t="s">
+      <c r="D29" s="160"/>
+      <c r="E29" s="227"/>
+      <c r="F29" s="227"/>
+      <c r="G29" s="227"/>
+      <c r="H29" s="227"/>
+      <c r="I29" s="160"/>
+      <c r="J29" s="161"/>
+      <c r="K29" s="183" t="s">
         <v>225</v>
       </c>
-      <c r="L29" s="160"/>
+      <c r="L29" s="161"/>
     </row>
     <row r="30" spans="1:20" ht="29.25" customHeight="1">
-      <c r="A30" s="182" t="s">
+      <c r="A30" s="183" t="s">
         <v>227</v>
       </c>
-      <c r="B30" s="160"/>
-      <c r="C30" s="182" t="s">
+      <c r="B30" s="161"/>
+      <c r="C30" s="183" t="s">
         <v>232</v>
       </c>
-      <c r="D30" s="159"/>
-      <c r="E30" s="226"/>
-      <c r="F30" s="226"/>
-      <c r="G30" s="226"/>
-      <c r="H30" s="226"/>
-      <c r="I30" s="159"/>
-      <c r="J30" s="160"/>
-      <c r="K30" s="182" t="s">
+      <c r="D30" s="160"/>
+      <c r="E30" s="227"/>
+      <c r="F30" s="227"/>
+      <c r="G30" s="227"/>
+      <c r="H30" s="227"/>
+      <c r="I30" s="160"/>
+      <c r="J30" s="161"/>
+      <c r="K30" s="183" t="s">
         <v>225</v>
       </c>
-      <c r="L30" s="160"/>
+      <c r="L30" s="161"/>
     </row>
     <row r="31" spans="1:20" ht="29.25" customHeight="1"/>
     <row r="32" spans="1:20" ht="29.25" customHeight="1">
-      <c r="A32" s="173" t="s">
+      <c r="A32" s="174" t="s">
         <v>214</v>
       </c>
-      <c r="B32" s="174"/>
-      <c r="C32" s="174" t="s">
+      <c r="B32" s="175"/>
+      <c r="C32" s="175" t="s">
         <v>245</v>
       </c>
-      <c r="D32" s="174"/>
-      <c r="E32" s="174"/>
-      <c r="F32" s="174"/>
-      <c r="G32" s="174"/>
+      <c r="D32" s="175"/>
+      <c r="E32" s="175"/>
+      <c r="F32" s="175"/>
+      <c r="G32" s="175"/>
       <c r="H32" s="110"/>
-      <c r="I32" s="178" t="s">
+      <c r="I32" s="179" t="s">
         <v>216</v>
       </c>
-      <c r="J32" s="178"/>
-      <c r="K32" s="217" t="s">
+      <c r="J32" s="179"/>
+      <c r="K32" s="218" t="s">
         <v>244</v>
       </c>
-      <c r="L32" s="217"/>
+      <c r="L32" s="218"/>
     </row>
     <row r="33" spans="1:12" ht="29.25" customHeight="1">
-      <c r="A33" s="181" t="s">
+      <c r="A33" s="182" t="s">
         <v>246</v>
       </c>
-      <c r="B33" s="182"/>
-      <c r="C33" s="234"/>
-      <c r="D33" s="234"/>
-      <c r="E33" s="234" t="s">
+      <c r="B33" s="183"/>
+      <c r="C33" s="235"/>
+      <c r="D33" s="235"/>
+      <c r="E33" s="235" t="s">
         <v>270</v>
       </c>
-      <c r="F33" s="234"/>
-      <c r="G33" s="234"/>
+      <c r="F33" s="235"/>
+      <c r="G33" s="235"/>
       <c r="H33" s="67"/>
-      <c r="I33" s="234" t="s">
+      <c r="I33" s="235" t="s">
         <v>266</v>
       </c>
-      <c r="J33" s="234"/>
-      <c r="K33" s="234"/>
-      <c r="L33" s="180"/>
+      <c r="J33" s="235"/>
+      <c r="K33" s="235"/>
+      <c r="L33" s="181"/>
     </row>
     <row r="34" spans="1:12" ht="29.25" customHeight="1">
       <c r="A34" s="87" t="s">
@@ -8191,57 +8225,57 @@
       <c r="B34" s="89" t="s">
         <v>248</v>
       </c>
-      <c r="C34" s="227" t="s">
+      <c r="C34" s="228" t="s">
         <v>249</v>
       </c>
-      <c r="D34" s="228"/>
-      <c r="E34" s="227" t="s">
+      <c r="D34" s="229"/>
+      <c r="E34" s="228" t="s">
         <v>250</v>
       </c>
-      <c r="F34" s="228"/>
-      <c r="G34" s="229" t="s">
+      <c r="F34" s="229"/>
+      <c r="G34" s="230" t="s">
         <v>236</v>
       </c>
-      <c r="H34" s="230"/>
-      <c r="I34" s="231"/>
-      <c r="J34" s="229" t="s">
+      <c r="H34" s="231"/>
+      <c r="I34" s="232"/>
+      <c r="J34" s="230" t="s">
         <v>224</v>
       </c>
-      <c r="K34" s="232"/>
-      <c r="L34" s="231"/>
+      <c r="K34" s="233"/>
+      <c r="L34" s="232"/>
     </row>
     <row r="35" spans="1:12" ht="29.25" customHeight="1">
       <c r="A35" s="49"/>
       <c r="B35" s="49"/>
-      <c r="C35" s="156"/>
-      <c r="D35" s="156"/>
-      <c r="E35" s="156"/>
-      <c r="F35" s="156"/>
-      <c r="G35" s="161"/>
-      <c r="H35" s="159"/>
-      <c r="I35" s="160"/>
-      <c r="J35" s="161"/>
-      <c r="K35" s="159"/>
-      <c r="L35" s="160"/>
+      <c r="C35" s="157"/>
+      <c r="D35" s="157"/>
+      <c r="E35" s="157"/>
+      <c r="F35" s="157"/>
+      <c r="G35" s="162"/>
+      <c r="H35" s="160"/>
+      <c r="I35" s="161"/>
+      <c r="J35" s="162"/>
+      <c r="K35" s="160"/>
+      <c r="L35" s="161"/>
     </row>
     <row r="36" spans="1:12" ht="29.25" customHeight="1">
       <c r="A36" s="49"/>
       <c r="B36" s="49"/>
-      <c r="C36" s="156"/>
-      <c r="D36" s="156"/>
-      <c r="E36" s="156"/>
-      <c r="F36" s="156"/>
-      <c r="G36" s="161"/>
-      <c r="H36" s="159"/>
-      <c r="I36" s="160"/>
-      <c r="J36" s="161"/>
-      <c r="K36" s="159"/>
-      <c r="L36" s="160"/>
+      <c r="C36" s="157"/>
+      <c r="D36" s="157"/>
+      <c r="E36" s="157"/>
+      <c r="F36" s="157"/>
+      <c r="G36" s="162"/>
+      <c r="H36" s="160"/>
+      <c r="I36" s="161"/>
+      <c r="J36" s="162"/>
+      <c r="K36" s="160"/>
+      <c r="L36" s="161"/>
     </row>
     <row r="38" spans="1:12" ht="47.25" customHeight="1"/>
     <row r="39" spans="1:12" ht="45" customHeight="1">
       <c r="A39" s="3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="43.5" customHeight="1">
@@ -8257,10 +8291,10 @@
       <c r="D40" s="116" t="s">
         <v>282</v>
       </c>
-      <c r="E40" s="240" t="s">
+      <c r="E40" s="241" t="s">
         <v>283</v>
       </c>
-      <c r="F40" s="241"/>
+      <c r="F40" s="242"/>
       <c r="G40" s="34"/>
       <c r="H40" s="34"/>
       <c r="I40" s="11"/>
@@ -8395,7 +8429,7 @@
     <row r="48" spans="1:12" ht="76.5" customHeight="1"/>
     <row r="49" spans="1:8" ht="30" customHeight="1">
       <c r="A49" s="3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -8483,7 +8517,7 @@
     </row>
     <row r="63" spans="1:8" ht="20.25">
       <c r="A63" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="22.5">
@@ -8502,199 +8536,225 @@
         <v>183</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="26.25" customHeight="1">
-      <c r="A88" t="s">
-        <v>184</v>
-      </c>
-      <c r="B88" s="45" t="s">
+    <row r="88" spans="1:8" ht="18.75">
+      <c r="A88" s="150" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" ht="26.25" customHeight="1">
+      <c r="B89" s="45" t="s">
         <v>107</v>
       </c>
-      <c r="C88" s="45" t="s">
+      <c r="C89" s="45" t="s">
         <v>185</v>
       </c>
-      <c r="D88" s="45" t="s">
+      <c r="D89" s="45" t="s">
         <v>186</v>
       </c>
-      <c r="E88" s="45" t="s">
+      <c r="E89" s="45" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="89" spans="1:8" ht="26.25" customHeight="1">
-      <c r="B89" s="45"/>
-      <c r="C89" s="45" t="s">
+    <row r="90" spans="1:8" ht="26.25" customHeight="1">
+      <c r="B90" s="45"/>
+      <c r="C90" s="45" t="s">
         <v>187</v>
       </c>
-      <c r="D89" s="45" t="s">
+      <c r="D90" s="45" t="s">
         <v>188</v>
       </c>
-      <c r="E89" s="45"/>
-    </row>
-    <row r="90" spans="1:8" ht="32.25" customHeight="1">
-      <c r="A90" s="3" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
-      <c r="B91" s="156" t="s">
+      <c r="E90" s="45"/>
+    </row>
+    <row r="91" spans="1:8" ht="32.25" customHeight="1">
+      <c r="A91" s="3" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
+      <c r="B92" s="157" t="s">
         <v>190</v>
       </c>
-      <c r="C91" s="49" t="s">
+      <c r="C92" s="49" t="s">
         <v>113</v>
-      </c>
-      <c r="D91" s="49"/>
-      <c r="E91" s="104" t="s">
-        <v>191</v>
-      </c>
-      <c r="F91" s="238" t="s">
-        <v>260</v>
-      </c>
-      <c r="G91" s="239"/>
-      <c r="H91" s="112"/>
-    </row>
-    <row r="92" spans="1:8">
-      <c r="B92" s="156"/>
-      <c r="C92" s="49" t="s">
-        <v>127</v>
       </c>
       <c r="D92" s="49"/>
       <c r="E92" s="104" t="s">
         <v>191</v>
       </c>
-      <c r="F92" s="239"/>
-      <c r="G92" s="239"/>
+      <c r="F92" s="239" t="s">
+        <v>260</v>
+      </c>
+      <c r="G92" s="240"/>
       <c r="H92" s="112"/>
     </row>
     <row r="93" spans="1:8">
-      <c r="B93" s="156" t="s">
-        <v>192</v>
-      </c>
+      <c r="B93" s="157"/>
       <c r="C93" s="49" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="D93" s="49"/>
       <c r="E93" s="104" t="s">
         <v>191</v>
       </c>
-      <c r="F93" s="239"/>
-      <c r="G93" s="239"/>
+      <c r="F93" s="240"/>
+      <c r="G93" s="240"/>
       <c r="H93" s="112"/>
     </row>
     <row r="94" spans="1:8">
-      <c r="B94" s="156"/>
+      <c r="B94" s="157" t="s">
+        <v>192</v>
+      </c>
       <c r="C94" s="49" t="s">
-        <v>16</v>
+        <v>117</v>
       </c>
       <c r="D94" s="49"/>
       <c r="E94" s="104" t="s">
         <v>191</v>
       </c>
-      <c r="F94" s="239"/>
-      <c r="G94" s="239"/>
+      <c r="F94" s="240"/>
+      <c r="G94" s="240"/>
       <c r="H94" s="112"/>
     </row>
     <row r="95" spans="1:8">
-      <c r="B95" s="156"/>
+      <c r="B95" s="157"/>
       <c r="C95" s="49" t="s">
-        <v>115</v>
+        <v>16</v>
       </c>
       <c r="D95" s="49"/>
       <c r="E95" s="104" t="s">
         <v>191</v>
       </c>
-      <c r="F95" s="239"/>
-      <c r="G95" s="239"/>
+      <c r="F95" s="240"/>
+      <c r="G95" s="240"/>
       <c r="H95" s="112"/>
     </row>
     <row r="96" spans="1:8">
-      <c r="B96" s="156"/>
-      <c r="C96" s="51" t="s">
+      <c r="B96" s="157"/>
+      <c r="C96" s="49" t="s">
+        <v>115</v>
+      </c>
+      <c r="D96" s="49"/>
+      <c r="E96" s="104" t="s">
+        <v>191</v>
+      </c>
+      <c r="F96" s="240"/>
+      <c r="G96" s="240"/>
+      <c r="H96" s="112"/>
+    </row>
+    <row r="97" spans="1:8">
+      <c r="B97" s="157"/>
+      <c r="C97" s="51" t="s">
         <v>261</v>
       </c>
-      <c r="D96" s="49"/>
-      <c r="E96" s="105" t="s">
+      <c r="D97" s="49"/>
+      <c r="E97" s="105" t="s">
         <v>191</v>
       </c>
-      <c r="F96" s="106" t="s">
+      <c r="F97" s="106" t="s">
         <v>262</v>
       </c>
-      <c r="G96" s="106"/>
-      <c r="H96" s="106"/>
-    </row>
-    <row r="97" spans="1:5">
-      <c r="B97" s="45" t="s">
+      <c r="G97" s="106"/>
+      <c r="H97" s="106"/>
+    </row>
+    <row r="98" spans="1:8">
+      <c r="B98" s="45" t="s">
         <v>193</v>
       </c>
-      <c r="C97" s="49"/>
-      <c r="D97" s="49" t="s">
+      <c r="C98" s="49"/>
+      <c r="D98" s="49" t="s">
         <v>194</v>
       </c>
-      <c r="E97" s="103"/>
-    </row>
-    <row r="99" spans="1:5">
-      <c r="A99" t="s">
+      <c r="E98" s="103"/>
+    </row>
+    <row r="100" spans="1:8">
+      <c r="A100" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="101" spans="1:5" ht="18.75">
-      <c r="A101" s="149" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
-      <c r="B103" s="45" t="s">
+    <row r="102" spans="1:8" ht="18.75">
+      <c r="A102" s="150" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
+      <c r="B104" s="45" t="s">
         <v>197</v>
       </c>
-      <c r="C103" s="45" t="s">
+      <c r="C104" s="45" t="s">
         <v>198</v>
       </c>
-      <c r="D103" s="45" t="s">
+      <c r="D104" s="45" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="104" spans="1:5">
-      <c r="B104" s="45"/>
-      <c r="C104" s="45"/>
-      <c r="D104" s="45"/>
-    </row>
-    <row r="105" spans="1:5">
-      <c r="B105" s="45"/>
-      <c r="C105" s="45"/>
-      <c r="D105" s="45"/>
-    </row>
-    <row r="106" spans="1:5">
+    <row r="105" spans="1:8">
+      <c r="B105" s="45">
+        <v>123</v>
+      </c>
+      <c r="C105" s="148" t="s">
+        <v>340</v>
+      </c>
+      <c r="D105" s="148" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8">
       <c r="B106" s="45"/>
       <c r="C106" s="45"/>
       <c r="D106" s="45"/>
     </row>
-    <row r="107" spans="1:5">
-      <c r="B107" s="45"/>
-      <c r="C107" s="45"/>
-      <c r="D107" s="45"/>
-    </row>
-    <row r="108" spans="1:5">
-      <c r="B108" s="45"/>
-      <c r="C108" s="45"/>
-      <c r="D108" s="45"/>
-    </row>
-    <row r="109" spans="1:5">
-      <c r="B109" s="45"/>
-      <c r="C109" s="45"/>
-      <c r="D109" s="45"/>
-    </row>
-    <row r="110" spans="1:5">
-      <c r="B110" s="45" t="s">
+    <row r="107" spans="1:8">
+      <c r="B107" s="45">
+        <v>123</v>
+      </c>
+      <c r="C107" s="45">
+        <v>1</v>
+      </c>
+      <c r="D107" s="45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8">
+      <c r="B108" s="45">
+        <v>123</v>
+      </c>
+      <c r="C108" s="45">
+        <v>2</v>
+      </c>
+      <c r="D108" s="45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8">
+      <c r="B109" s="45">
+        <v>123</v>
+      </c>
+      <c r="C109" s="45">
+        <v>3</v>
+      </c>
+      <c r="D109" s="45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8">
+      <c r="B110" s="45"/>
+      <c r="C110" s="45"/>
+      <c r="D110" s="45"/>
+    </row>
+    <row r="111" spans="1:8">
+      <c r="B111" s="45" t="s">
         <v>132</v>
       </c>
-      <c r="C110" s="45"/>
-      <c r="D110" s="45" t="s">
+      <c r="C111" s="45"/>
+      <c r="D111" s="45" t="s">
         <v>200</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="74">
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="F91:G95"/>
-    <mergeCell ref="B93:B96"/>
+    <mergeCell ref="B92:B93"/>
+    <mergeCell ref="F92:G96"/>
+    <mergeCell ref="B94:B97"/>
     <mergeCell ref="C36:D36"/>
     <mergeCell ref="E36:F36"/>
     <mergeCell ref="G36:I36"/>
@@ -8812,43 +8872,43 @@
       <c r="A5" s="45" t="s">
         <v>146</v>
       </c>
-      <c r="B5" s="161" t="s">
+      <c r="B5" s="162" t="s">
         <v>147</v>
       </c>
-      <c r="C5" s="159"/>
-      <c r="D5" s="160"/>
+      <c r="C5" s="160"/>
+      <c r="D5" s="161"/>
       <c r="E5" s="52" t="s">
         <v>242</v>
       </c>
       <c r="F5" s="45" t="s">
         <v>117</v>
       </c>
-      <c r="G5" s="182" t="s">
+      <c r="G5" s="183" t="s">
         <v>205</v>
       </c>
-      <c r="H5" s="234"/>
-      <c r="I5" s="180"/>
+      <c r="H5" s="235"/>
+      <c r="I5" s="181"/>
     </row>
     <row r="6" spans="1:16" ht="78.75" customHeight="1">
       <c r="A6" s="66">
         <v>43136.354166666664</v>
       </c>
-      <c r="B6" s="202" t="s">
+      <c r="B6" s="203" t="s">
         <v>235</v>
       </c>
-      <c r="C6" s="203"/>
-      <c r="D6" s="204"/>
+      <c r="C6" s="204"/>
+      <c r="D6" s="205"/>
       <c r="E6" s="45">
         <v>400</v>
       </c>
       <c r="F6" s="45">
         <v>200</v>
       </c>
-      <c r="G6" s="161">
+      <c r="G6" s="162">
         <v>200</v>
       </c>
-      <c r="H6" s="159"/>
-      <c r="I6" s="160"/>
+      <c r="H6" s="160"/>
+      <c r="I6" s="161"/>
     </row>
     <row r="8" spans="1:16" ht="30" customHeight="1"/>
     <row r="9" spans="1:16" ht="37.5" customHeight="1">
@@ -8860,30 +8920,30 @@
       <c r="A10" s="3"/>
     </row>
     <row r="11" spans="1:16" ht="27.75" customHeight="1">
-      <c r="A11" s="198" t="s">
+      <c r="A11" s="199" t="s">
         <v>159</v>
       </c>
-      <c r="B11" s="242" t="s">
+      <c r="B11" s="243" t="s">
         <v>125</v>
       </c>
-      <c r="C11" s="243"/>
-      <c r="D11" s="244"/>
-      <c r="E11" s="242" t="s">
+      <c r="C11" s="244"/>
+      <c r="D11" s="245"/>
+      <c r="E11" s="243" t="s">
         <v>220</v>
       </c>
-      <c r="F11" s="244"/>
-      <c r="G11" s="198" t="s">
+      <c r="F11" s="245"/>
+      <c r="G11" s="199" t="s">
         <v>242</v>
       </c>
-      <c r="H11" s="198" t="s">
+      <c r="H11" s="199" t="s">
         <v>239</v>
       </c>
-      <c r="I11" s="200" t="s">
+      <c r="I11" s="201" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="27.75" customHeight="1">
-      <c r="A12" s="199"/>
+      <c r="A12" s="200"/>
       <c r="B12" s="79" t="s">
         <v>264</v>
       </c>
@@ -8899,9 +8959,9 @@
       <c r="F12" s="80" t="s">
         <v>236</v>
       </c>
-      <c r="G12" s="199"/>
-      <c r="H12" s="199"/>
-      <c r="I12" s="252"/>
+      <c r="G12" s="200"/>
+      <c r="H12" s="200"/>
+      <c r="I12" s="253"/>
       <c r="J12" s="124" t="s">
         <v>286</v>
       </c>
@@ -9142,15 +9202,15 @@
       <c r="A20" s="78" t="s">
         <v>132</v>
       </c>
-      <c r="B20" s="245" t="s">
+      <c r="B20" s="246" t="s">
         <v>241</v>
       </c>
-      <c r="C20" s="246"/>
-      <c r="D20" s="247"/>
-      <c r="E20" s="245" t="s">
+      <c r="C20" s="247"/>
+      <c r="D20" s="248"/>
+      <c r="E20" s="246" t="s">
         <v>240</v>
       </c>
-      <c r="F20" s="247"/>
+      <c r="F20" s="248"/>
       <c r="G20" s="86">
         <v>2888</v>
       </c>
@@ -9162,10 +9222,10 @@
       </c>
     </row>
     <row r="21" spans="1:20" ht="23.25" customHeight="1">
-      <c r="E21" s="249" t="s">
+      <c r="E21" s="250" t="s">
         <v>273</v>
       </c>
-      <c r="F21" s="249"/>
+      <c r="F21" s="250"/>
     </row>
     <row r="22" spans="1:20" ht="30" customHeight="1"/>
     <row r="23" spans="1:20" ht="44.25" customHeight="1">
@@ -9174,82 +9234,82 @@
       </c>
     </row>
     <row r="24" spans="1:20" ht="25.5" customHeight="1">
-      <c r="A24" s="173" t="s">
+      <c r="A24" s="174" t="s">
         <v>214</v>
       </c>
-      <c r="B24" s="174"/>
-      <c r="C24" s="174" t="s">
+      <c r="B24" s="175"/>
+      <c r="C24" s="175" t="s">
         <v>271</v>
       </c>
-      <c r="D24" s="174"/>
-      <c r="E24" s="174"/>
-      <c r="F24" s="174"/>
-      <c r="G24" s="174"/>
+      <c r="D24" s="175"/>
+      <c r="E24" s="175"/>
+      <c r="F24" s="175"/>
+      <c r="G24" s="175"/>
       <c r="H24" s="110"/>
-      <c r="I24" s="217" t="s">
+      <c r="I24" s="218" t="s">
         <v>267</v>
       </c>
-      <c r="J24" s="217"/>
-      <c r="K24" s="178" t="s">
+      <c r="J24" s="218"/>
+      <c r="K24" s="179" t="s">
         <v>244</v>
       </c>
-      <c r="L24" s="179"/>
+      <c r="L24" s="180"/>
     </row>
     <row r="25" spans="1:20" ht="29.25" customHeight="1">
-      <c r="A25" s="181" t="s">
+      <c r="A25" s="182" t="s">
         <v>268</v>
       </c>
-      <c r="B25" s="182"/>
-      <c r="C25" s="234" t="s">
+      <c r="B25" s="183"/>
+      <c r="C25" s="235" t="s">
         <v>270</v>
       </c>
-      <c r="D25" s="234"/>
-      <c r="E25" s="250" t="s">
+      <c r="D25" s="235"/>
+      <c r="E25" s="251" t="s">
         <v>269</v>
       </c>
-      <c r="F25" s="250"/>
-      <c r="G25" s="250"/>
+      <c r="F25" s="251"/>
+      <c r="G25" s="251"/>
       <c r="H25" s="114"/>
-      <c r="I25" s="234" t="s">
+      <c r="I25" s="235" t="s">
         <v>266</v>
       </c>
-      <c r="J25" s="234"/>
-      <c r="K25" s="234"/>
-      <c r="L25" s="180"/>
-      <c r="O25" s="233" t="s">
+      <c r="J25" s="235"/>
+      <c r="K25" s="235"/>
+      <c r="L25" s="181"/>
+      <c r="O25" s="234" t="s">
         <v>204</v>
       </c>
-      <c r="P25" s="233"/>
-      <c r="Q25" s="233"/>
-      <c r="R25" s="233"/>
-      <c r="S25" s="233"/>
-      <c r="T25" s="233"/>
+      <c r="P25" s="234"/>
+      <c r="Q25" s="234"/>
+      <c r="R25" s="234"/>
+      <c r="S25" s="234"/>
+      <c r="T25" s="234"/>
     </row>
     <row r="26" spans="1:20" ht="29.25" customHeight="1">
-      <c r="A26" s="218" t="s">
+      <c r="A26" s="219" t="s">
         <v>76</v>
       </c>
-      <c r="B26" s="219"/>
-      <c r="C26" s="220" t="s">
+      <c r="B26" s="220"/>
+      <c r="C26" s="221" t="s">
         <v>226</v>
       </c>
-      <c r="D26" s="248"/>
-      <c r="E26" s="251" t="s">
+      <c r="D26" s="249"/>
+      <c r="E26" s="252" t="s">
         <v>219</v>
       </c>
-      <c r="F26" s="251"/>
-      <c r="G26" s="251" t="s">
+      <c r="F26" s="252"/>
+      <c r="G26" s="252" t="s">
         <v>218</v>
       </c>
-      <c r="H26" s="251"/>
-      <c r="I26" s="248" t="s">
+      <c r="H26" s="252"/>
+      <c r="I26" s="249" t="s">
         <v>220</v>
       </c>
-      <c r="J26" s="219"/>
-      <c r="K26" s="220" t="s">
+      <c r="J26" s="220"/>
+      <c r="K26" s="221" t="s">
         <v>224</v>
       </c>
-      <c r="L26" s="219"/>
+      <c r="L26" s="220"/>
       <c r="O26" s="59" t="s">
         <v>146</v>
       </c>
@@ -9270,26 +9330,26 @@
       </c>
     </row>
     <row r="27" spans="1:20" ht="29.25" customHeight="1">
-      <c r="A27" s="182" t="s">
+      <c r="A27" s="183" t="s">
         <v>227</v>
       </c>
-      <c r="B27" s="160"/>
-      <c r="C27" s="182" t="s">
+      <c r="B27" s="161"/>
+      <c r="C27" s="183" t="s">
         <v>229</v>
       </c>
-      <c r="D27" s="159"/>
-      <c r="E27" s="226"/>
-      <c r="F27" s="226"/>
-      <c r="G27" s="226"/>
-      <c r="H27" s="226"/>
-      <c r="I27" s="222" t="s">
+      <c r="D27" s="160"/>
+      <c r="E27" s="227"/>
+      <c r="F27" s="227"/>
+      <c r="G27" s="227"/>
+      <c r="H27" s="227"/>
+      <c r="I27" s="223" t="s">
         <v>243</v>
       </c>
-      <c r="J27" s="223"/>
-      <c r="K27" s="182" t="s">
+      <c r="J27" s="224"/>
+      <c r="K27" s="183" t="s">
         <v>225</v>
       </c>
-      <c r="L27" s="160"/>
+      <c r="L27" s="161"/>
       <c r="O27" s="49"/>
       <c r="P27" s="49"/>
       <c r="Q27" s="49"/>
@@ -9300,26 +9360,26 @@
       <c r="T27" s="49"/>
     </row>
     <row r="28" spans="1:20" ht="29.25" customHeight="1">
-      <c r="A28" s="182" t="s">
+      <c r="A28" s="183" t="s">
         <v>227</v>
       </c>
-      <c r="B28" s="160"/>
-      <c r="C28" s="182" t="s">
+      <c r="B28" s="161"/>
+      <c r="C28" s="183" t="s">
         <v>230</v>
       </c>
-      <c r="D28" s="159"/>
-      <c r="E28" s="226"/>
-      <c r="F28" s="226"/>
-      <c r="G28" s="226"/>
-      <c r="H28" s="226"/>
-      <c r="I28" s="224" t="s">
+      <c r="D28" s="160"/>
+      <c r="E28" s="227"/>
+      <c r="F28" s="227"/>
+      <c r="G28" s="227"/>
+      <c r="H28" s="227"/>
+      <c r="I28" s="225" t="s">
         <v>273</v>
       </c>
-      <c r="J28" s="225"/>
-      <c r="K28" s="182" t="s">
+      <c r="J28" s="226"/>
+      <c r="K28" s="183" t="s">
         <v>225</v>
       </c>
-      <c r="L28" s="160"/>
+      <c r="L28" s="161"/>
       <c r="O28" s="49"/>
       <c r="P28" s="49"/>
       <c r="Q28" s="49"/>
@@ -9328,87 +9388,87 @@
       <c r="T28" s="49"/>
     </row>
     <row r="29" spans="1:20" ht="29.25" customHeight="1">
-      <c r="A29" s="182" t="s">
+      <c r="A29" s="183" t="s">
         <v>228</v>
       </c>
-      <c r="B29" s="160"/>
-      <c r="C29" s="182" t="s">
+      <c r="B29" s="161"/>
+      <c r="C29" s="183" t="s">
         <v>231</v>
       </c>
-      <c r="D29" s="159"/>
-      <c r="E29" s="226"/>
-      <c r="F29" s="226"/>
-      <c r="G29" s="226"/>
-      <c r="H29" s="226"/>
-      <c r="I29" s="159"/>
-      <c r="J29" s="160"/>
-      <c r="K29" s="182" t="s">
+      <c r="D29" s="160"/>
+      <c r="E29" s="227"/>
+      <c r="F29" s="227"/>
+      <c r="G29" s="227"/>
+      <c r="H29" s="227"/>
+      <c r="I29" s="160"/>
+      <c r="J29" s="161"/>
+      <c r="K29" s="183" t="s">
         <v>225</v>
       </c>
-      <c r="L29" s="160"/>
+      <c r="L29" s="161"/>
     </row>
     <row r="30" spans="1:20" ht="29.25" customHeight="1">
-      <c r="A30" s="182" t="s">
+      <c r="A30" s="183" t="s">
         <v>228</v>
       </c>
-      <c r="B30" s="160"/>
-      <c r="C30" s="182" t="s">
+      <c r="B30" s="161"/>
+      <c r="C30" s="183" t="s">
         <v>232</v>
       </c>
-      <c r="D30" s="159"/>
-      <c r="E30" s="226"/>
-      <c r="F30" s="226"/>
-      <c r="G30" s="226"/>
-      <c r="H30" s="226"/>
-      <c r="I30" s="159"/>
-      <c r="J30" s="160"/>
-      <c r="K30" s="182" t="s">
+      <c r="D30" s="160"/>
+      <c r="E30" s="227"/>
+      <c r="F30" s="227"/>
+      <c r="G30" s="227"/>
+      <c r="H30" s="227"/>
+      <c r="I30" s="160"/>
+      <c r="J30" s="161"/>
+      <c r="K30" s="183" t="s">
         <v>225</v>
       </c>
-      <c r="L30" s="160"/>
+      <c r="L30" s="161"/>
     </row>
     <row r="31" spans="1:20" ht="29.25" customHeight="1"/>
     <row r="32" spans="1:20" ht="29.25" customHeight="1">
-      <c r="A32" s="173" t="s">
+      <c r="A32" s="174" t="s">
         <v>214</v>
       </c>
-      <c r="B32" s="174"/>
-      <c r="C32" s="174" t="s">
+      <c r="B32" s="175"/>
+      <c r="C32" s="175" t="s">
         <v>271</v>
       </c>
-      <c r="D32" s="174"/>
-      <c r="E32" s="174"/>
-      <c r="F32" s="174"/>
-      <c r="G32" s="174"/>
+      <c r="D32" s="175"/>
+      <c r="E32" s="175"/>
+      <c r="F32" s="175"/>
+      <c r="G32" s="175"/>
       <c r="H32" s="110"/>
-      <c r="I32" s="178" t="s">
+      <c r="I32" s="179" t="s">
         <v>267</v>
       </c>
-      <c r="J32" s="178"/>
-      <c r="K32" s="217" t="s">
+      <c r="J32" s="179"/>
+      <c r="K32" s="218" t="s">
         <v>244</v>
       </c>
-      <c r="L32" s="217"/>
+      <c r="L32" s="218"/>
     </row>
     <row r="33" spans="1:12" ht="29.25" customHeight="1">
-      <c r="A33" s="181" t="s">
+      <c r="A33" s="182" t="s">
         <v>246</v>
       </c>
-      <c r="B33" s="182"/>
-      <c r="C33" s="234"/>
-      <c r="D33" s="234"/>
-      <c r="E33" s="234" t="s">
+      <c r="B33" s="183"/>
+      <c r="C33" s="235"/>
+      <c r="D33" s="235"/>
+      <c r="E33" s="235" t="s">
         <v>270</v>
       </c>
-      <c r="F33" s="234"/>
-      <c r="G33" s="234"/>
+      <c r="F33" s="235"/>
+      <c r="G33" s="235"/>
       <c r="H33" s="67"/>
-      <c r="I33" s="234" t="s">
+      <c r="I33" s="235" t="s">
         <v>266</v>
       </c>
-      <c r="J33" s="234"/>
-      <c r="K33" s="234"/>
-      <c r="L33" s="180"/>
+      <c r="J33" s="235"/>
+      <c r="K33" s="235"/>
+      <c r="L33" s="181"/>
     </row>
     <row r="34" spans="1:12" ht="29.25" customHeight="1">
       <c r="A34" s="87" t="s">
@@ -9417,52 +9477,52 @@
       <c r="B34" s="89" t="s">
         <v>248</v>
       </c>
-      <c r="C34" s="227" t="s">
+      <c r="C34" s="228" t="s">
         <v>249</v>
       </c>
-      <c r="D34" s="228"/>
-      <c r="E34" s="227" t="s">
+      <c r="D34" s="229"/>
+      <c r="E34" s="228" t="s">
         <v>250</v>
       </c>
-      <c r="F34" s="228"/>
-      <c r="G34" s="229" t="s">
+      <c r="F34" s="229"/>
+      <c r="G34" s="230" t="s">
         <v>236</v>
       </c>
-      <c r="H34" s="230"/>
-      <c r="I34" s="231"/>
-      <c r="J34" s="229" t="s">
+      <c r="H34" s="231"/>
+      <c r="I34" s="232"/>
+      <c r="J34" s="230" t="s">
         <v>224</v>
       </c>
-      <c r="K34" s="232"/>
-      <c r="L34" s="231"/>
+      <c r="K34" s="233"/>
+      <c r="L34" s="232"/>
     </row>
     <row r="35" spans="1:12" ht="29.25" customHeight="1">
       <c r="A35" s="49"/>
       <c r="B35" s="49"/>
-      <c r="C35" s="156"/>
-      <c r="D35" s="156"/>
-      <c r="E35" s="156"/>
-      <c r="F35" s="156"/>
-      <c r="G35" s="161"/>
-      <c r="H35" s="159"/>
-      <c r="I35" s="160"/>
-      <c r="J35" s="161"/>
-      <c r="K35" s="159"/>
-      <c r="L35" s="160"/>
+      <c r="C35" s="157"/>
+      <c r="D35" s="157"/>
+      <c r="E35" s="157"/>
+      <c r="F35" s="157"/>
+      <c r="G35" s="162"/>
+      <c r="H35" s="160"/>
+      <c r="I35" s="161"/>
+      <c r="J35" s="162"/>
+      <c r="K35" s="160"/>
+      <c r="L35" s="161"/>
     </row>
     <row r="36" spans="1:12" ht="29.25" customHeight="1">
       <c r="A36" s="49"/>
       <c r="B36" s="49"/>
-      <c r="C36" s="156"/>
-      <c r="D36" s="156"/>
-      <c r="E36" s="156"/>
-      <c r="F36" s="156"/>
-      <c r="G36" s="161"/>
-      <c r="H36" s="159"/>
-      <c r="I36" s="160"/>
-      <c r="J36" s="161"/>
-      <c r="K36" s="159"/>
-      <c r="L36" s="160"/>
+      <c r="C36" s="157"/>
+      <c r="D36" s="157"/>
+      <c r="E36" s="157"/>
+      <c r="F36" s="157"/>
+      <c r="G36" s="162"/>
+      <c r="H36" s="160"/>
+      <c r="I36" s="161"/>
+      <c r="J36" s="162"/>
+      <c r="K36" s="160"/>
+      <c r="L36" s="161"/>
     </row>
     <row r="38" spans="1:12" ht="28.5" customHeight="1"/>
     <row r="39" spans="1:12" ht="48" customHeight="1">
@@ -9483,16 +9543,16 @@
       <c r="D40" s="116" t="s">
         <v>282</v>
       </c>
-      <c r="E40" s="240" t="s">
+      <c r="E40" s="241" t="s">
         <v>283</v>
       </c>
-      <c r="F40" s="241"/>
+      <c r="F40" s="242"/>
     </row>
     <row r="41" spans="1:12" ht="45" customHeight="1">
-      <c r="A41" s="253" t="s">
+      <c r="A41" s="254" t="s">
         <v>277</v>
       </c>
-      <c r="B41" s="253"/>
+      <c r="B41" s="254"/>
       <c r="D41" s="50" t="s">
         <v>278</v>
       </c>
@@ -9738,7 +9798,7 @@
       </c>
     </row>
     <row r="90" spans="1:8">
-      <c r="B90" s="156" t="s">
+      <c r="B90" s="157" t="s">
         <v>190</v>
       </c>
       <c r="C90" s="49" t="s">
@@ -9748,14 +9808,14 @@
       <c r="E90" s="104" t="s">
         <v>191</v>
       </c>
-      <c r="F90" s="238" t="s">
+      <c r="F90" s="239" t="s">
         <v>260</v>
       </c>
-      <c r="G90" s="239"/>
+      <c r="G90" s="240"/>
       <c r="H90" s="112"/>
     </row>
     <row r="91" spans="1:8">
-      <c r="B91" s="156"/>
+      <c r="B91" s="157"/>
       <c r="C91" s="49" t="s">
         <v>127</v>
       </c>
@@ -9763,12 +9823,12 @@
       <c r="E91" s="104" t="s">
         <v>191</v>
       </c>
-      <c r="F91" s="239"/>
-      <c r="G91" s="239"/>
+      <c r="F91" s="240"/>
+      <c r="G91" s="240"/>
       <c r="H91" s="112"/>
     </row>
     <row r="92" spans="1:8">
-      <c r="B92" s="156" t="s">
+      <c r="B92" s="157" t="s">
         <v>192</v>
       </c>
       <c r="C92" s="49" t="s">
@@ -9778,12 +9838,12 @@
       <c r="E92" s="104" t="s">
         <v>191</v>
       </c>
-      <c r="F92" s="239"/>
-      <c r="G92" s="239"/>
+      <c r="F92" s="240"/>
+      <c r="G92" s="240"/>
       <c r="H92" s="112"/>
     </row>
     <row r="93" spans="1:8">
-      <c r="B93" s="156"/>
+      <c r="B93" s="157"/>
       <c r="C93" s="49" t="s">
         <v>16</v>
       </c>
@@ -9791,12 +9851,12 @@
       <c r="E93" s="104" t="s">
         <v>191</v>
       </c>
-      <c r="F93" s="239"/>
-      <c r="G93" s="239"/>
+      <c r="F93" s="240"/>
+      <c r="G93" s="240"/>
       <c r="H93" s="112"/>
     </row>
     <row r="94" spans="1:8">
-      <c r="B94" s="156"/>
+      <c r="B94" s="157"/>
       <c r="C94" s="49" t="s">
         <v>115</v>
       </c>
@@ -9804,12 +9864,12 @@
       <c r="E94" s="104" t="s">
         <v>191</v>
       </c>
-      <c r="F94" s="239"/>
-      <c r="G94" s="239"/>
+      <c r="F94" s="240"/>
+      <c r="G94" s="240"/>
       <c r="H94" s="112"/>
     </row>
     <row r="95" spans="1:8">
-      <c r="B95" s="156"/>
+      <c r="B95" s="157"/>
       <c r="C95" s="51" t="s">
         <v>261</v>
       </c>

--- a/doc/alice/20180302后台财务更新.xlsx
+++ b/doc/alice/20180302后台财务更新.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28080" windowHeight="13200" firstSheet="5" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28080" windowHeight="13200" firstSheet="5" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet4" sheetId="4" state="hidden" r:id="rId1"/>
@@ -19,12 +19,11 @@
     <sheet name="平台" sheetId="12" r:id="rId10"/>
   </sheets>
   <calcPr calcId="124519" concurrentCalc="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="347">
   <si>
     <t>收：</t>
   </si>
@@ -1171,18 +1170,10 @@
 学员名单：周宇乐,余鲁文,林城佑,刘昊,教练：安凯翔</t>
   </si>
   <si>
-    <t>课时列表 admin/income/salaryList</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>资金账单admin/salaryin/salaryList</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>收益统计admin/salaryin/coachin</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>教练统计</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
@@ -1327,10 +1318,6 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>课时统计statisticsCamp/campSchedule</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>营业额（报名交费情况）statisticsCamp/campTurnover</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
@@ -1388,6 +1375,56 @@
   </si>
   <si>
     <t>campSchedule</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>课时统计statisticsCamp/campScheduleStatistics</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>课时列表 statisticsCamp/campSchedule</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>总剩余课时</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9C0006"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(全部时间)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9C0006"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9C0006"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>70000</t>
+    </r>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>收益统计admin/salaryin/coachincome</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
@@ -2376,7 +2413,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="256">
+  <cellXfs count="258">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2833,6 +2870,18 @@
     <xf numFmtId="0" fontId="33" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="0" xfId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2842,32 +2891,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2878,15 +2918,78 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2896,76 +2999,103 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="8" borderId="32" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="8" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="8" borderId="38" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="32" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="38" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="34" xfId="4" applyBorder="1" applyAlignment="1">
@@ -3016,134 +3146,47 @@
     <xf numFmtId="0" fontId="29" fillId="8" borderId="37" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="8" borderId="32" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="8" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="8" borderId="38" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="7" borderId="32" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="7" borderId="38" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="48" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="0" xfId="3">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="30" fillId="6" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -3187,7 +3230,7 @@
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3240,7 +3283,7 @@
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3293,7 +3336,7 @@
         <xdr:cNvPr id="5" name="图片 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000005000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3341,7 +3384,7 @@
         <xdr:cNvPr id="6" name="图片 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000006000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3731,41 +3774,41 @@
       </c>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="155" t="s">
+      <c r="A10" s="160" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="155" t="s">
+      <c r="B10" s="160" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="159" t="s">
+      <c r="C10" s="162" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="160"/>
-      <c r="E10" s="161"/>
-      <c r="F10" s="159" t="s">
+      <c r="D10" s="153"/>
+      <c r="E10" s="154"/>
+      <c r="F10" s="162" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="160"/>
-      <c r="H10" s="161"/>
-      <c r="I10" s="159" t="s">
+      <c r="G10" s="153"/>
+      <c r="H10" s="154"/>
+      <c r="I10" s="162" t="s">
         <v>12</v>
       </c>
-      <c r="J10" s="160"/>
-      <c r="K10" s="161"/>
-      <c r="L10" s="160" t="s">
+      <c r="J10" s="153"/>
+      <c r="K10" s="154"/>
+      <c r="L10" s="153" t="s">
         <v>13</v>
       </c>
-      <c r="M10" s="160"/>
-      <c r="N10" s="161"/>
-      <c r="O10" s="157" t="s">
+      <c r="M10" s="153"/>
+      <c r="N10" s="154"/>
+      <c r="O10" s="155" t="s">
         <v>14</v>
       </c>
-      <c r="P10" s="157"/>
-      <c r="Q10" s="157"/>
+      <c r="P10" s="155"/>
+      <c r="Q10" s="155"/>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="156"/>
-      <c r="B11" s="156"/>
+      <c r="A11" s="161"/>
+      <c r="B11" s="161"/>
       <c r="C11" s="5" t="s">
         <v>15</v>
       </c>
@@ -3813,7 +3856,7 @@
       </c>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="157" t="s">
+      <c r="A12" s="155" t="s">
         <v>18</v>
       </c>
       <c r="B12" s="5">
@@ -3863,7 +3906,7 @@
       </c>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="157"/>
+      <c r="A13" s="155"/>
       <c r="B13" s="5">
         <v>88</v>
       </c>
@@ -3911,7 +3954,7 @@
       </c>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="157"/>
+      <c r="A14" s="155"/>
       <c r="B14" s="5">
         <v>100</v>
       </c>
@@ -3959,7 +4002,7 @@
       </c>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="157"/>
+      <c r="A15" s="155"/>
       <c r="B15" s="5" t="s">
         <v>19</v>
       </c>
@@ -4016,7 +4059,7 @@
       </c>
     </row>
     <row r="16" spans="1:17" hidden="1">
-      <c r="A16" s="155" t="s">
+      <c r="A16" s="160" t="s">
         <v>20</v>
       </c>
       <c r="B16" s="5">
@@ -4063,7 +4106,7 @@
       <c r="Q16" s="40"/>
     </row>
     <row r="17" spans="1:17" hidden="1">
-      <c r="A17" s="156"/>
+      <c r="A17" s="161"/>
       <c r="B17" s="5" t="s">
         <v>19</v>
       </c>
@@ -4117,7 +4160,7 @@
       <c r="Q17" s="40"/>
     </row>
     <row r="18" spans="1:17">
-      <c r="A18" s="157" t="s">
+      <c r="A18" s="155" t="s">
         <v>21</v>
       </c>
       <c r="B18" s="5">
@@ -4170,7 +4213,7 @@
       </c>
     </row>
     <row r="19" spans="1:17">
-      <c r="A19" s="157"/>
+      <c r="A19" s="155"/>
       <c r="B19" s="5">
         <v>180</v>
       </c>
@@ -4221,7 +4264,7 @@
       </c>
     </row>
     <row r="20" spans="1:17">
-      <c r="A20" s="157"/>
+      <c r="A20" s="155"/>
       <c r="B20" s="5">
         <v>240</v>
       </c>
@@ -4272,7 +4315,7 @@
       </c>
     </row>
     <row r="21" spans="1:17">
-      <c r="A21" s="157"/>
+      <c r="A21" s="155"/>
       <c r="B21" s="5" t="s">
         <v>19</v>
       </c>
@@ -4421,16 +4464,16 @@
       <c r="C46" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D46" s="158" t="s">
+      <c r="D46" s="159" t="s">
         <v>37</v>
       </c>
-      <c r="E46" s="158"/>
-      <c r="F46" s="158"/>
-      <c r="G46" s="158"/>
-      <c r="H46" s="158"/>
-      <c r="I46" s="158"/>
-      <c r="J46" s="158"/>
-      <c r="K46" s="158"/>
+      <c r="E46" s="159"/>
+      <c r="F46" s="159"/>
+      <c r="G46" s="159"/>
+      <c r="H46" s="159"/>
+      <c r="I46" s="159"/>
+      <c r="J46" s="159"/>
+      <c r="K46" s="159"/>
       <c r="L46" t="s">
         <v>38</v>
       </c>
@@ -4446,16 +4489,16 @@
       <c r="C47" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D47" s="152" t="s">
+      <c r="D47" s="156" t="s">
         <v>41</v>
       </c>
-      <c r="E47" s="153"/>
-      <c r="F47" s="153"/>
-      <c r="G47" s="153"/>
-      <c r="H47" s="153"/>
-      <c r="I47" s="153"/>
-      <c r="J47" s="153"/>
-      <c r="K47" s="154"/>
+      <c r="E47" s="157"/>
+      <c r="F47" s="157"/>
+      <c r="G47" s="157"/>
+      <c r="H47" s="157"/>
+      <c r="I47" s="157"/>
+      <c r="J47" s="157"/>
+      <c r="K47" s="158"/>
       <c r="L47" t="s">
         <v>42</v>
       </c>
@@ -4471,16 +4514,16 @@
       <c r="C48" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D48" s="152" t="s">
+      <c r="D48" s="156" t="s">
         <v>44</v>
       </c>
-      <c r="E48" s="153"/>
-      <c r="F48" s="153"/>
-      <c r="G48" s="153"/>
-      <c r="H48" s="153"/>
-      <c r="I48" s="153"/>
-      <c r="J48" s="153"/>
-      <c r="K48" s="154"/>
+      <c r="E48" s="157"/>
+      <c r="F48" s="157"/>
+      <c r="G48" s="157"/>
+      <c r="H48" s="157"/>
+      <c r="I48" s="157"/>
+      <c r="J48" s="157"/>
+      <c r="K48" s="158"/>
       <c r="L48" t="s">
         <v>45</v>
       </c>
@@ -4516,16 +4559,16 @@
       <c r="C51" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D51" s="158" t="s">
+      <c r="D51" s="159" t="s">
         <v>49</v>
       </c>
-      <c r="E51" s="158"/>
-      <c r="F51" s="158"/>
-      <c r="G51" s="158"/>
-      <c r="H51" s="158"/>
-      <c r="I51" s="158"/>
-      <c r="J51" s="158"/>
-      <c r="K51" s="158"/>
+      <c r="E51" s="159"/>
+      <c r="F51" s="159"/>
+      <c r="G51" s="159"/>
+      <c r="H51" s="159"/>
+      <c r="I51" s="159"/>
+      <c r="J51" s="159"/>
+      <c r="K51" s="159"/>
       <c r="L51" t="s">
         <v>50</v>
       </c>
@@ -4540,16 +4583,16 @@
       <c r="C52" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D52" s="152" t="s">
+      <c r="D52" s="156" t="s">
         <v>51</v>
       </c>
-      <c r="E52" s="153"/>
-      <c r="F52" s="153"/>
-      <c r="G52" s="153"/>
-      <c r="H52" s="153"/>
-      <c r="I52" s="153"/>
-      <c r="J52" s="153"/>
-      <c r="K52" s="154"/>
+      <c r="E52" s="157"/>
+      <c r="F52" s="157"/>
+      <c r="G52" s="157"/>
+      <c r="H52" s="157"/>
+      <c r="I52" s="157"/>
+      <c r="J52" s="157"/>
+      <c r="K52" s="158"/>
       <c r="L52" t="s">
         <v>52</v>
       </c>
@@ -4564,16 +4607,16 @@
       <c r="C53" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D53" s="152" t="s">
+      <c r="D53" s="156" t="s">
         <v>53</v>
       </c>
-      <c r="E53" s="153"/>
-      <c r="F53" s="153"/>
-      <c r="G53" s="153"/>
-      <c r="H53" s="153"/>
-      <c r="I53" s="153"/>
-      <c r="J53" s="153"/>
-      <c r="K53" s="154"/>
+      <c r="E53" s="157"/>
+      <c r="F53" s="157"/>
+      <c r="G53" s="157"/>
+      <c r="H53" s="157"/>
+      <c r="I53" s="157"/>
+      <c r="J53" s="157"/>
+      <c r="K53" s="158"/>
       <c r="L53" t="s">
         <v>54</v>
       </c>
@@ -4618,16 +4661,16 @@
       <c r="C56" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D56" s="158" t="s">
+      <c r="D56" s="159" t="s">
         <v>57</v>
       </c>
-      <c r="E56" s="158"/>
-      <c r="F56" s="158"/>
-      <c r="G56" s="158"/>
-      <c r="H56" s="158"/>
-      <c r="I56" s="158"/>
-      <c r="J56" s="158"/>
-      <c r="K56" s="158"/>
+      <c r="E56" s="159"/>
+      <c r="F56" s="159"/>
+      <c r="G56" s="159"/>
+      <c r="H56" s="159"/>
+      <c r="I56" s="159"/>
+      <c r="J56" s="159"/>
+      <c r="K56" s="159"/>
       <c r="L56" t="s">
         <v>58</v>
       </c>
@@ -4642,16 +4685,16 @@
       <c r="C57" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D57" s="152" t="s">
+      <c r="D57" s="156" t="s">
         <v>51</v>
       </c>
-      <c r="E57" s="153"/>
-      <c r="F57" s="153"/>
-      <c r="G57" s="153"/>
-      <c r="H57" s="153"/>
-      <c r="I57" s="153"/>
-      <c r="J57" s="153"/>
-      <c r="K57" s="154"/>
+      <c r="E57" s="157"/>
+      <c r="F57" s="157"/>
+      <c r="G57" s="157"/>
+      <c r="H57" s="157"/>
+      <c r="I57" s="157"/>
+      <c r="J57" s="157"/>
+      <c r="K57" s="158"/>
       <c r="L57" t="s">
         <v>52</v>
       </c>
@@ -4666,16 +4709,16 @@
       <c r="C58" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D58" s="152" t="s">
+      <c r="D58" s="156" t="s">
         <v>53</v>
       </c>
-      <c r="E58" s="153"/>
-      <c r="F58" s="153"/>
-      <c r="G58" s="153"/>
-      <c r="H58" s="153"/>
-      <c r="I58" s="153"/>
-      <c r="J58" s="153"/>
-      <c r="K58" s="154"/>
+      <c r="E58" s="157"/>
+      <c r="F58" s="157"/>
+      <c r="G58" s="157"/>
+      <c r="H58" s="157"/>
+      <c r="I58" s="157"/>
+      <c r="J58" s="157"/>
+      <c r="K58" s="158"/>
       <c r="L58" t="s">
         <v>54</v>
       </c>
@@ -4702,11 +4745,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="L10:N10"/>
-    <mergeCell ref="O10:Q10"/>
-    <mergeCell ref="D53:K53"/>
-    <mergeCell ref="D56:K56"/>
-    <mergeCell ref="D57:K57"/>
     <mergeCell ref="D58:K58"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A12:A15"/>
@@ -4721,6 +4759,11 @@
     <mergeCell ref="C10:E10"/>
     <mergeCell ref="F10:H10"/>
     <mergeCell ref="I10:K10"/>
+    <mergeCell ref="L10:N10"/>
+    <mergeCell ref="O10:Q10"/>
+    <mergeCell ref="D53:K53"/>
+    <mergeCell ref="D56:K56"/>
+    <mergeCell ref="D57:K57"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
@@ -4805,16 +4848,16 @@
       <c r="C20" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D20" s="158" t="s">
+      <c r="D20" s="159" t="s">
         <v>37</v>
       </c>
-      <c r="E20" s="158"/>
-      <c r="F20" s="158"/>
-      <c r="G20" s="158"/>
-      <c r="H20" s="158"/>
-      <c r="I20" s="158"/>
-      <c r="J20" s="158"/>
-      <c r="K20" s="158"/>
+      <c r="E20" s="159"/>
+      <c r="F20" s="159"/>
+      <c r="G20" s="159"/>
+      <c r="H20" s="159"/>
+      <c r="I20" s="159"/>
+      <c r="J20" s="159"/>
+      <c r="K20" s="159"/>
       <c r="T20" s="13"/>
     </row>
     <row r="21" spans="1:20">
@@ -4827,16 +4870,16 @@
       <c r="C21" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D21" s="152" t="s">
+      <c r="D21" s="156" t="s">
         <v>41</v>
       </c>
-      <c r="E21" s="153"/>
-      <c r="F21" s="153"/>
-      <c r="G21" s="153"/>
-      <c r="H21" s="153"/>
-      <c r="I21" s="153"/>
-      <c r="J21" s="153"/>
-      <c r="K21" s="154"/>
+      <c r="E21" s="157"/>
+      <c r="F21" s="157"/>
+      <c r="G21" s="157"/>
+      <c r="H21" s="157"/>
+      <c r="I21" s="157"/>
+      <c r="J21" s="157"/>
+      <c r="K21" s="158"/>
       <c r="T21" s="13"/>
     </row>
     <row r="22" spans="1:20">
@@ -4849,16 +4892,16 @@
       <c r="C22" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D22" s="152" t="s">
+      <c r="D22" s="156" t="s">
         <v>44</v>
       </c>
-      <c r="E22" s="153"/>
-      <c r="F22" s="153"/>
-      <c r="G22" s="153"/>
-      <c r="H22" s="153"/>
-      <c r="I22" s="153"/>
-      <c r="J22" s="153"/>
-      <c r="K22" s="154"/>
+      <c r="E22" s="157"/>
+      <c r="F22" s="157"/>
+      <c r="G22" s="157"/>
+      <c r="H22" s="157"/>
+      <c r="I22" s="157"/>
+      <c r="J22" s="157"/>
+      <c r="K22" s="158"/>
       <c r="T22" s="13"/>
     </row>
     <row r="24" spans="1:20">
@@ -4891,16 +4934,16 @@
       <c r="C25" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D25" s="158" t="s">
+      <c r="D25" s="159" t="s">
         <v>49</v>
       </c>
-      <c r="E25" s="158"/>
-      <c r="F25" s="158"/>
-      <c r="G25" s="158"/>
-      <c r="H25" s="158"/>
-      <c r="I25" s="158"/>
-      <c r="J25" s="158"/>
-      <c r="K25" s="158"/>
+      <c r="E25" s="159"/>
+      <c r="F25" s="159"/>
+      <c r="G25" s="159"/>
+      <c r="H25" s="159"/>
+      <c r="I25" s="159"/>
+      <c r="J25" s="159"/>
+      <c r="K25" s="159"/>
     </row>
     <row r="26" spans="1:20">
       <c r="A26" s="4" t="s">
@@ -4912,16 +4955,16 @@
       <c r="C26" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D26" s="152" t="s">
+      <c r="D26" s="156" t="s">
         <v>51</v>
       </c>
-      <c r="E26" s="153"/>
-      <c r="F26" s="153"/>
-      <c r="G26" s="153"/>
-      <c r="H26" s="153"/>
-      <c r="I26" s="153"/>
-      <c r="J26" s="153"/>
-      <c r="K26" s="154"/>
+      <c r="E26" s="157"/>
+      <c r="F26" s="157"/>
+      <c r="G26" s="157"/>
+      <c r="H26" s="157"/>
+      <c r="I26" s="157"/>
+      <c r="J26" s="157"/>
+      <c r="K26" s="158"/>
     </row>
     <row r="27" spans="1:20">
       <c r="A27" s="4" t="s">
@@ -4933,16 +4976,16 @@
       <c r="C27" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D27" s="152" t="s">
+      <c r="D27" s="156" t="s">
         <v>53</v>
       </c>
-      <c r="E27" s="153"/>
-      <c r="F27" s="153"/>
-      <c r="G27" s="153"/>
-      <c r="H27" s="153"/>
-      <c r="I27" s="153"/>
-      <c r="J27" s="153"/>
-      <c r="K27" s="154"/>
+      <c r="E27" s="157"/>
+      <c r="F27" s="157"/>
+      <c r="G27" s="157"/>
+      <c r="H27" s="157"/>
+      <c r="I27" s="157"/>
+      <c r="J27" s="157"/>
+      <c r="K27" s="158"/>
     </row>
     <row r="28" spans="1:20">
       <c r="C28" s="9"/>
@@ -4984,16 +5027,16 @@
       <c r="C30" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D30" s="158" t="s">
+      <c r="D30" s="159" t="s">
         <v>57</v>
       </c>
-      <c r="E30" s="158"/>
-      <c r="F30" s="158"/>
-      <c r="G30" s="158"/>
-      <c r="H30" s="158"/>
-      <c r="I30" s="158"/>
-      <c r="J30" s="158"/>
-      <c r="K30" s="158"/>
+      <c r="E30" s="159"/>
+      <c r="F30" s="159"/>
+      <c r="G30" s="159"/>
+      <c r="H30" s="159"/>
+      <c r="I30" s="159"/>
+      <c r="J30" s="159"/>
+      <c r="K30" s="159"/>
     </row>
     <row r="31" spans="1:20">
       <c r="A31" s="4" t="s">
@@ -5005,16 +5048,16 @@
       <c r="C31" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D31" s="152" t="s">
+      <c r="D31" s="156" t="s">
         <v>51</v>
       </c>
-      <c r="E31" s="153"/>
-      <c r="F31" s="153"/>
-      <c r="G31" s="153"/>
-      <c r="H31" s="153"/>
-      <c r="I31" s="153"/>
-      <c r="J31" s="153"/>
-      <c r="K31" s="154"/>
+      <c r="E31" s="157"/>
+      <c r="F31" s="157"/>
+      <c r="G31" s="157"/>
+      <c r="H31" s="157"/>
+      <c r="I31" s="157"/>
+      <c r="J31" s="157"/>
+      <c r="K31" s="158"/>
     </row>
     <row r="32" spans="1:20">
       <c r="A32" s="4" t="s">
@@ -5026,16 +5069,16 @@
       <c r="C32" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D32" s="152" t="s">
+      <c r="D32" s="156" t="s">
         <v>53</v>
       </c>
-      <c r="E32" s="153"/>
-      <c r="F32" s="153"/>
-      <c r="G32" s="153"/>
-      <c r="H32" s="153"/>
-      <c r="I32" s="153"/>
-      <c r="J32" s="153"/>
-      <c r="K32" s="154"/>
+      <c r="E32" s="157"/>
+      <c r="F32" s="157"/>
+      <c r="G32" s="157"/>
+      <c r="H32" s="157"/>
+      <c r="I32" s="157"/>
+      <c r="J32" s="157"/>
+      <c r="K32" s="158"/>
     </row>
     <row r="33" spans="1:20">
       <c r="A33" t="s">
@@ -5145,30 +5188,30 @@
       <c r="C49" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="D49" s="158" t="s">
+      <c r="D49" s="159" t="s">
         <v>79</v>
       </c>
-      <c r="E49" s="158"/>
-      <c r="F49" s="158"/>
-      <c r="G49" s="158"/>
-      <c r="H49" s="158"/>
-      <c r="I49" s="158"/>
-      <c r="J49" s="158"/>
-      <c r="K49" s="168"/>
+      <c r="E49" s="159"/>
+      <c r="F49" s="159"/>
+      <c r="G49" s="159"/>
+      <c r="H49" s="159"/>
+      <c r="I49" s="159"/>
+      <c r="J49" s="159"/>
+      <c r="K49" s="163"/>
       <c r="T49" s="13"/>
     </row>
     <row r="50" spans="1:20">
       <c r="A50" s="26"/>
       <c r="B50" s="4"/>
       <c r="C50" s="5"/>
-      <c r="D50" s="152"/>
-      <c r="E50" s="153"/>
-      <c r="F50" s="153"/>
-      <c r="G50" s="153"/>
-      <c r="H50" s="153"/>
-      <c r="I50" s="153"/>
-      <c r="J50" s="153"/>
-      <c r="K50" s="167"/>
+      <c r="D50" s="156"/>
+      <c r="E50" s="157"/>
+      <c r="F50" s="157"/>
+      <c r="G50" s="157"/>
+      <c r="H50" s="157"/>
+      <c r="I50" s="157"/>
+      <c r="J50" s="157"/>
+      <c r="K50" s="164"/>
       <c r="L50" t="s">
         <v>80</v>
       </c>
@@ -5178,14 +5221,14 @@
       <c r="A51" s="26"/>
       <c r="B51" s="4"/>
       <c r="C51" s="5"/>
-      <c r="D51" s="152"/>
-      <c r="E51" s="153"/>
-      <c r="F51" s="153"/>
-      <c r="G51" s="153"/>
-      <c r="H51" s="153"/>
-      <c r="I51" s="153"/>
-      <c r="J51" s="153"/>
-      <c r="K51" s="167"/>
+      <c r="D51" s="156"/>
+      <c r="E51" s="157"/>
+      <c r="F51" s="157"/>
+      <c r="G51" s="157"/>
+      <c r="H51" s="157"/>
+      <c r="I51" s="157"/>
+      <c r="J51" s="157"/>
+      <c r="K51" s="164"/>
       <c r="T51" s="13"/>
     </row>
     <row r="52" spans="1:20">
@@ -5230,31 +5273,31 @@
       <c r="B54" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C54" s="164" t="s">
+      <c r="C54" s="165" t="s">
         <v>82</v>
       </c>
-      <c r="D54" s="165"/>
-      <c r="E54" s="165"/>
-      <c r="F54" s="165"/>
-      <c r="G54" s="165"/>
-      <c r="H54" s="165"/>
-      <c r="I54" s="165"/>
-      <c r="J54" s="165"/>
-      <c r="K54" s="166"/>
+      <c r="D54" s="166"/>
+      <c r="E54" s="166"/>
+      <c r="F54" s="166"/>
+      <c r="G54" s="166"/>
+      <c r="H54" s="166"/>
+      <c r="I54" s="166"/>
+      <c r="J54" s="166"/>
+      <c r="K54" s="167"/>
       <c r="T54" s="37"/>
     </row>
     <row r="55" spans="1:20">
       <c r="A55" s="26"/>
       <c r="B55" s="4"/>
-      <c r="C55" s="164"/>
-      <c r="D55" s="165"/>
-      <c r="E55" s="165"/>
-      <c r="F55" s="165"/>
-      <c r="G55" s="165"/>
-      <c r="H55" s="165"/>
-      <c r="I55" s="165"/>
-      <c r="J55" s="165"/>
-      <c r="K55" s="166"/>
+      <c r="C55" s="165"/>
+      <c r="D55" s="166"/>
+      <c r="E55" s="166"/>
+      <c r="F55" s="166"/>
+      <c r="G55" s="166"/>
+      <c r="H55" s="166"/>
+      <c r="I55" s="166"/>
+      <c r="J55" s="166"/>
+      <c r="K55" s="167"/>
       <c r="L55" t="s">
         <v>83</v>
       </c>
@@ -5263,15 +5306,15 @@
     <row r="56" spans="1:20">
       <c r="A56" s="26"/>
       <c r="B56" s="4"/>
-      <c r="C56" s="164"/>
-      <c r="D56" s="165"/>
-      <c r="E56" s="165"/>
-      <c r="F56" s="165"/>
-      <c r="G56" s="165"/>
-      <c r="H56" s="165"/>
-      <c r="I56" s="165"/>
-      <c r="J56" s="165"/>
-      <c r="K56" s="166"/>
+      <c r="C56" s="165"/>
+      <c r="D56" s="166"/>
+      <c r="E56" s="166"/>
+      <c r="F56" s="166"/>
+      <c r="G56" s="166"/>
+      <c r="H56" s="166"/>
+      <c r="I56" s="166"/>
+      <c r="J56" s="166"/>
+      <c r="K56" s="167"/>
       <c r="T56" s="37"/>
     </row>
     <row r="57" spans="1:20">
@@ -5291,45 +5334,45 @@
       <c r="B59" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="C59" s="164" t="s">
+      <c r="C59" s="165" t="s">
         <v>82</v>
       </c>
-      <c r="D59" s="165"/>
-      <c r="E59" s="165"/>
-      <c r="F59" s="165"/>
-      <c r="G59" s="165"/>
-      <c r="H59" s="165"/>
-      <c r="I59" s="165"/>
-      <c r="J59" s="165"/>
-      <c r="K59" s="166"/>
+      <c r="D59" s="166"/>
+      <c r="E59" s="166"/>
+      <c r="F59" s="166"/>
+      <c r="G59" s="166"/>
+      <c r="H59" s="166"/>
+      <c r="I59" s="166"/>
+      <c r="J59" s="166"/>
+      <c r="K59" s="167"/>
       <c r="T59" s="13"/>
     </row>
     <row r="60" spans="1:20">
       <c r="A60" s="26"/>
       <c r="B60" s="4"/>
-      <c r="C60" s="164"/>
-      <c r="D60" s="165"/>
-      <c r="E60" s="165"/>
-      <c r="F60" s="165"/>
-      <c r="G60" s="165"/>
-      <c r="H60" s="165"/>
-      <c r="I60" s="165"/>
-      <c r="J60" s="165"/>
-      <c r="K60" s="166"/>
+      <c r="C60" s="165"/>
+      <c r="D60" s="166"/>
+      <c r="E60" s="166"/>
+      <c r="F60" s="166"/>
+      <c r="G60" s="166"/>
+      <c r="H60" s="166"/>
+      <c r="I60" s="166"/>
+      <c r="J60" s="166"/>
+      <c r="K60" s="167"/>
       <c r="T60" s="13"/>
     </row>
     <row r="61" spans="1:20">
       <c r="A61" s="26"/>
       <c r="B61" s="4"/>
-      <c r="C61" s="164"/>
-      <c r="D61" s="165"/>
-      <c r="E61" s="165"/>
-      <c r="F61" s="165"/>
-      <c r="G61" s="165"/>
-      <c r="H61" s="165"/>
-      <c r="I61" s="165"/>
-      <c r="J61" s="165"/>
-      <c r="K61" s="166"/>
+      <c r="C61" s="165"/>
+      <c r="D61" s="166"/>
+      <c r="E61" s="166"/>
+      <c r="F61" s="166"/>
+      <c r="G61" s="166"/>
+      <c r="H61" s="166"/>
+      <c r="I61" s="166"/>
+      <c r="J61" s="166"/>
+      <c r="K61" s="167"/>
       <c r="T61" s="13"/>
     </row>
     <row r="62" spans="1:20">
@@ -5349,49 +5392,49 @@
       <c r="B64" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C64" s="157" t="s">
+      <c r="C64" s="155" t="s">
         <v>90</v>
       </c>
-      <c r="D64" s="157"/>
-      <c r="E64" s="157" t="s">
+      <c r="D64" s="155"/>
+      <c r="E64" s="155" t="s">
         <v>91</v>
       </c>
-      <c r="F64" s="157"/>
-      <c r="G64" s="162" t="s">
+      <c r="F64" s="155"/>
+      <c r="G64" s="168" t="s">
         <v>92</v>
       </c>
-      <c r="H64" s="161"/>
-      <c r="I64" s="162" t="s">
+      <c r="H64" s="154"/>
+      <c r="I64" s="168" t="s">
         <v>93</v>
       </c>
-      <c r="J64" s="160"/>
-      <c r="K64" s="163"/>
+      <c r="J64" s="153"/>
+      <c r="K64" s="169"/>
     </row>
     <row r="65" spans="1:11">
       <c r="A65" s="26"/>
       <c r="B65" s="4"/>
-      <c r="C65" s="157"/>
-      <c r="D65" s="157"/>
-      <c r="E65" s="157"/>
-      <c r="F65" s="157"/>
-      <c r="G65" s="162"/>
-      <c r="H65" s="161"/>
-      <c r="I65" s="162"/>
-      <c r="J65" s="160"/>
-      <c r="K65" s="163"/>
+      <c r="C65" s="155"/>
+      <c r="D65" s="155"/>
+      <c r="E65" s="155"/>
+      <c r="F65" s="155"/>
+      <c r="G65" s="168"/>
+      <c r="H65" s="154"/>
+      <c r="I65" s="168"/>
+      <c r="J65" s="153"/>
+      <c r="K65" s="169"/>
     </row>
     <row r="66" spans="1:11">
       <c r="A66" s="26"/>
       <c r="B66" s="4"/>
-      <c r="C66" s="157"/>
-      <c r="D66" s="157"/>
-      <c r="E66" s="157"/>
-      <c r="F66" s="157"/>
-      <c r="G66" s="162"/>
-      <c r="H66" s="161"/>
-      <c r="I66" s="162"/>
-      <c r="J66" s="160"/>
-      <c r="K66" s="163"/>
+      <c r="C66" s="155"/>
+      <c r="D66" s="155"/>
+      <c r="E66" s="155"/>
+      <c r="F66" s="155"/>
+      <c r="G66" s="168"/>
+      <c r="H66" s="154"/>
+      <c r="I66" s="168"/>
+      <c r="J66" s="153"/>
+      <c r="K66" s="169"/>
     </row>
     <row r="67" spans="1:11">
       <c r="A67" s="22"/>
@@ -5412,28 +5455,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="D20:K20"/>
-    <mergeCell ref="D21:K21"/>
-    <mergeCell ref="D22:K22"/>
-    <mergeCell ref="D25:K25"/>
-    <mergeCell ref="D26:K26"/>
-    <mergeCell ref="D27:K27"/>
-    <mergeCell ref="D30:K30"/>
-    <mergeCell ref="D31:K31"/>
-    <mergeCell ref="D32:K32"/>
-    <mergeCell ref="D49:K49"/>
-    <mergeCell ref="D50:K50"/>
-    <mergeCell ref="D51:K51"/>
-    <mergeCell ref="C54:K54"/>
-    <mergeCell ref="C55:K55"/>
-    <mergeCell ref="C56:K56"/>
-    <mergeCell ref="C59:K59"/>
-    <mergeCell ref="C60:K60"/>
-    <mergeCell ref="C61:K61"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="E64:F64"/>
-    <mergeCell ref="G64:H64"/>
-    <mergeCell ref="I64:K64"/>
     <mergeCell ref="C65:D65"/>
     <mergeCell ref="E65:F65"/>
     <mergeCell ref="G65:H65"/>
@@ -5442,6 +5463,28 @@
     <mergeCell ref="E66:F66"/>
     <mergeCell ref="G66:H66"/>
     <mergeCell ref="I66:K66"/>
+    <mergeCell ref="C59:K59"/>
+    <mergeCell ref="C60:K60"/>
+    <mergeCell ref="C61:K61"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="G64:H64"/>
+    <mergeCell ref="I64:K64"/>
+    <mergeCell ref="D50:K50"/>
+    <mergeCell ref="D51:K51"/>
+    <mergeCell ref="C54:K54"/>
+    <mergeCell ref="C55:K55"/>
+    <mergeCell ref="C56:K56"/>
+    <mergeCell ref="D27:K27"/>
+    <mergeCell ref="D30:K30"/>
+    <mergeCell ref="D31:K31"/>
+    <mergeCell ref="D32:K32"/>
+    <mergeCell ref="D49:K49"/>
+    <mergeCell ref="D20:K20"/>
+    <mergeCell ref="D21:K21"/>
+    <mergeCell ref="D22:K22"/>
+    <mergeCell ref="D25:K25"/>
+    <mergeCell ref="D26:K26"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
@@ -5473,41 +5516,41 @@
       </c>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="155" t="s">
+      <c r="A3" s="160" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="155" t="s">
+      <c r="B3" s="160" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="159" t="s">
+      <c r="C3" s="162" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="160"/>
-      <c r="E3" s="161"/>
-      <c r="F3" s="159" t="s">
+      <c r="D3" s="153"/>
+      <c r="E3" s="154"/>
+      <c r="F3" s="162" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="160"/>
-      <c r="H3" s="161"/>
-      <c r="I3" s="159" t="s">
+      <c r="G3" s="153"/>
+      <c r="H3" s="154"/>
+      <c r="I3" s="162" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="160"/>
-      <c r="K3" s="161"/>
-      <c r="L3" s="160" t="s">
+      <c r="J3" s="153"/>
+      <c r="K3" s="154"/>
+      <c r="L3" s="153" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="160"/>
-      <c r="N3" s="161"/>
-      <c r="O3" s="157" t="s">
+      <c r="M3" s="153"/>
+      <c r="N3" s="154"/>
+      <c r="O3" s="155" t="s">
         <v>14</v>
       </c>
-      <c r="P3" s="157"/>
-      <c r="Q3" s="157"/>
+      <c r="P3" s="155"/>
+      <c r="Q3" s="155"/>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="156"/>
-      <c r="B4" s="156"/>
+      <c r="A4" s="161"/>
+      <c r="B4" s="161"/>
       <c r="C4" s="5" t="s">
         <v>15</v>
       </c>
@@ -5555,7 +5598,7 @@
       </c>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="157" t="s">
+      <c r="A5" s="155" t="s">
         <v>18</v>
       </c>
       <c r="B5" s="5">
@@ -5605,7 +5648,7 @@
       </c>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="157"/>
+      <c r="A6" s="155"/>
       <c r="B6" s="5">
         <v>88</v>
       </c>
@@ -5653,7 +5696,7 @@
       </c>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="157"/>
+      <c r="A7" s="155"/>
       <c r="B7" s="5">
         <v>100</v>
       </c>
@@ -5701,7 +5744,7 @@
       </c>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="157"/>
+      <c r="A8" s="155"/>
       <c r="B8" s="5" t="s">
         <v>19</v>
       </c>
@@ -5758,7 +5801,7 @@
       </c>
     </row>
     <row r="9" spans="1:17" hidden="1">
-      <c r="A9" s="155" t="s">
+      <c r="A9" s="160" t="s">
         <v>20</v>
       </c>
       <c r="B9" s="5">
@@ -5805,7 +5848,7 @@
       <c r="Q9" s="40"/>
     </row>
     <row r="10" spans="1:17" hidden="1">
-      <c r="A10" s="156"/>
+      <c r="A10" s="161"/>
       <c r="B10" s="5" t="s">
         <v>19</v>
       </c>
@@ -5859,7 +5902,7 @@
       <c r="Q10" s="40"/>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="157" t="s">
+      <c r="A11" s="155" t="s">
         <v>21</v>
       </c>
       <c r="B11" s="5">
@@ -5912,7 +5955,7 @@
       </c>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="157"/>
+      <c r="A12" s="155"/>
       <c r="B12" s="5">
         <v>180</v>
       </c>
@@ -5963,7 +6006,7 @@
       </c>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="157"/>
+      <c r="A13" s="155"/>
       <c r="B13" s="5">
         <v>240</v>
       </c>
@@ -6014,7 +6057,7 @@
       </c>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="157"/>
+      <c r="A14" s="155"/>
       <c r="B14" s="5" t="s">
         <v>19</v>
       </c>
@@ -6119,7 +6162,7 @@
       <c r="L20" s="39"/>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="157" t="s">
+      <c r="A21" s="155" t="s">
         <v>18</v>
       </c>
       <c r="B21" s="5">
@@ -6150,7 +6193,7 @@
       <c r="L21" s="34"/>
     </row>
     <row r="22" spans="1:12">
-      <c r="A22" s="157"/>
+      <c r="A22" s="155"/>
       <c r="B22" s="5">
         <v>88</v>
       </c>
@@ -6179,7 +6222,7 @@
       <c r="L22" s="34"/>
     </row>
     <row r="23" spans="1:12">
-      <c r="A23" s="157"/>
+      <c r="A23" s="155"/>
       <c r="B23" s="5">
         <v>100</v>
       </c>
@@ -6208,7 +6251,7 @@
       <c r="L23" s="34"/>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24" s="157"/>
+      <c r="A24" s="155"/>
       <c r="B24" s="5" t="s">
         <v>19</v>
       </c>
@@ -6430,29 +6473,29 @@
         <v>123</v>
       </c>
       <c r="O15" s="9"/>
-      <c r="P15" s="157" t="s">
+      <c r="P15" s="155" t="s">
         <v>107</v>
       </c>
-      <c r="Q15" s="157" t="s">
+      <c r="Q15" s="155" t="s">
         <v>109</v>
       </c>
-      <c r="R15" s="157" t="s">
+      <c r="R15" s="155" t="s">
         <v>124</v>
       </c>
-      <c r="S15" s="157"/>
-      <c r="T15" s="157" t="s">
+      <c r="S15" s="155"/>
+      <c r="T15" s="155" t="s">
         <v>125</v>
       </c>
-      <c r="U15" s="157"/>
-      <c r="V15" s="157"/>
+      <c r="U15" s="155"/>
+      <c r="V15" s="155"/>
     </row>
     <row r="16" spans="1:22">
       <c r="A16" t="s">
         <v>126</v>
       </c>
       <c r="O16" s="9"/>
-      <c r="P16" s="169"/>
-      <c r="Q16" s="169"/>
+      <c r="P16" s="170"/>
+      <c r="Q16" s="170"/>
       <c r="R16" s="5" t="s">
         <v>113</v>
       </c>
@@ -6563,17 +6606,17 @@
       <c r="Q21" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="R21" s="157">
+      <c r="R21" s="155">
         <f>SUM(R17:S18)</f>
         <v>1500</v>
       </c>
-      <c r="S21" s="157"/>
-      <c r="T21" s="162">
+      <c r="S21" s="155"/>
+      <c r="T21" s="168">
         <f>SUM(T17:V20)</f>
         <v>1500</v>
       </c>
-      <c r="U21" s="160"/>
-      <c r="V21" s="161"/>
+      <c r="U21" s="153"/>
+      <c r="V21" s="154"/>
     </row>
     <row r="22" spans="1:22">
       <c r="A22" t="s">
@@ -6842,7 +6885,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B3:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
@@ -6855,22 +6898,22 @@
   <sheetData>
     <row r="3" spans="2:9" ht="22.5">
       <c r="B3" s="126" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C3" s="126" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E3" s="126" t="s">
+        <v>300</v>
+      </c>
+      <c r="F3" s="126" t="s">
+        <v>301</v>
+      </c>
+      <c r="H3" s="126" t="s">
         <v>302</v>
       </c>
-      <c r="F3" s="126" t="s">
-        <v>303</v>
-      </c>
-      <c r="H3" s="126" t="s">
-        <v>304</v>
-      </c>
       <c r="I3" s="126" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="4" spans="2:9" ht="22.5">
@@ -6883,145 +6926,145 @@
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="127" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C5" s="127" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E5" s="127" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="F5" s="127" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="H5" s="127" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="I5" s="127" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="127" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C6" s="127" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E6" s="127" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F6" s="127" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="H6" s="127" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="I6" s="127" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="7" spans="2:9">
       <c r="B7" s="127" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C7" s="127" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="E7" s="124" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="F7" s="124" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="H7" s="127" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="I7" s="127" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="8" spans="2:9">
       <c r="E8" s="127" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="F8" s="127" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="H8" s="127" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="I8" s="127" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="9" spans="2:9">
       <c r="E9" s="127" t="s">
+        <v>310</v>
+      </c>
+      <c r="F9" s="127" t="s">
+        <v>311</v>
+      </c>
+      <c r="H9" s="127" t="s">
+        <v>310</v>
+      </c>
+      <c r="I9" s="127" t="s">
         <v>312</v>
-      </c>
-      <c r="F9" s="127" t="s">
-        <v>313</v>
-      </c>
-      <c r="H9" s="127" t="s">
-        <v>312</v>
-      </c>
-      <c r="I9" s="127" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="10" spans="2:9">
       <c r="E10" s="127" t="s">
+        <v>314</v>
+      </c>
+      <c r="F10" s="127" t="s">
         <v>316</v>
       </c>
-      <c r="F10" s="127" t="s">
-        <v>318</v>
-      </c>
       <c r="H10" s="127" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="I10" s="127" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="11" spans="2:9">
       <c r="E11" s="127" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F11" s="127" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="H11" s="127" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="I11" s="127" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="12" spans="2:9">
       <c r="E12" s="127" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F12" s="127" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="H12" s="127" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="I12" s="127" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="13" spans="2:9">
       <c r="E13" s="149" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="14" spans="2:9">
-      <c r="E14" s="255" t="s">
-        <v>344</v>
-      </c>
-      <c r="F14" s="255" t="s">
-        <v>345</v>
+      <c r="E14" s="152" t="s">
+        <v>341</v>
+      </c>
+      <c r="F14" s="152" t="s">
+        <v>342</v>
       </c>
     </row>
   </sheetData>
@@ -7034,8 +7077,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S30"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7050,37 +7093,37 @@
     </row>
     <row r="2" spans="1:10" ht="20.25">
       <c r="A2" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="21" thickBot="1">
       <c r="A3" s="3"/>
     </row>
     <row r="4" spans="1:10" ht="18.75" customHeight="1">
-      <c r="A4" s="170" t="s">
+      <c r="A4" s="192" t="s">
         <v>159</v>
       </c>
-      <c r="B4" s="170" t="s">
+      <c r="B4" s="192" t="s">
         <v>125</v>
       </c>
-      <c r="C4" s="176" t="s">
+      <c r="C4" s="196" t="s">
         <v>124</v>
       </c>
-      <c r="D4" s="177"/>
-      <c r="E4" s="170" t="s">
+      <c r="D4" s="197"/>
+      <c r="E4" s="192" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A5" s="171"/>
-      <c r="B5" s="171"/>
+      <c r="A5" s="193"/>
+      <c r="B5" s="193"/>
       <c r="C5" s="100" t="s">
         <v>202</v>
       </c>
       <c r="D5" s="101" t="s">
         <v>203</v>
       </c>
-      <c r="E5" s="171"/>
+      <c r="E5" s="193"/>
       <c r="J5" s="50" t="s">
         <v>210</v>
       </c>
@@ -7227,86 +7270,86 @@
       <c r="B14" s="86">
         <v>50</v>
       </c>
-      <c r="C14" s="172" t="s">
+      <c r="C14" s="194" t="s">
         <v>208</v>
       </c>
-      <c r="D14" s="173"/>
+      <c r="D14" s="178"/>
       <c r="E14" s="82">
         <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="65.25" customHeight="1">
       <c r="A16" s="3" t="s">
-        <v>293</v>
+        <v>346</v>
       </c>
     </row>
     <row r="17" spans="1:19" ht="32.25" customHeight="1">
-      <c r="A17" s="174" t="s">
+      <c r="A17" s="195" t="s">
         <v>214</v>
       </c>
-      <c r="B17" s="175"/>
-      <c r="C17" s="175" t="s">
+      <c r="B17" s="191"/>
+      <c r="C17" s="191" t="s">
         <v>215</v>
       </c>
-      <c r="D17" s="175"/>
-      <c r="E17" s="175"/>
-      <c r="F17" s="175"/>
-      <c r="G17" s="175"/>
-      <c r="H17" s="178" t="s">
+      <c r="D17" s="191"/>
+      <c r="E17" s="191"/>
+      <c r="F17" s="191"/>
+      <c r="G17" s="191"/>
+      <c r="H17" s="186" t="s">
         <v>216</v>
       </c>
-      <c r="I17" s="178"/>
-      <c r="J17" s="179" t="s">
+      <c r="I17" s="186"/>
+      <c r="J17" s="189" t="s">
         <v>217</v>
       </c>
-      <c r="K17" s="180"/>
+      <c r="K17" s="190"/>
     </row>
     <row r="18" spans="1:19" ht="25.5" customHeight="1">
-      <c r="A18" s="182" t="s">
+      <c r="A18" s="173" t="s">
         <v>288</v>
       </c>
-      <c r="B18" s="183"/>
-      <c r="C18" s="181" t="s">
+      <c r="B18" s="171"/>
+      <c r="C18" s="172" t="s">
         <v>287</v>
       </c>
-      <c r="D18" s="182"/>
-      <c r="E18" s="182"/>
-      <c r="F18" s="183"/>
-      <c r="G18" s="181" t="s">
+      <c r="D18" s="173"/>
+      <c r="E18" s="173"/>
+      <c r="F18" s="171"/>
+      <c r="G18" s="172" t="s">
         <v>222</v>
       </c>
-      <c r="H18" s="182"/>
-      <c r="I18" s="182"/>
-      <c r="J18" s="182"/>
-      <c r="K18" s="182"/>
+      <c r="H18" s="173"/>
+      <c r="I18" s="173"/>
+      <c r="J18" s="173"/>
+      <c r="K18" s="173"/>
       <c r="N18" s="151" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="19" spans="1:19" ht="21" customHeight="1">
-      <c r="A19" s="162" t="s">
+      <c r="A19" s="168" t="s">
         <v>76</v>
       </c>
-      <c r="B19" s="161"/>
-      <c r="C19" s="183" t="s">
+      <c r="B19" s="154"/>
+      <c r="C19" s="171" t="s">
         <v>226</v>
       </c>
-      <c r="D19" s="181"/>
+      <c r="D19" s="172"/>
       <c r="E19" s="52" t="s">
         <v>219</v>
       </c>
-      <c r="F19" s="183" t="s">
+      <c r="F19" s="171" t="s">
         <v>218</v>
       </c>
-      <c r="G19" s="161"/>
-      <c r="H19" s="183" t="s">
+      <c r="G19" s="154"/>
+      <c r="H19" s="171" t="s">
         <v>220</v>
       </c>
-      <c r="I19" s="161"/>
-      <c r="J19" s="183" t="s">
+      <c r="I19" s="154"/>
+      <c r="J19" s="171" t="s">
         <v>224</v>
       </c>
-      <c r="K19" s="161"/>
+      <c r="K19" s="154"/>
       <c r="N19" s="49" t="s">
         <v>146</v>
       </c>
@@ -7327,23 +7370,23 @@
       </c>
     </row>
     <row r="20" spans="1:19" ht="21" customHeight="1">
-      <c r="A20" s="183" t="s">
+      <c r="A20" s="171" t="s">
         <v>227</v>
       </c>
-      <c r="B20" s="161"/>
-      <c r="C20" s="183" t="s">
+      <c r="B20" s="154"/>
+      <c r="C20" s="171" t="s">
         <v>229</v>
       </c>
-      <c r="D20" s="161"/>
+      <c r="D20" s="154"/>
       <c r="E20" s="45"/>
-      <c r="F20" s="162"/>
-      <c r="G20" s="161"/>
-      <c r="H20" s="162"/>
-      <c r="I20" s="161"/>
-      <c r="J20" s="183" t="s">
+      <c r="F20" s="168"/>
+      <c r="G20" s="154"/>
+      <c r="H20" s="168"/>
+      <c r="I20" s="154"/>
+      <c r="J20" s="171" t="s">
         <v>225</v>
       </c>
-      <c r="K20" s="161"/>
+      <c r="K20" s="154"/>
       <c r="N20" s="49"/>
       <c r="O20" s="49"/>
       <c r="P20" s="49"/>
@@ -7354,23 +7397,23 @@
       <c r="S20" s="49"/>
     </row>
     <row r="21" spans="1:19" ht="21" customHeight="1">
-      <c r="A21" s="183" t="s">
+      <c r="A21" s="171" t="s">
         <v>227</v>
       </c>
-      <c r="B21" s="161"/>
-      <c r="C21" s="183" t="s">
+      <c r="B21" s="154"/>
+      <c r="C21" s="171" t="s">
         <v>230</v>
       </c>
-      <c r="D21" s="161"/>
+      <c r="D21" s="154"/>
       <c r="E21" s="45"/>
-      <c r="F21" s="162"/>
-      <c r="G21" s="161"/>
-      <c r="H21" s="162"/>
-      <c r="I21" s="161"/>
-      <c r="J21" s="183" t="s">
+      <c r="F21" s="168"/>
+      <c r="G21" s="154"/>
+      <c r="H21" s="168"/>
+      <c r="I21" s="154"/>
+      <c r="J21" s="171" t="s">
         <v>225</v>
       </c>
-      <c r="K21" s="161"/>
+      <c r="K21" s="154"/>
       <c r="N21" s="49"/>
       <c r="O21" s="49"/>
       <c r="P21" s="49"/>
@@ -7379,69 +7422,69 @@
       <c r="S21" s="49"/>
     </row>
     <row r="22" spans="1:19" ht="21" customHeight="1">
-      <c r="A22" s="183" t="s">
+      <c r="A22" s="171" t="s">
         <v>228</v>
       </c>
-      <c r="B22" s="161"/>
-      <c r="C22" s="183" t="s">
+      <c r="B22" s="154"/>
+      <c r="C22" s="171" t="s">
         <v>231</v>
       </c>
-      <c r="D22" s="161"/>
+      <c r="D22" s="154"/>
       <c r="E22" s="49"/>
-      <c r="F22" s="162"/>
-      <c r="G22" s="161"/>
-      <c r="H22" s="162"/>
-      <c r="I22" s="161"/>
-      <c r="J22" s="183" t="s">
+      <c r="F22" s="168"/>
+      <c r="G22" s="154"/>
+      <c r="H22" s="168"/>
+      <c r="I22" s="154"/>
+      <c r="J22" s="171" t="s">
         <v>225</v>
       </c>
-      <c r="K22" s="161"/>
+      <c r="K22" s="154"/>
     </row>
     <row r="23" spans="1:19" ht="21" customHeight="1">
-      <c r="A23" s="183" t="s">
+      <c r="A23" s="171" t="s">
         <v>228</v>
       </c>
-      <c r="B23" s="161"/>
-      <c r="C23" s="183" t="s">
+      <c r="B23" s="154"/>
+      <c r="C23" s="171" t="s">
         <v>232</v>
       </c>
-      <c r="D23" s="161"/>
+      <c r="D23" s="154"/>
       <c r="E23" s="49"/>
-      <c r="F23" s="162"/>
-      <c r="G23" s="161"/>
-      <c r="H23" s="162"/>
-      <c r="I23" s="161"/>
-      <c r="J23" s="183" t="s">
+      <c r="F23" s="168"/>
+      <c r="G23" s="154"/>
+      <c r="H23" s="168"/>
+      <c r="I23" s="154"/>
+      <c r="J23" s="171" t="s">
         <v>225</v>
       </c>
-      <c r="K23" s="161"/>
+      <c r="K23" s="154"/>
     </row>
     <row r="26" spans="1:19" ht="32.25" customHeight="1" thickBot="1">
-      <c r="A26" s="188" t="s">
+      <c r="A26" s="183" t="s">
         <v>214</v>
       </c>
-      <c r="B26" s="189"/>
-      <c r="C26" s="189" t="s">
+      <c r="B26" s="184"/>
+      <c r="C26" s="184" t="s">
         <v>215</v>
       </c>
-      <c r="D26" s="189"/>
-      <c r="E26" s="189"/>
-      <c r="F26" s="189"/>
-      <c r="G26" s="189"/>
-      <c r="H26" s="190" t="s">
+      <c r="D26" s="184"/>
+      <c r="E26" s="184"/>
+      <c r="F26" s="184"/>
+      <c r="G26" s="184"/>
+      <c r="H26" s="185" t="s">
         <v>216</v>
       </c>
-      <c r="I26" s="190"/>
-      <c r="J26" s="178" t="s">
+      <c r="I26" s="185"/>
+      <c r="J26" s="186" t="s">
         <v>217</v>
       </c>
-      <c r="K26" s="178"/>
+      <c r="K26" s="186"/>
     </row>
     <row r="27" spans="1:19" ht="25.5" customHeight="1">
-      <c r="A27" s="191" t="s">
+      <c r="A27" s="187" t="s">
         <v>233</v>
       </c>
-      <c r="B27" s="192"/>
+      <c r="B27" s="188"/>
       <c r="C27" s="60"/>
       <c r="D27" s="61"/>
       <c r="E27" s="62"/>
@@ -7459,61 +7502,86 @@
       <c r="B28" s="59" t="s">
         <v>89</v>
       </c>
-      <c r="C28" s="156" t="s">
+      <c r="C28" s="161" t="s">
         <v>90</v>
       </c>
-      <c r="D28" s="156"/>
-      <c r="E28" s="156" t="s">
+      <c r="D28" s="161"/>
+      <c r="E28" s="161" t="s">
         <v>91</v>
       </c>
-      <c r="F28" s="156"/>
-      <c r="G28" s="184" t="s">
+      <c r="F28" s="161"/>
+      <c r="G28" s="179" t="s">
         <v>92</v>
       </c>
-      <c r="H28" s="185"/>
-      <c r="I28" s="184" t="s">
+      <c r="H28" s="180"/>
+      <c r="I28" s="179" t="s">
         <v>93</v>
       </c>
-      <c r="J28" s="186"/>
-      <c r="K28" s="187"/>
+      <c r="J28" s="181"/>
+      <c r="K28" s="182"/>
     </row>
     <row r="29" spans="1:19" ht="21.75" customHeight="1">
       <c r="A29" s="26"/>
       <c r="B29" s="49"/>
-      <c r="C29" s="157"/>
-      <c r="D29" s="157"/>
-      <c r="E29" s="157"/>
-      <c r="F29" s="157"/>
-      <c r="G29" s="162"/>
-      <c r="H29" s="161"/>
-      <c r="I29" s="162"/>
-      <c r="J29" s="160"/>
-      <c r="K29" s="163"/>
+      <c r="C29" s="155"/>
+      <c r="D29" s="155"/>
+      <c r="E29" s="155"/>
+      <c r="F29" s="155"/>
+      <c r="G29" s="168"/>
+      <c r="H29" s="154"/>
+      <c r="I29" s="168"/>
+      <c r="J29" s="153"/>
+      <c r="K29" s="169"/>
     </row>
     <row r="30" spans="1:19" ht="21.75" customHeight="1" thickBot="1">
       <c r="A30" s="58"/>
       <c r="B30" s="57"/>
-      <c r="C30" s="193"/>
-      <c r="D30" s="193"/>
-      <c r="E30" s="193"/>
-      <c r="F30" s="193"/>
-      <c r="G30" s="194"/>
-      <c r="H30" s="195"/>
-      <c r="I30" s="194"/>
-      <c r="J30" s="196"/>
-      <c r="K30" s="173"/>
+      <c r="C30" s="174"/>
+      <c r="D30" s="174"/>
+      <c r="E30" s="174"/>
+      <c r="F30" s="174"/>
+      <c r="G30" s="175"/>
+      <c r="H30" s="176"/>
+      <c r="I30" s="175"/>
+      <c r="J30" s="177"/>
+      <c r="K30" s="178"/>
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="G18:K18"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="H23:I23"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="J19:K19"/>
     <mergeCell ref="J20:K20"/>
@@ -7525,40 +7593,15 @@
     <mergeCell ref="F20:G20"/>
     <mergeCell ref="F22:G22"/>
     <mergeCell ref="F21:G21"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="I29:K29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="G18:K18"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7569,8 +7612,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T111"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView showGridLines="0" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="I32" sqref="I32:J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7586,7 +7629,7 @@
     </row>
     <row r="3" spans="1:9" ht="29.25" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>291</v>
+        <v>344</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -7605,11 +7648,11 @@
       <c r="A5" s="45" t="s">
         <v>146</v>
       </c>
-      <c r="B5" s="162" t="s">
+      <c r="B5" s="168" t="s">
         <v>147</v>
       </c>
-      <c r="C5" s="160"/>
-      <c r="D5" s="161"/>
+      <c r="C5" s="153"/>
+      <c r="D5" s="154"/>
       <c r="E5" s="52" t="s">
         <v>242</v>
       </c>
@@ -7628,11 +7671,11 @@
       <c r="A6" s="66">
         <v>43136.354166666664</v>
       </c>
-      <c r="B6" s="203" t="s">
+      <c r="B6" s="234" t="s">
         <v>235</v>
       </c>
-      <c r="C6" s="204"/>
-      <c r="D6" s="205"/>
+      <c r="C6" s="235"/>
+      <c r="D6" s="236"/>
       <c r="E6" s="45">
         <v>400</v>
       </c>
@@ -7652,11 +7695,11 @@
       <c r="A7" s="66">
         <v>43137.354166608799</v>
       </c>
-      <c r="B7" s="203" t="s">
+      <c r="B7" s="234" t="s">
         <v>289</v>
       </c>
-      <c r="C7" s="204"/>
-      <c r="D7" s="205"/>
+      <c r="C7" s="235"/>
+      <c r="D7" s="236"/>
       <c r="E7" s="125">
         <v>400</v>
       </c>
@@ -7676,11 +7719,11 @@
       <c r="A8" s="66">
         <v>43138.354166608799</v>
       </c>
-      <c r="B8" s="203" t="s">
+      <c r="B8" s="234" t="s">
         <v>290</v>
       </c>
-      <c r="C8" s="204"/>
-      <c r="D8" s="205"/>
+      <c r="C8" s="235"/>
+      <c r="D8" s="236"/>
       <c r="E8" s="125">
         <v>400</v>
       </c>
@@ -7698,45 +7741,45 @@
     </row>
     <row r="9" spans="1:9" ht="37.5" customHeight="1">
       <c r="A9" s="3" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="21" thickBot="1">
       <c r="A10" s="3"/>
     </row>
     <row r="11" spans="1:9" ht="27.75" customHeight="1">
-      <c r="A11" s="199" t="s">
+      <c r="A11" s="230" t="s">
         <v>159</v>
       </c>
-      <c r="B11" s="210" t="s">
+      <c r="B11" s="241" t="s">
         <v>125</v>
       </c>
-      <c r="C11" s="211"/>
-      <c r="D11" s="212"/>
-      <c r="E11" s="206" t="s">
+      <c r="C11" s="242"/>
+      <c r="D11" s="243"/>
+      <c r="E11" s="237" t="s">
         <v>220</v>
       </c>
-      <c r="F11" s="207"/>
-      <c r="G11" s="208" t="s">
+      <c r="F11" s="238"/>
+      <c r="G11" s="239" t="s">
         <v>242</v>
       </c>
-      <c r="H11" s="197" t="s">
+      <c r="H11" s="228" t="s">
         <v>239</v>
       </c>
-      <c r="I11" s="201" t="s">
+      <c r="I11" s="232" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="27.75" customHeight="1">
-      <c r="A12" s="200"/>
+      <c r="A12" s="231"/>
       <c r="B12" s="133" t="s">
+        <v>325</v>
+      </c>
+      <c r="C12" s="134" t="s">
+        <v>326</v>
+      </c>
+      <c r="D12" s="135" t="s">
         <v>327</v>
-      </c>
-      <c r="C12" s="134" t="s">
-        <v>328</v>
-      </c>
-      <c r="D12" s="135" t="s">
-        <v>329</v>
       </c>
       <c r="E12" s="128" t="s">
         <v>202</v>
@@ -7744,9 +7787,9 @@
       <c r="F12" s="145" t="s">
         <v>236</v>
       </c>
-      <c r="G12" s="209"/>
-      <c r="H12" s="198"/>
-      <c r="I12" s="202"/>
+      <c r="G12" s="240"/>
+      <c r="H12" s="229"/>
+      <c r="I12" s="233"/>
     </row>
     <row r="13" spans="1:9" ht="27.75" customHeight="1">
       <c r="A13" s="75">
@@ -7955,15 +7998,15 @@
       <c r="A20" s="78" t="s">
         <v>132</v>
       </c>
-      <c r="B20" s="213" t="s">
-        <v>326</v>
-      </c>
-      <c r="C20" s="214"/>
-      <c r="D20" s="215"/>
-      <c r="E20" s="216" t="s">
-        <v>325</v>
-      </c>
-      <c r="F20" s="217"/>
+      <c r="B20" s="223" t="s">
+        <v>324</v>
+      </c>
+      <c r="C20" s="224"/>
+      <c r="D20" s="225"/>
+      <c r="E20" s="226" t="s">
+        <v>323</v>
+      </c>
+      <c r="F20" s="227"/>
       <c r="G20" s="132">
         <v>2888</v>
       </c>
@@ -7977,61 +8020,61 @@
     <row r="22" spans="1:20" ht="30" customHeight="1"/>
     <row r="23" spans="1:20" ht="44.25" customHeight="1">
       <c r="A23" s="3" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="24" spans="1:20" ht="25.5" customHeight="1">
-      <c r="A24" s="174" t="s">
+      <c r="A24" s="195" t="s">
         <v>214</v>
       </c>
-      <c r="B24" s="175"/>
-      <c r="C24" s="175" t="s">
+      <c r="B24" s="191"/>
+      <c r="C24" s="191" t="s">
         <v>245</v>
       </c>
-      <c r="D24" s="175"/>
-      <c r="E24" s="175"/>
-      <c r="F24" s="175"/>
-      <c r="G24" s="175"/>
+      <c r="D24" s="191"/>
+      <c r="E24" s="191"/>
+      <c r="F24" s="191"/>
+      <c r="G24" s="191"/>
       <c r="H24" s="110"/>
-      <c r="I24" s="218" t="s">
+      <c r="I24" s="208" t="s">
         <v>216</v>
       </c>
-      <c r="J24" s="218"/>
-      <c r="K24" s="179" t="s">
+      <c r="J24" s="208"/>
+      <c r="K24" s="189" t="s">
         <v>244</v>
       </c>
-      <c r="L24" s="180"/>
+      <c r="L24" s="190"/>
       <c r="O24" s="3" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="25" spans="1:20" ht="29.25" customHeight="1">
-      <c r="A25" s="182" t="s">
+      <c r="A25" s="173" t="s">
         <v>223</v>
       </c>
-      <c r="B25" s="183"/>
-      <c r="C25" s="181" t="s">
+      <c r="B25" s="171"/>
+      <c r="C25" s="172" t="s">
         <v>221</v>
       </c>
-      <c r="D25" s="182"/>
-      <c r="E25" s="182"/>
-      <c r="F25" s="183"/>
-      <c r="G25" s="181" t="s">
+      <c r="D25" s="173"/>
+      <c r="E25" s="173"/>
+      <c r="F25" s="171"/>
+      <c r="G25" s="172" t="s">
         <v>222</v>
       </c>
-      <c r="H25" s="181"/>
-      <c r="I25" s="182"/>
-      <c r="J25" s="182"/>
-      <c r="K25" s="182"/>
-      <c r="L25" s="182"/>
-      <c r="O25" s="234" t="s">
+      <c r="H25" s="172"/>
+      <c r="I25" s="173"/>
+      <c r="J25" s="173"/>
+      <c r="K25" s="173"/>
+      <c r="L25" s="173"/>
+      <c r="O25" s="202" t="s">
         <v>204</v>
       </c>
-      <c r="P25" s="234"/>
-      <c r="Q25" s="234"/>
-      <c r="R25" s="234"/>
-      <c r="S25" s="234"/>
-      <c r="T25" s="234"/>
+      <c r="P25" s="202"/>
+      <c r="Q25" s="202"/>
+      <c r="R25" s="202"/>
+      <c r="S25" s="202"/>
+      <c r="T25" s="202"/>
     </row>
     <row r="26" spans="1:20" ht="29.25" customHeight="1">
       <c r="A26" s="219" t="s">
@@ -8042,14 +8085,14 @@
         <v>226</v>
       </c>
       <c r="D26" s="222"/>
-      <c r="E26" s="238" t="s">
+      <c r="E26" s="206" t="s">
         <v>219</v>
       </c>
-      <c r="F26" s="236"/>
-      <c r="G26" s="236" t="s">
+      <c r="F26" s="204"/>
+      <c r="G26" s="204" t="s">
         <v>218</v>
       </c>
-      <c r="H26" s="237"/>
+      <c r="H26" s="205"/>
       <c r="I26" s="221" t="s">
         <v>220</v>
       </c>
@@ -8078,26 +8121,26 @@
       </c>
     </row>
     <row r="27" spans="1:20" ht="29.25" customHeight="1">
-      <c r="A27" s="183" t="s">
+      <c r="A27" s="171" t="s">
         <v>227</v>
       </c>
-      <c r="B27" s="161"/>
-      <c r="C27" s="183" t="s">
+      <c r="B27" s="154"/>
+      <c r="C27" s="171" t="s">
         <v>229</v>
       </c>
-      <c r="D27" s="160"/>
-      <c r="E27" s="227"/>
-      <c r="F27" s="227"/>
-      <c r="G27" s="227"/>
-      <c r="H27" s="227"/>
-      <c r="I27" s="223" t="s">
+      <c r="D27" s="153"/>
+      <c r="E27" s="207"/>
+      <c r="F27" s="207"/>
+      <c r="G27" s="207"/>
+      <c r="H27" s="207"/>
+      <c r="I27" s="215" t="s">
         <v>243</v>
       </c>
-      <c r="J27" s="224"/>
-      <c r="K27" s="183" t="s">
+      <c r="J27" s="216"/>
+      <c r="K27" s="171" t="s">
         <v>225</v>
       </c>
-      <c r="L27" s="161"/>
+      <c r="L27" s="154"/>
       <c r="O27" s="49"/>
       <c r="P27" s="49"/>
       <c r="Q27" s="49"/>
@@ -8108,26 +8151,26 @@
       <c r="T27" s="49"/>
     </row>
     <row r="28" spans="1:20" ht="29.25" customHeight="1">
-      <c r="A28" s="183" t="s">
+      <c r="A28" s="171" t="s">
         <v>227</v>
       </c>
-      <c r="B28" s="161"/>
-      <c r="C28" s="183" t="s">
+      <c r="B28" s="154"/>
+      <c r="C28" s="171" t="s">
         <v>230</v>
       </c>
-      <c r="D28" s="160"/>
-      <c r="E28" s="227"/>
-      <c r="F28" s="227"/>
-      <c r="G28" s="227"/>
-      <c r="H28" s="227"/>
-      <c r="I28" s="225" t="s">
+      <c r="D28" s="153"/>
+      <c r="E28" s="207"/>
+      <c r="F28" s="207"/>
+      <c r="G28" s="207"/>
+      <c r="H28" s="207"/>
+      <c r="I28" s="217" t="s">
         <v>272</v>
       </c>
-      <c r="J28" s="226"/>
-      <c r="K28" s="183" t="s">
+      <c r="J28" s="218"/>
+      <c r="K28" s="171" t="s">
         <v>225</v>
       </c>
-      <c r="L28" s="161"/>
+      <c r="L28" s="154"/>
       <c r="O28" s="49"/>
       <c r="P28" s="49"/>
       <c r="Q28" s="49"/>
@@ -8136,87 +8179,87 @@
       <c r="T28" s="49"/>
     </row>
     <row r="29" spans="1:20" ht="29.25" customHeight="1">
-      <c r="A29" s="183" t="s">
+      <c r="A29" s="171" t="s">
         <v>227</v>
       </c>
-      <c r="B29" s="161"/>
-      <c r="C29" s="183" t="s">
+      <c r="B29" s="154"/>
+      <c r="C29" s="171" t="s">
         <v>231</v>
       </c>
-      <c r="D29" s="160"/>
-      <c r="E29" s="227"/>
-      <c r="F29" s="227"/>
-      <c r="G29" s="227"/>
-      <c r="H29" s="227"/>
-      <c r="I29" s="160"/>
-      <c r="J29" s="161"/>
-      <c r="K29" s="183" t="s">
+      <c r="D29" s="153"/>
+      <c r="E29" s="207"/>
+      <c r="F29" s="207"/>
+      <c r="G29" s="207"/>
+      <c r="H29" s="207"/>
+      <c r="I29" s="153"/>
+      <c r="J29" s="154"/>
+      <c r="K29" s="171" t="s">
         <v>225</v>
       </c>
-      <c r="L29" s="161"/>
+      <c r="L29" s="154"/>
     </row>
     <row r="30" spans="1:20" ht="29.25" customHeight="1">
-      <c r="A30" s="183" t="s">
+      <c r="A30" s="171" t="s">
         <v>227</v>
       </c>
-      <c r="B30" s="161"/>
-      <c r="C30" s="183" t="s">
+      <c r="B30" s="154"/>
+      <c r="C30" s="171" t="s">
         <v>232</v>
       </c>
-      <c r="D30" s="160"/>
-      <c r="E30" s="227"/>
-      <c r="F30" s="227"/>
-      <c r="G30" s="227"/>
-      <c r="H30" s="227"/>
-      <c r="I30" s="160"/>
-      <c r="J30" s="161"/>
-      <c r="K30" s="183" t="s">
+      <c r="D30" s="153"/>
+      <c r="E30" s="207"/>
+      <c r="F30" s="207"/>
+      <c r="G30" s="207"/>
+      <c r="H30" s="207"/>
+      <c r="I30" s="153"/>
+      <c r="J30" s="154"/>
+      <c r="K30" s="171" t="s">
         <v>225</v>
       </c>
-      <c r="L30" s="161"/>
+      <c r="L30" s="154"/>
     </row>
     <row r="31" spans="1:20" ht="29.25" customHeight="1"/>
     <row r="32" spans="1:20" ht="29.25" customHeight="1">
-      <c r="A32" s="174" t="s">
+      <c r="A32" s="195" t="s">
         <v>214</v>
       </c>
-      <c r="B32" s="175"/>
-      <c r="C32" s="175" t="s">
+      <c r="B32" s="191"/>
+      <c r="C32" s="191" t="s">
         <v>245</v>
       </c>
-      <c r="D32" s="175"/>
-      <c r="E32" s="175"/>
-      <c r="F32" s="175"/>
-      <c r="G32" s="175"/>
+      <c r="D32" s="191"/>
+      <c r="E32" s="191"/>
+      <c r="F32" s="191"/>
+      <c r="G32" s="191"/>
       <c r="H32" s="110"/>
-      <c r="I32" s="179" t="s">
+      <c r="I32" s="189" t="s">
         <v>216</v>
       </c>
-      <c r="J32" s="179"/>
-      <c r="K32" s="218" t="s">
+      <c r="J32" s="189"/>
+      <c r="K32" s="208" t="s">
         <v>244</v>
       </c>
-      <c r="L32" s="218"/>
+      <c r="L32" s="208"/>
     </row>
     <row r="33" spans="1:12" ht="29.25" customHeight="1">
-      <c r="A33" s="182" t="s">
+      <c r="A33" s="173" t="s">
         <v>246</v>
       </c>
-      <c r="B33" s="183"/>
-      <c r="C33" s="235"/>
-      <c r="D33" s="235"/>
-      <c r="E33" s="235" t="s">
+      <c r="B33" s="171"/>
+      <c r="C33" s="203"/>
+      <c r="D33" s="203"/>
+      <c r="E33" s="203" t="s">
         <v>270</v>
       </c>
-      <c r="F33" s="235"/>
-      <c r="G33" s="235"/>
+      <c r="F33" s="203"/>
+      <c r="G33" s="203"/>
       <c r="H33" s="67"/>
-      <c r="I33" s="235" t="s">
+      <c r="I33" s="203" t="s">
         <v>266</v>
       </c>
-      <c r="J33" s="235"/>
-      <c r="K33" s="235"/>
-      <c r="L33" s="181"/>
+      <c r="J33" s="203"/>
+      <c r="K33" s="203"/>
+      <c r="L33" s="172"/>
     </row>
     <row r="34" spans="1:12" ht="29.25" customHeight="1">
       <c r="A34" s="87" t="s">
@@ -8225,62 +8268,62 @@
       <c r="B34" s="89" t="s">
         <v>248</v>
       </c>
-      <c r="C34" s="228" t="s">
+      <c r="C34" s="209" t="s">
         <v>249</v>
       </c>
-      <c r="D34" s="229"/>
-      <c r="E34" s="228" t="s">
+      <c r="D34" s="210"/>
+      <c r="E34" s="209" t="s">
         <v>250</v>
       </c>
-      <c r="F34" s="229"/>
-      <c r="G34" s="230" t="s">
+      <c r="F34" s="210"/>
+      <c r="G34" s="211" t="s">
         <v>236</v>
       </c>
-      <c r="H34" s="231"/>
-      <c r="I34" s="232"/>
-      <c r="J34" s="230" t="s">
+      <c r="H34" s="212"/>
+      <c r="I34" s="213"/>
+      <c r="J34" s="211" t="s">
         <v>224</v>
       </c>
-      <c r="K34" s="233"/>
-      <c r="L34" s="232"/>
+      <c r="K34" s="214"/>
+      <c r="L34" s="213"/>
     </row>
     <row r="35" spans="1:12" ht="29.25" customHeight="1">
       <c r="A35" s="49"/>
       <c r="B35" s="49"/>
-      <c r="C35" s="157"/>
-      <c r="D35" s="157"/>
-      <c r="E35" s="157"/>
-      <c r="F35" s="157"/>
-      <c r="G35" s="162"/>
-      <c r="H35" s="160"/>
-      <c r="I35" s="161"/>
-      <c r="J35" s="162"/>
-      <c r="K35" s="160"/>
-      <c r="L35" s="161"/>
+      <c r="C35" s="155"/>
+      <c r="D35" s="155"/>
+      <c r="E35" s="155"/>
+      <c r="F35" s="155"/>
+      <c r="G35" s="168"/>
+      <c r="H35" s="153"/>
+      <c r="I35" s="154"/>
+      <c r="J35" s="168"/>
+      <c r="K35" s="153"/>
+      <c r="L35" s="154"/>
     </row>
     <row r="36" spans="1:12" ht="29.25" customHeight="1">
       <c r="A36" s="49"/>
       <c r="B36" s="49"/>
-      <c r="C36" s="157"/>
-      <c r="D36" s="157"/>
-      <c r="E36" s="157"/>
-      <c r="F36" s="157"/>
-      <c r="G36" s="162"/>
-      <c r="H36" s="160"/>
-      <c r="I36" s="161"/>
-      <c r="J36" s="162"/>
-      <c r="K36" s="160"/>
-      <c r="L36" s="161"/>
+      <c r="C36" s="155"/>
+      <c r="D36" s="155"/>
+      <c r="E36" s="155"/>
+      <c r="F36" s="155"/>
+      <c r="G36" s="168"/>
+      <c r="H36" s="153"/>
+      <c r="I36" s="154"/>
+      <c r="J36" s="168"/>
+      <c r="K36" s="153"/>
+      <c r="L36" s="154"/>
     </row>
     <row r="38" spans="1:12" ht="47.25" customHeight="1"/>
     <row r="39" spans="1:12" ht="45" customHeight="1">
       <c r="A39" s="3" t="s">
-        <v>330</v>
+        <v>343</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="43.5" customHeight="1">
-      <c r="A40" s="115" t="s">
-        <v>279</v>
+      <c r="A40" s="115">
+        <v>6</v>
       </c>
       <c r="B40" s="116" t="s">
         <v>280</v>
@@ -8291,10 +8334,10 @@
       <c r="D40" s="116" t="s">
         <v>282</v>
       </c>
-      <c r="E40" s="241" t="s">
-        <v>283</v>
-      </c>
-      <c r="F40" s="242"/>
+      <c r="E40" s="256" t="s">
+        <v>345</v>
+      </c>
+      <c r="F40" s="257"/>
       <c r="G40" s="34"/>
       <c r="H40" s="34"/>
       <c r="I40" s="11"/>
@@ -8429,7 +8472,7 @@
     <row r="48" spans="1:12" ht="76.5" customHeight="1"/>
     <row r="49" spans="1:8" ht="30" customHeight="1">
       <c r="A49" s="3" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -8517,7 +8560,7 @@
     </row>
     <row r="63" spans="1:8" ht="20.25">
       <c r="A63" s="3" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="22.5">
@@ -8538,7 +8581,7 @@
     </row>
     <row r="88" spans="1:8" ht="18.75">
       <c r="A88" s="150" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="89" spans="1:8" ht="26.25" customHeight="1">
@@ -8567,11 +8610,11 @@
     </row>
     <row r="91" spans="1:8" ht="32.25" customHeight="1">
       <c r="A91" s="3" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
     </row>
     <row r="92" spans="1:8">
-      <c r="B92" s="157" t="s">
+      <c r="B92" s="155" t="s">
         <v>190</v>
       </c>
       <c r="C92" s="49" t="s">
@@ -8581,14 +8624,14 @@
       <c r="E92" s="104" t="s">
         <v>191</v>
       </c>
-      <c r="F92" s="239" t="s">
+      <c r="F92" s="198" t="s">
         <v>260</v>
       </c>
-      <c r="G92" s="240"/>
+      <c r="G92" s="199"/>
       <c r="H92" s="112"/>
     </row>
     <row r="93" spans="1:8">
-      <c r="B93" s="157"/>
+      <c r="B93" s="155"/>
       <c r="C93" s="49" t="s">
         <v>127</v>
       </c>
@@ -8596,12 +8639,12 @@
       <c r="E93" s="104" t="s">
         <v>191</v>
       </c>
-      <c r="F93" s="240"/>
-      <c r="G93" s="240"/>
+      <c r="F93" s="199"/>
+      <c r="G93" s="199"/>
       <c r="H93" s="112"/>
     </row>
     <row r="94" spans="1:8">
-      <c r="B94" s="157" t="s">
+      <c r="B94" s="155" t="s">
         <v>192</v>
       </c>
       <c r="C94" s="49" t="s">
@@ -8611,12 +8654,12 @@
       <c r="E94" s="104" t="s">
         <v>191</v>
       </c>
-      <c r="F94" s="240"/>
-      <c r="G94" s="240"/>
+      <c r="F94" s="199"/>
+      <c r="G94" s="199"/>
       <c r="H94" s="112"/>
     </row>
     <row r="95" spans="1:8">
-      <c r="B95" s="157"/>
+      <c r="B95" s="155"/>
       <c r="C95" s="49" t="s">
         <v>16</v>
       </c>
@@ -8624,12 +8667,12 @@
       <c r="E95" s="104" t="s">
         <v>191</v>
       </c>
-      <c r="F95" s="240"/>
-      <c r="G95" s="240"/>
+      <c r="F95" s="199"/>
+      <c r="G95" s="199"/>
       <c r="H95" s="112"/>
     </row>
     <row r="96" spans="1:8">
-      <c r="B96" s="157"/>
+      <c r="B96" s="155"/>
       <c r="C96" s="49" t="s">
         <v>115</v>
       </c>
@@ -8637,12 +8680,12 @@
       <c r="E96" s="104" t="s">
         <v>191</v>
       </c>
-      <c r="F96" s="240"/>
-      <c r="G96" s="240"/>
+      <c r="F96" s="199"/>
+      <c r="G96" s="199"/>
       <c r="H96" s="112"/>
     </row>
     <row r="97" spans="1:8">
-      <c r="B97" s="157"/>
+      <c r="B97" s="155"/>
       <c r="C97" s="51" t="s">
         <v>261</v>
       </c>
@@ -8673,7 +8716,7 @@
     </row>
     <row r="102" spans="1:8" ht="18.75">
       <c r="A102" s="150" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -8692,10 +8735,10 @@
         <v>123</v>
       </c>
       <c r="C105" s="148" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="D105" s="148" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -8752,13 +8795,57 @@
     </row>
   </sheetData>
   <mergeCells count="74">
-    <mergeCell ref="B92:B93"/>
-    <mergeCell ref="F92:G96"/>
-    <mergeCell ref="B94:B97"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="G25:L25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="J36:L36"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="J34:L34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="J35:L35"/>
     <mergeCell ref="O25:T25"/>
     <mergeCell ref="A33:B33"/>
     <mergeCell ref="C33:D33"/>
@@ -8775,57 +8862,13 @@
     <mergeCell ref="G27:H27"/>
     <mergeCell ref="G28:H28"/>
     <mergeCell ref="G29:H29"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="J36:L36"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="J34:L34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="J35:L35"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="G25:L25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B92:B93"/>
+    <mergeCell ref="F92:G96"/>
+    <mergeCell ref="B94:B97"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="E40:F40"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8872,43 +8915,43 @@
       <c r="A5" s="45" t="s">
         <v>146</v>
       </c>
-      <c r="B5" s="162" t="s">
+      <c r="B5" s="168" t="s">
         <v>147</v>
       </c>
-      <c r="C5" s="160"/>
-      <c r="D5" s="161"/>
+      <c r="C5" s="153"/>
+      <c r="D5" s="154"/>
       <c r="E5" s="52" t="s">
         <v>242</v>
       </c>
       <c r="F5" s="45" t="s">
         <v>117</v>
       </c>
-      <c r="G5" s="183" t="s">
+      <c r="G5" s="171" t="s">
         <v>205</v>
       </c>
-      <c r="H5" s="235"/>
-      <c r="I5" s="181"/>
+      <c r="H5" s="203"/>
+      <c r="I5" s="172"/>
     </row>
     <row r="6" spans="1:16" ht="78.75" customHeight="1">
       <c r="A6" s="66">
         <v>43136.354166666664</v>
       </c>
-      <c r="B6" s="203" t="s">
+      <c r="B6" s="234" t="s">
         <v>235</v>
       </c>
-      <c r="C6" s="204"/>
-      <c r="D6" s="205"/>
+      <c r="C6" s="235"/>
+      <c r="D6" s="236"/>
       <c r="E6" s="45">
         <v>400</v>
       </c>
       <c r="F6" s="45">
         <v>200</v>
       </c>
-      <c r="G6" s="162">
+      <c r="G6" s="168">
         <v>200</v>
       </c>
-      <c r="H6" s="160"/>
-      <c r="I6" s="161"/>
+      <c r="H6" s="153"/>
+      <c r="I6" s="154"/>
     </row>
     <row r="8" spans="1:16" ht="30" customHeight="1"/>
     <row r="9" spans="1:16" ht="37.5" customHeight="1">
@@ -8920,30 +8963,30 @@
       <c r="A10" s="3"/>
     </row>
     <row r="11" spans="1:16" ht="27.75" customHeight="1">
-      <c r="A11" s="199" t="s">
+      <c r="A11" s="230" t="s">
         <v>159</v>
       </c>
-      <c r="B11" s="243" t="s">
+      <c r="B11" s="253" t="s">
         <v>125</v>
       </c>
-      <c r="C11" s="244"/>
-      <c r="D11" s="245"/>
-      <c r="E11" s="243" t="s">
+      <c r="C11" s="254"/>
+      <c r="D11" s="255"/>
+      <c r="E11" s="253" t="s">
         <v>220</v>
       </c>
-      <c r="F11" s="245"/>
-      <c r="G11" s="199" t="s">
+      <c r="F11" s="255"/>
+      <c r="G11" s="230" t="s">
         <v>242</v>
       </c>
-      <c r="H11" s="199" t="s">
+      <c r="H11" s="230" t="s">
         <v>239</v>
       </c>
-      <c r="I11" s="201" t="s">
+      <c r="I11" s="232" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="27.75" customHeight="1">
-      <c r="A12" s="200"/>
+      <c r="A12" s="231"/>
       <c r="B12" s="79" t="s">
         <v>264</v>
       </c>
@@ -8959,9 +9002,9 @@
       <c r="F12" s="80" t="s">
         <v>236</v>
       </c>
-      <c r="G12" s="200"/>
-      <c r="H12" s="200"/>
-      <c r="I12" s="253"/>
+      <c r="G12" s="231"/>
+      <c r="H12" s="231"/>
+      <c r="I12" s="246"/>
       <c r="J12" s="124" t="s">
         <v>286</v>
       </c>
@@ -9202,15 +9245,15 @@
       <c r="A20" s="78" t="s">
         <v>132</v>
       </c>
-      <c r="B20" s="246" t="s">
+      <c r="B20" s="250" t="s">
         <v>241</v>
       </c>
-      <c r="C20" s="247"/>
-      <c r="D20" s="248"/>
-      <c r="E20" s="246" t="s">
+      <c r="C20" s="251"/>
+      <c r="D20" s="252"/>
+      <c r="E20" s="250" t="s">
         <v>240</v>
       </c>
-      <c r="F20" s="248"/>
+      <c r="F20" s="252"/>
       <c r="G20" s="86">
         <v>2888</v>
       </c>
@@ -9222,10 +9265,10 @@
       </c>
     </row>
     <row r="21" spans="1:20" ht="23.25" customHeight="1">
-      <c r="E21" s="250" t="s">
+      <c r="E21" s="247" t="s">
         <v>273</v>
       </c>
-      <c r="F21" s="250"/>
+      <c r="F21" s="247"/>
     </row>
     <row r="22" spans="1:20" ht="30" customHeight="1"/>
     <row r="23" spans="1:20" ht="44.25" customHeight="1">
@@ -9234,56 +9277,56 @@
       </c>
     </row>
     <row r="24" spans="1:20" ht="25.5" customHeight="1">
-      <c r="A24" s="174" t="s">
+      <c r="A24" s="195" t="s">
         <v>214</v>
       </c>
-      <c r="B24" s="175"/>
-      <c r="C24" s="175" t="s">
+      <c r="B24" s="191"/>
+      <c r="C24" s="191" t="s">
         <v>271</v>
       </c>
-      <c r="D24" s="175"/>
-      <c r="E24" s="175"/>
-      <c r="F24" s="175"/>
-      <c r="G24" s="175"/>
+      <c r="D24" s="191"/>
+      <c r="E24" s="191"/>
+      <c r="F24" s="191"/>
+      <c r="G24" s="191"/>
       <c r="H24" s="110"/>
-      <c r="I24" s="218" t="s">
+      <c r="I24" s="208" t="s">
         <v>267</v>
       </c>
-      <c r="J24" s="218"/>
-      <c r="K24" s="179" t="s">
+      <c r="J24" s="208"/>
+      <c r="K24" s="189" t="s">
         <v>244</v>
       </c>
-      <c r="L24" s="180"/>
+      <c r="L24" s="190"/>
     </row>
     <row r="25" spans="1:20" ht="29.25" customHeight="1">
-      <c r="A25" s="182" t="s">
+      <c r="A25" s="173" t="s">
         <v>268</v>
       </c>
-      <c r="B25" s="183"/>
-      <c r="C25" s="235" t="s">
+      <c r="B25" s="171"/>
+      <c r="C25" s="203" t="s">
         <v>270</v>
       </c>
-      <c r="D25" s="235"/>
-      <c r="E25" s="251" t="s">
+      <c r="D25" s="203"/>
+      <c r="E25" s="248" t="s">
         <v>269</v>
       </c>
-      <c r="F25" s="251"/>
-      <c r="G25" s="251"/>
+      <c r="F25" s="248"/>
+      <c r="G25" s="248"/>
       <c r="H25" s="114"/>
-      <c r="I25" s="235" t="s">
+      <c r="I25" s="203" t="s">
         <v>266</v>
       </c>
-      <c r="J25" s="235"/>
-      <c r="K25" s="235"/>
-      <c r="L25" s="181"/>
-      <c r="O25" s="234" t="s">
+      <c r="J25" s="203"/>
+      <c r="K25" s="203"/>
+      <c r="L25" s="172"/>
+      <c r="O25" s="202" t="s">
         <v>204</v>
       </c>
-      <c r="P25" s="234"/>
-      <c r="Q25" s="234"/>
-      <c r="R25" s="234"/>
-      <c r="S25" s="234"/>
-      <c r="T25" s="234"/>
+      <c r="P25" s="202"/>
+      <c r="Q25" s="202"/>
+      <c r="R25" s="202"/>
+      <c r="S25" s="202"/>
+      <c r="T25" s="202"/>
     </row>
     <row r="26" spans="1:20" ht="29.25" customHeight="1">
       <c r="A26" s="219" t="s">
@@ -9294,14 +9337,14 @@
         <v>226</v>
       </c>
       <c r="D26" s="249"/>
-      <c r="E26" s="252" t="s">
+      <c r="E26" s="245" t="s">
         <v>219</v>
       </c>
-      <c r="F26" s="252"/>
-      <c r="G26" s="252" t="s">
+      <c r="F26" s="245"/>
+      <c r="G26" s="245" t="s">
         <v>218</v>
       </c>
-      <c r="H26" s="252"/>
+      <c r="H26" s="245"/>
       <c r="I26" s="249" t="s">
         <v>220</v>
       </c>
@@ -9330,26 +9373,26 @@
       </c>
     </row>
     <row r="27" spans="1:20" ht="29.25" customHeight="1">
-      <c r="A27" s="183" t="s">
+      <c r="A27" s="171" t="s">
         <v>227</v>
       </c>
-      <c r="B27" s="161"/>
-      <c r="C27" s="183" t="s">
+      <c r="B27" s="154"/>
+      <c r="C27" s="171" t="s">
         <v>229</v>
       </c>
-      <c r="D27" s="160"/>
-      <c r="E27" s="227"/>
-      <c r="F27" s="227"/>
-      <c r="G27" s="227"/>
-      <c r="H27" s="227"/>
-      <c r="I27" s="223" t="s">
+      <c r="D27" s="153"/>
+      <c r="E27" s="207"/>
+      <c r="F27" s="207"/>
+      <c r="G27" s="207"/>
+      <c r="H27" s="207"/>
+      <c r="I27" s="215" t="s">
         <v>243</v>
       </c>
-      <c r="J27" s="224"/>
-      <c r="K27" s="183" t="s">
+      <c r="J27" s="216"/>
+      <c r="K27" s="171" t="s">
         <v>225</v>
       </c>
-      <c r="L27" s="161"/>
+      <c r="L27" s="154"/>
       <c r="O27" s="49"/>
       <c r="P27" s="49"/>
       <c r="Q27" s="49"/>
@@ -9360,26 +9403,26 @@
       <c r="T27" s="49"/>
     </row>
     <row r="28" spans="1:20" ht="29.25" customHeight="1">
-      <c r="A28" s="183" t="s">
+      <c r="A28" s="171" t="s">
         <v>227</v>
       </c>
-      <c r="B28" s="161"/>
-      <c r="C28" s="183" t="s">
+      <c r="B28" s="154"/>
+      <c r="C28" s="171" t="s">
         <v>230</v>
       </c>
-      <c r="D28" s="160"/>
-      <c r="E28" s="227"/>
-      <c r="F28" s="227"/>
-      <c r="G28" s="227"/>
-      <c r="H28" s="227"/>
-      <c r="I28" s="225" t="s">
+      <c r="D28" s="153"/>
+      <c r="E28" s="207"/>
+      <c r="F28" s="207"/>
+      <c r="G28" s="207"/>
+      <c r="H28" s="207"/>
+      <c r="I28" s="217" t="s">
         <v>273</v>
       </c>
-      <c r="J28" s="226"/>
-      <c r="K28" s="183" t="s">
+      <c r="J28" s="218"/>
+      <c r="K28" s="171" t="s">
         <v>225</v>
       </c>
-      <c r="L28" s="161"/>
+      <c r="L28" s="154"/>
       <c r="O28" s="49"/>
       <c r="P28" s="49"/>
       <c r="Q28" s="49"/>
@@ -9388,87 +9431,87 @@
       <c r="T28" s="49"/>
     </row>
     <row r="29" spans="1:20" ht="29.25" customHeight="1">
-      <c r="A29" s="183" t="s">
+      <c r="A29" s="171" t="s">
         <v>228</v>
       </c>
-      <c r="B29" s="161"/>
-      <c r="C29" s="183" t="s">
+      <c r="B29" s="154"/>
+      <c r="C29" s="171" t="s">
         <v>231</v>
       </c>
-      <c r="D29" s="160"/>
-      <c r="E29" s="227"/>
-      <c r="F29" s="227"/>
-      <c r="G29" s="227"/>
-      <c r="H29" s="227"/>
-      <c r="I29" s="160"/>
-      <c r="J29" s="161"/>
-      <c r="K29" s="183" t="s">
+      <c r="D29" s="153"/>
+      <c r="E29" s="207"/>
+      <c r="F29" s="207"/>
+      <c r="G29" s="207"/>
+      <c r="H29" s="207"/>
+      <c r="I29" s="153"/>
+      <c r="J29" s="154"/>
+      <c r="K29" s="171" t="s">
         <v>225</v>
       </c>
-      <c r="L29" s="161"/>
+      <c r="L29" s="154"/>
     </row>
     <row r="30" spans="1:20" ht="29.25" customHeight="1">
-      <c r="A30" s="183" t="s">
+      <c r="A30" s="171" t="s">
         <v>228</v>
       </c>
-      <c r="B30" s="161"/>
-      <c r="C30" s="183" t="s">
+      <c r="B30" s="154"/>
+      <c r="C30" s="171" t="s">
         <v>232</v>
       </c>
-      <c r="D30" s="160"/>
-      <c r="E30" s="227"/>
-      <c r="F30" s="227"/>
-      <c r="G30" s="227"/>
-      <c r="H30" s="227"/>
-      <c r="I30" s="160"/>
-      <c r="J30" s="161"/>
-      <c r="K30" s="183" t="s">
+      <c r="D30" s="153"/>
+      <c r="E30" s="207"/>
+      <c r="F30" s="207"/>
+      <c r="G30" s="207"/>
+      <c r="H30" s="207"/>
+      <c r="I30" s="153"/>
+      <c r="J30" s="154"/>
+      <c r="K30" s="171" t="s">
         <v>225</v>
       </c>
-      <c r="L30" s="161"/>
+      <c r="L30" s="154"/>
     </row>
     <row r="31" spans="1:20" ht="29.25" customHeight="1"/>
     <row r="32" spans="1:20" ht="29.25" customHeight="1">
-      <c r="A32" s="174" t="s">
+      <c r="A32" s="195" t="s">
         <v>214</v>
       </c>
-      <c r="B32" s="175"/>
-      <c r="C32" s="175" t="s">
+      <c r="B32" s="191"/>
+      <c r="C32" s="191" t="s">
         <v>271</v>
       </c>
-      <c r="D32" s="175"/>
-      <c r="E32" s="175"/>
-      <c r="F32" s="175"/>
-      <c r="G32" s="175"/>
+      <c r="D32" s="191"/>
+      <c r="E32" s="191"/>
+      <c r="F32" s="191"/>
+      <c r="G32" s="191"/>
       <c r="H32" s="110"/>
-      <c r="I32" s="179" t="s">
+      <c r="I32" s="189" t="s">
         <v>267</v>
       </c>
-      <c r="J32" s="179"/>
-      <c r="K32" s="218" t="s">
+      <c r="J32" s="189"/>
+      <c r="K32" s="208" t="s">
         <v>244</v>
       </c>
-      <c r="L32" s="218"/>
+      <c r="L32" s="208"/>
     </row>
     <row r="33" spans="1:12" ht="29.25" customHeight="1">
-      <c r="A33" s="182" t="s">
+      <c r="A33" s="173" t="s">
         <v>246</v>
       </c>
-      <c r="B33" s="183"/>
-      <c r="C33" s="235"/>
-      <c r="D33" s="235"/>
-      <c r="E33" s="235" t="s">
+      <c r="B33" s="171"/>
+      <c r="C33" s="203"/>
+      <c r="D33" s="203"/>
+      <c r="E33" s="203" t="s">
         <v>270</v>
       </c>
-      <c r="F33" s="235"/>
-      <c r="G33" s="235"/>
+      <c r="F33" s="203"/>
+      <c r="G33" s="203"/>
       <c r="H33" s="67"/>
-      <c r="I33" s="235" t="s">
+      <c r="I33" s="203" t="s">
         <v>266</v>
       </c>
-      <c r="J33" s="235"/>
-      <c r="K33" s="235"/>
-      <c r="L33" s="181"/>
+      <c r="J33" s="203"/>
+      <c r="K33" s="203"/>
+      <c r="L33" s="172"/>
     </row>
     <row r="34" spans="1:12" ht="29.25" customHeight="1">
       <c r="A34" s="87" t="s">
@@ -9477,52 +9520,52 @@
       <c r="B34" s="89" t="s">
         <v>248</v>
       </c>
-      <c r="C34" s="228" t="s">
+      <c r="C34" s="209" t="s">
         <v>249</v>
       </c>
-      <c r="D34" s="229"/>
-      <c r="E34" s="228" t="s">
+      <c r="D34" s="210"/>
+      <c r="E34" s="209" t="s">
         <v>250</v>
       </c>
-      <c r="F34" s="229"/>
-      <c r="G34" s="230" t="s">
+      <c r="F34" s="210"/>
+      <c r="G34" s="211" t="s">
         <v>236</v>
       </c>
-      <c r="H34" s="231"/>
-      <c r="I34" s="232"/>
-      <c r="J34" s="230" t="s">
+      <c r="H34" s="212"/>
+      <c r="I34" s="213"/>
+      <c r="J34" s="211" t="s">
         <v>224</v>
       </c>
-      <c r="K34" s="233"/>
-      <c r="L34" s="232"/>
+      <c r="K34" s="214"/>
+      <c r="L34" s="213"/>
     </row>
     <row r="35" spans="1:12" ht="29.25" customHeight="1">
       <c r="A35" s="49"/>
       <c r="B35" s="49"/>
-      <c r="C35" s="157"/>
-      <c r="D35" s="157"/>
-      <c r="E35" s="157"/>
-      <c r="F35" s="157"/>
-      <c r="G35" s="162"/>
-      <c r="H35" s="160"/>
-      <c r="I35" s="161"/>
-      <c r="J35" s="162"/>
-      <c r="K35" s="160"/>
-      <c r="L35" s="161"/>
+      <c r="C35" s="155"/>
+      <c r="D35" s="155"/>
+      <c r="E35" s="155"/>
+      <c r="F35" s="155"/>
+      <c r="G35" s="168"/>
+      <c r="H35" s="153"/>
+      <c r="I35" s="154"/>
+      <c r="J35" s="168"/>
+      <c r="K35" s="153"/>
+      <c r="L35" s="154"/>
     </row>
     <row r="36" spans="1:12" ht="29.25" customHeight="1">
       <c r="A36" s="49"/>
       <c r="B36" s="49"/>
-      <c r="C36" s="157"/>
-      <c r="D36" s="157"/>
-      <c r="E36" s="157"/>
-      <c r="F36" s="157"/>
-      <c r="G36" s="162"/>
-      <c r="H36" s="160"/>
-      <c r="I36" s="161"/>
-      <c r="J36" s="162"/>
-      <c r="K36" s="160"/>
-      <c r="L36" s="161"/>
+      <c r="C36" s="155"/>
+      <c r="D36" s="155"/>
+      <c r="E36" s="155"/>
+      <c r="F36" s="155"/>
+      <c r="G36" s="168"/>
+      <c r="H36" s="153"/>
+      <c r="I36" s="154"/>
+      <c r="J36" s="168"/>
+      <c r="K36" s="153"/>
+      <c r="L36" s="154"/>
     </row>
     <row r="38" spans="1:12" ht="28.5" customHeight="1"/>
     <row r="39" spans="1:12" ht="48" customHeight="1">
@@ -9543,16 +9586,16 @@
       <c r="D40" s="116" t="s">
         <v>282</v>
       </c>
-      <c r="E40" s="241" t="s">
+      <c r="E40" s="200" t="s">
         <v>283</v>
       </c>
-      <c r="F40" s="242"/>
+      <c r="F40" s="201"/>
     </row>
     <row r="41" spans="1:12" ht="45" customHeight="1">
-      <c r="A41" s="254" t="s">
+      <c r="A41" s="244" t="s">
         <v>277</v>
       </c>
-      <c r="B41" s="254"/>
+      <c r="B41" s="244"/>
       <c r="D41" s="50" t="s">
         <v>278</v>
       </c>
@@ -9798,7 +9841,7 @@
       </c>
     </row>
     <row r="90" spans="1:8">
-      <c r="B90" s="157" t="s">
+      <c r="B90" s="155" t="s">
         <v>190</v>
       </c>
       <c r="C90" s="49" t="s">
@@ -9808,14 +9851,14 @@
       <c r="E90" s="104" t="s">
         <v>191</v>
       </c>
-      <c r="F90" s="239" t="s">
+      <c r="F90" s="198" t="s">
         <v>260</v>
       </c>
-      <c r="G90" s="240"/>
+      <c r="G90" s="199"/>
       <c r="H90" s="112"/>
     </row>
     <row r="91" spans="1:8">
-      <c r="B91" s="157"/>
+      <c r="B91" s="155"/>
       <c r="C91" s="49" t="s">
         <v>127</v>
       </c>
@@ -9823,12 +9866,12 @@
       <c r="E91" s="104" t="s">
         <v>191</v>
       </c>
-      <c r="F91" s="240"/>
-      <c r="G91" s="240"/>
+      <c r="F91" s="199"/>
+      <c r="G91" s="199"/>
       <c r="H91" s="112"/>
     </row>
     <row r="92" spans="1:8">
-      <c r="B92" s="157" t="s">
+      <c r="B92" s="155" t="s">
         <v>192</v>
       </c>
       <c r="C92" s="49" t="s">
@@ -9838,12 +9881,12 @@
       <c r="E92" s="104" t="s">
         <v>191</v>
       </c>
-      <c r="F92" s="240"/>
-      <c r="G92" s="240"/>
+      <c r="F92" s="199"/>
+      <c r="G92" s="199"/>
       <c r="H92" s="112"/>
     </row>
     <row r="93" spans="1:8">
-      <c r="B93" s="157"/>
+      <c r="B93" s="155"/>
       <c r="C93" s="49" t="s">
         <v>16</v>
       </c>
@@ -9851,12 +9894,12 @@
       <c r="E93" s="104" t="s">
         <v>191</v>
       </c>
-      <c r="F93" s="240"/>
-      <c r="G93" s="240"/>
+      <c r="F93" s="199"/>
+      <c r="G93" s="199"/>
       <c r="H93" s="112"/>
     </row>
     <row r="94" spans="1:8">
-      <c r="B94" s="157"/>
+      <c r="B94" s="155"/>
       <c r="C94" s="49" t="s">
         <v>115</v>
       </c>
@@ -9864,12 +9907,12 @@
       <c r="E94" s="104" t="s">
         <v>191</v>
       </c>
-      <c r="F94" s="240"/>
-      <c r="G94" s="240"/>
+      <c r="F94" s="199"/>
+      <c r="G94" s="199"/>
       <c r="H94" s="112"/>
     </row>
     <row r="95" spans="1:8">
-      <c r="B95" s="157"/>
+      <c r="B95" s="155"/>
       <c r="C95" s="51" t="s">
         <v>261</v>
       </c>
@@ -9955,6 +9998,67 @@
     </row>
   </sheetData>
   <mergeCells count="77">
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="O25:T25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="J34:L34"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="I33:L33"/>
+    <mergeCell ref="B90:B91"/>
+    <mergeCell ref="F90:G94"/>
+    <mergeCell ref="B92:B95"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="I25:L25"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="J35:L35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="K29:L29"/>
     <mergeCell ref="E40:F40"/>
     <mergeCell ref="A41:B41"/>
     <mergeCell ref="E33:G33"/>
@@ -9971,67 +10075,6 @@
     <mergeCell ref="I32:J32"/>
     <mergeCell ref="K32:L32"/>
     <mergeCell ref="C34:D34"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="B90:B91"/>
-    <mergeCell ref="F90:G94"/>
-    <mergeCell ref="B92:B95"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="I25:L25"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="J35:L35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="J34:L34"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="I33:L33"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="O25:T25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:F11"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/alice/20180302后台财务更新.xlsx
+++ b/doc/alice/20180302后台财务更新.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28080" windowHeight="13200" firstSheet="5" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28080" windowHeight="13200" firstSheet="5" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet4" sheetId="4" state="hidden" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="348">
   <si>
     <t>收：</t>
   </si>
@@ -1343,10 +1343,6 @@
   </si>
   <si>
     <t>课程课时统计statisticsCamp/lessonSchedule</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>campOutput</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
@@ -1425,6 +1421,14 @@
   </si>
   <si>
     <t>收益统计admin/salaryin/coachincome</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>campOutput</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>底薪X+基数X*人数</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
@@ -2413,7 +2417,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="258">
+  <cellXfs count="259">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2873,14 +2877,8 @@
     <xf numFmtId="0" fontId="26" fillId="8" borderId="0" xfId="3">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2891,121 +2889,256 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="34" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="18" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="6" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="39" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="37" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="39" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="8" borderId="36" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="8" borderId="37" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="8" borderId="32" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="8" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="8" borderId="38" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="32" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="38" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3014,178 +3147,52 @@
     <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="48" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="6" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="8" borderId="32" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="8" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="8" borderId="38" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="7" borderId="32" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="7" borderId="38" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="34" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="18" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="6" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="7" borderId="39" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="7" borderId="37" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="7" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="7" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="39" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="8" borderId="36" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="8" borderId="37" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="48" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="6" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3230,7 +3237,7 @@
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3283,7 +3290,7 @@
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3336,7 +3343,7 @@
         <xdr:cNvPr id="5" name="图片 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3384,7 +3391,7 @@
         <xdr:cNvPr id="6" name="图片 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3774,41 +3781,41 @@
       </c>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="160" t="s">
+      <c r="A10" s="157" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="160" t="s">
+      <c r="B10" s="157" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="162" t="s">
+      <c r="C10" s="161" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="153"/>
-      <c r="E10" s="154"/>
-      <c r="F10" s="162" t="s">
+      <c r="D10" s="162"/>
+      <c r="E10" s="163"/>
+      <c r="F10" s="161" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="153"/>
-      <c r="H10" s="154"/>
-      <c r="I10" s="162" t="s">
+      <c r="G10" s="162"/>
+      <c r="H10" s="163"/>
+      <c r="I10" s="161" t="s">
         <v>12</v>
       </c>
-      <c r="J10" s="153"/>
-      <c r="K10" s="154"/>
-      <c r="L10" s="153" t="s">
+      <c r="J10" s="162"/>
+      <c r="K10" s="163"/>
+      <c r="L10" s="162" t="s">
         <v>13</v>
       </c>
-      <c r="M10" s="153"/>
-      <c r="N10" s="154"/>
-      <c r="O10" s="155" t="s">
+      <c r="M10" s="162"/>
+      <c r="N10" s="163"/>
+      <c r="O10" s="159" t="s">
         <v>14</v>
       </c>
-      <c r="P10" s="155"/>
-      <c r="Q10" s="155"/>
+      <c r="P10" s="159"/>
+      <c r="Q10" s="159"/>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="161"/>
-      <c r="B11" s="161"/>
+      <c r="A11" s="158"/>
+      <c r="B11" s="158"/>
       <c r="C11" s="5" t="s">
         <v>15</v>
       </c>
@@ -3856,7 +3863,7 @@
       </c>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="155" t="s">
+      <c r="A12" s="159" t="s">
         <v>18</v>
       </c>
       <c r="B12" s="5">
@@ -3906,7 +3913,7 @@
       </c>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="155"/>
+      <c r="A13" s="159"/>
       <c r="B13" s="5">
         <v>88</v>
       </c>
@@ -3954,7 +3961,7 @@
       </c>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="155"/>
+      <c r="A14" s="159"/>
       <c r="B14" s="5">
         <v>100</v>
       </c>
@@ -4002,7 +4009,7 @@
       </c>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="155"/>
+      <c r="A15" s="159"/>
       <c r="B15" s="5" t="s">
         <v>19</v>
       </c>
@@ -4059,7 +4066,7 @@
       </c>
     </row>
     <row r="16" spans="1:17" hidden="1">
-      <c r="A16" s="160" t="s">
+      <c r="A16" s="157" t="s">
         <v>20</v>
       </c>
       <c r="B16" s="5">
@@ -4106,7 +4113,7 @@
       <c r="Q16" s="40"/>
     </row>
     <row r="17" spans="1:17" hidden="1">
-      <c r="A17" s="161"/>
+      <c r="A17" s="158"/>
       <c r="B17" s="5" t="s">
         <v>19</v>
       </c>
@@ -4160,7 +4167,7 @@
       <c r="Q17" s="40"/>
     </row>
     <row r="18" spans="1:17">
-      <c r="A18" s="155" t="s">
+      <c r="A18" s="159" t="s">
         <v>21</v>
       </c>
       <c r="B18" s="5">
@@ -4213,7 +4220,7 @@
       </c>
     </row>
     <row r="19" spans="1:17">
-      <c r="A19" s="155"/>
+      <c r="A19" s="159"/>
       <c r="B19" s="5">
         <v>180</v>
       </c>
@@ -4264,7 +4271,7 @@
       </c>
     </row>
     <row r="20" spans="1:17">
-      <c r="A20" s="155"/>
+      <c r="A20" s="159"/>
       <c r="B20" s="5">
         <v>240</v>
       </c>
@@ -4315,7 +4322,7 @@
       </c>
     </row>
     <row r="21" spans="1:17">
-      <c r="A21" s="155"/>
+      <c r="A21" s="159"/>
       <c r="B21" s="5" t="s">
         <v>19</v>
       </c>
@@ -4464,16 +4471,16 @@
       <c r="C46" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D46" s="159" t="s">
+      <c r="D46" s="160" t="s">
         <v>37</v>
       </c>
-      <c r="E46" s="159"/>
-      <c r="F46" s="159"/>
-      <c r="G46" s="159"/>
-      <c r="H46" s="159"/>
-      <c r="I46" s="159"/>
-      <c r="J46" s="159"/>
-      <c r="K46" s="159"/>
+      <c r="E46" s="160"/>
+      <c r="F46" s="160"/>
+      <c r="G46" s="160"/>
+      <c r="H46" s="160"/>
+      <c r="I46" s="160"/>
+      <c r="J46" s="160"/>
+      <c r="K46" s="160"/>
       <c r="L46" t="s">
         <v>38</v>
       </c>
@@ -4489,16 +4496,16 @@
       <c r="C47" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D47" s="156" t="s">
+      <c r="D47" s="154" t="s">
         <v>41</v>
       </c>
-      <c r="E47" s="157"/>
-      <c r="F47" s="157"/>
-      <c r="G47" s="157"/>
-      <c r="H47" s="157"/>
-      <c r="I47" s="157"/>
-      <c r="J47" s="157"/>
-      <c r="K47" s="158"/>
+      <c r="E47" s="155"/>
+      <c r="F47" s="155"/>
+      <c r="G47" s="155"/>
+      <c r="H47" s="155"/>
+      <c r="I47" s="155"/>
+      <c r="J47" s="155"/>
+      <c r="K47" s="156"/>
       <c r="L47" t="s">
         <v>42</v>
       </c>
@@ -4514,16 +4521,16 @@
       <c r="C48" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D48" s="156" t="s">
+      <c r="D48" s="154" t="s">
         <v>44</v>
       </c>
-      <c r="E48" s="157"/>
-      <c r="F48" s="157"/>
-      <c r="G48" s="157"/>
-      <c r="H48" s="157"/>
-      <c r="I48" s="157"/>
-      <c r="J48" s="157"/>
-      <c r="K48" s="158"/>
+      <c r="E48" s="155"/>
+      <c r="F48" s="155"/>
+      <c r="G48" s="155"/>
+      <c r="H48" s="155"/>
+      <c r="I48" s="155"/>
+      <c r="J48" s="155"/>
+      <c r="K48" s="156"/>
       <c r="L48" t="s">
         <v>45</v>
       </c>
@@ -4559,16 +4566,16 @@
       <c r="C51" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D51" s="159" t="s">
+      <c r="D51" s="160" t="s">
         <v>49</v>
       </c>
-      <c r="E51" s="159"/>
-      <c r="F51" s="159"/>
-      <c r="G51" s="159"/>
-      <c r="H51" s="159"/>
-      <c r="I51" s="159"/>
-      <c r="J51" s="159"/>
-      <c r="K51" s="159"/>
+      <c r="E51" s="160"/>
+      <c r="F51" s="160"/>
+      <c r="G51" s="160"/>
+      <c r="H51" s="160"/>
+      <c r="I51" s="160"/>
+      <c r="J51" s="160"/>
+      <c r="K51" s="160"/>
       <c r="L51" t="s">
         <v>50</v>
       </c>
@@ -4583,16 +4590,16 @@
       <c r="C52" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D52" s="156" t="s">
+      <c r="D52" s="154" t="s">
         <v>51</v>
       </c>
-      <c r="E52" s="157"/>
-      <c r="F52" s="157"/>
-      <c r="G52" s="157"/>
-      <c r="H52" s="157"/>
-      <c r="I52" s="157"/>
-      <c r="J52" s="157"/>
-      <c r="K52" s="158"/>
+      <c r="E52" s="155"/>
+      <c r="F52" s="155"/>
+      <c r="G52" s="155"/>
+      <c r="H52" s="155"/>
+      <c r="I52" s="155"/>
+      <c r="J52" s="155"/>
+      <c r="K52" s="156"/>
       <c r="L52" t="s">
         <v>52</v>
       </c>
@@ -4607,16 +4614,16 @@
       <c r="C53" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D53" s="156" t="s">
+      <c r="D53" s="154" t="s">
         <v>53</v>
       </c>
-      <c r="E53" s="157"/>
-      <c r="F53" s="157"/>
-      <c r="G53" s="157"/>
-      <c r="H53" s="157"/>
-      <c r="I53" s="157"/>
-      <c r="J53" s="157"/>
-      <c r="K53" s="158"/>
+      <c r="E53" s="155"/>
+      <c r="F53" s="155"/>
+      <c r="G53" s="155"/>
+      <c r="H53" s="155"/>
+      <c r="I53" s="155"/>
+      <c r="J53" s="155"/>
+      <c r="K53" s="156"/>
       <c r="L53" t="s">
         <v>54</v>
       </c>
@@ -4661,16 +4668,16 @@
       <c r="C56" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D56" s="159" t="s">
+      <c r="D56" s="160" t="s">
         <v>57</v>
       </c>
-      <c r="E56" s="159"/>
-      <c r="F56" s="159"/>
-      <c r="G56" s="159"/>
-      <c r="H56" s="159"/>
-      <c r="I56" s="159"/>
-      <c r="J56" s="159"/>
-      <c r="K56" s="159"/>
+      <c r="E56" s="160"/>
+      <c r="F56" s="160"/>
+      <c r="G56" s="160"/>
+      <c r="H56" s="160"/>
+      <c r="I56" s="160"/>
+      <c r="J56" s="160"/>
+      <c r="K56" s="160"/>
       <c r="L56" t="s">
         <v>58</v>
       </c>
@@ -4685,16 +4692,16 @@
       <c r="C57" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D57" s="156" t="s">
+      <c r="D57" s="154" t="s">
         <v>51</v>
       </c>
-      <c r="E57" s="157"/>
-      <c r="F57" s="157"/>
-      <c r="G57" s="157"/>
-      <c r="H57" s="157"/>
-      <c r="I57" s="157"/>
-      <c r="J57" s="157"/>
-      <c r="K57" s="158"/>
+      <c r="E57" s="155"/>
+      <c r="F57" s="155"/>
+      <c r="G57" s="155"/>
+      <c r="H57" s="155"/>
+      <c r="I57" s="155"/>
+      <c r="J57" s="155"/>
+      <c r="K57" s="156"/>
       <c r="L57" t="s">
         <v>52</v>
       </c>
@@ -4709,16 +4716,16 @@
       <c r="C58" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D58" s="156" t="s">
+      <c r="D58" s="154" t="s">
         <v>53</v>
       </c>
-      <c r="E58" s="157"/>
-      <c r="F58" s="157"/>
-      <c r="G58" s="157"/>
-      <c r="H58" s="157"/>
-      <c r="I58" s="157"/>
-      <c r="J58" s="157"/>
-      <c r="K58" s="158"/>
+      <c r="E58" s="155"/>
+      <c r="F58" s="155"/>
+      <c r="G58" s="155"/>
+      <c r="H58" s="155"/>
+      <c r="I58" s="155"/>
+      <c r="J58" s="155"/>
+      <c r="K58" s="156"/>
       <c r="L58" t="s">
         <v>54</v>
       </c>
@@ -4745,6 +4752,11 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="L10:N10"/>
+    <mergeCell ref="O10:Q10"/>
+    <mergeCell ref="D53:K53"/>
+    <mergeCell ref="D56:K56"/>
+    <mergeCell ref="D57:K57"/>
     <mergeCell ref="D58:K58"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A12:A15"/>
@@ -4759,11 +4771,6 @@
     <mergeCell ref="C10:E10"/>
     <mergeCell ref="F10:H10"/>
     <mergeCell ref="I10:K10"/>
-    <mergeCell ref="L10:N10"/>
-    <mergeCell ref="O10:Q10"/>
-    <mergeCell ref="D53:K53"/>
-    <mergeCell ref="D56:K56"/>
-    <mergeCell ref="D57:K57"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
@@ -4848,16 +4855,16 @@
       <c r="C20" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D20" s="159" t="s">
+      <c r="D20" s="160" t="s">
         <v>37</v>
       </c>
-      <c r="E20" s="159"/>
-      <c r="F20" s="159"/>
-      <c r="G20" s="159"/>
-      <c r="H20" s="159"/>
-      <c r="I20" s="159"/>
-      <c r="J20" s="159"/>
-      <c r="K20" s="159"/>
+      <c r="E20" s="160"/>
+      <c r="F20" s="160"/>
+      <c r="G20" s="160"/>
+      <c r="H20" s="160"/>
+      <c r="I20" s="160"/>
+      <c r="J20" s="160"/>
+      <c r="K20" s="160"/>
       <c r="T20" s="13"/>
     </row>
     <row r="21" spans="1:20">
@@ -4870,16 +4877,16 @@
       <c r="C21" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D21" s="156" t="s">
+      <c r="D21" s="154" t="s">
         <v>41</v>
       </c>
-      <c r="E21" s="157"/>
-      <c r="F21" s="157"/>
-      <c r="G21" s="157"/>
-      <c r="H21" s="157"/>
-      <c r="I21" s="157"/>
-      <c r="J21" s="157"/>
-      <c r="K21" s="158"/>
+      <c r="E21" s="155"/>
+      <c r="F21" s="155"/>
+      <c r="G21" s="155"/>
+      <c r="H21" s="155"/>
+      <c r="I21" s="155"/>
+      <c r="J21" s="155"/>
+      <c r="K21" s="156"/>
       <c r="T21" s="13"/>
     </row>
     <row r="22" spans="1:20">
@@ -4892,16 +4899,16 @@
       <c r="C22" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D22" s="156" t="s">
+      <c r="D22" s="154" t="s">
         <v>44</v>
       </c>
-      <c r="E22" s="157"/>
-      <c r="F22" s="157"/>
-      <c r="G22" s="157"/>
-      <c r="H22" s="157"/>
-      <c r="I22" s="157"/>
-      <c r="J22" s="157"/>
-      <c r="K22" s="158"/>
+      <c r="E22" s="155"/>
+      <c r="F22" s="155"/>
+      <c r="G22" s="155"/>
+      <c r="H22" s="155"/>
+      <c r="I22" s="155"/>
+      <c r="J22" s="155"/>
+      <c r="K22" s="156"/>
       <c r="T22" s="13"/>
     </row>
     <row r="24" spans="1:20">
@@ -4934,16 +4941,16 @@
       <c r="C25" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D25" s="159" t="s">
+      <c r="D25" s="160" t="s">
         <v>49</v>
       </c>
-      <c r="E25" s="159"/>
-      <c r="F25" s="159"/>
-      <c r="G25" s="159"/>
-      <c r="H25" s="159"/>
-      <c r="I25" s="159"/>
-      <c r="J25" s="159"/>
-      <c r="K25" s="159"/>
+      <c r="E25" s="160"/>
+      <c r="F25" s="160"/>
+      <c r="G25" s="160"/>
+      <c r="H25" s="160"/>
+      <c r="I25" s="160"/>
+      <c r="J25" s="160"/>
+      <c r="K25" s="160"/>
     </row>
     <row r="26" spans="1:20">
       <c r="A26" s="4" t="s">
@@ -4955,16 +4962,16 @@
       <c r="C26" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D26" s="156" t="s">
+      <c r="D26" s="154" t="s">
         <v>51</v>
       </c>
-      <c r="E26" s="157"/>
-      <c r="F26" s="157"/>
-      <c r="G26" s="157"/>
-      <c r="H26" s="157"/>
-      <c r="I26" s="157"/>
-      <c r="J26" s="157"/>
-      <c r="K26" s="158"/>
+      <c r="E26" s="155"/>
+      <c r="F26" s="155"/>
+      <c r="G26" s="155"/>
+      <c r="H26" s="155"/>
+      <c r="I26" s="155"/>
+      <c r="J26" s="155"/>
+      <c r="K26" s="156"/>
     </row>
     <row r="27" spans="1:20">
       <c r="A27" s="4" t="s">
@@ -4976,16 +4983,16 @@
       <c r="C27" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D27" s="156" t="s">
+      <c r="D27" s="154" t="s">
         <v>53</v>
       </c>
-      <c r="E27" s="157"/>
-      <c r="F27" s="157"/>
-      <c r="G27" s="157"/>
-      <c r="H27" s="157"/>
-      <c r="I27" s="157"/>
-      <c r="J27" s="157"/>
-      <c r="K27" s="158"/>
+      <c r="E27" s="155"/>
+      <c r="F27" s="155"/>
+      <c r="G27" s="155"/>
+      <c r="H27" s="155"/>
+      <c r="I27" s="155"/>
+      <c r="J27" s="155"/>
+      <c r="K27" s="156"/>
     </row>
     <row r="28" spans="1:20">
       <c r="C28" s="9"/>
@@ -5027,16 +5034,16 @@
       <c r="C30" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D30" s="159" t="s">
+      <c r="D30" s="160" t="s">
         <v>57</v>
       </c>
-      <c r="E30" s="159"/>
-      <c r="F30" s="159"/>
-      <c r="G30" s="159"/>
-      <c r="H30" s="159"/>
-      <c r="I30" s="159"/>
-      <c r="J30" s="159"/>
-      <c r="K30" s="159"/>
+      <c r="E30" s="160"/>
+      <c r="F30" s="160"/>
+      <c r="G30" s="160"/>
+      <c r="H30" s="160"/>
+      <c r="I30" s="160"/>
+      <c r="J30" s="160"/>
+      <c r="K30" s="160"/>
     </row>
     <row r="31" spans="1:20">
       <c r="A31" s="4" t="s">
@@ -5048,16 +5055,16 @@
       <c r="C31" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D31" s="156" t="s">
+      <c r="D31" s="154" t="s">
         <v>51</v>
       </c>
-      <c r="E31" s="157"/>
-      <c r="F31" s="157"/>
-      <c r="G31" s="157"/>
-      <c r="H31" s="157"/>
-      <c r="I31" s="157"/>
-      <c r="J31" s="157"/>
-      <c r="K31" s="158"/>
+      <c r="E31" s="155"/>
+      <c r="F31" s="155"/>
+      <c r="G31" s="155"/>
+      <c r="H31" s="155"/>
+      <c r="I31" s="155"/>
+      <c r="J31" s="155"/>
+      <c r="K31" s="156"/>
     </row>
     <row r="32" spans="1:20">
       <c r="A32" s="4" t="s">
@@ -5069,16 +5076,16 @@
       <c r="C32" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D32" s="156" t="s">
+      <c r="D32" s="154" t="s">
         <v>53</v>
       </c>
-      <c r="E32" s="157"/>
-      <c r="F32" s="157"/>
-      <c r="G32" s="157"/>
-      <c r="H32" s="157"/>
-      <c r="I32" s="157"/>
-      <c r="J32" s="157"/>
-      <c r="K32" s="158"/>
+      <c r="E32" s="155"/>
+      <c r="F32" s="155"/>
+      <c r="G32" s="155"/>
+      <c r="H32" s="155"/>
+      <c r="I32" s="155"/>
+      <c r="J32" s="155"/>
+      <c r="K32" s="156"/>
     </row>
     <row r="33" spans="1:20">
       <c r="A33" t="s">
@@ -5188,30 +5195,30 @@
       <c r="C49" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="D49" s="159" t="s">
+      <c r="D49" s="160" t="s">
         <v>79</v>
       </c>
-      <c r="E49" s="159"/>
-      <c r="F49" s="159"/>
-      <c r="G49" s="159"/>
-      <c r="H49" s="159"/>
-      <c r="I49" s="159"/>
-      <c r="J49" s="159"/>
-      <c r="K49" s="163"/>
+      <c r="E49" s="160"/>
+      <c r="F49" s="160"/>
+      <c r="G49" s="160"/>
+      <c r="H49" s="160"/>
+      <c r="I49" s="160"/>
+      <c r="J49" s="160"/>
+      <c r="K49" s="170"/>
       <c r="T49" s="13"/>
     </row>
     <row r="50" spans="1:20">
       <c r="A50" s="26"/>
       <c r="B50" s="4"/>
       <c r="C50" s="5"/>
-      <c r="D50" s="156"/>
-      <c r="E50" s="157"/>
-      <c r="F50" s="157"/>
-      <c r="G50" s="157"/>
-      <c r="H50" s="157"/>
-      <c r="I50" s="157"/>
-      <c r="J50" s="157"/>
-      <c r="K50" s="164"/>
+      <c r="D50" s="154"/>
+      <c r="E50" s="155"/>
+      <c r="F50" s="155"/>
+      <c r="G50" s="155"/>
+      <c r="H50" s="155"/>
+      <c r="I50" s="155"/>
+      <c r="J50" s="155"/>
+      <c r="K50" s="169"/>
       <c r="L50" t="s">
         <v>80</v>
       </c>
@@ -5221,14 +5228,14 @@
       <c r="A51" s="26"/>
       <c r="B51" s="4"/>
       <c r="C51" s="5"/>
-      <c r="D51" s="156"/>
-      <c r="E51" s="157"/>
-      <c r="F51" s="157"/>
-      <c r="G51" s="157"/>
-      <c r="H51" s="157"/>
-      <c r="I51" s="157"/>
-      <c r="J51" s="157"/>
-      <c r="K51" s="164"/>
+      <c r="D51" s="154"/>
+      <c r="E51" s="155"/>
+      <c r="F51" s="155"/>
+      <c r="G51" s="155"/>
+      <c r="H51" s="155"/>
+      <c r="I51" s="155"/>
+      <c r="J51" s="155"/>
+      <c r="K51" s="169"/>
       <c r="T51" s="13"/>
     </row>
     <row r="52" spans="1:20">
@@ -5273,31 +5280,31 @@
       <c r="B54" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C54" s="165" t="s">
+      <c r="C54" s="166" t="s">
         <v>82</v>
       </c>
-      <c r="D54" s="166"/>
-      <c r="E54" s="166"/>
-      <c r="F54" s="166"/>
-      <c r="G54" s="166"/>
-      <c r="H54" s="166"/>
-      <c r="I54" s="166"/>
-      <c r="J54" s="166"/>
-      <c r="K54" s="167"/>
+      <c r="D54" s="167"/>
+      <c r="E54" s="167"/>
+      <c r="F54" s="167"/>
+      <c r="G54" s="167"/>
+      <c r="H54" s="167"/>
+      <c r="I54" s="167"/>
+      <c r="J54" s="167"/>
+      <c r="K54" s="168"/>
       <c r="T54" s="37"/>
     </row>
     <row r="55" spans="1:20">
       <c r="A55" s="26"/>
       <c r="B55" s="4"/>
-      <c r="C55" s="165"/>
-      <c r="D55" s="166"/>
-      <c r="E55" s="166"/>
-      <c r="F55" s="166"/>
-      <c r="G55" s="166"/>
-      <c r="H55" s="166"/>
-      <c r="I55" s="166"/>
-      <c r="J55" s="166"/>
-      <c r="K55" s="167"/>
+      <c r="C55" s="166"/>
+      <c r="D55" s="167"/>
+      <c r="E55" s="167"/>
+      <c r="F55" s="167"/>
+      <c r="G55" s="167"/>
+      <c r="H55" s="167"/>
+      <c r="I55" s="167"/>
+      <c r="J55" s="167"/>
+      <c r="K55" s="168"/>
       <c r="L55" t="s">
         <v>83</v>
       </c>
@@ -5306,15 +5313,15 @@
     <row r="56" spans="1:20">
       <c r="A56" s="26"/>
       <c r="B56" s="4"/>
-      <c r="C56" s="165"/>
-      <c r="D56" s="166"/>
-      <c r="E56" s="166"/>
-      <c r="F56" s="166"/>
-      <c r="G56" s="166"/>
-      <c r="H56" s="166"/>
-      <c r="I56" s="166"/>
-      <c r="J56" s="166"/>
-      <c r="K56" s="167"/>
+      <c r="C56" s="166"/>
+      <c r="D56" s="167"/>
+      <c r="E56" s="167"/>
+      <c r="F56" s="167"/>
+      <c r="G56" s="167"/>
+      <c r="H56" s="167"/>
+      <c r="I56" s="167"/>
+      <c r="J56" s="167"/>
+      <c r="K56" s="168"/>
       <c r="T56" s="37"/>
     </row>
     <row r="57" spans="1:20">
@@ -5334,45 +5341,45 @@
       <c r="B59" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="C59" s="165" t="s">
+      <c r="C59" s="166" t="s">
         <v>82</v>
       </c>
-      <c r="D59" s="166"/>
-      <c r="E59" s="166"/>
-      <c r="F59" s="166"/>
-      <c r="G59" s="166"/>
-      <c r="H59" s="166"/>
-      <c r="I59" s="166"/>
-      <c r="J59" s="166"/>
-      <c r="K59" s="167"/>
+      <c r="D59" s="167"/>
+      <c r="E59" s="167"/>
+      <c r="F59" s="167"/>
+      <c r="G59" s="167"/>
+      <c r="H59" s="167"/>
+      <c r="I59" s="167"/>
+      <c r="J59" s="167"/>
+      <c r="K59" s="168"/>
       <c r="T59" s="13"/>
     </row>
     <row r="60" spans="1:20">
       <c r="A60" s="26"/>
       <c r="B60" s="4"/>
-      <c r="C60" s="165"/>
-      <c r="D60" s="166"/>
-      <c r="E60" s="166"/>
-      <c r="F60" s="166"/>
-      <c r="G60" s="166"/>
-      <c r="H60" s="166"/>
-      <c r="I60" s="166"/>
-      <c r="J60" s="166"/>
-      <c r="K60" s="167"/>
+      <c r="C60" s="166"/>
+      <c r="D60" s="167"/>
+      <c r="E60" s="167"/>
+      <c r="F60" s="167"/>
+      <c r="G60" s="167"/>
+      <c r="H60" s="167"/>
+      <c r="I60" s="167"/>
+      <c r="J60" s="167"/>
+      <c r="K60" s="168"/>
       <c r="T60" s="13"/>
     </row>
     <row r="61" spans="1:20">
       <c r="A61" s="26"/>
       <c r="B61" s="4"/>
-      <c r="C61" s="165"/>
-      <c r="D61" s="166"/>
-      <c r="E61" s="166"/>
-      <c r="F61" s="166"/>
-      <c r="G61" s="166"/>
-      <c r="H61" s="166"/>
-      <c r="I61" s="166"/>
-      <c r="J61" s="166"/>
-      <c r="K61" s="167"/>
+      <c r="C61" s="166"/>
+      <c r="D61" s="167"/>
+      <c r="E61" s="167"/>
+      <c r="F61" s="167"/>
+      <c r="G61" s="167"/>
+      <c r="H61" s="167"/>
+      <c r="I61" s="167"/>
+      <c r="J61" s="167"/>
+      <c r="K61" s="168"/>
       <c r="T61" s="13"/>
     </row>
     <row r="62" spans="1:20">
@@ -5392,49 +5399,49 @@
       <c r="B64" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C64" s="155" t="s">
+      <c r="C64" s="159" t="s">
         <v>90</v>
       </c>
-      <c r="D64" s="155"/>
-      <c r="E64" s="155" t="s">
+      <c r="D64" s="159"/>
+      <c r="E64" s="159" t="s">
         <v>91</v>
       </c>
-      <c r="F64" s="155"/>
-      <c r="G64" s="168" t="s">
+      <c r="F64" s="159"/>
+      <c r="G64" s="164" t="s">
         <v>92</v>
       </c>
-      <c r="H64" s="154"/>
-      <c r="I64" s="168" t="s">
+      <c r="H64" s="163"/>
+      <c r="I64" s="164" t="s">
         <v>93</v>
       </c>
-      <c r="J64" s="153"/>
-      <c r="K64" s="169"/>
+      <c r="J64" s="162"/>
+      <c r="K64" s="165"/>
     </row>
     <row r="65" spans="1:11">
       <c r="A65" s="26"/>
       <c r="B65" s="4"/>
-      <c r="C65" s="155"/>
-      <c r="D65" s="155"/>
-      <c r="E65" s="155"/>
-      <c r="F65" s="155"/>
-      <c r="G65" s="168"/>
-      <c r="H65" s="154"/>
-      <c r="I65" s="168"/>
-      <c r="J65" s="153"/>
-      <c r="K65" s="169"/>
+      <c r="C65" s="159"/>
+      <c r="D65" s="159"/>
+      <c r="E65" s="159"/>
+      <c r="F65" s="159"/>
+      <c r="G65" s="164"/>
+      <c r="H65" s="163"/>
+      <c r="I65" s="164"/>
+      <c r="J65" s="162"/>
+      <c r="K65" s="165"/>
     </row>
     <row r="66" spans="1:11">
       <c r="A66" s="26"/>
       <c r="B66" s="4"/>
-      <c r="C66" s="155"/>
-      <c r="D66" s="155"/>
-      <c r="E66" s="155"/>
-      <c r="F66" s="155"/>
-      <c r="G66" s="168"/>
-      <c r="H66" s="154"/>
-      <c r="I66" s="168"/>
-      <c r="J66" s="153"/>
-      <c r="K66" s="169"/>
+      <c r="C66" s="159"/>
+      <c r="D66" s="159"/>
+      <c r="E66" s="159"/>
+      <c r="F66" s="159"/>
+      <c r="G66" s="164"/>
+      <c r="H66" s="163"/>
+      <c r="I66" s="164"/>
+      <c r="J66" s="162"/>
+      <c r="K66" s="165"/>
     </row>
     <row r="67" spans="1:11">
       <c r="A67" s="22"/>
@@ -5455,6 +5462,28 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="D20:K20"/>
+    <mergeCell ref="D21:K21"/>
+    <mergeCell ref="D22:K22"/>
+    <mergeCell ref="D25:K25"/>
+    <mergeCell ref="D26:K26"/>
+    <mergeCell ref="D27:K27"/>
+    <mergeCell ref="D30:K30"/>
+    <mergeCell ref="D31:K31"/>
+    <mergeCell ref="D32:K32"/>
+    <mergeCell ref="D49:K49"/>
+    <mergeCell ref="D50:K50"/>
+    <mergeCell ref="D51:K51"/>
+    <mergeCell ref="C54:K54"/>
+    <mergeCell ref="C55:K55"/>
+    <mergeCell ref="C56:K56"/>
+    <mergeCell ref="C59:K59"/>
+    <mergeCell ref="C60:K60"/>
+    <mergeCell ref="C61:K61"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="G64:H64"/>
+    <mergeCell ref="I64:K64"/>
     <mergeCell ref="C65:D65"/>
     <mergeCell ref="E65:F65"/>
     <mergeCell ref="G65:H65"/>
@@ -5463,28 +5492,6 @@
     <mergeCell ref="E66:F66"/>
     <mergeCell ref="G66:H66"/>
     <mergeCell ref="I66:K66"/>
-    <mergeCell ref="C59:K59"/>
-    <mergeCell ref="C60:K60"/>
-    <mergeCell ref="C61:K61"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="E64:F64"/>
-    <mergeCell ref="G64:H64"/>
-    <mergeCell ref="I64:K64"/>
-    <mergeCell ref="D50:K50"/>
-    <mergeCell ref="D51:K51"/>
-    <mergeCell ref="C54:K54"/>
-    <mergeCell ref="C55:K55"/>
-    <mergeCell ref="C56:K56"/>
-    <mergeCell ref="D27:K27"/>
-    <mergeCell ref="D30:K30"/>
-    <mergeCell ref="D31:K31"/>
-    <mergeCell ref="D32:K32"/>
-    <mergeCell ref="D49:K49"/>
-    <mergeCell ref="D20:K20"/>
-    <mergeCell ref="D21:K21"/>
-    <mergeCell ref="D22:K22"/>
-    <mergeCell ref="D25:K25"/>
-    <mergeCell ref="D26:K26"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
@@ -5516,41 +5523,41 @@
       </c>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="160" t="s">
+      <c r="A3" s="157" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="160" t="s">
+      <c r="B3" s="157" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="162" t="s">
+      <c r="C3" s="161" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="153"/>
-      <c r="E3" s="154"/>
-      <c r="F3" s="162" t="s">
+      <c r="D3" s="162"/>
+      <c r="E3" s="163"/>
+      <c r="F3" s="161" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="153"/>
-      <c r="H3" s="154"/>
-      <c r="I3" s="162" t="s">
+      <c r="G3" s="162"/>
+      <c r="H3" s="163"/>
+      <c r="I3" s="161" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="153"/>
-      <c r="K3" s="154"/>
-      <c r="L3" s="153" t="s">
+      <c r="J3" s="162"/>
+      <c r="K3" s="163"/>
+      <c r="L3" s="162" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="153"/>
-      <c r="N3" s="154"/>
-      <c r="O3" s="155" t="s">
+      <c r="M3" s="162"/>
+      <c r="N3" s="163"/>
+      <c r="O3" s="159" t="s">
         <v>14</v>
       </c>
-      <c r="P3" s="155"/>
-      <c r="Q3" s="155"/>
+      <c r="P3" s="159"/>
+      <c r="Q3" s="159"/>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="161"/>
-      <c r="B4" s="161"/>
+      <c r="A4" s="158"/>
+      <c r="B4" s="158"/>
       <c r="C4" s="5" t="s">
         <v>15</v>
       </c>
@@ -5598,7 +5605,7 @@
       </c>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="155" t="s">
+      <c r="A5" s="159" t="s">
         <v>18</v>
       </c>
       <c r="B5" s="5">
@@ -5648,7 +5655,7 @@
       </c>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="155"/>
+      <c r="A6" s="159"/>
       <c r="B6" s="5">
         <v>88</v>
       </c>
@@ -5696,7 +5703,7 @@
       </c>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="155"/>
+      <c r="A7" s="159"/>
       <c r="B7" s="5">
         <v>100</v>
       </c>
@@ -5744,7 +5751,7 @@
       </c>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="155"/>
+      <c r="A8" s="159"/>
       <c r="B8" s="5" t="s">
         <v>19</v>
       </c>
@@ -5801,7 +5808,7 @@
       </c>
     </row>
     <row r="9" spans="1:17" hidden="1">
-      <c r="A9" s="160" t="s">
+      <c r="A9" s="157" t="s">
         <v>20</v>
       </c>
       <c r="B9" s="5">
@@ -5848,7 +5855,7 @@
       <c r="Q9" s="40"/>
     </row>
     <row r="10" spans="1:17" hidden="1">
-      <c r="A10" s="161"/>
+      <c r="A10" s="158"/>
       <c r="B10" s="5" t="s">
         <v>19</v>
       </c>
@@ -5902,7 +5909,7 @@
       <c r="Q10" s="40"/>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="155" t="s">
+      <c r="A11" s="159" t="s">
         <v>21</v>
       </c>
       <c r="B11" s="5">
@@ -5955,7 +5962,7 @@
       </c>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="155"/>
+      <c r="A12" s="159"/>
       <c r="B12" s="5">
         <v>180</v>
       </c>
@@ -6006,7 +6013,7 @@
       </c>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="155"/>
+      <c r="A13" s="159"/>
       <c r="B13" s="5">
         <v>240</v>
       </c>
@@ -6057,7 +6064,7 @@
       </c>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="155"/>
+      <c r="A14" s="159"/>
       <c r="B14" s="5" t="s">
         <v>19</v>
       </c>
@@ -6162,7 +6169,7 @@
       <c r="L20" s="39"/>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="155" t="s">
+      <c r="A21" s="159" t="s">
         <v>18</v>
       </c>
       <c r="B21" s="5">
@@ -6193,7 +6200,7 @@
       <c r="L21" s="34"/>
     </row>
     <row r="22" spans="1:12">
-      <c r="A22" s="155"/>
+      <c r="A22" s="159"/>
       <c r="B22" s="5">
         <v>88</v>
       </c>
@@ -6222,7 +6229,7 @@
       <c r="L22" s="34"/>
     </row>
     <row r="23" spans="1:12">
-      <c r="A23" s="155"/>
+      <c r="A23" s="159"/>
       <c r="B23" s="5">
         <v>100</v>
       </c>
@@ -6251,7 +6258,7 @@
       <c r="L23" s="34"/>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24" s="155"/>
+      <c r="A24" s="159"/>
       <c r="B24" s="5" t="s">
         <v>19</v>
       </c>
@@ -6473,29 +6480,29 @@
         <v>123</v>
       </c>
       <c r="O15" s="9"/>
-      <c r="P15" s="155" t="s">
+      <c r="P15" s="159" t="s">
         <v>107</v>
       </c>
-      <c r="Q15" s="155" t="s">
+      <c r="Q15" s="159" t="s">
         <v>109</v>
       </c>
-      <c r="R15" s="155" t="s">
+      <c r="R15" s="159" t="s">
         <v>124</v>
       </c>
-      <c r="S15" s="155"/>
-      <c r="T15" s="155" t="s">
+      <c r="S15" s="159"/>
+      <c r="T15" s="159" t="s">
         <v>125</v>
       </c>
-      <c r="U15" s="155"/>
-      <c r="V15" s="155"/>
+      <c r="U15" s="159"/>
+      <c r="V15" s="159"/>
     </row>
     <row r="16" spans="1:22">
       <c r="A16" t="s">
         <v>126</v>
       </c>
       <c r="O16" s="9"/>
-      <c r="P16" s="170"/>
-      <c r="Q16" s="170"/>
+      <c r="P16" s="171"/>
+      <c r="Q16" s="171"/>
       <c r="R16" s="5" t="s">
         <v>113</v>
       </c>
@@ -6606,17 +6613,17 @@
       <c r="Q21" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="R21" s="155">
+      <c r="R21" s="159">
         <f>SUM(R17:S18)</f>
         <v>1500</v>
       </c>
-      <c r="S21" s="155"/>
-      <c r="T21" s="168">
+      <c r="S21" s="159"/>
+      <c r="T21" s="164">
         <f>SUM(T17:V20)</f>
         <v>1500</v>
       </c>
-      <c r="U21" s="153"/>
-      <c r="V21" s="154"/>
+      <c r="U21" s="162"/>
+      <c r="V21" s="163"/>
     </row>
     <row r="22" spans="1:22">
       <c r="A22" t="s">
@@ -6885,8 +6892,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B3:I14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -6972,10 +6979,10 @@
         <v>297</v>
       </c>
       <c r="E7" s="124" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F7" s="124" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H7" s="127" t="s">
         <v>296</v>
@@ -6989,7 +6996,7 @@
         <v>309</v>
       </c>
       <c r="F8" s="127" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H8" s="127" t="s">
         <v>309</v>
@@ -7031,7 +7038,7 @@
         <v>315</v>
       </c>
       <c r="F11" s="127" t="s">
-        <v>335</v>
+        <v>346</v>
       </c>
       <c r="H11" s="127" t="s">
         <v>315</v>
@@ -7061,10 +7068,10 @@
     </row>
     <row r="14" spans="2:9">
       <c r="E14" s="152" t="s">
+        <v>340</v>
+      </c>
+      <c r="F14" s="152" t="s">
         <v>341</v>
-      </c>
-      <c r="F14" s="152" t="s">
-        <v>342</v>
       </c>
     </row>
   </sheetData>
@@ -7077,7 +7084,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A13" workbookViewId="0">
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
@@ -7100,30 +7107,30 @@
       <c r="A3" s="3"/>
     </row>
     <row r="4" spans="1:10" ht="18.75" customHeight="1">
-      <c r="A4" s="192" t="s">
+      <c r="A4" s="172" t="s">
         <v>159</v>
       </c>
-      <c r="B4" s="192" t="s">
+      <c r="B4" s="172" t="s">
         <v>125</v>
       </c>
-      <c r="C4" s="196" t="s">
+      <c r="C4" s="178" t="s">
         <v>124</v>
       </c>
-      <c r="D4" s="197"/>
-      <c r="E4" s="192" t="s">
+      <c r="D4" s="179"/>
+      <c r="E4" s="172" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A5" s="193"/>
-      <c r="B5" s="193"/>
+      <c r="A5" s="173"/>
+      <c r="B5" s="173"/>
       <c r="C5" s="100" t="s">
         <v>202</v>
       </c>
       <c r="D5" s="101" t="s">
         <v>203</v>
       </c>
-      <c r="E5" s="193"/>
+      <c r="E5" s="173"/>
       <c r="J5" s="50" t="s">
         <v>210</v>
       </c>
@@ -7270,86 +7277,86 @@
       <c r="B14" s="86">
         <v>50</v>
       </c>
-      <c r="C14" s="194" t="s">
+      <c r="C14" s="174" t="s">
         <v>208</v>
       </c>
-      <c r="D14" s="178"/>
+      <c r="D14" s="175"/>
       <c r="E14" s="82">
         <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="65.25" customHeight="1">
       <c r="A16" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="17" spans="1:19" ht="32.25" customHeight="1">
-      <c r="A17" s="195" t="s">
+      <c r="A17" s="176" t="s">
         <v>214</v>
       </c>
-      <c r="B17" s="191"/>
-      <c r="C17" s="191" t="s">
+      <c r="B17" s="177"/>
+      <c r="C17" s="177" t="s">
         <v>215</v>
       </c>
-      <c r="D17" s="191"/>
-      <c r="E17" s="191"/>
-      <c r="F17" s="191"/>
-      <c r="G17" s="191"/>
-      <c r="H17" s="186" t="s">
+      <c r="D17" s="177"/>
+      <c r="E17" s="177"/>
+      <c r="F17" s="177"/>
+      <c r="G17" s="177"/>
+      <c r="H17" s="180" t="s">
         <v>216</v>
       </c>
-      <c r="I17" s="186"/>
-      <c r="J17" s="189" t="s">
+      <c r="I17" s="180"/>
+      <c r="J17" s="181" t="s">
         <v>217</v>
       </c>
-      <c r="K17" s="190"/>
+      <c r="K17" s="182"/>
     </row>
     <row r="18" spans="1:19" ht="25.5" customHeight="1">
-      <c r="A18" s="173" t="s">
+      <c r="A18" s="184" t="s">
         <v>288</v>
       </c>
-      <c r="B18" s="171"/>
-      <c r="C18" s="172" t="s">
+      <c r="B18" s="185"/>
+      <c r="C18" s="183" t="s">
         <v>287</v>
       </c>
-      <c r="D18" s="173"/>
-      <c r="E18" s="173"/>
-      <c r="F18" s="171"/>
-      <c r="G18" s="172" t="s">
+      <c r="D18" s="184"/>
+      <c r="E18" s="184"/>
+      <c r="F18" s="185"/>
+      <c r="G18" s="183" t="s">
         <v>222</v>
       </c>
-      <c r="H18" s="173"/>
-      <c r="I18" s="173"/>
-      <c r="J18" s="173"/>
-      <c r="K18" s="173"/>
+      <c r="H18" s="184"/>
+      <c r="I18" s="184"/>
+      <c r="J18" s="184"/>
+      <c r="K18" s="184"/>
       <c r="N18" s="151" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="19" spans="1:19" ht="21" customHeight="1">
-      <c r="A19" s="168" t="s">
+      <c r="A19" s="164" t="s">
         <v>76</v>
       </c>
-      <c r="B19" s="154"/>
-      <c r="C19" s="171" t="s">
+      <c r="B19" s="163"/>
+      <c r="C19" s="185" t="s">
         <v>226</v>
       </c>
-      <c r="D19" s="172"/>
+      <c r="D19" s="183"/>
       <c r="E19" s="52" t="s">
         <v>219</v>
       </c>
-      <c r="F19" s="171" t="s">
+      <c r="F19" s="185" t="s">
         <v>218</v>
       </c>
-      <c r="G19" s="154"/>
-      <c r="H19" s="171" t="s">
+      <c r="G19" s="163"/>
+      <c r="H19" s="185" t="s">
         <v>220</v>
       </c>
-      <c r="I19" s="154"/>
-      <c r="J19" s="171" t="s">
+      <c r="I19" s="163"/>
+      <c r="J19" s="185" t="s">
         <v>224</v>
       </c>
-      <c r="K19" s="154"/>
+      <c r="K19" s="163"/>
       <c r="N19" s="49" t="s">
         <v>146</v>
       </c>
@@ -7370,23 +7377,23 @@
       </c>
     </row>
     <row r="20" spans="1:19" ht="21" customHeight="1">
-      <c r="A20" s="171" t="s">
+      <c r="A20" s="185" t="s">
         <v>227</v>
       </c>
-      <c r="B20" s="154"/>
-      <c r="C20" s="171" t="s">
+      <c r="B20" s="163"/>
+      <c r="C20" s="185" t="s">
         <v>229</v>
       </c>
-      <c r="D20" s="154"/>
+      <c r="D20" s="163"/>
       <c r="E20" s="45"/>
-      <c r="F20" s="168"/>
-      <c r="G20" s="154"/>
-      <c r="H20" s="168"/>
-      <c r="I20" s="154"/>
-      <c r="J20" s="171" t="s">
+      <c r="F20" s="164"/>
+      <c r="G20" s="163"/>
+      <c r="H20" s="164"/>
+      <c r="I20" s="163"/>
+      <c r="J20" s="185" t="s">
         <v>225</v>
       </c>
-      <c r="K20" s="154"/>
+      <c r="K20" s="163"/>
       <c r="N20" s="49"/>
       <c r="O20" s="49"/>
       <c r="P20" s="49"/>
@@ -7397,23 +7404,23 @@
       <c r="S20" s="49"/>
     </row>
     <row r="21" spans="1:19" ht="21" customHeight="1">
-      <c r="A21" s="171" t="s">
+      <c r="A21" s="185" t="s">
         <v>227</v>
       </c>
-      <c r="B21" s="154"/>
-      <c r="C21" s="171" t="s">
+      <c r="B21" s="163"/>
+      <c r="C21" s="185" t="s">
         <v>230</v>
       </c>
-      <c r="D21" s="154"/>
+      <c r="D21" s="163"/>
       <c r="E21" s="45"/>
-      <c r="F21" s="168"/>
-      <c r="G21" s="154"/>
-      <c r="H21" s="168"/>
-      <c r="I21" s="154"/>
-      <c r="J21" s="171" t="s">
+      <c r="F21" s="164"/>
+      <c r="G21" s="163"/>
+      <c r="H21" s="164"/>
+      <c r="I21" s="163"/>
+      <c r="J21" s="185" t="s">
         <v>225</v>
       </c>
-      <c r="K21" s="154"/>
+      <c r="K21" s="163"/>
       <c r="N21" s="49"/>
       <c r="O21" s="49"/>
       <c r="P21" s="49"/>
@@ -7422,69 +7429,69 @@
       <c r="S21" s="49"/>
     </row>
     <row r="22" spans="1:19" ht="21" customHeight="1">
-      <c r="A22" s="171" t="s">
+      <c r="A22" s="185" t="s">
         <v>228</v>
       </c>
-      <c r="B22" s="154"/>
-      <c r="C22" s="171" t="s">
+      <c r="B22" s="163"/>
+      <c r="C22" s="185" t="s">
         <v>231</v>
       </c>
-      <c r="D22" s="154"/>
+      <c r="D22" s="163"/>
       <c r="E22" s="49"/>
-      <c r="F22" s="168"/>
-      <c r="G22" s="154"/>
-      <c r="H22" s="168"/>
-      <c r="I22" s="154"/>
-      <c r="J22" s="171" t="s">
+      <c r="F22" s="164"/>
+      <c r="G22" s="163"/>
+      <c r="H22" s="164"/>
+      <c r="I22" s="163"/>
+      <c r="J22" s="185" t="s">
         <v>225</v>
       </c>
-      <c r="K22" s="154"/>
+      <c r="K22" s="163"/>
     </row>
     <row r="23" spans="1:19" ht="21" customHeight="1">
-      <c r="A23" s="171" t="s">
+      <c r="A23" s="185" t="s">
         <v>228</v>
       </c>
-      <c r="B23" s="154"/>
-      <c r="C23" s="171" t="s">
+      <c r="B23" s="163"/>
+      <c r="C23" s="185" t="s">
         <v>232</v>
       </c>
-      <c r="D23" s="154"/>
+      <c r="D23" s="163"/>
       <c r="E23" s="49"/>
-      <c r="F23" s="168"/>
-      <c r="G23" s="154"/>
-      <c r="H23" s="168"/>
-      <c r="I23" s="154"/>
-      <c r="J23" s="171" t="s">
+      <c r="F23" s="164"/>
+      <c r="G23" s="163"/>
+      <c r="H23" s="164"/>
+      <c r="I23" s="163"/>
+      <c r="J23" s="185" t="s">
         <v>225</v>
       </c>
-      <c r="K23" s="154"/>
+      <c r="K23" s="163"/>
     </row>
     <row r="26" spans="1:19" ht="32.25" customHeight="1" thickBot="1">
-      <c r="A26" s="183" t="s">
+      <c r="A26" s="190" t="s">
         <v>214</v>
       </c>
-      <c r="B26" s="184"/>
-      <c r="C26" s="184" t="s">
+      <c r="B26" s="191"/>
+      <c r="C26" s="191" t="s">
         <v>215</v>
       </c>
-      <c r="D26" s="184"/>
-      <c r="E26" s="184"/>
-      <c r="F26" s="184"/>
-      <c r="G26" s="184"/>
-      <c r="H26" s="185" t="s">
+      <c r="D26" s="191"/>
+      <c r="E26" s="191"/>
+      <c r="F26" s="191"/>
+      <c r="G26" s="191"/>
+      <c r="H26" s="192" t="s">
         <v>216</v>
       </c>
-      <c r="I26" s="185"/>
-      <c r="J26" s="186" t="s">
+      <c r="I26" s="192"/>
+      <c r="J26" s="180" t="s">
         <v>217</v>
       </c>
-      <c r="K26" s="186"/>
+      <c r="K26" s="180"/>
     </row>
     <row r="27" spans="1:19" ht="25.5" customHeight="1">
-      <c r="A27" s="187" t="s">
+      <c r="A27" s="193" t="s">
         <v>233</v>
       </c>
-      <c r="B27" s="188"/>
+      <c r="B27" s="194"/>
       <c r="C27" s="60"/>
       <c r="D27" s="61"/>
       <c r="E27" s="62"/>
@@ -7502,86 +7509,61 @@
       <c r="B28" s="59" t="s">
         <v>89</v>
       </c>
-      <c r="C28" s="161" t="s">
+      <c r="C28" s="158" t="s">
         <v>90</v>
       </c>
-      <c r="D28" s="161"/>
-      <c r="E28" s="161" t="s">
+      <c r="D28" s="158"/>
+      <c r="E28" s="158" t="s">
         <v>91</v>
       </c>
-      <c r="F28" s="161"/>
-      <c r="G28" s="179" t="s">
+      <c r="F28" s="158"/>
+      <c r="G28" s="186" t="s">
         <v>92</v>
       </c>
-      <c r="H28" s="180"/>
-      <c r="I28" s="179" t="s">
+      <c r="H28" s="187"/>
+      <c r="I28" s="186" t="s">
         <v>93</v>
       </c>
-      <c r="J28" s="181"/>
-      <c r="K28" s="182"/>
+      <c r="J28" s="188"/>
+      <c r="K28" s="189"/>
     </row>
     <row r="29" spans="1:19" ht="21.75" customHeight="1">
       <c r="A29" s="26"/>
       <c r="B29" s="49"/>
-      <c r="C29" s="155"/>
-      <c r="D29" s="155"/>
-      <c r="E29" s="155"/>
-      <c r="F29" s="155"/>
-      <c r="G29" s="168"/>
-      <c r="H29" s="154"/>
-      <c r="I29" s="168"/>
-      <c r="J29" s="153"/>
-      <c r="K29" s="169"/>
+      <c r="C29" s="159"/>
+      <c r="D29" s="159"/>
+      <c r="E29" s="159"/>
+      <c r="F29" s="159"/>
+      <c r="G29" s="164"/>
+      <c r="H29" s="163"/>
+      <c r="I29" s="164"/>
+      <c r="J29" s="162"/>
+      <c r="K29" s="165"/>
     </row>
     <row r="30" spans="1:19" ht="21.75" customHeight="1" thickBot="1">
       <c r="A30" s="58"/>
       <c r="B30" s="57"/>
-      <c r="C30" s="174"/>
-      <c r="D30" s="174"/>
-      <c r="E30" s="174"/>
-      <c r="F30" s="174"/>
-      <c r="G30" s="175"/>
-      <c r="H30" s="176"/>
-      <c r="I30" s="175"/>
-      <c r="J30" s="177"/>
-      <c r="K30" s="178"/>
+      <c r="C30" s="195"/>
+      <c r="D30" s="195"/>
+      <c r="E30" s="195"/>
+      <c r="F30" s="195"/>
+      <c r="G30" s="196"/>
+      <c r="H30" s="197"/>
+      <c r="I30" s="196"/>
+      <c r="J30" s="198"/>
+      <c r="K30" s="175"/>
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="G18:K18"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="I29:K29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="J19:K19"/>
     <mergeCell ref="J20:K20"/>
@@ -7593,15 +7575,40 @@
     <mergeCell ref="F20:G20"/>
     <mergeCell ref="F22:G22"/>
     <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="G18:K18"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B4:B5"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7612,8 +7619,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T111"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32:J32"/>
+    <sheetView showGridLines="0" topLeftCell="E62" workbookViewId="0">
+      <selection activeCell="S27" sqref="S27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7629,7 +7636,7 @@
     </row>
     <row r="3" spans="1:9" ht="29.25" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -7648,11 +7655,11 @@
       <c r="A5" s="45" t="s">
         <v>146</v>
       </c>
-      <c r="B5" s="168" t="s">
+      <c r="B5" s="164" t="s">
         <v>147</v>
       </c>
-      <c r="C5" s="153"/>
-      <c r="D5" s="154"/>
+      <c r="C5" s="162"/>
+      <c r="D5" s="163"/>
       <c r="E5" s="52" t="s">
         <v>242</v>
       </c>
@@ -7671,11 +7678,11 @@
       <c r="A6" s="66">
         <v>43136.354166666664</v>
       </c>
-      <c r="B6" s="234" t="s">
+      <c r="B6" s="205" t="s">
         <v>235</v>
       </c>
-      <c r="C6" s="235"/>
-      <c r="D6" s="236"/>
+      <c r="C6" s="206"/>
+      <c r="D6" s="207"/>
       <c r="E6" s="45">
         <v>400</v>
       </c>
@@ -7695,11 +7702,11 @@
       <c r="A7" s="66">
         <v>43137.354166608799</v>
       </c>
-      <c r="B7" s="234" t="s">
+      <c r="B7" s="205" t="s">
         <v>289</v>
       </c>
-      <c r="C7" s="235"/>
-      <c r="D7" s="236"/>
+      <c r="C7" s="206"/>
+      <c r="D7" s="207"/>
       <c r="E7" s="125">
         <v>400</v>
       </c>
@@ -7719,11 +7726,11 @@
       <c r="A8" s="66">
         <v>43138.354166608799</v>
       </c>
-      <c r="B8" s="234" t="s">
+      <c r="B8" s="205" t="s">
         <v>290</v>
       </c>
-      <c r="C8" s="235"/>
-      <c r="D8" s="236"/>
+      <c r="C8" s="206"/>
+      <c r="D8" s="207"/>
       <c r="E8" s="125">
         <v>400</v>
       </c>
@@ -7748,30 +7755,30 @@
       <c r="A10" s="3"/>
     </row>
     <row r="11" spans="1:9" ht="27.75" customHeight="1">
-      <c r="A11" s="230" t="s">
+      <c r="A11" s="201" t="s">
         <v>159</v>
       </c>
-      <c r="B11" s="241" t="s">
+      <c r="B11" s="212" t="s">
         <v>125</v>
       </c>
-      <c r="C11" s="242"/>
-      <c r="D11" s="243"/>
-      <c r="E11" s="237" t="s">
+      <c r="C11" s="213"/>
+      <c r="D11" s="214"/>
+      <c r="E11" s="208" t="s">
         <v>220</v>
       </c>
-      <c r="F11" s="238"/>
-      <c r="G11" s="239" t="s">
+      <c r="F11" s="209"/>
+      <c r="G11" s="210" t="s">
         <v>242</v>
       </c>
-      <c r="H11" s="228" t="s">
+      <c r="H11" s="199" t="s">
         <v>239</v>
       </c>
-      <c r="I11" s="232" t="s">
+      <c r="I11" s="203" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="27.75" customHeight="1">
-      <c r="A12" s="231"/>
+      <c r="A12" s="202"/>
       <c r="B12" s="133" t="s">
         <v>325</v>
       </c>
@@ -7787,9 +7794,9 @@
       <c r="F12" s="145" t="s">
         <v>236</v>
       </c>
-      <c r="G12" s="240"/>
-      <c r="H12" s="229"/>
-      <c r="I12" s="233"/>
+      <c r="G12" s="211"/>
+      <c r="H12" s="200"/>
+      <c r="I12" s="204"/>
     </row>
     <row r="13" spans="1:9" ht="27.75" customHeight="1">
       <c r="A13" s="75">
@@ -7998,15 +8005,15 @@
       <c r="A20" s="78" t="s">
         <v>132</v>
       </c>
-      <c r="B20" s="223" t="s">
+      <c r="B20" s="215" t="s">
         <v>324</v>
       </c>
-      <c r="C20" s="224"/>
-      <c r="D20" s="225"/>
-      <c r="E20" s="226" t="s">
+      <c r="C20" s="216"/>
+      <c r="D20" s="217"/>
+      <c r="E20" s="218" t="s">
         <v>323</v>
       </c>
-      <c r="F20" s="227"/>
+      <c r="F20" s="219"/>
       <c r="G20" s="132">
         <v>2888</v>
       </c>
@@ -8024,83 +8031,83 @@
       </c>
     </row>
     <row r="24" spans="1:20" ht="25.5" customHeight="1">
-      <c r="A24" s="195" t="s">
+      <c r="A24" s="176" t="s">
         <v>214</v>
       </c>
-      <c r="B24" s="191"/>
-      <c r="C24" s="191" t="s">
+      <c r="B24" s="177"/>
+      <c r="C24" s="177" t="s">
         <v>245</v>
       </c>
-      <c r="D24" s="191"/>
-      <c r="E24" s="191"/>
-      <c r="F24" s="191"/>
-      <c r="G24" s="191"/>
+      <c r="D24" s="177"/>
+      <c r="E24" s="177"/>
+      <c r="F24" s="177"/>
+      <c r="G24" s="177"/>
       <c r="H24" s="110"/>
-      <c r="I24" s="208" t="s">
+      <c r="I24" s="220" t="s">
         <v>216</v>
       </c>
-      <c r="J24" s="208"/>
-      <c r="K24" s="189" t="s">
+      <c r="J24" s="220"/>
+      <c r="K24" s="181" t="s">
         <v>244</v>
       </c>
-      <c r="L24" s="190"/>
+      <c r="L24" s="182"/>
       <c r="O24" s="3" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="25" spans="1:20" ht="29.25" customHeight="1">
-      <c r="A25" s="173" t="s">
+      <c r="A25" s="184" t="s">
         <v>223</v>
       </c>
-      <c r="B25" s="171"/>
-      <c r="C25" s="172" t="s">
+      <c r="B25" s="185"/>
+      <c r="C25" s="183" t="s">
         <v>221</v>
       </c>
-      <c r="D25" s="173"/>
-      <c r="E25" s="173"/>
-      <c r="F25" s="171"/>
-      <c r="G25" s="172" t="s">
+      <c r="D25" s="184"/>
+      <c r="E25" s="184"/>
+      <c r="F25" s="185"/>
+      <c r="G25" s="183" t="s">
         <v>222</v>
       </c>
-      <c r="H25" s="172"/>
-      <c r="I25" s="173"/>
-      <c r="J25" s="173"/>
-      <c r="K25" s="173"/>
-      <c r="L25" s="173"/>
-      <c r="O25" s="202" t="s">
+      <c r="H25" s="183"/>
+      <c r="I25" s="184"/>
+      <c r="J25" s="184"/>
+      <c r="K25" s="184"/>
+      <c r="L25" s="184"/>
+      <c r="O25" s="236" t="s">
         <v>204</v>
       </c>
-      <c r="P25" s="202"/>
-      <c r="Q25" s="202"/>
-      <c r="R25" s="202"/>
-      <c r="S25" s="202"/>
-      <c r="T25" s="202"/>
+      <c r="P25" s="236"/>
+      <c r="Q25" s="236"/>
+      <c r="R25" s="236"/>
+      <c r="S25" s="236"/>
+      <c r="T25" s="236"/>
     </row>
     <row r="26" spans="1:20" ht="29.25" customHeight="1">
-      <c r="A26" s="219" t="s">
+      <c r="A26" s="221" t="s">
         <v>76</v>
       </c>
-      <c r="B26" s="220"/>
-      <c r="C26" s="221" t="s">
+      <c r="B26" s="222"/>
+      <c r="C26" s="223" t="s">
         <v>226</v>
       </c>
-      <c r="D26" s="222"/>
-      <c r="E26" s="206" t="s">
+      <c r="D26" s="224"/>
+      <c r="E26" s="240" t="s">
         <v>219</v>
       </c>
-      <c r="F26" s="204"/>
-      <c r="G26" s="204" t="s">
+      <c r="F26" s="238"/>
+      <c r="G26" s="238" t="s">
         <v>218</v>
       </c>
-      <c r="H26" s="205"/>
-      <c r="I26" s="221" t="s">
+      <c r="H26" s="239"/>
+      <c r="I26" s="223" t="s">
         <v>220</v>
       </c>
-      <c r="J26" s="220"/>
-      <c r="K26" s="221" t="s">
+      <c r="J26" s="222"/>
+      <c r="K26" s="223" t="s">
         <v>224</v>
       </c>
-      <c r="L26" s="220"/>
+      <c r="L26" s="222"/>
       <c r="O26" s="59" t="s">
         <v>146</v>
       </c>
@@ -8121,56 +8128,56 @@
       </c>
     </row>
     <row r="27" spans="1:20" ht="29.25" customHeight="1">
-      <c r="A27" s="171" t="s">
+      <c r="A27" s="185" t="s">
         <v>227</v>
       </c>
-      <c r="B27" s="154"/>
-      <c r="C27" s="171" t="s">
+      <c r="B27" s="163"/>
+      <c r="C27" s="185" t="s">
         <v>229</v>
       </c>
-      <c r="D27" s="153"/>
-      <c r="E27" s="207"/>
-      <c r="F27" s="207"/>
-      <c r="G27" s="207"/>
-      <c r="H27" s="207"/>
-      <c r="I27" s="215" t="s">
+      <c r="D27" s="162"/>
+      <c r="E27" s="229"/>
+      <c r="F27" s="229"/>
+      <c r="G27" s="229"/>
+      <c r="H27" s="229"/>
+      <c r="I27" s="225" t="s">
         <v>243</v>
       </c>
-      <c r="J27" s="216"/>
-      <c r="K27" s="171" t="s">
+      <c r="J27" s="226"/>
+      <c r="K27" s="185" t="s">
         <v>225</v>
       </c>
-      <c r="L27" s="154"/>
+      <c r="L27" s="163"/>
       <c r="O27" s="49"/>
       <c r="P27" s="49"/>
       <c r="Q27" s="49"/>
       <c r="R27" s="49"/>
-      <c r="S27" s="49" t="s">
-        <v>167</v>
+      <c r="S27" s="153" t="s">
+        <v>347</v>
       </c>
       <c r="T27" s="49"/>
     </row>
     <row r="28" spans="1:20" ht="29.25" customHeight="1">
-      <c r="A28" s="171" t="s">
+      <c r="A28" s="185" t="s">
         <v>227</v>
       </c>
-      <c r="B28" s="154"/>
-      <c r="C28" s="171" t="s">
+      <c r="B28" s="163"/>
+      <c r="C28" s="185" t="s">
         <v>230</v>
       </c>
-      <c r="D28" s="153"/>
-      <c r="E28" s="207"/>
-      <c r="F28" s="207"/>
-      <c r="G28" s="207"/>
-      <c r="H28" s="207"/>
-      <c r="I28" s="217" t="s">
+      <c r="D28" s="162"/>
+      <c r="E28" s="229"/>
+      <c r="F28" s="229"/>
+      <c r="G28" s="229"/>
+      <c r="H28" s="229"/>
+      <c r="I28" s="227" t="s">
         <v>272</v>
       </c>
-      <c r="J28" s="218"/>
-      <c r="K28" s="171" t="s">
+      <c r="J28" s="228"/>
+      <c r="K28" s="185" t="s">
         <v>225</v>
       </c>
-      <c r="L28" s="154"/>
+      <c r="L28" s="163"/>
       <c r="O28" s="49"/>
       <c r="P28" s="49"/>
       <c r="Q28" s="49"/>
@@ -8179,87 +8186,87 @@
       <c r="T28" s="49"/>
     </row>
     <row r="29" spans="1:20" ht="29.25" customHeight="1">
-      <c r="A29" s="171" t="s">
+      <c r="A29" s="185" t="s">
         <v>227</v>
       </c>
-      <c r="B29" s="154"/>
-      <c r="C29" s="171" t="s">
+      <c r="B29" s="163"/>
+      <c r="C29" s="185" t="s">
         <v>231</v>
       </c>
-      <c r="D29" s="153"/>
-      <c r="E29" s="207"/>
-      <c r="F29" s="207"/>
-      <c r="G29" s="207"/>
-      <c r="H29" s="207"/>
-      <c r="I29" s="153"/>
-      <c r="J29" s="154"/>
-      <c r="K29" s="171" t="s">
+      <c r="D29" s="162"/>
+      <c r="E29" s="229"/>
+      <c r="F29" s="229"/>
+      <c r="G29" s="229"/>
+      <c r="H29" s="229"/>
+      <c r="I29" s="162"/>
+      <c r="J29" s="163"/>
+      <c r="K29" s="185" t="s">
         <v>225</v>
       </c>
-      <c r="L29" s="154"/>
+      <c r="L29" s="163"/>
     </row>
     <row r="30" spans="1:20" ht="29.25" customHeight="1">
-      <c r="A30" s="171" t="s">
+      <c r="A30" s="185" t="s">
         <v>227</v>
       </c>
-      <c r="B30" s="154"/>
-      <c r="C30" s="171" t="s">
+      <c r="B30" s="163"/>
+      <c r="C30" s="185" t="s">
         <v>232</v>
       </c>
-      <c r="D30" s="153"/>
-      <c r="E30" s="207"/>
-      <c r="F30" s="207"/>
-      <c r="G30" s="207"/>
-      <c r="H30" s="207"/>
-      <c r="I30" s="153"/>
-      <c r="J30" s="154"/>
-      <c r="K30" s="171" t="s">
+      <c r="D30" s="162"/>
+      <c r="E30" s="229"/>
+      <c r="F30" s="229"/>
+      <c r="G30" s="229"/>
+      <c r="H30" s="229"/>
+      <c r="I30" s="162"/>
+      <c r="J30" s="163"/>
+      <c r="K30" s="185" t="s">
         <v>225</v>
       </c>
-      <c r="L30" s="154"/>
+      <c r="L30" s="163"/>
     </row>
     <row r="31" spans="1:20" ht="29.25" customHeight="1"/>
     <row r="32" spans="1:20" ht="29.25" customHeight="1">
-      <c r="A32" s="195" t="s">
+      <c r="A32" s="176" t="s">
         <v>214</v>
       </c>
-      <c r="B32" s="191"/>
-      <c r="C32" s="191" t="s">
+      <c r="B32" s="177"/>
+      <c r="C32" s="177" t="s">
         <v>245</v>
       </c>
-      <c r="D32" s="191"/>
-      <c r="E32" s="191"/>
-      <c r="F32" s="191"/>
-      <c r="G32" s="191"/>
+      <c r="D32" s="177"/>
+      <c r="E32" s="177"/>
+      <c r="F32" s="177"/>
+      <c r="G32" s="177"/>
       <c r="H32" s="110"/>
-      <c r="I32" s="189" t="s">
+      <c r="I32" s="181" t="s">
         <v>216</v>
       </c>
-      <c r="J32" s="189"/>
-      <c r="K32" s="208" t="s">
+      <c r="J32" s="181"/>
+      <c r="K32" s="220" t="s">
         <v>244</v>
       </c>
-      <c r="L32" s="208"/>
+      <c r="L32" s="220"/>
     </row>
     <row r="33" spans="1:12" ht="29.25" customHeight="1">
-      <c r="A33" s="173" t="s">
+      <c r="A33" s="184" t="s">
         <v>246</v>
       </c>
-      <c r="B33" s="171"/>
-      <c r="C33" s="203"/>
-      <c r="D33" s="203"/>
-      <c r="E33" s="203" t="s">
+      <c r="B33" s="185"/>
+      <c r="C33" s="237"/>
+      <c r="D33" s="237"/>
+      <c r="E33" s="237" t="s">
         <v>270</v>
       </c>
-      <c r="F33" s="203"/>
-      <c r="G33" s="203"/>
+      <c r="F33" s="237"/>
+      <c r="G33" s="237"/>
       <c r="H33" s="67"/>
-      <c r="I33" s="203" t="s">
+      <c r="I33" s="237" t="s">
         <v>266</v>
       </c>
-      <c r="J33" s="203"/>
-      <c r="K33" s="203"/>
-      <c r="L33" s="172"/>
+      <c r="J33" s="237"/>
+      <c r="K33" s="237"/>
+      <c r="L33" s="183"/>
     </row>
     <row r="34" spans="1:12" ht="29.25" customHeight="1">
       <c r="A34" s="87" t="s">
@@ -8268,57 +8275,57 @@
       <c r="B34" s="89" t="s">
         <v>248</v>
       </c>
-      <c r="C34" s="209" t="s">
+      <c r="C34" s="230" t="s">
         <v>249</v>
       </c>
-      <c r="D34" s="210"/>
-      <c r="E34" s="209" t="s">
+      <c r="D34" s="231"/>
+      <c r="E34" s="230" t="s">
         <v>250</v>
       </c>
-      <c r="F34" s="210"/>
-      <c r="G34" s="211" t="s">
+      <c r="F34" s="231"/>
+      <c r="G34" s="232" t="s">
         <v>236</v>
       </c>
-      <c r="H34" s="212"/>
-      <c r="I34" s="213"/>
-      <c r="J34" s="211" t="s">
+      <c r="H34" s="233"/>
+      <c r="I34" s="234"/>
+      <c r="J34" s="232" t="s">
         <v>224</v>
       </c>
-      <c r="K34" s="214"/>
-      <c r="L34" s="213"/>
+      <c r="K34" s="235"/>
+      <c r="L34" s="234"/>
     </row>
     <row r="35" spans="1:12" ht="29.25" customHeight="1">
       <c r="A35" s="49"/>
       <c r="B35" s="49"/>
-      <c r="C35" s="155"/>
-      <c r="D35" s="155"/>
-      <c r="E35" s="155"/>
-      <c r="F35" s="155"/>
-      <c r="G35" s="168"/>
-      <c r="H35" s="153"/>
-      <c r="I35" s="154"/>
-      <c r="J35" s="168"/>
-      <c r="K35" s="153"/>
-      <c r="L35" s="154"/>
+      <c r="C35" s="159"/>
+      <c r="D35" s="159"/>
+      <c r="E35" s="159"/>
+      <c r="F35" s="159"/>
+      <c r="G35" s="164"/>
+      <c r="H35" s="162"/>
+      <c r="I35" s="163"/>
+      <c r="J35" s="164"/>
+      <c r="K35" s="162"/>
+      <c r="L35" s="163"/>
     </row>
     <row r="36" spans="1:12" ht="29.25" customHeight="1">
       <c r="A36" s="49"/>
       <c r="B36" s="49"/>
-      <c r="C36" s="155"/>
-      <c r="D36" s="155"/>
-      <c r="E36" s="155"/>
-      <c r="F36" s="155"/>
-      <c r="G36" s="168"/>
-      <c r="H36" s="153"/>
-      <c r="I36" s="154"/>
-      <c r="J36" s="168"/>
-      <c r="K36" s="153"/>
-      <c r="L36" s="154"/>
+      <c r="C36" s="159"/>
+      <c r="D36" s="159"/>
+      <c r="E36" s="159"/>
+      <c r="F36" s="159"/>
+      <c r="G36" s="164"/>
+      <c r="H36" s="162"/>
+      <c r="I36" s="163"/>
+      <c r="J36" s="164"/>
+      <c r="K36" s="162"/>
+      <c r="L36" s="163"/>
     </row>
     <row r="38" spans="1:12" ht="47.25" customHeight="1"/>
     <row r="39" spans="1:12" ht="45" customHeight="1">
       <c r="A39" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="43.5" customHeight="1">
@@ -8334,10 +8341,10 @@
       <c r="D40" s="116" t="s">
         <v>282</v>
       </c>
-      <c r="E40" s="256" t="s">
-        <v>345</v>
-      </c>
-      <c r="F40" s="257"/>
+      <c r="E40" s="243" t="s">
+        <v>344</v>
+      </c>
+      <c r="F40" s="244"/>
       <c r="G40" s="34"/>
       <c r="H40" s="34"/>
       <c r="I40" s="11"/>
@@ -8581,7 +8588,7 @@
     </row>
     <row r="88" spans="1:8" ht="18.75">
       <c r="A88" s="150" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="89" spans="1:8" ht="26.25" customHeight="1">
@@ -8614,7 +8621,7 @@
       </c>
     </row>
     <row r="92" spans="1:8">
-      <c r="B92" s="155" t="s">
+      <c r="B92" s="159" t="s">
         <v>190</v>
       </c>
       <c r="C92" s="49" t="s">
@@ -8624,14 +8631,14 @@
       <c r="E92" s="104" t="s">
         <v>191</v>
       </c>
-      <c r="F92" s="198" t="s">
+      <c r="F92" s="241" t="s">
         <v>260</v>
       </c>
-      <c r="G92" s="199"/>
+      <c r="G92" s="242"/>
       <c r="H92" s="112"/>
     </row>
     <row r="93" spans="1:8">
-      <c r="B93" s="155"/>
+      <c r="B93" s="159"/>
       <c r="C93" s="49" t="s">
         <v>127</v>
       </c>
@@ -8639,12 +8646,12 @@
       <c r="E93" s="104" t="s">
         <v>191</v>
       </c>
-      <c r="F93" s="199"/>
-      <c r="G93" s="199"/>
+      <c r="F93" s="242"/>
+      <c r="G93" s="242"/>
       <c r="H93" s="112"/>
     </row>
     <row r="94" spans="1:8">
-      <c r="B94" s="155" t="s">
+      <c r="B94" s="159" t="s">
         <v>192</v>
       </c>
       <c r="C94" s="49" t="s">
@@ -8654,12 +8661,12 @@
       <c r="E94" s="104" t="s">
         <v>191</v>
       </c>
-      <c r="F94" s="199"/>
-      <c r="G94" s="199"/>
+      <c r="F94" s="242"/>
+      <c r="G94" s="242"/>
       <c r="H94" s="112"/>
     </row>
     <row r="95" spans="1:8">
-      <c r="B95" s="155"/>
+      <c r="B95" s="159"/>
       <c r="C95" s="49" t="s">
         <v>16</v>
       </c>
@@ -8667,12 +8674,12 @@
       <c r="E95" s="104" t="s">
         <v>191</v>
       </c>
-      <c r="F95" s="199"/>
-      <c r="G95" s="199"/>
+      <c r="F95" s="242"/>
+      <c r="G95" s="242"/>
       <c r="H95" s="112"/>
     </row>
     <row r="96" spans="1:8">
-      <c r="B96" s="155"/>
+      <c r="B96" s="159"/>
       <c r="C96" s="49" t="s">
         <v>115</v>
       </c>
@@ -8680,12 +8687,12 @@
       <c r="E96" s="104" t="s">
         <v>191</v>
       </c>
-      <c r="F96" s="199"/>
-      <c r="G96" s="199"/>
+      <c r="F96" s="242"/>
+      <c r="G96" s="242"/>
       <c r="H96" s="112"/>
     </row>
     <row r="97" spans="1:8">
-      <c r="B97" s="155"/>
+      <c r="B97" s="159"/>
       <c r="C97" s="51" t="s">
         <v>261</v>
       </c>
@@ -8735,10 +8742,10 @@
         <v>123</v>
       </c>
       <c r="C105" s="148" t="s">
+        <v>336</v>
+      </c>
+      <c r="D105" s="148" t="s">
         <v>337</v>
-      </c>
-      <c r="D105" s="148" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -8795,57 +8802,13 @@
     </row>
   </sheetData>
   <mergeCells count="74">
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="G25:L25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="J36:L36"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="J34:L34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="J35:L35"/>
+    <mergeCell ref="B92:B93"/>
+    <mergeCell ref="F92:G96"/>
+    <mergeCell ref="B94:B97"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="E40:F40"/>
     <mergeCell ref="O25:T25"/>
     <mergeCell ref="A33:B33"/>
     <mergeCell ref="C33:D33"/>
@@ -8862,13 +8825,57 @@
     <mergeCell ref="G27:H27"/>
     <mergeCell ref="G28:H28"/>
     <mergeCell ref="G29:H29"/>
-    <mergeCell ref="B92:B93"/>
-    <mergeCell ref="F92:G96"/>
-    <mergeCell ref="B94:B97"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="J36:L36"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="J34:L34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="J35:L35"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="G25:L25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8880,8 +8887,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T109"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView showGridLines="0" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="A87" sqref="A87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -8915,43 +8922,43 @@
       <c r="A5" s="45" t="s">
         <v>146</v>
       </c>
-      <c r="B5" s="168" t="s">
+      <c r="B5" s="164" t="s">
         <v>147</v>
       </c>
-      <c r="C5" s="153"/>
-      <c r="D5" s="154"/>
+      <c r="C5" s="162"/>
+      <c r="D5" s="163"/>
       <c r="E5" s="52" t="s">
         <v>242</v>
       </c>
       <c r="F5" s="45" t="s">
         <v>117</v>
       </c>
-      <c r="G5" s="171" t="s">
+      <c r="G5" s="185" t="s">
         <v>205</v>
       </c>
-      <c r="H5" s="203"/>
-      <c r="I5" s="172"/>
+      <c r="H5" s="237"/>
+      <c r="I5" s="183"/>
     </row>
     <row r="6" spans="1:16" ht="78.75" customHeight="1">
       <c r="A6" s="66">
         <v>43136.354166666664</v>
       </c>
-      <c r="B6" s="234" t="s">
+      <c r="B6" s="205" t="s">
         <v>235</v>
       </c>
-      <c r="C6" s="235"/>
-      <c r="D6" s="236"/>
+      <c r="C6" s="206"/>
+      <c r="D6" s="207"/>
       <c r="E6" s="45">
         <v>400</v>
       </c>
       <c r="F6" s="45">
         <v>200</v>
       </c>
-      <c r="G6" s="168">
+      <c r="G6" s="164">
         <v>200</v>
       </c>
-      <c r="H6" s="153"/>
-      <c r="I6" s="154"/>
+      <c r="H6" s="162"/>
+      <c r="I6" s="163"/>
     </row>
     <row r="8" spans="1:16" ht="30" customHeight="1"/>
     <row r="9" spans="1:16" ht="37.5" customHeight="1">
@@ -8963,30 +8970,30 @@
       <c r="A10" s="3"/>
     </row>
     <row r="11" spans="1:16" ht="27.75" customHeight="1">
-      <c r="A11" s="230" t="s">
+      <c r="A11" s="201" t="s">
         <v>159</v>
       </c>
-      <c r="B11" s="253" t="s">
+      <c r="B11" s="245" t="s">
         <v>125</v>
       </c>
-      <c r="C11" s="254"/>
-      <c r="D11" s="255"/>
-      <c r="E11" s="253" t="s">
+      <c r="C11" s="246"/>
+      <c r="D11" s="247"/>
+      <c r="E11" s="245" t="s">
         <v>220</v>
       </c>
-      <c r="F11" s="255"/>
-      <c r="G11" s="230" t="s">
+      <c r="F11" s="247"/>
+      <c r="G11" s="201" t="s">
         <v>242</v>
       </c>
-      <c r="H11" s="230" t="s">
+      <c r="H11" s="201" t="s">
         <v>239</v>
       </c>
-      <c r="I11" s="232" t="s">
+      <c r="I11" s="203" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="27.75" customHeight="1">
-      <c r="A12" s="231"/>
+      <c r="A12" s="202"/>
       <c r="B12" s="79" t="s">
         <v>264</v>
       </c>
@@ -9002,9 +9009,9 @@
       <c r="F12" s="80" t="s">
         <v>236</v>
       </c>
-      <c r="G12" s="231"/>
-      <c r="H12" s="231"/>
-      <c r="I12" s="246"/>
+      <c r="G12" s="202"/>
+      <c r="H12" s="202"/>
+      <c r="I12" s="255"/>
       <c r="J12" s="124" t="s">
         <v>286</v>
       </c>
@@ -9245,15 +9252,15 @@
       <c r="A20" s="78" t="s">
         <v>132</v>
       </c>
-      <c r="B20" s="250" t="s">
+      <c r="B20" s="248" t="s">
         <v>241</v>
       </c>
-      <c r="C20" s="251"/>
-      <c r="D20" s="252"/>
-      <c r="E20" s="250" t="s">
+      <c r="C20" s="249"/>
+      <c r="D20" s="250"/>
+      <c r="E20" s="248" t="s">
         <v>240</v>
       </c>
-      <c r="F20" s="252"/>
+      <c r="F20" s="250"/>
       <c r="G20" s="86">
         <v>2888</v>
       </c>
@@ -9265,10 +9272,10 @@
       </c>
     </row>
     <row r="21" spans="1:20" ht="23.25" customHeight="1">
-      <c r="E21" s="247" t="s">
+      <c r="E21" s="252" t="s">
         <v>273</v>
       </c>
-      <c r="F21" s="247"/>
+      <c r="F21" s="252"/>
     </row>
     <row r="22" spans="1:20" ht="30" customHeight="1"/>
     <row r="23" spans="1:20" ht="44.25" customHeight="1">
@@ -9277,82 +9284,82 @@
       </c>
     </row>
     <row r="24" spans="1:20" ht="25.5" customHeight="1">
-      <c r="A24" s="195" t="s">
+      <c r="A24" s="176" t="s">
         <v>214</v>
       </c>
-      <c r="B24" s="191"/>
-      <c r="C24" s="191" t="s">
+      <c r="B24" s="177"/>
+      <c r="C24" s="177" t="s">
         <v>271</v>
       </c>
-      <c r="D24" s="191"/>
-      <c r="E24" s="191"/>
-      <c r="F24" s="191"/>
-      <c r="G24" s="191"/>
+      <c r="D24" s="177"/>
+      <c r="E24" s="177"/>
+      <c r="F24" s="177"/>
+      <c r="G24" s="177"/>
       <c r="H24" s="110"/>
-      <c r="I24" s="208" t="s">
+      <c r="I24" s="220" t="s">
         <v>267</v>
       </c>
-      <c r="J24" s="208"/>
-      <c r="K24" s="189" t="s">
+      <c r="J24" s="220"/>
+      <c r="K24" s="181" t="s">
         <v>244</v>
       </c>
-      <c r="L24" s="190"/>
+      <c r="L24" s="182"/>
     </row>
     <row r="25" spans="1:20" ht="29.25" customHeight="1">
-      <c r="A25" s="173" t="s">
+      <c r="A25" s="184" t="s">
         <v>268</v>
       </c>
-      <c r="B25" s="171"/>
-      <c r="C25" s="203" t="s">
+      <c r="B25" s="185"/>
+      <c r="C25" s="237" t="s">
         <v>270</v>
       </c>
-      <c r="D25" s="203"/>
-      <c r="E25" s="248" t="s">
+      <c r="D25" s="237"/>
+      <c r="E25" s="253" t="s">
         <v>269</v>
       </c>
-      <c r="F25" s="248"/>
-      <c r="G25" s="248"/>
+      <c r="F25" s="253"/>
+      <c r="G25" s="253"/>
       <c r="H25" s="114"/>
-      <c r="I25" s="203" t="s">
+      <c r="I25" s="237" t="s">
         <v>266</v>
       </c>
-      <c r="J25" s="203"/>
-      <c r="K25" s="203"/>
-      <c r="L25" s="172"/>
-      <c r="O25" s="202" t="s">
+      <c r="J25" s="237"/>
+      <c r="K25" s="237"/>
+      <c r="L25" s="183"/>
+      <c r="O25" s="236" t="s">
         <v>204</v>
       </c>
-      <c r="P25" s="202"/>
-      <c r="Q25" s="202"/>
-      <c r="R25" s="202"/>
-      <c r="S25" s="202"/>
-      <c r="T25" s="202"/>
+      <c r="P25" s="236"/>
+      <c r="Q25" s="236"/>
+      <c r="R25" s="236"/>
+      <c r="S25" s="236"/>
+      <c r="T25" s="236"/>
     </row>
     <row r="26" spans="1:20" ht="29.25" customHeight="1">
-      <c r="A26" s="219" t="s">
+      <c r="A26" s="221" t="s">
         <v>76</v>
       </c>
-      <c r="B26" s="220"/>
-      <c r="C26" s="221" t="s">
+      <c r="B26" s="222"/>
+      <c r="C26" s="223" t="s">
         <v>226</v>
       </c>
-      <c r="D26" s="249"/>
-      <c r="E26" s="245" t="s">
+      <c r="D26" s="251"/>
+      <c r="E26" s="254" t="s">
         <v>219</v>
       </c>
-      <c r="F26" s="245"/>
-      <c r="G26" s="245" t="s">
+      <c r="F26" s="254"/>
+      <c r="G26" s="254" t="s">
         <v>218</v>
       </c>
-      <c r="H26" s="245"/>
-      <c r="I26" s="249" t="s">
+      <c r="H26" s="254"/>
+      <c r="I26" s="251" t="s">
         <v>220</v>
       </c>
-      <c r="J26" s="220"/>
-      <c r="K26" s="221" t="s">
+      <c r="J26" s="222"/>
+      <c r="K26" s="223" t="s">
         <v>224</v>
       </c>
-      <c r="L26" s="220"/>
+      <c r="L26" s="222"/>
       <c r="O26" s="59" t="s">
         <v>146</v>
       </c>
@@ -9373,26 +9380,26 @@
       </c>
     </row>
     <row r="27" spans="1:20" ht="29.25" customHeight="1">
-      <c r="A27" s="171" t="s">
+      <c r="A27" s="185" t="s">
         <v>227</v>
       </c>
-      <c r="B27" s="154"/>
-      <c r="C27" s="171" t="s">
+      <c r="B27" s="163"/>
+      <c r="C27" s="185" t="s">
         <v>229</v>
       </c>
-      <c r="D27" s="153"/>
-      <c r="E27" s="207"/>
-      <c r="F27" s="207"/>
-      <c r="G27" s="207"/>
-      <c r="H27" s="207"/>
-      <c r="I27" s="215" t="s">
+      <c r="D27" s="162"/>
+      <c r="E27" s="229"/>
+      <c r="F27" s="229"/>
+      <c r="G27" s="229"/>
+      <c r="H27" s="229"/>
+      <c r="I27" s="225" t="s">
         <v>243</v>
       </c>
-      <c r="J27" s="216"/>
-      <c r="K27" s="171" t="s">
+      <c r="J27" s="226"/>
+      <c r="K27" s="185" t="s">
         <v>225</v>
       </c>
-      <c r="L27" s="154"/>
+      <c r="L27" s="163"/>
       <c r="O27" s="49"/>
       <c r="P27" s="49"/>
       <c r="Q27" s="49"/>
@@ -9403,26 +9410,26 @@
       <c r="T27" s="49"/>
     </row>
     <row r="28" spans="1:20" ht="29.25" customHeight="1">
-      <c r="A28" s="171" t="s">
+      <c r="A28" s="185" t="s">
         <v>227</v>
       </c>
-      <c r="B28" s="154"/>
-      <c r="C28" s="171" t="s">
+      <c r="B28" s="163"/>
+      <c r="C28" s="185" t="s">
         <v>230</v>
       </c>
-      <c r="D28" s="153"/>
-      <c r="E28" s="207"/>
-      <c r="F28" s="207"/>
-      <c r="G28" s="207"/>
-      <c r="H28" s="207"/>
-      <c r="I28" s="217" t="s">
+      <c r="D28" s="162"/>
+      <c r="E28" s="229"/>
+      <c r="F28" s="229"/>
+      <c r="G28" s="229"/>
+      <c r="H28" s="229"/>
+      <c r="I28" s="227" t="s">
         <v>273</v>
       </c>
-      <c r="J28" s="218"/>
-      <c r="K28" s="171" t="s">
+      <c r="J28" s="228"/>
+      <c r="K28" s="185" t="s">
         <v>225</v>
       </c>
-      <c r="L28" s="154"/>
+      <c r="L28" s="163"/>
       <c r="O28" s="49"/>
       <c r="P28" s="49"/>
       <c r="Q28" s="49"/>
@@ -9431,87 +9438,87 @@
       <c r="T28" s="49"/>
     </row>
     <row r="29" spans="1:20" ht="29.25" customHeight="1">
-      <c r="A29" s="171" t="s">
+      <c r="A29" s="185" t="s">
         <v>228</v>
       </c>
-      <c r="B29" s="154"/>
-      <c r="C29" s="171" t="s">
+      <c r="B29" s="163"/>
+      <c r="C29" s="185" t="s">
         <v>231</v>
       </c>
-      <c r="D29" s="153"/>
-      <c r="E29" s="207"/>
-      <c r="F29" s="207"/>
-      <c r="G29" s="207"/>
-      <c r="H29" s="207"/>
-      <c r="I29" s="153"/>
-      <c r="J29" s="154"/>
-      <c r="K29" s="171" t="s">
+      <c r="D29" s="162"/>
+      <c r="E29" s="229"/>
+      <c r="F29" s="229"/>
+      <c r="G29" s="229"/>
+      <c r="H29" s="229"/>
+      <c r="I29" s="162"/>
+      <c r="J29" s="163"/>
+      <c r="K29" s="185" t="s">
         <v>225</v>
       </c>
-      <c r="L29" s="154"/>
+      <c r="L29" s="163"/>
     </row>
     <row r="30" spans="1:20" ht="29.25" customHeight="1">
-      <c r="A30" s="171" t="s">
+      <c r="A30" s="185" t="s">
         <v>228</v>
       </c>
-      <c r="B30" s="154"/>
-      <c r="C30" s="171" t="s">
+      <c r="B30" s="163"/>
+      <c r="C30" s="185" t="s">
         <v>232</v>
       </c>
-      <c r="D30" s="153"/>
-      <c r="E30" s="207"/>
-      <c r="F30" s="207"/>
-      <c r="G30" s="207"/>
-      <c r="H30" s="207"/>
-      <c r="I30" s="153"/>
-      <c r="J30" s="154"/>
-      <c r="K30" s="171" t="s">
+      <c r="D30" s="162"/>
+      <c r="E30" s="229"/>
+      <c r="F30" s="229"/>
+      <c r="G30" s="229"/>
+      <c r="H30" s="229"/>
+      <c r="I30" s="162"/>
+      <c r="J30" s="163"/>
+      <c r="K30" s="185" t="s">
         <v>225</v>
       </c>
-      <c r="L30" s="154"/>
+      <c r="L30" s="163"/>
     </row>
     <row r="31" spans="1:20" ht="29.25" customHeight="1"/>
     <row r="32" spans="1:20" ht="29.25" customHeight="1">
-      <c r="A32" s="195" t="s">
+      <c r="A32" s="176" t="s">
         <v>214</v>
       </c>
-      <c r="B32" s="191"/>
-      <c r="C32" s="191" t="s">
+      <c r="B32" s="177"/>
+      <c r="C32" s="177" t="s">
         <v>271</v>
       </c>
-      <c r="D32" s="191"/>
-      <c r="E32" s="191"/>
-      <c r="F32" s="191"/>
-      <c r="G32" s="191"/>
+      <c r="D32" s="177"/>
+      <c r="E32" s="177"/>
+      <c r="F32" s="177"/>
+      <c r="G32" s="177"/>
       <c r="H32" s="110"/>
-      <c r="I32" s="189" t="s">
+      <c r="I32" s="181" t="s">
         <v>267</v>
       </c>
-      <c r="J32" s="189"/>
-      <c r="K32" s="208" t="s">
+      <c r="J32" s="181"/>
+      <c r="K32" s="220" t="s">
         <v>244</v>
       </c>
-      <c r="L32" s="208"/>
+      <c r="L32" s="220"/>
     </row>
     <row r="33" spans="1:12" ht="29.25" customHeight="1">
-      <c r="A33" s="173" t="s">
+      <c r="A33" s="184" t="s">
         <v>246</v>
       </c>
-      <c r="B33" s="171"/>
-      <c r="C33" s="203"/>
-      <c r="D33" s="203"/>
-      <c r="E33" s="203" t="s">
+      <c r="B33" s="185"/>
+      <c r="C33" s="237"/>
+      <c r="D33" s="237"/>
+      <c r="E33" s="237" t="s">
         <v>270</v>
       </c>
-      <c r="F33" s="203"/>
-      <c r="G33" s="203"/>
+      <c r="F33" s="237"/>
+      <c r="G33" s="237"/>
       <c r="H33" s="67"/>
-      <c r="I33" s="203" t="s">
+      <c r="I33" s="237" t="s">
         <v>266</v>
       </c>
-      <c r="J33" s="203"/>
-      <c r="K33" s="203"/>
-      <c r="L33" s="172"/>
+      <c r="J33" s="237"/>
+      <c r="K33" s="237"/>
+      <c r="L33" s="183"/>
     </row>
     <row r="34" spans="1:12" ht="29.25" customHeight="1">
       <c r="A34" s="87" t="s">
@@ -9520,52 +9527,52 @@
       <c r="B34" s="89" t="s">
         <v>248</v>
       </c>
-      <c r="C34" s="209" t="s">
+      <c r="C34" s="230" t="s">
         <v>249</v>
       </c>
-      <c r="D34" s="210"/>
-      <c r="E34" s="209" t="s">
+      <c r="D34" s="231"/>
+      <c r="E34" s="230" t="s">
         <v>250</v>
       </c>
-      <c r="F34" s="210"/>
-      <c r="G34" s="211" t="s">
+      <c r="F34" s="231"/>
+      <c r="G34" s="232" t="s">
         <v>236</v>
       </c>
-      <c r="H34" s="212"/>
-      <c r="I34" s="213"/>
-      <c r="J34" s="211" t="s">
+      <c r="H34" s="233"/>
+      <c r="I34" s="234"/>
+      <c r="J34" s="232" t="s">
         <v>224</v>
       </c>
-      <c r="K34" s="214"/>
-      <c r="L34" s="213"/>
+      <c r="K34" s="235"/>
+      <c r="L34" s="234"/>
     </row>
     <row r="35" spans="1:12" ht="29.25" customHeight="1">
       <c r="A35" s="49"/>
       <c r="B35" s="49"/>
-      <c r="C35" s="155"/>
-      <c r="D35" s="155"/>
-      <c r="E35" s="155"/>
-      <c r="F35" s="155"/>
-      <c r="G35" s="168"/>
-      <c r="H35" s="153"/>
-      <c r="I35" s="154"/>
-      <c r="J35" s="168"/>
-      <c r="K35" s="153"/>
-      <c r="L35" s="154"/>
+      <c r="C35" s="159"/>
+      <c r="D35" s="159"/>
+      <c r="E35" s="159"/>
+      <c r="F35" s="159"/>
+      <c r="G35" s="164"/>
+      <c r="H35" s="162"/>
+      <c r="I35" s="163"/>
+      <c r="J35" s="164"/>
+      <c r="K35" s="162"/>
+      <c r="L35" s="163"/>
     </row>
     <row r="36" spans="1:12" ht="29.25" customHeight="1">
       <c r="A36" s="49"/>
       <c r="B36" s="49"/>
-      <c r="C36" s="155"/>
-      <c r="D36" s="155"/>
-      <c r="E36" s="155"/>
-      <c r="F36" s="155"/>
-      <c r="G36" s="168"/>
-      <c r="H36" s="153"/>
-      <c r="I36" s="154"/>
-      <c r="J36" s="168"/>
-      <c r="K36" s="153"/>
-      <c r="L36" s="154"/>
+      <c r="C36" s="159"/>
+      <c r="D36" s="159"/>
+      <c r="E36" s="159"/>
+      <c r="F36" s="159"/>
+      <c r="G36" s="164"/>
+      <c r="H36" s="162"/>
+      <c r="I36" s="163"/>
+      <c r="J36" s="164"/>
+      <c r="K36" s="162"/>
+      <c r="L36" s="163"/>
     </row>
     <row r="38" spans="1:12" ht="28.5" customHeight="1"/>
     <row r="39" spans="1:12" ht="48" customHeight="1">
@@ -9586,16 +9593,16 @@
       <c r="D40" s="116" t="s">
         <v>282</v>
       </c>
-      <c r="E40" s="200" t="s">
+      <c r="E40" s="256" t="s">
         <v>283</v>
       </c>
-      <c r="F40" s="201"/>
+      <c r="F40" s="257"/>
     </row>
     <row r="41" spans="1:12" ht="45" customHeight="1">
-      <c r="A41" s="244" t="s">
+      <c r="A41" s="258" t="s">
         <v>277</v>
       </c>
-      <c r="B41" s="244"/>
+      <c r="B41" s="258"/>
       <c r="D41" s="50" t="s">
         <v>278</v>
       </c>
@@ -9841,7 +9848,7 @@
       </c>
     </row>
     <row r="90" spans="1:8">
-      <c r="B90" s="155" t="s">
+      <c r="B90" s="159" t="s">
         <v>190</v>
       </c>
       <c r="C90" s="49" t="s">
@@ -9851,14 +9858,14 @@
       <c r="E90" s="104" t="s">
         <v>191</v>
       </c>
-      <c r="F90" s="198" t="s">
+      <c r="F90" s="241" t="s">
         <v>260</v>
       </c>
-      <c r="G90" s="199"/>
+      <c r="G90" s="242"/>
       <c r="H90" s="112"/>
     </row>
     <row r="91" spans="1:8">
-      <c r="B91" s="155"/>
+      <c r="B91" s="159"/>
       <c r="C91" s="49" t="s">
         <v>127</v>
       </c>
@@ -9866,12 +9873,12 @@
       <c r="E91" s="104" t="s">
         <v>191</v>
       </c>
-      <c r="F91" s="199"/>
-      <c r="G91" s="199"/>
+      <c r="F91" s="242"/>
+      <c r="G91" s="242"/>
       <c r="H91" s="112"/>
     </row>
     <row r="92" spans="1:8">
-      <c r="B92" s="155" t="s">
+      <c r="B92" s="159" t="s">
         <v>192</v>
       </c>
       <c r="C92" s="49" t="s">
@@ -9881,12 +9888,12 @@
       <c r="E92" s="104" t="s">
         <v>191</v>
       </c>
-      <c r="F92" s="199"/>
-      <c r="G92" s="199"/>
+      <c r="F92" s="242"/>
+      <c r="G92" s="242"/>
       <c r="H92" s="112"/>
     </row>
     <row r="93" spans="1:8">
-      <c r="B93" s="155"/>
+      <c r="B93" s="159"/>
       <c r="C93" s="49" t="s">
         <v>16</v>
       </c>
@@ -9894,12 +9901,12 @@
       <c r="E93" s="104" t="s">
         <v>191</v>
       </c>
-      <c r="F93" s="199"/>
-      <c r="G93" s="199"/>
+      <c r="F93" s="242"/>
+      <c r="G93" s="242"/>
       <c r="H93" s="112"/>
     </row>
     <row r="94" spans="1:8">
-      <c r="B94" s="155"/>
+      <c r="B94" s="159"/>
       <c r="C94" s="49" t="s">
         <v>115</v>
       </c>
@@ -9907,12 +9914,12 @@
       <c r="E94" s="104" t="s">
         <v>191</v>
       </c>
-      <c r="F94" s="199"/>
-      <c r="G94" s="199"/>
+      <c r="F94" s="242"/>
+      <c r="G94" s="242"/>
       <c r="H94" s="112"/>
     </row>
     <row r="95" spans="1:8">
-      <c r="B95" s="155"/>
+      <c r="B95" s="159"/>
       <c r="C95" s="51" t="s">
         <v>261</v>
       </c>
@@ -9998,35 +10005,38 @@
     </row>
   </sheetData>
   <mergeCells count="77">
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="O25:T25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="J34:L34"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="I33:L33"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="J36:L36"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="K29:L29"/>
     <mergeCell ref="B90:B91"/>
     <mergeCell ref="F90:G94"/>
     <mergeCell ref="B92:B95"/>
@@ -10043,38 +10053,35 @@
     <mergeCell ref="J35:L35"/>
     <mergeCell ref="C36:D36"/>
     <mergeCell ref="E36:F36"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="J36:L36"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="J34:L34"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="I33:L33"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="O25:T25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:F11"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/alice/20180302后台财务更新.xlsx
+++ b/doc/alice/20180302后台财务更新.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28080" windowHeight="13200" firstSheet="5" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28080" windowHeight="13200" firstSheet="5" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet4" sheetId="4" state="hidden" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="354">
   <si>
     <t>收：</t>
   </si>
@@ -559,9 +559,6 @@
   </si>
   <si>
     <t>课时月份：2018年2月</t>
-  </si>
-  <si>
-    <t>课时统计</t>
   </si>
   <si>
     <t>课程</t>
@@ -1234,14 +1231,6 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>orgzIncome</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>orgzSchedule</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>营业额统计</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
@@ -1287,10 +1276,6 @@
   </si>
   <si>
     <t>orgzGift</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>orgzTurnover</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
@@ -1431,12 +1416,51 @@
     <t>底薪X+基数X*人数</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
+  <si>
+    <t>orgzIncome</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>orgzScheduleStatistics</t>
+  </si>
+  <si>
+    <t>campScheduleStatistics</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>orgzTurnover</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>orgSchedule</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单扣手续费的收入</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程课时统计</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程缴费</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动缴费</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>共用</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="34">
+  <fonts count="39">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1707,8 +1731,52 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="28"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="36"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="26"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1765,8 +1833,19 @@
         <fgColor theme="6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="51">
+  <borders count="53">
     <border>
       <left/>
       <right/>
@@ -2396,8 +2475,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2416,8 +2519,11 @@
     <xf numFmtId="0" fontId="27" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="34" fillId="11" borderId="51" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="259">
+  <cellXfs count="277">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2577,9 +2683,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -2631,16 +2734,7 @@
     <xf numFmtId="0" fontId="14" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1">
@@ -2670,12 +2764,6 @@
     <xf numFmtId="0" fontId="14" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2751,9 +2839,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2880,6 +2965,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2889,32 +2986,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2925,15 +3013,78 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2943,76 +3094,103 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="48" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="6" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="8" borderId="32" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="8" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="8" borderId="38" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="32" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="38" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="34" xfId="4" applyBorder="1" applyAlignment="1">
@@ -3063,129 +3241,6 @@
     <xf numFmtId="0" fontId="29" fillId="8" borderId="37" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="8" borderId="32" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="8" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="8" borderId="38" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="7" borderId="32" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="7" borderId="38" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="48" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="6" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3195,12 +3250,118 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="9" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="15" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="25" fillId="7" borderId="9" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="28" fillId="7" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="9" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="15" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="26" fillId="8" borderId="9" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="18" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="26" fillId="8" borderId="18" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="8" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="11" borderId="51" xfId="6" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="34" fillId="11" borderId="51" xfId="6" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="11" borderId="51" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="6" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="12" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="12" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="12" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="7">
     <cellStyle name="40% - 强调文字颜色 1" xfId="4" builtinId="31"/>
     <cellStyle name="差" xfId="1" builtinId="27"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="好" xfId="2" builtinId="26"/>
+    <cellStyle name="计算" xfId="6" builtinId="22"/>
     <cellStyle name="强调文字颜色 3" xfId="5" builtinId="37"/>
     <cellStyle name="适中" xfId="3" builtinId="28"/>
   </cellStyles>
@@ -3237,7 +3398,7 @@
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3290,7 +3451,7 @@
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3343,7 +3504,7 @@
         <xdr:cNvPr id="5" name="图片 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000005000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3391,7 +3552,7 @@
         <xdr:cNvPr id="6" name="图片 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000006000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3781,41 +3942,41 @@
       </c>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="157" t="s">
+      <c r="A10" s="155" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="157" t="s">
+      <c r="B10" s="155" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="161" t="s">
+      <c r="C10" s="157" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="162"/>
-      <c r="E10" s="163"/>
-      <c r="F10" s="161" t="s">
+      <c r="D10" s="148"/>
+      <c r="E10" s="149"/>
+      <c r="F10" s="157" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="162"/>
-      <c r="H10" s="163"/>
-      <c r="I10" s="161" t="s">
+      <c r="G10" s="148"/>
+      <c r="H10" s="149"/>
+      <c r="I10" s="157" t="s">
         <v>12</v>
       </c>
-      <c r="J10" s="162"/>
-      <c r="K10" s="163"/>
-      <c r="L10" s="162" t="s">
+      <c r="J10" s="148"/>
+      <c r="K10" s="149"/>
+      <c r="L10" s="148" t="s">
         <v>13</v>
       </c>
-      <c r="M10" s="162"/>
-      <c r="N10" s="163"/>
-      <c r="O10" s="159" t="s">
+      <c r="M10" s="148"/>
+      <c r="N10" s="149"/>
+      <c r="O10" s="150" t="s">
         <v>14</v>
       </c>
-      <c r="P10" s="159"/>
-      <c r="Q10" s="159"/>
+      <c r="P10" s="150"/>
+      <c r="Q10" s="150"/>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="158"/>
-      <c r="B11" s="158"/>
+      <c r="A11" s="156"/>
+      <c r="B11" s="156"/>
       <c r="C11" s="5" t="s">
         <v>15</v>
       </c>
@@ -3863,7 +4024,7 @@
       </c>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="159" t="s">
+      <c r="A12" s="150" t="s">
         <v>18</v>
       </c>
       <c r="B12" s="5">
@@ -3913,7 +4074,7 @@
       </c>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="159"/>
+      <c r="A13" s="150"/>
       <c r="B13" s="5">
         <v>88</v>
       </c>
@@ -3961,7 +4122,7 @@
       </c>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="159"/>
+      <c r="A14" s="150"/>
       <c r="B14" s="5">
         <v>100</v>
       </c>
@@ -4009,7 +4170,7 @@
       </c>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="159"/>
+      <c r="A15" s="150"/>
       <c r="B15" s="5" t="s">
         <v>19</v>
       </c>
@@ -4066,7 +4227,7 @@
       </c>
     </row>
     <row r="16" spans="1:17" hidden="1">
-      <c r="A16" s="157" t="s">
+      <c r="A16" s="155" t="s">
         <v>20</v>
       </c>
       <c r="B16" s="5">
@@ -4113,7 +4274,7 @@
       <c r="Q16" s="40"/>
     </row>
     <row r="17" spans="1:17" hidden="1">
-      <c r="A17" s="158"/>
+      <c r="A17" s="156"/>
       <c r="B17" s="5" t="s">
         <v>19</v>
       </c>
@@ -4167,7 +4328,7 @@
       <c r="Q17" s="40"/>
     </row>
     <row r="18" spans="1:17">
-      <c r="A18" s="159" t="s">
+      <c r="A18" s="150" t="s">
         <v>21</v>
       </c>
       <c r="B18" s="5">
@@ -4220,7 +4381,7 @@
       </c>
     </row>
     <row r="19" spans="1:17">
-      <c r="A19" s="159"/>
+      <c r="A19" s="150"/>
       <c r="B19" s="5">
         <v>180</v>
       </c>
@@ -4271,7 +4432,7 @@
       </c>
     </row>
     <row r="20" spans="1:17">
-      <c r="A20" s="159"/>
+      <c r="A20" s="150"/>
       <c r="B20" s="5">
         <v>240</v>
       </c>
@@ -4322,7 +4483,7 @@
       </c>
     </row>
     <row r="21" spans="1:17">
-      <c r="A21" s="159"/>
+      <c r="A21" s="150"/>
       <c r="B21" s="5" t="s">
         <v>19</v>
       </c>
@@ -4471,16 +4632,16 @@
       <c r="C46" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D46" s="160" t="s">
+      <c r="D46" s="154" t="s">
         <v>37</v>
       </c>
-      <c r="E46" s="160"/>
-      <c r="F46" s="160"/>
-      <c r="G46" s="160"/>
-      <c r="H46" s="160"/>
-      <c r="I46" s="160"/>
-      <c r="J46" s="160"/>
-      <c r="K46" s="160"/>
+      <c r="E46" s="154"/>
+      <c r="F46" s="154"/>
+      <c r="G46" s="154"/>
+      <c r="H46" s="154"/>
+      <c r="I46" s="154"/>
+      <c r="J46" s="154"/>
+      <c r="K46" s="154"/>
       <c r="L46" t="s">
         <v>38</v>
       </c>
@@ -4496,16 +4657,16 @@
       <c r="C47" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D47" s="154" t="s">
+      <c r="D47" s="151" t="s">
         <v>41</v>
       </c>
-      <c r="E47" s="155"/>
-      <c r="F47" s="155"/>
-      <c r="G47" s="155"/>
-      <c r="H47" s="155"/>
-      <c r="I47" s="155"/>
-      <c r="J47" s="155"/>
-      <c r="K47" s="156"/>
+      <c r="E47" s="152"/>
+      <c r="F47" s="152"/>
+      <c r="G47" s="152"/>
+      <c r="H47" s="152"/>
+      <c r="I47" s="152"/>
+      <c r="J47" s="152"/>
+      <c r="K47" s="153"/>
       <c r="L47" t="s">
         <v>42</v>
       </c>
@@ -4521,16 +4682,16 @@
       <c r="C48" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D48" s="154" t="s">
+      <c r="D48" s="151" t="s">
         <v>44</v>
       </c>
-      <c r="E48" s="155"/>
-      <c r="F48" s="155"/>
-      <c r="G48" s="155"/>
-      <c r="H48" s="155"/>
-      <c r="I48" s="155"/>
-      <c r="J48" s="155"/>
-      <c r="K48" s="156"/>
+      <c r="E48" s="152"/>
+      <c r="F48" s="152"/>
+      <c r="G48" s="152"/>
+      <c r="H48" s="152"/>
+      <c r="I48" s="152"/>
+      <c r="J48" s="152"/>
+      <c r="K48" s="153"/>
       <c r="L48" t="s">
         <v>45</v>
       </c>
@@ -4566,16 +4727,16 @@
       <c r="C51" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D51" s="160" t="s">
+      <c r="D51" s="154" t="s">
         <v>49</v>
       </c>
-      <c r="E51" s="160"/>
-      <c r="F51" s="160"/>
-      <c r="G51" s="160"/>
-      <c r="H51" s="160"/>
-      <c r="I51" s="160"/>
-      <c r="J51" s="160"/>
-      <c r="K51" s="160"/>
+      <c r="E51" s="154"/>
+      <c r="F51" s="154"/>
+      <c r="G51" s="154"/>
+      <c r="H51" s="154"/>
+      <c r="I51" s="154"/>
+      <c r="J51" s="154"/>
+      <c r="K51" s="154"/>
       <c r="L51" t="s">
         <v>50</v>
       </c>
@@ -4590,16 +4751,16 @@
       <c r="C52" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D52" s="154" t="s">
+      <c r="D52" s="151" t="s">
         <v>51</v>
       </c>
-      <c r="E52" s="155"/>
-      <c r="F52" s="155"/>
-      <c r="G52" s="155"/>
-      <c r="H52" s="155"/>
-      <c r="I52" s="155"/>
-      <c r="J52" s="155"/>
-      <c r="K52" s="156"/>
+      <c r="E52" s="152"/>
+      <c r="F52" s="152"/>
+      <c r="G52" s="152"/>
+      <c r="H52" s="152"/>
+      <c r="I52" s="152"/>
+      <c r="J52" s="152"/>
+      <c r="K52" s="153"/>
       <c r="L52" t="s">
         <v>52</v>
       </c>
@@ -4614,16 +4775,16 @@
       <c r="C53" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D53" s="154" t="s">
+      <c r="D53" s="151" t="s">
         <v>53</v>
       </c>
-      <c r="E53" s="155"/>
-      <c r="F53" s="155"/>
-      <c r="G53" s="155"/>
-      <c r="H53" s="155"/>
-      <c r="I53" s="155"/>
-      <c r="J53" s="155"/>
-      <c r="K53" s="156"/>
+      <c r="E53" s="152"/>
+      <c r="F53" s="152"/>
+      <c r="G53" s="152"/>
+      <c r="H53" s="152"/>
+      <c r="I53" s="152"/>
+      <c r="J53" s="152"/>
+      <c r="K53" s="153"/>
       <c r="L53" t="s">
         <v>54</v>
       </c>
@@ -4668,16 +4829,16 @@
       <c r="C56" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D56" s="160" t="s">
+      <c r="D56" s="154" t="s">
         <v>57</v>
       </c>
-      <c r="E56" s="160"/>
-      <c r="F56" s="160"/>
-      <c r="G56" s="160"/>
-      <c r="H56" s="160"/>
-      <c r="I56" s="160"/>
-      <c r="J56" s="160"/>
-      <c r="K56" s="160"/>
+      <c r="E56" s="154"/>
+      <c r="F56" s="154"/>
+      <c r="G56" s="154"/>
+      <c r="H56" s="154"/>
+      <c r="I56" s="154"/>
+      <c r="J56" s="154"/>
+      <c r="K56" s="154"/>
       <c r="L56" t="s">
         <v>58</v>
       </c>
@@ -4692,16 +4853,16 @@
       <c r="C57" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D57" s="154" t="s">
+      <c r="D57" s="151" t="s">
         <v>51</v>
       </c>
-      <c r="E57" s="155"/>
-      <c r="F57" s="155"/>
-      <c r="G57" s="155"/>
-      <c r="H57" s="155"/>
-      <c r="I57" s="155"/>
-      <c r="J57" s="155"/>
-      <c r="K57" s="156"/>
+      <c r="E57" s="152"/>
+      <c r="F57" s="152"/>
+      <c r="G57" s="152"/>
+      <c r="H57" s="152"/>
+      <c r="I57" s="152"/>
+      <c r="J57" s="152"/>
+      <c r="K57" s="153"/>
       <c r="L57" t="s">
         <v>52</v>
       </c>
@@ -4716,16 +4877,16 @@
       <c r="C58" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D58" s="154" t="s">
+      <c r="D58" s="151" t="s">
         <v>53</v>
       </c>
-      <c r="E58" s="155"/>
-      <c r="F58" s="155"/>
-      <c r="G58" s="155"/>
-      <c r="H58" s="155"/>
-      <c r="I58" s="155"/>
-      <c r="J58" s="155"/>
-      <c r="K58" s="156"/>
+      <c r="E58" s="152"/>
+      <c r="F58" s="152"/>
+      <c r="G58" s="152"/>
+      <c r="H58" s="152"/>
+      <c r="I58" s="152"/>
+      <c r="J58" s="152"/>
+      <c r="K58" s="153"/>
       <c r="L58" t="s">
         <v>54</v>
       </c>
@@ -4752,11 +4913,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="L10:N10"/>
-    <mergeCell ref="O10:Q10"/>
-    <mergeCell ref="D53:K53"/>
-    <mergeCell ref="D56:K56"/>
-    <mergeCell ref="D57:K57"/>
     <mergeCell ref="D58:K58"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A12:A15"/>
@@ -4771,6 +4927,11 @@
     <mergeCell ref="C10:E10"/>
     <mergeCell ref="F10:H10"/>
     <mergeCell ref="I10:K10"/>
+    <mergeCell ref="L10:N10"/>
+    <mergeCell ref="O10:Q10"/>
+    <mergeCell ref="D53:K53"/>
+    <mergeCell ref="D56:K56"/>
+    <mergeCell ref="D57:K57"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
@@ -4790,7 +4951,7 @@
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -4855,16 +5016,16 @@
       <c r="C20" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D20" s="160" t="s">
+      <c r="D20" s="154" t="s">
         <v>37</v>
       </c>
-      <c r="E20" s="160"/>
-      <c r="F20" s="160"/>
-      <c r="G20" s="160"/>
-      <c r="H20" s="160"/>
-      <c r="I20" s="160"/>
-      <c r="J20" s="160"/>
-      <c r="K20" s="160"/>
+      <c r="E20" s="154"/>
+      <c r="F20" s="154"/>
+      <c r="G20" s="154"/>
+      <c r="H20" s="154"/>
+      <c r="I20" s="154"/>
+      <c r="J20" s="154"/>
+      <c r="K20" s="154"/>
       <c r="T20" s="13"/>
     </row>
     <row r="21" spans="1:20">
@@ -4877,16 +5038,16 @@
       <c r="C21" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D21" s="154" t="s">
+      <c r="D21" s="151" t="s">
         <v>41</v>
       </c>
-      <c r="E21" s="155"/>
-      <c r="F21" s="155"/>
-      <c r="G21" s="155"/>
-      <c r="H21" s="155"/>
-      <c r="I21" s="155"/>
-      <c r="J21" s="155"/>
-      <c r="K21" s="156"/>
+      <c r="E21" s="152"/>
+      <c r="F21" s="152"/>
+      <c r="G21" s="152"/>
+      <c r="H21" s="152"/>
+      <c r="I21" s="152"/>
+      <c r="J21" s="152"/>
+      <c r="K21" s="153"/>
       <c r="T21" s="13"/>
     </row>
     <row r="22" spans="1:20">
@@ -4899,16 +5060,16 @@
       <c r="C22" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D22" s="154" t="s">
+      <c r="D22" s="151" t="s">
         <v>44</v>
       </c>
-      <c r="E22" s="155"/>
-      <c r="F22" s="155"/>
-      <c r="G22" s="155"/>
-      <c r="H22" s="155"/>
-      <c r="I22" s="155"/>
-      <c r="J22" s="155"/>
-      <c r="K22" s="156"/>
+      <c r="E22" s="152"/>
+      <c r="F22" s="152"/>
+      <c r="G22" s="152"/>
+      <c r="H22" s="152"/>
+      <c r="I22" s="152"/>
+      <c r="J22" s="152"/>
+      <c r="K22" s="153"/>
       <c r="T22" s="13"/>
     </row>
     <row r="24" spans="1:20">
@@ -4941,16 +5102,16 @@
       <c r="C25" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D25" s="160" t="s">
+      <c r="D25" s="154" t="s">
         <v>49</v>
       </c>
-      <c r="E25" s="160"/>
-      <c r="F25" s="160"/>
-      <c r="G25" s="160"/>
-      <c r="H25" s="160"/>
-      <c r="I25" s="160"/>
-      <c r="J25" s="160"/>
-      <c r="K25" s="160"/>
+      <c r="E25" s="154"/>
+      <c r="F25" s="154"/>
+      <c r="G25" s="154"/>
+      <c r="H25" s="154"/>
+      <c r="I25" s="154"/>
+      <c r="J25" s="154"/>
+      <c r="K25" s="154"/>
     </row>
     <row r="26" spans="1:20">
       <c r="A26" s="4" t="s">
@@ -4962,16 +5123,16 @@
       <c r="C26" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D26" s="154" t="s">
+      <c r="D26" s="151" t="s">
         <v>51</v>
       </c>
-      <c r="E26" s="155"/>
-      <c r="F26" s="155"/>
-      <c r="G26" s="155"/>
-      <c r="H26" s="155"/>
-      <c r="I26" s="155"/>
-      <c r="J26" s="155"/>
-      <c r="K26" s="156"/>
+      <c r="E26" s="152"/>
+      <c r="F26" s="152"/>
+      <c r="G26" s="152"/>
+      <c r="H26" s="152"/>
+      <c r="I26" s="152"/>
+      <c r="J26" s="152"/>
+      <c r="K26" s="153"/>
     </row>
     <row r="27" spans="1:20">
       <c r="A27" s="4" t="s">
@@ -4983,16 +5144,16 @@
       <c r="C27" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D27" s="154" t="s">
+      <c r="D27" s="151" t="s">
         <v>53</v>
       </c>
-      <c r="E27" s="155"/>
-      <c r="F27" s="155"/>
-      <c r="G27" s="155"/>
-      <c r="H27" s="155"/>
-      <c r="I27" s="155"/>
-      <c r="J27" s="155"/>
-      <c r="K27" s="156"/>
+      <c r="E27" s="152"/>
+      <c r="F27" s="152"/>
+      <c r="G27" s="152"/>
+      <c r="H27" s="152"/>
+      <c r="I27" s="152"/>
+      <c r="J27" s="152"/>
+      <c r="K27" s="153"/>
     </row>
     <row r="28" spans="1:20">
       <c r="C28" s="9"/>
@@ -5034,16 +5195,16 @@
       <c r="C30" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D30" s="160" t="s">
+      <c r="D30" s="154" t="s">
         <v>57</v>
       </c>
-      <c r="E30" s="160"/>
-      <c r="F30" s="160"/>
-      <c r="G30" s="160"/>
-      <c r="H30" s="160"/>
-      <c r="I30" s="160"/>
-      <c r="J30" s="160"/>
-      <c r="K30" s="160"/>
+      <c r="E30" s="154"/>
+      <c r="F30" s="154"/>
+      <c r="G30" s="154"/>
+      <c r="H30" s="154"/>
+      <c r="I30" s="154"/>
+      <c r="J30" s="154"/>
+      <c r="K30" s="154"/>
     </row>
     <row r="31" spans="1:20">
       <c r="A31" s="4" t="s">
@@ -5055,16 +5216,16 @@
       <c r="C31" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D31" s="154" t="s">
+      <c r="D31" s="151" t="s">
         <v>51</v>
       </c>
-      <c r="E31" s="155"/>
-      <c r="F31" s="155"/>
-      <c r="G31" s="155"/>
-      <c r="H31" s="155"/>
-      <c r="I31" s="155"/>
-      <c r="J31" s="155"/>
-      <c r="K31" s="156"/>
+      <c r="E31" s="152"/>
+      <c r="F31" s="152"/>
+      <c r="G31" s="152"/>
+      <c r="H31" s="152"/>
+      <c r="I31" s="152"/>
+      <c r="J31" s="152"/>
+      <c r="K31" s="153"/>
     </row>
     <row r="32" spans="1:20">
       <c r="A32" s="4" t="s">
@@ -5076,16 +5237,16 @@
       <c r="C32" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D32" s="154" t="s">
+      <c r="D32" s="151" t="s">
         <v>53</v>
       </c>
-      <c r="E32" s="155"/>
-      <c r="F32" s="155"/>
-      <c r="G32" s="155"/>
-      <c r="H32" s="155"/>
-      <c r="I32" s="155"/>
-      <c r="J32" s="155"/>
-      <c r="K32" s="156"/>
+      <c r="E32" s="152"/>
+      <c r="F32" s="152"/>
+      <c r="G32" s="152"/>
+      <c r="H32" s="152"/>
+      <c r="I32" s="152"/>
+      <c r="J32" s="152"/>
+      <c r="K32" s="153"/>
     </row>
     <row r="33" spans="1:20">
       <c r="A33" t="s">
@@ -5195,30 +5356,30 @@
       <c r="C49" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="D49" s="160" t="s">
+      <c r="D49" s="154" t="s">
         <v>79</v>
       </c>
-      <c r="E49" s="160"/>
-      <c r="F49" s="160"/>
-      <c r="G49" s="160"/>
-      <c r="H49" s="160"/>
-      <c r="I49" s="160"/>
-      <c r="J49" s="160"/>
-      <c r="K49" s="170"/>
+      <c r="E49" s="154"/>
+      <c r="F49" s="154"/>
+      <c r="G49" s="154"/>
+      <c r="H49" s="154"/>
+      <c r="I49" s="154"/>
+      <c r="J49" s="154"/>
+      <c r="K49" s="158"/>
       <c r="T49" s="13"/>
     </row>
     <row r="50" spans="1:20">
       <c r="A50" s="26"/>
       <c r="B50" s="4"/>
       <c r="C50" s="5"/>
-      <c r="D50" s="154"/>
-      <c r="E50" s="155"/>
-      <c r="F50" s="155"/>
-      <c r="G50" s="155"/>
-      <c r="H50" s="155"/>
-      <c r="I50" s="155"/>
-      <c r="J50" s="155"/>
-      <c r="K50" s="169"/>
+      <c r="D50" s="151"/>
+      <c r="E50" s="152"/>
+      <c r="F50" s="152"/>
+      <c r="G50" s="152"/>
+      <c r="H50" s="152"/>
+      <c r="I50" s="152"/>
+      <c r="J50" s="152"/>
+      <c r="K50" s="159"/>
       <c r="L50" t="s">
         <v>80</v>
       </c>
@@ -5228,14 +5389,14 @@
       <c r="A51" s="26"/>
       <c r="B51" s="4"/>
       <c r="C51" s="5"/>
-      <c r="D51" s="154"/>
-      <c r="E51" s="155"/>
-      <c r="F51" s="155"/>
-      <c r="G51" s="155"/>
-      <c r="H51" s="155"/>
-      <c r="I51" s="155"/>
-      <c r="J51" s="155"/>
-      <c r="K51" s="169"/>
+      <c r="D51" s="151"/>
+      <c r="E51" s="152"/>
+      <c r="F51" s="152"/>
+      <c r="G51" s="152"/>
+      <c r="H51" s="152"/>
+      <c r="I51" s="152"/>
+      <c r="J51" s="152"/>
+      <c r="K51" s="159"/>
       <c r="T51" s="13"/>
     </row>
     <row r="52" spans="1:20">
@@ -5280,31 +5441,31 @@
       <c r="B54" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C54" s="166" t="s">
+      <c r="C54" s="160" t="s">
         <v>82</v>
       </c>
-      <c r="D54" s="167"/>
-      <c r="E54" s="167"/>
-      <c r="F54" s="167"/>
-      <c r="G54" s="167"/>
-      <c r="H54" s="167"/>
-      <c r="I54" s="167"/>
-      <c r="J54" s="167"/>
-      <c r="K54" s="168"/>
+      <c r="D54" s="161"/>
+      <c r="E54" s="161"/>
+      <c r="F54" s="161"/>
+      <c r="G54" s="161"/>
+      <c r="H54" s="161"/>
+      <c r="I54" s="161"/>
+      <c r="J54" s="161"/>
+      <c r="K54" s="162"/>
       <c r="T54" s="37"/>
     </row>
     <row r="55" spans="1:20">
       <c r="A55" s="26"/>
       <c r="B55" s="4"/>
-      <c r="C55" s="166"/>
-      <c r="D55" s="167"/>
-      <c r="E55" s="167"/>
-      <c r="F55" s="167"/>
-      <c r="G55" s="167"/>
-      <c r="H55" s="167"/>
-      <c r="I55" s="167"/>
-      <c r="J55" s="167"/>
-      <c r="K55" s="168"/>
+      <c r="C55" s="160"/>
+      <c r="D55" s="161"/>
+      <c r="E55" s="161"/>
+      <c r="F55" s="161"/>
+      <c r="G55" s="161"/>
+      <c r="H55" s="161"/>
+      <c r="I55" s="161"/>
+      <c r="J55" s="161"/>
+      <c r="K55" s="162"/>
       <c r="L55" t="s">
         <v>83</v>
       </c>
@@ -5313,15 +5474,15 @@
     <row r="56" spans="1:20">
       <c r="A56" s="26"/>
       <c r="B56" s="4"/>
-      <c r="C56" s="166"/>
-      <c r="D56" s="167"/>
-      <c r="E56" s="167"/>
-      <c r="F56" s="167"/>
-      <c r="G56" s="167"/>
-      <c r="H56" s="167"/>
-      <c r="I56" s="167"/>
-      <c r="J56" s="167"/>
-      <c r="K56" s="168"/>
+      <c r="C56" s="160"/>
+      <c r="D56" s="161"/>
+      <c r="E56" s="161"/>
+      <c r="F56" s="161"/>
+      <c r="G56" s="161"/>
+      <c r="H56" s="161"/>
+      <c r="I56" s="161"/>
+      <c r="J56" s="161"/>
+      <c r="K56" s="162"/>
       <c r="T56" s="37"/>
     </row>
     <row r="57" spans="1:20">
@@ -5341,45 +5502,45 @@
       <c r="B59" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="C59" s="166" t="s">
+      <c r="C59" s="160" t="s">
         <v>82</v>
       </c>
-      <c r="D59" s="167"/>
-      <c r="E59" s="167"/>
-      <c r="F59" s="167"/>
-      <c r="G59" s="167"/>
-      <c r="H59" s="167"/>
-      <c r="I59" s="167"/>
-      <c r="J59" s="167"/>
-      <c r="K59" s="168"/>
+      <c r="D59" s="161"/>
+      <c r="E59" s="161"/>
+      <c r="F59" s="161"/>
+      <c r="G59" s="161"/>
+      <c r="H59" s="161"/>
+      <c r="I59" s="161"/>
+      <c r="J59" s="161"/>
+      <c r="K59" s="162"/>
       <c r="T59" s="13"/>
     </row>
     <row r="60" spans="1:20">
       <c r="A60" s="26"/>
       <c r="B60" s="4"/>
-      <c r="C60" s="166"/>
-      <c r="D60" s="167"/>
-      <c r="E60" s="167"/>
-      <c r="F60" s="167"/>
-      <c r="G60" s="167"/>
-      <c r="H60" s="167"/>
-      <c r="I60" s="167"/>
-      <c r="J60" s="167"/>
-      <c r="K60" s="168"/>
+      <c r="C60" s="160"/>
+      <c r="D60" s="161"/>
+      <c r="E60" s="161"/>
+      <c r="F60" s="161"/>
+      <c r="G60" s="161"/>
+      <c r="H60" s="161"/>
+      <c r="I60" s="161"/>
+      <c r="J60" s="161"/>
+      <c r="K60" s="162"/>
       <c r="T60" s="13"/>
     </row>
     <row r="61" spans="1:20">
       <c r="A61" s="26"/>
       <c r="B61" s="4"/>
-      <c r="C61" s="166"/>
-      <c r="D61" s="167"/>
-      <c r="E61" s="167"/>
-      <c r="F61" s="167"/>
-      <c r="G61" s="167"/>
-      <c r="H61" s="167"/>
-      <c r="I61" s="167"/>
-      <c r="J61" s="167"/>
-      <c r="K61" s="168"/>
+      <c r="C61" s="160"/>
+      <c r="D61" s="161"/>
+      <c r="E61" s="161"/>
+      <c r="F61" s="161"/>
+      <c r="G61" s="161"/>
+      <c r="H61" s="161"/>
+      <c r="I61" s="161"/>
+      <c r="J61" s="161"/>
+      <c r="K61" s="162"/>
       <c r="T61" s="13"/>
     </row>
     <row r="62" spans="1:20">
@@ -5399,49 +5560,49 @@
       <c r="B64" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C64" s="159" t="s">
+      <c r="C64" s="150" t="s">
         <v>90</v>
       </c>
-      <c r="D64" s="159"/>
-      <c r="E64" s="159" t="s">
+      <c r="D64" s="150"/>
+      <c r="E64" s="150" t="s">
         <v>91</v>
       </c>
-      <c r="F64" s="159"/>
-      <c r="G64" s="164" t="s">
+      <c r="F64" s="150"/>
+      <c r="G64" s="163" t="s">
         <v>92</v>
       </c>
-      <c r="H64" s="163"/>
-      <c r="I64" s="164" t="s">
+      <c r="H64" s="149"/>
+      <c r="I64" s="163" t="s">
         <v>93</v>
       </c>
-      <c r="J64" s="162"/>
-      <c r="K64" s="165"/>
+      <c r="J64" s="148"/>
+      <c r="K64" s="164"/>
     </row>
     <row r="65" spans="1:11">
       <c r="A65" s="26"/>
       <c r="B65" s="4"/>
-      <c r="C65" s="159"/>
-      <c r="D65" s="159"/>
-      <c r="E65" s="159"/>
-      <c r="F65" s="159"/>
-      <c r="G65" s="164"/>
-      <c r="H65" s="163"/>
-      <c r="I65" s="164"/>
-      <c r="J65" s="162"/>
-      <c r="K65" s="165"/>
+      <c r="C65" s="150"/>
+      <c r="D65" s="150"/>
+      <c r="E65" s="150"/>
+      <c r="F65" s="150"/>
+      <c r="G65" s="163"/>
+      <c r="H65" s="149"/>
+      <c r="I65" s="163"/>
+      <c r="J65" s="148"/>
+      <c r="K65" s="164"/>
     </row>
     <row r="66" spans="1:11">
       <c r="A66" s="26"/>
       <c r="B66" s="4"/>
-      <c r="C66" s="159"/>
-      <c r="D66" s="159"/>
-      <c r="E66" s="159"/>
-      <c r="F66" s="159"/>
-      <c r="G66" s="164"/>
-      <c r="H66" s="163"/>
-      <c r="I66" s="164"/>
-      <c r="J66" s="162"/>
-      <c r="K66" s="165"/>
+      <c r="C66" s="150"/>
+      <c r="D66" s="150"/>
+      <c r="E66" s="150"/>
+      <c r="F66" s="150"/>
+      <c r="G66" s="163"/>
+      <c r="H66" s="149"/>
+      <c r="I66" s="163"/>
+      <c r="J66" s="148"/>
+      <c r="K66" s="164"/>
     </row>
     <row r="67" spans="1:11">
       <c r="A67" s="22"/>
@@ -5462,28 +5623,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="D20:K20"/>
-    <mergeCell ref="D21:K21"/>
-    <mergeCell ref="D22:K22"/>
-    <mergeCell ref="D25:K25"/>
-    <mergeCell ref="D26:K26"/>
-    <mergeCell ref="D27:K27"/>
-    <mergeCell ref="D30:K30"/>
-    <mergeCell ref="D31:K31"/>
-    <mergeCell ref="D32:K32"/>
-    <mergeCell ref="D49:K49"/>
-    <mergeCell ref="D50:K50"/>
-    <mergeCell ref="D51:K51"/>
-    <mergeCell ref="C54:K54"/>
-    <mergeCell ref="C55:K55"/>
-    <mergeCell ref="C56:K56"/>
-    <mergeCell ref="C59:K59"/>
-    <mergeCell ref="C60:K60"/>
-    <mergeCell ref="C61:K61"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="E64:F64"/>
-    <mergeCell ref="G64:H64"/>
-    <mergeCell ref="I64:K64"/>
     <mergeCell ref="C65:D65"/>
     <mergeCell ref="E65:F65"/>
     <mergeCell ref="G65:H65"/>
@@ -5492,6 +5631,28 @@
     <mergeCell ref="E66:F66"/>
     <mergeCell ref="G66:H66"/>
     <mergeCell ref="I66:K66"/>
+    <mergeCell ref="C59:K59"/>
+    <mergeCell ref="C60:K60"/>
+    <mergeCell ref="C61:K61"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="G64:H64"/>
+    <mergeCell ref="I64:K64"/>
+    <mergeCell ref="D50:K50"/>
+    <mergeCell ref="D51:K51"/>
+    <mergeCell ref="C54:K54"/>
+    <mergeCell ref="C55:K55"/>
+    <mergeCell ref="C56:K56"/>
+    <mergeCell ref="D27:K27"/>
+    <mergeCell ref="D30:K30"/>
+    <mergeCell ref="D31:K31"/>
+    <mergeCell ref="D32:K32"/>
+    <mergeCell ref="D49:K49"/>
+    <mergeCell ref="D20:K20"/>
+    <mergeCell ref="D21:K21"/>
+    <mergeCell ref="D22:K22"/>
+    <mergeCell ref="D25:K25"/>
+    <mergeCell ref="D26:K26"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
@@ -5523,41 +5684,41 @@
       </c>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="157" t="s">
+      <c r="A3" s="155" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="157" t="s">
+      <c r="B3" s="155" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="161" t="s">
+      <c r="C3" s="157" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="162"/>
-      <c r="E3" s="163"/>
-      <c r="F3" s="161" t="s">
+      <c r="D3" s="148"/>
+      <c r="E3" s="149"/>
+      <c r="F3" s="157" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="162"/>
-      <c r="H3" s="163"/>
-      <c r="I3" s="161" t="s">
+      <c r="G3" s="148"/>
+      <c r="H3" s="149"/>
+      <c r="I3" s="157" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="162"/>
-      <c r="K3" s="163"/>
-      <c r="L3" s="162" t="s">
+      <c r="J3" s="148"/>
+      <c r="K3" s="149"/>
+      <c r="L3" s="148" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="162"/>
-      <c r="N3" s="163"/>
-      <c r="O3" s="159" t="s">
+      <c r="M3" s="148"/>
+      <c r="N3" s="149"/>
+      <c r="O3" s="150" t="s">
         <v>14</v>
       </c>
-      <c r="P3" s="159"/>
-      <c r="Q3" s="159"/>
+      <c r="P3" s="150"/>
+      <c r="Q3" s="150"/>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="158"/>
-      <c r="B4" s="158"/>
+      <c r="A4" s="156"/>
+      <c r="B4" s="156"/>
       <c r="C4" s="5" t="s">
         <v>15</v>
       </c>
@@ -5605,7 +5766,7 @@
       </c>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="159" t="s">
+      <c r="A5" s="150" t="s">
         <v>18</v>
       </c>
       <c r="B5" s="5">
@@ -5655,7 +5816,7 @@
       </c>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="159"/>
+      <c r="A6" s="150"/>
       <c r="B6" s="5">
         <v>88</v>
       </c>
@@ -5703,7 +5864,7 @@
       </c>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="159"/>
+      <c r="A7" s="150"/>
       <c r="B7" s="5">
         <v>100</v>
       </c>
@@ -5751,7 +5912,7 @@
       </c>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="159"/>
+      <c r="A8" s="150"/>
       <c r="B8" s="5" t="s">
         <v>19</v>
       </c>
@@ -5808,7 +5969,7 @@
       </c>
     </row>
     <row r="9" spans="1:17" hidden="1">
-      <c r="A9" s="157" t="s">
+      <c r="A9" s="155" t="s">
         <v>20</v>
       </c>
       <c r="B9" s="5">
@@ -5855,7 +6016,7 @@
       <c r="Q9" s="40"/>
     </row>
     <row r="10" spans="1:17" hidden="1">
-      <c r="A10" s="158"/>
+      <c r="A10" s="156"/>
       <c r="B10" s="5" t="s">
         <v>19</v>
       </c>
@@ -5909,7 +6070,7 @@
       <c r="Q10" s="40"/>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="159" t="s">
+      <c r="A11" s="150" t="s">
         <v>21</v>
       </c>
       <c r="B11" s="5">
@@ -5962,7 +6123,7 @@
       </c>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="159"/>
+      <c r="A12" s="150"/>
       <c r="B12" s="5">
         <v>180</v>
       </c>
@@ -6013,7 +6174,7 @@
       </c>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="159"/>
+      <c r="A13" s="150"/>
       <c r="B13" s="5">
         <v>240</v>
       </c>
@@ -6064,7 +6225,7 @@
       </c>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="159"/>
+      <c r="A14" s="150"/>
       <c r="B14" s="5" t="s">
         <v>19</v>
       </c>
@@ -6169,7 +6330,7 @@
       <c r="L20" s="39"/>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="159" t="s">
+      <c r="A21" s="150" t="s">
         <v>18</v>
       </c>
       <c r="B21" s="5">
@@ -6200,7 +6361,7 @@
       <c r="L21" s="34"/>
     </row>
     <row r="22" spans="1:12">
-      <c r="A22" s="159"/>
+      <c r="A22" s="150"/>
       <c r="B22" s="5">
         <v>88</v>
       </c>
@@ -6229,7 +6390,7 @@
       <c r="L22" s="34"/>
     </row>
     <row r="23" spans="1:12">
-      <c r="A23" s="159"/>
+      <c r="A23" s="150"/>
       <c r="B23" s="5">
         <v>100</v>
       </c>
@@ -6258,7 +6419,7 @@
       <c r="L23" s="34"/>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24" s="159"/>
+      <c r="A24" s="150"/>
       <c r="B24" s="5" t="s">
         <v>19</v>
       </c>
@@ -6480,29 +6641,29 @@
         <v>123</v>
       </c>
       <c r="O15" s="9"/>
-      <c r="P15" s="159" t="s">
+      <c r="P15" s="150" t="s">
         <v>107</v>
       </c>
-      <c r="Q15" s="159" t="s">
+      <c r="Q15" s="150" t="s">
         <v>109</v>
       </c>
-      <c r="R15" s="159" t="s">
+      <c r="R15" s="150" t="s">
         <v>124</v>
       </c>
-      <c r="S15" s="159"/>
-      <c r="T15" s="159" t="s">
+      <c r="S15" s="150"/>
+      <c r="T15" s="150" t="s">
         <v>125</v>
       </c>
-      <c r="U15" s="159"/>
-      <c r="V15" s="159"/>
+      <c r="U15" s="150"/>
+      <c r="V15" s="150"/>
     </row>
     <row r="16" spans="1:22">
       <c r="A16" t="s">
         <v>126</v>
       </c>
       <c r="O16" s="9"/>
-      <c r="P16" s="171"/>
-      <c r="Q16" s="171"/>
+      <c r="P16" s="165"/>
+      <c r="Q16" s="165"/>
       <c r="R16" s="5" t="s">
         <v>113</v>
       </c>
@@ -6613,17 +6774,17 @@
       <c r="Q21" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="R21" s="159">
+      <c r="R21" s="150">
         <f>SUM(R17:S18)</f>
         <v>1500</v>
       </c>
-      <c r="S21" s="159"/>
-      <c r="T21" s="164">
+      <c r="S21" s="150"/>
+      <c r="T21" s="163">
         <f>SUM(T17:V20)</f>
         <v>1500</v>
       </c>
-      <c r="U21" s="162"/>
-      <c r="V21" s="163"/>
+      <c r="U21" s="148"/>
+      <c r="V21" s="149"/>
     </row>
     <row r="22" spans="1:22">
       <c r="A22" t="s">
@@ -6892,186 +7053,195 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B3:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="127"/>
-    <col min="2" max="14" width="16.625" style="127" customWidth="1"/>
-    <col min="15" max="16384" width="9" style="127"/>
+    <col min="1" max="1" width="9" style="120"/>
+    <col min="2" max="14" width="16.625" style="120" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="120"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:9" ht="22.5">
-      <c r="B3" s="126" t="s">
+      <c r="B3" s="119" t="s">
+        <v>291</v>
+      </c>
+      <c r="C3" s="119" t="s">
         <v>292</v>
       </c>
-      <c r="C3" s="126" t="s">
+      <c r="E3" s="119" t="s">
+        <v>299</v>
+      </c>
+      <c r="F3" s="119" t="s">
+        <v>300</v>
+      </c>
+      <c r="H3" s="119" t="s">
+        <v>301</v>
+      </c>
+      <c r="I3" s="119" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" ht="22.5">
+      <c r="B4" s="119"/>
+      <c r="C4" s="119"/>
+      <c r="E4" s="119"/>
+      <c r="F4" s="119"/>
+      <c r="H4" s="119"/>
+      <c r="I4" s="119"/>
+    </row>
+    <row r="5" spans="2:9">
+      <c r="B5" s="120" t="s">
         <v>293</v>
       </c>
-      <c r="E3" s="126" t="s">
-        <v>300</v>
-      </c>
-      <c r="F3" s="126" t="s">
-        <v>301</v>
-      </c>
-      <c r="H3" s="126" t="s">
+      <c r="C5" s="120" t="s">
+        <v>297</v>
+      </c>
+      <c r="E5" s="120" t="s">
+        <v>293</v>
+      </c>
+      <c r="F5" s="120" t="s">
         <v>302</v>
       </c>
-      <c r="I3" s="126" t="s">
+      <c r="H5" s="120" t="s">
+        <v>293</v>
+      </c>
+      <c r="I5" s="120" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="4" spans="2:9" ht="22.5">
-      <c r="B4" s="126"/>
-      <c r="C4" s="126"/>
-      <c r="E4" s="126"/>
-      <c r="F4" s="126"/>
-      <c r="H4" s="126"/>
-      <c r="I4" s="126"/>
-    </row>
-    <row r="5" spans="2:9">
-      <c r="B5" s="127" t="s">
+    <row r="6" spans="2:9">
+      <c r="B6" s="120" t="s">
         <v>294</v>
       </c>
-      <c r="C5" s="127" t="s">
+      <c r="C6" s="120" t="s">
         <v>298</v>
       </c>
-      <c r="E5" s="127" t="s">
+      <c r="E6" s="120" t="s">
         <v>294</v>
       </c>
-      <c r="F5" s="127" t="s">
+      <c r="F6" s="120" t="s">
         <v>303</v>
       </c>
-      <c r="H5" s="127" t="s">
+      <c r="H6" s="120" t="s">
         <v>294</v>
       </c>
-      <c r="I5" s="127" t="s">
+      <c r="I6" s="120" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9">
+      <c r="B7" s="120" t="s">
+        <v>295</v>
+      </c>
+      <c r="C7" s="120" t="s">
+        <v>296</v>
+      </c>
+      <c r="E7" s="117" t="s">
+        <v>335</v>
+      </c>
+      <c r="F7" s="117" t="s">
+        <v>346</v>
+      </c>
+      <c r="H7" s="120" t="s">
+        <v>295</v>
+      </c>
+      <c r="I7" s="120" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9">
+      <c r="E8" s="120" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="6" spans="2:9">
-      <c r="B6" s="127" t="s">
-        <v>295</v>
-      </c>
-      <c r="C6" s="127" t="s">
-        <v>299</v>
-      </c>
-      <c r="E6" s="127" t="s">
-        <v>295</v>
-      </c>
-      <c r="F6" s="127" t="s">
-        <v>304</v>
-      </c>
-      <c r="H6" s="127" t="s">
-        <v>295</v>
-      </c>
-      <c r="I6" s="127" t="s">
+      <c r="F8" s="120" t="s">
+        <v>331</v>
+      </c>
+      <c r="H8" s="120" t="s">
+        <v>306</v>
+      </c>
+      <c r="I8" s="120" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9">
+      <c r="E9" s="120" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="7" spans="2:9">
-      <c r="B7" s="127" t="s">
-        <v>296</v>
-      </c>
-      <c r="C7" s="127" t="s">
-        <v>297</v>
-      </c>
-      <c r="E7" s="124" t="s">
-        <v>339</v>
-      </c>
-      <c r="F7" s="124" t="s">
-        <v>341</v>
-      </c>
-      <c r="H7" s="127" t="s">
-        <v>296</v>
-      </c>
-      <c r="I7" s="127" t="s">
+      <c r="F9" s="120" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="8" spans="2:9">
-      <c r="E8" s="127" t="s">
+      <c r="H9" s="120" t="s">
+        <v>307</v>
+      </c>
+      <c r="I9" s="120" t="s">
         <v>309</v>
       </c>
-      <c r="F8" s="127" t="s">
-        <v>335</v>
-      </c>
-      <c r="H8" s="127" t="s">
-        <v>309</v>
-      </c>
-      <c r="I8" s="127" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9">
-      <c r="E9" s="127" t="s">
+    </row>
+    <row r="10" spans="2:9">
+      <c r="E10" s="120" t="s">
+        <v>311</v>
+      </c>
+      <c r="F10" s="120" t="s">
+        <v>313</v>
+      </c>
+      <c r="H10" s="120" t="s">
+        <v>311</v>
+      </c>
+      <c r="I10" s="120" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9">
+      <c r="E11" s="120" t="s">
+        <v>312</v>
+      </c>
+      <c r="F11" s="120" t="s">
+        <v>342</v>
+      </c>
+      <c r="H11" s="120" t="s">
+        <v>312</v>
+      </c>
+      <c r="I11" s="120" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9">
+      <c r="E12" s="120" t="s">
         <v>310</v>
       </c>
-      <c r="F9" s="127" t="s">
-        <v>311</v>
-      </c>
-      <c r="H9" s="127" t="s">
+      <c r="F12" s="120" t="s">
+        <v>314</v>
+      </c>
+      <c r="H12" s="120" t="s">
         <v>310</v>
       </c>
-      <c r="I9" s="127" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9">
-      <c r="E10" s="127" t="s">
-        <v>314</v>
-      </c>
-      <c r="F10" s="127" t="s">
-        <v>316</v>
-      </c>
-      <c r="H10" s="127" t="s">
-        <v>314</v>
-      </c>
-      <c r="I10" s="127" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9">
-      <c r="E11" s="127" t="s">
+      <c r="I12" s="120" t="s">
         <v>315</v>
       </c>
-      <c r="F11" s="127" t="s">
-        <v>346</v>
-      </c>
-      <c r="H11" s="127" t="s">
-        <v>315</v>
-      </c>
-      <c r="I11" s="127" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9">
-      <c r="E12" s="127" t="s">
-        <v>313</v>
-      </c>
-      <c r="F12" s="127" t="s">
-        <v>317</v>
-      </c>
-      <c r="H12" s="127" t="s">
-        <v>313</v>
-      </c>
-      <c r="I12" s="127" t="s">
-        <v>318</v>
-      </c>
     </row>
     <row r="13" spans="2:9">
-      <c r="E13" s="149" t="s">
-        <v>334</v>
+      <c r="E13" s="142" t="s">
+        <v>330</v>
+      </c>
+      <c r="H13" s="142" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="14" spans="2:9">
-      <c r="E14" s="152" t="s">
-        <v>340</v>
-      </c>
-      <c r="F14" s="152" t="s">
-        <v>341</v>
+      <c r="E14" s="145" t="s">
+        <v>336</v>
+      </c>
+      <c r="F14" s="145" t="s">
+        <v>337</v>
+      </c>
+      <c r="H14" s="145" t="s">
+        <v>336</v>
+      </c>
+      <c r="I14" s="120" t="s">
+        <v>348</v>
       </c>
     </row>
   </sheetData>
@@ -7100,116 +7270,116 @@
     </row>
     <row r="2" spans="1:10" ht="20.25">
       <c r="A2" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="21" thickBot="1">
       <c r="A3" s="3"/>
     </row>
     <row r="4" spans="1:10" ht="18.75" customHeight="1">
-      <c r="A4" s="172" t="s">
+      <c r="A4" s="187" t="s">
         <v>159</v>
       </c>
-      <c r="B4" s="172" t="s">
+      <c r="B4" s="187" t="s">
         <v>125</v>
       </c>
-      <c r="C4" s="178" t="s">
+      <c r="C4" s="191" t="s">
         <v>124</v>
       </c>
-      <c r="D4" s="179"/>
-      <c r="E4" s="172" t="s">
-        <v>206</v>
+      <c r="D4" s="192"/>
+      <c r="E4" s="187" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A5" s="173"/>
-      <c r="B5" s="173"/>
-      <c r="C5" s="100" t="s">
+      <c r="A5" s="188"/>
+      <c r="B5" s="188"/>
+      <c r="C5" s="94" t="s">
+        <v>201</v>
+      </c>
+      <c r="D5" s="95" t="s">
         <v>202</v>
       </c>
-      <c r="D5" s="101" t="s">
-        <v>203</v>
-      </c>
-      <c r="E5" s="173"/>
+      <c r="E5" s="188"/>
       <c r="J5" s="50" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="18.75" customHeight="1">
+      <c r="A6" s="92">
+        <v>43101</v>
+      </c>
+      <c r="B6" s="93">
+        <v>10</v>
+      </c>
+      <c r="C6" s="90">
+        <v>200</v>
+      </c>
+      <c r="D6" s="91">
+        <v>30</v>
+      </c>
+      <c r="E6" s="89">
+        <v>40</v>
+      </c>
+      <c r="G6" s="53" t="s">
+        <v>208</v>
+      </c>
+      <c r="J6" s="50" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="18.75" customHeight="1">
-      <c r="A6" s="98">
-        <v>43101</v>
-      </c>
-      <c r="B6" s="99">
+    <row r="7" spans="1:10" ht="18.75" customHeight="1">
+      <c r="A7" s="71">
+        <v>43102</v>
+      </c>
+      <c r="B7" s="79">
         <v>10</v>
       </c>
-      <c r="C6" s="96">
+      <c r="C7" s="70">
         <v>200</v>
       </c>
-      <c r="D6" s="97">
-        <v>30</v>
-      </c>
-      <c r="E6" s="95">
-        <v>40</v>
-      </c>
-      <c r="G6" s="54" t="s">
-        <v>209</v>
-      </c>
-      <c r="J6" s="50" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="18.75" customHeight="1">
-      <c r="A7" s="75">
-        <v>43102</v>
-      </c>
-      <c r="B7" s="83">
-        <v>10</v>
-      </c>
-      <c r="C7" s="72">
-        <v>200</v>
-      </c>
-      <c r="D7" s="92">
+      <c r="D7" s="86">
         <v>30</v>
       </c>
       <c r="E7" s="48">
         <v>50</v>
       </c>
-      <c r="F7" s="94"/>
+      <c r="F7" s="88"/>
       <c r="J7" s="50" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="18.75" customHeight="1">
-      <c r="A8" s="75">
+      <c r="A8" s="71">
         <v>43103</v>
       </c>
-      <c r="B8" s="83">
+      <c r="B8" s="79">
         <v>10</v>
       </c>
-      <c r="C8" s="72">
+      <c r="C8" s="70">
         <v>200</v>
       </c>
-      <c r="D8" s="70">
+      <c r="D8" s="69">
         <v>30</v>
       </c>
       <c r="E8" s="48">
         <v>60</v>
       </c>
       <c r="J8" s="50" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="18.75" customHeight="1">
-      <c r="A9" s="75">
+      <c r="A9" s="71">
         <v>43104</v>
       </c>
-      <c r="B9" s="83">
+      <c r="B9" s="79">
         <v>10</v>
       </c>
-      <c r="C9" s="72">
+      <c r="C9" s="70">
         <v>200</v>
       </c>
-      <c r="D9" s="70">
+      <c r="D9" s="69">
         <v>30</v>
       </c>
       <c r="E9" s="48">
@@ -7217,36 +7387,36 @@
       </c>
     </row>
     <row r="10" spans="1:10" ht="18.75" customHeight="1">
-      <c r="A10" s="76" t="s">
+      <c r="A10" s="72" t="s">
         <v>160</v>
       </c>
-      <c r="B10" s="91"/>
-      <c r="C10" s="90"/>
-      <c r="D10" s="93"/>
+      <c r="B10" s="85"/>
+      <c r="C10" s="84"/>
+      <c r="D10" s="87"/>
       <c r="E10" s="48">
         <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="18.75" customHeight="1">
-      <c r="A11" s="76" t="s">
+      <c r="A11" s="72" t="s">
         <v>160</v>
       </c>
-      <c r="B11" s="91"/>
-      <c r="C11" s="90"/>
-      <c r="D11" s="93"/>
+      <c r="B11" s="85"/>
+      <c r="C11" s="84"/>
+      <c r="D11" s="87"/>
       <c r="E11" s="48"/>
     </row>
     <row r="12" spans="1:10" ht="18.75" customHeight="1">
-      <c r="A12" s="76">
+      <c r="A12" s="72">
         <v>43131</v>
       </c>
-      <c r="B12" s="83">
+      <c r="B12" s="79">
         <v>10</v>
       </c>
-      <c r="C12" s="72">
+      <c r="C12" s="70">
         <v>200</v>
       </c>
-      <c r="D12" s="70">
+      <c r="D12" s="69">
         <v>30</v>
       </c>
       <c r="E12" s="48">
@@ -7254,109 +7424,109 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="18.75" customHeight="1">
-      <c r="A13" s="77" t="s">
+      <c r="A13" s="73" t="s">
+        <v>206</v>
+      </c>
+      <c r="B13" s="96">
+        <v>50</v>
+      </c>
+      <c r="C13" s="75">
+        <v>1000</v>
+      </c>
+      <c r="D13" s="76">
+        <v>150</v>
+      </c>
+      <c r="E13" s="77">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="18.75" customHeight="1" thickBot="1">
+      <c r="A14" s="74" t="s">
+        <v>132</v>
+      </c>
+      <c r="B14" s="80">
+        <v>50</v>
+      </c>
+      <c r="C14" s="189" t="s">
         <v>207</v>
       </c>
-      <c r="B13" s="102">
-        <v>50</v>
-      </c>
-      <c r="C13" s="79">
-        <v>1000</v>
-      </c>
-      <c r="D13" s="80">
-        <v>150</v>
-      </c>
-      <c r="E13" s="81">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A14" s="78" t="s">
-        <v>132</v>
-      </c>
-      <c r="B14" s="86">
-        <v>50</v>
-      </c>
-      <c r="C14" s="174" t="s">
-        <v>208</v>
-      </c>
-      <c r="D14" s="175"/>
-      <c r="E14" s="82">
+      <c r="D14" s="173"/>
+      <c r="E14" s="78">
         <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="65.25" customHeight="1">
       <c r="A16" s="3" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
     </row>
     <row r="17" spans="1:19" ht="32.25" customHeight="1">
-      <c r="A17" s="176" t="s">
+      <c r="A17" s="190" t="s">
+        <v>213</v>
+      </c>
+      <c r="B17" s="186"/>
+      <c r="C17" s="186" t="s">
         <v>214</v>
       </c>
-      <c r="B17" s="177"/>
-      <c r="C17" s="177" t="s">
+      <c r="D17" s="186"/>
+      <c r="E17" s="186"/>
+      <c r="F17" s="186"/>
+      <c r="G17" s="186"/>
+      <c r="H17" s="181" t="s">
         <v>215</v>
       </c>
-      <c r="D17" s="177"/>
-      <c r="E17" s="177"/>
-      <c r="F17" s="177"/>
-      <c r="G17" s="177"/>
-      <c r="H17" s="180" t="s">
+      <c r="I17" s="181"/>
+      <c r="J17" s="184" t="s">
         <v>216</v>
       </c>
-      <c r="I17" s="180"/>
-      <c r="J17" s="181" t="s">
+      <c r="K17" s="185"/>
+    </row>
+    <row r="18" spans="1:19" ht="25.5" customHeight="1">
+      <c r="A18" s="168" t="s">
+        <v>287</v>
+      </c>
+      <c r="B18" s="166"/>
+      <c r="C18" s="167" t="s">
+        <v>286</v>
+      </c>
+      <c r="D18" s="168"/>
+      <c r="E18" s="168"/>
+      <c r="F18" s="166"/>
+      <c r="G18" s="167" t="s">
+        <v>221</v>
+      </c>
+      <c r="H18" s="168"/>
+      <c r="I18" s="168"/>
+      <c r="J18" s="168"/>
+      <c r="K18" s="168"/>
+      <c r="N18" s="144" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" ht="21" customHeight="1">
+      <c r="A19" s="163" t="s">
+        <v>76</v>
+      </c>
+      <c r="B19" s="149"/>
+      <c r="C19" s="166" t="s">
+        <v>225</v>
+      </c>
+      <c r="D19" s="167"/>
+      <c r="E19" s="52" t="s">
+        <v>218</v>
+      </c>
+      <c r="F19" s="166" t="s">
         <v>217</v>
       </c>
-      <c r="K17" s="182"/>
-    </row>
-    <row r="18" spans="1:19" ht="25.5" customHeight="1">
-      <c r="A18" s="184" t="s">
-        <v>288</v>
-      </c>
-      <c r="B18" s="185"/>
-      <c r="C18" s="183" t="s">
-        <v>287</v>
-      </c>
-      <c r="D18" s="184"/>
-      <c r="E18" s="184"/>
-      <c r="F18" s="185"/>
-      <c r="G18" s="183" t="s">
-        <v>222</v>
-      </c>
-      <c r="H18" s="184"/>
-      <c r="I18" s="184"/>
-      <c r="J18" s="184"/>
-      <c r="K18" s="184"/>
-      <c r="N18" s="151" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" ht="21" customHeight="1">
-      <c r="A19" s="164" t="s">
-        <v>76</v>
-      </c>
-      <c r="B19" s="163"/>
-      <c r="C19" s="185" t="s">
-        <v>226</v>
-      </c>
-      <c r="D19" s="183"/>
-      <c r="E19" s="52" t="s">
+      <c r="G19" s="149"/>
+      <c r="H19" s="166" t="s">
         <v>219</v>
       </c>
-      <c r="F19" s="185" t="s">
-        <v>218</v>
-      </c>
-      <c r="G19" s="163"/>
-      <c r="H19" s="185" t="s">
-        <v>220</v>
-      </c>
-      <c r="I19" s="163"/>
-      <c r="J19" s="185" t="s">
-        <v>224</v>
-      </c>
-      <c r="K19" s="163"/>
+      <c r="I19" s="149"/>
+      <c r="J19" s="166" t="s">
+        <v>223</v>
+      </c>
+      <c r="K19" s="149"/>
       <c r="N19" s="49" t="s">
         <v>146</v>
       </c>
@@ -7377,23 +7547,23 @@
       </c>
     </row>
     <row r="20" spans="1:19" ht="21" customHeight="1">
-      <c r="A20" s="185" t="s">
-        <v>227</v>
-      </c>
-      <c r="B20" s="163"/>
-      <c r="C20" s="185" t="s">
-        <v>229</v>
-      </c>
-      <c r="D20" s="163"/>
+      <c r="A20" s="166" t="s">
+        <v>226</v>
+      </c>
+      <c r="B20" s="149"/>
+      <c r="C20" s="166" t="s">
+        <v>228</v>
+      </c>
+      <c r="D20" s="149"/>
       <c r="E20" s="45"/>
-      <c r="F20" s="164"/>
-      <c r="G20" s="163"/>
-      <c r="H20" s="164"/>
-      <c r="I20" s="163"/>
-      <c r="J20" s="185" t="s">
-        <v>225</v>
-      </c>
-      <c r="K20" s="163"/>
+      <c r="F20" s="163"/>
+      <c r="G20" s="149"/>
+      <c r="H20" s="163"/>
+      <c r="I20" s="149"/>
+      <c r="J20" s="166" t="s">
+        <v>224</v>
+      </c>
+      <c r="K20" s="149"/>
       <c r="N20" s="49"/>
       <c r="O20" s="49"/>
       <c r="P20" s="49"/>
@@ -7404,23 +7574,23 @@
       <c r="S20" s="49"/>
     </row>
     <row r="21" spans="1:19" ht="21" customHeight="1">
-      <c r="A21" s="185" t="s">
-        <v>227</v>
-      </c>
-      <c r="B21" s="163"/>
-      <c r="C21" s="185" t="s">
-        <v>230</v>
-      </c>
-      <c r="D21" s="163"/>
+      <c r="A21" s="166" t="s">
+        <v>226</v>
+      </c>
+      <c r="B21" s="149"/>
+      <c r="C21" s="166" t="s">
+        <v>229</v>
+      </c>
+      <c r="D21" s="149"/>
       <c r="E21" s="45"/>
-      <c r="F21" s="164"/>
-      <c r="G21" s="163"/>
-      <c r="H21" s="164"/>
-      <c r="I21" s="163"/>
-      <c r="J21" s="185" t="s">
-        <v>225</v>
-      </c>
-      <c r="K21" s="163"/>
+      <c r="F21" s="163"/>
+      <c r="G21" s="149"/>
+      <c r="H21" s="163"/>
+      <c r="I21" s="149"/>
+      <c r="J21" s="166" t="s">
+        <v>224</v>
+      </c>
+      <c r="K21" s="149"/>
       <c r="N21" s="49"/>
       <c r="O21" s="49"/>
       <c r="P21" s="49"/>
@@ -7429,141 +7599,166 @@
       <c r="S21" s="49"/>
     </row>
     <row r="22" spans="1:19" ht="21" customHeight="1">
-      <c r="A22" s="185" t="s">
-        <v>228</v>
-      </c>
-      <c r="B22" s="163"/>
-      <c r="C22" s="185" t="s">
+      <c r="A22" s="166" t="s">
+        <v>227</v>
+      </c>
+      <c r="B22" s="149"/>
+      <c r="C22" s="166" t="s">
+        <v>230</v>
+      </c>
+      <c r="D22" s="149"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="163"/>
+      <c r="G22" s="149"/>
+      <c r="H22" s="163"/>
+      <c r="I22" s="149"/>
+      <c r="J22" s="166" t="s">
+        <v>224</v>
+      </c>
+      <c r="K22" s="149"/>
+    </row>
+    <row r="23" spans="1:19" ht="21" customHeight="1">
+      <c r="A23" s="166" t="s">
+        <v>227</v>
+      </c>
+      <c r="B23" s="149"/>
+      <c r="C23" s="166" t="s">
         <v>231</v>
       </c>
-      <c r="D22" s="163"/>
-      <c r="E22" s="49"/>
-      <c r="F22" s="164"/>
-      <c r="G22" s="163"/>
-      <c r="H22" s="164"/>
-      <c r="I22" s="163"/>
-      <c r="J22" s="185" t="s">
-        <v>225</v>
-      </c>
-      <c r="K22" s="163"/>
-    </row>
-    <row r="23" spans="1:19" ht="21" customHeight="1">
-      <c r="A23" s="185" t="s">
-        <v>228</v>
-      </c>
-      <c r="B23" s="163"/>
-      <c r="C23" s="185" t="s">
+      <c r="D23" s="149"/>
+      <c r="E23" s="49"/>
+      <c r="F23" s="163"/>
+      <c r="G23" s="149"/>
+      <c r="H23" s="163"/>
+      <c r="I23" s="149"/>
+      <c r="J23" s="166" t="s">
+        <v>224</v>
+      </c>
+      <c r="K23" s="149"/>
+    </row>
+    <row r="26" spans="1:19" ht="32.25" customHeight="1" thickBot="1">
+      <c r="A26" s="178" t="s">
+        <v>213</v>
+      </c>
+      <c r="B26" s="179"/>
+      <c r="C26" s="179" t="s">
+        <v>214</v>
+      </c>
+      <c r="D26" s="179"/>
+      <c r="E26" s="179"/>
+      <c r="F26" s="179"/>
+      <c r="G26" s="179"/>
+      <c r="H26" s="180" t="s">
+        <v>215</v>
+      </c>
+      <c r="I26" s="180"/>
+      <c r="J26" s="181" t="s">
+        <v>216</v>
+      </c>
+      <c r="K26" s="181"/>
+    </row>
+    <row r="27" spans="1:19" ht="25.5" customHeight="1">
+      <c r="A27" s="182" t="s">
         <v>232</v>
       </c>
-      <c r="D23" s="163"/>
-      <c r="E23" s="49"/>
-      <c r="F23" s="164"/>
-      <c r="G23" s="163"/>
-      <c r="H23" s="164"/>
-      <c r="I23" s="163"/>
-      <c r="J23" s="185" t="s">
-        <v>225</v>
-      </c>
-      <c r="K23" s="163"/>
-    </row>
-    <row r="26" spans="1:19" ht="32.25" customHeight="1" thickBot="1">
-      <c r="A26" s="190" t="s">
-        <v>214</v>
-      </c>
-      <c r="B26" s="191"/>
-      <c r="C26" s="191" t="s">
-        <v>215</v>
-      </c>
-      <c r="D26" s="191"/>
-      <c r="E26" s="191"/>
-      <c r="F26" s="191"/>
-      <c r="G26" s="191"/>
-      <c r="H26" s="192" t="s">
-        <v>216</v>
-      </c>
-      <c r="I26" s="192"/>
-      <c r="J26" s="180" t="s">
-        <v>217</v>
-      </c>
-      <c r="K26" s="180"/>
-    </row>
-    <row r="27" spans="1:19" ht="25.5" customHeight="1">
-      <c r="A27" s="193" t="s">
-        <v>233</v>
-      </c>
-      <c r="B27" s="194"/>
-      <c r="C27" s="60"/>
-      <c r="D27" s="61"/>
-      <c r="E27" s="62"/>
-      <c r="F27" s="61"/>
-      <c r="G27" s="63"/>
-      <c r="H27" s="64"/>
-      <c r="I27" s="64"/>
-      <c r="J27" s="64"/>
-      <c r="K27" s="65"/>
+      <c r="B27" s="183"/>
+      <c r="C27" s="59"/>
+      <c r="D27" s="60"/>
+      <c r="E27" s="61"/>
+      <c r="F27" s="60"/>
+      <c r="G27" s="62"/>
+      <c r="H27" s="63"/>
+      <c r="I27" s="63"/>
+      <c r="J27" s="63"/>
+      <c r="K27" s="64"/>
     </row>
     <row r="28" spans="1:19" ht="21.75" customHeight="1">
-      <c r="A28" s="55" t="s">
+      <c r="A28" s="54" t="s">
         <v>88</v>
       </c>
-      <c r="B28" s="59" t="s">
+      <c r="B28" s="58" t="s">
         <v>89</v>
       </c>
-      <c r="C28" s="158" t="s">
+      <c r="C28" s="156" t="s">
         <v>90</v>
       </c>
-      <c r="D28" s="158"/>
-      <c r="E28" s="158" t="s">
+      <c r="D28" s="156"/>
+      <c r="E28" s="156" t="s">
         <v>91</v>
       </c>
-      <c r="F28" s="158"/>
-      <c r="G28" s="186" t="s">
+      <c r="F28" s="156"/>
+      <c r="G28" s="174" t="s">
         <v>92</v>
       </c>
-      <c r="H28" s="187"/>
-      <c r="I28" s="186" t="s">
+      <c r="H28" s="175"/>
+      <c r="I28" s="174" t="s">
         <v>93</v>
       </c>
-      <c r="J28" s="188"/>
-      <c r="K28" s="189"/>
+      <c r="J28" s="176"/>
+      <c r="K28" s="177"/>
     </row>
     <row r="29" spans="1:19" ht="21.75" customHeight="1">
       <c r="A29" s="26"/>
       <c r="B29" s="49"/>
-      <c r="C29" s="159"/>
-      <c r="D29" s="159"/>
-      <c r="E29" s="159"/>
-      <c r="F29" s="159"/>
-      <c r="G29" s="164"/>
-      <c r="H29" s="163"/>
-      <c r="I29" s="164"/>
-      <c r="J29" s="162"/>
-      <c r="K29" s="165"/>
+      <c r="C29" s="150"/>
+      <c r="D29" s="150"/>
+      <c r="E29" s="150"/>
+      <c r="F29" s="150"/>
+      <c r="G29" s="163"/>
+      <c r="H29" s="149"/>
+      <c r="I29" s="163"/>
+      <c r="J29" s="148"/>
+      <c r="K29" s="164"/>
     </row>
     <row r="30" spans="1:19" ht="21.75" customHeight="1" thickBot="1">
-      <c r="A30" s="58"/>
-      <c r="B30" s="57"/>
-      <c r="C30" s="195"/>
-      <c r="D30" s="195"/>
-      <c r="E30" s="195"/>
-      <c r="F30" s="195"/>
-      <c r="G30" s="196"/>
-      <c r="H30" s="197"/>
-      <c r="I30" s="196"/>
-      <c r="J30" s="198"/>
-      <c r="K30" s="175"/>
+      <c r="A30" s="57"/>
+      <c r="B30" s="56"/>
+      <c r="C30" s="169"/>
+      <c r="D30" s="169"/>
+      <c r="E30" s="169"/>
+      <c r="F30" s="169"/>
+      <c r="G30" s="170"/>
+      <c r="H30" s="171"/>
+      <c r="I30" s="170"/>
+      <c r="J30" s="172"/>
+      <c r="K30" s="173"/>
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="G18:K18"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="H23:I23"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="J19:K19"/>
     <mergeCell ref="J20:K20"/>
@@ -7575,40 +7770,15 @@
     <mergeCell ref="F20:G20"/>
     <mergeCell ref="F22:G22"/>
     <mergeCell ref="F21:G21"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="I29:K29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="G18:K18"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7619,8 +7789,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T111"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="E62" workbookViewId="0">
-      <selection activeCell="S27" sqref="S27"/>
+    <sheetView showGridLines="0" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28:J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7631,12 +7801,12 @@
   <sheetData>
     <row r="1" spans="1:9" ht="31.5" customHeight="1">
       <c r="A1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="29.25" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -7655,13 +7825,13 @@
       <c r="A5" s="45" t="s">
         <v>146</v>
       </c>
-      <c r="B5" s="164" t="s">
+      <c r="B5" s="163" t="s">
         <v>147</v>
       </c>
-      <c r="C5" s="162"/>
-      <c r="D5" s="163"/>
+      <c r="C5" s="148"/>
+      <c r="D5" s="149"/>
       <c r="E5" s="52" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F5" s="45" t="s">
         <v>117</v>
@@ -7671,18 +7841,18 @@
       </c>
       <c r="H5" s="45"/>
       <c r="I5" s="52" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="78.75" customHeight="1">
-      <c r="A6" s="66">
+      <c r="A6" s="65">
         <v>43136.354166666664</v>
       </c>
-      <c r="B6" s="205" t="s">
-        <v>235</v>
-      </c>
-      <c r="C6" s="206"/>
-      <c r="D6" s="207"/>
+      <c r="B6" s="229" t="s">
+        <v>234</v>
+      </c>
+      <c r="C6" s="230"/>
+      <c r="D6" s="231"/>
       <c r="E6" s="45">
         <v>400</v>
       </c>
@@ -7699,485 +7869,485 @@
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="66">
+      <c r="A7" s="65">
         <v>43137.354166608799</v>
       </c>
-      <c r="B7" s="205" t="s">
-        <v>289</v>
-      </c>
-      <c r="C7" s="206"/>
-      <c r="D7" s="207"/>
-      <c r="E7" s="125">
+      <c r="B7" s="229" t="s">
+        <v>288</v>
+      </c>
+      <c r="C7" s="230"/>
+      <c r="D7" s="231"/>
+      <c r="E7" s="118">
         <v>400</v>
       </c>
-      <c r="F7" s="125">
+      <c r="F7" s="118">
         <v>200</v>
       </c>
-      <c r="G7" s="125">
+      <c r="G7" s="118">
         <v>40</v>
       </c>
-      <c r="H7" s="125"/>
-      <c r="I7" s="125">
+      <c r="H7" s="118"/>
+      <c r="I7" s="118">
         <f t="shared" ref="I7:I8" si="0">E7-F7-G7</f>
         <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="30" customHeight="1">
-      <c r="A8" s="66">
+      <c r="A8" s="65">
         <v>43138.354166608799</v>
       </c>
-      <c r="B8" s="205" t="s">
-        <v>290</v>
-      </c>
-      <c r="C8" s="206"/>
-      <c r="D8" s="207"/>
-      <c r="E8" s="125">
+      <c r="B8" s="229" t="s">
+        <v>289</v>
+      </c>
+      <c r="C8" s="230"/>
+      <c r="D8" s="231"/>
+      <c r="E8" s="118">
         <v>400</v>
       </c>
-      <c r="F8" s="125">
+      <c r="F8" s="118">
         <v>200</v>
       </c>
-      <c r="G8" s="125">
+      <c r="G8" s="118">
         <v>40</v>
       </c>
-      <c r="H8" s="125"/>
-      <c r="I8" s="125">
+      <c r="H8" s="118"/>
+      <c r="I8" s="118">
         <f t="shared" si="0"/>
         <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="37.5" customHeight="1">
       <c r="A9" s="3" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="21" thickBot="1">
       <c r="A10" s="3"/>
     </row>
     <row r="11" spans="1:9" ht="27.75" customHeight="1">
-      <c r="A11" s="201" t="s">
+      <c r="A11" s="225" t="s">
         <v>159</v>
       </c>
-      <c r="B11" s="212" t="s">
+      <c r="B11" s="236" t="s">
         <v>125</v>
       </c>
-      <c r="C11" s="213"/>
-      <c r="D11" s="214"/>
-      <c r="E11" s="208" t="s">
-        <v>220</v>
-      </c>
-      <c r="F11" s="209"/>
-      <c r="G11" s="210" t="s">
-        <v>242</v>
-      </c>
-      <c r="H11" s="199" t="s">
-        <v>239</v>
-      </c>
-      <c r="I11" s="203" t="s">
-        <v>284</v>
+      <c r="C11" s="237"/>
+      <c r="D11" s="238"/>
+      <c r="E11" s="232" t="s">
+        <v>219</v>
+      </c>
+      <c r="F11" s="233"/>
+      <c r="G11" s="234" t="s">
+        <v>241</v>
+      </c>
+      <c r="H11" s="223" t="s">
+        <v>238</v>
+      </c>
+      <c r="I11" s="227" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="27.75" customHeight="1">
-      <c r="A12" s="202"/>
-      <c r="B12" s="133" t="s">
-        <v>325</v>
-      </c>
-      <c r="C12" s="134" t="s">
-        <v>326</v>
-      </c>
-      <c r="D12" s="135" t="s">
-        <v>327</v>
-      </c>
-      <c r="E12" s="128" t="s">
-        <v>202</v>
-      </c>
-      <c r="F12" s="145" t="s">
-        <v>236</v>
-      </c>
-      <c r="G12" s="211"/>
-      <c r="H12" s="200"/>
-      <c r="I12" s="204"/>
+      <c r="A12" s="226"/>
+      <c r="B12" s="126" t="s">
+        <v>321</v>
+      </c>
+      <c r="C12" s="127" t="s">
+        <v>322</v>
+      </c>
+      <c r="D12" s="128" t="s">
+        <v>323</v>
+      </c>
+      <c r="E12" s="121" t="s">
+        <v>201</v>
+      </c>
+      <c r="F12" s="138" t="s">
+        <v>235</v>
+      </c>
+      <c r="G12" s="235"/>
+      <c r="H12" s="224"/>
+      <c r="I12" s="228"/>
     </row>
     <row r="13" spans="1:9" ht="27.75" customHeight="1">
-      <c r="A13" s="75">
+      <c r="A13" s="71">
         <v>43101</v>
       </c>
-      <c r="B13" s="133">
+      <c r="B13" s="126">
         <v>10</v>
       </c>
-      <c r="C13" s="134">
+      <c r="C13" s="127">
         <v>200</v>
       </c>
-      <c r="D13" s="135">
+      <c r="D13" s="128">
         <v>200</v>
       </c>
-      <c r="E13" s="128">
+      <c r="E13" s="121">
         <v>200</v>
       </c>
-      <c r="F13" s="146">
+      <c r="F13" s="139">
         <v>200</v>
       </c>
-      <c r="G13" s="129">
+      <c r="G13" s="122">
         <v>30</v>
       </c>
-      <c r="H13" s="142">
+      <c r="H13" s="135">
         <v>30</v>
       </c>
-      <c r="I13" s="139">
+      <c r="I13" s="132">
         <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="27.75" customHeight="1">
-      <c r="A14" s="75">
+      <c r="A14" s="71">
         <v>43102</v>
       </c>
-      <c r="B14" s="133">
+      <c r="B14" s="126">
         <v>10</v>
       </c>
-      <c r="C14" s="134">
+      <c r="C14" s="127">
         <v>200</v>
       </c>
-      <c r="D14" s="135">
+      <c r="D14" s="128">
         <v>200</v>
       </c>
-      <c r="E14" s="128">
+      <c r="E14" s="121">
         <v>200</v>
       </c>
-      <c r="F14" s="146">
+      <c r="F14" s="139">
         <v>200</v>
       </c>
-      <c r="G14" s="129">
+      <c r="G14" s="122">
         <v>30</v>
       </c>
-      <c r="H14" s="142">
+      <c r="H14" s="135">
         <v>30</v>
       </c>
-      <c r="I14" s="139">
+      <c r="I14" s="132">
         <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="27.75" customHeight="1">
-      <c r="A15" s="75">
+      <c r="A15" s="71">
         <v>43103</v>
       </c>
-      <c r="B15" s="133">
+      <c r="B15" s="126">
         <v>10</v>
       </c>
-      <c r="C15" s="134">
+      <c r="C15" s="127">
         <v>200</v>
       </c>
-      <c r="D15" s="135">
+      <c r="D15" s="128">
         <v>200</v>
       </c>
-      <c r="E15" s="128">
+      <c r="E15" s="121">
         <v>200</v>
       </c>
-      <c r="F15" s="146">
+      <c r="F15" s="139">
         <v>200</v>
       </c>
-      <c r="G15" s="129">
+      <c r="G15" s="122">
         <v>30</v>
       </c>
-      <c r="H15" s="142">
+      <c r="H15" s="135">
         <v>30</v>
       </c>
-      <c r="I15" s="139">
+      <c r="I15" s="132">
         <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="27.75" customHeight="1">
-      <c r="A16" s="75">
+      <c r="A16" s="71">
         <v>43104</v>
       </c>
-      <c r="B16" s="133">
+      <c r="B16" s="126">
         <v>10</v>
       </c>
-      <c r="C16" s="134">
+      <c r="C16" s="127">
         <v>200</v>
       </c>
-      <c r="D16" s="135">
+      <c r="D16" s="128">
         <v>200</v>
       </c>
-      <c r="E16" s="128">
+      <c r="E16" s="121">
         <v>200</v>
       </c>
-      <c r="F16" s="146">
+      <c r="F16" s="139">
         <v>200</v>
       </c>
-      <c r="G16" s="129">
+      <c r="G16" s="122">
         <v>30</v>
       </c>
-      <c r="H16" s="142">
+      <c r="H16" s="135">
         <v>30</v>
       </c>
-      <c r="I16" s="139">
+      <c r="I16" s="132">
         <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:20" ht="27.75" customHeight="1">
-      <c r="A17" s="76" t="s">
+      <c r="A17" s="72" t="s">
         <v>160</v>
       </c>
-      <c r="B17" s="136" t="s">
+      <c r="B17" s="129" t="s">
         <v>160</v>
       </c>
-      <c r="C17" s="137" t="s">
+      <c r="C17" s="130" t="s">
         <v>160</v>
       </c>
-      <c r="D17" s="138" t="s">
+      <c r="D17" s="131" t="s">
         <v>160</v>
       </c>
-      <c r="E17" s="130" t="s">
+      <c r="E17" s="123" t="s">
         <v>160</v>
       </c>
-      <c r="F17" s="147" t="s">
+      <c r="F17" s="140" t="s">
         <v>160</v>
       </c>
-      <c r="G17" s="131" t="s">
+      <c r="G17" s="124" t="s">
         <v>160</v>
       </c>
-      <c r="H17" s="143" t="s">
+      <c r="H17" s="136" t="s">
         <v>160</v>
       </c>
-      <c r="I17" s="140" t="s">
+      <c r="I17" s="133" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="18" spans="1:20" ht="27.75" customHeight="1">
-      <c r="A18" s="76">
+      <c r="A18" s="72">
         <v>43131</v>
       </c>
-      <c r="B18" s="133">
+      <c r="B18" s="126">
         <v>10</v>
       </c>
-      <c r="C18" s="134">
+      <c r="C18" s="127">
         <v>200</v>
       </c>
-      <c r="D18" s="135">
+      <c r="D18" s="128">
         <v>200</v>
       </c>
-      <c r="E18" s="128">
+      <c r="E18" s="121">
         <v>200</v>
       </c>
-      <c r="F18" s="146">
+      <c r="F18" s="139">
         <v>200</v>
       </c>
-      <c r="G18" s="129">
+      <c r="G18" s="122">
         <v>30</v>
       </c>
-      <c r="H18" s="142">
+      <c r="H18" s="135">
         <v>30</v>
       </c>
-      <c r="I18" s="139">
+      <c r="I18" s="132">
         <v>90</v>
       </c>
     </row>
     <row r="19" spans="1:20" ht="27.75" customHeight="1">
-      <c r="A19" s="77" t="s">
-        <v>207</v>
-      </c>
-      <c r="B19" s="133">
+      <c r="A19" s="73" t="s">
+        <v>206</v>
+      </c>
+      <c r="B19" s="126">
         <v>50</v>
       </c>
-      <c r="C19" s="134">
+      <c r="C19" s="127">
         <v>1000</v>
       </c>
-      <c r="D19" s="135">
+      <c r="D19" s="128">
         <v>200</v>
       </c>
-      <c r="E19" s="128">
+      <c r="E19" s="121">
         <v>200</v>
       </c>
-      <c r="F19" s="146">
+      <c r="F19" s="139">
         <v>1000</v>
       </c>
-      <c r="G19" s="129">
+      <c r="G19" s="122">
         <v>150</v>
       </c>
-      <c r="H19" s="142">
+      <c r="H19" s="135">
         <v>150</v>
       </c>
-      <c r="I19" s="139">
+      <c r="I19" s="132">
         <v>90</v>
       </c>
     </row>
     <row r="20" spans="1:20" ht="27.75" customHeight="1" thickBot="1">
-      <c r="A20" s="78" t="s">
+      <c r="A20" s="74" t="s">
         <v>132</v>
       </c>
-      <c r="B20" s="215" t="s">
-        <v>324</v>
-      </c>
-      <c r="C20" s="216"/>
-      <c r="D20" s="217"/>
-      <c r="E20" s="218" t="s">
-        <v>323</v>
-      </c>
-      <c r="F20" s="219"/>
-      <c r="G20" s="132">
+      <c r="B20" s="218" t="s">
+        <v>320</v>
+      </c>
+      <c r="C20" s="219"/>
+      <c r="D20" s="220"/>
+      <c r="E20" s="221" t="s">
+        <v>319</v>
+      </c>
+      <c r="F20" s="222"/>
+      <c r="G20" s="125">
         <v>2888</v>
       </c>
-      <c r="H20" s="144">
+      <c r="H20" s="137">
         <v>2888</v>
       </c>
-      <c r="I20" s="141">
+      <c r="I20" s="134">
         <v>90</v>
       </c>
     </row>
     <row r="22" spans="1:20" ht="30" customHeight="1"/>
     <row r="23" spans="1:20" ht="44.25" customHeight="1">
       <c r="A23" s="3" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="24" spans="1:20" ht="25.5" customHeight="1">
-      <c r="A24" s="176" t="s">
-        <v>214</v>
-      </c>
-      <c r="B24" s="177"/>
-      <c r="C24" s="177" t="s">
-        <v>245</v>
-      </c>
-      <c r="D24" s="177"/>
-      <c r="E24" s="177"/>
-      <c r="F24" s="177"/>
-      <c r="G24" s="177"/>
-      <c r="H24" s="110"/>
-      <c r="I24" s="220" t="s">
-        <v>216</v>
-      </c>
-      <c r="J24" s="220"/>
-      <c r="K24" s="181" t="s">
+      <c r="A24" s="190" t="s">
+        <v>213</v>
+      </c>
+      <c r="B24" s="186"/>
+      <c r="C24" s="186" t="s">
         <v>244</v>
       </c>
-      <c r="L24" s="182"/>
+      <c r="D24" s="186"/>
+      <c r="E24" s="186"/>
+      <c r="F24" s="186"/>
+      <c r="G24" s="186"/>
+      <c r="H24" s="104"/>
+      <c r="I24" s="203" t="s">
+        <v>215</v>
+      </c>
+      <c r="J24" s="203"/>
+      <c r="K24" s="184" t="s">
+        <v>243</v>
+      </c>
+      <c r="L24" s="185"/>
       <c r="O24" s="3" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
     </row>
     <row r="25" spans="1:20" ht="29.25" customHeight="1">
-      <c r="A25" s="184" t="s">
+      <c r="A25" s="168" t="s">
+        <v>222</v>
+      </c>
+      <c r="B25" s="166"/>
+      <c r="C25" s="167" t="s">
+        <v>220</v>
+      </c>
+      <c r="D25" s="168"/>
+      <c r="E25" s="168"/>
+      <c r="F25" s="166"/>
+      <c r="G25" s="167" t="s">
+        <v>221</v>
+      </c>
+      <c r="H25" s="167"/>
+      <c r="I25" s="168"/>
+      <c r="J25" s="168"/>
+      <c r="K25" s="168"/>
+      <c r="L25" s="168"/>
+      <c r="O25" s="197" t="s">
+        <v>203</v>
+      </c>
+      <c r="P25" s="197"/>
+      <c r="Q25" s="197"/>
+      <c r="R25" s="197"/>
+      <c r="S25" s="197"/>
+      <c r="T25" s="197"/>
+    </row>
+    <row r="26" spans="1:20" ht="29.25" customHeight="1">
+      <c r="A26" s="214" t="s">
+        <v>76</v>
+      </c>
+      <c r="B26" s="215"/>
+      <c r="C26" s="216" t="s">
+        <v>225</v>
+      </c>
+      <c r="D26" s="217"/>
+      <c r="E26" s="201" t="s">
+        <v>218</v>
+      </c>
+      <c r="F26" s="199"/>
+      <c r="G26" s="199" t="s">
+        <v>217</v>
+      </c>
+      <c r="H26" s="200"/>
+      <c r="I26" s="216" t="s">
+        <v>219</v>
+      </c>
+      <c r="J26" s="215"/>
+      <c r="K26" s="216" t="s">
         <v>223</v>
       </c>
-      <c r="B25" s="185"/>
-      <c r="C25" s="183" t="s">
-        <v>221</v>
-      </c>
-      <c r="D25" s="184"/>
-      <c r="E25" s="184"/>
-      <c r="F25" s="185"/>
-      <c r="G25" s="183" t="s">
-        <v>222</v>
-      </c>
-      <c r="H25" s="183"/>
-      <c r="I25" s="184"/>
-      <c r="J25" s="184"/>
-      <c r="K25" s="184"/>
-      <c r="L25" s="184"/>
-      <c r="O25" s="236" t="s">
-        <v>204</v>
-      </c>
-      <c r="P25" s="236"/>
-      <c r="Q25" s="236"/>
-      <c r="R25" s="236"/>
-      <c r="S25" s="236"/>
-      <c r="T25" s="236"/>
-    </row>
-    <row r="26" spans="1:20" ht="29.25" customHeight="1">
-      <c r="A26" s="221" t="s">
-        <v>76</v>
-      </c>
-      <c r="B26" s="222"/>
-      <c r="C26" s="223" t="s">
-        <v>226</v>
-      </c>
-      <c r="D26" s="224"/>
-      <c r="E26" s="240" t="s">
-        <v>219</v>
-      </c>
-      <c r="F26" s="238"/>
-      <c r="G26" s="238" t="s">
-        <v>218</v>
-      </c>
-      <c r="H26" s="239"/>
-      <c r="I26" s="223" t="s">
-        <v>220</v>
-      </c>
-      <c r="J26" s="222"/>
-      <c r="K26" s="223" t="s">
-        <v>224</v>
-      </c>
-      <c r="L26" s="222"/>
-      <c r="O26" s="59" t="s">
+      <c r="L26" s="215"/>
+      <c r="O26" s="58" t="s">
         <v>146</v>
       </c>
       <c r="P26" s="46" t="s">
         <v>163</v>
       </c>
-      <c r="Q26" s="59" t="s">
+      <c r="Q26" s="58" t="s">
         <v>164</v>
       </c>
-      <c r="R26" s="59" t="s">
+      <c r="R26" s="58" t="s">
         <v>165</v>
       </c>
-      <c r="S26" s="59" t="s">
+      <c r="S26" s="58" t="s">
         <v>166</v>
       </c>
-      <c r="T26" s="59" t="s">
+      <c r="T26" s="58" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:20" ht="29.25" customHeight="1">
-      <c r="A27" s="185" t="s">
-        <v>227</v>
-      </c>
-      <c r="B27" s="163"/>
-      <c r="C27" s="185" t="s">
-        <v>229</v>
-      </c>
-      <c r="D27" s="162"/>
-      <c r="E27" s="229"/>
-      <c r="F27" s="229"/>
-      <c r="G27" s="229"/>
-      <c r="H27" s="229"/>
-      <c r="I27" s="225" t="s">
-        <v>243</v>
-      </c>
-      <c r="J27" s="226"/>
-      <c r="K27" s="185" t="s">
-        <v>225</v>
-      </c>
-      <c r="L27" s="163"/>
+      <c r="A27" s="166" t="s">
+        <v>226</v>
+      </c>
+      <c r="B27" s="149"/>
+      <c r="C27" s="166" t="s">
+        <v>228</v>
+      </c>
+      <c r="D27" s="148"/>
+      <c r="E27" s="202"/>
+      <c r="F27" s="202"/>
+      <c r="G27" s="202"/>
+      <c r="H27" s="202"/>
+      <c r="I27" s="210" t="s">
+        <v>242</v>
+      </c>
+      <c r="J27" s="211"/>
+      <c r="K27" s="166" t="s">
+        <v>224</v>
+      </c>
+      <c r="L27" s="149"/>
       <c r="O27" s="49"/>
       <c r="P27" s="49"/>
       <c r="Q27" s="49"/>
       <c r="R27" s="49"/>
-      <c r="S27" s="153" t="s">
-        <v>347</v>
+      <c r="S27" s="146" t="s">
+        <v>343</v>
       </c>
       <c r="T27" s="49"/>
     </row>
     <row r="28" spans="1:20" ht="29.25" customHeight="1">
-      <c r="A28" s="185" t="s">
-        <v>227</v>
-      </c>
-      <c r="B28" s="163"/>
-      <c r="C28" s="185" t="s">
-        <v>230</v>
-      </c>
-      <c r="D28" s="162"/>
-      <c r="E28" s="229"/>
-      <c r="F28" s="229"/>
-      <c r="G28" s="229"/>
-      <c r="H28" s="229"/>
-      <c r="I28" s="227" t="s">
-        <v>272</v>
-      </c>
-      <c r="J28" s="228"/>
-      <c r="K28" s="185" t="s">
-        <v>225</v>
-      </c>
-      <c r="L28" s="163"/>
+      <c r="A28" s="166" t="s">
+        <v>226</v>
+      </c>
+      <c r="B28" s="149"/>
+      <c r="C28" s="166" t="s">
+        <v>229</v>
+      </c>
+      <c r="D28" s="148"/>
+      <c r="E28" s="202"/>
+      <c r="F28" s="202"/>
+      <c r="G28" s="202"/>
+      <c r="H28" s="202"/>
+      <c r="I28" s="212" t="s">
+        <v>271</v>
+      </c>
+      <c r="J28" s="213"/>
+      <c r="K28" s="166" t="s">
+        <v>224</v>
+      </c>
+      <c r="L28" s="149"/>
       <c r="O28" s="49"/>
       <c r="P28" s="49"/>
       <c r="Q28" s="49"/>
@@ -8186,204 +8356,204 @@
       <c r="T28" s="49"/>
     </row>
     <row r="29" spans="1:20" ht="29.25" customHeight="1">
-      <c r="A29" s="185" t="s">
-        <v>227</v>
-      </c>
-      <c r="B29" s="163"/>
-      <c r="C29" s="185" t="s">
+      <c r="A29" s="166" t="s">
+        <v>226</v>
+      </c>
+      <c r="B29" s="149"/>
+      <c r="C29" s="166" t="s">
+        <v>230</v>
+      </c>
+      <c r="D29" s="148"/>
+      <c r="E29" s="202"/>
+      <c r="F29" s="202"/>
+      <c r="G29" s="202"/>
+      <c r="H29" s="202"/>
+      <c r="I29" s="148"/>
+      <c r="J29" s="149"/>
+      <c r="K29" s="166" t="s">
+        <v>224</v>
+      </c>
+      <c r="L29" s="149"/>
+    </row>
+    <row r="30" spans="1:20" ht="29.25" customHeight="1">
+      <c r="A30" s="166" t="s">
+        <v>226</v>
+      </c>
+      <c r="B30" s="149"/>
+      <c r="C30" s="166" t="s">
         <v>231</v>
       </c>
-      <c r="D29" s="162"/>
-      <c r="E29" s="229"/>
-      <c r="F29" s="229"/>
-      <c r="G29" s="229"/>
-      <c r="H29" s="229"/>
-      <c r="I29" s="162"/>
-      <c r="J29" s="163"/>
-      <c r="K29" s="185" t="s">
-        <v>225</v>
-      </c>
-      <c r="L29" s="163"/>
-    </row>
-    <row r="30" spans="1:20" ht="29.25" customHeight="1">
-      <c r="A30" s="185" t="s">
-        <v>227</v>
-      </c>
-      <c r="B30" s="163"/>
-      <c r="C30" s="185" t="s">
-        <v>232</v>
-      </c>
-      <c r="D30" s="162"/>
-      <c r="E30" s="229"/>
-      <c r="F30" s="229"/>
-      <c r="G30" s="229"/>
-      <c r="H30" s="229"/>
-      <c r="I30" s="162"/>
-      <c r="J30" s="163"/>
-      <c r="K30" s="185" t="s">
-        <v>225</v>
-      </c>
-      <c r="L30" s="163"/>
+      <c r="D30" s="148"/>
+      <c r="E30" s="202"/>
+      <c r="F30" s="202"/>
+      <c r="G30" s="202"/>
+      <c r="H30" s="202"/>
+      <c r="I30" s="148"/>
+      <c r="J30" s="149"/>
+      <c r="K30" s="166" t="s">
+        <v>224</v>
+      </c>
+      <c r="L30" s="149"/>
     </row>
     <row r="31" spans="1:20" ht="29.25" customHeight="1"/>
     <row r="32" spans="1:20" ht="29.25" customHeight="1">
-      <c r="A32" s="176" t="s">
-        <v>214</v>
-      </c>
-      <c r="B32" s="177"/>
-      <c r="C32" s="177" t="s">
+      <c r="A32" s="190" t="s">
+        <v>213</v>
+      </c>
+      <c r="B32" s="186"/>
+      <c r="C32" s="186" t="s">
+        <v>244</v>
+      </c>
+      <c r="D32" s="186"/>
+      <c r="E32" s="186"/>
+      <c r="F32" s="186"/>
+      <c r="G32" s="186"/>
+      <c r="H32" s="104"/>
+      <c r="I32" s="184" t="s">
+        <v>215</v>
+      </c>
+      <c r="J32" s="184"/>
+      <c r="K32" s="203" t="s">
+        <v>243</v>
+      </c>
+      <c r="L32" s="203"/>
+    </row>
+    <row r="33" spans="1:12" ht="29.25" customHeight="1">
+      <c r="A33" s="168" t="s">
         <v>245</v>
       </c>
-      <c r="D32" s="177"/>
-      <c r="E32" s="177"/>
-      <c r="F32" s="177"/>
-      <c r="G32" s="177"/>
-      <c r="H32" s="110"/>
-      <c r="I32" s="181" t="s">
-        <v>216</v>
-      </c>
-      <c r="J32" s="181"/>
-      <c r="K32" s="220" t="s">
-        <v>244</v>
-      </c>
-      <c r="L32" s="220"/>
-    </row>
-    <row r="33" spans="1:12" ht="29.25" customHeight="1">
-      <c r="A33" s="184" t="s">
+      <c r="B33" s="166"/>
+      <c r="C33" s="198"/>
+      <c r="D33" s="198"/>
+      <c r="E33" s="198" t="s">
+        <v>269</v>
+      </c>
+      <c r="F33" s="198"/>
+      <c r="G33" s="198"/>
+      <c r="H33" s="66"/>
+      <c r="I33" s="198" t="s">
+        <v>265</v>
+      </c>
+      <c r="J33" s="198"/>
+      <c r="K33" s="198"/>
+      <c r="L33" s="167"/>
+    </row>
+    <row r="34" spans="1:12" ht="29.25" customHeight="1">
+      <c r="A34" s="81" t="s">
         <v>246</v>
       </c>
-      <c r="B33" s="185"/>
-      <c r="C33" s="237"/>
-      <c r="D33" s="237"/>
-      <c r="E33" s="237" t="s">
-        <v>270</v>
-      </c>
-      <c r="F33" s="237"/>
-      <c r="G33" s="237"/>
-      <c r="H33" s="67"/>
-      <c r="I33" s="237" t="s">
-        <v>266</v>
-      </c>
-      <c r="J33" s="237"/>
-      <c r="K33" s="237"/>
-      <c r="L33" s="183"/>
-    </row>
-    <row r="34" spans="1:12" ht="29.25" customHeight="1">
-      <c r="A34" s="87" t="s">
+      <c r="B34" s="83" t="s">
         <v>247</v>
       </c>
-      <c r="B34" s="89" t="s">
+      <c r="C34" s="204" t="s">
         <v>248</v>
       </c>
-      <c r="C34" s="230" t="s">
+      <c r="D34" s="205"/>
+      <c r="E34" s="204" t="s">
         <v>249</v>
       </c>
-      <c r="D34" s="231"/>
-      <c r="E34" s="230" t="s">
-        <v>250</v>
-      </c>
-      <c r="F34" s="231"/>
-      <c r="G34" s="232" t="s">
-        <v>236</v>
-      </c>
-      <c r="H34" s="233"/>
-      <c r="I34" s="234"/>
-      <c r="J34" s="232" t="s">
-        <v>224</v>
-      </c>
-      <c r="K34" s="235"/>
-      <c r="L34" s="234"/>
+      <c r="F34" s="205"/>
+      <c r="G34" s="206" t="s">
+        <v>235</v>
+      </c>
+      <c r="H34" s="207"/>
+      <c r="I34" s="208"/>
+      <c r="J34" s="206" t="s">
+        <v>223</v>
+      </c>
+      <c r="K34" s="209"/>
+      <c r="L34" s="208"/>
     </row>
     <row r="35" spans="1:12" ht="29.25" customHeight="1">
       <c r="A35" s="49"/>
       <c r="B35" s="49"/>
-      <c r="C35" s="159"/>
-      <c r="D35" s="159"/>
-      <c r="E35" s="159"/>
-      <c r="F35" s="159"/>
-      <c r="G35" s="164"/>
-      <c r="H35" s="162"/>
-      <c r="I35" s="163"/>
-      <c r="J35" s="164"/>
-      <c r="K35" s="162"/>
-      <c r="L35" s="163"/>
+      <c r="C35" s="150"/>
+      <c r="D35" s="150"/>
+      <c r="E35" s="150"/>
+      <c r="F35" s="150"/>
+      <c r="G35" s="163"/>
+      <c r="H35" s="148"/>
+      <c r="I35" s="149"/>
+      <c r="J35" s="163"/>
+      <c r="K35" s="148"/>
+      <c r="L35" s="149"/>
     </row>
     <row r="36" spans="1:12" ht="29.25" customHeight="1">
       <c r="A36" s="49"/>
       <c r="B36" s="49"/>
-      <c r="C36" s="159"/>
-      <c r="D36" s="159"/>
-      <c r="E36" s="159"/>
-      <c r="F36" s="159"/>
-      <c r="G36" s="164"/>
-      <c r="H36" s="162"/>
-      <c r="I36" s="163"/>
-      <c r="J36" s="164"/>
-      <c r="K36" s="162"/>
-      <c r="L36" s="163"/>
+      <c r="C36" s="150"/>
+      <c r="D36" s="150"/>
+      <c r="E36" s="150"/>
+      <c r="F36" s="150"/>
+      <c r="G36" s="163"/>
+      <c r="H36" s="148"/>
+      <c r="I36" s="149"/>
+      <c r="J36" s="163"/>
+      <c r="K36" s="148"/>
+      <c r="L36" s="149"/>
     </row>
     <row r="38" spans="1:12" ht="47.25" customHeight="1"/>
     <row r="39" spans="1:12" ht="45" customHeight="1">
       <c r="A39" s="3" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="43.5" customHeight="1">
-      <c r="A40" s="115">
+      <c r="A40" s="108">
         <v>6</v>
       </c>
-      <c r="B40" s="116" t="s">
+      <c r="B40" s="109" t="s">
+        <v>279</v>
+      </c>
+      <c r="C40" s="109" t="s">
         <v>280</v>
       </c>
-      <c r="C40" s="116" t="s">
+      <c r="D40" s="109" t="s">
         <v>281</v>
       </c>
-      <c r="D40" s="116" t="s">
-        <v>282</v>
-      </c>
-      <c r="E40" s="243" t="s">
-        <v>344</v>
-      </c>
-      <c r="F40" s="244"/>
+      <c r="E40" s="195" t="s">
+        <v>340</v>
+      </c>
+      <c r="F40" s="196"/>
       <c r="G40" s="34"/>
       <c r="H40" s="34"/>
       <c r="I40" s="11"/>
     </row>
     <row r="41" spans="1:12" ht="39" customHeight="1">
       <c r="A41" s="50" t="s">
+        <v>276</v>
+      </c>
+      <c r="D41" s="50" t="s">
         <v>277</v>
       </c>
-      <c r="D41" s="50" t="s">
-        <v>278</v>
-      </c>
       <c r="G41" s="50"/>
     </row>
     <row r="42" spans="1:12" ht="44.25" customHeight="1">
-      <c r="A42" s="88" t="s">
-        <v>171</v>
-      </c>
-      <c r="B42" s="88" t="s">
+      <c r="A42" s="82" t="s">
+        <v>170</v>
+      </c>
+      <c r="B42" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="C42" s="88" t="s">
+      <c r="C42" s="82" t="s">
         <v>100</v>
       </c>
-      <c r="D42" s="88" t="s">
+      <c r="D42" s="82" t="s">
         <v>101</v>
       </c>
-      <c r="E42" s="117" t="s">
+      <c r="E42" s="110" t="s">
         <v>102</v>
       </c>
-      <c r="F42" s="119" t="s">
+      <c r="F42" s="112" t="s">
         <v>103</v>
       </c>
-      <c r="G42" s="118"/>
-      <c r="H42" s="118"/>
-      <c r="I42" s="118"/>
+      <c r="G42" s="111"/>
+      <c r="H42" s="111"/>
+      <c r="I42" s="111"/>
     </row>
     <row r="43" spans="1:12" ht="44.25" customHeight="1">
       <c r="A43" s="45" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B43" s="45">
         <v>83</v>
@@ -8397,16 +8567,16 @@
       <c r="E43" s="47">
         <v>8</v>
       </c>
-      <c r="F43" s="120">
+      <c r="F43" s="113">
         <v>0</v>
       </c>
-      <c r="G43" s="113"/>
-      <c r="H43" s="113"/>
-      <c r="I43" s="113"/>
+      <c r="G43" s="106"/>
+      <c r="H43" s="106"/>
+      <c r="I43" s="106"/>
     </row>
     <row r="44" spans="1:12" ht="44.25" customHeight="1">
       <c r="A44" s="45" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B44" s="45">
         <v>88</v>
@@ -8420,16 +8590,16 @@
       <c r="E44" s="47">
         <v>3</v>
       </c>
-      <c r="F44" s="120">
+      <c r="F44" s="113">
         <v>0</v>
       </c>
-      <c r="G44" s="113"/>
-      <c r="H44" s="113"/>
-      <c r="I44" s="113"/>
+      <c r="G44" s="106"/>
+      <c r="H44" s="106"/>
+      <c r="I44" s="106"/>
     </row>
     <row r="45" spans="1:12" ht="44.25" customHeight="1">
       <c r="A45" s="45" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B45" s="45">
         <v>100</v>
@@ -8443,19 +8613,19 @@
       <c r="E45" s="47">
         <v>86</v>
       </c>
-      <c r="F45" s="120">
+      <c r="F45" s="113">
         <v>0</v>
       </c>
-      <c r="G45" s="113"/>
-      <c r="H45" s="113"/>
-      <c r="I45" s="113"/>
+      <c r="G45" s="106"/>
+      <c r="H45" s="106"/>
+      <c r="I45" s="106"/>
     </row>
     <row r="46" spans="1:12" ht="44.25" customHeight="1">
       <c r="A46" s="52" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B46" s="52" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C46" s="45">
         <f t="shared" ref="C46:E46" si="1">SUM(C43:C45)</f>
@@ -8469,59 +8639,59 @@
         <f t="shared" si="1"/>
         <v>97</v>
       </c>
-      <c r="F46" s="120">
+      <c r="F46" s="113">
         <v>0</v>
       </c>
-      <c r="G46" s="113"/>
-      <c r="H46" s="113"/>
-      <c r="I46" s="113"/>
+      <c r="G46" s="106"/>
+      <c r="H46" s="106"/>
+      <c r="I46" s="106"/>
     </row>
     <row r="48" spans="1:12" ht="76.5" customHeight="1"/>
     <row r="49" spans="1:8" ht="30" customHeight="1">
       <c r="A49" s="3" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="27" customHeight="1">
       <c r="A53" s="50" t="s">
+        <v>254</v>
+      </c>
+      <c r="C53" s="50" t="s">
         <v>255</v>
       </c>
-      <c r="C53" s="50" t="s">
+      <c r="E53" s="50" t="s">
         <v>256</v>
       </c>
-      <c r="E53" s="50" t="s">
+      <c r="G53" s="50" t="s">
         <v>257</v>
       </c>
-      <c r="G53" s="50" t="s">
-        <v>258</v>
-      </c>
       <c r="H53" s="50"/>
     </row>
     <row r="55" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A55" s="68" t="s">
+      <c r="A55" s="67" t="s">
+        <v>176</v>
+      </c>
+      <c r="B55" s="67" t="s">
         <v>177</v>
       </c>
-      <c r="B55" s="68" t="s">
+      <c r="C55" s="67" t="s">
         <v>178</v>
       </c>
-      <c r="C55" s="68" t="s">
-        <v>179</v>
-      </c>
-      <c r="E55" s="68" t="s">
+      <c r="E55" s="67" t="s">
+        <v>176</v>
+      </c>
+      <c r="F55" s="67" t="s">
         <v>177</v>
       </c>
-      <c r="F55" s="68" t="s">
+      <c r="G55" s="67" t="s">
         <v>178</v>
       </c>
-      <c r="G55" s="68" t="s">
-        <v>179</v>
-      </c>
-      <c r="H55" s="113"/>
+      <c r="H55" s="106"/>
     </row>
     <row r="56" spans="1:8" ht="19.5" customHeight="1">
       <c r="A56" s="45" t="s">
@@ -8529,11 +8699,11 @@
       </c>
       <c r="B56" s="49"/>
       <c r="C56" s="49"/>
-      <c r="D56" s="56" t="s">
-        <v>259</v>
+      <c r="D56" s="55" t="s">
+        <v>258</v>
       </c>
       <c r="E56" s="52" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F56" s="49"/>
       <c r="G56" s="49"/>
@@ -8541,12 +8711,12 @@
     </row>
     <row r="57" spans="1:8" ht="19.5" customHeight="1">
       <c r="A57" s="45" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B57" s="49"/>
       <c r="C57" s="49"/>
       <c r="E57" s="52" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F57" s="49"/>
       <c r="G57" s="49"/>
@@ -8567,15 +8737,15 @@
     </row>
     <row r="63" spans="1:8" ht="20.25">
       <c r="A63" s="3" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="22.5">
       <c r="A64" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="F64" s="31" t="s">
         <v>181</v>
-      </c>
-      <c r="F64" s="31" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="66" spans="6:6">
@@ -8583,12 +8753,12 @@
     </row>
     <row r="86" spans="1:8">
       <c r="A86" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="88" spans="1:8" ht="18.75">
-      <c r="A88" s="150" t="s">
-        <v>338</v>
+      <c r="A88" s="143" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="89" spans="1:8" ht="26.25" customHeight="1">
@@ -8596,10 +8766,10 @@
         <v>107</v>
       </c>
       <c r="C89" s="45" t="s">
+        <v>184</v>
+      </c>
+      <c r="D89" s="45" t="s">
         <v>185</v>
-      </c>
-      <c r="D89" s="45" t="s">
-        <v>186</v>
       </c>
       <c r="E89" s="45" t="s">
         <v>17</v>
@@ -8608,144 +8778,144 @@
     <row r="90" spans="1:8" ht="26.25" customHeight="1">
       <c r="B90" s="45"/>
       <c r="C90" s="45" t="s">
+        <v>186</v>
+      </c>
+      <c r="D90" s="45" t="s">
         <v>187</v>
-      </c>
-      <c r="D90" s="45" t="s">
-        <v>188</v>
       </c>
       <c r="E90" s="45"/>
     </row>
     <row r="91" spans="1:8" ht="32.25" customHeight="1">
       <c r="A91" s="3" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
     <row r="92" spans="1:8">
-      <c r="B92" s="159" t="s">
-        <v>190</v>
+      <c r="B92" s="150" t="s">
+        <v>189</v>
       </c>
       <c r="C92" s="49" t="s">
         <v>113</v>
       </c>
       <c r="D92" s="49"/>
-      <c r="E92" s="104" t="s">
-        <v>191</v>
-      </c>
-      <c r="F92" s="241" t="s">
-        <v>260</v>
-      </c>
-      <c r="G92" s="242"/>
-      <c r="H92" s="112"/>
+      <c r="E92" s="98" t="s">
+        <v>190</v>
+      </c>
+      <c r="F92" s="193" t="s">
+        <v>259</v>
+      </c>
+      <c r="G92" s="194"/>
+      <c r="H92" s="105"/>
     </row>
     <row r="93" spans="1:8">
-      <c r="B93" s="159"/>
+      <c r="B93" s="150"/>
       <c r="C93" s="49" t="s">
         <v>127</v>
       </c>
       <c r="D93" s="49"/>
-      <c r="E93" s="104" t="s">
+      <c r="E93" s="98" t="s">
+        <v>190</v>
+      </c>
+      <c r="F93" s="194"/>
+      <c r="G93" s="194"/>
+      <c r="H93" s="105"/>
+    </row>
+    <row r="94" spans="1:8">
+      <c r="B94" s="150" t="s">
         <v>191</v>
-      </c>
-      <c r="F93" s="242"/>
-      <c r="G93" s="242"/>
-      <c r="H93" s="112"/>
-    </row>
-    <row r="94" spans="1:8">
-      <c r="B94" s="159" t="s">
-        <v>192</v>
       </c>
       <c r="C94" s="49" t="s">
         <v>117</v>
       </c>
       <c r="D94" s="49"/>
-      <c r="E94" s="104" t="s">
-        <v>191</v>
-      </c>
-      <c r="F94" s="242"/>
-      <c r="G94" s="242"/>
-      <c r="H94" s="112"/>
+      <c r="E94" s="98" t="s">
+        <v>190</v>
+      </c>
+      <c r="F94" s="194"/>
+      <c r="G94" s="194"/>
+      <c r="H94" s="105"/>
     </row>
     <row r="95" spans="1:8">
-      <c r="B95" s="159"/>
+      <c r="B95" s="150"/>
       <c r="C95" s="49" t="s">
         <v>16</v>
       </c>
       <c r="D95" s="49"/>
-      <c r="E95" s="104" t="s">
-        <v>191</v>
-      </c>
-      <c r="F95" s="242"/>
-      <c r="G95" s="242"/>
-      <c r="H95" s="112"/>
+      <c r="E95" s="98" t="s">
+        <v>190</v>
+      </c>
+      <c r="F95" s="194"/>
+      <c r="G95" s="194"/>
+      <c r="H95" s="105"/>
     </row>
     <row r="96" spans="1:8">
-      <c r="B96" s="159"/>
+      <c r="B96" s="150"/>
       <c r="C96" s="49" t="s">
         <v>115</v>
       </c>
       <c r="D96" s="49"/>
-      <c r="E96" s="104" t="s">
-        <v>191</v>
-      </c>
-      <c r="F96" s="242"/>
-      <c r="G96" s="242"/>
-      <c r="H96" s="112"/>
+      <c r="E96" s="98" t="s">
+        <v>190</v>
+      </c>
+      <c r="F96" s="194"/>
+      <c r="G96" s="194"/>
+      <c r="H96" s="105"/>
     </row>
     <row r="97" spans="1:8">
-      <c r="B97" s="159"/>
+      <c r="B97" s="150"/>
       <c r="C97" s="51" t="s">
+        <v>260</v>
+      </c>
+      <c r="D97" s="49"/>
+      <c r="E97" s="99" t="s">
+        <v>190</v>
+      </c>
+      <c r="F97" s="100" t="s">
         <v>261</v>
       </c>
-      <c r="D97" s="49"/>
-      <c r="E97" s="105" t="s">
-        <v>191</v>
-      </c>
-      <c r="F97" s="106" t="s">
-        <v>262</v>
-      </c>
-      <c r="G97" s="106"/>
-      <c r="H97" s="106"/>
+      <c r="G97" s="100"/>
+      <c r="H97" s="100"/>
     </row>
     <row r="98" spans="1:8">
       <c r="B98" s="45" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C98" s="49"/>
       <c r="D98" s="49" t="s">
-        <v>194</v>
-      </c>
-      <c r="E98" s="103"/>
+        <v>193</v>
+      </c>
+      <c r="E98" s="97"/>
     </row>
     <row r="100" spans="1:8">
       <c r="A100" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="102" spans="1:8" ht="18.75">
-      <c r="A102" s="150" t="s">
-        <v>331</v>
+      <c r="A102" s="143" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="104" spans="1:8">
       <c r="B104" s="45" t="s">
+        <v>196</v>
+      </c>
+      <c r="C104" s="45" t="s">
         <v>197</v>
       </c>
-      <c r="C104" s="45" t="s">
+      <c r="D104" s="45" t="s">
         <v>198</v>
-      </c>
-      <c r="D104" s="45" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="105" spans="1:8">
       <c r="B105" s="45">
         <v>123</v>
       </c>
-      <c r="C105" s="148" t="s">
-        <v>336</v>
-      </c>
-      <c r="D105" s="148" t="s">
-        <v>337</v>
+      <c r="C105" s="141" t="s">
+        <v>332</v>
+      </c>
+      <c r="D105" s="141" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -8797,18 +8967,62 @@
       </c>
       <c r="C111" s="45"/>
       <c r="D111" s="45" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="74">
-    <mergeCell ref="B92:B93"/>
-    <mergeCell ref="F92:G96"/>
-    <mergeCell ref="B94:B97"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="G25:L25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="J36:L36"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="J34:L34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="J35:L35"/>
     <mergeCell ref="O25:T25"/>
     <mergeCell ref="A33:B33"/>
     <mergeCell ref="C33:D33"/>
@@ -8825,57 +9039,13 @@
     <mergeCell ref="G27:H27"/>
     <mergeCell ref="G28:H28"/>
     <mergeCell ref="G29:H29"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="J36:L36"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="J34:L34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="J35:L35"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="G25:L25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B92:B93"/>
+    <mergeCell ref="F92:G96"/>
+    <mergeCell ref="B94:B97"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="E40:F40"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8885,10 +9055,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T109"/>
+  <dimension ref="A1:W109"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="A87" sqref="A87"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="J93" sqref="J93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -8898,7 +9068,7 @@
   <sheetData>
     <row r="1" spans="1:16" ht="31.5" customHeight="1">
       <c r="A1" s="50" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="29.25" customHeight="1">
@@ -8922,43 +9092,51 @@
       <c r="A5" s="45" t="s">
         <v>146</v>
       </c>
-      <c r="B5" s="164" t="s">
+      <c r="B5" s="163" t="s">
         <v>147</v>
       </c>
-      <c r="C5" s="162"/>
-      <c r="D5" s="163"/>
+      <c r="C5" s="148"/>
+      <c r="D5" s="149"/>
       <c r="E5" s="52" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F5" s="45" t="s">
         <v>117</v>
       </c>
-      <c r="G5" s="185" t="s">
-        <v>205</v>
-      </c>
-      <c r="H5" s="237"/>
-      <c r="I5" s="183"/>
+      <c r="G5" s="166" t="s">
+        <v>204</v>
+      </c>
+      <c r="H5" s="198"/>
+      <c r="I5" s="167"/>
+      <c r="J5" s="270" t="s">
+        <v>353</v>
+      </c>
+      <c r="K5" s="271"/>
+      <c r="L5" s="271"/>
     </row>
     <row r="6" spans="1:16" ht="78.75" customHeight="1">
-      <c r="A6" s="66">
+      <c r="A6" s="65">
         <v>43136.354166666664</v>
       </c>
-      <c r="B6" s="205" t="s">
-        <v>235</v>
-      </c>
-      <c r="C6" s="206"/>
-      <c r="D6" s="207"/>
+      <c r="B6" s="229" t="s">
+        <v>234</v>
+      </c>
+      <c r="C6" s="230"/>
+      <c r="D6" s="231"/>
       <c r="E6" s="45">
         <v>400</v>
       </c>
       <c r="F6" s="45">
         <v>200</v>
       </c>
-      <c r="G6" s="164">
+      <c r="G6" s="163">
         <v>200</v>
       </c>
-      <c r="H6" s="162"/>
-      <c r="I6" s="163"/>
+      <c r="H6" s="148"/>
+      <c r="I6" s="149"/>
+      <c r="J6" s="270"/>
+      <c r="K6" s="271"/>
+      <c r="L6" s="271"/>
     </row>
     <row r="8" spans="1:16" ht="30" customHeight="1"/>
     <row r="9" spans="1:16" ht="37.5" customHeight="1">
@@ -8970,436 +9148,448 @@
       <c r="A10" s="3"/>
     </row>
     <row r="11" spans="1:16" ht="27.75" customHeight="1">
-      <c r="A11" s="201" t="s">
+      <c r="A11" s="225" t="s">
         <v>159</v>
       </c>
-      <c r="B11" s="245" t="s">
+      <c r="B11" s="250" t="s">
         <v>125</v>
       </c>
-      <c r="C11" s="246"/>
-      <c r="D11" s="247"/>
-      <c r="E11" s="245" t="s">
-        <v>220</v>
-      </c>
-      <c r="F11" s="247"/>
-      <c r="G11" s="201" t="s">
-        <v>242</v>
-      </c>
-      <c r="H11" s="201" t="s">
-        <v>239</v>
-      </c>
-      <c r="I11" s="203" t="s">
+      <c r="C11" s="251"/>
+      <c r="D11" s="252"/>
+      <c r="E11" s="250" t="s">
+        <v>219</v>
+      </c>
+      <c r="F11" s="252"/>
+      <c r="G11" s="225" t="s">
+        <v>241</v>
+      </c>
+      <c r="H11" s="225" t="s">
+        <v>238</v>
+      </c>
+      <c r="I11" s="227" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="27.75" customHeight="1">
+      <c r="A12" s="226"/>
+      <c r="B12" s="75" t="s">
+        <v>263</v>
+      </c>
+      <c r="C12" s="68" t="s">
+        <v>236</v>
+      </c>
+      <c r="D12" s="76" t="s">
+        <v>237</v>
+      </c>
+      <c r="E12" s="75" t="s">
+        <v>264</v>
+      </c>
+      <c r="F12" s="76" t="s">
+        <v>235</v>
+      </c>
+      <c r="G12" s="226"/>
+      <c r="H12" s="226"/>
+      <c r="I12" s="243"/>
+      <c r="J12" s="117" t="s">
+        <v>285</v>
+      </c>
+      <c r="K12" s="117"/>
+      <c r="L12" s="117"/>
+      <c r="M12" s="117"/>
+      <c r="N12" s="117"/>
+      <c r="O12" s="117"/>
+      <c r="P12" s="117"/>
+    </row>
+    <row r="13" spans="1:16" ht="27.75" customHeight="1">
+      <c r="A13" s="71">
+        <v>43101</v>
+      </c>
+      <c r="B13" s="258">
+        <v>10</v>
+      </c>
+      <c r="C13" s="267">
+        <v>200</v>
+      </c>
+      <c r="D13" s="259">
+        <v>200</v>
+      </c>
+      <c r="E13" s="253">
+        <v>200</v>
+      </c>
+      <c r="F13" s="254">
+        <v>200</v>
+      </c>
+      <c r="G13" s="264">
+        <v>30</v>
+      </c>
+      <c r="H13" s="261">
+        <v>30</v>
+      </c>
+      <c r="I13" s="114">
+        <v>40</v>
+      </c>
+      <c r="J13" s="117" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" ht="27.75" customHeight="1">
-      <c r="A12" s="202"/>
-      <c r="B12" s="79" t="s">
-        <v>264</v>
-      </c>
-      <c r="C12" s="69" t="s">
-        <v>237</v>
-      </c>
-      <c r="D12" s="80" t="s">
-        <v>238</v>
-      </c>
-      <c r="E12" s="79" t="s">
-        <v>265</v>
-      </c>
-      <c r="F12" s="80" t="s">
-        <v>236</v>
-      </c>
-      <c r="G12" s="202"/>
-      <c r="H12" s="202"/>
-      <c r="I12" s="255"/>
-      <c r="J12" s="124" t="s">
-        <v>286</v>
-      </c>
-      <c r="K12" s="124"/>
-      <c r="L12" s="124"/>
-      <c r="M12" s="124"/>
-      <c r="N12" s="124"/>
-      <c r="O12" s="124"/>
-      <c r="P12" s="124"/>
-    </row>
-    <row r="13" spans="1:16" ht="27.75" customHeight="1">
-      <c r="A13" s="75">
-        <v>43101</v>
-      </c>
-      <c r="B13" s="72">
+      <c r="K13" s="117"/>
+      <c r="L13" s="117"/>
+      <c r="M13" s="117"/>
+      <c r="N13" s="117"/>
+      <c r="O13" s="117"/>
+      <c r="P13" s="117"/>
+    </row>
+    <row r="14" spans="1:16" ht="27.75" customHeight="1">
+      <c r="A14" s="71">
+        <v>43102</v>
+      </c>
+      <c r="B14" s="258">
         <v>10</v>
       </c>
-      <c r="C13" s="53">
+      <c r="C14" s="267">
         <v>200</v>
       </c>
-      <c r="D13" s="70">
+      <c r="D14" s="259">
         <v>200</v>
       </c>
-      <c r="E13" s="72">
+      <c r="E14" s="253">
         <v>200</v>
       </c>
-      <c r="F13" s="70">
+      <c r="F14" s="254">
         <v>200</v>
       </c>
-      <c r="G13" s="83">
+      <c r="G14" s="264">
         <v>30</v>
       </c>
-      <c r="H13" s="83">
+      <c r="H14" s="261">
         <v>30</v>
       </c>
-      <c r="I13" s="121">
-        <v>40</v>
-      </c>
-      <c r="J13" s="124" t="s">
-        <v>285</v>
-      </c>
-      <c r="K13" s="124"/>
-      <c r="L13" s="124"/>
-      <c r="M13" s="124"/>
-      <c r="N13" s="124"/>
-      <c r="O13" s="124"/>
-      <c r="P13" s="124"/>
-    </row>
-    <row r="14" spans="1:16" ht="27.75" customHeight="1">
-      <c r="A14" s="75">
-        <v>43102</v>
-      </c>
-      <c r="B14" s="72">
+      <c r="I14" s="114">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="27.75" customHeight="1">
+      <c r="A15" s="71">
+        <v>43103</v>
+      </c>
+      <c r="B15" s="258">
         <v>10</v>
       </c>
-      <c r="C14" s="53">
+      <c r="C15" s="267">
         <v>200</v>
       </c>
-      <c r="D14" s="70">
+      <c r="D15" s="259">
         <v>200</v>
       </c>
-      <c r="E14" s="72">
+      <c r="E15" s="253">
         <v>200</v>
       </c>
-      <c r="F14" s="70">
+      <c r="F15" s="254">
         <v>200</v>
       </c>
-      <c r="G14" s="84">
+      <c r="G15" s="264">
         <v>30</v>
       </c>
-      <c r="H14" s="84">
+      <c r="H15" s="261">
         <v>30</v>
       </c>
-      <c r="I14" s="121">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" ht="27.75" customHeight="1">
-      <c r="A15" s="75">
-        <v>43103</v>
-      </c>
-      <c r="B15" s="72">
+      <c r="I15" s="114">
+        <v>60</v>
+      </c>
+      <c r="L15" s="101" t="s">
+        <v>273</v>
+      </c>
+      <c r="M15" s="101"/>
+      <c r="N15" s="101"/>
+    </row>
+    <row r="16" spans="1:16" ht="27.75" customHeight="1">
+      <c r="A16" s="71">
+        <v>43104</v>
+      </c>
+      <c r="B16" s="258">
         <v>10</v>
       </c>
-      <c r="C15" s="53">
+      <c r="C16" s="267">
         <v>200</v>
       </c>
-      <c r="D15" s="70">
+      <c r="D16" s="259">
         <v>200</v>
       </c>
-      <c r="E15" s="72">
+      <c r="E16" s="253">
         <v>200</v>
       </c>
-      <c r="F15" s="70">
+      <c r="F16" s="254">
         <v>200</v>
       </c>
-      <c r="G15" s="83">
+      <c r="G16" s="264">
         <v>30</v>
       </c>
-      <c r="H15" s="83">
+      <c r="H16" s="261">
         <v>30</v>
       </c>
-      <c r="I15" s="121">
-        <v>60</v>
-      </c>
-      <c r="L15" s="107" t="s">
+      <c r="I16" s="114">
+        <v>70</v>
+      </c>
+      <c r="K16" s="50"/>
+      <c r="L16" s="102" t="s">
         <v>274</v>
       </c>
-      <c r="M15" s="107"/>
-      <c r="N15" s="107"/>
-    </row>
-    <row r="16" spans="1:16" ht="27.75" customHeight="1">
-      <c r="A16" s="75">
-        <v>43104</v>
-      </c>
-      <c r="B16" s="72">
-        <v>10</v>
-      </c>
-      <c r="C16" s="53">
-        <v>200</v>
-      </c>
-      <c r="D16" s="70">
-        <v>200</v>
-      </c>
-      <c r="E16" s="72">
-        <v>200</v>
-      </c>
-      <c r="F16" s="70">
-        <v>200</v>
-      </c>
-      <c r="G16" s="83">
-        <v>30</v>
-      </c>
-      <c r="H16" s="83">
-        <v>30</v>
-      </c>
-      <c r="I16" s="121">
-        <v>70</v>
-      </c>
-      <c r="K16" s="50"/>
-      <c r="L16" s="108" t="s">
+    </row>
+    <row r="17" spans="1:23" ht="27.75" customHeight="1">
+      <c r="A17" s="72" t="s">
+        <v>160</v>
+      </c>
+      <c r="B17" s="260" t="s">
+        <v>160</v>
+      </c>
+      <c r="C17" s="130" t="s">
+        <v>160</v>
+      </c>
+      <c r="D17" s="131" t="s">
+        <v>160</v>
+      </c>
+      <c r="E17" s="255" t="s">
+        <v>160</v>
+      </c>
+      <c r="F17" s="256" t="s">
+        <v>160</v>
+      </c>
+      <c r="G17" s="265" t="s">
+        <v>160</v>
+      </c>
+      <c r="H17" s="262" t="s">
+        <v>160</v>
+      </c>
+      <c r="I17" s="115" t="s">
+        <v>160</v>
+      </c>
+      <c r="L17" s="103" t="s">
         <v>275</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" ht="27.75" customHeight="1">
-      <c r="A17" s="76" t="s">
-        <v>160</v>
-      </c>
-      <c r="B17" s="73" t="s">
-        <v>160</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="D17" s="71" t="s">
-        <v>160</v>
-      </c>
-      <c r="E17" s="73" t="s">
-        <v>160</v>
-      </c>
-      <c r="F17" s="71" t="s">
-        <v>160</v>
-      </c>
-      <c r="G17" s="76" t="s">
-        <v>160</v>
-      </c>
-      <c r="H17" s="76" t="s">
-        <v>160</v>
-      </c>
-      <c r="I17" s="122" t="s">
-        <v>160</v>
-      </c>
-      <c r="L17" s="109" t="s">
-        <v>276</v>
       </c>
       <c r="M17" s="50"/>
       <c r="N17" s="50"/>
     </row>
-    <row r="18" spans="1:20" ht="27.75" customHeight="1">
-      <c r="A18" s="76">
+    <row r="18" spans="1:23" ht="27.75" customHeight="1">
+      <c r="A18" s="72">
         <v>43131</v>
       </c>
-      <c r="B18" s="72">
+      <c r="B18" s="126">
         <v>10</v>
       </c>
-      <c r="C18" s="53">
+      <c r="C18" s="127">
         <v>200</v>
       </c>
-      <c r="D18" s="70">
+      <c r="D18" s="128">
         <v>200</v>
       </c>
-      <c r="E18" s="72">
+      <c r="E18" s="121">
         <v>200</v>
       </c>
-      <c r="F18" s="70">
+      <c r="F18" s="257">
         <v>200</v>
       </c>
-      <c r="G18" s="83">
+      <c r="G18" s="266">
         <v>30</v>
       </c>
-      <c r="H18" s="83">
+      <c r="H18" s="263">
         <v>30</v>
       </c>
-      <c r="I18" s="121">
+      <c r="I18" s="114">
         <v>90</v>
       </c>
     </row>
-    <row r="19" spans="1:20" ht="27.75" customHeight="1">
-      <c r="A19" s="77" t="s">
-        <v>207</v>
-      </c>
-      <c r="B19" s="74">
+    <row r="19" spans="1:23" ht="27.75" customHeight="1">
+      <c r="A19" s="73" t="s">
+        <v>206</v>
+      </c>
+      <c r="B19" s="126">
         <v>50</v>
       </c>
-      <c r="C19" s="69">
+      <c r="C19" s="127">
         <v>1000</v>
       </c>
-      <c r="D19" s="80">
+      <c r="D19" s="128">
         <v>200</v>
       </c>
-      <c r="E19" s="79">
+      <c r="E19" s="121">
         <v>200</v>
       </c>
-      <c r="F19" s="80">
+      <c r="F19" s="257">
         <v>1000</v>
       </c>
-      <c r="G19" s="85">
+      <c r="G19" s="266">
         <v>150</v>
       </c>
-      <c r="H19" s="85">
+      <c r="H19" s="263">
         <v>150</v>
       </c>
-      <c r="I19" s="121">
+      <c r="I19" s="114">
         <v>90</v>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="27.75" customHeight="1" thickBot="1">
-      <c r="A20" s="78" t="s">
+    <row r="20" spans="1:23" ht="27.75" customHeight="1" thickBot="1">
+      <c r="A20" s="74" t="s">
         <v>132</v>
       </c>
-      <c r="B20" s="248" t="s">
-        <v>241</v>
-      </c>
-      <c r="C20" s="249"/>
-      <c r="D20" s="250"/>
-      <c r="E20" s="248" t="s">
+      <c r="B20" s="247" t="s">
         <v>240</v>
       </c>
-      <c r="F20" s="250"/>
-      <c r="G20" s="86">
+      <c r="C20" s="248"/>
+      <c r="D20" s="249"/>
+      <c r="E20" s="247" t="s">
+        <v>239</v>
+      </c>
+      <c r="F20" s="249"/>
+      <c r="G20" s="80">
         <v>2888</v>
       </c>
-      <c r="H20" s="86">
+      <c r="H20" s="80">
         <v>2888</v>
       </c>
-      <c r="I20" s="123">
+      <c r="I20" s="116">
         <v>90</v>
       </c>
     </row>
-    <row r="21" spans="1:20" ht="23.25" customHeight="1">
-      <c r="E21" s="252" t="s">
-        <v>273</v>
-      </c>
-      <c r="F21" s="252"/>
-    </row>
-    <row r="22" spans="1:20" ht="30" customHeight="1"/>
-    <row r="23" spans="1:20" ht="44.25" customHeight="1">
+    <row r="21" spans="1:23" ht="23.25" customHeight="1">
+      <c r="E21" s="244" t="s">
+        <v>272</v>
+      </c>
+      <c r="F21" s="244"/>
+    </row>
+    <row r="22" spans="1:23" ht="30" customHeight="1"/>
+    <row r="23" spans="1:23" ht="44.25" customHeight="1">
       <c r="A23" s="3" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="24" spans="1:20" ht="25.5" customHeight="1">
-      <c r="A24" s="176" t="s">
-        <v>214</v>
-      </c>
-      <c r="B24" s="177"/>
-      <c r="C24" s="177" t="s">
-        <v>271</v>
-      </c>
-      <c r="D24" s="177"/>
-      <c r="E24" s="177"/>
-      <c r="F24" s="177"/>
-      <c r="G24" s="177"/>
-      <c r="H24" s="110"/>
-      <c r="I24" s="220" t="s">
+    <row r="24" spans="1:23" ht="25.5" customHeight="1">
+      <c r="A24" s="190" t="s">
+        <v>213</v>
+      </c>
+      <c r="B24" s="186"/>
+      <c r="C24" s="186" t="s">
+        <v>270</v>
+      </c>
+      <c r="D24" s="186"/>
+      <c r="E24" s="186"/>
+      <c r="F24" s="186"/>
+      <c r="G24" s="186"/>
+      <c r="H24" s="104"/>
+      <c r="I24" s="203" t="s">
+        <v>266</v>
+      </c>
+      <c r="J24" s="203"/>
+      <c r="K24" s="184" t="s">
+        <v>243</v>
+      </c>
+      <c r="L24" s="185"/>
+    </row>
+    <row r="25" spans="1:23" ht="29.25" customHeight="1">
+      <c r="A25" s="168" t="s">
         <v>267</v>
       </c>
-      <c r="J24" s="220"/>
-      <c r="K24" s="181" t="s">
-        <v>244</v>
-      </c>
-      <c r="L24" s="182"/>
-    </row>
-    <row r="25" spans="1:20" ht="29.25" customHeight="1">
-      <c r="A25" s="184" t="s">
+      <c r="B25" s="166"/>
+      <c r="C25" s="198" t="s">
+        <v>269</v>
+      </c>
+      <c r="D25" s="198"/>
+      <c r="E25" s="245" t="s">
         <v>268</v>
       </c>
-      <c r="B25" s="185"/>
-      <c r="C25" s="237" t="s">
-        <v>270</v>
-      </c>
-      <c r="D25" s="237"/>
-      <c r="E25" s="253" t="s">
-        <v>269</v>
-      </c>
-      <c r="F25" s="253"/>
-      <c r="G25" s="253"/>
-      <c r="H25" s="114"/>
-      <c r="I25" s="237" t="s">
-        <v>266</v>
-      </c>
-      <c r="J25" s="237"/>
-      <c r="K25" s="237"/>
-      <c r="L25" s="183"/>
-      <c r="O25" s="236" t="s">
-        <v>204</v>
-      </c>
-      <c r="P25" s="236"/>
-      <c r="Q25" s="236"/>
-      <c r="R25" s="236"/>
-      <c r="S25" s="236"/>
-      <c r="T25" s="236"/>
-    </row>
-    <row r="26" spans="1:20" ht="29.25" customHeight="1">
-      <c r="A26" s="221" t="s">
+      <c r="F25" s="245"/>
+      <c r="G25" s="245"/>
+      <c r="H25" s="107"/>
+      <c r="I25" s="198" t="s">
+        <v>265</v>
+      </c>
+      <c r="J25" s="198"/>
+      <c r="K25" s="198"/>
+      <c r="L25" s="167"/>
+      <c r="O25" s="197" t="s">
+        <v>203</v>
+      </c>
+      <c r="P25" s="197"/>
+      <c r="Q25" s="197"/>
+      <c r="R25" s="197"/>
+      <c r="S25" s="197"/>
+      <c r="T25" s="197"/>
+      <c r="U25" s="273" t="s">
+        <v>353</v>
+      </c>
+      <c r="V25" s="274"/>
+      <c r="W25" s="274"/>
+    </row>
+    <row r="26" spans="1:23" ht="29.25" customHeight="1">
+      <c r="A26" s="214" t="s">
         <v>76</v>
       </c>
-      <c r="B26" s="222"/>
-      <c r="C26" s="223" t="s">
-        <v>226</v>
-      </c>
-      <c r="D26" s="251"/>
-      <c r="E26" s="254" t="s">
+      <c r="B26" s="215"/>
+      <c r="C26" s="216" t="s">
+        <v>225</v>
+      </c>
+      <c r="D26" s="246"/>
+      <c r="E26" s="242" t="s">
+        <v>218</v>
+      </c>
+      <c r="F26" s="242"/>
+      <c r="G26" s="242" t="s">
+        <v>217</v>
+      </c>
+      <c r="H26" s="242"/>
+      <c r="I26" s="246" t="s">
         <v>219</v>
       </c>
-      <c r="F26" s="254"/>
-      <c r="G26" s="254" t="s">
-        <v>218</v>
-      </c>
-      <c r="H26" s="254"/>
-      <c r="I26" s="251" t="s">
-        <v>220</v>
-      </c>
-      <c r="J26" s="222"/>
-      <c r="K26" s="223" t="s">
-        <v>224</v>
-      </c>
-      <c r="L26" s="222"/>
-      <c r="O26" s="59" t="s">
+      <c r="J26" s="215"/>
+      <c r="K26" s="216" t="s">
+        <v>223</v>
+      </c>
+      <c r="L26" s="215"/>
+      <c r="O26" s="58" t="s">
         <v>146</v>
       </c>
       <c r="P26" s="46" t="s">
         <v>163</v>
       </c>
-      <c r="Q26" s="59" t="s">
+      <c r="Q26" s="58" t="s">
         <v>164</v>
       </c>
-      <c r="R26" s="59" t="s">
+      <c r="R26" s="58" t="s">
         <v>165</v>
       </c>
-      <c r="S26" s="59" t="s">
+      <c r="S26" s="58" t="s">
         <v>166</v>
       </c>
-      <c r="T26" s="59" t="s">
+      <c r="T26" s="58" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="27" spans="1:20" ht="29.25" customHeight="1">
-      <c r="A27" s="185" t="s">
-        <v>227</v>
-      </c>
-      <c r="B27" s="163"/>
-      <c r="C27" s="185" t="s">
-        <v>229</v>
-      </c>
-      <c r="D27" s="162"/>
-      <c r="E27" s="229"/>
-      <c r="F27" s="229"/>
-      <c r="G27" s="229"/>
-      <c r="H27" s="229"/>
-      <c r="I27" s="225" t="s">
-        <v>243</v>
-      </c>
-      <c r="J27" s="226"/>
-      <c r="K27" s="185" t="s">
-        <v>225</v>
-      </c>
-      <c r="L27" s="163"/>
+      <c r="U26" s="273"/>
+      <c r="V26" s="274"/>
+      <c r="W26" s="274"/>
+    </row>
+    <row r="27" spans="1:23" ht="29.25" customHeight="1">
+      <c r="A27" s="166" t="s">
+        <v>226</v>
+      </c>
+      <c r="B27" s="149"/>
+      <c r="C27" s="166" t="s">
+        <v>228</v>
+      </c>
+      <c r="D27" s="148"/>
+      <c r="E27" s="202">
+        <v>10</v>
+      </c>
+      <c r="F27" s="202"/>
+      <c r="G27" s="202">
+        <v>1</v>
+      </c>
+      <c r="H27" s="202"/>
+      <c r="I27" s="210" t="s">
+        <v>242</v>
+      </c>
+      <c r="J27" s="211"/>
+      <c r="K27" s="166" t="s">
+        <v>224</v>
+      </c>
+      <c r="L27" s="149"/>
       <c r="O27" s="49"/>
       <c r="P27" s="49"/>
       <c r="Q27" s="49"/>
@@ -9408,228 +9598,242 @@
         <v>167</v>
       </c>
       <c r="T27" s="49"/>
-    </row>
-    <row r="28" spans="1:20" ht="29.25" customHeight="1">
-      <c r="A28" s="185" t="s">
-        <v>227</v>
-      </c>
-      <c r="B28" s="163"/>
-      <c r="C28" s="185" t="s">
-        <v>230</v>
-      </c>
-      <c r="D28" s="162"/>
-      <c r="E28" s="229"/>
-      <c r="F28" s="229"/>
-      <c r="G28" s="229"/>
-      <c r="H28" s="229"/>
-      <c r="I28" s="227" t="s">
-        <v>273</v>
-      </c>
-      <c r="J28" s="228"/>
-      <c r="K28" s="185" t="s">
-        <v>225</v>
-      </c>
-      <c r="L28" s="163"/>
+      <c r="U27" s="273"/>
+      <c r="V27" s="274"/>
+      <c r="W27" s="274"/>
+    </row>
+    <row r="28" spans="1:23" ht="29.25" customHeight="1">
+      <c r="A28" s="166" t="s">
+        <v>226</v>
+      </c>
+      <c r="B28" s="149"/>
+      <c r="C28" s="166" t="s">
+        <v>229</v>
+      </c>
+      <c r="D28" s="148"/>
+      <c r="E28" s="202"/>
+      <c r="F28" s="202"/>
+      <c r="G28" s="202"/>
+      <c r="H28" s="202"/>
+      <c r="I28" s="268" t="s">
+        <v>349</v>
+      </c>
+      <c r="J28" s="269"/>
+      <c r="K28" s="166" t="s">
+        <v>224</v>
+      </c>
+      <c r="L28" s="149"/>
       <c r="O28" s="49"/>
       <c r="P28" s="49"/>
       <c r="Q28" s="49"/>
       <c r="R28" s="49"/>
       <c r="S28" s="49"/>
       <c r="T28" s="49"/>
-    </row>
-    <row r="29" spans="1:20" ht="29.25" customHeight="1">
-      <c r="A29" s="185" t="s">
-        <v>228</v>
-      </c>
-      <c r="B29" s="163"/>
-      <c r="C29" s="185" t="s">
+      <c r="U28" s="273"/>
+      <c r="V28" s="274"/>
+      <c r="W28" s="274"/>
+    </row>
+    <row r="29" spans="1:23" ht="29.25" customHeight="1">
+      <c r="A29" s="166" t="s">
+        <v>227</v>
+      </c>
+      <c r="B29" s="149"/>
+      <c r="C29" s="166" t="s">
+        <v>230</v>
+      </c>
+      <c r="D29" s="148"/>
+      <c r="E29" s="202"/>
+      <c r="F29" s="202"/>
+      <c r="G29" s="202"/>
+      <c r="H29" s="202"/>
+      <c r="I29" s="148"/>
+      <c r="J29" s="149"/>
+      <c r="K29" s="166" t="s">
+        <v>224</v>
+      </c>
+      <c r="L29" s="149"/>
+    </row>
+    <row r="30" spans="1:23" ht="29.25" customHeight="1">
+      <c r="A30" s="166" t="s">
+        <v>227</v>
+      </c>
+      <c r="B30" s="149"/>
+      <c r="C30" s="166" t="s">
         <v>231</v>
       </c>
-      <c r="D29" s="162"/>
-      <c r="E29" s="229"/>
-      <c r="F29" s="229"/>
-      <c r="G29" s="229"/>
-      <c r="H29" s="229"/>
-      <c r="I29" s="162"/>
-      <c r="J29" s="163"/>
-      <c r="K29" s="185" t="s">
-        <v>225</v>
-      </c>
-      <c r="L29" s="163"/>
-    </row>
-    <row r="30" spans="1:20" ht="29.25" customHeight="1">
-      <c r="A30" s="185" t="s">
-        <v>228</v>
-      </c>
-      <c r="B30" s="163"/>
-      <c r="C30" s="185" t="s">
-        <v>232</v>
-      </c>
-      <c r="D30" s="162"/>
-      <c r="E30" s="229"/>
-      <c r="F30" s="229"/>
-      <c r="G30" s="229"/>
-      <c r="H30" s="229"/>
-      <c r="I30" s="162"/>
-      <c r="J30" s="163"/>
-      <c r="K30" s="185" t="s">
-        <v>225</v>
-      </c>
-      <c r="L30" s="163"/>
-    </row>
-    <row r="31" spans="1:20" ht="29.25" customHeight="1"/>
-    <row r="32" spans="1:20" ht="29.25" customHeight="1">
-      <c r="A32" s="176" t="s">
-        <v>214</v>
-      </c>
-      <c r="B32" s="177"/>
-      <c r="C32" s="177" t="s">
-        <v>271</v>
-      </c>
-      <c r="D32" s="177"/>
-      <c r="E32" s="177"/>
-      <c r="F32" s="177"/>
-      <c r="G32" s="177"/>
-      <c r="H32" s="110"/>
-      <c r="I32" s="181" t="s">
-        <v>267</v>
-      </c>
-      <c r="J32" s="181"/>
-      <c r="K32" s="220" t="s">
-        <v>244</v>
-      </c>
-      <c r="L32" s="220"/>
+      <c r="D30" s="148"/>
+      <c r="E30" s="202"/>
+      <c r="F30" s="202"/>
+      <c r="G30" s="202"/>
+      <c r="H30" s="202"/>
+      <c r="I30" s="148"/>
+      <c r="J30" s="149"/>
+      <c r="K30" s="166" t="s">
+        <v>224</v>
+      </c>
+      <c r="L30" s="149"/>
+    </row>
+    <row r="31" spans="1:23" ht="29.25" customHeight="1"/>
+    <row r="32" spans="1:23" ht="29.25" customHeight="1">
+      <c r="A32" s="190" t="s">
+        <v>213</v>
+      </c>
+      <c r="B32" s="186"/>
+      <c r="C32" s="186" t="s">
+        <v>270</v>
+      </c>
+      <c r="D32" s="186"/>
+      <c r="E32" s="186"/>
+      <c r="F32" s="186"/>
+      <c r="G32" s="186"/>
+      <c r="H32" s="104"/>
+      <c r="I32" s="184" t="s">
+        <v>266</v>
+      </c>
+      <c r="J32" s="184"/>
+      <c r="K32" s="203" t="s">
+        <v>243</v>
+      </c>
+      <c r="L32" s="203"/>
     </row>
     <row r="33" spans="1:12" ht="29.25" customHeight="1">
-      <c r="A33" s="184" t="s">
+      <c r="A33" s="168" t="s">
+        <v>245</v>
+      </c>
+      <c r="B33" s="166"/>
+      <c r="C33" s="198"/>
+      <c r="D33" s="198"/>
+      <c r="E33" s="198" t="s">
+        <v>269</v>
+      </c>
+      <c r="F33" s="198"/>
+      <c r="G33" s="198"/>
+      <c r="H33" s="66"/>
+      <c r="I33" s="198" t="s">
+        <v>265</v>
+      </c>
+      <c r="J33" s="198"/>
+      <c r="K33" s="198"/>
+      <c r="L33" s="167"/>
+    </row>
+    <row r="34" spans="1:12" ht="29.25" customHeight="1">
+      <c r="A34" s="81" t="s">
         <v>246</v>
       </c>
-      <c r="B33" s="185"/>
-      <c r="C33" s="237"/>
-      <c r="D33" s="237"/>
-      <c r="E33" s="237" t="s">
-        <v>270</v>
-      </c>
-      <c r="F33" s="237"/>
-      <c r="G33" s="237"/>
-      <c r="H33" s="67"/>
-      <c r="I33" s="237" t="s">
-        <v>266</v>
-      </c>
-      <c r="J33" s="237"/>
-      <c r="K33" s="237"/>
-      <c r="L33" s="183"/>
-    </row>
-    <row r="34" spans="1:12" ht="29.25" customHeight="1">
-      <c r="A34" s="87" t="s">
+      <c r="B34" s="83" t="s">
         <v>247</v>
       </c>
-      <c r="B34" s="89" t="s">
+      <c r="C34" s="204" t="s">
         <v>248</v>
       </c>
-      <c r="C34" s="230" t="s">
+      <c r="D34" s="205"/>
+      <c r="E34" s="204" t="s">
         <v>249</v>
       </c>
-      <c r="D34" s="231"/>
-      <c r="E34" s="230" t="s">
-        <v>250</v>
-      </c>
-      <c r="F34" s="231"/>
-      <c r="G34" s="232" t="s">
-        <v>236</v>
-      </c>
-      <c r="H34" s="233"/>
-      <c r="I34" s="234"/>
-      <c r="J34" s="232" t="s">
-        <v>224</v>
-      </c>
-      <c r="K34" s="235"/>
-      <c r="L34" s="234"/>
+      <c r="F34" s="205"/>
+      <c r="G34" s="206" t="s">
+        <v>235</v>
+      </c>
+      <c r="H34" s="207"/>
+      <c r="I34" s="208"/>
+      <c r="J34" s="206" t="s">
+        <v>223</v>
+      </c>
+      <c r="K34" s="209"/>
+      <c r="L34" s="208"/>
     </row>
     <row r="35" spans="1:12" ht="29.25" customHeight="1">
       <c r="A35" s="49"/>
       <c r="B35" s="49"/>
-      <c r="C35" s="159"/>
-      <c r="D35" s="159"/>
-      <c r="E35" s="159"/>
-      <c r="F35" s="159"/>
-      <c r="G35" s="164"/>
-      <c r="H35" s="162"/>
-      <c r="I35" s="163"/>
-      <c r="J35" s="164"/>
-      <c r="K35" s="162"/>
-      <c r="L35" s="163"/>
+      <c r="C35" s="150"/>
+      <c r="D35" s="150"/>
+      <c r="E35" s="150"/>
+      <c r="F35" s="150"/>
+      <c r="G35" s="163"/>
+      <c r="H35" s="148"/>
+      <c r="I35" s="149"/>
+      <c r="J35" s="163"/>
+      <c r="K35" s="148"/>
+      <c r="L35" s="149"/>
     </row>
     <row r="36" spans="1:12" ht="29.25" customHeight="1">
       <c r="A36" s="49"/>
       <c r="B36" s="49"/>
-      <c r="C36" s="159"/>
-      <c r="D36" s="159"/>
-      <c r="E36" s="159"/>
-      <c r="F36" s="159"/>
-      <c r="G36" s="164"/>
-      <c r="H36" s="162"/>
-      <c r="I36" s="163"/>
-      <c r="J36" s="164"/>
-      <c r="K36" s="162"/>
-      <c r="L36" s="163"/>
+      <c r="C36" s="150"/>
+      <c r="D36" s="150"/>
+      <c r="E36" s="150"/>
+      <c r="F36" s="150"/>
+      <c r="G36" s="163"/>
+      <c r="H36" s="148"/>
+      <c r="I36" s="149"/>
+      <c r="J36" s="163"/>
+      <c r="K36" s="148"/>
+      <c r="L36" s="149"/>
     </row>
     <row r="38" spans="1:12" ht="28.5" customHeight="1"/>
     <row r="39" spans="1:12" ht="48" customHeight="1">
       <c r="A39" s="3" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="45" customHeight="1">
+      <c r="A40" s="108" t="s">
+        <v>278</v>
+      </c>
+      <c r="B40" s="109" t="s">
+        <v>279</v>
+      </c>
+      <c r="C40" s="109" t="s">
+        <v>280</v>
+      </c>
+      <c r="D40" s="109" t="s">
+        <v>281</v>
+      </c>
+      <c r="E40" s="239" t="s">
+        <v>282</v>
+      </c>
+      <c r="F40" s="240"/>
+      <c r="G40" s="272" t="s">
+        <v>353</v>
+      </c>
+      <c r="H40" s="272"/>
+    </row>
+    <row r="41" spans="1:12" ht="45" customHeight="1">
+      <c r="A41" s="241" t="s">
+        <v>276</v>
+      </c>
+      <c r="B41" s="241"/>
+      <c r="D41" s="50" t="s">
+        <v>277</v>
+      </c>
+      <c r="G41" s="272"/>
+      <c r="H41" s="272"/>
+    </row>
+    <row r="42" spans="1:12" ht="45" customHeight="1">
+      <c r="A42" s="82" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="40" spans="1:12" ht="45" customHeight="1">
-      <c r="A40" s="115" t="s">
-        <v>279</v>
-      </c>
-      <c r="B40" s="116" t="s">
-        <v>280</v>
-      </c>
-      <c r="C40" s="116" t="s">
-        <v>281</v>
-      </c>
-      <c r="D40" s="116" t="s">
-        <v>282</v>
-      </c>
-      <c r="E40" s="256" t="s">
-        <v>283</v>
-      </c>
-      <c r="F40" s="257"/>
-    </row>
-    <row r="41" spans="1:12" ht="45" customHeight="1">
-      <c r="A41" s="258" t="s">
-        <v>277</v>
-      </c>
-      <c r="B41" s="258"/>
-      <c r="D41" s="50" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" ht="45" customHeight="1">
-      <c r="A42" s="88" t="s">
-        <v>171</v>
-      </c>
-      <c r="B42" s="88" t="s">
+      <c r="B42" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="C42" s="88" t="s">
+      <c r="C42" s="82" t="s">
         <v>100</v>
       </c>
-      <c r="D42" s="88" t="s">
+      <c r="D42" s="82" t="s">
         <v>101</v>
       </c>
-      <c r="E42" s="117" t="s">
+      <c r="E42" s="110" t="s">
         <v>102</v>
       </c>
-      <c r="F42" s="119" t="s">
+      <c r="F42" s="112" t="s">
         <v>103</v>
       </c>
+      <c r="G42" s="272"/>
+      <c r="H42" s="272"/>
     </row>
     <row r="43" spans="1:12" ht="45" customHeight="1">
       <c r="A43" s="45" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B43" s="45">
         <v>83</v>
@@ -9643,13 +9847,15 @@
       <c r="E43" s="47">
         <v>8</v>
       </c>
-      <c r="F43" s="120">
+      <c r="F43" s="113">
         <v>0</v>
       </c>
+      <c r="G43" s="272"/>
+      <c r="H43" s="272"/>
     </row>
     <row r="44" spans="1:12" ht="45" customHeight="1">
       <c r="A44" s="45" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B44" s="45">
         <v>88</v>
@@ -9663,13 +9869,15 @@
       <c r="E44" s="47">
         <v>3</v>
       </c>
-      <c r="F44" s="120">
+      <c r="F44" s="113">
         <v>0</v>
       </c>
+      <c r="G44" s="272"/>
+      <c r="H44" s="272"/>
     </row>
     <row r="45" spans="1:12" ht="45" customHeight="1">
       <c r="A45" s="45" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B45" s="45">
         <v>100</v>
@@ -9683,16 +9891,18 @@
       <c r="E45" s="47">
         <v>86</v>
       </c>
-      <c r="F45" s="120">
+      <c r="F45" s="113">
         <v>0</v>
       </c>
+      <c r="G45" s="272"/>
+      <c r="H45" s="272"/>
     </row>
     <row r="46" spans="1:12" ht="45" customHeight="1">
       <c r="A46" s="52" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B46" s="52" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C46" s="45">
         <f t="shared" ref="C46:E46" si="0">SUM(C43:C45)</f>
@@ -9706,87 +9916,94 @@
         <f t="shared" si="0"/>
         <v>97</v>
       </c>
-      <c r="F46" s="120">
+      <c r="F46" s="113">
         <v>0</v>
       </c>
+      <c r="G46" s="272"/>
+      <c r="H46" s="272"/>
     </row>
     <row r="47" spans="1:12" ht="82.5" customHeight="1"/>
     <row r="48" spans="1:12" ht="30" customHeight="1">
       <c r="A48" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
-      <c r="A49" t="s">
+    <row r="52" spans="1:9" ht="27" customHeight="1">
+      <c r="A52" s="50" t="s">
+        <v>254</v>
+      </c>
+      <c r="C52" s="50" t="s">
+        <v>255</v>
+      </c>
+      <c r="E52" s="50" t="s">
+        <v>256</v>
+      </c>
+      <c r="G52" s="50" t="s">
+        <v>257</v>
+      </c>
+      <c r="H52" s="50"/>
+    </row>
+    <row r="54" spans="1:9" ht="19.5" customHeight="1">
+      <c r="A54" s="67" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" ht="27" customHeight="1">
-      <c r="A52" s="50" t="s">
-        <v>255</v>
-      </c>
-      <c r="C52" s="50" t="s">
-        <v>256</v>
-      </c>
-      <c r="E52" s="50" t="s">
-        <v>257</v>
-      </c>
-      <c r="G52" s="50" t="s">
-        <v>258</v>
-      </c>
-      <c r="H52" s="50"/>
-    </row>
-    <row r="54" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A54" s="68" t="s">
+      <c r="B54" s="67" t="s">
         <v>177</v>
       </c>
-      <c r="B54" s="68" t="s">
+      <c r="C54" s="67" t="s">
         <v>178</v>
       </c>
-      <c r="C54" s="68" t="s">
-        <v>179</v>
-      </c>
-      <c r="E54" s="68" t="s">
+      <c r="E54" s="67" t="s">
+        <v>176</v>
+      </c>
+      <c r="F54" s="67" t="s">
         <v>177</v>
       </c>
-      <c r="F54" s="68" t="s">
+      <c r="G54" s="67" t="s">
         <v>178</v>
       </c>
-      <c r="G54" s="68" t="s">
-        <v>179</v>
-      </c>
-      <c r="H54" s="111"/>
-    </row>
-    <row r="55" spans="1:8" ht="19.5" customHeight="1">
+      <c r="H54" s="273" t="s">
+        <v>353</v>
+      </c>
+      <c r="I54" s="274"/>
+    </row>
+    <row r="55" spans="1:9" ht="19.5" customHeight="1">
       <c r="A55" s="45" t="s">
         <v>162</v>
       </c>
       <c r="B55" s="49"/>
       <c r="C55" s="49"/>
-      <c r="D55" s="56" t="s">
-        <v>259</v>
+      <c r="D55" s="55" t="s">
+        <v>258</v>
       </c>
       <c r="E55" s="52" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F55" s="49"/>
       <c r="G55" s="49"/>
-      <c r="H55" s="11"/>
-    </row>
-    <row r="56" spans="1:8" ht="19.5" customHeight="1">
+      <c r="H55" s="273"/>
+      <c r="I55" s="274"/>
+    </row>
+    <row r="56" spans="1:9" ht="19.5" customHeight="1">
       <c r="A56" s="45" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B56" s="49"/>
       <c r="C56" s="49"/>
       <c r="E56" s="52" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F56" s="49"/>
       <c r="G56" s="49"/>
-      <c r="H56" s="11"/>
-    </row>
-    <row r="57" spans="1:8" ht="19.5" customHeight="1">
+      <c r="H56" s="273"/>
+      <c r="I56" s="274"/>
+    </row>
+    <row r="57" spans="1:9" ht="19.5" customHeight="1">
       <c r="A57" s="45" t="s">
         <v>132</v>
       </c>
@@ -9797,14 +10014,15 @@
       </c>
       <c r="F57" s="49"/>
       <c r="G57" s="49"/>
-      <c r="H57" s="11"/>
-    </row>
-    <row r="63" spans="1:8" ht="22.5">
+      <c r="H57" s="273"/>
+      <c r="I57" s="274"/>
+    </row>
+    <row r="63" spans="1:9" ht="22.5">
       <c r="A63" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="F63" s="31" t="s">
         <v>181</v>
-      </c>
-      <c r="F63" s="31" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="65" spans="6:6">
@@ -9812,199 +10030,300 @@
     </row>
     <row r="85" spans="1:8">
       <c r="A85" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="87" spans="1:8" ht="26.25" customHeight="1">
       <c r="A87" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B87" s="45" t="s">
         <v>107</v>
       </c>
       <c r="C87" s="45" t="s">
+        <v>184</v>
+      </c>
+      <c r="D87" s="45" t="s">
         <v>185</v>
-      </c>
-      <c r="D87" s="45" t="s">
-        <v>186</v>
       </c>
       <c r="E87" s="45" t="s">
         <v>17</v>
       </c>
+      <c r="F87" s="275" t="s">
+        <v>353</v>
+      </c>
+      <c r="G87" s="272"/>
+      <c r="H87" s="272"/>
     </row>
     <row r="88" spans="1:8" ht="26.25" customHeight="1">
       <c r="B88" s="45"/>
       <c r="C88" s="45" t="s">
+        <v>186</v>
+      </c>
+      <c r="D88" s="45" t="s">
         <v>187</v>
       </c>
-      <c r="D88" s="45" t="s">
-        <v>188</v>
-      </c>
       <c r="E88" s="45"/>
+      <c r="F88" s="275"/>
+      <c r="G88" s="272"/>
+      <c r="H88" s="272"/>
     </row>
     <row r="89" spans="1:8" ht="32.25" customHeight="1">
       <c r="A89" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
+      <c r="B90" s="150" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="90" spans="1:8">
-      <c r="B90" s="159" t="s">
+      <c r="C90" s="147" t="s">
+        <v>351</v>
+      </c>
+      <c r="D90" s="49"/>
+      <c r="E90" s="98" t="s">
         <v>190</v>
       </c>
-      <c r="C90" s="49" t="s">
-        <v>113</v>
-      </c>
-      <c r="D90" s="49"/>
-      <c r="E90" s="104" t="s">
+      <c r="F90" s="193" t="s">
+        <v>259</v>
+      </c>
+      <c r="G90" s="194"/>
+      <c r="H90" s="105"/>
+    </row>
+    <row r="91" spans="1:8">
+      <c r="B91" s="150"/>
+      <c r="C91" s="147" t="s">
+        <v>352</v>
+      </c>
+      <c r="D91" s="49"/>
+      <c r="E91" s="98" t="s">
+        <v>190</v>
+      </c>
+      <c r="F91" s="194"/>
+      <c r="G91" s="194"/>
+      <c r="H91" s="105"/>
+    </row>
+    <row r="92" spans="1:8">
+      <c r="B92" s="150" t="s">
         <v>191</v>
-      </c>
-      <c r="F90" s="241" t="s">
-        <v>260</v>
-      </c>
-      <c r="G90" s="242"/>
-      <c r="H90" s="112"/>
-    </row>
-    <row r="91" spans="1:8">
-      <c r="B91" s="159"/>
-      <c r="C91" s="49" t="s">
-        <v>127</v>
-      </c>
-      <c r="D91" s="49"/>
-      <c r="E91" s="104" t="s">
-        <v>191</v>
-      </c>
-      <c r="F91" s="242"/>
-      <c r="G91" s="242"/>
-      <c r="H91" s="112"/>
-    </row>
-    <row r="92" spans="1:8">
-      <c r="B92" s="159" t="s">
-        <v>192</v>
       </c>
       <c r="C92" s="49" t="s">
         <v>117</v>
       </c>
       <c r="D92" s="49"/>
-      <c r="E92" s="104" t="s">
-        <v>191</v>
-      </c>
-      <c r="F92" s="242"/>
-      <c r="G92" s="242"/>
-      <c r="H92" s="112"/>
+      <c r="E92" s="98" t="s">
+        <v>190</v>
+      </c>
+      <c r="F92" s="194"/>
+      <c r="G92" s="194"/>
+      <c r="H92" s="105"/>
     </row>
     <row r="93" spans="1:8">
-      <c r="B93" s="159"/>
+      <c r="B93" s="150"/>
       <c r="C93" s="49" t="s">
         <v>16</v>
       </c>
       <c r="D93" s="49"/>
-      <c r="E93" s="104" t="s">
-        <v>191</v>
-      </c>
-      <c r="F93" s="242"/>
-      <c r="G93" s="242"/>
-      <c r="H93" s="112"/>
+      <c r="E93" s="98" t="s">
+        <v>190</v>
+      </c>
+      <c r="F93" s="194"/>
+      <c r="G93" s="194"/>
+      <c r="H93" s="105"/>
     </row>
     <row r="94" spans="1:8">
-      <c r="B94" s="159"/>
+      <c r="B94" s="150"/>
       <c r="C94" s="49" t="s">
         <v>115</v>
       </c>
       <c r="D94" s="49"/>
-      <c r="E94" s="104" t="s">
-        <v>191</v>
-      </c>
-      <c r="F94" s="242"/>
-      <c r="G94" s="242"/>
-      <c r="H94" s="112"/>
+      <c r="E94" s="98" t="s">
+        <v>190</v>
+      </c>
+      <c r="F94" s="194"/>
+      <c r="G94" s="194"/>
+      <c r="H94" s="105"/>
     </row>
     <row r="95" spans="1:8">
-      <c r="B95" s="159"/>
+      <c r="B95" s="150"/>
       <c r="C95" s="51" t="s">
+        <v>260</v>
+      </c>
+      <c r="D95" s="49"/>
+      <c r="E95" s="99" t="s">
+        <v>190</v>
+      </c>
+      <c r="F95" s="100" t="s">
         <v>261</v>
       </c>
-      <c r="D95" s="49"/>
-      <c r="E95" s="105" t="s">
-        <v>191</v>
-      </c>
-      <c r="F95" s="106" t="s">
-        <v>262</v>
-      </c>
-      <c r="G95" s="106"/>
-      <c r="H95" s="106"/>
+      <c r="G95" s="100"/>
+      <c r="H95" s="100"/>
     </row>
     <row r="96" spans="1:8">
       <c r="B96" s="45" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C96" s="49"/>
       <c r="D96" s="49" t="s">
+        <v>193</v>
+      </c>
+      <c r="E96" s="97"/>
+    </row>
+    <row r="98" spans="1:7">
+      <c r="A98" t="s">
         <v>194</v>
       </c>
-      <c r="E96" s="103"/>
-    </row>
-    <row r="98" spans="1:4">
-      <c r="A98" t="s">
+    </row>
+    <row r="100" spans="1:7">
+      <c r="A100" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="100" spans="1:4">
-      <c r="A100" t="s">
+    <row r="102" spans="1:7" ht="13.5" customHeight="1">
+      <c r="B102" s="45" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="102" spans="1:4">
-      <c r="B102" s="45" t="s">
+      <c r="C102" s="45" t="s">
         <v>197</v>
       </c>
-      <c r="C102" s="45" t="s">
+      <c r="D102" s="45" t="s">
         <v>198</v>
       </c>
-      <c r="D102" s="45" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102" s="275" t="s">
+        <v>353</v>
+      </c>
+      <c r="F102" s="276"/>
+      <c r="G102" s="276"/>
+    </row>
+    <row r="103" spans="1:7" ht="13.5" customHeight="1">
       <c r="B103" s="45"/>
       <c r="C103" s="45"/>
       <c r="D103" s="45"/>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103" s="275"/>
+      <c r="F103" s="276"/>
+      <c r="G103" s="276"/>
+    </row>
+    <row r="104" spans="1:7" ht="13.5" customHeight="1">
       <c r="B104" s="45"/>
       <c r="C104" s="45"/>
       <c r="D104" s="45"/>
-    </row>
-    <row r="105" spans="1:4">
+      <c r="E104" s="275"/>
+      <c r="F104" s="276"/>
+      <c r="G104" s="276"/>
+    </row>
+    <row r="105" spans="1:7" ht="13.5" customHeight="1">
       <c r="B105" s="45"/>
       <c r="C105" s="45"/>
       <c r="D105" s="45"/>
-    </row>
-    <row r="106" spans="1:4">
+      <c r="E105" s="275"/>
+      <c r="F105" s="276"/>
+      <c r="G105" s="276"/>
+    </row>
+    <row r="106" spans="1:7" ht="13.5" customHeight="1">
       <c r="B106" s="45"/>
       <c r="C106" s="45"/>
       <c r="D106" s="45"/>
-    </row>
-    <row r="107" spans="1:4">
+      <c r="E106" s="275"/>
+      <c r="F106" s="276"/>
+      <c r="G106" s="276"/>
+    </row>
+    <row r="107" spans="1:7" ht="13.5" customHeight="1">
       <c r="B107" s="45"/>
       <c r="C107" s="45"/>
       <c r="D107" s="45"/>
-    </row>
-    <row r="108" spans="1:4">
+      <c r="E107" s="275"/>
+      <c r="F107" s="276"/>
+      <c r="G107" s="276"/>
+    </row>
+    <row r="108" spans="1:7" ht="13.5" customHeight="1">
       <c r="B108" s="45"/>
       <c r="C108" s="45"/>
       <c r="D108" s="45"/>
-    </row>
-    <row r="109" spans="1:4">
+      <c r="E108" s="275"/>
+      <c r="F108" s="276"/>
+      <c r="G108" s="276"/>
+    </row>
+    <row r="109" spans="1:7" ht="13.5" customHeight="1">
       <c r="B109" s="45" t="s">
         <v>132</v>
       </c>
       <c r="C109" s="45"/>
       <c r="D109" s="45" t="s">
-        <v>200</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="E109" s="275"/>
+      <c r="F109" s="276"/>
+      <c r="G109" s="276"/>
     </row>
   </sheetData>
-  <mergeCells count="77">
+  <mergeCells count="83">
+    <mergeCell ref="H54:I57"/>
+    <mergeCell ref="G40:H46"/>
+    <mergeCell ref="J5:L6"/>
+    <mergeCell ref="U25:W28"/>
+    <mergeCell ref="F87:H88"/>
+    <mergeCell ref="E102:G109"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="O25:T25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="J34:L34"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="I33:L33"/>
+    <mergeCell ref="B90:B91"/>
+    <mergeCell ref="F90:G94"/>
+    <mergeCell ref="B92:B95"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="I25:L25"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="J35:L35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="K29:L29"/>
     <mergeCell ref="E40:F40"/>
     <mergeCell ref="A41:B41"/>
     <mergeCell ref="E33:G33"/>
@@ -10021,69 +10340,9 @@
     <mergeCell ref="I32:J32"/>
     <mergeCell ref="K32:L32"/>
     <mergeCell ref="C34:D34"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="B90:B91"/>
-    <mergeCell ref="F90:G94"/>
-    <mergeCell ref="B92:B95"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="I25:L25"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="J35:L35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="J34:L34"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="I33:L33"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="O25:T25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:F11"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/doc/alice/20180302后台财务更新.xlsx
+++ b/doc/alice/20180302后台财务更新.xlsx
@@ -4944,7 +4944,7 @@
   <dimension ref="A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -9057,8 +9057,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:W109"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="J93" sqref="J93"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="J35" sqref="J35:L35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/doc/alice/20180302后台财务更新.xlsx
+++ b/doc/alice/20180302后台财务更新.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19029"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Hot-Tech\git.hot-basketball.com\doc\alice\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28080" windowHeight="13200" firstSheet="5" activeTab="8"/>
   </bookViews>
@@ -18,7 +23,7 @@
     <sheet name="训练营（机构版，按照营业额计算收入）" sheetId="15" r:id="rId9"/>
     <sheet name="平台" sheetId="12" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="124519" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -1459,8 +1464,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="39">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="39" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2968,13 +2973,49 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="9" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="15" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="25" fillId="7" borderId="9" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="28" fillId="7" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="9" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="15" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="26" fillId="8" borderId="9" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="18" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="26" fillId="8" borderId="18" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="8" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="11" borderId="51" xfId="6" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="34" fillId="11" borderId="51" xfId="6" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="11" borderId="51" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2986,121 +3027,256 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="34" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="18" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="6" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="39" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="37" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="39" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="8" borderId="36" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="8" borderId="37" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="8" borderId="32" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="8" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="8" borderId="38" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="32" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="38" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3115,130 +3291,64 @@
     <xf numFmtId="0" fontId="30" fillId="6" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="12" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="8" borderId="32" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="8" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="8" borderId="38" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="7" borderId="32" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="7" borderId="38" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="34" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="18" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="6" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="7" borderId="39" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="7" borderId="37" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="7" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="7" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="39" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="8" borderId="36" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="8" borderId="37" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="12" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="12" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="6" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3250,120 +3360,15 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="7" borderId="9" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="7" borderId="15" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="25" fillId="7" borderId="9" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="28" fillId="7" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="7" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="9" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="15" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="26" fillId="8" borderId="9" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="18" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="26" fillId="8" borderId="18" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="8" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="11" borderId="51" xfId="6" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="34" fillId="11" borderId="51" xfId="6" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="11" borderId="51" xfId="6" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="6" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="12" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="12" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="12" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="7">
-    <cellStyle name="40% - 强调文字颜色 1" xfId="4" builtinId="31"/>
+    <cellStyle name="40% - 着色 1" xfId="4" builtinId="31"/>
     <cellStyle name="差" xfId="1" builtinId="27"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="好" xfId="2" builtinId="26"/>
     <cellStyle name="计算" xfId="6" builtinId="22"/>
-    <cellStyle name="强调文字颜色 3" xfId="5" builtinId="37"/>
     <cellStyle name="适中" xfId="3" builtinId="28"/>
+    <cellStyle name="着色 3" xfId="5" builtinId="37"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3398,7 +3403,7 @@
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3451,7 +3456,7 @@
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3504,7 +3509,7 @@
         <xdr:cNvPr id="5" name="图片 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3552,7 +3557,7 @@
         <xdr:cNvPr id="6" name="图片 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3871,14 +3876,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T61"/>
   <sheetViews>
     <sheetView topLeftCell="A15" workbookViewId="0">
       <selection activeCell="A27" sqref="A27:XFD61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="14.25" customWidth="1"/>
     <col min="2" max="2" width="11.875" customWidth="1"/>
@@ -3899,84 +3904,84 @@
     <col min="18" max="18" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="41"/>
     </row>
-    <row r="2" spans="1:17" ht="15" customHeight="1">
+    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="42" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="42"/>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
-      <c r="A10" s="155" t="s">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A10" s="166" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="155" t="s">
+      <c r="B10" s="166" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="157" t="s">
+      <c r="C10" s="170" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="148"/>
-      <c r="E10" s="149"/>
-      <c r="F10" s="157" t="s">
+      <c r="D10" s="171"/>
+      <c r="E10" s="172"/>
+      <c r="F10" s="170" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="148"/>
-      <c r="H10" s="149"/>
-      <c r="I10" s="157" t="s">
+      <c r="G10" s="171"/>
+      <c r="H10" s="172"/>
+      <c r="I10" s="170" t="s">
         <v>12</v>
       </c>
-      <c r="J10" s="148"/>
-      <c r="K10" s="149"/>
-      <c r="L10" s="148" t="s">
+      <c r="J10" s="171"/>
+      <c r="K10" s="172"/>
+      <c r="L10" s="171" t="s">
         <v>13</v>
       </c>
-      <c r="M10" s="148"/>
-      <c r="N10" s="149"/>
-      <c r="O10" s="150" t="s">
+      <c r="M10" s="171"/>
+      <c r="N10" s="172"/>
+      <c r="O10" s="168" t="s">
         <v>14</v>
       </c>
-      <c r="P10" s="150"/>
-      <c r="Q10" s="150"/>
-    </row>
-    <row r="11" spans="1:17">
-      <c r="A11" s="156"/>
-      <c r="B11" s="156"/>
+      <c r="P10" s="168"/>
+      <c r="Q10" s="168"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A11" s="167"/>
+      <c r="B11" s="167"/>
       <c r="C11" s="5" t="s">
         <v>15</v>
       </c>
@@ -4023,8 +4028,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
-      <c r="A12" s="150" t="s">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A12" s="168" t="s">
         <v>18</v>
       </c>
       <c r="B12" s="5">
@@ -4073,8 +4078,8 @@
         <v>6806</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
-      <c r="A13" s="150"/>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A13" s="168"/>
       <c r="B13" s="5">
         <v>88</v>
       </c>
@@ -4121,8 +4126,8 @@
         <v>3520</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
-      <c r="A14" s="150"/>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A14" s="168"/>
       <c r="B14" s="5">
         <v>100</v>
       </c>
@@ -4169,8 +4174,8 @@
         <v>26600</v>
       </c>
     </row>
-    <row r="15" spans="1:17">
-      <c r="A15" s="150"/>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A15" s="168"/>
       <c r="B15" s="5" t="s">
         <v>19</v>
       </c>
@@ -4226,8 +4231,8 @@
         <v>36926</v>
       </c>
     </row>
-    <row r="16" spans="1:17" hidden="1">
-      <c r="A16" s="155" t="s">
+    <row r="16" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="166" t="s">
         <v>20</v>
       </c>
       <c r="B16" s="5">
@@ -4273,8 +4278,8 @@
       </c>
       <c r="Q16" s="40"/>
     </row>
-    <row r="17" spans="1:17" hidden="1">
-      <c r="A17" s="156"/>
+    <row r="17" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="167"/>
       <c r="B17" s="5" t="s">
         <v>19</v>
       </c>
@@ -4327,8 +4332,8 @@
       </c>
       <c r="Q17" s="40"/>
     </row>
-    <row r="18" spans="1:17">
-      <c r="A18" s="150" t="s">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A18" s="168" t="s">
         <v>21</v>
       </c>
       <c r="B18" s="5">
@@ -4380,8 +4385,8 @@
         <v>153600</v>
       </c>
     </row>
-    <row r="19" spans="1:17">
-      <c r="A19" s="150"/>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A19" s="168"/>
       <c r="B19" s="5">
         <v>180</v>
       </c>
@@ -4431,8 +4436,8 @@
         <v>3240</v>
       </c>
     </row>
-    <row r="20" spans="1:17">
-      <c r="A20" s="150"/>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A20" s="168"/>
       <c r="B20" s="5">
         <v>240</v>
       </c>
@@ -4482,8 +4487,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:17">
-      <c r="A21" s="150"/>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A21" s="168"/>
       <c r="B21" s="5" t="s">
         <v>19</v>
       </c>
@@ -4539,7 +4544,7 @@
         <v>156840</v>
       </c>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A22" s="43" t="s">
         <v>22</v>
       </c>
@@ -4551,7 +4556,7 @@
       <c r="G22" s="9"/>
       <c r="H22" s="9"/>
     </row>
-    <row r="23" spans="1:17">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A23" s="43" t="s">
         <v>23</v>
       </c>
@@ -4563,7 +4568,7 @@
       <c r="G23" s="9"/>
       <c r="H23" s="9"/>
     </row>
-    <row r="24" spans="1:17">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A24" s="43" t="s">
         <v>24</v>
       </c>
@@ -4575,7 +4580,7 @@
       <c r="G24" s="9"/>
       <c r="H24" s="9"/>
     </row>
-    <row r="25" spans="1:17">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A25" s="44"/>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
@@ -4585,23 +4590,23 @@
       <c r="G25" s="9"/>
       <c r="H25" s="9"/>
     </row>
-    <row r="26" spans="1:17">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A26" s="41" t="s">
         <v>25</v>
       </c>
       <c r="B26" s="41"/>
     </row>
-    <row r="27" spans="1:17">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="44" spans="1:20">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="45" spans="1:20">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
         <v>28</v>
       </c>
@@ -4622,7 +4627,7 @@
       </c>
       <c r="T45" s="11"/>
     </row>
-    <row r="46" spans="1:20">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A46" s="4" t="s">
         <v>34</v>
       </c>
@@ -4632,22 +4637,22 @@
       <c r="C46" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D46" s="154" t="s">
+      <c r="D46" s="169" t="s">
         <v>37</v>
       </c>
-      <c r="E46" s="154"/>
-      <c r="F46" s="154"/>
-      <c r="G46" s="154"/>
-      <c r="H46" s="154"/>
-      <c r="I46" s="154"/>
-      <c r="J46" s="154"/>
-      <c r="K46" s="154"/>
+      <c r="E46" s="169"/>
+      <c r="F46" s="169"/>
+      <c r="G46" s="169"/>
+      <c r="H46" s="169"/>
+      <c r="I46" s="169"/>
+      <c r="J46" s="169"/>
+      <c r="K46" s="169"/>
       <c r="L46" t="s">
         <v>38</v>
       </c>
       <c r="T46" s="13"/>
     </row>
-    <row r="47" spans="1:20">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A47" s="4" t="s">
         <v>39</v>
       </c>
@@ -4657,22 +4662,22 @@
       <c r="C47" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D47" s="151" t="s">
+      <c r="D47" s="163" t="s">
         <v>41</v>
       </c>
-      <c r="E47" s="152"/>
-      <c r="F47" s="152"/>
-      <c r="G47" s="152"/>
-      <c r="H47" s="152"/>
-      <c r="I47" s="152"/>
-      <c r="J47" s="152"/>
-      <c r="K47" s="153"/>
+      <c r="E47" s="164"/>
+      <c r="F47" s="164"/>
+      <c r="G47" s="164"/>
+      <c r="H47" s="164"/>
+      <c r="I47" s="164"/>
+      <c r="J47" s="164"/>
+      <c r="K47" s="165"/>
       <c r="L47" t="s">
         <v>42</v>
       </c>
       <c r="T47" s="13"/>
     </row>
-    <row r="48" spans="1:20">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A48" s="4" t="s">
         <v>39</v>
       </c>
@@ -4682,22 +4687,22 @@
       <c r="C48" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D48" s="151" t="s">
+      <c r="D48" s="163" t="s">
         <v>44</v>
       </c>
-      <c r="E48" s="152"/>
-      <c r="F48" s="152"/>
-      <c r="G48" s="152"/>
-      <c r="H48" s="152"/>
-      <c r="I48" s="152"/>
-      <c r="J48" s="152"/>
-      <c r="K48" s="153"/>
+      <c r="E48" s="164"/>
+      <c r="F48" s="164"/>
+      <c r="G48" s="164"/>
+      <c r="H48" s="164"/>
+      <c r="I48" s="164"/>
+      <c r="J48" s="164"/>
+      <c r="K48" s="165"/>
       <c r="L48" t="s">
         <v>45</v>
       </c>
       <c r="T48" s="13"/>
     </row>
-    <row r="50" spans="1:20">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
         <v>46</v>
       </c>
@@ -4717,7 +4722,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="51" spans="1:20">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A51" s="4" t="s">
         <v>34</v>
       </c>
@@ -4727,21 +4732,21 @@
       <c r="C51" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D51" s="154" t="s">
+      <c r="D51" s="169" t="s">
         <v>49</v>
       </c>
-      <c r="E51" s="154"/>
-      <c r="F51" s="154"/>
-      <c r="G51" s="154"/>
-      <c r="H51" s="154"/>
-      <c r="I51" s="154"/>
-      <c r="J51" s="154"/>
-      <c r="K51" s="154"/>
+      <c r="E51" s="169"/>
+      <c r="F51" s="169"/>
+      <c r="G51" s="169"/>
+      <c r="H51" s="169"/>
+      <c r="I51" s="169"/>
+      <c r="J51" s="169"/>
+      <c r="K51" s="169"/>
       <c r="L51" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:20">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A52" s="4" t="s">
         <v>39</v>
       </c>
@@ -4751,21 +4756,21 @@
       <c r="C52" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D52" s="151" t="s">
+      <c r="D52" s="163" t="s">
         <v>51</v>
       </c>
-      <c r="E52" s="152"/>
-      <c r="F52" s="152"/>
-      <c r="G52" s="152"/>
-      <c r="H52" s="152"/>
-      <c r="I52" s="152"/>
-      <c r="J52" s="152"/>
-      <c r="K52" s="153"/>
+      <c r="E52" s="164"/>
+      <c r="F52" s="164"/>
+      <c r="G52" s="164"/>
+      <c r="H52" s="164"/>
+      <c r="I52" s="164"/>
+      <c r="J52" s="164"/>
+      <c r="K52" s="165"/>
       <c r="L52" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="53" spans="1:20">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A53" s="4" t="s">
         <v>39</v>
       </c>
@@ -4775,21 +4780,21 @@
       <c r="C53" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D53" s="151" t="s">
+      <c r="D53" s="163" t="s">
         <v>53</v>
       </c>
-      <c r="E53" s="152"/>
-      <c r="F53" s="152"/>
-      <c r="G53" s="152"/>
-      <c r="H53" s="152"/>
-      <c r="I53" s="152"/>
-      <c r="J53" s="152"/>
-      <c r="K53" s="153"/>
+      <c r="E53" s="164"/>
+      <c r="F53" s="164"/>
+      <c r="G53" s="164"/>
+      <c r="H53" s="164"/>
+      <c r="I53" s="164"/>
+      <c r="J53" s="164"/>
+      <c r="K53" s="165"/>
       <c r="L53" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="54" spans="1:20">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.15">
       <c r="C54" s="9"/>
       <c r="D54" s="37"/>
       <c r="E54" s="37"/>
@@ -4799,7 +4804,7 @@
       <c r="I54" s="37"/>
       <c r="J54" s="37"/>
     </row>
-    <row r="55" spans="1:20">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
         <v>55</v>
       </c>
@@ -4819,7 +4824,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="56" spans="1:20">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A56" s="4" t="s">
         <v>34</v>
       </c>
@@ -4829,21 +4834,21 @@
       <c r="C56" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D56" s="154" t="s">
+      <c r="D56" s="169" t="s">
         <v>57</v>
       </c>
-      <c r="E56" s="154"/>
-      <c r="F56" s="154"/>
-      <c r="G56" s="154"/>
-      <c r="H56" s="154"/>
-      <c r="I56" s="154"/>
-      <c r="J56" s="154"/>
-      <c r="K56" s="154"/>
+      <c r="E56" s="169"/>
+      <c r="F56" s="169"/>
+      <c r="G56" s="169"/>
+      <c r="H56" s="169"/>
+      <c r="I56" s="169"/>
+      <c r="J56" s="169"/>
+      <c r="K56" s="169"/>
       <c r="L56" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="57" spans="1:20">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A57" s="4" t="s">
         <v>39</v>
       </c>
@@ -4853,21 +4858,21 @@
       <c r="C57" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D57" s="151" t="s">
+      <c r="D57" s="163" t="s">
         <v>51</v>
       </c>
-      <c r="E57" s="152"/>
-      <c r="F57" s="152"/>
-      <c r="G57" s="152"/>
-      <c r="H57" s="152"/>
-      <c r="I57" s="152"/>
-      <c r="J57" s="152"/>
-      <c r="K57" s="153"/>
+      <c r="E57" s="164"/>
+      <c r="F57" s="164"/>
+      <c r="G57" s="164"/>
+      <c r="H57" s="164"/>
+      <c r="I57" s="164"/>
+      <c r="J57" s="164"/>
+      <c r="K57" s="165"/>
       <c r="L57" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="58" spans="1:20">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A58" s="4" t="s">
         <v>39</v>
       </c>
@@ -4877,21 +4882,21 @@
       <c r="C58" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D58" s="151" t="s">
+      <c r="D58" s="163" t="s">
         <v>53</v>
       </c>
-      <c r="E58" s="152"/>
-      <c r="F58" s="152"/>
-      <c r="G58" s="152"/>
-      <c r="H58" s="152"/>
-      <c r="I58" s="152"/>
-      <c r="J58" s="152"/>
-      <c r="K58" s="153"/>
+      <c r="E58" s="164"/>
+      <c r="F58" s="164"/>
+      <c r="G58" s="164"/>
+      <c r="H58" s="164"/>
+      <c r="I58" s="164"/>
+      <c r="J58" s="164"/>
+      <c r="K58" s="165"/>
       <c r="L58" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="59" spans="1:20">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.15">
       <c r="C59" s="9"/>
       <c r="D59" s="27"/>
       <c r="E59" s="27"/>
@@ -4902,17 +4907,22 @@
       <c r="J59" s="27"/>
       <c r="K59" s="27"/>
     </row>
-    <row r="60" spans="1:20">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
         <v>59</v>
       </c>
       <c r="T60" s="11"/>
     </row>
-    <row r="61" spans="1:20">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.15">
       <c r="T61" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="L10:N10"/>
+    <mergeCell ref="O10:Q10"/>
+    <mergeCell ref="D53:K53"/>
+    <mergeCell ref="D56:K56"/>
+    <mergeCell ref="D57:K57"/>
     <mergeCell ref="D58:K58"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A12:A15"/>
@@ -4927,11 +4937,6 @@
     <mergeCell ref="C10:E10"/>
     <mergeCell ref="F10:H10"/>
     <mergeCell ref="I10:K10"/>
-    <mergeCell ref="L10:N10"/>
-    <mergeCell ref="O10:Q10"/>
-    <mergeCell ref="D53:K53"/>
-    <mergeCell ref="D56:K56"/>
-    <mergeCell ref="D57:K57"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
@@ -4940,16 +4945,16 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>200</v>
       </c>
@@ -4961,31 +4966,31 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T68"/>
   <sheetViews>
     <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="A44" sqref="A44:XFD68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="16.25" customWidth="1"/>
     <col min="2" max="2" width="14.25" customWidth="1"/>
     <col min="11" max="11" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="20.25">
+    <row r="1" spans="1:1" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:20">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:20">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>28</v>
       </c>
@@ -5006,7 +5011,7 @@
       </c>
       <c r="T19" s="11"/>
     </row>
-    <row r="20" spans="1:20">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A20" s="4" t="s">
         <v>34</v>
       </c>
@@ -5016,19 +5021,19 @@
       <c r="C20" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D20" s="154" t="s">
+      <c r="D20" s="169" t="s">
         <v>37</v>
       </c>
-      <c r="E20" s="154"/>
-      <c r="F20" s="154"/>
-      <c r="G20" s="154"/>
-      <c r="H20" s="154"/>
-      <c r="I20" s="154"/>
-      <c r="J20" s="154"/>
-      <c r="K20" s="154"/>
+      <c r="E20" s="169"/>
+      <c r="F20" s="169"/>
+      <c r="G20" s="169"/>
+      <c r="H20" s="169"/>
+      <c r="I20" s="169"/>
+      <c r="J20" s="169"/>
+      <c r="K20" s="169"/>
       <c r="T20" s="13"/>
     </row>
-    <row r="21" spans="1:20">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A21" s="4" t="s">
         <v>39</v>
       </c>
@@ -5038,19 +5043,19 @@
       <c r="C21" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D21" s="151" t="s">
+      <c r="D21" s="163" t="s">
         <v>41</v>
       </c>
-      <c r="E21" s="152"/>
-      <c r="F21" s="152"/>
-      <c r="G21" s="152"/>
-      <c r="H21" s="152"/>
-      <c r="I21" s="152"/>
-      <c r="J21" s="152"/>
-      <c r="K21" s="153"/>
+      <c r="E21" s="164"/>
+      <c r="F21" s="164"/>
+      <c r="G21" s="164"/>
+      <c r="H21" s="164"/>
+      <c r="I21" s="164"/>
+      <c r="J21" s="164"/>
+      <c r="K21" s="165"/>
       <c r="T21" s="13"/>
     </row>
-    <row r="22" spans="1:20">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A22" s="4" t="s">
         <v>39</v>
       </c>
@@ -5060,19 +5065,19 @@
       <c r="C22" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D22" s="151" t="s">
+      <c r="D22" s="163" t="s">
         <v>44</v>
       </c>
-      <c r="E22" s="152"/>
-      <c r="F22" s="152"/>
-      <c r="G22" s="152"/>
-      <c r="H22" s="152"/>
-      <c r="I22" s="152"/>
-      <c r="J22" s="152"/>
-      <c r="K22" s="153"/>
+      <c r="E22" s="164"/>
+      <c r="F22" s="164"/>
+      <c r="G22" s="164"/>
+      <c r="H22" s="164"/>
+      <c r="I22" s="164"/>
+      <c r="J22" s="164"/>
+      <c r="K22" s="165"/>
       <c r="T22" s="13"/>
     </row>
-    <row r="24" spans="1:20">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>46</v>
       </c>
@@ -5092,7 +5097,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="1:20">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A25" s="4" t="s">
         <v>34</v>
       </c>
@@ -5102,18 +5107,18 @@
       <c r="C25" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D25" s="154" t="s">
+      <c r="D25" s="169" t="s">
         <v>49</v>
       </c>
-      <c r="E25" s="154"/>
-      <c r="F25" s="154"/>
-      <c r="G25" s="154"/>
-      <c r="H25" s="154"/>
-      <c r="I25" s="154"/>
-      <c r="J25" s="154"/>
-      <c r="K25" s="154"/>
-    </row>
-    <row r="26" spans="1:20">
+      <c r="E25" s="169"/>
+      <c r="F25" s="169"/>
+      <c r="G25" s="169"/>
+      <c r="H25" s="169"/>
+      <c r="I25" s="169"/>
+      <c r="J25" s="169"/>
+      <c r="K25" s="169"/>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A26" s="4" t="s">
         <v>39</v>
       </c>
@@ -5123,18 +5128,18 @@
       <c r="C26" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D26" s="151" t="s">
+      <c r="D26" s="163" t="s">
         <v>51</v>
       </c>
-      <c r="E26" s="152"/>
-      <c r="F26" s="152"/>
-      <c r="G26" s="152"/>
-      <c r="H26" s="152"/>
-      <c r="I26" s="152"/>
-      <c r="J26" s="152"/>
-      <c r="K26" s="153"/>
-    </row>
-    <row r="27" spans="1:20">
+      <c r="E26" s="164"/>
+      <c r="F26" s="164"/>
+      <c r="G26" s="164"/>
+      <c r="H26" s="164"/>
+      <c r="I26" s="164"/>
+      <c r="J26" s="164"/>
+      <c r="K26" s="165"/>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A27" s="4" t="s">
         <v>39</v>
       </c>
@@ -5144,18 +5149,18 @@
       <c r="C27" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D27" s="151" t="s">
+      <c r="D27" s="163" t="s">
         <v>53</v>
       </c>
-      <c r="E27" s="152"/>
-      <c r="F27" s="152"/>
-      <c r="G27" s="152"/>
-      <c r="H27" s="152"/>
-      <c r="I27" s="152"/>
-      <c r="J27" s="152"/>
-      <c r="K27" s="153"/>
-    </row>
-    <row r="28" spans="1:20">
+      <c r="E27" s="164"/>
+      <c r="F27" s="164"/>
+      <c r="G27" s="164"/>
+      <c r="H27" s="164"/>
+      <c r="I27" s="164"/>
+      <c r="J27" s="164"/>
+      <c r="K27" s="165"/>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.15">
       <c r="C28" s="9"/>
       <c r="D28" s="37"/>
       <c r="E28" s="37"/>
@@ -5165,7 +5170,7 @@
       <c r="I28" s="37"/>
       <c r="J28" s="37"/>
     </row>
-    <row r="29" spans="1:20">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>55</v>
       </c>
@@ -5185,7 +5190,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="1:20">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A30" s="4" t="s">
         <v>34</v>
       </c>
@@ -5195,18 +5200,18 @@
       <c r="C30" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D30" s="154" t="s">
+      <c r="D30" s="169" t="s">
         <v>57</v>
       </c>
-      <c r="E30" s="154"/>
-      <c r="F30" s="154"/>
-      <c r="G30" s="154"/>
-      <c r="H30" s="154"/>
-      <c r="I30" s="154"/>
-      <c r="J30" s="154"/>
-      <c r="K30" s="154"/>
-    </row>
-    <row r="31" spans="1:20">
+      <c r="E30" s="169"/>
+      <c r="F30" s="169"/>
+      <c r="G30" s="169"/>
+      <c r="H30" s="169"/>
+      <c r="I30" s="169"/>
+      <c r="J30" s="169"/>
+      <c r="K30" s="169"/>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A31" s="4" t="s">
         <v>39</v>
       </c>
@@ -5216,18 +5221,18 @@
       <c r="C31" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D31" s="151" t="s">
+      <c r="D31" s="163" t="s">
         <v>51</v>
       </c>
-      <c r="E31" s="152"/>
-      <c r="F31" s="152"/>
-      <c r="G31" s="152"/>
-      <c r="H31" s="152"/>
-      <c r="I31" s="152"/>
-      <c r="J31" s="152"/>
-      <c r="K31" s="153"/>
-    </row>
-    <row r="32" spans="1:20">
+      <c r="E31" s="164"/>
+      <c r="F31" s="164"/>
+      <c r="G31" s="164"/>
+      <c r="H31" s="164"/>
+      <c r="I31" s="164"/>
+      <c r="J31" s="164"/>
+      <c r="K31" s="165"/>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A32" s="4" t="s">
         <v>39</v>
       </c>
@@ -5237,52 +5242,52 @@
       <c r="C32" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D32" s="151" t="s">
+      <c r="D32" s="163" t="s">
         <v>53</v>
       </c>
-      <c r="E32" s="152"/>
-      <c r="F32" s="152"/>
-      <c r="G32" s="152"/>
-      <c r="H32" s="152"/>
-      <c r="I32" s="152"/>
-      <c r="J32" s="152"/>
-      <c r="K32" s="153"/>
-    </row>
-    <row r="33" spans="1:20">
+      <c r="E32" s="164"/>
+      <c r="F32" s="164"/>
+      <c r="G32" s="164"/>
+      <c r="H32" s="164"/>
+      <c r="I32" s="164"/>
+      <c r="J32" s="164"/>
+      <c r="K32" s="165"/>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>59</v>
       </c>
       <c r="T33" s="11"/>
     </row>
-    <row r="36" spans="1:20">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.15">
       <c r="T36" s="11"/>
     </row>
-    <row r="37" spans="1:20">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="38" spans="1:20">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="39" spans="1:20">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="40" spans="1:20">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="41" spans="1:20">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="44" spans="1:20">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A44" s="16" t="s">
         <v>66</v>
       </c>
@@ -5301,13 +5306,13 @@
       <c r="J44" s="19"/>
       <c r="K44" s="32"/>
     </row>
-    <row r="45" spans="1:20">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A45" s="25"/>
       <c r="B45" s="9"/>
       <c r="C45" s="20"/>
       <c r="K45" s="33"/>
     </row>
-    <row r="46" spans="1:20" ht="22.5">
+    <row r="46" spans="1:20" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A46" s="21" t="s">
         <v>69</v>
       </c>
@@ -5316,7 +5321,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="47" spans="1:20">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A47" s="22"/>
       <c r="B47" s="23"/>
       <c r="C47" s="24"/>
@@ -5325,7 +5330,7 @@
       <c r="F47" s="23"/>
       <c r="K47" s="33"/>
     </row>
-    <row r="48" spans="1:20">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A48" s="25" t="s">
         <v>71</v>
       </c>
@@ -5346,7 +5351,7 @@
       </c>
       <c r="K48" s="33"/>
     </row>
-    <row r="49" spans="1:20">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A49" s="26" t="s">
         <v>76</v>
       </c>
@@ -5356,50 +5361,50 @@
       <c r="C49" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="D49" s="154" t="s">
+      <c r="D49" s="169" t="s">
         <v>79</v>
       </c>
-      <c r="E49" s="154"/>
-      <c r="F49" s="154"/>
-      <c r="G49" s="154"/>
-      <c r="H49" s="154"/>
-      <c r="I49" s="154"/>
-      <c r="J49" s="154"/>
-      <c r="K49" s="158"/>
+      <c r="E49" s="169"/>
+      <c r="F49" s="169"/>
+      <c r="G49" s="169"/>
+      <c r="H49" s="169"/>
+      <c r="I49" s="169"/>
+      <c r="J49" s="169"/>
+      <c r="K49" s="179"/>
       <c r="T49" s="13"/>
     </row>
-    <row r="50" spans="1:20">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A50" s="26"/>
       <c r="B50" s="4"/>
       <c r="C50" s="5"/>
-      <c r="D50" s="151"/>
-      <c r="E50" s="152"/>
-      <c r="F50" s="152"/>
-      <c r="G50" s="152"/>
-      <c r="H50" s="152"/>
-      <c r="I50" s="152"/>
-      <c r="J50" s="152"/>
-      <c r="K50" s="159"/>
+      <c r="D50" s="163"/>
+      <c r="E50" s="164"/>
+      <c r="F50" s="164"/>
+      <c r="G50" s="164"/>
+      <c r="H50" s="164"/>
+      <c r="I50" s="164"/>
+      <c r="J50" s="164"/>
+      <c r="K50" s="178"/>
       <c r="L50" t="s">
         <v>80</v>
       </c>
       <c r="T50" s="13"/>
     </row>
-    <row r="51" spans="1:20">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A51" s="26"/>
       <c r="B51" s="4"/>
       <c r="C51" s="5"/>
-      <c r="D51" s="151"/>
-      <c r="E51" s="152"/>
-      <c r="F51" s="152"/>
-      <c r="G51" s="152"/>
-      <c r="H51" s="152"/>
-      <c r="I51" s="152"/>
-      <c r="J51" s="152"/>
-      <c r="K51" s="159"/>
+      <c r="D51" s="163"/>
+      <c r="E51" s="164"/>
+      <c r="F51" s="164"/>
+      <c r="G51" s="164"/>
+      <c r="H51" s="164"/>
+      <c r="I51" s="164"/>
+      <c r="J51" s="164"/>
+      <c r="K51" s="178"/>
       <c r="T51" s="13"/>
     </row>
-    <row r="52" spans="1:20">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A52" s="22"/>
       <c r="C52" s="9"/>
       <c r="D52" s="27"/>
@@ -5412,7 +5417,7 @@
       <c r="K52" s="35"/>
       <c r="T52" s="37"/>
     </row>
-    <row r="53" spans="1:20">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A53" s="25" t="s">
         <v>81</v>
       </c>
@@ -5434,181 +5439,181 @@
       <c r="K53" s="33"/>
       <c r="T53" s="37"/>
     </row>
-    <row r="54" spans="1:20">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A54" s="26" t="s">
         <v>76</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C54" s="160" t="s">
+      <c r="C54" s="175" t="s">
         <v>82</v>
       </c>
-      <c r="D54" s="161"/>
-      <c r="E54" s="161"/>
-      <c r="F54" s="161"/>
-      <c r="G54" s="161"/>
-      <c r="H54" s="161"/>
-      <c r="I54" s="161"/>
-      <c r="J54" s="161"/>
-      <c r="K54" s="162"/>
+      <c r="D54" s="176"/>
+      <c r="E54" s="176"/>
+      <c r="F54" s="176"/>
+      <c r="G54" s="176"/>
+      <c r="H54" s="176"/>
+      <c r="I54" s="176"/>
+      <c r="J54" s="176"/>
+      <c r="K54" s="177"/>
       <c r="T54" s="37"/>
     </row>
-    <row r="55" spans="1:20">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A55" s="26"/>
       <c r="B55" s="4"/>
-      <c r="C55" s="160"/>
-      <c r="D55" s="161"/>
-      <c r="E55" s="161"/>
-      <c r="F55" s="161"/>
-      <c r="G55" s="161"/>
-      <c r="H55" s="161"/>
-      <c r="I55" s="161"/>
-      <c r="J55" s="161"/>
-      <c r="K55" s="162"/>
+      <c r="C55" s="175"/>
+      <c r="D55" s="176"/>
+      <c r="E55" s="176"/>
+      <c r="F55" s="176"/>
+      <c r="G55" s="176"/>
+      <c r="H55" s="176"/>
+      <c r="I55" s="176"/>
+      <c r="J55" s="176"/>
+      <c r="K55" s="177"/>
       <c r="L55" t="s">
         <v>83</v>
       </c>
       <c r="T55" s="37"/>
     </row>
-    <row r="56" spans="1:20">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A56" s="26"/>
       <c r="B56" s="4"/>
-      <c r="C56" s="160"/>
-      <c r="D56" s="161"/>
-      <c r="E56" s="161"/>
-      <c r="F56" s="161"/>
-      <c r="G56" s="161"/>
-      <c r="H56" s="161"/>
-      <c r="I56" s="161"/>
-      <c r="J56" s="161"/>
-      <c r="K56" s="162"/>
+      <c r="C56" s="175"/>
+      <c r="D56" s="176"/>
+      <c r="E56" s="176"/>
+      <c r="F56" s="176"/>
+      <c r="G56" s="176"/>
+      <c r="H56" s="176"/>
+      <c r="I56" s="176"/>
+      <c r="J56" s="176"/>
+      <c r="K56" s="177"/>
       <c r="T56" s="37"/>
     </row>
-    <row r="57" spans="1:20">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A57" s="22"/>
       <c r="K57" s="33"/>
     </row>
-    <row r="58" spans="1:20">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A58" s="22" t="s">
         <v>84</v>
       </c>
       <c r="K58" s="33"/>
     </row>
-    <row r="59" spans="1:20">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A59" s="26" t="s">
         <v>85</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="C59" s="160" t="s">
+      <c r="C59" s="175" t="s">
         <v>82</v>
       </c>
-      <c r="D59" s="161"/>
-      <c r="E59" s="161"/>
-      <c r="F59" s="161"/>
-      <c r="G59" s="161"/>
-      <c r="H59" s="161"/>
-      <c r="I59" s="161"/>
-      <c r="J59" s="161"/>
-      <c r="K59" s="162"/>
+      <c r="D59" s="176"/>
+      <c r="E59" s="176"/>
+      <c r="F59" s="176"/>
+      <c r="G59" s="176"/>
+      <c r="H59" s="176"/>
+      <c r="I59" s="176"/>
+      <c r="J59" s="176"/>
+      <c r="K59" s="177"/>
       <c r="T59" s="13"/>
     </row>
-    <row r="60" spans="1:20">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A60" s="26"/>
       <c r="B60" s="4"/>
-      <c r="C60" s="160"/>
-      <c r="D60" s="161"/>
-      <c r="E60" s="161"/>
-      <c r="F60" s="161"/>
-      <c r="G60" s="161"/>
-      <c r="H60" s="161"/>
-      <c r="I60" s="161"/>
-      <c r="J60" s="161"/>
-      <c r="K60" s="162"/>
+      <c r="C60" s="175"/>
+      <c r="D60" s="176"/>
+      <c r="E60" s="176"/>
+      <c r="F60" s="176"/>
+      <c r="G60" s="176"/>
+      <c r="H60" s="176"/>
+      <c r="I60" s="176"/>
+      <c r="J60" s="176"/>
+      <c r="K60" s="177"/>
       <c r="T60" s="13"/>
     </row>
-    <row r="61" spans="1:20">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A61" s="26"/>
       <c r="B61" s="4"/>
-      <c r="C61" s="160"/>
-      <c r="D61" s="161"/>
-      <c r="E61" s="161"/>
-      <c r="F61" s="161"/>
-      <c r="G61" s="161"/>
-      <c r="H61" s="161"/>
-      <c r="I61" s="161"/>
-      <c r="J61" s="161"/>
-      <c r="K61" s="162"/>
+      <c r="C61" s="175"/>
+      <c r="D61" s="176"/>
+      <c r="E61" s="176"/>
+      <c r="F61" s="176"/>
+      <c r="G61" s="176"/>
+      <c r="H61" s="176"/>
+      <c r="I61" s="176"/>
+      <c r="J61" s="176"/>
+      <c r="K61" s="177"/>
       <c r="T61" s="13"/>
     </row>
-    <row r="62" spans="1:20">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A62" s="22"/>
       <c r="K62" s="33"/>
     </row>
-    <row r="63" spans="1:20">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A63" s="22" t="s">
         <v>87</v>
       </c>
       <c r="K63" s="33"/>
     </row>
-    <row r="64" spans="1:20">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A64" s="26" t="s">
         <v>88</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C64" s="150" t="s">
+      <c r="C64" s="168" t="s">
         <v>90</v>
       </c>
-      <c r="D64" s="150"/>
-      <c r="E64" s="150" t="s">
+      <c r="D64" s="168"/>
+      <c r="E64" s="168" t="s">
         <v>91</v>
       </c>
-      <c r="F64" s="150"/>
-      <c r="G64" s="163" t="s">
+      <c r="F64" s="168"/>
+      <c r="G64" s="173" t="s">
         <v>92</v>
       </c>
-      <c r="H64" s="149"/>
-      <c r="I64" s="163" t="s">
+      <c r="H64" s="172"/>
+      <c r="I64" s="173" t="s">
         <v>93</v>
       </c>
-      <c r="J64" s="148"/>
-      <c r="K64" s="164"/>
-    </row>
-    <row r="65" spans="1:11">
+      <c r="J64" s="171"/>
+      <c r="K64" s="174"/>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A65" s="26"/>
       <c r="B65" s="4"/>
-      <c r="C65" s="150"/>
-      <c r="D65" s="150"/>
-      <c r="E65" s="150"/>
-      <c r="F65" s="150"/>
-      <c r="G65" s="163"/>
-      <c r="H65" s="149"/>
-      <c r="I65" s="163"/>
-      <c r="J65" s="148"/>
-      <c r="K65" s="164"/>
-    </row>
-    <row r="66" spans="1:11">
+      <c r="C65" s="168"/>
+      <c r="D65" s="168"/>
+      <c r="E65" s="168"/>
+      <c r="F65" s="168"/>
+      <c r="G65" s="173"/>
+      <c r="H65" s="172"/>
+      <c r="I65" s="173"/>
+      <c r="J65" s="171"/>
+      <c r="K65" s="174"/>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A66" s="26"/>
       <c r="B66" s="4"/>
-      <c r="C66" s="150"/>
-      <c r="D66" s="150"/>
-      <c r="E66" s="150"/>
-      <c r="F66" s="150"/>
-      <c r="G66" s="163"/>
-      <c r="H66" s="149"/>
-      <c r="I66" s="163"/>
-      <c r="J66" s="148"/>
-      <c r="K66" s="164"/>
-    </row>
-    <row r="67" spans="1:11">
+      <c r="C66" s="168"/>
+      <c r="D66" s="168"/>
+      <c r="E66" s="168"/>
+      <c r="F66" s="168"/>
+      <c r="G66" s="173"/>
+      <c r="H66" s="172"/>
+      <c r="I66" s="173"/>
+      <c r="J66" s="171"/>
+      <c r="K66" s="174"/>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A67" s="22"/>
       <c r="K67" s="33"/>
     </row>
-    <row r="68" spans="1:11">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A68" s="28"/>
       <c r="B68" s="29"/>
       <c r="C68" s="29"/>
@@ -5623,6 +5628,28 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="D20:K20"/>
+    <mergeCell ref="D21:K21"/>
+    <mergeCell ref="D22:K22"/>
+    <mergeCell ref="D25:K25"/>
+    <mergeCell ref="D26:K26"/>
+    <mergeCell ref="D27:K27"/>
+    <mergeCell ref="D30:K30"/>
+    <mergeCell ref="D31:K31"/>
+    <mergeCell ref="D32:K32"/>
+    <mergeCell ref="D49:K49"/>
+    <mergeCell ref="D50:K50"/>
+    <mergeCell ref="D51:K51"/>
+    <mergeCell ref="C54:K54"/>
+    <mergeCell ref="C55:K55"/>
+    <mergeCell ref="C56:K56"/>
+    <mergeCell ref="C59:K59"/>
+    <mergeCell ref="C60:K60"/>
+    <mergeCell ref="C61:K61"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="G64:H64"/>
+    <mergeCell ref="I64:K64"/>
     <mergeCell ref="C65:D65"/>
     <mergeCell ref="E65:F65"/>
     <mergeCell ref="G65:H65"/>
@@ -5631,28 +5658,6 @@
     <mergeCell ref="E66:F66"/>
     <mergeCell ref="G66:H66"/>
     <mergeCell ref="I66:K66"/>
-    <mergeCell ref="C59:K59"/>
-    <mergeCell ref="C60:K60"/>
-    <mergeCell ref="C61:K61"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="E64:F64"/>
-    <mergeCell ref="G64:H64"/>
-    <mergeCell ref="I64:K64"/>
-    <mergeCell ref="D50:K50"/>
-    <mergeCell ref="D51:K51"/>
-    <mergeCell ref="C54:K54"/>
-    <mergeCell ref="C55:K55"/>
-    <mergeCell ref="C56:K56"/>
-    <mergeCell ref="D27:K27"/>
-    <mergeCell ref="D30:K30"/>
-    <mergeCell ref="D31:K31"/>
-    <mergeCell ref="D32:K32"/>
-    <mergeCell ref="D49:K49"/>
-    <mergeCell ref="D20:K20"/>
-    <mergeCell ref="D21:K21"/>
-    <mergeCell ref="D22:K22"/>
-    <mergeCell ref="D25:K25"/>
-    <mergeCell ref="D26:K26"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
@@ -5661,64 +5666,64 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A19" sqref="A19:H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="4" max="4" width="9.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="30" customHeight="1">
+    <row r="1" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
-      <c r="A3" s="155" t="s">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A3" s="166" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="155" t="s">
+      <c r="B3" s="166" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="157" t="s">
+      <c r="C3" s="170" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="148"/>
-      <c r="E3" s="149"/>
-      <c r="F3" s="157" t="s">
+      <c r="D3" s="171"/>
+      <c r="E3" s="172"/>
+      <c r="F3" s="170" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="148"/>
-      <c r="H3" s="149"/>
-      <c r="I3" s="157" t="s">
+      <c r="G3" s="171"/>
+      <c r="H3" s="172"/>
+      <c r="I3" s="170" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="148"/>
-      <c r="K3" s="149"/>
-      <c r="L3" s="148" t="s">
+      <c r="J3" s="171"/>
+      <c r="K3" s="172"/>
+      <c r="L3" s="171" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="148"/>
-      <c r="N3" s="149"/>
-      <c r="O3" s="150" t="s">
+      <c r="M3" s="171"/>
+      <c r="N3" s="172"/>
+      <c r="O3" s="168" t="s">
         <v>14</v>
       </c>
-      <c r="P3" s="150"/>
-      <c r="Q3" s="150"/>
-    </row>
-    <row r="4" spans="1:17">
-      <c r="A4" s="156"/>
-      <c r="B4" s="156"/>
+      <c r="P3" s="168"/>
+      <c r="Q3" s="168"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A4" s="167"/>
+      <c r="B4" s="167"/>
       <c r="C4" s="5" t="s">
         <v>15</v>
       </c>
@@ -5765,8 +5770,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
-      <c r="A5" s="150" t="s">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A5" s="168" t="s">
         <v>18</v>
       </c>
       <c r="B5" s="5">
@@ -5815,8 +5820,8 @@
         <v>6806</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
-      <c r="A6" s="150"/>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A6" s="168"/>
       <c r="B6" s="5">
         <v>88</v>
       </c>
@@ -5863,8 +5868,8 @@
         <v>3520</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
-      <c r="A7" s="150"/>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A7" s="168"/>
       <c r="B7" s="5">
         <v>100</v>
       </c>
@@ -5911,8 +5916,8 @@
         <v>26600</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
-      <c r="A8" s="150"/>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A8" s="168"/>
       <c r="B8" s="5" t="s">
         <v>19</v>
       </c>
@@ -5968,8 +5973,8 @@
         <v>36926</v>
       </c>
     </row>
-    <row r="9" spans="1:17" hidden="1">
-      <c r="A9" s="155" t="s">
+    <row r="9" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="166" t="s">
         <v>20</v>
       </c>
       <c r="B9" s="5">
@@ -6015,8 +6020,8 @@
       </c>
       <c r="Q9" s="40"/>
     </row>
-    <row r="10" spans="1:17" hidden="1">
-      <c r="A10" s="156"/>
+    <row r="10" spans="1:17" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="167"/>
       <c r="B10" s="5" t="s">
         <v>19</v>
       </c>
@@ -6069,8 +6074,8 @@
       </c>
       <c r="Q10" s="40"/>
     </row>
-    <row r="11" spans="1:17">
-      <c r="A11" s="150" t="s">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A11" s="168" t="s">
         <v>21</v>
       </c>
       <c r="B11" s="5">
@@ -6122,8 +6127,8 @@
         <v>153600</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
-      <c r="A12" s="150"/>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A12" s="168"/>
       <c r="B12" s="5">
         <v>180</v>
       </c>
@@ -6173,8 +6178,8 @@
         <v>3240</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
-      <c r="A13" s="150"/>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A13" s="168"/>
       <c r="B13" s="5">
         <v>240</v>
       </c>
@@ -6224,8 +6229,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
-      <c r="A14" s="150"/>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A14" s="168"/>
       <c r="B14" s="5" t="s">
         <v>19</v>
       </c>
@@ -6281,7 +6286,7 @@
         <v>156840</v>
       </c>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>95</v>
       </c>
@@ -6289,17 +6294,17 @@
         <v>96</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B17" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="17.100000000000001" customHeight="1">
+    <row r="19" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="20" spans="1:12" s="10" customFormat="1" ht="27.95" customHeight="1">
+    <row r="20" spans="1:12" s="10" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="30" t="s">
         <v>8</v>
       </c>
@@ -6329,8 +6334,8 @@
       <c r="K20" s="39"/>
       <c r="L20" s="39"/>
     </row>
-    <row r="21" spans="1:12">
-      <c r="A21" s="150" t="s">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A21" s="168" t="s">
         <v>18</v>
       </c>
       <c r="B21" s="5">
@@ -6360,8 +6365,8 @@
       <c r="K21" s="34"/>
       <c r="L21" s="34"/>
     </row>
-    <row r="22" spans="1:12">
-      <c r="A22" s="150"/>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A22" s="168"/>
       